--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A26BCA-A8B4-4561-988C-25ECDF6CF549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7476CCB-A0C6-4FF0-A592-3014EEA9B614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1717">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5175,6 +5175,9 @@
   </si>
   <si>
     <t>Y/Y</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -5378,7 +5381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5446,6 +5449,23 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5473,23 +5493,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11234,6 +11241,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66ED336B-143B-490D-898B-F8B180976103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="9525"/>
+          <a:ext cx="0" cy="13668375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99DBC6E-145A-400A-87C4-2B34A2A31C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17535525" y="0"/>
+          <a:ext cx="0" cy="13668375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11534,7 +11646,7 @@
   <dimension ref="B2:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11557,24 +11669,24 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="G5" s="39" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="G5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -11761,11 +11873,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -11782,10 +11894,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="47"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -11802,8 +11914,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -11820,10 +11932,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="47"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -11840,8 +11952,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -11881,11 +11993,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -11902,10 +12014,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="47"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -11922,10 +12034,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="46">
         <v>2008</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="47"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -11940,8 +12052,8 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -11956,8 +12068,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -11972,8 +12084,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12013,10 +12125,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="58"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12030,51 +12142,44 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="53">
         <f>'Financial Model'!T77</f>
         <v>1.4095721757702342</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="54"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="53">
         <f>'Financial Model'!T78</f>
-        <v>16.200254074122757</v>
-      </c>
-      <c r="D34" s="43"/>
+        <v>4.4927117390362339</v>
+      </c>
+      <c r="D34" s="54"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="55">
         <f>'Financial Model'!T79</f>
-        <v>-47.348334201363834</v>
-      </c>
-      <c r="D35" s="45"/>
+        <v>-14.233498713981406</v>
+      </c>
+      <c r="D35" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -12086,6 +12191,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12101,10 +12213,10 @@
   <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
+      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12159,10 +12271,10 @@
       <c r="P1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="27" t="s">
         <v>40</v>
       </c>
       <c r="S1" s="27" t="s">
@@ -12186,7 +12298,7 @@
       <c r="AA1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="27" t="s">
         <v>48</v>
       </c>
       <c r="AC1" s="22" t="s">
@@ -12222,12 +12334,21 @@
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
+      <c r="M2" s="26">
+        <v>44104</v>
+      </c>
+      <c r="N2" s="26">
+        <v>44196</v>
+      </c>
       <c r="O2" s="26">
         <v>44286</v>
       </c>
       <c r="P2" s="26">
         <v>44377</v>
       </c>
+      <c r="Q2" s="26">
+        <v>44469</v>
+      </c>
       <c r="R2" s="26">
         <v>44561</v>
       </c>
@@ -12237,54 +12358,113 @@
       <c r="T2" s="26">
         <v>44742</v>
       </c>
+      <c r="AA2" s="26">
+        <v>44196</v>
+      </c>
+      <c r="AB2" s="26">
+        <v>44561</v>
+      </c>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
+      <c r="Q3" s="25">
+        <v>46661</v>
+      </c>
+      <c r="R3" s="25">
+        <v>39845</v>
+      </c>
       <c r="S3" s="25">
         <v>38108</v>
       </c>
       <c r="T3" s="25">
         <v>38200</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>39845</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="M4" s="29">
+        <v>447.96899999999999</v>
+      </c>
+      <c r="N4" s="29">
+        <v>548.09</v>
+      </c>
       <c r="O4" s="29">
         <v>589.98800000000006</v>
       </c>
       <c r="P4" s="29">
         <v>668.93100000000004</v>
       </c>
+      <c r="Q4" s="29">
+        <v>740.17600000000004</v>
+      </c>
+      <c r="R4" s="29">
+        <v>842.74400000000003</v>
+      </c>
       <c r="S4" s="29">
         <v>875.36300000000006</v>
       </c>
       <c r="T4" s="29">
         <v>943.35400000000004</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>1761.7760000000001</v>
+      </c>
+      <c r="AB4" s="29">
+        <v>2841.8389999999999</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="M5" s="30">
+        <v>217.095</v>
+      </c>
+      <c r="N5" s="30">
+        <v>265.96899999999999</v>
+      </c>
       <c r="O5" s="30">
         <v>291.68400000000003</v>
       </c>
       <c r="P5" s="30">
         <v>337.68400000000003</v>
       </c>
+      <c r="Q5" s="30">
+        <v>375.56099999999998</v>
+      </c>
+      <c r="R5" s="30">
+        <v>446.197</v>
+      </c>
       <c r="S5" s="30">
         <v>450.29199999999997</v>
       </c>
       <c r="T5" s="30">
         <v>498.065</v>
+      </c>
+      <c r="AA5" s="30">
+        <v>846.11500000000001</v>
+      </c>
+      <c r="AB5" s="30">
+        <v>1451.126</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="M6" s="29">
+        <f t="shared" ref="M6" si="0">M4-M5</f>
+        <v>230.874</v>
+      </c>
+      <c r="N6" s="29">
+        <f>N4-N5</f>
+        <v>282.12100000000004</v>
+      </c>
       <c r="O6" s="29">
         <f>O4-O5</f>
         <v>298.30400000000003</v>
@@ -12293,6 +12473,14 @@
         <f>P4-P5</f>
         <v>331.24700000000001</v>
       </c>
+      <c r="Q6" s="29">
+        <f>Q4-Q5</f>
+        <v>364.61500000000007</v>
+      </c>
+      <c r="R6" s="29">
+        <f>R4-R5</f>
+        <v>396.54700000000003</v>
+      </c>
       <c r="S6" s="29">
         <f>S4-S5</f>
         <v>425.07100000000008</v>
@@ -12301,70 +12489,148 @@
         <f>T4-T5</f>
         <v>445.28900000000004</v>
       </c>
+      <c r="AA6" s="29">
+        <f>AA4-AA5</f>
+        <v>915.66100000000006</v>
+      </c>
+      <c r="AB6" s="29">
+        <f>AB4-AB5</f>
+        <v>1390.713</v>
+      </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="M7" s="30">
+        <v>136.65199999999999</v>
+      </c>
+      <c r="N7" s="30">
+        <v>158.85599999999999</v>
+      </c>
       <c r="O7" s="30">
         <v>174.8</v>
       </c>
       <c r="P7" s="30">
         <v>181.28</v>
       </c>
+      <c r="Q7" s="30">
+        <v>209.89</v>
+      </c>
+      <c r="R7" s="30">
+        <v>223.249</v>
+      </c>
       <c r="S7" s="30">
         <v>240.61099999999999</v>
       </c>
       <c r="T7" s="30">
         <v>279.64100000000002</v>
+      </c>
+      <c r="AA7" s="30">
+        <v>530.548</v>
+      </c>
+      <c r="AB7" s="30">
+        <v>789.21900000000005</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="M8" s="30">
+        <v>140.875</v>
+      </c>
+      <c r="N8" s="30">
+        <v>179.98699999999999</v>
+      </c>
       <c r="O8" s="30">
         <v>210.59</v>
       </c>
       <c r="P8" s="30">
         <v>238.05799999999999</v>
       </c>
+      <c r="Q8" s="30">
+        <v>264.548</v>
+      </c>
+      <c r="R8" s="30">
+        <v>331.42200000000003</v>
+      </c>
       <c r="S8" s="30">
         <v>287.90600000000001</v>
       </c>
       <c r="T8" s="30">
         <v>334.95800000000003</v>
+      </c>
+      <c r="AA8" s="30">
+        <v>567.40700000000004</v>
+      </c>
+      <c r="AB8" s="30">
+        <v>1044.6179999999999</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="M9" s="30">
+        <v>65.617000000000004</v>
+      </c>
+      <c r="N9" s="30">
+        <v>128.56899999999999</v>
+      </c>
       <c r="O9" s="30">
         <v>110.253</v>
       </c>
       <c r="P9" s="30">
         <v>114.18300000000001</v>
       </c>
+      <c r="Q9" s="30">
+        <v>122.52200000000001</v>
+      </c>
+      <c r="R9" s="30">
+        <v>125.502</v>
+      </c>
       <c r="S9" s="30">
         <v>114.36199999999999</v>
       </c>
       <c r="T9" s="30">
         <v>142.626</v>
+      </c>
+      <c r="AA9" s="30">
+        <v>310.60700000000003</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>472.46</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="M10" s="30">
+        <f t="shared" ref="M10:O10" si="1">SUM(M7:M9)</f>
+        <v>343.14400000000001</v>
+      </c>
+      <c r="N10" s="30">
+        <f t="shared" si="1"/>
+        <v>467.41199999999992</v>
+      </c>
       <c r="O10" s="30">
-        <f t="shared" ref="O10" si="0">SUM(O7:O9)</f>
+        <f t="shared" si="1"/>
         <v>495.64299999999997</v>
       </c>
       <c r="P10" s="30">
         <f>SUM(P7:P9)</f>
         <v>533.52099999999996</v>
       </c>
+      <c r="Q10" s="30">
+        <f t="shared" ref="Q10" si="2">SUM(Q7:Q9)</f>
+        <v>596.96</v>
+      </c>
+      <c r="R10" s="30">
+        <f t="shared" ref="R10" si="3">SUM(R7:R9)</f>
+        <v>680.173</v>
+      </c>
       <c r="S10" s="30">
         <f>SUM(S7:S9)</f>
         <v>642.87900000000002</v>
@@ -12373,19 +12639,43 @@
         <f>SUM(T7:T9)</f>
         <v>757.22500000000002</v>
       </c>
+      <c r="AA10" s="30">
+        <f t="shared" ref="AA10" si="4">SUM(AA7:AA9)</f>
+        <v>1408.5619999999999</v>
+      </c>
+      <c r="AB10" s="30">
+        <f>SUM(AB7:AB9)</f>
+        <v>2306.297</v>
+      </c>
     </row>
     <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="M11" s="29">
+        <f t="shared" ref="M11:O11" si="5">M6-M10</f>
+        <v>-112.27000000000001</v>
+      </c>
+      <c r="N11" s="29">
+        <f t="shared" si="5"/>
+        <v>-185.29099999999988</v>
+      </c>
       <c r="O11" s="29">
-        <f t="shared" ref="O11" si="1">O6-O10</f>
+        <f t="shared" si="5"/>
         <v>-197.33899999999994</v>
       </c>
       <c r="P11" s="29">
         <f>P6-P10</f>
         <v>-202.27399999999994</v>
       </c>
+      <c r="Q11" s="29">
+        <f t="shared" ref="Q11" si="6">Q6-Q10</f>
+        <v>-232.34499999999997</v>
+      </c>
+      <c r="R11" s="29">
+        <f t="shared" ref="R11" si="7">R6-R10</f>
+        <v>-283.62599999999998</v>
+      </c>
       <c r="S11" s="29">
         <f>S6-S10</f>
         <v>-217.80799999999994</v>
@@ -12394,28 +12684,62 @@
         <f>T6-T10</f>
         <v>-311.93599999999998</v>
       </c>
+      <c r="AA11" s="29">
+        <f t="shared" ref="AA11" si="8">AA6-AA10</f>
+        <v>-492.90099999999984</v>
+      </c>
+      <c r="AB11" s="29">
+        <f>AB6-AB10</f>
+        <v>-915.58400000000006</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M12" s="30">
+        <v>3.996</v>
+      </c>
+      <c r="N12" s="30">
+        <v>9.4260000000000002</v>
+      </c>
       <c r="O12" s="30">
         <v>8.3130000000000006</v>
       </c>
       <c r="P12" s="30">
         <v>24.292999999999999</v>
       </c>
+      <c r="Q12" s="30">
+        <v>6.6130000000000004</v>
+      </c>
+      <c r="R12" s="30">
+        <v>6.1260000000000003</v>
+      </c>
       <c r="S12" s="30">
         <v>6.6769999999999996</v>
       </c>
       <c r="T12" s="30">
         <v>8.2390000000000008</v>
+      </c>
+      <c r="AA12" s="30">
+        <v>11.525</v>
+      </c>
+      <c r="AB12" s="30">
+        <v>45.344999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="M13" s="30">
+        <f t="shared" ref="M13" si="9">M11-M12</f>
+        <v>-116.26600000000001</v>
+      </c>
+      <c r="N13" s="30">
+        <f t="shared" ref="N13" si="10">N11-N12</f>
+        <v>-194.71699999999987</v>
+      </c>
       <c r="O13" s="30">
         <f>O11-O12</f>
         <v>-205.65199999999993</v>
@@ -12424,6 +12748,14 @@
         <f>P11-P12</f>
         <v>-226.56699999999995</v>
       </c>
+      <c r="Q13" s="30">
+        <f>Q11-Q12</f>
+        <v>-238.95799999999997</v>
+      </c>
+      <c r="R13" s="30">
+        <f>R11-R12</f>
+        <v>-289.75199999999995</v>
+      </c>
       <c r="S13" s="30">
         <f>S11-S12</f>
         <v>-224.48499999999993</v>
@@ -12432,28 +12764,62 @@
         <f>T11-T12</f>
         <v>-320.17499999999995</v>
       </c>
+      <c r="AA13" s="30">
+        <f>AA11-AA12</f>
+        <v>-504.42599999999982</v>
+      </c>
+      <c r="AB13" s="30">
+        <f>AB11-AB12</f>
+        <v>-960.92900000000009</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M14" s="30">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="N14" s="30">
+        <v>-15.366</v>
+      </c>
       <c r="O14" s="30">
         <v>0.89</v>
       </c>
       <c r="P14" s="30">
         <v>1.286</v>
       </c>
+      <c r="Q14" s="30">
+        <v>-14.849</v>
+      </c>
+      <c r="R14" s="30">
+        <v>1.6439999999999999</v>
+      </c>
       <c r="S14" s="30">
         <v>-2.8580000000000001</v>
       </c>
       <c r="T14" s="30">
         <v>2.5939999999999999</v>
+      </c>
+      <c r="AA14" s="30">
+        <v>-13.446999999999999</v>
+      </c>
+      <c r="AB14" s="30">
+        <v>-11.029</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="11">M13-M14</f>
+        <v>-116.914</v>
+      </c>
+      <c r="N15" s="29">
+        <f t="shared" ref="N15" si="12">N13-N14</f>
+        <v>-179.35099999999989</v>
+      </c>
       <c r="O15" s="29">
         <f>O13-O14</f>
         <v>-206.54199999999992</v>
@@ -12462,6 +12828,14 @@
         <f>P13-P14</f>
         <v>-227.85299999999995</v>
       </c>
+      <c r="Q15" s="29">
+        <f t="shared" ref="Q15" si="13">Q13-Q14</f>
+        <v>-224.10899999999998</v>
+      </c>
+      <c r="R15" s="29">
+        <f>R13-R14</f>
+        <v>-291.39599999999996</v>
+      </c>
       <c r="S15" s="29">
         <f>S13-S14</f>
         <v>-221.62699999999992</v>
@@ -12470,11 +12844,27 @@
         <f>T13-T14</f>
         <v>-322.76899999999995</v>
       </c>
+      <c r="AA15" s="29">
+        <f>AA13-AA14</f>
+        <v>-490.97899999999981</v>
+      </c>
+      <c r="AB15" s="29">
+        <f>AB13-AB14</f>
+        <v>-949.90000000000009</v>
+      </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="M16" s="28">
+        <f>M15/M17</f>
+        <v>-0.79263151132966325</v>
+      </c>
+      <c r="N16" s="28">
+        <f>N15/N17</f>
+        <v>-1.1323903265248076</v>
+      </c>
       <c r="O16" s="28">
         <f>O15/O17</f>
         <v>-1.2355912544819656</v>
@@ -12483,6 +12873,14 @@
         <f>P15/P17</f>
         <v>-1.3139765974420505</v>
       </c>
+      <c r="Q16" s="28">
+        <f>Q15/Q17</f>
+        <v>-1.2645002263567628</v>
+      </c>
+      <c r="R16" s="28">
+        <f>R15/R17</f>
+        <v>-1.628504773126946</v>
+      </c>
       <c r="S16" s="28">
         <f>S15/S17</f>
         <v>-1.2251441501410789</v>
@@ -12491,145 +12889,311 @@
         <f>T15/T17</f>
         <v>-1.7700728317826633</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA16" s="59">
+        <f>AA15/AA17</f>
+        <v>-3.3466258226346173</v>
+      </c>
+      <c r="AB16" s="59">
+        <f>AB15/AB17</f>
+        <v>-5.4535392358724044</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="M17" s="59">
+        <v>147.50107499999999</v>
+      </c>
+      <c r="N17" s="59">
+        <v>158.382667</v>
+      </c>
       <c r="O17" s="28">
         <v>167.16045800000001</v>
       </c>
       <c r="P17" s="28">
         <v>173.40719799999999</v>
       </c>
+      <c r="Q17" s="59">
+        <v>177.23128500000001</v>
+      </c>
+      <c r="R17" s="28">
+        <v>178.93469200000001</v>
+      </c>
       <c r="S17" s="28">
         <v>180.89871299999999</v>
       </c>
       <c r="T17" s="28">
         <v>182.34786399999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA17" s="59">
+        <v>146.708663</v>
+      </c>
+      <c r="AB17" s="59">
+        <v>174.180465</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="Q19" s="32">
+        <f t="shared" ref="Q19" si="14">Q4/M4-1</f>
+        <v>0.65229290419649577</v>
+      </c>
+      <c r="R19" s="32">
+        <f t="shared" ref="R19" si="15">R4/N4-1</f>
+        <v>0.53760148880658276</v>
+      </c>
       <c r="S19" s="32">
-        <f t="shared" ref="S19" si="2">S4/O4-1</f>
+        <f t="shared" ref="S19" si="16">S4/O4-1</f>
         <v>0.4836962785683776</v>
       </c>
       <c r="T19" s="32">
         <f>T4/P4-1</f>
         <v>0.41024111604933844</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AB19" s="32">
+        <f>AB4/AA4-1</f>
+        <v>0.613053532344634</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="N20" s="31">
+        <f t="shared" ref="N20:O20" si="17">N4/M4-1</f>
+        <v>0.22349984039074133</v>
+      </c>
+      <c r="O20" s="31">
+        <f t="shared" si="17"/>
+        <v>7.6443649765549404E-2</v>
       </c>
       <c r="P20" s="31">
         <f>P4/O4-1</f>
         <v>0.13380441636101059</v>
       </c>
+      <c r="Q20" s="31">
+        <f t="shared" ref="Q20:S20" si="18">Q4/P4-1</f>
+        <v>0.10650575320922484</v>
+      </c>
+      <c r="R20" s="31">
+        <f t="shared" si="18"/>
+        <v>0.13857244763407617</v>
+      </c>
+      <c r="S20" s="31">
+        <f t="shared" si="18"/>
+        <v>3.8705704223346515E-2</v>
+      </c>
       <c r="T20" s="31">
         <f>T4/S4-1</f>
         <v>7.7671777308385259E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Y20" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="Z20" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AA20" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AB20" s="60" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="M22" s="31">
+        <f t="shared" ref="M22:N22" si="19">M6/M4</f>
+        <v>0.51537941241469831</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" ref="N22:O22" si="20">N6/N4</f>
+        <v>0.51473480632742796</v>
+      </c>
       <c r="O22" s="31">
-        <f t="shared" ref="O22:P22" si="3">O6/O4</f>
+        <f t="shared" si="20"/>
         <v>0.50561028359898841</v>
       </c>
       <c r="P22" s="31">
         <f>P6/P4</f>
         <v>0.49518859194745046</v>
       </c>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
+      <c r="Q22" s="31">
+        <f t="shared" ref="Q22:R22" si="21">Q6/Q4</f>
+        <v>0.49260581267158088</v>
+      </c>
+      <c r="R22" s="31">
+        <f t="shared" ref="R22:S22" si="22">R6/R4</f>
+        <v>0.47054265589550326</v>
+      </c>
       <c r="S22" s="31">
-        <f t="shared" ref="S22:T22" si="4">S6/S4</f>
+        <f t="shared" si="22"/>
         <v>0.48559397644177338</v>
       </c>
       <c r="T22" s="31">
         <f>T6/T4</f>
         <v>0.47202746794946543</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA22" s="31">
+        <f t="shared" ref="AA22:AB22" si="23">AA6/AA4</f>
+        <v>0.51973746946263322</v>
+      </c>
+      <c r="AB22" s="31">
+        <f>AB6/AB4</f>
+        <v>0.48937079123764576</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M23" s="31">
+        <f t="shared" ref="M23:N23" si="24">M11/M4</f>
+        <v>-0.25062002058178134</v>
+      </c>
+      <c r="N23" s="31">
+        <f t="shared" ref="N23:O23" si="25">N11/N4</f>
+        <v>-0.33806674086372651</v>
+      </c>
       <c r="O23" s="31">
-        <f t="shared" ref="O23:P23" si="5">O11/O4</f>
+        <f t="shared" si="25"/>
         <v>-0.33447968433256259</v>
       </c>
       <c r="P23" s="31">
         <f>P11/P4</f>
         <v>-0.30238395290396158</v>
       </c>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
+      <c r="Q23" s="31">
+        <f t="shared" ref="Q23:R23" si="26">Q11/Q4</f>
+        <v>-0.3139050712263029</v>
+      </c>
+      <c r="R23" s="31">
+        <f t="shared" ref="R23:S23" si="27">R11/R4</f>
+        <v>-0.33655060136886167</v>
+      </c>
       <c r="S23" s="31">
-        <f t="shared" ref="S23:T23" si="6">S11/S4</f>
+        <f t="shared" si="27"/>
         <v>-0.24882020373262284</v>
       </c>
       <c r="T23" s="31">
         <f>T11/T4</f>
         <v>-0.33066696065315881</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA23" s="31">
+        <f t="shared" ref="AA23:AB23" si="28">AA11/AA4</f>
+        <v>-0.27977506788604217</v>
+      </c>
+      <c r="AB23" s="31">
+        <f>AB11/AB4</f>
+        <v>-0.32218010942914083</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="M24" s="31">
+        <f t="shared" ref="M24:N24" si="29">M15/M4</f>
+        <v>-0.26098680935511165</v>
+      </c>
+      <c r="N24" s="31">
+        <f t="shared" ref="N24:O24" si="30">N15/N4</f>
+        <v>-0.3272291047090804</v>
       </c>
       <c r="O24" s="31">
-        <f t="shared" ref="O24:P24" si="7">O15/O4</f>
+        <f t="shared" si="30"/>
         <v>-0.35007830667742379</v>
       </c>
       <c r="P24" s="31">
         <f>P15/P4</f>
         <v>-0.34062257542257712</v>
       </c>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
+      <c r="Q24" s="31">
+        <f t="shared" ref="Q24:R24" si="31">Q15/Q4</f>
+        <v>-0.30277798793800387</v>
+      </c>
+      <c r="R24" s="31">
+        <f t="shared" ref="R24:S24" si="32">R15/R4</f>
+        <v>-0.34577048308857727</v>
+      </c>
       <c r="S24" s="31">
-        <f t="shared" ref="S24:T24" si="8">S15/S4</f>
+        <f t="shared" si="32"/>
         <v>-0.25318296523842099</v>
       </c>
       <c r="T24" s="31">
         <f>T15/T4</f>
         <v>-0.34215045465435023</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA24" s="31">
+        <f t="shared" ref="AA24:AB24" si="33">AA15/AA4</f>
+        <v>-0.27868412329376707</v>
+      </c>
+      <c r="AB24" s="31">
+        <f>AB15/AB4</f>
+        <v>-0.33425538885207784</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="M25" s="31">
+        <f t="shared" ref="M25:N25" si="34">M14/M13</f>
+        <v>-5.5734264531333323E-3</v>
+      </c>
+      <c r="N25" s="31">
+        <f t="shared" ref="N25:O25" si="35">N14/N13</f>
+        <v>7.891452723696446E-2</v>
       </c>
       <c r="O25" s="31">
-        <f t="shared" ref="O25:P25" si="9">O14/O13</f>
+        <f t="shared" si="35"/>
         <v>-4.3276992200416255E-3</v>
       </c>
       <c r="P25" s="31">
         <f>P14/P13</f>
         <v>-5.6760251934306425E-3</v>
       </c>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
+      <c r="Q25" s="31">
+        <f t="shared" ref="Q25:R25" si="36">Q14/Q13</f>
+        <v>6.2140627223194043E-2</v>
+      </c>
+      <c r="R25" s="31">
+        <f t="shared" ref="R25:S25" si="37">R14/R13</f>
+        <v>-5.6738176095419536E-3</v>
+      </c>
       <c r="S25" s="31">
-        <f t="shared" ref="S25:T25" si="10">S14/S13</f>
+        <f t="shared" si="37"/>
         <v>1.2731362897298265E-2</v>
       </c>
       <c r="T25" s="31">
         <f>T14/T13</f>
         <v>-8.1018193175607101E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA25" s="31">
+        <f t="shared" ref="AA25:AB25" si="38">AA14/AA13</f>
+        <v>2.6658023178821082E-2</v>
+      </c>
+      <c r="AB25" s="31">
+        <f>AB14/AB13</f>
+        <v>1.1477434857309956E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="Q27" s="31">
+        <f t="shared" ref="Q27" si="39">Q7/M7-1</f>
+        <v>0.5359453209612739</v>
+      </c>
+      <c r="R27" s="31">
+        <f t="shared" ref="R27" si="40">R7/N7-1</f>
+        <v>0.40535453492471163</v>
       </c>
       <c r="S27" s="31">
         <f>S7/O7-1</f>
@@ -12639,422 +13203,1304 @@
         <f>T7/P7-1</f>
         <v>0.54259157105030908</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB27" s="31">
+        <f>AB7/AA7-1</f>
+        <v>0.48755437773773536</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="P28" s="57">
+      <c r="N28" s="42">
+        <f t="shared" ref="N28:O28" si="41">N7/M7-1</f>
+        <v>0.16248573017592149</v>
+      </c>
+      <c r="O28" s="42">
+        <f t="shared" si="41"/>
+        <v>0.10036762854409043</v>
+      </c>
+      <c r="P28" s="42">
         <f>P7/O7-1</f>
         <v>3.7070938215102878E-2</v>
       </c>
-      <c r="T28" s="57">
+      <c r="Q28" s="42">
+        <f t="shared" ref="Q28:S28" si="42">Q7/P7-1</f>
+        <v>0.15782215357458074</v>
+      </c>
+      <c r="R28" s="42">
+        <f t="shared" si="42"/>
+        <v>6.3647624946400638E-2</v>
+      </c>
+      <c r="S28" s="42">
+        <f t="shared" si="42"/>
+        <v>7.7769665261658405E-2</v>
+      </c>
+      <c r="T28" s="42">
         <f>T7/S7-1</f>
         <v>0.16221203519373617</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Y28" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="Z28" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AA28" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AB28" s="60" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="O31" s="55">
+      <c r="M31" s="40">
+        <v>208000</v>
+      </c>
+      <c r="N31" s="40">
+        <v>221000</v>
+      </c>
+      <c r="O31" s="40">
         <v>235000</v>
       </c>
-      <c r="P31" s="55">
+      <c r="P31" s="40">
         <v>240000</v>
       </c>
-      <c r="S31" s="55">
+      <c r="Q31" s="40">
+        <v>250000</v>
+      </c>
+      <c r="R31" s="40">
+        <v>256000</v>
+      </c>
+      <c r="S31" s="40">
         <v>268000</v>
       </c>
-      <c r="T31" s="55">
+      <c r="T31" s="40">
         <v>275000</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="54" t="s">
+      <c r="AA31" s="40">
+        <f>N31</f>
+        <v>221000</v>
+      </c>
+      <c r="AB31" s="40">
+        <f>R31</f>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="39" t="s">
         <v>1715</v>
       </c>
-      <c r="P32" s="56"/>
-      <c r="S32" s="57">
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42">
+        <f t="shared" ref="Q32" si="43">Q31/M31-1</f>
+        <v>0.20192307692307687</v>
+      </c>
+      <c r="R32" s="42">
+        <f>R31/N31-1</f>
+        <v>0.158371040723982</v>
+      </c>
+      <c r="S32" s="42">
         <f>S31/O31-1</f>
         <v>0.14042553191489371</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="42">
         <f>T31/P31-1</f>
         <v>0.14583333333333326</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="54" t="s">
+      <c r="AB32" s="42">
+        <f>AB31/AA31-1</f>
+        <v>0.158371040723982</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
         <v>1714</v>
       </c>
-      <c r="P33" s="57">
-        <f>P31/O31-1</f>
+      <c r="N33" s="42">
+        <f t="shared" ref="N33:R33" si="44">N31/M31-1</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O33" s="42">
+        <f t="shared" si="44"/>
+        <v>6.3348416289592757E-2</v>
+      </c>
+      <c r="P33" s="42">
+        <f t="shared" si="44"/>
         <v>2.1276595744680771E-2</v>
       </c>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57">
+      <c r="Q33" s="42">
+        <f t="shared" si="44"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="R33" s="42">
+        <f t="shared" ref="R33:S33" si="45">R31/Q31-1</f>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="S33" s="42">
+        <f t="shared" si="45"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="T33" s="42">
         <f>T31/S31-1</f>
         <v>2.6119402985074647E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Y33" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="Z33" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AA33" s="60" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AB33" s="60" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="S34" s="55">
+      <c r="Q34" s="40">
+        <v>7381</v>
+      </c>
+      <c r="R34" s="40">
+        <v>7867</v>
+      </c>
+      <c r="S34" s="40">
         <v>8199</v>
       </c>
-      <c r="T34" s="55">
+      <c r="T34" s="40">
         <v>8510</v>
       </c>
       <c r="V34" s="30"/>
-    </row>
-    <row r="35" spans="2:22" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+      <c r="AA34" s="1">
+        <f>N34</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="40">
+        <f>R34</f>
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="39" t="s">
         <v>1713</v>
       </c>
-      <c r="P35" s="58" t="e">
-        <f>P4/P34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="58">
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43">
+        <f>Q4/Q34</f>
+        <v>0.10028126270153097</v>
+      </c>
+      <c r="R35" s="43">
+        <f>R4/R34</f>
+        <v>0.10712393542646498</v>
+      </c>
+      <c r="S35" s="43">
         <f>S4/S34</f>
         <v>0.10676460543968777</v>
       </c>
-      <c r="T35" s="58">
+      <c r="T35" s="43">
         <f>T4/T34</f>
         <v>0.1108524089306698</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA35" s="43" t="e">
+        <f>AA4/AA34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="43">
+        <f>AB4/AB34</f>
+        <v>0.36123541375365448</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="N40" s="29">
+        <v>933.88499999999999</v>
+      </c>
+      <c r="Q40" s="29">
+        <v>1497.498</v>
+      </c>
+      <c r="R40" s="29">
+        <v>1479.452</v>
+      </c>
+      <c r="S40" s="29">
+        <v>1617.0219999999999</v>
+      </c>
       <c r="T40" s="29">
         <v>798.625</v>
       </c>
-    </row>
-    <row r="41" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA40" s="29">
+        <f>N40</f>
+        <v>933.88499999999999</v>
+      </c>
+      <c r="AB40" s="29">
+        <f>R40</f>
+        <v>1479.452</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="N41" s="29">
+        <v>2105.9059999999999</v>
+      </c>
+      <c r="Q41" s="29">
+        <v>3896.7539999999999</v>
+      </c>
+      <c r="R41" s="29">
+        <v>3878.43</v>
+      </c>
+      <c r="S41" s="29">
+        <v>3606.29</v>
+      </c>
       <c r="T41" s="29">
         <v>3593.6590000000001</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA41" s="29">
+        <f t="shared" ref="AA41" si="46">N41</f>
+        <v>2105.9059999999999</v>
+      </c>
+      <c r="AB41" s="29">
+        <f>R41</f>
+        <v>3878.43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="N42" s="30">
+        <v>251.167</v>
+      </c>
+      <c r="Q42" s="30">
+        <v>345.79300000000001</v>
+      </c>
+      <c r="R42" s="30">
+        <v>388.21499999999997</v>
+      </c>
+      <c r="S42" s="30">
+        <v>406.73599999999999</v>
+      </c>
       <c r="T42" s="30">
         <v>471.91500000000002</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA42" s="30">
+        <f>N42</f>
+        <v>251.167</v>
+      </c>
+      <c r="AB42" s="30">
+        <f>R42</f>
+        <v>388.21499999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N43" s="30">
+        <v>81.376999999999995</v>
+      </c>
+      <c r="Q43" s="30">
+        <v>165.76</v>
+      </c>
+      <c r="R43" s="30">
+        <v>186.131</v>
+      </c>
+      <c r="S43" s="30">
+        <v>201.142</v>
+      </c>
       <c r="T43" s="30">
         <v>240.19200000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA43" s="30">
+        <f t="shared" ref="AA43" si="47">N43</f>
+        <v>81.376999999999995</v>
+      </c>
+      <c r="AB43" s="30">
+        <f t="shared" ref="AB43" si="48">R43</f>
+        <v>186.131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="N44" s="30">
+        <f>SUM(N40:N43)</f>
+        <v>3372.335</v>
+      </c>
+      <c r="Q44" s="30">
+        <f>SUM(Q40:Q43)</f>
+        <v>5905.8050000000003</v>
+      </c>
+      <c r="R44" s="30">
+        <f>SUM(R40:R43)</f>
+        <v>5932.2280000000001</v>
+      </c>
+      <c r="S44" s="30">
+        <f>SUM(S40:S43)</f>
+        <v>5831.19</v>
       </c>
       <c r="T44" s="30">
         <f>SUM(T40:T43)</f>
         <v>5104.3909999999996</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA44" s="30">
+        <f t="shared" ref="AA44:AB44" si="49">SUM(AA40:AA43)</f>
+        <v>3372.335</v>
+      </c>
+      <c r="AB44" s="30">
+        <f t="shared" si="49"/>
+        <v>5932.2280000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="N45" s="30">
+        <v>183.239</v>
+      </c>
+      <c r="Q45" s="30">
+        <v>237.24100000000001</v>
+      </c>
+      <c r="R45" s="30">
+        <v>255.316</v>
+      </c>
+      <c r="S45" s="30">
+        <v>259.00299999999999</v>
+      </c>
       <c r="T45" s="30">
         <v>264.767</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA45" s="30">
+        <f t="shared" ref="AA45:AA49" si="50">N45</f>
+        <v>183.239</v>
+      </c>
+      <c r="AB45" s="30">
+        <f t="shared" ref="AB45:AB49" si="51">R45</f>
+        <v>255.316</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="N46" s="30">
+        <v>258.61</v>
+      </c>
+      <c r="Q46" s="30">
+        <v>248.58199999999999</v>
+      </c>
+      <c r="R46" s="30">
+        <v>234.584</v>
+      </c>
+      <c r="S46" s="30">
+        <v>225.95099999999999</v>
+      </c>
       <c r="T46" s="30">
         <v>213.464</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA46" s="30">
+        <f t="shared" si="50"/>
+        <v>258.61</v>
+      </c>
+      <c r="AB46" s="30">
+        <f t="shared" si="51"/>
+        <v>234.584</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="N47" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="30">
+        <v>0</v>
+      </c>
+      <c r="R47" s="30">
+        <v>0</v>
+      </c>
+      <c r="S47" s="30">
+        <v>0</v>
+      </c>
       <c r="T47" s="30">
         <v>750</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AA47" s="30">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="30">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="N48" s="30">
+        <f>966.573+4595.394</f>
+        <v>5561.9670000000006</v>
+      </c>
+      <c r="Q48" s="30">
+        <f>1102.599+5263.051</f>
+        <v>6365.6500000000005</v>
+      </c>
+      <c r="R48" s="30">
+        <f>1050.012+5263.166</f>
+        <v>6313.1779999999999</v>
+      </c>
+      <c r="S48" s="30">
+        <f>1006.692+5286.683</f>
+        <v>6293.375</v>
       </c>
       <c r="T48" s="30">
         <f>953.522+5285.563</f>
         <v>6239.085</v>
       </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA48" s="30">
+        <f t="shared" si="50"/>
+        <v>5561.9670000000006</v>
+      </c>
+      <c r="AB48" s="30">
+        <f t="shared" si="51"/>
+        <v>6313.1779999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="N49" s="30">
+        <v>111.282</v>
+      </c>
+      <c r="Q49" s="30">
+        <v>219.56899999999999</v>
+      </c>
+      <c r="R49" s="30">
+        <v>263.29199999999997</v>
+      </c>
+      <c r="S49" s="30">
+        <v>281.28300000000002</v>
+      </c>
       <c r="T49" s="30">
         <v>297.52199999999999</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA49" s="30">
+        <f t="shared" si="50"/>
+        <v>111.282</v>
+      </c>
+      <c r="AB49" s="30">
+        <f t="shared" si="51"/>
+        <v>263.29199999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="N50" s="30">
+        <f>N44+SUM(N45:N49)</f>
+        <v>9487.4330000000009</v>
+      </c>
+      <c r="Q50" s="30">
+        <f>Q44+SUM(Q45:Q49)</f>
+        <v>12976.847000000002</v>
+      </c>
+      <c r="R50" s="30">
+        <f>R44+SUM(R45:R49)</f>
+        <v>12998.598</v>
+      </c>
+      <c r="S50" s="30">
+        <f>S44+SUM(S45:S49)</f>
+        <v>12890.802</v>
       </c>
       <c r="T50" s="30">
         <f>T44+SUM(T45:T49)</f>
         <v>12869.228999999999</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA50" s="30">
+        <f t="shared" ref="AA50:AB50" si="52">AA44+SUM(AA45:AA49)</f>
+        <v>9487.4330000000009</v>
+      </c>
+      <c r="AB50" s="30">
+        <f t="shared" si="52"/>
+        <v>12998.598</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="N51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="S51" s="30"/>
       <c r="T51" s="30"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="N52" s="30">
+        <v>60.042000000000002</v>
+      </c>
+      <c r="Q52" s="30">
+        <v>76.293000000000006</v>
+      </c>
+      <c r="R52" s="30">
+        <v>93.332999999999998</v>
+      </c>
+      <c r="S52" s="30">
+        <v>93.388999999999996</v>
+      </c>
       <c r="T52" s="30">
         <v>102.039</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA52" s="30">
+        <f t="shared" ref="AA52:AA57" si="53">N52</f>
+        <v>60.042000000000002</v>
+      </c>
+      <c r="AB52" s="30">
+        <f t="shared" ref="AB52:AB55" si="54">R52</f>
+        <v>93.332999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="N53" s="30">
+        <v>252.89500000000001</v>
+      </c>
+      <c r="Q53" s="30">
+        <v>368.863</v>
+      </c>
+      <c r="R53" s="30">
+        <v>417.50299999999999</v>
+      </c>
+      <c r="S53" s="30">
+        <v>433.66800000000001</v>
+      </c>
       <c r="T53" s="30">
         <v>504.81</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA53" s="30">
+        <f t="shared" si="53"/>
+        <v>252.89500000000001</v>
+      </c>
+      <c r="AB53" s="30">
+        <f t="shared" si="54"/>
+        <v>417.50299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="N54" s="30">
+        <v>87.031000000000006</v>
+      </c>
+      <c r="Q54" s="30">
+        <v>121.337</v>
+      </c>
+      <c r="R54" s="30">
+        <v>140.38900000000001</v>
+      </c>
+      <c r="S54" s="30">
+        <v>139.67099999999999</v>
+      </c>
       <c r="T54" s="30">
         <v>137.72800000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA54" s="30">
+        <f t="shared" si="53"/>
+        <v>87.031000000000006</v>
+      </c>
+      <c r="AB54" s="30">
+        <f t="shared" si="54"/>
+        <v>140.38900000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="N55" s="30">
+        <v>48.338000000000001</v>
+      </c>
+      <c r="Q55" s="30">
+        <v>50.76</v>
+      </c>
+      <c r="R55" s="30">
+        <v>52.325000000000003</v>
+      </c>
+      <c r="S55" s="30">
+        <v>53.094000000000001</v>
+      </c>
       <c r="T55" s="30">
         <v>50.743000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA55" s="30">
+        <f t="shared" si="53"/>
+        <v>48.338000000000001</v>
+      </c>
+      <c r="AB55" s="30">
+        <f t="shared" si="54"/>
+        <v>52.325000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="N56" s="30">
+        <f>SUM(N52:N55)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="Q56" s="30">
+        <v>617.07299999999998</v>
+      </c>
+      <c r="R56" s="30">
+        <f>SUM(R52:R55)</f>
+        <v>703.55000000000007</v>
+      </c>
+      <c r="S56" s="30">
+        <f>SUM(S52:S55)</f>
+        <v>719.82200000000012</v>
       </c>
       <c r="T56" s="30">
         <f>SUM(T52:T55)</f>
         <v>795.32</v>
       </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA56" s="30">
+        <f t="shared" ref="AA56:AB56" si="55">SUM(AA52:AA55)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="AB56" s="30">
+        <f t="shared" si="55"/>
+        <v>703.55000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="N57" s="30">
+        <v>229.905</v>
+      </c>
+      <c r="Q57" s="30">
+        <v>223.03299999999999</v>
+      </c>
+      <c r="R57" s="30">
+        <v>211.25299999999999</v>
+      </c>
+      <c r="S57" s="30">
+        <v>201.35400000000001</v>
+      </c>
       <c r="T57" s="30">
         <v>189.06800000000001</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="30">
+        <f t="shared" si="53"/>
+        <v>229.905</v>
+      </c>
+      <c r="AB57" s="30">
+        <f t="shared" ref="AB57" si="56">R57</f>
+        <v>211.25299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="N58" s="29">
+        <v>17.856000000000002</v>
+      </c>
+      <c r="Q58" s="29">
+        <v>20.254000000000001</v>
+      </c>
+      <c r="R58" s="29">
+        <v>25.132000000000001</v>
+      </c>
+      <c r="S58" s="29">
+        <v>22.053000000000001</v>
+      </c>
       <c r="T58" s="29">
         <v>18.934999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA58" s="29">
+        <f t="shared" ref="AA58" si="57">N58</f>
+        <v>17.856000000000002</v>
+      </c>
+      <c r="AB58" s="29">
+        <f>R58</f>
+        <v>25.132000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="N59" s="29">
+        <v>302.06799999999998</v>
+      </c>
+      <c r="Q59" s="29">
+        <v>985.54700000000003</v>
+      </c>
+      <c r="R59" s="29">
+        <v>985.90700000000004</v>
+      </c>
+      <c r="S59" s="29">
+        <v>986.24300000000005</v>
+      </c>
       <c r="T59" s="29">
         <v>986.61900000000003</v>
       </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA59" s="29">
+        <f t="shared" ref="AA59:AA60" si="58">N59</f>
+        <v>302.06799999999998</v>
+      </c>
+      <c r="AB59" s="29">
+        <f t="shared" ref="AB59:AB60" si="59">R59</f>
+        <v>985.90700000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="N60" s="30">
+        <v>36.633000000000003</v>
+      </c>
+      <c r="Q60" s="30">
+        <v>49.191000000000003</v>
+      </c>
+      <c r="R60" s="30">
+        <v>41.29</v>
+      </c>
+      <c r="S60" s="30">
+        <v>43.896999999999998</v>
+      </c>
       <c r="T60" s="30">
         <v>37.292000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA60" s="30">
+        <f t="shared" si="58"/>
+        <v>36.633000000000003</v>
+      </c>
+      <c r="AB60" s="30">
+        <f t="shared" si="59"/>
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="N61" s="30">
+        <f>SUM(N57:N60)+N56</f>
+        <v>1034.768</v>
+      </c>
+      <c r="Q61" s="30">
+        <f>SUM(Q57:Q60)+Q56</f>
+        <v>1895.098</v>
+      </c>
+      <c r="R61" s="30">
+        <f>SUM(R57:R60)+R56</f>
+        <v>1967.1320000000001</v>
+      </c>
+      <c r="S61" s="30">
+        <f>SUM(S57:S60)+S56</f>
+        <v>1973.3690000000001</v>
       </c>
       <c r="T61" s="30">
         <f>SUM(T57:T60)+T56</f>
         <v>2027.2339999999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA61" s="30">
+        <f>SUM(AA57:AA60)+AA56</f>
+        <v>1034.768</v>
+      </c>
+      <c r="AB61" s="30">
+        <f>SUM(AB57:AB60)+AB56</f>
+        <v>1967.1320000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="T62" s="30"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="N63" s="30">
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="Q63" s="30">
+        <v>11081.749</v>
+      </c>
+      <c r="R63" s="30">
+        <v>11031.466</v>
+      </c>
+      <c r="S63" s="30">
+        <v>10917.433000000001</v>
+      </c>
       <c r="T63" s="30">
         <v>10841.995000000001</v>
       </c>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA63" s="30">
+        <f>N63</f>
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="AB63" s="30">
+        <f>R63</f>
+        <v>11031.466</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="N64" s="30">
+        <f>N63+N61</f>
+        <v>9487.4330000000009</v>
+      </c>
+      <c r="Q64" s="30">
+        <f>Q63+Q61</f>
+        <v>12976.847</v>
+      </c>
+      <c r="R64" s="30">
+        <f>R63+R61</f>
+        <v>12998.598</v>
+      </c>
+      <c r="S64" s="30">
+        <f>S63+S61</f>
+        <v>12890.802000000001</v>
       </c>
       <c r="T64" s="30">
         <f>T63+T61</f>
         <v>12869.229000000001</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA64" s="30">
+        <f>AA63+AA61</f>
+        <v>9487.4330000000009</v>
+      </c>
+      <c r="AB64" s="30">
+        <f>AB63+AB61</f>
+        <v>12998.598</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="N66" s="30">
+        <f t="shared" ref="N66" si="60">N50-N61</f>
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="Q66" s="30">
+        <f t="shared" ref="Q66:R66" si="61">Q50-Q61</f>
+        <v>11081.749000000002</v>
+      </c>
+      <c r="R66" s="30">
+        <f t="shared" si="61"/>
+        <v>11031.466</v>
+      </c>
+      <c r="S66" s="30">
+        <f t="shared" ref="S66" si="62">S50-S61</f>
+        <v>10917.432999999999</v>
       </c>
       <c r="T66" s="30">
         <f>T50-T61</f>
         <v>10841.994999999999</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA66" s="30">
+        <f>AA50-AA61</f>
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="AB66" s="30">
+        <f>AB50-AB61</f>
+        <v>11031.466</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" ref="N67" si="63">N66/N17</f>
+        <v>53.368623979541908</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67" si="64">Q66/Q17</f>
+        <v>62.527047637215972</v>
+      </c>
+      <c r="R67" s="1">
+        <f t="shared" ref="R67" si="65">R66/R17</f>
+        <v>61.650794916840383</v>
+      </c>
+      <c r="S67" s="1">
+        <f t="shared" ref="S67" si="66">S66/S17</f>
+        <v>60.351081657501894</v>
       </c>
       <c r="T67" s="1">
         <f>T66/T17</f>
         <v>59.457757070299436</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="1">
+        <f>AA66/AA17</f>
+        <v>57.615309329074869</v>
+      </c>
+      <c r="AB67" s="1">
+        <f>AB66/AB17</f>
+        <v>63.333543173168131</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="35" t="s">
         <v>6</v>
+      </c>
+      <c r="N69" s="36">
+        <f>N40+N41</f>
+        <v>3039.7910000000002</v>
+      </c>
+      <c r="Q69" s="36">
+        <f t="shared" ref="Q69:R69" si="67">Q40+Q41</f>
+        <v>5394.2520000000004</v>
+      </c>
+      <c r="R69" s="36">
+        <f>R40+R41</f>
+        <v>5357.8819999999996</v>
+      </c>
+      <c r="S69" s="36">
+        <f>S40+S41</f>
+        <v>5223.3119999999999</v>
       </c>
       <c r="T69" s="36">
         <f>T40+T41</f>
         <v>4392.2839999999997</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA69" s="36">
+        <f>N69</f>
+        <v>3039.7910000000002</v>
+      </c>
+      <c r="AB69" s="36">
+        <f>R69</f>
+        <v>5357.8819999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>7</v>
+      </c>
+      <c r="N70" s="36">
+        <f>N58+N59</f>
+        <v>319.92399999999998</v>
+      </c>
+      <c r="Q70" s="36">
+        <f t="shared" ref="Q70:R70" si="68">Q58+Q59</f>
+        <v>1005.801</v>
+      </c>
+      <c r="R70" s="36">
+        <f>R58+R59</f>
+        <v>1011.039</v>
+      </c>
+      <c r="S70" s="36">
+        <f>S58+S59</f>
+        <v>1008.296</v>
       </c>
       <c r="T70" s="36">
         <f>T58+T59</f>
         <v>1005.554</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA70" s="36">
+        <f>N70</f>
+        <v>319.92399999999998</v>
+      </c>
+      <c r="AB70" s="36">
+        <f>R70</f>
+        <v>1011.039</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="N71" s="30">
+        <f t="shared" ref="N71" si="69">N69-N70</f>
+        <v>2719.8670000000002</v>
+      </c>
+      <c r="Q71" s="30">
+        <f t="shared" ref="Q71" si="70">Q69-Q70</f>
+        <v>4388.451</v>
+      </c>
+      <c r="R71" s="30">
+        <f t="shared" ref="R71" si="71">R69-R70</f>
+        <v>4346.8429999999998</v>
+      </c>
+      <c r="S71" s="30">
+        <f t="shared" ref="S71" si="72">S69-S70</f>
+        <v>4215.0159999999996</v>
       </c>
       <c r="T71" s="30">
         <f>T69-T70</f>
         <v>3386.7299999999996</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA71" s="30">
+        <f>AA69-AA70</f>
+        <v>2719.8670000000002</v>
+      </c>
+      <c r="AB71" s="30">
+        <f>AB69-AB70</f>
+        <v>4346.8429999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M73" s="1">
+        <v>247.09</v>
+      </c>
+      <c r="N73" s="59">
+        <v>338.5</v>
+      </c>
+      <c r="O73" s="1">
+        <v>340.76</v>
+      </c>
       <c r="P73" s="1">
         <v>394.16</v>
       </c>
+      <c r="Q73" s="1">
+        <v>319.05</v>
+      </c>
       <c r="R73" s="1">
         <v>263.33999999999997</v>
       </c>
+      <c r="S73" s="1">
+        <v>164.81</v>
+      </c>
       <c r="T73" s="1">
         <v>83.81</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA73" s="59">
+        <f>N73</f>
+        <v>338.5</v>
+      </c>
+      <c r="AB73" s="1">
+        <f>R73</f>
+        <v>263.33999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="M74" s="30">
+        <f>M73*M17</f>
+        <v>36446.040621749999</v>
+      </c>
+      <c r="N74" s="30">
+        <f>N73*N17</f>
+        <v>53612.532779499998</v>
+      </c>
+      <c r="O74" s="30">
+        <f>O73*O17</f>
+        <v>56961.597668080001</v>
       </c>
       <c r="P74" s="30">
         <f>P73*P17</f>
         <v>68350.181163679998</v>
       </c>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="30"/>
+      <c r="Q74" s="30">
+        <f>Q73*Q17</f>
+        <v>56545.641479250007</v>
+      </c>
+      <c r="R74" s="30">
+        <f>R73*R17</f>
+        <v>47120.661791279999</v>
+      </c>
+      <c r="S74" s="30">
+        <f>S73*S17</f>
+        <v>29813.916889529999</v>
+      </c>
       <c r="T74" s="30">
         <f>T73*T17</f>
         <v>15282.57448184</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA74" s="30">
+        <f>AA73*AA17</f>
+        <v>49660.8824255</v>
+      </c>
+      <c r="AB74" s="30">
+        <f>AB73*AB17</f>
+        <v>45868.683653099994</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N75" s="30">
+        <f t="shared" ref="N75" si="73">N74-N71</f>
+        <v>50892.665779499999</v>
+      </c>
       <c r="P75" s="30"/>
       <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
+      <c r="R75" s="30">
+        <f t="shared" ref="R75" si="74">R74-R71</f>
+        <v>42773.818791279999</v>
+      </c>
+      <c r="S75" s="30">
+        <f t="shared" ref="S75" si="75">S74-S71</f>
+        <v>25598.900889529999</v>
+      </c>
       <c r="T75" s="30">
         <f>T74-T71</f>
         <v>11895.84448184</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA75" s="30">
+        <f t="shared" ref="AA75" si="76">AA74-AA71</f>
+        <v>46941.015425500002</v>
+      </c>
+      <c r="AB75" s="30">
+        <f t="shared" ref="AB75" si="77">AB74-AB71</f>
+        <v>41521.840653099993</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="N77" s="37">
+        <f>N73/N67</f>
+        <v>6.3426780523657325</v>
+      </c>
+      <c r="Q77" s="37">
+        <f t="shared" ref="Q77:R77" si="78">Q73/Q67</f>
+        <v>5.1025917911739382</v>
+      </c>
+      <c r="R77" s="37">
+        <f>R73/R67</f>
+        <v>4.2714777701603754</v>
+      </c>
+      <c r="S77" s="37">
+        <f>S73/S67</f>
+        <v>2.730854120151688</v>
       </c>
       <c r="T77" s="37">
         <f>T73/T67</f>
         <v>1.4095721757702342</v>
       </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA77" s="37">
+        <f>AA73/AA67</f>
+        <v>5.8751745663054189</v>
+      </c>
+      <c r="AB77" s="37">
+        <f>AB73/AB67</f>
+        <v>4.1579862235082805</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="N78" s="37">
+        <f t="shared" ref="N78" si="79">N74/SUM(K4:N4)</f>
+        <v>53.82465574780209</v>
+      </c>
+      <c r="Q78" s="37">
+        <f t="shared" ref="Q78" si="80">Q74/SUM(N4:Q4)</f>
+        <v>22.199267614739412</v>
+      </c>
+      <c r="R78" s="37">
+        <f t="shared" ref="R78:S78" si="81">R74/SUM(O4:R4)</f>
+        <v>16.581045510065838</v>
+      </c>
+      <c r="S78" s="37">
+        <f t="shared" si="81"/>
+        <v>9.5336989696036145</v>
+      </c>
       <c r="T78" s="37">
-        <f>T74/T4</f>
-        <v>16.200254074122757</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+        <f>T74/SUM(Q4:T4)</f>
+        <v>4.4927117390362339</v>
+      </c>
+      <c r="AA78" s="37">
+        <f>AA74/AA4</f>
+        <v>28.187966248546921</v>
+      </c>
+      <c r="AB78" s="37">
+        <f>AB74/AB4</f>
+        <v>16.140493410464138</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="N79" s="37">
+        <f t="shared" ref="N79" si="82">N73/SUM(K16:N16)</f>
+        <v>-175.84216103089744</v>
+      </c>
+      <c r="Q79" s="37">
+        <f t="shared" ref="Q79" si="83">Q73/SUM(N16:Q16)</f>
+        <v>-64.500694009685063</v>
+      </c>
+      <c r="R79" s="37">
+        <f t="shared" ref="R79:S79" si="84">R73/SUM(O16:R16)</f>
+        <v>-48.385204422553002</v>
+      </c>
+      <c r="S79" s="37">
+        <f t="shared" si="84"/>
+        <v>-30.339872026893296</v>
+      </c>
       <c r="T79" s="37">
-        <f>T73/T16</f>
-        <v>-47.348334201363834</v>
+        <f>T73/SUM(Q16:T16)</f>
+        <v>-14.233498713981406</v>
+      </c>
+      <c r="AA79" s="37">
+        <f>AA73/AA16</f>
+        <v>-101.14665276009771</v>
+      </c>
+      <c r="AB79" s="37">
+        <f>AB73/AB16</f>
+        <v>-48.287907835666907</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T1" r:id="rId1" xr:uid="{A7A5BBDF-38B5-4BC3-94A5-ED2C969CF757}"/>
     <hyperlink ref="S1" r:id="rId2" xr:uid="{A6D6F957-F960-45B2-92A0-A41F2E0A1924}"/>
+    <hyperlink ref="R1" r:id="rId3" xr:uid="{A293EABB-9A75-4B29-8553-BB352A36DBB6}"/>
+    <hyperlink ref="AB1" r:id="rId4" xr:uid="{442A1034-B338-4801-AF1E-61BA7E0E77AC}"/>
+    <hyperlink ref="Q1" r:id="rId5" xr:uid="{BA74861F-598C-41FE-BE22-C6AA1B8966A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <ignoredErrors>
+    <ignoredError sqref="AA44:AB44 AA56:AB56" formula="1"/>
+    <ignoredError sqref="N78:P78 S78:T78 Q78:R78" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -13062,13 +14508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C88468-B575-4B07-B1E2-1E3BE5EA25D5}">
   <dimension ref="A1:G1596"/>
   <sheetViews>
-    <sheetView topLeftCell="A1552" workbookViewId="0">
-      <selection activeCell="E1596" sqref="E1596"/>
+    <sheetView topLeftCell="A1016" workbookViewId="0">
+      <selection activeCell="F1046" sqref="F1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7476CCB-A0C6-4FF0-A592-3014EEA9B614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D7F15-5151-4503-80F3-7D1678541F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5156,9 +5156,6 @@
     <t>2022-10-21T00:00:00.000Z</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Non-Finance Metrics</t>
   </si>
   <si>
@@ -5178,6 +5175,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Web Services &amp; APIs for making &amp; receiving phone calls, sending &amp; receiving SMS &amp; performing other communication functions</t>
   </si>
 </sst>
 </file>
@@ -5262,7 +5262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5284,6 +5284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5381,7 +5387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5456,16 +5462,10 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5493,9 +5493,18 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5504,6 +5513,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11643,10 +11657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
-  <dimension ref="B2:S35"/>
+  <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11654,41 +11668,52 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="S2" s="1" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="G2" s="61" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="G5" s="50" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -11708,7 +11733,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -11732,7 +11757,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -11753,7 +11778,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -11777,7 +11802,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -11801,7 +11826,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -11825,7 +11850,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -11846,7 +11871,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="G13" s="20"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -11859,7 +11884,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="G14" s="20"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -11872,12 +11897,12 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="50" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -11890,14 +11915,14 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="56"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -11914,8 +11939,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -11932,10 +11957,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="56"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -11952,8 +11977,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -11993,11 +12018,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12014,10 +12039,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="56"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12034,10 +12059,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="55">
         <v>2008</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="56"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12052,8 +12077,8 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12068,8 +12093,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12084,8 +12109,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12125,10 +12150,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="58"/>
+      <c r="D29" s="54"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12142,44 +12167,52 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="49">
         <f>'Financial Model'!T77</f>
         <v>1.4095721757702342</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="49">
         <f>'Financial Model'!T78</f>
         <v>4.4927117390362339</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="51">
         <f>'Financial Model'!T79</f>
         <v>-14.233498713981406</v>
       </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -12191,13 +12224,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12212,11 +12238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12462,31 +12488,31 @@
         <v>230.874</v>
       </c>
       <c r="N6" s="29">
-        <f>N4-N5</f>
+        <f t="shared" ref="N6:T6" si="1">N4-N5</f>
         <v>282.12100000000004</v>
       </c>
       <c r="O6" s="29">
-        <f>O4-O5</f>
+        <f t="shared" si="1"/>
         <v>298.30400000000003</v>
       </c>
       <c r="P6" s="29">
-        <f>P4-P5</f>
+        <f t="shared" si="1"/>
         <v>331.24700000000001</v>
       </c>
       <c r="Q6" s="29">
-        <f>Q4-Q5</f>
+        <f t="shared" si="1"/>
         <v>364.61500000000007</v>
       </c>
       <c r="R6" s="29">
-        <f>R4-R5</f>
+        <f t="shared" si="1"/>
         <v>396.54700000000003</v>
       </c>
       <c r="S6" s="29">
-        <f>S4-S5</f>
+        <f t="shared" si="1"/>
         <v>425.07100000000008</v>
       </c>
       <c r="T6" s="29">
-        <f>T4-T5</f>
+        <f t="shared" si="1"/>
         <v>445.28900000000004</v>
       </c>
       <c r="AA6" s="29">
@@ -12608,15 +12634,15 @@
         <v>65</v>
       </c>
       <c r="M10" s="30">
-        <f t="shared" ref="M10:O10" si="1">SUM(M7:M9)</f>
+        <f t="shared" ref="M10:O10" si="2">SUM(M7:M9)</f>
         <v>343.14400000000001</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>467.41199999999992</v>
       </c>
       <c r="O10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>495.64299999999997</v>
       </c>
       <c r="P10" s="30">
@@ -12624,11 +12650,11 @@
         <v>533.52099999999996</v>
       </c>
       <c r="Q10" s="30">
-        <f t="shared" ref="Q10" si="2">SUM(Q7:Q9)</f>
+        <f t="shared" ref="Q10" si="3">SUM(Q7:Q9)</f>
         <v>596.96</v>
       </c>
       <c r="R10" s="30">
-        <f t="shared" ref="R10" si="3">SUM(R7:R9)</f>
+        <f t="shared" ref="R10" si="4">SUM(R7:R9)</f>
         <v>680.173</v>
       </c>
       <c r="S10" s="30">
@@ -12640,7 +12666,7 @@
         <v>757.22500000000002</v>
       </c>
       <c r="AA10" s="30">
-        <f t="shared" ref="AA10" si="4">SUM(AA7:AA9)</f>
+        <f t="shared" ref="AA10" si="5">SUM(AA7:AA9)</f>
         <v>1408.5619999999999</v>
       </c>
       <c r="AB10" s="30">
@@ -12653,15 +12679,15 @@
         <v>66</v>
       </c>
       <c r="M11" s="29">
-        <f t="shared" ref="M11:O11" si="5">M6-M10</f>
+        <f t="shared" ref="M11:O11" si="6">M6-M10</f>
         <v>-112.27000000000001</v>
       </c>
       <c r="N11" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-185.29099999999988</v>
       </c>
       <c r="O11" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-197.33899999999994</v>
       </c>
       <c r="P11" s="29">
@@ -12669,11 +12695,11 @@
         <v>-202.27399999999994</v>
       </c>
       <c r="Q11" s="29">
-        <f t="shared" ref="Q11" si="6">Q6-Q10</f>
+        <f t="shared" ref="Q11" si="7">Q6-Q10</f>
         <v>-232.34499999999997</v>
       </c>
       <c r="R11" s="29">
-        <f t="shared" ref="R11" si="7">R6-R10</f>
+        <f t="shared" ref="R11" si="8">R6-R10</f>
         <v>-283.62599999999998</v>
       </c>
       <c r="S11" s="29">
@@ -12685,7 +12711,7 @@
         <v>-311.93599999999998</v>
       </c>
       <c r="AA11" s="29">
-        <f t="shared" ref="AA11" si="8">AA6-AA10</f>
+        <f t="shared" ref="AA11" si="9">AA6-AA10</f>
         <v>-492.90099999999984</v>
       </c>
       <c r="AB11" s="29">
@@ -12733,35 +12759,35 @@
         <v>76</v>
       </c>
       <c r="M13" s="30">
-        <f t="shared" ref="M13" si="9">M11-M12</f>
+        <f t="shared" ref="M13" si="10">M11-M12</f>
         <v>-116.26600000000001</v>
       </c>
       <c r="N13" s="30">
-        <f t="shared" ref="N13" si="10">N11-N12</f>
+        <f t="shared" ref="N13" si="11">N11-N12</f>
         <v>-194.71699999999987</v>
       </c>
       <c r="O13" s="30">
-        <f>O11-O12</f>
+        <f t="shared" ref="O13:T13" si="12">O11-O12</f>
         <v>-205.65199999999993</v>
       </c>
       <c r="P13" s="30">
-        <f>P11-P12</f>
+        <f t="shared" si="12"/>
         <v>-226.56699999999995</v>
       </c>
       <c r="Q13" s="30">
-        <f>Q11-Q12</f>
+        <f t="shared" si="12"/>
         <v>-238.95799999999997</v>
       </c>
       <c r="R13" s="30">
-        <f>R11-R12</f>
+        <f t="shared" si="12"/>
         <v>-289.75199999999995</v>
       </c>
       <c r="S13" s="30">
-        <f>S11-S12</f>
+        <f t="shared" si="12"/>
         <v>-224.48499999999993</v>
       </c>
       <c r="T13" s="30">
-        <f>T11-T12</f>
+        <f t="shared" si="12"/>
         <v>-320.17499999999995</v>
       </c>
       <c r="AA13" s="30">
@@ -12813,11 +12839,11 @@
         <v>70</v>
       </c>
       <c r="M15" s="29">
-        <f t="shared" ref="M15" si="11">M13-M14</f>
+        <f t="shared" ref="M15" si="13">M13-M14</f>
         <v>-116.914</v>
       </c>
       <c r="N15" s="29">
-        <f t="shared" ref="N15" si="12">N13-N14</f>
+        <f t="shared" ref="N15" si="14">N13-N14</f>
         <v>-179.35099999999989</v>
       </c>
       <c r="O15" s="29">
@@ -12829,7 +12855,7 @@
         <v>-227.85299999999995</v>
       </c>
       <c r="Q15" s="29">
-        <f t="shared" ref="Q15" si="13">Q13-Q14</f>
+        <f t="shared" ref="Q15" si="15">Q13-Q14</f>
         <v>-224.10899999999998</v>
       </c>
       <c r="R15" s="29">
@@ -12858,42 +12884,42 @@
         <v>69</v>
       </c>
       <c r="M16" s="28">
-        <f>M15/M17</f>
+        <f t="shared" ref="M16:T16" si="16">M15/M17</f>
         <v>-0.79263151132966325</v>
       </c>
       <c r="N16" s="28">
-        <f>N15/N17</f>
+        <f t="shared" si="16"/>
         <v>-1.1323903265248076</v>
       </c>
       <c r="O16" s="28">
-        <f>O15/O17</f>
+        <f t="shared" si="16"/>
         <v>-1.2355912544819656</v>
       </c>
       <c r="P16" s="28">
-        <f>P15/P17</f>
+        <f t="shared" si="16"/>
         <v>-1.3139765974420505</v>
       </c>
       <c r="Q16" s="28">
-        <f>Q15/Q17</f>
+        <f t="shared" si="16"/>
         <v>-1.2645002263567628</v>
       </c>
       <c r="R16" s="28">
-        <f>R15/R17</f>
+        <f t="shared" si="16"/>
         <v>-1.628504773126946</v>
       </c>
       <c r="S16" s="28">
-        <f>S15/S17</f>
+        <f t="shared" si="16"/>
         <v>-1.2251441501410789</v>
       </c>
       <c r="T16" s="28">
-        <f>T15/T17</f>
+        <f t="shared" si="16"/>
         <v>-1.7700728317826633</v>
       </c>
-      <c r="AA16" s="59">
+      <c r="AA16" s="44">
         <f>AA15/AA17</f>
         <v>-3.3466258226346173</v>
       </c>
-      <c r="AB16" s="59">
+      <c r="AB16" s="44">
         <f>AB15/AB17</f>
         <v>-5.4535392358724044</v>
       </c>
@@ -12902,10 +12928,10 @@
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="44">
         <v>147.50107499999999</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="44">
         <v>158.382667</v>
       </c>
       <c r="O17" s="28">
@@ -12914,7 +12940,7 @@
       <c r="P17" s="28">
         <v>173.40719799999999</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="44">
         <v>177.23128500000001</v>
       </c>
       <c r="R17" s="28">
@@ -12926,10 +12952,10 @@
       <c r="T17" s="28">
         <v>182.34786399999999</v>
       </c>
-      <c r="AA17" s="59">
+      <c r="AA17" s="44">
         <v>146.708663</v>
       </c>
-      <c r="AB17" s="59">
+      <c r="AB17" s="44">
         <v>174.180465</v>
       </c>
     </row>
@@ -12938,15 +12964,15 @@
         <v>71</v>
       </c>
       <c r="Q19" s="32">
-        <f t="shared" ref="Q19" si="14">Q4/M4-1</f>
+        <f t="shared" ref="Q19" si="17">Q4/M4-1</f>
         <v>0.65229290419649577</v>
       </c>
       <c r="R19" s="32">
-        <f t="shared" ref="R19" si="15">R4/N4-1</f>
+        <f t="shared" ref="R19" si="18">R4/N4-1</f>
         <v>0.53760148880658276</v>
       </c>
       <c r="S19" s="32">
-        <f t="shared" ref="S19" si="16">S4/O4-1</f>
+        <f t="shared" ref="S19" si="19">S4/O4-1</f>
         <v>0.4836962785683776</v>
       </c>
       <c r="T19" s="32">
@@ -12963,11 +12989,11 @@
         <v>72</v>
       </c>
       <c r="N20" s="31">
-        <f t="shared" ref="N20:O20" si="17">N4/M4-1</f>
+        <f t="shared" ref="N20:O20" si="20">N4/M4-1</f>
         <v>0.22349984039074133</v>
       </c>
       <c r="O20" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7.6443649765549404E-2</v>
       </c>
       <c r="P20" s="31">
@@ -12975,32 +13001,32 @@
         <v>0.13380441636101059</v>
       </c>
       <c r="Q20" s="31">
-        <f t="shared" ref="Q20:S20" si="18">Q4/P4-1</f>
+        <f t="shared" ref="Q20:S20" si="21">Q4/P4-1</f>
         <v>0.10650575320922484</v>
       </c>
       <c r="R20" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.13857244763407617</v>
       </c>
       <c r="S20" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3.8705704223346515E-2</v>
       </c>
       <c r="T20" s="31">
         <f>T4/S4-1</f>
         <v>7.7671777308385259E-2</v>
       </c>
-      <c r="Y20" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="Z20" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="AA20" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="AB20" s="60" t="s">
-        <v>1716</v>
+      <c r="Y20" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="Z20" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AA20" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AB20" s="45" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
@@ -13008,15 +13034,15 @@
         <v>73</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" ref="M22:N22" si="19">M6/M4</f>
+        <f t="shared" ref="M22" si="22">M6/M4</f>
         <v>0.51537941241469831</v>
       </c>
       <c r="N22" s="31">
-        <f t="shared" ref="N22:O22" si="20">N6/N4</f>
+        <f t="shared" ref="N22:O22" si="23">N6/N4</f>
         <v>0.51473480632742796</v>
       </c>
       <c r="O22" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.50561028359898841</v>
       </c>
       <c r="P22" s="31">
@@ -13024,15 +13050,15 @@
         <v>0.49518859194745046</v>
       </c>
       <c r="Q22" s="31">
-        <f t="shared" ref="Q22:R22" si="21">Q6/Q4</f>
+        <f t="shared" ref="Q22" si="24">Q6/Q4</f>
         <v>0.49260581267158088</v>
       </c>
       <c r="R22" s="31">
-        <f t="shared" ref="R22:S22" si="22">R6/R4</f>
+        <f t="shared" ref="R22:S22" si="25">R6/R4</f>
         <v>0.47054265589550326</v>
       </c>
       <c r="S22" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.48559397644177338</v>
       </c>
       <c r="T22" s="31">
@@ -13040,7 +13066,7 @@
         <v>0.47202746794946543</v>
       </c>
       <c r="AA22" s="31">
-        <f t="shared" ref="AA22:AB22" si="23">AA6/AA4</f>
+        <f t="shared" ref="AA22" si="26">AA6/AA4</f>
         <v>0.51973746946263322</v>
       </c>
       <c r="AB22" s="31">
@@ -13053,15 +13079,15 @@
         <v>74</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" ref="M23:N23" si="24">M11/M4</f>
+        <f t="shared" ref="M23" si="27">M11/M4</f>
         <v>-0.25062002058178134</v>
       </c>
       <c r="N23" s="31">
-        <f t="shared" ref="N23:O23" si="25">N11/N4</f>
+        <f t="shared" ref="N23:O23" si="28">N11/N4</f>
         <v>-0.33806674086372651</v>
       </c>
       <c r="O23" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-0.33447968433256259</v>
       </c>
       <c r="P23" s="31">
@@ -13069,15 +13095,15 @@
         <v>-0.30238395290396158</v>
       </c>
       <c r="Q23" s="31">
-        <f t="shared" ref="Q23:R23" si="26">Q11/Q4</f>
+        <f t="shared" ref="Q23" si="29">Q11/Q4</f>
         <v>-0.3139050712263029</v>
       </c>
       <c r="R23" s="31">
-        <f t="shared" ref="R23:S23" si="27">R11/R4</f>
+        <f t="shared" ref="R23:S23" si="30">R11/R4</f>
         <v>-0.33655060136886167</v>
       </c>
       <c r="S23" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.24882020373262284</v>
       </c>
       <c r="T23" s="31">
@@ -13085,7 +13111,7 @@
         <v>-0.33066696065315881</v>
       </c>
       <c r="AA23" s="31">
-        <f t="shared" ref="AA23:AB23" si="28">AA11/AA4</f>
+        <f t="shared" ref="AA23" si="31">AA11/AA4</f>
         <v>-0.27977506788604217</v>
       </c>
       <c r="AB23" s="31">
@@ -13098,15 +13124,15 @@
         <v>75</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" ref="M24:N24" si="29">M15/M4</f>
+        <f t="shared" ref="M24" si="32">M15/M4</f>
         <v>-0.26098680935511165</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24:O24" si="30">N15/N4</f>
+        <f t="shared" ref="N24:O24" si="33">N15/N4</f>
         <v>-0.3272291047090804</v>
       </c>
       <c r="O24" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.35007830667742379</v>
       </c>
       <c r="P24" s="31">
@@ -13114,15 +13140,15 @@
         <v>-0.34062257542257712</v>
       </c>
       <c r="Q24" s="31">
-        <f t="shared" ref="Q24:R24" si="31">Q15/Q4</f>
+        <f t="shared" ref="Q24" si="34">Q15/Q4</f>
         <v>-0.30277798793800387</v>
       </c>
       <c r="R24" s="31">
-        <f t="shared" ref="R24:S24" si="32">R15/R4</f>
+        <f t="shared" ref="R24:S24" si="35">R15/R4</f>
         <v>-0.34577048308857727</v>
       </c>
       <c r="S24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.25318296523842099</v>
       </c>
       <c r="T24" s="31">
@@ -13130,7 +13156,7 @@
         <v>-0.34215045465435023</v>
       </c>
       <c r="AA24" s="31">
-        <f t="shared" ref="AA24:AB24" si="33">AA15/AA4</f>
+        <f t="shared" ref="AA24" si="36">AA15/AA4</f>
         <v>-0.27868412329376707</v>
       </c>
       <c r="AB24" s="31">
@@ -13143,15 +13169,15 @@
         <v>68</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" ref="M25:N25" si="34">M14/M13</f>
+        <f t="shared" ref="M25" si="37">M14/M13</f>
         <v>-5.5734264531333323E-3</v>
       </c>
       <c r="N25" s="31">
-        <f t="shared" ref="N25:O25" si="35">N14/N13</f>
+        <f t="shared" ref="N25:O25" si="38">N14/N13</f>
         <v>7.891452723696446E-2</v>
       </c>
       <c r="O25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-4.3276992200416255E-3</v>
       </c>
       <c r="P25" s="31">
@@ -13159,15 +13185,15 @@
         <v>-5.6760251934306425E-3</v>
       </c>
       <c r="Q25" s="31">
-        <f t="shared" ref="Q25:R25" si="36">Q14/Q13</f>
+        <f t="shared" ref="Q25" si="39">Q14/Q13</f>
         <v>6.2140627223194043E-2</v>
       </c>
       <c r="R25" s="31">
-        <f t="shared" ref="R25:S25" si="37">R14/R13</f>
+        <f t="shared" ref="R25:S25" si="40">R14/R13</f>
         <v>-5.6738176095419536E-3</v>
       </c>
       <c r="S25" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.2731362897298265E-2</v>
       </c>
       <c r="T25" s="31">
@@ -13175,7 +13201,7 @@
         <v>-8.1018193175607101E-3</v>
       </c>
       <c r="AA25" s="31">
-        <f t="shared" ref="AA25:AB25" si="38">AA14/AA13</f>
+        <f t="shared" ref="AA25" si="41">AA14/AA13</f>
         <v>2.6658023178821082E-2</v>
       </c>
       <c r="AB25" s="31">
@@ -13188,11 +13214,11 @@
         <v>77</v>
       </c>
       <c r="Q27" s="31">
-        <f t="shared" ref="Q27" si="39">Q7/M7-1</f>
+        <f t="shared" ref="Q27" si="42">Q7/M7-1</f>
         <v>0.5359453209612739</v>
       </c>
       <c r="R27" s="31">
-        <f t="shared" ref="R27" si="40">R7/N7-1</f>
+        <f t="shared" ref="R27" si="43">R7/N7-1</f>
         <v>0.40535453492471163</v>
       </c>
       <c r="S27" s="31">
@@ -13213,11 +13239,11 @@
         <v>78</v>
       </c>
       <c r="N28" s="42">
-        <f t="shared" ref="N28:O28" si="41">N7/M7-1</f>
+        <f t="shared" ref="N28:O28" si="44">N7/M7-1</f>
         <v>0.16248573017592149</v>
       </c>
       <c r="O28" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.10036762854409043</v>
       </c>
       <c r="P28" s="42">
@@ -13225,42 +13251,42 @@
         <v>3.7070938215102878E-2</v>
       </c>
       <c r="Q28" s="42">
-        <f t="shared" ref="Q28:S28" si="42">Q7/P7-1</f>
+        <f t="shared" ref="Q28:S28" si="45">Q7/P7-1</f>
         <v>0.15782215357458074</v>
       </c>
       <c r="R28" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6.3647624946400638E-2</v>
       </c>
       <c r="S28" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>7.7769665261658405E-2</v>
       </c>
       <c r="T28" s="42">
         <f>T7/S7-1</f>
         <v>0.16221203519373617</v>
       </c>
-      <c r="Y28" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="Z28" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="AA28" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="AB28" s="60" t="s">
-        <v>1716</v>
+      <c r="Y28" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="Z28" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AA28" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AB28" s="45" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="M31" s="40">
         <v>208000</v>
@@ -13297,11 +13323,11 @@
     </row>
     <row r="32" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="39" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="P32" s="41"/>
       <c r="Q32" s="42">
-        <f t="shared" ref="Q32" si="43">Q31/M31-1</f>
+        <f t="shared" ref="Q32" si="46">Q31/M31-1</f>
         <v>0.20192307692307687</v>
       </c>
       <c r="R32" s="42">
@@ -13323,52 +13349,52 @@
     </row>
     <row r="33" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="N33" s="42">
-        <f t="shared" ref="N33:R33" si="44">N31/M31-1</f>
+        <f t="shared" ref="N33:Q33" si="47">N31/M31-1</f>
         <v>6.25E-2</v>
       </c>
       <c r="O33" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>6.3348416289592757E-2</v>
       </c>
       <c r="P33" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2.1276595744680771E-2</v>
       </c>
       <c r="Q33" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="R33" s="42">
-        <f t="shared" ref="R33:S33" si="45">R31/Q31-1</f>
+        <f t="shared" ref="R33:S33" si="48">R31/Q31-1</f>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="S33" s="42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4.6875E-2</v>
       </c>
       <c r="T33" s="42">
         <f>T31/S31-1</f>
         <v>2.6119402985074647E-2</v>
       </c>
-      <c r="Y33" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="Z33" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="AA33" s="60" t="s">
-        <v>1716</v>
-      </c>
-      <c r="AB33" s="60" t="s">
-        <v>1716</v>
+      <c r="Y33" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="Z33" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AA33" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AB33" s="45" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="Q34" s="40">
         <v>7381</v>
@@ -13394,7 +13420,7 @@
     </row>
     <row r="35" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="P35" s="43"/>
       <c r="Q35" s="43">
@@ -13475,7 +13501,7 @@
         <v>3593.6590000000001</v>
       </c>
       <c r="AA41" s="29">
-        <f t="shared" ref="AA41" si="46">N41</f>
+        <f t="shared" ref="AA41" si="49">N41</f>
         <v>2105.9059999999999</v>
       </c>
       <c r="AB41" s="29">
@@ -13531,11 +13557,11 @@
         <v>240.19200000000001</v>
       </c>
       <c r="AA43" s="30">
-        <f t="shared" ref="AA43" si="47">N43</f>
+        <f t="shared" ref="AA43" si="50">N43</f>
         <v>81.376999999999995</v>
       </c>
       <c r="AB43" s="30">
-        <f t="shared" ref="AB43" si="48">R43</f>
+        <f t="shared" ref="AB43" si="51">R43</f>
         <v>186.131</v>
       </c>
     </row>
@@ -13564,11 +13590,11 @@
         <v>5104.3909999999996</v>
       </c>
       <c r="AA44" s="30">
-        <f t="shared" ref="AA44:AB44" si="49">SUM(AA40:AA43)</f>
+        <f t="shared" ref="AA44:AB44" si="52">SUM(AA40:AA43)</f>
         <v>3372.335</v>
       </c>
       <c r="AB44" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>5932.2280000000001</v>
       </c>
     </row>
@@ -13592,11 +13618,11 @@
         <v>264.767</v>
       </c>
       <c r="AA45" s="30">
-        <f t="shared" ref="AA45:AA49" si="50">N45</f>
+        <f t="shared" ref="AA45:AA49" si="53">N45</f>
         <v>183.239</v>
       </c>
       <c r="AB45" s="30">
-        <f t="shared" ref="AB45:AB49" si="51">R45</f>
+        <f t="shared" ref="AB45:AB49" si="54">R45</f>
         <v>255.316</v>
       </c>
     </row>
@@ -13620,11 +13646,11 @@
         <v>213.464</v>
       </c>
       <c r="AA46" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>258.61</v>
       </c>
       <c r="AB46" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>234.584</v>
       </c>
     </row>
@@ -13648,11 +13674,11 @@
         <v>750</v>
       </c>
       <c r="AA47" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AB47" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -13681,11 +13707,11 @@
         <v>6239.085</v>
       </c>
       <c r="AA48" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>5561.9670000000006</v>
       </c>
       <c r="AB48" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>6313.1779999999999</v>
       </c>
     </row>
@@ -13709,11 +13735,11 @@
         <v>297.52199999999999</v>
       </c>
       <c r="AA49" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>111.282</v>
       </c>
       <c r="AB49" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>263.29199999999997</v>
       </c>
     </row>
@@ -13742,11 +13768,11 @@
         <v>12869.228999999999</v>
       </c>
       <c r="AA50" s="30">
-        <f t="shared" ref="AA50:AB50" si="52">AA44+SUM(AA45:AA49)</f>
+        <f t="shared" ref="AA50:AB50" si="55">AA44+SUM(AA45:AA49)</f>
         <v>9487.4330000000009</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>12998.598</v>
       </c>
     </row>
@@ -13776,11 +13802,11 @@
         <v>102.039</v>
       </c>
       <c r="AA52" s="30">
-        <f t="shared" ref="AA52:AA57" si="53">N52</f>
+        <f t="shared" ref="AA52:AA57" si="56">N52</f>
         <v>60.042000000000002</v>
       </c>
       <c r="AB52" s="30">
-        <f t="shared" ref="AB52:AB55" si="54">R52</f>
+        <f t="shared" ref="AB52:AB55" si="57">R52</f>
         <v>93.332999999999998</v>
       </c>
     </row>
@@ -13804,11 +13830,11 @@
         <v>504.81</v>
       </c>
       <c r="AA53" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>252.89500000000001</v>
       </c>
       <c r="AB53" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>417.50299999999999</v>
       </c>
     </row>
@@ -13832,11 +13858,11 @@
         <v>137.72800000000001</v>
       </c>
       <c r="AA54" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>87.031000000000006</v>
       </c>
       <c r="AB54" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>140.38900000000001</v>
       </c>
     </row>
@@ -13860,11 +13886,11 @@
         <v>50.743000000000002</v>
       </c>
       <c r="AA55" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>48.338000000000001</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>52.325000000000003</v>
       </c>
     </row>
@@ -13892,11 +13918,11 @@
         <v>795.32</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" ref="AA56:AB56" si="55">SUM(AA52:AA55)</f>
+        <f t="shared" ref="AA56:AB56" si="58">SUM(AA52:AA55)</f>
         <v>448.30600000000004</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>703.55000000000007</v>
       </c>
     </row>
@@ -13920,11 +13946,11 @@
         <v>189.06800000000001</v>
       </c>
       <c r="AA57" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>229.905</v>
       </c>
       <c r="AB57" s="30">
-        <f t="shared" ref="AB57" si="56">R57</f>
+        <f t="shared" ref="AB57" si="59">R57</f>
         <v>211.25299999999999</v>
       </c>
     </row>
@@ -13948,7 +13974,7 @@
         <v>18.934999999999999</v>
       </c>
       <c r="AA58" s="29">
-        <f t="shared" ref="AA58" si="57">N58</f>
+        <f t="shared" ref="AA58" si="60">N58</f>
         <v>17.856000000000002</v>
       </c>
       <c r="AB58" s="29">
@@ -13976,11 +14002,11 @@
         <v>986.61900000000003</v>
       </c>
       <c r="AA59" s="29">
-        <f t="shared" ref="AA59:AA60" si="58">N59</f>
+        <f t="shared" ref="AA59:AA60" si="61">N59</f>
         <v>302.06799999999998</v>
       </c>
       <c r="AB59" s="29">
-        <f t="shared" ref="AB59:AB60" si="59">R59</f>
+        <f t="shared" ref="AB59:AB60" si="62">R59</f>
         <v>985.90700000000004</v>
       </c>
     </row>
@@ -14004,11 +14030,11 @@
         <v>37.292000000000002</v>
       </c>
       <c r="AA60" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>36.633000000000003</v>
       </c>
       <c r="AB60" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>41.29</v>
       </c>
     </row>
@@ -14114,19 +14140,19 @@
         <v>101</v>
       </c>
       <c r="N66" s="30">
-        <f t="shared" ref="N66" si="60">N50-N61</f>
+        <f t="shared" ref="N66" si="63">N50-N61</f>
         <v>8452.6650000000009</v>
       </c>
       <c r="Q66" s="30">
-        <f t="shared" ref="Q66:R66" si="61">Q50-Q61</f>
+        <f t="shared" ref="Q66:R66" si="64">Q50-Q61</f>
         <v>11081.749000000002</v>
       </c>
       <c r="R66" s="30">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>11031.466</v>
       </c>
       <c r="S66" s="30">
-        <f t="shared" ref="S66" si="62">S50-S61</f>
+        <f t="shared" ref="S66" si="65">S50-S61</f>
         <v>10917.432999999999</v>
       </c>
       <c r="T66" s="30">
@@ -14147,19 +14173,19 @@
         <v>102</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" ref="N67" si="63">N66/N17</f>
+        <f t="shared" ref="N67" si="66">N66/N17</f>
         <v>53.368623979541908</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" ref="Q67" si="64">Q66/Q17</f>
+        <f t="shared" ref="Q67" si="67">Q66/Q17</f>
         <v>62.527047637215972</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67" si="65">R66/R17</f>
+        <f t="shared" ref="R67" si="68">R66/R17</f>
         <v>61.650794916840383</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" ref="S67" si="66">S66/S17</f>
+        <f t="shared" ref="S67" si="69">S66/S17</f>
         <v>60.351081657501894</v>
       </c>
       <c r="T67" s="1">
@@ -14184,7 +14210,7 @@
         <v>3039.7910000000002</v>
       </c>
       <c r="Q69" s="36">
-        <f t="shared" ref="Q69:R69" si="67">Q40+Q41</f>
+        <f t="shared" ref="Q69" si="70">Q40+Q41</f>
         <v>5394.2520000000004</v>
       </c>
       <c r="R69" s="36">
@@ -14217,7 +14243,7 @@
         <v>319.92399999999998</v>
       </c>
       <c r="Q70" s="36">
-        <f t="shared" ref="Q70:R70" si="68">Q58+Q59</f>
+        <f t="shared" ref="Q70" si="71">Q58+Q59</f>
         <v>1005.801</v>
       </c>
       <c r="R70" s="36">
@@ -14246,19 +14272,19 @@
         <v>8</v>
       </c>
       <c r="N71" s="30">
-        <f t="shared" ref="N71" si="69">N69-N70</f>
+        <f t="shared" ref="N71" si="72">N69-N70</f>
         <v>2719.8670000000002</v>
       </c>
       <c r="Q71" s="30">
-        <f t="shared" ref="Q71" si="70">Q69-Q70</f>
+        <f t="shared" ref="Q71" si="73">Q69-Q70</f>
         <v>4388.451</v>
       </c>
       <c r="R71" s="30">
-        <f t="shared" ref="R71" si="71">R69-R70</f>
+        <f t="shared" ref="R71" si="74">R69-R70</f>
         <v>4346.8429999999998</v>
       </c>
       <c r="S71" s="30">
-        <f t="shared" ref="S71" si="72">S69-S70</f>
+        <f t="shared" ref="S71" si="75">S69-S70</f>
         <v>4215.0159999999996</v>
       </c>
       <c r="T71" s="30">
@@ -14281,7 +14307,7 @@
       <c r="M73" s="1">
         <v>247.09</v>
       </c>
-      <c r="N73" s="59">
+      <c r="N73" s="44">
         <v>338.5</v>
       </c>
       <c r="O73" s="1">
@@ -14302,7 +14328,7 @@
       <c r="T73" s="1">
         <v>83.81</v>
       </c>
-      <c r="AA73" s="59">
+      <c r="AA73" s="44">
         <f>N73</f>
         <v>338.5</v>
       </c>
@@ -14316,35 +14342,35 @@
         <v>5</v>
       </c>
       <c r="M74" s="30">
-        <f>M73*M17</f>
+        <f t="shared" ref="M74:T74" si="76">M73*M17</f>
         <v>36446.040621749999</v>
       </c>
       <c r="N74" s="30">
-        <f>N73*N17</f>
+        <f t="shared" si="76"/>
         <v>53612.532779499998</v>
       </c>
       <c r="O74" s="30">
-        <f>O73*O17</f>
+        <f t="shared" si="76"/>
         <v>56961.597668080001</v>
       </c>
       <c r="P74" s="30">
-        <f>P73*P17</f>
+        <f t="shared" si="76"/>
         <v>68350.181163679998</v>
       </c>
       <c r="Q74" s="30">
-        <f>Q73*Q17</f>
+        <f t="shared" si="76"/>
         <v>56545.641479250007</v>
       </c>
       <c r="R74" s="30">
-        <f>R73*R17</f>
+        <f t="shared" si="76"/>
         <v>47120.661791279999</v>
       </c>
       <c r="S74" s="30">
-        <f>S73*S17</f>
+        <f t="shared" si="76"/>
         <v>29813.916889529999</v>
       </c>
       <c r="T74" s="30">
-        <f>T73*T17</f>
+        <f t="shared" si="76"/>
         <v>15282.57448184</v>
       </c>
       <c r="AA74" s="30">
@@ -14361,17 +14387,17 @@
         <v>9</v>
       </c>
       <c r="N75" s="30">
-        <f t="shared" ref="N75" si="73">N74-N71</f>
+        <f t="shared" ref="N75" si="77">N74-N71</f>
         <v>50892.665779499999</v>
       </c>
       <c r="P75" s="30"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30">
-        <f t="shared" ref="R75" si="74">R74-R71</f>
+        <f t="shared" ref="R75" si="78">R74-R71</f>
         <v>42773.818791279999</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" ref="S75" si="75">S74-S71</f>
+        <f t="shared" ref="S75" si="79">S74-S71</f>
         <v>25598.900889529999</v>
       </c>
       <c r="T75" s="30">
@@ -14379,11 +14405,11 @@
         <v>11895.84448184</v>
       </c>
       <c r="AA75" s="30">
-        <f t="shared" ref="AA75" si="76">AA74-AA71</f>
+        <f t="shared" ref="AA75" si="80">AA74-AA71</f>
         <v>46941.015425500002</v>
       </c>
       <c r="AB75" s="30">
-        <f t="shared" ref="AB75" si="77">AB74-AB71</f>
+        <f t="shared" ref="AB75" si="81">AB74-AB71</f>
         <v>41521.840653099993</v>
       </c>
     </row>
@@ -14396,7 +14422,7 @@
         <v>6.3426780523657325</v>
       </c>
       <c r="Q77" s="37">
-        <f t="shared" ref="Q77:R77" si="78">Q73/Q67</f>
+        <f t="shared" ref="Q77" si="82">Q73/Q67</f>
         <v>5.1025917911739382</v>
       </c>
       <c r="R77" s="37">
@@ -14425,19 +14451,19 @@
         <v>105</v>
       </c>
       <c r="N78" s="37">
-        <f t="shared" ref="N78" si="79">N74/SUM(K4:N4)</f>
+        <f t="shared" ref="N78" si="83">N74/SUM(K4:N4)</f>
         <v>53.82465574780209</v>
       </c>
       <c r="Q78" s="37">
-        <f t="shared" ref="Q78" si="80">Q74/SUM(N4:Q4)</f>
+        <f t="shared" ref="Q78" si="84">Q74/SUM(N4:Q4)</f>
         <v>22.199267614739412</v>
       </c>
       <c r="R78" s="37">
-        <f t="shared" ref="R78:S78" si="81">R74/SUM(O4:R4)</f>
+        <f t="shared" ref="R78:S78" si="85">R74/SUM(O4:R4)</f>
         <v>16.581045510065838</v>
       </c>
       <c r="S78" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>9.5336989696036145</v>
       </c>
       <c r="T78" s="37">
@@ -14458,19 +14484,19 @@
         <v>104</v>
       </c>
       <c r="N79" s="37">
-        <f t="shared" ref="N79" si="82">N73/SUM(K16:N16)</f>
+        <f t="shared" ref="N79" si="86">N73/SUM(K16:N16)</f>
         <v>-175.84216103089744</v>
       </c>
       <c r="Q79" s="37">
-        <f t="shared" ref="Q79" si="83">Q73/SUM(N16:Q16)</f>
+        <f t="shared" ref="Q79" si="87">Q73/SUM(N16:Q16)</f>
         <v>-64.500694009685063</v>
       </c>
       <c r="R79" s="37">
-        <f t="shared" ref="R79:S79" si="84">R73/SUM(O16:R16)</f>
+        <f t="shared" ref="R79:S79" si="88">R73/SUM(O16:R16)</f>
         <v>-48.385204422553002</v>
       </c>
       <c r="S79" s="37">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>-30.339872026893296</v>
       </c>
       <c r="T79" s="37">

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D7F15-5151-4503-80F3-7D1678541F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55736C3F-E0B2-464E-9D68-47C84D3995CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>me</author>
+  </authors>
+  <commentList>
+    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{55D6C87D-C1A4-4EF5-9464-1503FD9AE294}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Restricted Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{BCD95C05-2508-4246-A1FE-77A2158ED6BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Restricted Cash</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1717">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5189,7 +5247,7 @@
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5259,6 +5317,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5466,6 +5537,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5491,19 +5575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11267,7 +11338,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11317,7 +11388,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11659,8 +11730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
   <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="S2:W2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11673,20 +11744,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="46" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11694,24 +11765,24 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="G5" s="46" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="G5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -11783,7 +11854,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <f>'Financial Model'!T69</f>
+        <f>'Financial Model'!T70</f>
         <v>4392.2839999999997</v>
       </c>
       <c r="D9" s="16" t="str">
@@ -11807,7 +11878,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>'Financial Model'!T70</f>
+        <f>'Financial Model'!T71</f>
         <v>1005.554</v>
       </c>
       <c r="D10" s="16" t="str">
@@ -11898,11 +11969,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -11919,10 +11990,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="50"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -11939,8 +12010,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -11957,10 +12028,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="50"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -11977,8 +12048,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12018,11 +12089,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12039,10 +12110,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="50"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12059,10 +12130,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="49">
         <v>2008</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="50"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12077,8 +12148,8 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12093,8 +12164,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12109,8 +12180,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12150,10 +12221,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="61"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12167,52 +12238,44 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="49">
-        <f>'Financial Model'!T77</f>
+      <c r="C33" s="56">
+        <f>'Financial Model'!T78</f>
         <v>1.4095721757702342</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="57"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="49">
-        <f>'Financial Model'!T78</f>
+      <c r="C34" s="56">
+        <f>'Financial Model'!T79</f>
         <v>4.4927117390362339</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="51">
-        <f>'Financial Model'!T79</f>
+      <c r="C35" s="58">
+        <f>'Financial Model'!T80</f>
         <v>-14.233498713981406</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -12224,6 +12287,14 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12235,14 +12306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
-  <dimension ref="A1:AL79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
+  <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12276,7 +12347,7 @@
       <c r="I1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="22" t="s">
@@ -12315,10 +12386,10 @@
       <c r="V1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="27" t="s">
         <v>46</v>
       </c>
       <c r="AA1" s="22" t="s">
@@ -12360,6 +12431,12 @@
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
+      <c r="F2" s="26">
+        <v>43465</v>
+      </c>
+      <c r="J2" s="26">
+        <v>43830</v>
+      </c>
       <c r="M2" s="26">
         <v>44104</v>
       </c>
@@ -12384,6 +12461,12 @@
       <c r="T2" s="26">
         <v>44742</v>
       </c>
+      <c r="Y2" s="26">
+        <v>43465</v>
+      </c>
+      <c r="Z2" s="26">
+        <v>43830</v>
+      </c>
       <c r="AA2" s="26">
         <v>44196</v>
       </c>
@@ -12393,6 +12476,9 @@
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
+      <c r="J3" s="25">
+        <v>38384</v>
+      </c>
       <c r="Q3" s="25">
         <v>46661</v>
       </c>
@@ -12404,6 +12490,9 @@
       </c>
       <c r="T3" s="25">
         <v>38200</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>38384</v>
       </c>
       <c r="AB3" s="25">
         <v>39845</v>
@@ -12413,6 +12502,12 @@
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F4" s="29">
+        <v>204.30199999999999</v>
+      </c>
+      <c r="J4" s="29">
+        <v>331.22399999999999</v>
+      </c>
       <c r="M4" s="29">
         <v>447.96899999999999</v>
       </c>
@@ -12436,6 +12531,14 @@
       </c>
       <c r="T4" s="29">
         <v>943.35400000000004</v>
+      </c>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="Y4" s="29">
+        <v>650.06700000000001</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>1134.4680000000001</v>
       </c>
       <c r="AA4" s="29">
         <v>1761.7760000000001</v>
@@ -12448,6 +12551,12 @@
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="F5" s="30">
+        <v>96.287999999999997</v>
+      </c>
+      <c r="J5" s="30">
+        <v>156.53399999999999</v>
+      </c>
       <c r="M5" s="30">
         <v>217.095</v>
       </c>
@@ -12471,6 +12580,12 @@
       </c>
       <c r="T5" s="30">
         <v>498.065</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>300.84100000000001</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>525.55100000000004</v>
       </c>
       <c r="AA5" s="30">
         <v>846.11500000000001</v>
@@ -12483,37 +12598,53 @@
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="F6" s="29">
+        <f t="shared" ref="F6" si="0">F4-F5</f>
+        <v>108.014</v>
+      </c>
+      <c r="J6" s="29">
+        <f t="shared" ref="J6" si="1">J4-J5</f>
+        <v>174.69</v>
+      </c>
       <c r="M6" s="29">
-        <f t="shared" ref="M6" si="0">M4-M5</f>
+        <f t="shared" ref="M6" si="2">M4-M5</f>
         <v>230.874</v>
       </c>
       <c r="N6" s="29">
-        <f t="shared" ref="N6:T6" si="1">N4-N5</f>
+        <f t="shared" ref="N6:T6" si="3">N4-N5</f>
         <v>282.12100000000004</v>
       </c>
       <c r="O6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>298.30400000000003</v>
       </c>
       <c r="P6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>331.24700000000001</v>
       </c>
       <c r="Q6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>364.61500000000007</v>
       </c>
       <c r="R6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>396.54700000000003</v>
       </c>
       <c r="S6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>425.07100000000008</v>
       </c>
       <c r="T6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>445.28900000000004</v>
+      </c>
+      <c r="Y6" s="29">
+        <f t="shared" ref="Y6:Z6" si="4">Y4-Y5</f>
+        <v>349.226</v>
+      </c>
+      <c r="Z6" s="29">
+        <f t="shared" si="4"/>
+        <v>608.91700000000003</v>
       </c>
       <c r="AA6" s="29">
         <f>AA4-AA5</f>
@@ -12528,6 +12659,12 @@
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="F7" s="30">
+        <v>51.631</v>
+      </c>
+      <c r="J7" s="30">
+        <v>110.236</v>
+      </c>
       <c r="M7" s="30">
         <v>136.65199999999999</v>
       </c>
@@ -12551,6 +12688,12 @@
       </c>
       <c r="T7" s="30">
         <v>279.64100000000002</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>171.358</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>391.35500000000002</v>
       </c>
       <c r="AA7" s="30">
         <v>530.548</v>
@@ -12563,6 +12706,12 @@
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="F8" s="30">
+        <v>59.034999999999997</v>
+      </c>
+      <c r="J8" s="30">
+        <v>106.39400000000001</v>
+      </c>
       <c r="M8" s="30">
         <v>140.875</v>
       </c>
@@ -12586,6 +12735,12 @@
       </c>
       <c r="T8" s="30">
         <v>334.95800000000003</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>175.55500000000001</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>369.07900000000001</v>
       </c>
       <c r="AA8" s="30">
         <v>567.40700000000004</v>
@@ -12598,6 +12753,12 @@
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F9" s="30">
+        <v>41.335000000000001</v>
+      </c>
+      <c r="J9" s="30">
+        <v>51.859000000000002</v>
+      </c>
       <c r="M9" s="30">
         <v>65.617000000000004</v>
       </c>
@@ -12621,6 +12782,12 @@
       </c>
       <c r="T9" s="30">
         <v>142.626</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>117.548</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>218.268</v>
       </c>
       <c r="AA9" s="30">
         <v>310.60700000000003</v>
@@ -12633,16 +12800,24 @@
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="F10" s="30">
+        <f t="shared" ref="F10" si="5">SUM(F7:F9)</f>
+        <v>152.001</v>
+      </c>
+      <c r="J10" s="30">
+        <f t="shared" ref="J10" si="6">SUM(J7:J9)</f>
+        <v>268.48899999999998</v>
+      </c>
       <c r="M10" s="30">
-        <f t="shared" ref="M10:O10" si="2">SUM(M7:M9)</f>
+        <f t="shared" ref="M10:O10" si="7">SUM(M7:M9)</f>
         <v>343.14400000000001</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>467.41199999999992</v>
       </c>
       <c r="O10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>495.64299999999997</v>
       </c>
       <c r="P10" s="30">
@@ -12650,11 +12825,11 @@
         <v>533.52099999999996</v>
       </c>
       <c r="Q10" s="30">
-        <f t="shared" ref="Q10" si="3">SUM(Q7:Q9)</f>
+        <f t="shared" ref="Q10" si="8">SUM(Q7:Q9)</f>
         <v>596.96</v>
       </c>
       <c r="R10" s="30">
-        <f t="shared" ref="R10" si="4">SUM(R7:R9)</f>
+        <f t="shared" ref="R10" si="9">SUM(R7:R9)</f>
         <v>680.173</v>
       </c>
       <c r="S10" s="30">
@@ -12665,8 +12840,16 @@
         <f>SUM(T7:T9)</f>
         <v>757.22500000000002</v>
       </c>
+      <c r="Y10" s="30">
+        <f t="shared" ref="Y10:AA10" si="10">SUM(Y7:Y9)</f>
+        <v>464.46100000000001</v>
+      </c>
+      <c r="Z10" s="30">
+        <f t="shared" si="10"/>
+        <v>978.702</v>
+      </c>
       <c r="AA10" s="30">
-        <f t="shared" ref="AA10" si="5">SUM(AA7:AA9)</f>
+        <f t="shared" si="10"/>
         <v>1408.5619999999999</v>
       </c>
       <c r="AB10" s="30">
@@ -12678,16 +12861,24 @@
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="F11" s="29">
+        <f t="shared" ref="F11" si="11">F6-F10</f>
+        <v>-43.987000000000009</v>
+      </c>
+      <c r="J11" s="29">
+        <f t="shared" ref="J11" si="12">J6-J10</f>
+        <v>-93.798999999999978</v>
+      </c>
       <c r="M11" s="29">
-        <f t="shared" ref="M11:O11" si="6">M6-M10</f>
+        <f t="shared" ref="M11:O11" si="13">M6-M10</f>
         <v>-112.27000000000001</v>
       </c>
       <c r="N11" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-185.29099999999988</v>
       </c>
       <c r="O11" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-197.33899999999994</v>
       </c>
       <c r="P11" s="29">
@@ -12695,11 +12886,11 @@
         <v>-202.27399999999994</v>
       </c>
       <c r="Q11" s="29">
-        <f t="shared" ref="Q11" si="7">Q6-Q10</f>
+        <f t="shared" ref="Q11" si="14">Q6-Q10</f>
         <v>-232.34499999999997</v>
       </c>
       <c r="R11" s="29">
-        <f t="shared" ref="R11" si="8">R6-R10</f>
+        <f t="shared" ref="R11" si="15">R6-R10</f>
         <v>-283.62599999999998</v>
       </c>
       <c r="S11" s="29">
@@ -12710,8 +12901,16 @@
         <f>T6-T10</f>
         <v>-311.93599999999998</v>
       </c>
+      <c r="Y11" s="29">
+        <f t="shared" ref="Y11:AA11" si="16">Y6-Y10</f>
+        <v>-115.23500000000001</v>
+      </c>
+      <c r="Z11" s="29">
+        <f t="shared" si="16"/>
+        <v>-369.78499999999997</v>
+      </c>
       <c r="AA11" s="29">
-        <f t="shared" ref="AA11" si="9">AA6-AA10</f>
+        <f t="shared" si="16"/>
         <v>-492.90099999999984</v>
       </c>
       <c r="AB11" s="29">
@@ -12723,6 +12922,12 @@
       <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="F12" s="30">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="J12" s="30">
+        <v>-4.7080000000000002</v>
+      </c>
       <c r="M12" s="30">
         <v>3.996</v>
       </c>
@@ -12746,6 +12951,12 @@
       </c>
       <c r="T12" s="30">
         <v>8.2390000000000008</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>5.923</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>-7.569</v>
       </c>
       <c r="AA12" s="30">
         <v>11.525</v>
@@ -12758,37 +12969,53 @@
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="F13" s="30">
+        <f t="shared" ref="F13" si="17">F11-F12</f>
+        <v>-46.738000000000007</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" ref="J13" si="18">J11-J12</f>
+        <v>-89.09099999999998</v>
+      </c>
       <c r="M13" s="30">
-        <f t="shared" ref="M13" si="10">M11-M12</f>
+        <f t="shared" ref="M13" si="19">M11-M12</f>
         <v>-116.26600000000001</v>
       </c>
       <c r="N13" s="30">
-        <f t="shared" ref="N13" si="11">N11-N12</f>
+        <f t="shared" ref="N13" si="20">N11-N12</f>
         <v>-194.71699999999987</v>
       </c>
       <c r="O13" s="30">
-        <f t="shared" ref="O13:T13" si="12">O11-O12</f>
+        <f t="shared" ref="O13:T13" si="21">O11-O12</f>
         <v>-205.65199999999993</v>
       </c>
       <c r="P13" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-226.56699999999995</v>
       </c>
       <c r="Q13" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-238.95799999999997</v>
       </c>
       <c r="R13" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-289.75199999999995</v>
       </c>
       <c r="S13" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-224.48499999999993</v>
       </c>
       <c r="T13" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-320.17499999999995</v>
+      </c>
+      <c r="Y13" s="30">
+        <f t="shared" ref="Y13:Z13" si="22">Y11-Y12</f>
+        <v>-121.15800000000002</v>
+      </c>
+      <c r="Z13" s="30">
+        <f t="shared" si="22"/>
+        <v>-362.21599999999995</v>
       </c>
       <c r="AA13" s="30">
         <f>AA11-AA12</f>
@@ -12803,6 +13030,12 @@
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="F14" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="J14" s="30">
+        <v>1.1559999999999999</v>
+      </c>
       <c r="M14" s="30">
         <v>0.64800000000000002</v>
       </c>
@@ -12826,6 +13059,12 @@
       </c>
       <c r="T14" s="30">
         <v>2.5939999999999999</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>-55.152999999999999</v>
       </c>
       <c r="AA14" s="30">
         <v>-13.446999999999999</v>
@@ -12838,12 +13077,20 @@
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="F15" s="29">
+        <f t="shared" ref="F15" si="23">F13-F14</f>
+        <v>-47.158000000000008</v>
+      </c>
+      <c r="J15" s="29">
+        <f t="shared" ref="J15" si="24">J13-J14</f>
+        <v>-90.246999999999986</v>
+      </c>
       <c r="M15" s="29">
-        <f t="shared" ref="M15" si="13">M13-M14</f>
+        <f t="shared" ref="M15" si="25">M13-M14</f>
         <v>-116.914</v>
       </c>
       <c r="N15" s="29">
-        <f t="shared" ref="N15" si="14">N13-N14</f>
+        <f t="shared" ref="N15" si="26">N13-N14</f>
         <v>-179.35099999999989</v>
       </c>
       <c r="O15" s="29">
@@ -12855,7 +13102,7 @@
         <v>-227.85299999999995</v>
       </c>
       <c r="Q15" s="29">
-        <f t="shared" ref="Q15" si="15">Q13-Q14</f>
+        <f t="shared" ref="Q15" si="27">Q13-Q14</f>
         <v>-224.10899999999998</v>
       </c>
       <c r="R15" s="29">
@@ -12870,6 +13117,14 @@
         <f>T13-T14</f>
         <v>-322.76899999999995</v>
       </c>
+      <c r="Y15" s="29">
+        <f t="shared" ref="Y15:Z15" si="28">Y13-Y14</f>
+        <v>-121.94900000000001</v>
+      </c>
+      <c r="Z15" s="29">
+        <f t="shared" si="28"/>
+        <v>-307.06299999999993</v>
+      </c>
       <c r="AA15" s="29">
         <f>AA13-AA14</f>
         <v>-490.97899999999981</v>
@@ -12883,37 +13138,53 @@
       <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="F16" s="28">
+        <f t="shared" ref="F16" si="29">F15/F17</f>
+        <v>-0.47434110160515558</v>
+      </c>
+      <c r="J16" s="28">
+        <f t="shared" ref="J16" si="30">J15/J17</f>
+        <v>-0.65525253589708876</v>
+      </c>
       <c r="M16" s="28">
-        <f t="shared" ref="M16:T16" si="16">M15/M17</f>
+        <f t="shared" ref="M16:T16" si="31">M15/M17</f>
         <v>-0.79263151132966325</v>
       </c>
       <c r="N16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>-1.1323903265248076</v>
       </c>
       <c r="O16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>-1.2355912544819656</v>
       </c>
       <c r="P16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>-1.3139765974420505</v>
       </c>
       <c r="Q16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>-1.2645002263567628</v>
       </c>
       <c r="R16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>-1.628504773126946</v>
       </c>
       <c r="S16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>-1.2251441501410789</v>
       </c>
       <c r="T16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>-1.7700728317826633</v>
+      </c>
+      <c r="Y16" s="44">
+        <f t="shared" ref="Y16:Z16" si="32">Y15/Y17</f>
+        <v>-1.2555191431999431</v>
+      </c>
+      <c r="Z16" s="44">
+        <f t="shared" si="32"/>
+        <v>-2.3605151435337697</v>
       </c>
       <c r="AA16" s="44">
         <f>AA15/AA17</f>
@@ -12928,6 +13199,15 @@
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F17" s="44">
+        <v>99.417907999999997</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44">
+        <v>137.728578</v>
+      </c>
       <c r="M17" s="44">
         <v>147.50107499999999</v>
       </c>
@@ -12951,6 +13231,12 @@
       </c>
       <c r="T17" s="28">
         <v>182.34786399999999</v>
+      </c>
+      <c r="Y17" s="44">
+        <v>97.130339000000006</v>
+      </c>
+      <c r="Z17" s="44">
+        <v>130.083046</v>
       </c>
       <c r="AA17" s="44">
         <v>146.708663</v>
@@ -12963,22 +13249,38 @@
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="J19" s="32">
+        <f t="shared" ref="J19" si="33">J4/F4-1</f>
+        <v>0.62124697751368063</v>
+      </c>
+      <c r="N19" s="32">
+        <f t="shared" ref="N19" si="34">N4/J4-1</f>
+        <v>0.65474120232833388</v>
+      </c>
       <c r="Q19" s="32">
-        <f t="shared" ref="Q19" si="17">Q4/M4-1</f>
+        <f t="shared" ref="Q19" si="35">Q4/M4-1</f>
         <v>0.65229290419649577</v>
       </c>
       <c r="R19" s="32">
-        <f t="shared" ref="R19" si="18">R4/N4-1</f>
+        <f t="shared" ref="R19" si="36">R4/N4-1</f>
         <v>0.53760148880658276</v>
       </c>
       <c r="S19" s="32">
-        <f t="shared" ref="S19" si="19">S4/O4-1</f>
+        <f t="shared" ref="S19" si="37">S4/O4-1</f>
         <v>0.4836962785683776</v>
       </c>
       <c r="T19" s="32">
         <f>T4/P4-1</f>
         <v>0.41024111604933844</v>
       </c>
+      <c r="Z19" s="32">
+        <f t="shared" ref="Z19:AB19" si="38">Z4/Y4-1</f>
+        <v>0.74515549935622039</v>
+      </c>
+      <c r="AA19" s="32">
+        <f t="shared" si="38"/>
+        <v>0.55295345483521796</v>
+      </c>
       <c r="AB19" s="32">
         <f>AB4/AA4-1</f>
         <v>0.613053532344634</v>
@@ -12989,11 +13291,11 @@
         <v>72</v>
       </c>
       <c r="N20" s="31">
-        <f t="shared" ref="N20:O20" si="20">N4/M4-1</f>
+        <f t="shared" ref="N20:O20" si="39">N4/M4-1</f>
         <v>0.22349984039074133</v>
       </c>
       <c r="O20" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>7.6443649765549404E-2</v>
       </c>
       <c r="P20" s="31">
@@ -13001,15 +13303,15 @@
         <v>0.13380441636101059</v>
       </c>
       <c r="Q20" s="31">
-        <f t="shared" ref="Q20:S20" si="21">Q4/P4-1</f>
+        <f t="shared" ref="Q20:S20" si="40">Q4/P4-1</f>
         <v>0.10650575320922484</v>
       </c>
       <c r="R20" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.13857244763407617</v>
       </c>
       <c r="S20" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>3.8705704223346515E-2</v>
       </c>
       <c r="T20" s="31">
@@ -13033,16 +13335,24 @@
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="F22" s="31">
+        <f t="shared" ref="F22" si="41">F6/F4</f>
+        <v>0.52869771221035522</v>
+      </c>
+      <c r="J22" s="31">
+        <f t="shared" ref="J22" si="42">J6/J4</f>
+        <v>0.52740743424389536</v>
+      </c>
       <c r="M22" s="31">
-        <f t="shared" ref="M22" si="22">M6/M4</f>
+        <f t="shared" ref="M22" si="43">M6/M4</f>
         <v>0.51537941241469831</v>
       </c>
       <c r="N22" s="31">
-        <f t="shared" ref="N22:O22" si="23">N6/N4</f>
+        <f t="shared" ref="N22:O22" si="44">N6/N4</f>
         <v>0.51473480632742796</v>
       </c>
       <c r="O22" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.50561028359898841</v>
       </c>
       <c r="P22" s="31">
@@ -13050,23 +13360,31 @@
         <v>0.49518859194745046</v>
       </c>
       <c r="Q22" s="31">
-        <f t="shared" ref="Q22" si="24">Q6/Q4</f>
+        <f t="shared" ref="Q22" si="45">Q6/Q4</f>
         <v>0.49260581267158088</v>
       </c>
       <c r="R22" s="31">
-        <f t="shared" ref="R22:S22" si="25">R6/R4</f>
+        <f t="shared" ref="R22:S22" si="46">R6/R4</f>
         <v>0.47054265589550326</v>
       </c>
       <c r="S22" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="46"/>
         <v>0.48559397644177338</v>
       </c>
       <c r="T22" s="31">
         <f>T6/T4</f>
         <v>0.47202746794946543</v>
       </c>
+      <c r="Y22" s="31">
+        <f t="shared" ref="Y22:AA22" si="47">Y6/Y4</f>
+        <v>0.53721539472085189</v>
+      </c>
+      <c r="Z22" s="31">
+        <f t="shared" si="47"/>
+        <v>0.53674233208869704</v>
+      </c>
       <c r="AA22" s="31">
-        <f t="shared" ref="AA22" si="26">AA6/AA4</f>
+        <f t="shared" si="47"/>
         <v>0.51973746946263322</v>
       </c>
       <c r="AB22" s="31">
@@ -13078,16 +13396,24 @@
       <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="F23" s="31">
+        <f t="shared" ref="F23" si="48">F11/F4</f>
+        <v>-0.21530381494062717</v>
+      </c>
+      <c r="J23" s="31">
+        <f t="shared" ref="J23" si="49">J11/J4</f>
+        <v>-0.28318902011931496</v>
+      </c>
       <c r="M23" s="31">
-        <f t="shared" ref="M23" si="27">M11/M4</f>
+        <f t="shared" ref="M23" si="50">M11/M4</f>
         <v>-0.25062002058178134</v>
       </c>
       <c r="N23" s="31">
-        <f t="shared" ref="N23:O23" si="28">N11/N4</f>
+        <f t="shared" ref="N23:O23" si="51">N11/N4</f>
         <v>-0.33806674086372651</v>
       </c>
       <c r="O23" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="51"/>
         <v>-0.33447968433256259</v>
       </c>
       <c r="P23" s="31">
@@ -13095,23 +13421,31 @@
         <v>-0.30238395290396158</v>
       </c>
       <c r="Q23" s="31">
-        <f t="shared" ref="Q23" si="29">Q11/Q4</f>
+        <f t="shared" ref="Q23" si="52">Q11/Q4</f>
         <v>-0.3139050712263029</v>
       </c>
       <c r="R23" s="31">
-        <f t="shared" ref="R23:S23" si="30">R11/R4</f>
+        <f t="shared" ref="R23:S23" si="53">R11/R4</f>
         <v>-0.33655060136886167</v>
       </c>
       <c r="S23" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="53"/>
         <v>-0.24882020373262284</v>
       </c>
       <c r="T23" s="31">
         <f>T11/T4</f>
         <v>-0.33066696065315881</v>
       </c>
+      <c r="Y23" s="31">
+        <f t="shared" ref="Y23:AA23" si="54">Y11/Y4</f>
+        <v>-0.17726634331538135</v>
+      </c>
+      <c r="Z23" s="31">
+        <f t="shared" si="54"/>
+        <v>-0.32595454433267396</v>
+      </c>
       <c r="AA23" s="31">
-        <f t="shared" ref="AA23" si="31">AA11/AA4</f>
+        <f t="shared" si="54"/>
         <v>-0.27977506788604217</v>
       </c>
       <c r="AB23" s="31">
@@ -13123,16 +13457,24 @@
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="F24" s="31">
+        <f t="shared" ref="F24" si="55">F15/F4</f>
+        <v>-0.23082495521336066</v>
+      </c>
+      <c r="J24" s="31">
+        <f t="shared" ref="J24" si="56">J15/J4</f>
+        <v>-0.27246515952950268</v>
+      </c>
       <c r="M24" s="31">
-        <f t="shared" ref="M24" si="32">M15/M4</f>
+        <f t="shared" ref="M24" si="57">M15/M4</f>
         <v>-0.26098680935511165</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24:O24" si="33">N15/N4</f>
+        <f t="shared" ref="N24:O24" si="58">N15/N4</f>
         <v>-0.3272291047090804</v>
       </c>
       <c r="O24" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>-0.35007830667742379</v>
       </c>
       <c r="P24" s="31">
@@ -13140,23 +13482,31 @@
         <v>-0.34062257542257712</v>
       </c>
       <c r="Q24" s="31">
-        <f t="shared" ref="Q24" si="34">Q15/Q4</f>
+        <f t="shared" ref="Q24" si="59">Q15/Q4</f>
         <v>-0.30277798793800387</v>
       </c>
       <c r="R24" s="31">
-        <f t="shared" ref="R24:S24" si="35">R15/R4</f>
+        <f t="shared" ref="R24:S24" si="60">R15/R4</f>
         <v>-0.34577048308857727</v>
       </c>
       <c r="S24" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>-0.25318296523842099</v>
       </c>
       <c r="T24" s="31">
         <f>T15/T4</f>
         <v>-0.34215045465435023</v>
       </c>
+      <c r="Y24" s="31">
+        <f t="shared" ref="Y24:AA24" si="61">Y15/Y4</f>
+        <v>-0.18759450948902193</v>
+      </c>
+      <c r="Z24" s="31">
+        <f t="shared" si="61"/>
+        <v>-0.27066695578896882</v>
+      </c>
       <c r="AA24" s="31">
-        <f t="shared" ref="AA24" si="36">AA15/AA4</f>
+        <f t="shared" si="61"/>
         <v>-0.27868412329376707</v>
       </c>
       <c r="AB24" s="31">
@@ -13168,16 +13518,24 @@
       <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="F25" s="31">
+        <f t="shared" ref="F25" si="62">F14/F13</f>
+        <v>-8.9862638538234403E-3</v>
+      </c>
+      <c r="J25" s="31">
+        <f t="shared" ref="J25" si="63">J14/J13</f>
+        <v>-1.297549696377861E-2</v>
+      </c>
       <c r="M25" s="31">
-        <f t="shared" ref="M25" si="37">M14/M13</f>
+        <f t="shared" ref="M25" si="64">M14/M13</f>
         <v>-5.5734264531333323E-3</v>
       </c>
       <c r="N25" s="31">
-        <f t="shared" ref="N25:O25" si="38">N14/N13</f>
+        <f t="shared" ref="N25:O25" si="65">N14/N13</f>
         <v>7.891452723696446E-2</v>
       </c>
       <c r="O25" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="65"/>
         <v>-4.3276992200416255E-3</v>
       </c>
       <c r="P25" s="31">
@@ -13185,23 +13543,31 @@
         <v>-5.6760251934306425E-3</v>
       </c>
       <c r="Q25" s="31">
-        <f t="shared" ref="Q25" si="39">Q14/Q13</f>
+        <f t="shared" ref="Q25" si="66">Q14/Q13</f>
         <v>6.2140627223194043E-2</v>
       </c>
       <c r="R25" s="31">
-        <f t="shared" ref="R25:S25" si="40">R14/R13</f>
+        <f t="shared" ref="R25:S25" si="67">R14/R13</f>
         <v>-5.6738176095419536E-3</v>
       </c>
       <c r="S25" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="67"/>
         <v>1.2731362897298265E-2</v>
       </c>
       <c r="T25" s="31">
         <f>T14/T13</f>
         <v>-8.1018193175607101E-3</v>
       </c>
+      <c r="Y25" s="31">
+        <f t="shared" ref="Y25:AA25" si="68">Y14/Y13</f>
+        <v>-6.5286650489443532E-3</v>
+      </c>
+      <c r="Z25" s="31">
+        <f t="shared" si="68"/>
+        <v>0.15226549903924733</v>
+      </c>
       <c r="AA25" s="31">
-        <f t="shared" ref="AA25" si="41">AA14/AA13</f>
+        <f t="shared" si="68"/>
         <v>2.6658023178821082E-2</v>
       </c>
       <c r="AB25" s="31">
@@ -13213,12 +13579,20 @@
       <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J27" s="31">
+        <f t="shared" ref="J27" si="69">J7/F7-1</f>
+        <v>1.1350738897174177</v>
+      </c>
+      <c r="N27" s="31">
+        <f t="shared" ref="N27" si="70">N7/J7-1</f>
+        <v>0.44105373925033553</v>
+      </c>
       <c r="Q27" s="31">
-        <f t="shared" ref="Q27" si="42">Q7/M7-1</f>
+        <f t="shared" ref="Q27" si="71">Q7/M7-1</f>
         <v>0.5359453209612739</v>
       </c>
       <c r="R27" s="31">
-        <f t="shared" ref="R27" si="43">R7/N7-1</f>
+        <f t="shared" ref="R27" si="72">R7/N7-1</f>
         <v>0.40535453492471163</v>
       </c>
       <c r="S27" s="31">
@@ -13229,6 +13603,17 @@
         <f>T7/P7-1</f>
         <v>0.54259157105030908</v>
       </c>
+      <c r="Y27" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="Z27" s="31">
+        <f t="shared" ref="Z27:AB27" si="73">Z7/Y7-1</f>
+        <v>1.283844349257111</v>
+      </c>
+      <c r="AA27" s="31">
+        <f t="shared" si="73"/>
+        <v>0.35566940501590616</v>
+      </c>
       <c r="AB27" s="31">
         <f>AB7/AA7-1</f>
         <v>0.48755437773773536</v>
@@ -13239,11 +13624,11 @@
         <v>78</v>
       </c>
       <c r="N28" s="42">
-        <f t="shared" ref="N28:O28" si="44">N7/M7-1</f>
+        <f t="shared" ref="N28:O28" si="74">N7/M7-1</f>
         <v>0.16248573017592149</v>
       </c>
       <c r="O28" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="74"/>
         <v>0.10036762854409043</v>
       </c>
       <c r="P28" s="42">
@@ -13251,15 +13636,15 @@
         <v>3.7070938215102878E-2</v>
       </c>
       <c r="Q28" s="42">
-        <f t="shared" ref="Q28:S28" si="45">Q7/P7-1</f>
+        <f t="shared" ref="Q28:S28" si="75">Q7/P7-1</f>
         <v>0.15782215357458074</v>
       </c>
       <c r="R28" s="42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="75"/>
         <v>6.3647624946400638E-2</v>
       </c>
       <c r="S28" s="42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="75"/>
         <v>7.7769665261658405E-2</v>
       </c>
       <c r="T28" s="42">
@@ -13288,6 +13673,12 @@
       <c r="B31" s="1" t="s">
         <v>1710</v>
       </c>
+      <c r="F31" s="40">
+        <v>64286</v>
+      </c>
+      <c r="J31" s="40">
+        <v>179000</v>
+      </c>
       <c r="M31" s="40">
         <v>208000</v>
       </c>
@@ -13311,6 +13702,14 @@
       </c>
       <c r="T31" s="40">
         <v>275000</v>
+      </c>
+      <c r="Y31" s="40">
+        <f>F31</f>
+        <v>64286</v>
+      </c>
+      <c r="Z31" s="40">
+        <f>J31</f>
+        <v>179000</v>
       </c>
       <c r="AA31" s="40">
         <f>N31</f>
@@ -13325,9 +13724,17 @@
       <c r="B32" s="39" t="s">
         <v>1714</v>
       </c>
+      <c r="J32" s="42">
+        <f t="shared" ref="J32" si="76">J31/F31-1</f>
+        <v>1.7844320691908035</v>
+      </c>
+      <c r="N32" s="42">
+        <f t="shared" ref="N32" si="77">N31/J31-1</f>
+        <v>0.23463687150837997</v>
+      </c>
       <c r="P32" s="41"/>
       <c r="Q32" s="42">
-        <f t="shared" ref="Q32" si="46">Q31/M31-1</f>
+        <f t="shared" ref="Q32" si="78">Q31/M31-1</f>
         <v>0.20192307692307687</v>
       </c>
       <c r="R32" s="42">
@@ -13342,6 +13749,14 @@
         <f>T31/P31-1</f>
         <v>0.14583333333333326</v>
       </c>
+      <c r="Z32" s="42">
+        <f t="shared" ref="Z32:AA32" si="79">Z31/Y31-1</f>
+        <v>1.7844320691908035</v>
+      </c>
+      <c r="AA32" s="42">
+        <f t="shared" si="79"/>
+        <v>0.23463687150837997</v>
+      </c>
       <c r="AB32" s="42">
         <f>AB31/AA31-1</f>
         <v>0.158371040723982</v>
@@ -13352,27 +13767,27 @@
         <v>1713</v>
       </c>
       <c r="N33" s="42">
-        <f t="shared" ref="N33:Q33" si="47">N31/M31-1</f>
+        <f t="shared" ref="N33:Q33" si="80">N31/M31-1</f>
         <v>6.25E-2</v>
       </c>
       <c r="O33" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="80"/>
         <v>6.3348416289592757E-2</v>
       </c>
       <c r="P33" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="80"/>
         <v>2.1276595744680771E-2</v>
       </c>
       <c r="Q33" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="80"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="R33" s="42">
-        <f t="shared" ref="R33:S33" si="48">R31/Q31-1</f>
+        <f t="shared" ref="R33:S33" si="81">R31/Q31-1</f>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="S33" s="42">
-        <f t="shared" si="48"/>
+        <f t="shared" si="81"/>
         <v>4.6875E-2</v>
       </c>
       <c r="T33" s="42">
@@ -13396,6 +13811,18 @@
       <c r="B34" s="1" t="s">
         <v>1711</v>
       </c>
+      <c r="F34" s="40">
+        <v>1440</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40">
+        <v>2905</v>
+      </c>
+      <c r="N34" s="40">
+        <v>4629</v>
+      </c>
       <c r="Q34" s="40">
         <v>7381</v>
       </c>
@@ -13409,9 +13836,14 @@
         <v>8510</v>
       </c>
       <c r="V34" s="30"/>
-      <c r="AA34" s="1">
-        <f>N34</f>
-        <v>0</v>
+      <c r="Y34" s="40">
+        <v>1440</v>
+      </c>
+      <c r="Z34" s="40">
+        <v>2905</v>
+      </c>
+      <c r="AA34" s="40">
+        <v>4629</v>
       </c>
       <c r="AB34" s="40">
         <f>R34</f>
@@ -13421,6 +13853,18 @@
     <row r="35" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
         <v>1712</v>
+      </c>
+      <c r="F35" s="43">
+        <f>F4/F34</f>
+        <v>0.14187638888888887</v>
+      </c>
+      <c r="J35" s="43">
+        <f>J4/J34</f>
+        <v>0.11401858864027538</v>
+      </c>
+      <c r="N35" s="43">
+        <f>N4/N34</f>
+        <v>0.11840354288183194</v>
       </c>
       <c r="P35" s="43"/>
       <c r="Q35" s="43">
@@ -13439,9 +13883,17 @@
         <f>T4/T34</f>
         <v>0.1108524089306698</v>
       </c>
-      <c r="AA35" s="43" t="e">
+      <c r="Y35" s="43">
+        <f t="shared" ref="Y35:Z35" si="82">Y4/Y34</f>
+        <v>0.45143541666666664</v>
+      </c>
+      <c r="Z35" s="43">
+        <f t="shared" si="82"/>
+        <v>0.39052254733218589</v>
+      </c>
+      <c r="AA35" s="43">
         <f>AA4/AA34</f>
-        <v>#DIV/0!</v>
+        <v>0.38059537697126811</v>
       </c>
       <c r="AB35" s="43">
         <f>AB4/AB34</f>
@@ -13457,6 +13909,15 @@
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F40" s="29">
+        <v>487.21499999999997</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29">
+        <v>253.66</v>
+      </c>
       <c r="N40" s="29">
         <v>933.88499999999999</v>
       </c>
@@ -13471,6 +13932,14 @@
       </c>
       <c r="T40" s="29">
         <v>798.625</v>
+      </c>
+      <c r="Y40" s="29">
+        <f>F40</f>
+        <v>487.21499999999997</v>
+      </c>
+      <c r="Z40" s="29">
+        <f>J40</f>
+        <v>253.66</v>
       </c>
       <c r="AA40" s="29">
         <f>N40</f>
@@ -13485,6 +13954,15 @@
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="F41" s="29">
+        <v>261.12799999999999</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29">
+        <v>1559.0329999999999</v>
+      </c>
       <c r="N41" s="29">
         <v>2105.9059999999999</v>
       </c>
@@ -13500,8 +13978,16 @@
       <c r="T41" s="29">
         <v>3593.6590000000001</v>
       </c>
+      <c r="Y41" s="29">
+        <f t="shared" ref="Y41" si="83">F41</f>
+        <v>261.12799999999999</v>
+      </c>
+      <c r="Z41" s="29">
+        <f t="shared" ref="Z41" si="84">J41</f>
+        <v>1559.0329999999999</v>
+      </c>
       <c r="AA41" s="29">
-        <f t="shared" ref="AA41" si="49">N41</f>
+        <f t="shared" ref="AA41" si="85">N41</f>
         <v>2105.9059999999999</v>
       </c>
       <c r="AB41" s="29">
@@ -13513,6 +13999,15 @@
       <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="F42" s="30">
+        <v>97.712000000000003</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30">
+        <v>154.06700000000001</v>
+      </c>
       <c r="N42" s="30">
         <v>251.167</v>
       </c>
@@ -13527,6 +14022,14 @@
       </c>
       <c r="T42" s="30">
         <v>471.91500000000002</v>
+      </c>
+      <c r="Y42" s="30">
+        <f>F42</f>
+        <v>97.712000000000003</v>
+      </c>
+      <c r="Z42" s="30">
+        <f>J42</f>
+        <v>154.06700000000001</v>
       </c>
       <c r="AA42" s="30">
         <f>N42</f>
@@ -13541,6 +14044,15 @@
       <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F43" s="30">
+        <v>26.893000000000001</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30">
+        <v>54.570999999999998</v>
+      </c>
       <c r="N43" s="30">
         <v>81.376999999999995</v>
       </c>
@@ -13556,12 +14068,20 @@
       <c r="T43" s="30">
         <v>240.19200000000001</v>
       </c>
+      <c r="Y43" s="30">
+        <f t="shared" ref="Y43" si="86">F43</f>
+        <v>26.893000000000001</v>
+      </c>
+      <c r="Z43" s="30">
+        <f t="shared" ref="Z43" si="87">J43</f>
+        <v>54.570999999999998</v>
+      </c>
       <c r="AA43" s="30">
-        <f t="shared" ref="AA43" si="50">N43</f>
+        <f t="shared" ref="AA43" si="88">N43</f>
         <v>81.376999999999995</v>
       </c>
       <c r="AB43" s="30">
-        <f t="shared" ref="AB43" si="51">R43</f>
+        <f t="shared" ref="AB43" si="89">R43</f>
         <v>186.131</v>
       </c>
     </row>
@@ -13569,6 +14089,17 @@
       <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="F44" s="30">
+        <f>SUM(F40:F43)</f>
+        <v>872.94799999999998</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30">
+        <f>SUM(J40:J43)</f>
+        <v>2021.3309999999999</v>
+      </c>
       <c r="N44" s="30">
         <f>SUM(N40:N43)</f>
         <v>3372.335</v>
@@ -13589,12 +14120,20 @@
         <f>SUM(T40:T43)</f>
         <v>5104.3909999999996</v>
       </c>
+      <c r="Y44" s="30">
+        <f t="shared" ref="Y44:AB44" si="90">SUM(Y40:Y43)</f>
+        <v>872.94799999999998</v>
+      </c>
+      <c r="Z44" s="30">
+        <f t="shared" si="90"/>
+        <v>2021.3309999999999</v>
+      </c>
       <c r="AA44" s="30">
-        <f t="shared" ref="AA44:AB44" si="52">SUM(AA40:AA43)</f>
+        <f t="shared" si="90"/>
         <v>3372.335</v>
       </c>
       <c r="AB44" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="90"/>
         <v>5932.2280000000001</v>
       </c>
     </row>
@@ -13602,6 +14141,15 @@
       <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="F45" s="30">
+        <v>63.533999999999999</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30">
+        <v>141.256</v>
+      </c>
       <c r="N45" s="30">
         <v>183.239</v>
       </c>
@@ -13617,12 +14165,20 @@
       <c r="T45" s="30">
         <v>264.767</v>
       </c>
+      <c r="Y45" s="30">
+        <f t="shared" ref="Y45:Y49" si="91">F45</f>
+        <v>63.533999999999999</v>
+      </c>
+      <c r="Z45" s="30">
+        <f>J45</f>
+        <v>141.256</v>
+      </c>
       <c r="AA45" s="30">
-        <f t="shared" ref="AA45:AA49" si="53">N45</f>
+        <f t="shared" ref="AA45:AA49" si="92">N45</f>
         <v>183.239</v>
       </c>
       <c r="AB45" s="30">
-        <f t="shared" ref="AB45:AB49" si="54">R45</f>
+        <f t="shared" ref="AB45:AB49" si="93">R45</f>
         <v>255.316</v>
       </c>
     </row>
@@ -13630,6 +14186,15 @@
       <c r="B46" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="F46" s="30">
+        <v>0</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30">
+        <v>156.74100000000001</v>
+      </c>
       <c r="N46" s="30">
         <v>258.61</v>
       </c>
@@ -13645,12 +14210,20 @@
       <c r="T46" s="30">
         <v>213.464</v>
       </c>
+      <c r="Y46" s="30">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="30">
+        <f>J45</f>
+        <v>141.256</v>
+      </c>
       <c r="AA46" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>258.61</v>
       </c>
       <c r="AB46" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>234.584</v>
       </c>
     </row>
@@ -13658,6 +14231,15 @@
       <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="F47" s="30">
+        <v>18.119</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N47" s="30">
         <v>0</v>
       </c>
@@ -13673,12 +14255,20 @@
       <c r="T47" s="30">
         <v>750</v>
       </c>
+      <c r="Y47" s="30">
+        <f t="shared" si="91"/>
+        <v>18.119</v>
+      </c>
+      <c r="Z47" s="30">
+        <f>J47</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="AA47" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AB47" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
     </row>
@@ -13686,6 +14276,17 @@
       <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="F48" s="30">
+        <f>27.558+38.165</f>
+        <v>65.722999999999999</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30">
+        <f>480.849+2296.784</f>
+        <v>2777.6330000000003</v>
+      </c>
       <c r="N48" s="30">
         <f>966.573+4595.394</f>
         <v>5561.9670000000006</v>
@@ -13706,12 +14307,20 @@
         <f>953.522+5285.563</f>
         <v>6239.085</v>
       </c>
+      <c r="Y48" s="30">
+        <f t="shared" si="91"/>
+        <v>65.722999999999999</v>
+      </c>
+      <c r="Z48" s="30">
+        <f t="shared" ref="Z45:Z49" si="94">J48</f>
+        <v>2777.6330000000003</v>
+      </c>
       <c r="AA48" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>5561.9670000000006</v>
       </c>
       <c r="AB48" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>6313.1779999999999</v>
       </c>
     </row>
@@ -13719,6 +14328,15 @@
       <c r="B49" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="F49" s="30">
+        <v>8.3859999999999992</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30">
+        <v>33.479999999999997</v>
+      </c>
       <c r="N49" s="30">
         <v>111.282</v>
       </c>
@@ -13734,12 +14352,20 @@
       <c r="T49" s="30">
         <v>297.52199999999999</v>
       </c>
+      <c r="Y49" s="30">
+        <f t="shared" si="91"/>
+        <v>8.3859999999999992</v>
+      </c>
+      <c r="Z49" s="30">
+        <f t="shared" si="94"/>
+        <v>33.479999999999997</v>
+      </c>
       <c r="AA49" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>111.282</v>
       </c>
       <c r="AB49" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>263.29199999999997</v>
       </c>
     </row>
@@ -13747,6 +14373,17 @@
       <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="F50" s="30">
+        <f>F44+SUM(F45:F49)</f>
+        <v>1028.71</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30">
+        <f>J44+SUM(J45:J49)</f>
+        <v>5130.5160000000005</v>
+      </c>
       <c r="N50" s="30">
         <f>N44+SUM(N45:N49)</f>
         <v>9487.4330000000009</v>
@@ -13767,12 +14404,20 @@
         <f>T44+SUM(T45:T49)</f>
         <v>12869.228999999999</v>
       </c>
+      <c r="Y50" s="30">
+        <f t="shared" ref="Y50:AB50" si="95">Y44+SUM(Y45:Y49)</f>
+        <v>1028.71</v>
+      </c>
+      <c r="Z50" s="30">
+        <f t="shared" si="95"/>
+        <v>5115.0309999999999</v>
+      </c>
       <c r="AA50" s="30">
-        <f t="shared" ref="AA50:AB50" si="55">AA44+SUM(AA45:AA49)</f>
+        <f t="shared" si="95"/>
         <v>9487.4330000000009</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" si="55"/>
+        <f t="shared" si="95"/>
         <v>12998.598</v>
       </c>
     </row>
@@ -13781,11 +14426,19 @@
       <c r="Q51" s="30"/>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="F52" s="30">
+        <v>18.495000000000001</v>
+      </c>
+      <c r="J52" s="30">
+        <v>39.098999999999997</v>
+      </c>
       <c r="N52" s="30">
         <v>60.042000000000002</v>
       </c>
@@ -13801,12 +14454,20 @@
       <c r="T52" s="30">
         <v>102.039</v>
       </c>
+      <c r="Y52" s="30">
+        <f t="shared" ref="Y52:Y55" si="96">F52</f>
+        <v>18.495000000000001</v>
+      </c>
+      <c r="Z52" s="30">
+        <f t="shared" ref="Z52:Z55" si="97">J52</f>
+        <v>39.098999999999997</v>
+      </c>
       <c r="AA52" s="30">
-        <f t="shared" ref="AA52:AA57" si="56">N52</f>
+        <f t="shared" ref="Y52:AB58" si="98">N52</f>
         <v>60.042000000000002</v>
       </c>
       <c r="AB52" s="30">
-        <f t="shared" ref="AB52:AB55" si="57">R52</f>
+        <f t="shared" ref="AB52:AB55" si="99">R52</f>
         <v>93.332999999999998</v>
       </c>
     </row>
@@ -13814,6 +14475,12 @@
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="F53" s="30">
+        <v>96.343000000000004</v>
+      </c>
+      <c r="J53" s="30">
+        <v>147.68100000000001</v>
+      </c>
       <c r="N53" s="30">
         <v>252.89500000000001</v>
       </c>
@@ -13829,12 +14496,20 @@
       <c r="T53" s="30">
         <v>504.81</v>
       </c>
+      <c r="Y53" s="30">
+        <f t="shared" si="96"/>
+        <v>96.343000000000004</v>
+      </c>
+      <c r="Z53" s="30">
+        <f t="shared" si="97"/>
+        <v>147.68100000000001</v>
+      </c>
       <c r="AA53" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="98"/>
         <v>252.89500000000001</v>
       </c>
       <c r="AB53" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="99"/>
         <v>417.50299999999999</v>
       </c>
     </row>
@@ -13842,6 +14517,12 @@
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="F54" s="30">
+        <v>22.972000000000001</v>
+      </c>
+      <c r="J54" s="30">
+        <v>26.361999999999998</v>
+      </c>
       <c r="N54" s="30">
         <v>87.031000000000006</v>
       </c>
@@ -13857,12 +14538,20 @@
       <c r="T54" s="30">
         <v>137.72800000000001</v>
       </c>
+      <c r="Y54" s="30">
+        <f t="shared" si="96"/>
+        <v>22.972000000000001</v>
+      </c>
+      <c r="Z54" s="30">
+        <f t="shared" si="97"/>
+        <v>26.361999999999998</v>
+      </c>
       <c r="AA54" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="98"/>
         <v>87.031000000000006</v>
       </c>
       <c r="AB54" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="99"/>
         <v>140.38900000000001</v>
       </c>
     </row>
@@ -13870,6 +14559,12 @@
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="F55" s="30">
+        <v>0</v>
+      </c>
+      <c r="J55" s="30">
+        <v>27.155999999999999</v>
+      </c>
       <c r="N55" s="30">
         <v>48.338000000000001</v>
       </c>
@@ -13885,630 +14580,968 @@
       <c r="T55" s="30">
         <v>50.743000000000002</v>
       </c>
+      <c r="Y55" s="30">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="30">
+        <f t="shared" si="97"/>
+        <v>27.155999999999999</v>
+      </c>
       <c r="AA55" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="98"/>
         <v>48.338000000000001</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="99"/>
         <v>52.325000000000003</v>
       </c>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="F56" s="30">
+        <v>0</v>
+      </c>
+      <c r="J56" s="30">
+        <v>6.9240000000000004</v>
       </c>
       <c r="N56" s="30">
-        <f>SUM(N52:N55)</f>
-        <v>448.30600000000004</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="30">
-        <v>617.07299999999998</v>
+        <v>0</v>
       </c>
       <c r="R56" s="30">
-        <f>SUM(R52:R55)</f>
-        <v>703.55000000000007</v>
+        <v>0</v>
       </c>
       <c r="S56" s="30">
-        <f>SUM(S52:S55)</f>
-        <v>719.82200000000012</v>
+        <v>0</v>
       </c>
       <c r="T56" s="30">
-        <f>SUM(T52:T55)</f>
-        <v>795.32</v>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="30">
+        <f>F56</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="30">
+        <f>J56</f>
+        <v>6.9240000000000004</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" ref="AA56:AB56" si="58">SUM(AA52:AA55)</f>
-        <v>448.30600000000004</v>
+        <f t="shared" si="98"/>
+        <v>0</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="58"/>
-        <v>703.55000000000007</v>
+        <f>R56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="30">
+        <f>SUM(F52:F56)</f>
+        <v>137.81</v>
+      </c>
+      <c r="J57" s="30">
+        <f>SUM(J52:J56)</f>
+        <v>247.22200000000001</v>
+      </c>
+      <c r="N57" s="30">
+        <f>SUM(N52:N56)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="Q57" s="30">
+        <f t="shared" ref="Q57:S57" si="100">SUM(Q52:Q56)</f>
+        <v>617.25300000000004</v>
+      </c>
+      <c r="R57" s="30">
+        <f t="shared" si="100"/>
+        <v>703.55000000000007</v>
+      </c>
+      <c r="S57" s="30">
+        <f t="shared" si="100"/>
+        <v>719.82200000000012</v>
+      </c>
+      <c r="T57" s="30">
+        <f>SUM(T52:T56)</f>
+        <v>795.32</v>
+      </c>
+      <c r="Y57" s="30">
+        <f>SUM(Y52:Y56)</f>
+        <v>137.81</v>
+      </c>
+      <c r="Z57" s="30">
+        <f>SUM(Z52:Z56)</f>
+        <v>247.22200000000001</v>
+      </c>
+      <c r="AA57" s="30">
+        <f>SUM(AA52:AA56)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="AB57" s="30">
+        <f>SUM(AB52:AB56)</f>
+        <v>703.55000000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N57" s="30">
+      <c r="F58" s="30">
+        <v>0</v>
+      </c>
+      <c r="J58" s="30">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="N58" s="30">
         <v>229.905</v>
       </c>
-      <c r="Q57" s="30">
+      <c r="Q58" s="30">
         <v>223.03299999999999</v>
       </c>
-      <c r="R57" s="30">
+      <c r="R58" s="30">
         <v>211.25299999999999</v>
       </c>
-      <c r="S57" s="30">
+      <c r="S58" s="30">
         <v>201.35400000000001</v>
       </c>
-      <c r="T57" s="30">
+      <c r="T58" s="30">
         <v>189.06800000000001</v>
       </c>
-      <c r="AA57" s="30">
-        <f t="shared" si="56"/>
+      <c r="Y58" s="30">
+        <f t="shared" ref="Y58:Y61" si="101">F58</f>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="30">
+        <f t="shared" ref="Z58:Z61" si="102">J58</f>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="AA58" s="30">
+        <f t="shared" si="98"/>
         <v>229.905</v>
       </c>
-      <c r="AB57" s="30">
-        <f t="shared" ref="AB57" si="59">R57</f>
+      <c r="AB58" s="30">
+        <f t="shared" ref="AB58" si="103">R58</f>
         <v>211.25299999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N58" s="29">
-        <v>17.856000000000002</v>
-      </c>
-      <c r="Q58" s="29">
-        <v>20.254000000000001</v>
-      </c>
-      <c r="R58" s="29">
-        <v>25.132000000000001</v>
-      </c>
-      <c r="S58" s="29">
-        <v>22.053000000000001</v>
-      </c>
-      <c r="T58" s="29">
-        <v>18.934999999999999</v>
-      </c>
-      <c r="AA58" s="29">
-        <f t="shared" ref="AA58" si="60">N58</f>
-        <v>17.856000000000002</v>
-      </c>
-      <c r="AB58" s="29">
-        <f>R58</f>
-        <v>25.132000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="29">
+        <v>0</v>
+      </c>
+      <c r="J59" s="29">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="N59" s="29">
+        <v>17.856000000000002</v>
+      </c>
+      <c r="Q59" s="29">
+        <v>20.254000000000001</v>
+      </c>
+      <c r="R59" s="29">
+        <v>25.132000000000001</v>
+      </c>
+      <c r="S59" s="29">
+        <v>22.053000000000001</v>
+      </c>
+      <c r="T59" s="29">
+        <v>18.934999999999999</v>
+      </c>
+      <c r="Y59" s="29">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="29">
+        <f t="shared" si="102"/>
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="AA59" s="29">
+        <f t="shared" ref="AA59" si="104">N59</f>
+        <v>17.856000000000002</v>
+      </c>
+      <c r="AB59" s="29">
+        <f>R59</f>
+        <v>25.132000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N59" s="29">
+      <c r="F60" s="29">
+        <v>434.49599999999998</v>
+      </c>
+      <c r="J60" s="29">
+        <v>458.19</v>
+      </c>
+      <c r="N60" s="29">
         <v>302.06799999999998</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="Q60" s="29">
         <v>985.54700000000003</v>
       </c>
-      <c r="R59" s="29">
+      <c r="R60" s="29">
         <v>985.90700000000004</v>
       </c>
-      <c r="S59" s="29">
+      <c r="S60" s="29">
         <v>986.24300000000005</v>
       </c>
-      <c r="T59" s="29">
+      <c r="T60" s="29">
         <v>986.61900000000003</v>
       </c>
-      <c r="AA59" s="29">
-        <f t="shared" ref="AA59:AA60" si="61">N59</f>
+      <c r="Y60" s="29">
+        <f t="shared" si="101"/>
+        <v>434.49599999999998</v>
+      </c>
+      <c r="Z60" s="29">
+        <f t="shared" si="102"/>
+        <v>458.19</v>
+      </c>
+      <c r="AA60" s="29">
+        <f t="shared" ref="AA60:AA61" si="105">N60</f>
         <v>302.06799999999998</v>
       </c>
-      <c r="AB59" s="29">
-        <f t="shared" ref="AB59:AB60" si="62">R59</f>
+      <c r="AB60" s="29">
+        <f t="shared" ref="AB60:AB61" si="106">R60</f>
         <v>985.90700000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N60" s="30">
-        <v>36.633000000000003</v>
-      </c>
-      <c r="Q60" s="30">
-        <v>49.191000000000003</v>
-      </c>
-      <c r="R60" s="30">
-        <v>41.29</v>
-      </c>
-      <c r="S60" s="30">
-        <v>43.896999999999998</v>
-      </c>
-      <c r="T60" s="30">
-        <v>37.292000000000002</v>
-      </c>
-      <c r="AA60" s="30">
-        <f t="shared" si="61"/>
-        <v>36.633000000000003</v>
-      </c>
-      <c r="AB60" s="30">
-        <f t="shared" si="62"/>
-        <v>41.29</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="30">
+        <v>18.169</v>
+      </c>
+      <c r="J61" s="30">
+        <v>17.747</v>
+      </c>
+      <c r="N61" s="30">
+        <v>36.633000000000003</v>
+      </c>
+      <c r="Q61" s="30">
+        <v>49.191000000000003</v>
+      </c>
+      <c r="R61" s="30">
+        <v>41.29</v>
+      </c>
+      <c r="S61" s="30">
+        <v>43.896999999999998</v>
+      </c>
+      <c r="T61" s="30">
+        <v>37.292000000000002</v>
+      </c>
+      <c r="Y61" s="30">
+        <f t="shared" si="101"/>
+        <v>18.169</v>
+      </c>
+      <c r="Z61" s="30">
+        <f t="shared" si="102"/>
+        <v>17.747</v>
+      </c>
+      <c r="AA61" s="30">
+        <f t="shared" si="105"/>
+        <v>36.633000000000003</v>
+      </c>
+      <c r="AB61" s="30">
+        <f t="shared" si="106"/>
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N61" s="30">
-        <f>SUM(N57:N60)+N56</f>
+      <c r="F62" s="30">
+        <f>SUM(F58:F61)+F57</f>
+        <v>590.47499999999991</v>
+      </c>
+      <c r="J62" s="30">
+        <f>SUM(J58:J61)+J57</f>
+        <v>871.1049999999999</v>
+      </c>
+      <c r="N62" s="30">
+        <f>SUM(N58:N61)+N57</f>
         <v>1034.768</v>
       </c>
-      <c r="Q61" s="30">
-        <f>SUM(Q57:Q60)+Q56</f>
-        <v>1895.098</v>
-      </c>
-      <c r="R61" s="30">
-        <f>SUM(R57:R60)+R56</f>
+      <c r="Q62" s="30">
+        <f>SUM(Q58:Q61)+Q57</f>
+        <v>1895.2780000000002</v>
+      </c>
+      <c r="R62" s="30">
+        <f>SUM(R58:R61)+R57</f>
         <v>1967.1320000000001</v>
       </c>
-      <c r="S61" s="30">
-        <f>SUM(S57:S60)+S56</f>
+      <c r="S62" s="30">
+        <f>SUM(S58:S61)+S57</f>
         <v>1973.3690000000001</v>
       </c>
-      <c r="T61" s="30">
-        <f>SUM(T57:T60)+T56</f>
+      <c r="T62" s="30">
+        <f>SUM(T58:T61)+T57</f>
         <v>2027.2339999999999</v>
       </c>
-      <c r="AA61" s="30">
-        <f>SUM(AA57:AA60)+AA56</f>
+      <c r="Y62" s="30">
+        <f t="shared" ref="Y62:Z62" si="107">SUM(Y58:Y61)+Y57</f>
+        <v>590.47499999999991</v>
+      </c>
+      <c r="Z62" s="30">
+        <f t="shared" si="107"/>
+        <v>871.1049999999999</v>
+      </c>
+      <c r="AA62" s="30">
+        <f>SUM(AA58:AA61)+AA57</f>
         <v>1034.768</v>
       </c>
-      <c r="AB61" s="30">
-        <f>SUM(AB57:AB60)+AB56</f>
+      <c r="AB62" s="30">
+        <f>SUM(AB58:AB61)+AB57</f>
         <v>1967.1320000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="T62" s="30"/>
-    </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N63" s="30">
-        <v>8452.6650000000009</v>
-      </c>
-      <c r="Q63" s="30">
-        <v>11081.749</v>
-      </c>
-      <c r="R63" s="30">
-        <v>11031.466</v>
-      </c>
-      <c r="S63" s="30">
-        <v>10917.433000000001</v>
-      </c>
-      <c r="T63" s="30">
-        <v>10841.995000000001</v>
-      </c>
-      <c r="AA63" s="30">
-        <f>N63</f>
-        <v>8452.6650000000009</v>
-      </c>
-      <c r="AB63" s="30">
-        <f>R63</f>
-        <v>11031.466</v>
-      </c>
+      <c r="T63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="30">
+        <v>438.23500000000001</v>
+      </c>
+      <c r="J64" s="30">
+        <v>4279.4110000000001</v>
+      </c>
+      <c r="N64" s="30">
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="Q64" s="30">
+        <v>11081.749</v>
+      </c>
+      <c r="R64" s="30">
+        <v>11031.466</v>
+      </c>
+      <c r="S64" s="30">
+        <v>10917.433000000001</v>
+      </c>
+      <c r="T64" s="30">
+        <v>10841.995000000001</v>
+      </c>
+      <c r="Y64" s="30">
+        <f>F64</f>
+        <v>438.23500000000001</v>
+      </c>
+      <c r="Z64" s="30">
+        <f>J64</f>
+        <v>4279.4110000000001</v>
+      </c>
+      <c r="AA64" s="30">
+        <f>N64</f>
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="AB64" s="30">
+        <f>R64</f>
+        <v>11031.466</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N64" s="30">
-        <f>N63+N61</f>
+      <c r="F65" s="30">
+        <f>F64+F62</f>
+        <v>1028.71</v>
+      </c>
+      <c r="J65" s="30">
+        <f>J64+J62</f>
+        <v>5150.5159999999996</v>
+      </c>
+      <c r="N65" s="30">
+        <f>N64+N62</f>
         <v>9487.4330000000009</v>
       </c>
-      <c r="Q64" s="30">
-        <f>Q63+Q61</f>
-        <v>12976.847</v>
-      </c>
-      <c r="R64" s="30">
-        <f>R63+R61</f>
+      <c r="Q65" s="30">
+        <f>Q64+Q62</f>
+        <v>12977.027</v>
+      </c>
+      <c r="R65" s="30">
+        <f>R64+R62</f>
         <v>12998.598</v>
       </c>
-      <c r="S64" s="30">
-        <f>S63+S61</f>
+      <c r="S65" s="30">
+        <f>S64+S62</f>
         <v>12890.802000000001</v>
       </c>
-      <c r="T64" s="30">
-        <f>T63+T61</f>
+      <c r="T65" s="30">
+        <f>T64+T62</f>
         <v>12869.229000000001</v>
       </c>
-      <c r="AA64" s="30">
-        <f>AA63+AA61</f>
+      <c r="Y65" s="30">
+        <f>Y64+Y62</f>
+        <v>1028.71</v>
+      </c>
+      <c r="Z65" s="30">
+        <f>Z64+Z62</f>
+        <v>5150.5159999999996</v>
+      </c>
+      <c r="AA65" s="30">
+        <f>AA64+AA62</f>
         <v>9487.4330000000009</v>
       </c>
-      <c r="AB64" s="30">
-        <f>AB63+AB61</f>
+      <c r="AB65" s="30">
+        <f>AB64+AB62</f>
         <v>12998.598</v>
       </c>
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N66" s="30">
-        <f t="shared" ref="N66" si="63">N50-N61</f>
-        <v>8452.6650000000009</v>
-      </c>
-      <c r="Q66" s="30">
-        <f t="shared" ref="Q66:R66" si="64">Q50-Q61</f>
-        <v>11081.749000000002</v>
-      </c>
-      <c r="R66" s="30">
-        <f t="shared" si="64"/>
-        <v>11031.466</v>
-      </c>
-      <c r="S66" s="30">
-        <f t="shared" ref="S66" si="65">S50-S61</f>
-        <v>10917.432999999999</v>
-      </c>
-      <c r="T66" s="30">
-        <f>T50-T61</f>
-        <v>10841.994999999999</v>
-      </c>
-      <c r="AA66" s="30">
-        <f>AA50-AA61</f>
-        <v>8452.6650000000009</v>
-      </c>
-      <c r="AB66" s="30">
-        <f>AB50-AB61</f>
-        <v>11031.466</v>
-      </c>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="30">
+        <f t="shared" ref="F67" si="108">F50-F62</f>
+        <v>438.23500000000013</v>
+      </c>
+      <c r="J67" s="30">
+        <f t="shared" ref="J67" si="109">J50-J62</f>
+        <v>4259.411000000001</v>
+      </c>
+      <c r="N67" s="30">
+        <f t="shared" ref="N67" si="110">N50-N62</f>
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="Q67" s="30">
+        <f t="shared" ref="Q67:R67" si="111">Q50-Q62</f>
+        <v>11081.569000000001</v>
+      </c>
+      <c r="R67" s="30">
+        <f t="shared" si="111"/>
+        <v>11031.466</v>
+      </c>
+      <c r="S67" s="30">
+        <f t="shared" ref="S67" si="112">S50-S62</f>
+        <v>10917.432999999999</v>
+      </c>
+      <c r="T67" s="30">
+        <f>T50-T62</f>
+        <v>10841.994999999999</v>
+      </c>
+      <c r="Y67" s="30">
+        <f>Y50-Y62</f>
+        <v>438.23500000000013</v>
+      </c>
+      <c r="Z67" s="30">
+        <f>Z50-Z62</f>
+        <v>4243.9260000000004</v>
+      </c>
+      <c r="AA67" s="30">
+        <f>AA50-AA62</f>
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="AB67" s="30">
+        <f>AB50-AB62</f>
+        <v>11031.466</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N67" s="1">
-        <f t="shared" ref="N67" si="66">N66/N17</f>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68" si="113">F67/F17</f>
+        <v>4.4080086658029467</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" ref="J68" si="114">J67/J17</f>
+        <v>30.926123407736053</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" ref="N68" si="115">N67/N17</f>
         <v>53.368623979541908</v>
       </c>
-      <c r="Q67" s="1">
-        <f t="shared" ref="Q67" si="67">Q66/Q17</f>
-        <v>62.527047637215972</v>
-      </c>
-      <c r="R67" s="1">
-        <f t="shared" ref="R67" si="68">R66/R17</f>
+      <c r="Q68" s="1">
+        <f t="shared" ref="Q68" si="116">Q67/Q17</f>
+        <v>62.526032015171587</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" ref="R68" si="117">R67/R17</f>
         <v>61.650794916840383</v>
       </c>
-      <c r="S67" s="1">
-        <f t="shared" ref="S67" si="69">S66/S17</f>
+      <c r="S68" s="1">
+        <f t="shared" ref="S68" si="118">S67/S17</f>
         <v>60.351081657501894</v>
       </c>
-      <c r="T67" s="1">
-        <f>T66/T17</f>
+      <c r="T68" s="1">
+        <f>T67/T17</f>
         <v>59.457757070299436</v>
       </c>
-      <c r="AA67" s="1">
-        <f>AA66/AA17</f>
+      <c r="Y68" s="1">
+        <f>Y67/Y17</f>
+        <v>4.511824055303669</v>
+      </c>
+      <c r="Z68" s="1">
+        <f>Z67/Z17</f>
+        <v>32.624743427364088</v>
+      </c>
+      <c r="AA68" s="1">
+        <f>AA67/AA17</f>
         <v>57.615309329074869</v>
       </c>
-      <c r="AB67" s="1">
-        <f>AB66/AB17</f>
+      <c r="AB68" s="1">
+        <f>AB67/AB17</f>
         <v>63.333543173168131</v>
       </c>
     </row>
-    <row r="69" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="35" t="s">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+    </row>
+    <row r="70" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N69" s="36">
+      <c r="F70" s="36">
+        <f>F40+F41</f>
+        <v>748.34299999999996</v>
+      </c>
+      <c r="J70" s="36">
+        <f>J40+J41</f>
+        <v>1812.693</v>
+      </c>
+      <c r="N70" s="36">
         <f>N40+N41</f>
         <v>3039.7910000000002</v>
       </c>
-      <c r="Q69" s="36">
-        <f t="shared" ref="Q69" si="70">Q40+Q41</f>
+      <c r="Q70" s="36">
+        <f t="shared" ref="Q70" si="119">Q40+Q41</f>
         <v>5394.2520000000004</v>
       </c>
-      <c r="R69" s="36">
+      <c r="R70" s="36">
         <f>R40+R41</f>
         <v>5357.8819999999996</v>
       </c>
-      <c r="S69" s="36">
+      <c r="S70" s="36">
         <f>S40+S41</f>
         <v>5223.3119999999999</v>
       </c>
-      <c r="T69" s="36">
+      <c r="T70" s="36">
         <f>T40+T41</f>
         <v>4392.2839999999997</v>
       </c>
-      <c r="AA69" s="36">
-        <f>N69</f>
-        <v>3039.7910000000002</v>
-      </c>
-      <c r="AB69" s="36">
-        <f>R69</f>
-        <v>5357.8819999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N70" s="36">
-        <f>N58+N59</f>
-        <v>319.92399999999998</v>
-      </c>
-      <c r="Q70" s="36">
-        <f t="shared" ref="Q70" si="71">Q58+Q59</f>
-        <v>1005.801</v>
-      </c>
-      <c r="R70" s="36">
-        <f>R58+R59</f>
-        <v>1011.039</v>
-      </c>
-      <c r="S70" s="36">
-        <f>S58+S59</f>
-        <v>1008.296</v>
-      </c>
-      <c r="T70" s="36">
-        <f>T58+T59</f>
-        <v>1005.554</v>
+      <c r="Y70" s="36">
+        <f>F70</f>
+        <v>748.34299999999996</v>
+      </c>
+      <c r="Z70" s="36">
+        <f>J70</f>
+        <v>1812.693</v>
       </c>
       <c r="AA70" s="36">
         <f>N70</f>
-        <v>319.92399999999998</v>
+        <v>3039.7910000000002</v>
       </c>
       <c r="AB70" s="36">
         <f>R70</f>
+        <v>5357.8819999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="36">
+        <f>F59+F60+F56</f>
+        <v>434.49599999999998</v>
+      </c>
+      <c r="J71" s="36">
+        <f>J59+J60+J56</f>
+        <v>473.85999999999996</v>
+      </c>
+      <c r="N71" s="36">
+        <f>N59+N60+N56</f>
+        <v>319.92399999999998</v>
+      </c>
+      <c r="Q71" s="36">
+        <f>Q59+Q60+Q56</f>
+        <v>1005.801</v>
+      </c>
+      <c r="R71" s="36">
+        <f>R59+R60+R56</f>
         <v>1011.039</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="S71" s="36">
+        <f>S59+S60+S56</f>
+        <v>1008.296</v>
+      </c>
+      <c r="T71" s="36">
+        <f>T59+T60+T56</f>
+        <v>1005.554</v>
+      </c>
+      <c r="Y71" s="36">
+        <f>F71</f>
+        <v>434.49599999999998</v>
+      </c>
+      <c r="Z71" s="36">
+        <f>J71</f>
+        <v>473.85999999999996</v>
+      </c>
+      <c r="AA71" s="36">
+        <f>N71</f>
+        <v>319.92399999999998</v>
+      </c>
+      <c r="AB71" s="36">
+        <f>R71</f>
+        <v>1011.039</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N71" s="30">
-        <f t="shared" ref="N71" si="72">N69-N70</f>
+      <c r="F72" s="30">
+        <f t="shared" ref="F72" si="120">F70-F71</f>
+        <v>313.84699999999998</v>
+      </c>
+      <c r="J72" s="30">
+        <f t="shared" ref="J72" si="121">J70-J71</f>
+        <v>1338.8330000000001</v>
+      </c>
+      <c r="N72" s="30">
+        <f t="shared" ref="N72" si="122">N70-N71</f>
         <v>2719.8670000000002</v>
       </c>
-      <c r="Q71" s="30">
-        <f t="shared" ref="Q71" si="73">Q69-Q70</f>
+      <c r="Q72" s="30">
+        <f t="shared" ref="Q72" si="123">Q70-Q71</f>
         <v>4388.451</v>
       </c>
-      <c r="R71" s="30">
-        <f t="shared" ref="R71" si="74">R69-R70</f>
+      <c r="R72" s="30">
+        <f t="shared" ref="R72" si="124">R70-R71</f>
         <v>4346.8429999999998</v>
       </c>
-      <c r="S71" s="30">
-        <f t="shared" ref="S71" si="75">S69-S70</f>
+      <c r="S72" s="30">
+        <f t="shared" ref="S72" si="125">S70-S71</f>
         <v>4215.0159999999996</v>
       </c>
-      <c r="T71" s="30">
-        <f>T69-T70</f>
+      <c r="T72" s="30">
+        <f>T70-T71</f>
         <v>3386.7299999999996</v>
       </c>
-      <c r="AA71" s="30">
-        <f>AA69-AA70</f>
+      <c r="Y72" s="30">
+        <f>Y70-Y71</f>
+        <v>313.84699999999998</v>
+      </c>
+      <c r="Z72" s="30">
+        <f>Z70-Z71</f>
+        <v>1338.8330000000001</v>
+      </c>
+      <c r="AA72" s="30">
+        <f>AA70-AA71</f>
         <v>2719.8670000000002</v>
       </c>
-      <c r="AB71" s="30">
-        <f>AB69-AB70</f>
+      <c r="AB72" s="30">
+        <f>AB70-AB71</f>
         <v>4346.8429999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M73" s="1">
-        <v>247.09</v>
-      </c>
-      <c r="N73" s="44">
-        <v>338.5</v>
-      </c>
-      <c r="O73" s="1">
-        <v>340.76</v>
-      </c>
-      <c r="P73" s="1">
-        <v>394.16</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>319.05</v>
-      </c>
-      <c r="R73" s="1">
-        <v>263.33999999999997</v>
-      </c>
-      <c r="S73" s="1">
-        <v>164.81</v>
-      </c>
-      <c r="T73" s="1">
-        <v>83.81</v>
-      </c>
-      <c r="AA73" s="44">
-        <f>N73</f>
-        <v>338.5</v>
-      </c>
-      <c r="AB73" s="1">
-        <f>R73</f>
-        <v>263.33999999999997</v>
       </c>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M74" s="30">
-        <f t="shared" ref="M74:T74" si="76">M73*M17</f>
-        <v>36446.040621749999</v>
-      </c>
-      <c r="N74" s="30">
-        <f t="shared" si="76"/>
-        <v>53612.532779499998</v>
-      </c>
-      <c r="O74" s="30">
-        <f t="shared" si="76"/>
-        <v>56961.597668080001</v>
-      </c>
-      <c r="P74" s="30">
-        <f t="shared" si="76"/>
-        <v>68350.181163679998</v>
-      </c>
-      <c r="Q74" s="30">
-        <f t="shared" si="76"/>
-        <v>56545.641479250007</v>
-      </c>
-      <c r="R74" s="30">
-        <f t="shared" si="76"/>
-        <v>47120.661791279999</v>
-      </c>
-      <c r="S74" s="30">
-        <f t="shared" si="76"/>
-        <v>29813.916889529999</v>
-      </c>
-      <c r="T74" s="30">
-        <f t="shared" si="76"/>
-        <v>15282.57448184</v>
-      </c>
-      <c r="AA74" s="30">
-        <f>AA73*AA17</f>
-        <v>49660.8824255</v>
-      </c>
-      <c r="AB74" s="30">
-        <f>AB73*AB17</f>
-        <v>45868.683653099994</v>
+        <v>3</v>
+      </c>
+      <c r="F74" s="44">
+        <v>89.3</v>
+      </c>
+      <c r="J74" s="44">
+        <v>98.28</v>
+      </c>
+      <c r="M74" s="1">
+        <v>247.09</v>
+      </c>
+      <c r="N74" s="44">
+        <v>338.5</v>
+      </c>
+      <c r="O74" s="1">
+        <v>340.76</v>
+      </c>
+      <c r="P74" s="1">
+        <v>394.16</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>319.05</v>
+      </c>
+      <c r="R74" s="1">
+        <v>263.33999999999997</v>
+      </c>
+      <c r="S74" s="1">
+        <v>164.81</v>
+      </c>
+      <c r="T74" s="1">
+        <v>83.81</v>
+      </c>
+      <c r="Y74" s="44">
+        <v>98.28</v>
+      </c>
+      <c r="Z74" s="44">
+        <v>98.28</v>
+      </c>
+      <c r="AA74" s="44">
+        <f>N74</f>
+        <v>338.5</v>
+      </c>
+      <c r="AB74" s="1">
+        <f>R74</f>
+        <v>263.33999999999997</v>
       </c>
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="30">
+        <f t="shared" ref="F75" si="126">F74*F17</f>
+        <v>8878.0191844000001</v>
+      </c>
+      <c r="J75" s="30">
+        <f t="shared" ref="J75" si="127">J74*J17</f>
+        <v>13535.96464584</v>
+      </c>
+      <c r="M75" s="30">
+        <f t="shared" ref="M75:T75" si="128">M74*M17</f>
+        <v>36446.040621749999</v>
+      </c>
+      <c r="N75" s="30">
+        <f t="shared" si="128"/>
+        <v>53612.532779499998</v>
+      </c>
+      <c r="O75" s="30">
+        <f t="shared" si="128"/>
+        <v>56961.597668080001</v>
+      </c>
+      <c r="P75" s="30">
+        <f t="shared" si="128"/>
+        <v>68350.181163679998</v>
+      </c>
+      <c r="Q75" s="30">
+        <f t="shared" si="128"/>
+        <v>56545.641479250007</v>
+      </c>
+      <c r="R75" s="30">
+        <f t="shared" si="128"/>
+        <v>47120.661791279999</v>
+      </c>
+      <c r="S75" s="30">
+        <f t="shared" si="128"/>
+        <v>29813.916889529999</v>
+      </c>
+      <c r="T75" s="30">
+        <f t="shared" si="128"/>
+        <v>15282.57448184</v>
+      </c>
+      <c r="Y75" s="30">
+        <f t="shared" ref="Y75" si="129">Y74*Y17</f>
+        <v>9545.9697169200008</v>
+      </c>
+      <c r="Z75" s="30">
+        <f>Z74*Z17</f>
+        <v>12784.56176088</v>
+      </c>
+      <c r="AA75" s="30">
+        <f>AA74*AA17</f>
+        <v>49660.8824255</v>
+      </c>
+      <c r="AB75" s="30">
+        <f>AB74*AB17</f>
+        <v>45868.683653099994</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N75" s="30">
-        <f t="shared" ref="N75" si="77">N74-N71</f>
+      <c r="F76" s="30">
+        <f t="shared" ref="F76" si="130">F75-F72</f>
+        <v>8564.1721844000003</v>
+      </c>
+      <c r="J76" s="30">
+        <f t="shared" ref="J76" si="131">J75-J72</f>
+        <v>12197.13164584</v>
+      </c>
+      <c r="N76" s="30">
+        <f t="shared" ref="N76" si="132">N75-N72</f>
         <v>50892.665779499999</v>
       </c>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30">
-        <f t="shared" ref="R75" si="78">R74-R71</f>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30">
+        <f t="shared" ref="Q76:R76" si="133">Q75-Q72</f>
+        <v>52157.190479250006</v>
+      </c>
+      <c r="R76" s="30">
+        <f t="shared" si="133"/>
         <v>42773.818791279999</v>
       </c>
-      <c r="S75" s="30">
-        <f t="shared" ref="S75" si="79">S74-S71</f>
+      <c r="S76" s="30">
+        <f t="shared" ref="S76" si="134">S75-S72</f>
         <v>25598.900889529999</v>
       </c>
-      <c r="T75" s="30">
-        <f>T74-T71</f>
+      <c r="T76" s="30">
+        <f>T75-T72</f>
         <v>11895.84448184</v>
       </c>
-      <c r="AA75" s="30">
-        <f t="shared" ref="AA75" si="80">AA74-AA71</f>
+      <c r="Y76" s="30">
+        <f t="shared" ref="Y76:Z76" si="135">Y75-Y72</f>
+        <v>9232.122716920001</v>
+      </c>
+      <c r="Z76" s="30">
+        <f t="shared" ref="Z76:AA76" si="136">Z75-Z72</f>
+        <v>11445.72876088</v>
+      </c>
+      <c r="AA76" s="30">
+        <f t="shared" si="136"/>
         <v>46941.015425500002</v>
       </c>
-      <c r="AB75" s="30">
-        <f t="shared" ref="AB75" si="81">AB74-AB71</f>
+      <c r="AB76" s="30">
+        <f t="shared" ref="AB76" si="137">AB75-AB72</f>
         <v>41521.840653099993</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N77" s="37">
-        <f>N73/N67</f>
-        <v>6.3426780523657325</v>
-      </c>
-      <c r="Q77" s="37">
-        <f t="shared" ref="Q77" si="82">Q73/Q67</f>
-        <v>5.1025917911739382</v>
-      </c>
-      <c r="R77" s="37">
-        <f>R73/R67</f>
-        <v>4.2714777701603754</v>
-      </c>
-      <c r="S77" s="37">
-        <f>S73/S67</f>
-        <v>2.730854120151688</v>
-      </c>
-      <c r="T77" s="37">
-        <f>T73/T67</f>
-        <v>1.4095721757702342</v>
-      </c>
-      <c r="AA77" s="37">
-        <f>AA73/AA67</f>
-        <v>5.8751745663054189</v>
-      </c>
-      <c r="AB77" s="37">
-        <f>AB73/AB67</f>
-        <v>4.1579862235082805</v>
       </c>
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="F78" s="37">
+        <f>F74/F68</f>
+        <v>20.258580862779098</v>
+      </c>
+      <c r="J78" s="37">
+        <f>J74/J68</f>
+        <v>3.1778958747676609</v>
       </c>
       <c r="N78" s="37">
-        <f t="shared" ref="N78" si="83">N74/SUM(K4:N4)</f>
-        <v>53.82465574780209</v>
+        <f>N74/N68</f>
+        <v>6.3426780523657325</v>
       </c>
       <c r="Q78" s="37">
-        <f t="shared" ref="Q78" si="84">Q74/SUM(N4:Q4)</f>
-        <v>22.199267614739412</v>
+        <f t="shared" ref="Q78" si="138">Q74/Q68</f>
+        <v>5.1026746735277291</v>
       </c>
       <c r="R78" s="37">
-        <f t="shared" ref="R78:S78" si="85">R74/SUM(O4:R4)</f>
-        <v>16.581045510065838</v>
+        <f>R74/R68</f>
+        <v>4.2714777701603754</v>
       </c>
       <c r="S78" s="37">
-        <f t="shared" si="85"/>
-        <v>9.5336989696036145</v>
+        <f>S74/S68</f>
+        <v>2.730854120151688</v>
       </c>
       <c r="T78" s="37">
-        <f>T74/SUM(Q4:T4)</f>
-        <v>4.4927117390362339</v>
+        <f>T74/T68</f>
+        <v>1.4095721757702342</v>
+      </c>
+      <c r="Y78" s="37">
+        <f t="shared" ref="Y78:Z78" si="139">Y74/Y68</f>
+        <v>21.782764308921006</v>
+      </c>
+      <c r="Z78" s="37">
+        <f t="shared" ref="Z78:AA78" si="140">Z74/Z68</f>
+        <v>3.0124374838015551</v>
       </c>
       <c r="AA78" s="37">
-        <f>AA74/AA4</f>
-        <v>28.187966248546921</v>
+        <f>AA74/AA68</f>
+        <v>5.8751745663054189</v>
       </c>
       <c r="AB78" s="37">
-        <f>AB74/AB4</f>
-        <v>16.140493410464138</v>
+        <f>AB74/AB68</f>
+        <v>4.1579862235082805</v>
       </c>
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N79" s="37">
+        <f t="shared" ref="N79" si="141">N75/SUM(K4:N4)</f>
+        <v>53.82465574780209</v>
+      </c>
+      <c r="Q79" s="37">
+        <f t="shared" ref="Q79" si="142">Q75/SUM(N4:Q4)</f>
+        <v>22.199267614739412</v>
+      </c>
+      <c r="R79" s="37">
+        <f t="shared" ref="R79:S79" si="143">R75/SUM(O4:R4)</f>
+        <v>16.581045510065838</v>
+      </c>
+      <c r="S79" s="37">
+        <f t="shared" si="143"/>
+        <v>9.5336989696036145</v>
+      </c>
+      <c r="T79" s="37">
+        <f>T75/SUM(Q4:T4)</f>
+        <v>4.4927117390362339</v>
+      </c>
+      <c r="Y79" s="37">
+        <f t="shared" ref="Y79:Z79" si="144">Y75/Y4</f>
+        <v>14.684593614073627</v>
+      </c>
+      <c r="Z79" s="37">
+        <f t="shared" ref="Z79:AA79" si="145">Z75/Z4</f>
+        <v>11.269213200266556</v>
+      </c>
+      <c r="AA79" s="37">
+        <f>AA75/AA4</f>
+        <v>28.187966248546921</v>
+      </c>
+      <c r="AB79" s="37">
+        <f>AB75/AB4</f>
+        <v>16.140493410464138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N79" s="37">
-        <f t="shared" ref="N79" si="86">N73/SUM(K16:N16)</f>
+      <c r="N80" s="37">
+        <f t="shared" ref="N80" si="146">N74/SUM(K16:N16)</f>
         <v>-175.84216103089744</v>
       </c>
-      <c r="Q79" s="37">
-        <f t="shared" ref="Q79" si="87">Q73/SUM(N16:Q16)</f>
+      <c r="Q80" s="37">
+        <f t="shared" ref="Q80" si="147">Q74/SUM(N16:Q16)</f>
         <v>-64.500694009685063</v>
       </c>
-      <c r="R79" s="37">
-        <f t="shared" ref="R79:S79" si="88">R73/SUM(O16:R16)</f>
+      <c r="R80" s="37">
+        <f t="shared" ref="R80:S80" si="148">R74/SUM(O16:R16)</f>
         <v>-48.385204422553002</v>
       </c>
-      <c r="S79" s="37">
-        <f t="shared" si="88"/>
+      <c r="S80" s="37">
+        <f t="shared" si="148"/>
         <v>-30.339872026893296</v>
       </c>
-      <c r="T79" s="37">
-        <f>T73/SUM(Q16:T16)</f>
+      <c r="T80" s="37">
+        <f>T74/SUM(Q16:T16)</f>
         <v>-14.233498713981406</v>
       </c>
-      <c r="AA79" s="37">
-        <f>AA73/AA16</f>
+      <c r="Y80" s="37">
+        <f t="shared" ref="Y80:AA80" si="149">Y74/Y16</f>
+        <v>-78.278376345193479</v>
+      </c>
+      <c r="Z80" s="37">
+        <f t="shared" si="149"/>
+        <v>-41.634979665019884</v>
+      </c>
+      <c r="AA80" s="37">
+        <f>AA74/AA16</f>
         <v>-101.14665276009771</v>
       </c>
-      <c r="AB79" s="37">
-        <f>AB73/AB16</f>
+      <c r="AB80" s="37">
+        <f>AB74/AB16</f>
         <v>-48.287907835666907</v>
       </c>
     </row>
@@ -14519,14 +15552,18 @@
     <hyperlink ref="R1" r:id="rId3" xr:uid="{A293EABB-9A75-4B29-8553-BB352A36DBB6}"/>
     <hyperlink ref="AB1" r:id="rId4" xr:uid="{442A1034-B338-4801-AF1E-61BA7E0E77AC}"/>
     <hyperlink ref="Q1" r:id="rId5" xr:uid="{BA74861F-598C-41FE-BE22-C6AA1B8966A6}"/>
+    <hyperlink ref="Z1" r:id="rId6" xr:uid="{4D41E43B-78DD-4BC7-9AA5-4C75C95D3E6E}"/>
+    <hyperlink ref="Y1" r:id="rId7" xr:uid="{620C08C8-E4C1-490D-823F-7D8C45A07CBD}"/>
+    <hyperlink ref="J1" r:id="rId8" xr:uid="{A20F0590-51BB-47FE-A2F0-ABB514CD183A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="AA44:AB44 AA56:AB56" formula="1"/>
-    <ignoredError sqref="N78:P78 S78:T78 Q78:R78" formulaRange="1"/>
+    <ignoredError sqref="Y44:AB44 Y58:AB62 Y50 AA50:AB50 Y48:AB49 Y47 AA47:AB47 Y46:AB46 Y45 AA45:AB45 Y51:AB55 U57:X57 Y57:AB57" formula="1"/>
+    <ignoredError sqref="N79:P79 S79:T79 Q79:R79" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -14534,8 +15571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C88468-B575-4B07-B1E2-1E3BE5EA25D5}">
   <dimension ref="A1:G1596"/>
   <sheetViews>
-    <sheetView topLeftCell="A1016" workbookViewId="0">
-      <selection activeCell="F1046" sqref="F1046"/>
+    <sheetView topLeftCell="A866" workbookViewId="0">
+      <selection activeCell="A888" sqref="A888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55736C3F-E0B2-464E-9D68-47C84D3995CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5943863-78FA-4493-BB1F-2EC16B042376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1717">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5537,19 +5537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5577,6 +5564,19 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11744,20 +11744,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="57" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11765,24 +11765,24 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="G5" s="53" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -11969,11 +11969,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -11990,10 +11990,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="56"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12010,8 +12010,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12028,10 +12028,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="56"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12048,8 +12048,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12089,11 +12089,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12110,10 +12110,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="56"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12130,10 +12130,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="55">
         <v>2008</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="56"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12148,8 +12148,8 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12164,8 +12164,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12180,8 +12180,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12221,10 +12221,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="61"/>
+      <c r="D29" s="54"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12238,44 +12238,52 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="49">
         <f>'Financial Model'!T78</f>
         <v>1.4095721757702342</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="49">
         <f>'Financial Model'!T79</f>
         <v>4.4927117390362339</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="51">
         <f>'Financial Model'!T80</f>
         <v>-14.233498713981406</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -12287,14 +12295,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12310,10 +12310,10 @@
   <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="V36" sqref="A36:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13274,7 +13274,7 @@
         <v>0.41024111604933844</v>
       </c>
       <c r="Z19" s="32">
-        <f t="shared" ref="Z19:AB19" si="38">Z4/Y4-1</f>
+        <f t="shared" ref="Z19:AA19" si="38">Z4/Y4-1</f>
         <v>0.74515549935622039</v>
       </c>
       <c r="AA19" s="32">
@@ -13607,7 +13607,7 @@
         <v>1715</v>
       </c>
       <c r="Z27" s="31">
-        <f t="shared" ref="Z27:AB27" si="73">Z7/Y7-1</f>
+        <f t="shared" ref="Z27:AA27" si="73">Z7/Y7-1</f>
         <v>1.283844349257111</v>
       </c>
       <c r="AA27" s="31">
@@ -14312,7 +14312,7 @@
         <v>65.722999999999999</v>
       </c>
       <c r="Z48" s="30">
-        <f t="shared" ref="Z45:Z49" si="94">J48</f>
+        <f t="shared" ref="Z48:Z49" si="94">J48</f>
         <v>2777.6330000000003</v>
       </c>
       <c r="AA48" s="30">
@@ -14463,7 +14463,7 @@
         <v>39.098999999999997</v>
       </c>
       <c r="AA52" s="30">
-        <f t="shared" ref="Y52:AB58" si="98">N52</f>
+        <f t="shared" ref="AA52:AA58" si="98">N52</f>
         <v>60.042000000000002</v>
       </c>
       <c r="AB52" s="30">
@@ -15398,7 +15398,7 @@
         <v>11895.84448184</v>
       </c>
       <c r="Y76" s="30">
-        <f t="shared" ref="Y76:Z76" si="135">Y75-Y72</f>
+        <f t="shared" ref="Y76" si="135">Y75-Y72</f>
         <v>9232.122716920001</v>
       </c>
       <c r="Z76" s="30">
@@ -15447,11 +15447,11 @@
         <v>1.4095721757702342</v>
       </c>
       <c r="Y78" s="37">
-        <f t="shared" ref="Y78:Z78" si="139">Y74/Y68</f>
+        <f t="shared" ref="Y78" si="139">Y74/Y68</f>
         <v>21.782764308921006</v>
       </c>
       <c r="Z78" s="37">
-        <f t="shared" ref="Z78:AA78" si="140">Z74/Z68</f>
+        <f t="shared" ref="Z78" si="140">Z74/Z68</f>
         <v>3.0124374838015551</v>
       </c>
       <c r="AA78" s="37">
@@ -15488,11 +15488,11 @@
         <v>4.4927117390362339</v>
       </c>
       <c r="Y79" s="37">
-        <f t="shared" ref="Y79:Z79" si="144">Y75/Y4</f>
+        <f t="shared" ref="Y79" si="144">Y75/Y4</f>
         <v>14.684593614073627</v>
       </c>
       <c r="Z79" s="37">
-        <f t="shared" ref="Z79:AA79" si="145">Z75/Z4</f>
+        <f t="shared" ref="Z79" si="145">Z75/Z4</f>
         <v>11.269213200266556</v>
       </c>
       <c r="AA79" s="37">
@@ -15529,7 +15529,7 @@
         <v>-14.233498713981406</v>
       </c>
       <c r="Y80" s="37">
-        <f t="shared" ref="Y80:AA80" si="149">Y74/Y16</f>
+        <f t="shared" ref="Y80:Z80" si="149">Y74/Y16</f>
         <v>-78.278376345193479</v>
       </c>
       <c r="Z80" s="37">

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5943863-78FA-4493-BB1F-2EC16B042376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE2E84-6785-497C-A0BA-D2810ED55999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>me</author>
   </authors>
   <commentList>
-    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{55D6C87D-C1A4-4EF5-9464-1503FD9AE294}">
+    <comment ref="F49" authorId="0" shapeId="0" xr:uid="{55D6C87D-C1A4-4EF5-9464-1503FD9AE294}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{BCD95C05-2508-4246-A1FE-77A2158ED6BC}">
+    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{BCD95C05-2508-4246-A1FE-77A2158ED6BC}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1722">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5236,6 +5236,21 @@
   </si>
   <si>
     <t>Web Services &amp; APIs for making &amp; receiving phone calls, sending &amp; receiving SMS &amp; performing other communication functions</t>
+  </si>
+  <si>
+    <t>Restructuring</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>P/B C</t>
+  </si>
+  <si>
+    <t>P/S C</t>
+  </si>
+  <si>
+    <t>P/E C</t>
   </si>
 </sst>
 </file>
@@ -5458,7 +5473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5537,6 +5552,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5564,19 +5592,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11330,16 +11351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11354,8 +11375,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12601575" y="9525"/>
-          <a:ext cx="0" cy="13668375"/>
+          <a:off x="13201650" y="28575"/>
+          <a:ext cx="0" cy="14154150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11388,7 +11409,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11728,10 +11749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
-  <dimension ref="B2:R35"/>
+  <dimension ref="B2:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11744,20 +11765,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="46" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11765,31 +11786,31 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="G5" s="46" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="G5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>71.209999999999994</v>
+        <v>42.74</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="20"/>
@@ -11809,12 +11830,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="18">
-        <f>'Financial Model'!T17</f>
-        <v>182.34786399999999</v>
+        <f>'Financial Model'!U19</f>
+        <v>183.692564</v>
       </c>
       <c r="D7" s="16" t="str">
         <f>$C$28</f>
-        <v>Q222</v>
+        <v>Q322</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="8"/>
@@ -11834,7 +11855,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>12984.991395439998</v>
+        <v>7851.0201853600001</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="20"/>
@@ -11854,12 +11875,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <f>'Financial Model'!T70</f>
-        <v>4392.2839999999997</v>
+        <f>'Financial Model'!U72</f>
+        <v>4208.5450000000001</v>
       </c>
       <c r="D9" s="16" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>Q222</v>
+        <v>Q322</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="8"/>
@@ -11878,12 +11899,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>'Financial Model'!T71</f>
-        <v>1005.554</v>
+        <f>'Financial Model'!TU73</f>
+        <v>0</v>
       </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Q222</v>
+        <v>Q322</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="8"/>
@@ -11903,11 +11924,11 @@
       </c>
       <c r="C11" s="18">
         <f>C9-C10</f>
-        <v>3386.7299999999996</v>
+        <v>4208.5450000000001</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Q222</v>
+        <v>Q322</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="8"/>
@@ -11927,7 +11948,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>9598.2613954399985</v>
+        <v>3642.4751853600001</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="20"/>
@@ -11969,11 +11990,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -11990,10 +12011,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="50"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12010,8 +12031,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12028,10 +12049,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="50"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12048,8 +12069,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12089,11 +12110,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12110,10 +12131,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="50"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12130,10 +12151,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="49">
         <v>2008</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="50"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12148,8 +12169,8 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12164,8 +12185,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12180,8 +12201,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12199,11 +12220,11 @@
         <v>18</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="33">
-        <f>'Financial Model'!T3</f>
-        <v>38200</v>
+        <f>'Financial Model'!U3</f>
+        <v>37926</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="8"/>
@@ -12221,10 +12242,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="61"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12238,44 +12259,93 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="49">
-        <f>'Financial Model'!T78</f>
-        <v>1.4095721757702342</v>
-      </c>
-      <c r="D33" s="50"/>
+        <v>1719</v>
+      </c>
+      <c r="C33" s="56">
+        <f>C6/'Financial Model'!U70</f>
+        <v>0.74552309219887269</v>
+      </c>
+      <c r="D33" s="57"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C34" s="56">
+        <f>C8/SUM('Financial Model'!R4:U4)</f>
+        <v>2.1542158247502874</v>
+      </c>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C35" s="56">
+        <f>C6/SUM('Financial Model'!R18:U18)</f>
+        <v>-5.8956185771906542</v>
+      </c>
+      <c r="D35" s="57"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="56">
+        <f>'Financial Model'!U80</f>
+        <v>1.206024019528078</v>
+      </c>
+      <c r="D37" s="57"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="49">
-        <f>'Financial Model'!T79</f>
-        <v>4.4927117390362339</v>
-      </c>
-      <c r="D34" s="50"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
+      <c r="C38" s="56">
+        <f>'Financial Model'!U81</f>
+        <v>3.4848498391023606</v>
+      </c>
+      <c r="D38" s="57"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="51">
-        <f>'Financial Model'!T80</f>
-        <v>-14.233498713981406</v>
-      </c>
-      <c r="D35" s="52"/>
+      <c r="C39" s="58">
+        <f>'Financial Model'!U82</f>
+        <v>-9.5372734774675205</v>
+      </c>
+      <c r="D39" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -12284,36 +12354,28 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="C34" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
-  <dimension ref="A1:AL80"/>
+  <dimension ref="A1:AL82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V36" sqref="A36:XFD38"/>
+      <selection pane="bottomRight" activeCell="U83" sqref="U83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12380,7 +12442,7 @@
       <c r="T1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="27" t="s">
         <v>43</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -12461,6 +12523,9 @@
       <c r="T2" s="26">
         <v>44742</v>
       </c>
+      <c r="U2" s="26">
+        <v>44834</v>
+      </c>
       <c r="Y2" s="26">
         <v>43465</v>
       </c>
@@ -12491,6 +12556,9 @@
       <c r="T3" s="25">
         <v>38200</v>
       </c>
+      <c r="U3" s="25">
+        <v>37926</v>
+      </c>
       <c r="Z3" s="25">
         <v>38384</v>
       </c>
@@ -12532,7 +12600,9 @@
       <c r="T4" s="29">
         <v>943.35400000000004</v>
       </c>
-      <c r="U4" s="29"/>
+      <c r="U4" s="29">
+        <v>983.03</v>
+      </c>
       <c r="V4" s="29"/>
       <c r="Y4" s="29">
         <v>650.06700000000001</v>
@@ -12581,6 +12651,9 @@
       <c r="T5" s="30">
         <v>498.065</v>
       </c>
+      <c r="U5" s="30">
+        <v>520.95500000000004</v>
+      </c>
       <c r="Y5" s="30">
         <v>300.84100000000001</v>
       </c>
@@ -12611,7 +12684,7 @@
         <v>230.874</v>
       </c>
       <c r="N6" s="29">
-        <f t="shared" ref="N6:T6" si="3">N4-N5</f>
+        <f t="shared" ref="N6:U6" si="3">N4-N5</f>
         <v>282.12100000000004</v>
       </c>
       <c r="O6" s="29">
@@ -12638,6 +12711,10 @@
         <f t="shared" si="3"/>
         <v>445.28900000000004</v>
       </c>
+      <c r="U6" s="29">
+        <f t="shared" si="3"/>
+        <v>462.07499999999993</v>
+      </c>
       <c r="Y6" s="29">
         <f t="shared" ref="Y6:Z6" si="4">Y4-Y5</f>
         <v>349.226</v>
@@ -12689,6 +12766,9 @@
       <c r="T7" s="30">
         <v>279.64100000000002</v>
       </c>
+      <c r="U7" s="30">
+        <v>284.73500000000001</v>
+      </c>
       <c r="Y7" s="30">
         <v>171.358</v>
       </c>
@@ -12736,6 +12816,9 @@
       <c r="T8" s="30">
         <v>334.95800000000003</v>
       </c>
+      <c r="U8" s="30">
+        <v>328.83300000000003</v>
+      </c>
       <c r="Y8" s="30">
         <v>175.55500000000001</v>
       </c>
@@ -12783,6 +12866,9 @@
       <c r="T9" s="30">
         <v>142.626</v>
       </c>
+      <c r="U9" s="30">
+        <v>135.33099999999999</v>
+      </c>
       <c r="Y9" s="30">
         <v>117.548</v>
       </c>
@@ -12798,2750 +12884,3051 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>1717</v>
       </c>
       <c r="F10" s="30">
-        <f t="shared" ref="F10" si="5">SUM(F7:F9)</f>
-        <v>152.001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="30">
-        <f t="shared" ref="J10" si="6">SUM(J7:J9)</f>
-        <v>268.48899999999998</v>
+        <v>0</v>
       </c>
       <c r="M10" s="30">
-        <f t="shared" ref="M10:O10" si="7">SUM(M7:M9)</f>
-        <v>343.14400000000001</v>
+        <v>0</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" si="7"/>
-        <v>467.41199999999992</v>
+        <v>0</v>
       </c>
       <c r="O10" s="30">
-        <f t="shared" si="7"/>
-        <v>495.64299999999997</v>
+        <v>0</v>
       </c>
       <c r="P10" s="30">
-        <f>SUM(P7:P9)</f>
-        <v>533.52099999999996</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="30">
-        <f t="shared" ref="Q10" si="8">SUM(Q7:Q9)</f>
-        <v>596.96</v>
+        <v>0</v>
       </c>
       <c r="R10" s="30">
-        <f t="shared" ref="R10" si="9">SUM(R7:R9)</f>
-        <v>680.173</v>
+        <v>0</v>
       </c>
       <c r="S10" s="30">
-        <f>SUM(S7:S9)</f>
-        <v>642.87900000000002</v>
+        <v>0</v>
       </c>
       <c r="T10" s="30">
-        <f>SUM(T7:T9)</f>
-        <v>757.22500000000002</v>
+        <v>0</v>
+      </c>
+      <c r="U10" s="30">
+        <v>72.450999999999993</v>
       </c>
       <c r="Y10" s="30">
-        <f t="shared" ref="Y10:AA10" si="10">SUM(Y7:Y9)</f>
-        <v>464.46100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="30">
-        <f t="shared" si="10"/>
-        <v>978.702</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="30">
-        <f t="shared" si="10"/>
-        <v>1408.5619999999999</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="30">
-        <f>SUM(AB7:AB9)</f>
-        <v>2306.297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="29">
-        <f t="shared" ref="F11" si="11">F6-F10</f>
-        <v>-43.987000000000009</v>
-      </c>
-      <c r="J11" s="29">
-        <f t="shared" ref="J11" si="12">J6-J10</f>
-        <v>-93.798999999999978</v>
-      </c>
-      <c r="M11" s="29">
-        <f t="shared" ref="M11:O11" si="13">M6-M10</f>
-        <v>-112.27000000000001</v>
-      </c>
-      <c r="N11" s="29">
-        <f t="shared" si="13"/>
-        <v>-185.29099999999988</v>
-      </c>
-      <c r="O11" s="29">
-        <f t="shared" si="13"/>
-        <v>-197.33899999999994</v>
-      </c>
-      <c r="P11" s="29">
-        <f>P6-P10</f>
-        <v>-202.27399999999994</v>
-      </c>
-      <c r="Q11" s="29">
-        <f t="shared" ref="Q11" si="14">Q6-Q10</f>
-        <v>-232.34499999999997</v>
-      </c>
-      <c r="R11" s="29">
-        <f t="shared" ref="R11" si="15">R6-R10</f>
-        <v>-283.62599999999998</v>
-      </c>
-      <c r="S11" s="29">
-        <f>S6-S10</f>
-        <v>-217.80799999999994</v>
-      </c>
-      <c r="T11" s="29">
-        <f>T6-T10</f>
-        <v>-311.93599999999998</v>
-      </c>
-      <c r="Y11" s="29">
-        <f t="shared" ref="Y11:AA11" si="16">Y6-Y10</f>
-        <v>-115.23500000000001</v>
-      </c>
-      <c r="Z11" s="29">
-        <f t="shared" si="16"/>
-        <v>-369.78499999999997</v>
-      </c>
-      <c r="AA11" s="29">
-        <f t="shared" si="16"/>
-        <v>-492.90099999999984</v>
-      </c>
-      <c r="AB11" s="29">
-        <f>AB6-AB10</f>
-        <v>-915.58400000000006</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0</v>
+      </c>
+      <c r="O11" s="30">
+        <v>0</v>
+      </c>
+      <c r="P11" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>0</v>
+      </c>
+      <c r="R11" s="30">
+        <v>0</v>
+      </c>
+      <c r="S11" s="30">
+        <v>0</v>
+      </c>
+      <c r="T11" s="30">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30">
+        <v>97.721999999999994</v>
+      </c>
+      <c r="Y11" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="30">
-        <v>2.7509999999999999</v>
+        <f t="shared" ref="F12" si="5">SUM(F7:F11)</f>
+        <v>152.001</v>
       </c>
       <c r="J12" s="30">
-        <v>-4.7080000000000002</v>
+        <f>SUM(J7:J11)</f>
+        <v>268.48899999999998</v>
       </c>
       <c r="M12" s="30">
-        <v>3.996</v>
+        <f t="shared" ref="M12:U12" si="6">SUM(M7:M11)</f>
+        <v>343.14400000000001</v>
       </c>
       <c r="N12" s="30">
-        <v>9.4260000000000002</v>
+        <f t="shared" si="6"/>
+        <v>467.41199999999992</v>
       </c>
       <c r="O12" s="30">
-        <v>8.3130000000000006</v>
+        <f t="shared" si="6"/>
+        <v>495.64299999999997</v>
       </c>
       <c r="P12" s="30">
-        <v>24.292999999999999</v>
+        <f t="shared" si="6"/>
+        <v>533.52099999999996</v>
       </c>
       <c r="Q12" s="30">
-        <v>6.6130000000000004</v>
+        <f t="shared" si="6"/>
+        <v>596.96</v>
       </c>
       <c r="R12" s="30">
-        <v>6.1260000000000003</v>
+        <f t="shared" si="6"/>
+        <v>680.173</v>
       </c>
       <c r="S12" s="30">
-        <v>6.6769999999999996</v>
+        <f t="shared" si="6"/>
+        <v>642.87900000000002</v>
       </c>
       <c r="T12" s="30">
-        <v>8.2390000000000008</v>
+        <f t="shared" si="6"/>
+        <v>757.22500000000002</v>
+      </c>
+      <c r="U12" s="30">
+        <f t="shared" si="6"/>
+        <v>919.072</v>
       </c>
       <c r="Y12" s="30">
-        <v>5.923</v>
+        <f t="shared" ref="Y12" si="7">SUM(Y7:Y11)</f>
+        <v>464.46100000000001</v>
       </c>
       <c r="Z12" s="30">
-        <v>-7.569</v>
+        <f t="shared" ref="Z12" si="8">SUM(Z7:Z11)</f>
+        <v>978.702</v>
       </c>
       <c r="AA12" s="30">
-        <v>11.525</v>
+        <f t="shared" ref="AA12" si="9">SUM(AA7:AA11)</f>
+        <v>1408.5619999999999</v>
       </c>
       <c r="AB12" s="30">
-        <v>45.344999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="30">
-        <f t="shared" ref="F13" si="17">F11-F12</f>
-        <v>-46.738000000000007</v>
-      </c>
-      <c r="J13" s="30">
-        <f t="shared" ref="J13" si="18">J11-J12</f>
-        <v>-89.09099999999998</v>
-      </c>
-      <c r="M13" s="30">
-        <f t="shared" ref="M13" si="19">M11-M12</f>
-        <v>-116.26600000000001</v>
-      </c>
-      <c r="N13" s="30">
-        <f t="shared" ref="N13" si="20">N11-N12</f>
-        <v>-194.71699999999987</v>
-      </c>
-      <c r="O13" s="30">
-        <f t="shared" ref="O13:T13" si="21">O11-O12</f>
-        <v>-205.65199999999993</v>
-      </c>
-      <c r="P13" s="30">
-        <f t="shared" si="21"/>
-        <v>-226.56699999999995</v>
-      </c>
-      <c r="Q13" s="30">
-        <f t="shared" si="21"/>
-        <v>-238.95799999999997</v>
-      </c>
-      <c r="R13" s="30">
-        <f t="shared" si="21"/>
-        <v>-289.75199999999995</v>
-      </c>
-      <c r="S13" s="30">
-        <f t="shared" si="21"/>
-        <v>-224.48499999999993</v>
-      </c>
-      <c r="T13" s="30">
-        <f t="shared" si="21"/>
-        <v>-320.17499999999995</v>
-      </c>
-      <c r="Y13" s="30">
-        <f t="shared" ref="Y13:Z13" si="22">Y11-Y12</f>
-        <v>-121.15800000000002</v>
-      </c>
-      <c r="Z13" s="30">
-        <f t="shared" si="22"/>
-        <v>-362.21599999999995</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>AA11-AA12</f>
-        <v>-504.42599999999982</v>
-      </c>
-      <c r="AB13" s="30">
-        <f>AB11-AB12</f>
-        <v>-960.92900000000009</v>
+        <f t="shared" ref="AB12" si="10">SUM(AB7:AB11)</f>
+        <v>2306.297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="29">
+        <f>F6-F12</f>
+        <v>-43.987000000000009</v>
+      </c>
+      <c r="J13" s="29">
+        <f>J6-J12</f>
+        <v>-93.798999999999978</v>
+      </c>
+      <c r="M13" s="29">
+        <f>M6-M12</f>
+        <v>-112.27000000000001</v>
+      </c>
+      <c r="N13" s="29">
+        <f>N6-N12</f>
+        <v>-185.29099999999988</v>
+      </c>
+      <c r="O13" s="29">
+        <f>O6-O12</f>
+        <v>-197.33899999999994</v>
+      </c>
+      <c r="P13" s="29">
+        <f>P6-P12</f>
+        <v>-202.27399999999994</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>Q6-Q12</f>
+        <v>-232.34499999999997</v>
+      </c>
+      <c r="R13" s="29">
+        <f>R6-R12</f>
+        <v>-283.62599999999998</v>
+      </c>
+      <c r="S13" s="29">
+        <f>S6-S12</f>
+        <v>-217.80799999999994</v>
+      </c>
+      <c r="T13" s="29">
+        <f>T6-T12</f>
+        <v>-311.93599999999998</v>
+      </c>
+      <c r="U13" s="29">
+        <f>U6-U12</f>
+        <v>-456.99700000000007</v>
+      </c>
+      <c r="Y13" s="29">
+        <f>Y6-Y12</f>
+        <v>-115.23500000000001</v>
+      </c>
+      <c r="Z13" s="29">
+        <f>Z6-Z12</f>
+        <v>-369.78499999999997</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>AA6-AA12</f>
+        <v>-492.90099999999984</v>
+      </c>
+      <c r="AB13" s="29">
+        <f>AB6-AB12</f>
+        <v>-915.58400000000006</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="30">
-        <v>0.42</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="J14" s="30">
-        <v>1.1559999999999999</v>
+        <v>-4.7080000000000002</v>
       </c>
       <c r="M14" s="30">
-        <v>0.64800000000000002</v>
+        <v>3.996</v>
       </c>
       <c r="N14" s="30">
-        <v>-15.366</v>
+        <v>9.4260000000000002</v>
       </c>
       <c r="O14" s="30">
-        <v>0.89</v>
+        <v>8.3130000000000006</v>
       </c>
       <c r="P14" s="30">
-        <v>1.286</v>
+        <v>24.292999999999999</v>
       </c>
       <c r="Q14" s="30">
-        <v>-14.849</v>
+        <v>6.6130000000000004</v>
       </c>
       <c r="R14" s="30">
-        <v>1.6439999999999999</v>
+        <v>6.1260000000000003</v>
       </c>
       <c r="S14" s="30">
-        <v>-2.8580000000000001</v>
+        <v>6.6769999999999996</v>
       </c>
       <c r="T14" s="30">
-        <v>2.5939999999999999</v>
+        <v>8.2390000000000008</v>
+      </c>
+      <c r="U14" s="30">
+        <v>21.75</v>
       </c>
       <c r="Y14" s="30">
-        <v>0.79100000000000004</v>
+        <v>5.923</v>
       </c>
       <c r="Z14" s="30">
-        <v>-55.152999999999999</v>
+        <v>-7.569</v>
       </c>
       <c r="AA14" s="30">
-        <v>-13.446999999999999</v>
+        <v>11.525</v>
       </c>
       <c r="AB14" s="30">
-        <v>-11.029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="29">
-        <f t="shared" ref="F15" si="23">F13-F14</f>
-        <v>-47.158000000000008</v>
-      </c>
-      <c r="J15" s="29">
-        <f t="shared" ref="J15" si="24">J13-J14</f>
-        <v>-90.246999999999986</v>
-      </c>
-      <c r="M15" s="29">
-        <f t="shared" ref="M15" si="25">M13-M14</f>
-        <v>-116.914</v>
-      </c>
-      <c r="N15" s="29">
-        <f t="shared" ref="N15" si="26">N13-N14</f>
-        <v>-179.35099999999989</v>
-      </c>
-      <c r="O15" s="29">
-        <f>O13-O14</f>
-        <v>-206.54199999999992</v>
-      </c>
-      <c r="P15" s="29">
-        <f>P13-P14</f>
-        <v>-227.85299999999995</v>
-      </c>
-      <c r="Q15" s="29">
-        <f t="shared" ref="Q15" si="27">Q13-Q14</f>
-        <v>-224.10899999999998</v>
-      </c>
-      <c r="R15" s="29">
-        <f>R13-R14</f>
-        <v>-291.39599999999996</v>
-      </c>
-      <c r="S15" s="29">
-        <f>S13-S14</f>
-        <v>-221.62699999999992</v>
-      </c>
-      <c r="T15" s="29">
-        <f>T13-T14</f>
-        <v>-322.76899999999995</v>
-      </c>
-      <c r="Y15" s="29">
-        <f t="shared" ref="Y15:Z15" si="28">Y13-Y14</f>
-        <v>-121.94900000000001</v>
-      </c>
-      <c r="Z15" s="29">
-        <f t="shared" si="28"/>
-        <v>-307.06299999999993</v>
-      </c>
-      <c r="AA15" s="29">
+        <v>45.344999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" ref="F15" si="11">F13-F14</f>
+        <v>-46.738000000000007</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" ref="J15" si="12">J13-J14</f>
+        <v>-89.09099999999998</v>
+      </c>
+      <c r="M15" s="30">
+        <f t="shared" ref="M15" si="13">M13-M14</f>
+        <v>-116.26600000000001</v>
+      </c>
+      <c r="N15" s="30">
+        <f t="shared" ref="N15" si="14">N13-N14</f>
+        <v>-194.71699999999987</v>
+      </c>
+      <c r="O15" s="30">
+        <f t="shared" ref="O15:U15" si="15">O13-O14</f>
+        <v>-205.65199999999993</v>
+      </c>
+      <c r="P15" s="30">
+        <f t="shared" si="15"/>
+        <v>-226.56699999999995</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" si="15"/>
+        <v>-238.95799999999997</v>
+      </c>
+      <c r="R15" s="30">
+        <f t="shared" si="15"/>
+        <v>-289.75199999999995</v>
+      </c>
+      <c r="S15" s="30">
+        <f t="shared" si="15"/>
+        <v>-224.48499999999993</v>
+      </c>
+      <c r="T15" s="30">
+        <f t="shared" si="15"/>
+        <v>-320.17499999999995</v>
+      </c>
+      <c r="U15" s="30">
+        <f t="shared" si="15"/>
+        <v>-478.74700000000007</v>
+      </c>
+      <c r="Y15" s="30">
+        <f t="shared" ref="Y15:Z15" si="16">Y13-Y14</f>
+        <v>-121.15800000000002</v>
+      </c>
+      <c r="Z15" s="30">
+        <f t="shared" si="16"/>
+        <v>-362.21599999999995</v>
+      </c>
+      <c r="AA15" s="30">
         <f>AA13-AA14</f>
-        <v>-490.97899999999981</v>
-      </c>
-      <c r="AB15" s="29">
+        <v>-504.42599999999982</v>
+      </c>
+      <c r="AB15" s="30">
         <f>AB13-AB14</f>
-        <v>-949.90000000000009</v>
+        <v>-960.92900000000009</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M16" s="30">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="N16" s="30">
+        <v>-15.366</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0.89</v>
+      </c>
+      <c r="P16" s="30">
+        <v>1.286</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>-14.849</v>
+      </c>
+      <c r="R16" s="30">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="S16" s="30">
+        <v>-2.8580000000000001</v>
+      </c>
+      <c r="T16" s="30">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="U16" s="30">
+        <v>3.58</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>-55.152999999999999</v>
+      </c>
+      <c r="AA16" s="30">
+        <v>-13.446999999999999</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>-11.029</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="29">
+        <f t="shared" ref="F17" si="17">F15-F16</f>
+        <v>-47.158000000000008</v>
+      </c>
+      <c r="J17" s="29">
+        <f t="shared" ref="J17" si="18">J15-J16</f>
+        <v>-90.246999999999986</v>
+      </c>
+      <c r="M17" s="29">
+        <f t="shared" ref="M17" si="19">M15-M16</f>
+        <v>-116.914</v>
+      </c>
+      <c r="N17" s="29">
+        <f t="shared" ref="N17" si="20">N15-N16</f>
+        <v>-179.35099999999989</v>
+      </c>
+      <c r="O17" s="29">
+        <f>O15-O16</f>
+        <v>-206.54199999999992</v>
+      </c>
+      <c r="P17" s="29">
+        <f>P15-P16</f>
+        <v>-227.85299999999995</v>
+      </c>
+      <c r="Q17" s="29">
+        <f t="shared" ref="Q17" si="21">Q15-Q16</f>
+        <v>-224.10899999999998</v>
+      </c>
+      <c r="R17" s="29">
+        <f>R15-R16</f>
+        <v>-291.39599999999996</v>
+      </c>
+      <c r="S17" s="29">
+        <f>S15-S16</f>
+        <v>-221.62699999999992</v>
+      </c>
+      <c r="T17" s="29">
+        <f>T15-T16</f>
+        <v>-322.76899999999995</v>
+      </c>
+      <c r="U17" s="29">
+        <f>U15-U16</f>
+        <v>-482.32700000000006</v>
+      </c>
+      <c r="Y17" s="29">
+        <f t="shared" ref="Y17:Z17" si="22">Y15-Y16</f>
+        <v>-121.94900000000001</v>
+      </c>
+      <c r="Z17" s="29">
+        <f t="shared" si="22"/>
+        <v>-307.06299999999993</v>
+      </c>
+      <c r="AA17" s="29">
+        <f>AA15-AA16</f>
+        <v>-490.97899999999981</v>
+      </c>
+      <c r="AB17" s="29">
+        <f>AB15-AB16</f>
+        <v>-949.90000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="28">
-        <f t="shared" ref="F16" si="29">F15/F17</f>
+      <c r="F18" s="28">
+        <f t="shared" ref="F18" si="23">F17/F19</f>
         <v>-0.47434110160515558</v>
       </c>
-      <c r="J16" s="28">
-        <f t="shared" ref="J16" si="30">J15/J17</f>
+      <c r="J18" s="28">
+        <f t="shared" ref="J18" si="24">J17/J19</f>
         <v>-0.65525253589708876</v>
       </c>
-      <c r="M16" s="28">
-        <f t="shared" ref="M16:T16" si="31">M15/M17</f>
+      <c r="M18" s="28">
+        <f t="shared" ref="M18:U18" si="25">M17/M19</f>
         <v>-0.79263151132966325</v>
       </c>
-      <c r="N16" s="28">
-        <f t="shared" si="31"/>
+      <c r="N18" s="28">
+        <f t="shared" si="25"/>
         <v>-1.1323903265248076</v>
       </c>
-      <c r="O16" s="28">
-        <f t="shared" si="31"/>
+      <c r="O18" s="28">
+        <f t="shared" si="25"/>
         <v>-1.2355912544819656</v>
       </c>
-      <c r="P16" s="28">
-        <f t="shared" si="31"/>
+      <c r="P18" s="28">
+        <f t="shared" si="25"/>
         <v>-1.3139765974420505</v>
       </c>
-      <c r="Q16" s="28">
-        <f t="shared" si="31"/>
+      <c r="Q18" s="28">
+        <f t="shared" si="25"/>
         <v>-1.2645002263567628</v>
       </c>
-      <c r="R16" s="28">
-        <f t="shared" si="31"/>
+      <c r="R18" s="28">
+        <f t="shared" si="25"/>
         <v>-1.628504773126946</v>
       </c>
-      <c r="S16" s="28">
-        <f t="shared" si="31"/>
+      <c r="S18" s="28">
+        <f t="shared" si="25"/>
         <v>-1.2251441501410789</v>
       </c>
-      <c r="T16" s="28">
-        <f t="shared" si="31"/>
+      <c r="T18" s="28">
+        <f t="shared" si="25"/>
         <v>-1.7700728317826633</v>
       </c>
-      <c r="Y16" s="44">
-        <f t="shared" ref="Y16:Z16" si="32">Y15/Y17</f>
+      <c r="U18" s="28">
+        <f t="shared" si="25"/>
+        <v>-2.6257295858747991</v>
+      </c>
+      <c r="Y18" s="44">
+        <f t="shared" ref="Y18:Z18" si="26">Y17/Y19</f>
         <v>-1.2555191431999431</v>
       </c>
-      <c r="Z16" s="44">
-        <f t="shared" si="32"/>
+      <c r="Z18" s="44">
+        <f t="shared" si="26"/>
         <v>-2.3605151435337697</v>
       </c>
-      <c r="AA16" s="44">
-        <f>AA15/AA17</f>
+      <c r="AA18" s="44">
+        <f>AA17/AA19</f>
         <v>-3.3466258226346173</v>
       </c>
-      <c r="AB16" s="44">
-        <f>AB15/AB17</f>
+      <c r="AB18" s="44">
+        <f>AB17/AB19</f>
         <v>-5.4535392358724044</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F19" s="44">
         <v>99.417907999999997</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44">
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44">
         <v>137.728578</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M19" s="44">
         <v>147.50107499999999</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N19" s="44">
         <v>158.382667</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O19" s="28">
         <v>167.16045800000001</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P19" s="28">
         <v>173.40719799999999</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q19" s="44">
         <v>177.23128500000001</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R19" s="28">
         <v>178.93469200000001</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S19" s="28">
         <v>180.89871299999999</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T19" s="28">
         <v>182.34786399999999</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="U19" s="28">
+        <v>183.692564</v>
+      </c>
+      <c r="Y19" s="44">
         <v>97.130339000000006</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z19" s="44">
         <v>130.083046</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA19" s="44">
         <v>146.708663</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB19" s="44">
         <v>174.180465</v>
       </c>
     </row>
-    <row r="19" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="32">
-        <f t="shared" ref="J19" si="33">J4/F4-1</f>
+      <c r="J21" s="32">
+        <f>J4/F4-1</f>
         <v>0.62124697751368063</v>
       </c>
-      <c r="N19" s="32">
-        <f t="shared" ref="N19" si="34">N4/J4-1</f>
+      <c r="N21" s="32">
+        <f>N4/J4-1</f>
         <v>0.65474120232833388</v>
       </c>
-      <c r="Q19" s="32">
-        <f t="shared" ref="Q19" si="35">Q4/M4-1</f>
+      <c r="Q21" s="32">
+        <f>Q4/M4-1</f>
         <v>0.65229290419649577</v>
       </c>
-      <c r="R19" s="32">
-        <f t="shared" ref="R19" si="36">R4/N4-1</f>
+      <c r="R21" s="32">
+        <f>R4/N4-1</f>
         <v>0.53760148880658276</v>
       </c>
-      <c r="S19" s="32">
-        <f t="shared" ref="S19" si="37">S4/O4-1</f>
+      <c r="S21" s="32">
+        <f>S4/O4-1</f>
         <v>0.4836962785683776</v>
       </c>
-      <c r="T19" s="32">
+      <c r="T21" s="32">
         <f>T4/P4-1</f>
         <v>0.41024111604933844</v>
       </c>
-      <c r="Z19" s="32">
-        <f t="shared" ref="Z19:AA19" si="38">Z4/Y4-1</f>
+      <c r="U21" s="32">
+        <f t="shared" ref="U21" si="27">U4/Q4-1</f>
+        <v>0.32810304576208882</v>
+      </c>
+      <c r="Z21" s="32">
+        <f>Z4/Y4-1</f>
         <v>0.74515549935622039</v>
       </c>
-      <c r="AA19" s="32">
-        <f t="shared" si="38"/>
+      <c r="AA21" s="32">
+        <f>AA4/Z4-1</f>
         <v>0.55295345483521796</v>
       </c>
-      <c r="AB19" s="32">
+      <c r="AB21" s="32">
         <f>AB4/AA4-1</f>
         <v>0.613053532344634</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="31">
-        <f t="shared" ref="N20:O20" si="39">N4/M4-1</f>
+      <c r="N22" s="31">
+        <f>N4/M4-1</f>
         <v>0.22349984039074133</v>
       </c>
-      <c r="O20" s="31">
-        <f t="shared" si="39"/>
+      <c r="O22" s="31">
+        <f>O4/N4-1</f>
         <v>7.6443649765549404E-2</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P22" s="31">
         <f>P4/O4-1</f>
         <v>0.13380441636101059</v>
       </c>
-      <c r="Q20" s="31">
-        <f t="shared" ref="Q20:S20" si="40">Q4/P4-1</f>
+      <c r="Q22" s="31">
+        <f>Q4/P4-1</f>
         <v>0.10650575320922484</v>
       </c>
-      <c r="R20" s="31">
-        <f t="shared" si="40"/>
+      <c r="R22" s="31">
+        <f>R4/Q4-1</f>
         <v>0.13857244763407617</v>
       </c>
-      <c r="S20" s="31">
-        <f t="shared" si="40"/>
+      <c r="S22" s="31">
+        <f>S4/R4-1</f>
         <v>3.8705704223346515E-2</v>
       </c>
-      <c r="T20" s="31">
+      <c r="T22" s="31">
         <f>T4/S4-1</f>
         <v>7.7671777308385259E-2</v>
       </c>
-      <c r="Y20" s="45" t="s">
+      <c r="U22" s="31">
+        <f t="shared" ref="U22" si="28">U4/T4-1</f>
+        <v>4.2058442535887863E-2</v>
+      </c>
+      <c r="Y22" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z20" s="45" t="s">
+      <c r="Z22" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AA20" s="45" t="s">
+      <c r="AA22" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AB20" s="45" t="s">
+      <c r="AB22" s="45" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="31">
-        <f t="shared" ref="F22" si="41">F6/F4</f>
+      <c r="F24" s="31">
+        <f>F6/F4</f>
         <v>0.52869771221035522</v>
       </c>
-      <c r="J22" s="31">
-        <f t="shared" ref="J22" si="42">J6/J4</f>
+      <c r="J24" s="31">
+        <f>J6/J4</f>
         <v>0.52740743424389536</v>
       </c>
-      <c r="M22" s="31">
-        <f t="shared" ref="M22" si="43">M6/M4</f>
+      <c r="M24" s="31">
+        <f>M6/M4</f>
         <v>0.51537941241469831</v>
       </c>
-      <c r="N22" s="31">
-        <f t="shared" ref="N22:O22" si="44">N6/N4</f>
+      <c r="N24" s="31">
+        <f>N6/N4</f>
         <v>0.51473480632742796</v>
       </c>
-      <c r="O22" s="31">
-        <f t="shared" si="44"/>
+      <c r="O24" s="31">
+        <f>O6/O4</f>
         <v>0.50561028359898841</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P24" s="31">
         <f>P6/P4</f>
         <v>0.49518859194745046</v>
       </c>
-      <c r="Q22" s="31">
-        <f t="shared" ref="Q22" si="45">Q6/Q4</f>
+      <c r="Q24" s="31">
+        <f>Q6/Q4</f>
         <v>0.49260581267158088</v>
       </c>
-      <c r="R22" s="31">
-        <f t="shared" ref="R22:S22" si="46">R6/R4</f>
+      <c r="R24" s="31">
+        <f>R6/R4</f>
         <v>0.47054265589550326</v>
       </c>
-      <c r="S22" s="31">
-        <f t="shared" si="46"/>
+      <c r="S24" s="31">
+        <f>S6/S4</f>
         <v>0.48559397644177338</v>
       </c>
-      <c r="T22" s="31">
+      <c r="T24" s="31">
         <f>T6/T4</f>
         <v>0.47202746794946543</v>
       </c>
-      <c r="Y22" s="31">
-        <f t="shared" ref="Y22:AA22" si="47">Y6/Y4</f>
+      <c r="U24" s="31">
+        <f t="shared" ref="U24" si="29">U6/U4</f>
+        <v>0.47005177868427206</v>
+      </c>
+      <c r="Y24" s="31">
+        <f>Y6/Y4</f>
         <v>0.53721539472085189</v>
       </c>
-      <c r="Z22" s="31">
-        <f t="shared" si="47"/>
+      <c r="Z24" s="31">
+        <f>Z6/Z4</f>
         <v>0.53674233208869704</v>
       </c>
-      <c r="AA22" s="31">
-        <f t="shared" si="47"/>
+      <c r="AA24" s="31">
+        <f>AA6/AA4</f>
         <v>0.51973746946263322</v>
       </c>
-      <c r="AB22" s="31">
+      <c r="AB24" s="31">
         <f>AB6/AB4</f>
         <v>0.48937079123764576</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="31">
-        <f t="shared" ref="F23" si="48">F11/F4</f>
-        <v>-0.21530381494062717</v>
-      </c>
-      <c r="J23" s="31">
-        <f t="shared" ref="J23" si="49">J11/J4</f>
-        <v>-0.28318902011931496</v>
-      </c>
-      <c r="M23" s="31">
-        <f t="shared" ref="M23" si="50">M11/M4</f>
-        <v>-0.25062002058178134</v>
-      </c>
-      <c r="N23" s="31">
-        <f t="shared" ref="N23:O23" si="51">N11/N4</f>
-        <v>-0.33806674086372651</v>
-      </c>
-      <c r="O23" s="31">
-        <f t="shared" si="51"/>
-        <v>-0.33447968433256259</v>
-      </c>
-      <c r="P23" s="31">
-        <f>P11/P4</f>
-        <v>-0.30238395290396158</v>
-      </c>
-      <c r="Q23" s="31">
-        <f t="shared" ref="Q23" si="52">Q11/Q4</f>
-        <v>-0.3139050712263029</v>
-      </c>
-      <c r="R23" s="31">
-        <f t="shared" ref="R23:S23" si="53">R11/R4</f>
-        <v>-0.33655060136886167</v>
-      </c>
-      <c r="S23" s="31">
-        <f t="shared" si="53"/>
-        <v>-0.24882020373262284</v>
-      </c>
-      <c r="T23" s="31">
-        <f>T11/T4</f>
-        <v>-0.33066696065315881</v>
-      </c>
-      <c r="Y23" s="31">
-        <f t="shared" ref="Y23:AA23" si="54">Y11/Y4</f>
-        <v>-0.17726634331538135</v>
-      </c>
-      <c r="Z23" s="31">
-        <f t="shared" si="54"/>
-        <v>-0.32595454433267396</v>
-      </c>
-      <c r="AA23" s="31">
-        <f t="shared" si="54"/>
-        <v>-0.27977506788604217</v>
-      </c>
-      <c r="AB23" s="31">
-        <f>AB11/AB4</f>
-        <v>-0.32218010942914083</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="31">
-        <f t="shared" ref="F24" si="55">F15/F4</f>
-        <v>-0.23082495521336066</v>
-      </c>
-      <c r="J24" s="31">
-        <f t="shared" ref="J24" si="56">J15/J4</f>
-        <v>-0.27246515952950268</v>
-      </c>
-      <c r="M24" s="31">
-        <f t="shared" ref="M24" si="57">M15/M4</f>
-        <v>-0.26098680935511165</v>
-      </c>
-      <c r="N24" s="31">
-        <f t="shared" ref="N24:O24" si="58">N15/N4</f>
-        <v>-0.3272291047090804</v>
-      </c>
-      <c r="O24" s="31">
-        <f t="shared" si="58"/>
-        <v>-0.35007830667742379</v>
-      </c>
-      <c r="P24" s="31">
-        <f>P15/P4</f>
-        <v>-0.34062257542257712</v>
-      </c>
-      <c r="Q24" s="31">
-        <f t="shared" ref="Q24" si="59">Q15/Q4</f>
-        <v>-0.30277798793800387</v>
-      </c>
-      <c r="R24" s="31">
-        <f t="shared" ref="R24:S24" si="60">R15/R4</f>
-        <v>-0.34577048308857727</v>
-      </c>
-      <c r="S24" s="31">
-        <f t="shared" si="60"/>
-        <v>-0.25318296523842099</v>
-      </c>
-      <c r="T24" s="31">
-        <f>T15/T4</f>
-        <v>-0.34215045465435023</v>
-      </c>
-      <c r="Y24" s="31">
-        <f t="shared" ref="Y24:AA24" si="61">Y15/Y4</f>
-        <v>-0.18759450948902193</v>
-      </c>
-      <c r="Z24" s="31">
-        <f t="shared" si="61"/>
-        <v>-0.27066695578896882</v>
-      </c>
-      <c r="AA24" s="31">
-        <f t="shared" si="61"/>
-        <v>-0.27868412329376707</v>
-      </c>
-      <c r="AB24" s="31">
-        <f>AB15/AB4</f>
-        <v>-0.33425538885207784</v>
-      </c>
-    </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F25" s="31">
-        <f t="shared" ref="F25" si="62">F14/F13</f>
-        <v>-8.9862638538234403E-3</v>
+        <f>F13/F4</f>
+        <v>-0.21530381494062717</v>
       </c>
       <c r="J25" s="31">
-        <f t="shared" ref="J25" si="63">J14/J13</f>
-        <v>-1.297549696377861E-2</v>
+        <f>J13/J4</f>
+        <v>-0.28318902011931496</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" ref="M25" si="64">M14/M13</f>
-        <v>-5.5734264531333323E-3</v>
+        <f>M13/M4</f>
+        <v>-0.25062002058178134</v>
       </c>
       <c r="N25" s="31">
-        <f t="shared" ref="N25:O25" si="65">N14/N13</f>
-        <v>7.891452723696446E-2</v>
+        <f>N13/N4</f>
+        <v>-0.33806674086372651</v>
       </c>
       <c r="O25" s="31">
-        <f t="shared" si="65"/>
-        <v>-4.3276992200416255E-3</v>
+        <f>O13/O4</f>
+        <v>-0.33447968433256259</v>
       </c>
       <c r="P25" s="31">
-        <f>P14/P13</f>
-        <v>-5.6760251934306425E-3</v>
+        <f>P13/P4</f>
+        <v>-0.30238395290396158</v>
       </c>
       <c r="Q25" s="31">
-        <f t="shared" ref="Q25" si="66">Q14/Q13</f>
-        <v>6.2140627223194043E-2</v>
+        <f>Q13/Q4</f>
+        <v>-0.3139050712263029</v>
       </c>
       <c r="R25" s="31">
-        <f t="shared" ref="R25:S25" si="67">R14/R13</f>
-        <v>-5.6738176095419536E-3</v>
+        <f>R13/R4</f>
+        <v>-0.33655060136886167</v>
       </c>
       <c r="S25" s="31">
-        <f t="shared" si="67"/>
-        <v>1.2731362897298265E-2</v>
+        <f>S13/S4</f>
+        <v>-0.24882020373262284</v>
       </c>
       <c r="T25" s="31">
-        <f>T14/T13</f>
-        <v>-8.1018193175607101E-3</v>
+        <f>T13/T4</f>
+        <v>-0.33066696065315881</v>
+      </c>
+      <c r="U25" s="31">
+        <f t="shared" ref="U25" si="30">U13/U4</f>
+        <v>-0.46488611741249003</v>
       </c>
       <c r="Y25" s="31">
-        <f t="shared" ref="Y25:AA25" si="68">Y14/Y13</f>
-        <v>-6.5286650489443532E-3</v>
+        <f>Y13/Y4</f>
+        <v>-0.17726634331538135</v>
       </c>
       <c r="Z25" s="31">
-        <f t="shared" si="68"/>
-        <v>0.15226549903924733</v>
+        <f>Z13/Z4</f>
+        <v>-0.32595454433267396</v>
       </c>
       <c r="AA25" s="31">
-        <f t="shared" si="68"/>
-        <v>2.6658023178821082E-2</v>
+        <f>AA13/AA4</f>
+        <v>-0.27977506788604217</v>
       </c>
       <c r="AB25" s="31">
-        <f>AB14/AB13</f>
-        <v>1.1477434857309956E-2</v>
+        <f>AB13/AB4</f>
+        <v>-0.32218010942914083</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="31">
+        <f>F17/F4</f>
+        <v>-0.23082495521336066</v>
+      </c>
+      <c r="J26" s="31">
+        <f>J17/J4</f>
+        <v>-0.27246515952950268</v>
+      </c>
+      <c r="M26" s="31">
+        <f>M17/M4</f>
+        <v>-0.26098680935511165</v>
+      </c>
+      <c r="N26" s="31">
+        <f>N17/N4</f>
+        <v>-0.3272291047090804</v>
+      </c>
+      <c r="O26" s="31">
+        <f>O17/O4</f>
+        <v>-0.35007830667742379</v>
+      </c>
+      <c r="P26" s="31">
+        <f>P17/P4</f>
+        <v>-0.34062257542257712</v>
+      </c>
+      <c r="Q26" s="31">
+        <f>Q17/Q4</f>
+        <v>-0.30277798793800387</v>
+      </c>
+      <c r="R26" s="31">
+        <f>R17/R4</f>
+        <v>-0.34577048308857727</v>
+      </c>
+      <c r="S26" s="31">
+        <f>S17/S4</f>
+        <v>-0.25318296523842099</v>
+      </c>
+      <c r="T26" s="31">
+        <f>T17/T4</f>
+        <v>-0.34215045465435023</v>
+      </c>
+      <c r="U26" s="31">
+        <f t="shared" ref="U26" si="31">U17/U4</f>
+        <v>-0.49065338799426272</v>
+      </c>
+      <c r="Y26" s="31">
+        <f>Y17/Y4</f>
+        <v>-0.18759450948902193</v>
+      </c>
+      <c r="Z26" s="31">
+        <f>Z17/Z4</f>
+        <v>-0.27066695578896882</v>
+      </c>
+      <c r="AA26" s="31">
+        <f>AA17/AA4</f>
+        <v>-0.27868412329376707</v>
+      </c>
+      <c r="AB26" s="31">
+        <f>AB17/AB4</f>
+        <v>-0.33425538885207784</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="31">
+        <f t="shared" ref="F27" si="32">F16/F15</f>
+        <v>-8.9862638538234403E-3</v>
+      </c>
+      <c r="J27" s="31">
+        <f t="shared" ref="J27" si="33">J16/J15</f>
+        <v>-1.297549696377861E-2</v>
+      </c>
+      <c r="M27" s="31">
+        <f t="shared" ref="M27" si="34">M16/M15</f>
+        <v>-5.5734264531333323E-3</v>
+      </c>
+      <c r="N27" s="31">
+        <f t="shared" ref="N27:O27" si="35">N16/N15</f>
+        <v>7.891452723696446E-2</v>
+      </c>
+      <c r="O27" s="31">
+        <f t="shared" si="35"/>
+        <v>-4.3276992200416255E-3</v>
+      </c>
+      <c r="P27" s="31">
+        <f>P16/P15</f>
+        <v>-5.6760251934306425E-3</v>
+      </c>
+      <c r="Q27" s="31">
+        <f t="shared" ref="Q27" si="36">Q16/Q15</f>
+        <v>6.2140627223194043E-2</v>
+      </c>
+      <c r="R27" s="31">
+        <f t="shared" ref="R27:S27" si="37">R16/R15</f>
+        <v>-5.6738176095419536E-3</v>
+      </c>
+      <c r="S27" s="31">
+        <f t="shared" si="37"/>
+        <v>1.2731362897298265E-2</v>
+      </c>
+      <c r="T27" s="31">
+        <f>T16/T15</f>
+        <v>-8.1018193175607101E-3</v>
+      </c>
+      <c r="U27" s="31">
+        <f t="shared" ref="U27" si="38">U16/U15</f>
+        <v>-7.4778536471246807E-3</v>
+      </c>
+      <c r="Y27" s="31">
+        <f t="shared" ref="Y27:AA27" si="39">Y16/Y15</f>
+        <v>-6.5286650489443532E-3</v>
+      </c>
+      <c r="Z27" s="31">
+        <f t="shared" si="39"/>
+        <v>0.15226549903924733</v>
+      </c>
+      <c r="AA27" s="31">
+        <f t="shared" si="39"/>
+        <v>2.6658023178821082E-2</v>
+      </c>
+      <c r="AB27" s="31">
+        <f>AB16/AB15</f>
+        <v>1.1477434857309956E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="31">
-        <f t="shared" ref="J27" si="69">J7/F7-1</f>
+      <c r="J29" s="31">
+        <f>J7/F7-1</f>
         <v>1.1350738897174177</v>
       </c>
-      <c r="N27" s="31">
-        <f t="shared" ref="N27" si="70">N7/J7-1</f>
+      <c r="N29" s="31">
+        <f>N7/J7-1</f>
         <v>0.44105373925033553</v>
       </c>
-      <c r="Q27" s="31">
-        <f t="shared" ref="Q27" si="71">Q7/M7-1</f>
+      <c r="Q29" s="31">
+        <f>Q7/M7-1</f>
         <v>0.5359453209612739</v>
       </c>
-      <c r="R27" s="31">
-        <f t="shared" ref="R27" si="72">R7/N7-1</f>
+      <c r="R29" s="31">
+        <f>R7/N7-1</f>
         <v>0.40535453492471163</v>
       </c>
-      <c r="S27" s="31">
+      <c r="S29" s="31">
         <f>S7/O7-1</f>
         <v>0.37649313501144155</v>
       </c>
-      <c r="T27" s="31">
+      <c r="T29" s="31">
         <f>T7/P7-1</f>
         <v>0.54259157105030908</v>
       </c>
-      <c r="Y27" s="45" t="s">
+      <c r="U29" s="31">
+        <f t="shared" ref="U29" si="40">U7/Q7-1</f>
+        <v>0.35659154795369008</v>
+      </c>
+      <c r="Y29" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z27" s="31">
-        <f t="shared" ref="Z27:AA27" si="73">Z7/Y7-1</f>
+      <c r="Z29" s="31">
+        <f>Z7/Y7-1</f>
         <v>1.283844349257111</v>
       </c>
-      <c r="AA27" s="31">
-        <f t="shared" si="73"/>
+      <c r="AA29" s="31">
+        <f>AA7/Z7-1</f>
         <v>0.35566940501590616</v>
       </c>
-      <c r="AB27" s="31">
+      <c r="AB29" s="31">
         <f>AB7/AA7-1</f>
         <v>0.48755437773773536</v>
       </c>
     </row>
-    <row r="28" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="s">
+    <row r="30" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="42">
-        <f t="shared" ref="N28:O28" si="74">N7/M7-1</f>
+      <c r="N30" s="42">
+        <f>N7/M7-1</f>
         <v>0.16248573017592149</v>
       </c>
-      <c r="O28" s="42">
-        <f t="shared" si="74"/>
+      <c r="O30" s="42">
+        <f>O7/N7-1</f>
         <v>0.10036762854409043</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P30" s="42">
         <f>P7/O7-1</f>
         <v>3.7070938215102878E-2</v>
       </c>
-      <c r="Q28" s="42">
-        <f t="shared" ref="Q28:S28" si="75">Q7/P7-1</f>
+      <c r="Q30" s="42">
+        <f>Q7/P7-1</f>
         <v>0.15782215357458074</v>
       </c>
-      <c r="R28" s="42">
-        <f t="shared" si="75"/>
+      <c r="R30" s="42">
+        <f>R7/Q7-1</f>
         <v>6.3647624946400638E-2</v>
       </c>
-      <c r="S28" s="42">
-        <f t="shared" si="75"/>
+      <c r="S30" s="42">
+        <f>S7/R7-1</f>
         <v>7.7769665261658405E-2</v>
       </c>
-      <c r="T28" s="42">
+      <c r="T30" s="42">
         <f>T7/S7-1</f>
         <v>0.16221203519373617</v>
       </c>
-      <c r="Y28" s="45" t="s">
+      <c r="U30" s="42">
+        <f t="shared" ref="U30" si="41">U7/T7-1</f>
+        <v>1.8216212930149744E-2</v>
+      </c>
+      <c r="Y30" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z28" s="45" t="s">
+      <c r="Z30" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AA28" s="45" t="s">
+      <c r="AA30" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AB28" s="45" t="s">
+      <c r="AB30" s="45" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B32" s="34" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F33" s="40">
         <v>64286</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J33" s="40">
         <v>179000</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M33" s="40">
         <v>208000</v>
       </c>
-      <c r="N31" s="40">
+      <c r="N33" s="40">
         <v>221000</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O33" s="40">
         <v>235000</v>
       </c>
-      <c r="P31" s="40">
+      <c r="P33" s="40">
         <v>240000</v>
       </c>
-      <c r="Q31" s="40">
+      <c r="Q33" s="40">
         <v>250000</v>
       </c>
-      <c r="R31" s="40">
+      <c r="R33" s="40">
         <v>256000</v>
       </c>
-      <c r="S31" s="40">
+      <c r="S33" s="40">
         <v>268000</v>
       </c>
-      <c r="T31" s="40">
+      <c r="T33" s="40">
         <v>275000</v>
       </c>
-      <c r="Y31" s="40">
-        <f>F31</f>
+      <c r="U33" s="40">
+        <v>280000</v>
+      </c>
+      <c r="Y33" s="40">
+        <f>F33</f>
         <v>64286</v>
       </c>
-      <c r="Z31" s="40">
-        <f>J31</f>
+      <c r="Z33" s="40">
+        <f>J33</f>
         <v>179000</v>
       </c>
-      <c r="AA31" s="40">
-        <f>N31</f>
+      <c r="AA33" s="40">
+        <f>N33</f>
         <v>221000</v>
       </c>
-      <c r="AB31" s="40">
-        <f>R31</f>
+      <c r="AB33" s="40">
+        <f>R33</f>
         <v>256000</v>
       </c>
     </row>
-    <row r="32" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="39" t="s">
+    <row r="34" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="39" t="s">
         <v>1714</v>
       </c>
-      <c r="J32" s="42">
-        <f t="shared" ref="J32" si="76">J31/F31-1</f>
+      <c r="J34" s="42">
+        <f t="shared" ref="J34" si="42">J33/F33-1</f>
         <v>1.7844320691908035</v>
       </c>
-      <c r="N32" s="42">
-        <f t="shared" ref="N32" si="77">N31/J31-1</f>
+      <c r="N34" s="42">
+        <f t="shared" ref="N34" si="43">N33/J33-1</f>
         <v>0.23463687150837997</v>
       </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42">
-        <f t="shared" ref="Q32" si="78">Q31/M31-1</f>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="42">
+        <f t="shared" ref="Q34" si="44">Q33/M33-1</f>
         <v>0.20192307692307687</v>
       </c>
-      <c r="R32" s="42">
-        <f>R31/N31-1</f>
+      <c r="R34" s="42">
+        <f>R33/N33-1</f>
         <v>0.158371040723982</v>
       </c>
-      <c r="S32" s="42">
-        <f>S31/O31-1</f>
+      <c r="S34" s="42">
+        <f>S33/O33-1</f>
         <v>0.14042553191489371</v>
       </c>
-      <c r="T32" s="42">
-        <f>T31/P31-1</f>
+      <c r="T34" s="42">
+        <f>T33/P33-1</f>
         <v>0.14583333333333326</v>
       </c>
-      <c r="Z32" s="42">
-        <f t="shared" ref="Z32:AA32" si="79">Z31/Y31-1</f>
+      <c r="U34" s="42">
+        <f t="shared" ref="U34" si="45">U33/Q33-1</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="Z34" s="42">
+        <f t="shared" ref="Z34:AA34" si="46">Z33/Y33-1</f>
         <v>1.7844320691908035</v>
       </c>
-      <c r="AA32" s="42">
-        <f t="shared" si="79"/>
+      <c r="AA34" s="42">
+        <f t="shared" si="46"/>
         <v>0.23463687150837997</v>
       </c>
-      <c r="AB32" s="42">
-        <f>AB31/AA31-1</f>
+      <c r="AB34" s="42">
+        <f>AB33/AA33-1</f>
         <v>0.158371040723982</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="39" t="s">
-        <v>1713</v>
-      </c>
-      <c r="N33" s="42">
-        <f t="shared" ref="N33:Q33" si="80">N31/M31-1</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O33" s="42">
-        <f t="shared" si="80"/>
-        <v>6.3348416289592757E-2</v>
-      </c>
-      <c r="P33" s="42">
-        <f t="shared" si="80"/>
-        <v>2.1276595744680771E-2</v>
-      </c>
-      <c r="Q33" s="42">
-        <f t="shared" si="80"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="R33" s="42">
-        <f t="shared" ref="R33:S33" si="81">R31/Q31-1</f>
-        <v>2.4000000000000021E-2</v>
-      </c>
-      <c r="S33" s="42">
-        <f t="shared" si="81"/>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="T33" s="42">
-        <f>T31/S31-1</f>
-        <v>2.6119402985074647E-2</v>
-      </c>
-      <c r="Y33" s="45" t="s">
-        <v>1715</v>
-      </c>
-      <c r="Z33" s="45" t="s">
-        <v>1715</v>
-      </c>
-      <c r="AA33" s="45" t="s">
-        <v>1715</v>
-      </c>
-      <c r="AB33" s="45" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F34" s="40">
-        <v>1440</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40">
-        <v>2905</v>
-      </c>
-      <c r="N34" s="40">
-        <v>4629</v>
-      </c>
-      <c r="Q34" s="40">
-        <v>7381</v>
-      </c>
-      <c r="R34" s="40">
-        <v>7867</v>
-      </c>
-      <c r="S34" s="40">
-        <v>8199</v>
-      </c>
-      <c r="T34" s="40">
-        <v>8510</v>
-      </c>
-      <c r="V34" s="30"/>
-      <c r="Y34" s="40">
-        <v>1440</v>
-      </c>
-      <c r="Z34" s="40">
-        <v>2905</v>
-      </c>
-      <c r="AA34" s="40">
-        <v>4629</v>
-      </c>
-      <c r="AB34" s="40">
-        <f>R34</f>
-        <v>7867</v>
       </c>
     </row>
     <row r="35" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
+        <v>1713</v>
+      </c>
+      <c r="N35" s="42">
+        <f t="shared" ref="N35:Q35" si="47">N33/M33-1</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O35" s="42">
+        <f t="shared" si="47"/>
+        <v>6.3348416289592757E-2</v>
+      </c>
+      <c r="P35" s="42">
+        <f t="shared" si="47"/>
+        <v>2.1276595744680771E-2</v>
+      </c>
+      <c r="Q35" s="42">
+        <f t="shared" si="47"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="R35" s="42">
+        <f t="shared" ref="R35:S35" si="48">R33/Q33-1</f>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="S35" s="42">
+        <f t="shared" si="48"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="T35" s="42">
+        <f>T33/S33-1</f>
+        <v>2.6119402985074647E-2</v>
+      </c>
+      <c r="U35" s="42">
+        <f t="shared" ref="U35" si="49">U33/T33-1</f>
+        <v>1.8181818181818077E-2</v>
+      </c>
+      <c r="Y35" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="Z35" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AA35" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AB35" s="45" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F36" s="40">
+        <v>1440</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40">
+        <v>2905</v>
+      </c>
+      <c r="N36" s="40">
+        <v>4629</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>7381</v>
+      </c>
+      <c r="R36" s="40">
+        <v>7867</v>
+      </c>
+      <c r="S36" s="40">
+        <v>8199</v>
+      </c>
+      <c r="T36" s="40">
+        <v>8510</v>
+      </c>
+      <c r="U36" s="40">
+        <v>8992</v>
+      </c>
+      <c r="V36" s="30"/>
+      <c r="Y36" s="40">
+        <v>1440</v>
+      </c>
+      <c r="Z36" s="40">
+        <v>2905</v>
+      </c>
+      <c r="AA36" s="40">
+        <v>4629</v>
+      </c>
+      <c r="AB36" s="40">
+        <f>R36</f>
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="39" t="s">
         <v>1712</v>
       </c>
-      <c r="F35" s="43">
-        <f>F4/F34</f>
+      <c r="F37" s="43">
+        <f>F4/F36</f>
         <v>0.14187638888888887</v>
       </c>
-      <c r="J35" s="43">
-        <f>J4/J34</f>
+      <c r="J37" s="43">
+        <f>J4/J36</f>
         <v>0.11401858864027538</v>
       </c>
-      <c r="N35" s="43">
-        <f>N4/N34</f>
+      <c r="N37" s="43">
+        <f>N4/N36</f>
         <v>0.11840354288183194</v>
       </c>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43">
-        <f>Q4/Q34</f>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43">
+        <f>Q4/Q36</f>
         <v>0.10028126270153097</v>
       </c>
-      <c r="R35" s="43">
-        <f>R4/R34</f>
+      <c r="R37" s="43">
+        <f>R4/R36</f>
         <v>0.10712393542646498</v>
       </c>
-      <c r="S35" s="43">
-        <f>S4/S34</f>
+      <c r="S37" s="43">
+        <f>S4/S36</f>
         <v>0.10676460543968777</v>
       </c>
-      <c r="T35" s="43">
-        <f>T4/T34</f>
+      <c r="T37" s="43">
+        <f>T4/T36</f>
         <v>0.1108524089306698</v>
       </c>
-      <c r="Y35" s="43">
-        <f t="shared" ref="Y35:Z35" si="82">Y4/Y34</f>
+      <c r="U37" s="43">
+        <f>U4/U36</f>
+        <v>0.10932273131672597</v>
+      </c>
+      <c r="Y37" s="43">
+        <f>Y4/Y36</f>
         <v>0.45143541666666664</v>
       </c>
-      <c r="Z35" s="43">
-        <f t="shared" si="82"/>
+      <c r="Z37" s="43">
+        <f>Z4/Z36</f>
         <v>0.39052254733218589</v>
       </c>
-      <c r="AA35" s="43">
-        <f>AA4/AA34</f>
+      <c r="AA37" s="43">
+        <f>AA4/AA36</f>
         <v>0.38059537697126811</v>
       </c>
-      <c r="AB35" s="43">
-        <f>AB4/AB34</f>
+      <c r="AB37" s="43">
+        <f>AB4/AB36</f>
         <v>0.36123541375365448</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B41" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+    <row r="42" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F42" s="29">
         <v>487.21499999999997</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29">
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29">
         <v>253.66</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N42" s="29">
         <v>933.88499999999999</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q42" s="29">
         <v>1497.498</v>
       </c>
-      <c r="R40" s="29">
+      <c r="R42" s="29">
         <v>1479.452</v>
       </c>
-      <c r="S40" s="29">
+      <c r="S42" s="29">
         <v>1617.0219999999999</v>
       </c>
-      <c r="T40" s="29">
+      <c r="T42" s="29">
         <v>798.625</v>
       </c>
-      <c r="Y40" s="29">
-        <f>F40</f>
+      <c r="U42" s="29">
+        <v>632.79399999999998</v>
+      </c>
+      <c r="Y42" s="29">
+        <f>F42</f>
         <v>487.21499999999997</v>
       </c>
-      <c r="Z40" s="29">
-        <f>J40</f>
+      <c r="Z42" s="29">
+        <f>J42</f>
         <v>253.66</v>
       </c>
-      <c r="AA40" s="29">
-        <f>N40</f>
+      <c r="AA42" s="29">
+        <f>N42</f>
         <v>933.88499999999999</v>
       </c>
-      <c r="AB40" s="29">
-        <f>R40</f>
+      <c r="AB42" s="29">
+        <f>R42</f>
         <v>1479.452</v>
       </c>
     </row>
-    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F43" s="29">
         <v>261.12799999999999</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29">
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29">
         <v>1559.0329999999999</v>
       </c>
-      <c r="N41" s="29">
+      <c r="N43" s="29">
         <v>2105.9059999999999</v>
       </c>
-      <c r="Q41" s="29">
+      <c r="Q43" s="29">
         <v>3896.7539999999999</v>
       </c>
-      <c r="R41" s="29">
+      <c r="R43" s="29">
         <v>3878.43</v>
       </c>
-      <c r="S41" s="29">
+      <c r="S43" s="29">
         <v>3606.29</v>
       </c>
-      <c r="T41" s="29">
+      <c r="T43" s="29">
         <v>3593.6590000000001</v>
       </c>
-      <c r="Y41" s="29">
-        <f t="shared" ref="Y41" si="83">F41</f>
+      <c r="U43" s="29">
+        <v>3575.7510000000002</v>
+      </c>
+      <c r="Y43" s="29">
+        <f t="shared" ref="Y43" si="50">F43</f>
         <v>261.12799999999999</v>
       </c>
-      <c r="Z41" s="29">
-        <f t="shared" ref="Z41" si="84">J41</f>
+      <c r="Z43" s="29">
+        <f t="shared" ref="Z43" si="51">J43</f>
         <v>1559.0329999999999</v>
       </c>
-      <c r="AA41" s="29">
-        <f t="shared" ref="AA41" si="85">N41</f>
+      <c r="AA43" s="29">
+        <f t="shared" ref="AA43" si="52">N43</f>
         <v>2105.9059999999999</v>
       </c>
-      <c r="AB41" s="29">
-        <f>R41</f>
+      <c r="AB43" s="29">
+        <f>R43</f>
         <v>3878.43</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="30">
-        <v>97.712000000000003</v>
-      </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30">
-        <v>154.06700000000001</v>
-      </c>
-      <c r="N42" s="30">
-        <v>251.167</v>
-      </c>
-      <c r="Q42" s="30">
-        <v>345.79300000000001</v>
-      </c>
-      <c r="R42" s="30">
-        <v>388.21499999999997</v>
-      </c>
-      <c r="S42" s="30">
-        <v>406.73599999999999</v>
-      </c>
-      <c r="T42" s="30">
-        <v>471.91500000000002</v>
-      </c>
-      <c r="Y42" s="30">
-        <f>F42</f>
-        <v>97.712000000000003</v>
-      </c>
-      <c r="Z42" s="30">
-        <f>J42</f>
-        <v>154.06700000000001</v>
-      </c>
-      <c r="AA42" s="30">
-        <f>N42</f>
-        <v>251.167</v>
-      </c>
-      <c r="AB42" s="30">
-        <f>R42</f>
-        <v>388.21499999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="30">
-        <v>26.893000000000001</v>
-      </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30">
-        <v>54.570999999999998</v>
-      </c>
-      <c r="N43" s="30">
-        <v>81.376999999999995</v>
-      </c>
-      <c r="Q43" s="30">
-        <v>165.76</v>
-      </c>
-      <c r="R43" s="30">
-        <v>186.131</v>
-      </c>
-      <c r="S43" s="30">
-        <v>201.142</v>
-      </c>
-      <c r="T43" s="30">
-        <v>240.19200000000001</v>
-      </c>
-      <c r="Y43" s="30">
-        <f t="shared" ref="Y43" si="86">F43</f>
-        <v>26.893000000000001</v>
-      </c>
-      <c r="Z43" s="30">
-        <f t="shared" ref="Z43" si="87">J43</f>
-        <v>54.570999999999998</v>
-      </c>
-      <c r="AA43" s="30">
-        <f t="shared" ref="AA43" si="88">N43</f>
-        <v>81.376999999999995</v>
-      </c>
-      <c r="AB43" s="30">
-        <f t="shared" ref="AB43" si="89">R43</f>
-        <v>186.131</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" s="30">
-        <f>SUM(F40:F43)</f>
-        <v>872.94799999999998</v>
+        <v>97.712000000000003</v>
       </c>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
       <c r="J44" s="30">
-        <f>SUM(J40:J43)</f>
-        <v>2021.3309999999999</v>
+        <v>154.06700000000001</v>
       </c>
       <c r="N44" s="30">
-        <f>SUM(N40:N43)</f>
-        <v>3372.335</v>
+        <v>251.167</v>
       </c>
       <c r="Q44" s="30">
-        <f>SUM(Q40:Q43)</f>
-        <v>5905.8050000000003</v>
+        <v>345.79300000000001</v>
       </c>
       <c r="R44" s="30">
-        <f>SUM(R40:R43)</f>
-        <v>5932.2280000000001</v>
+        <v>388.21499999999997</v>
       </c>
       <c r="S44" s="30">
-        <f>SUM(S40:S43)</f>
-        <v>5831.19</v>
+        <v>406.73599999999999</v>
       </c>
       <c r="T44" s="30">
-        <f>SUM(T40:T43)</f>
-        <v>5104.3909999999996</v>
+        <v>471.91500000000002</v>
+      </c>
+      <c r="U44" s="30">
+        <v>487.75</v>
       </c>
       <c r="Y44" s="30">
-        <f t="shared" ref="Y44:AB44" si="90">SUM(Y40:Y43)</f>
-        <v>872.94799999999998</v>
+        <f>F44</f>
+        <v>97.712000000000003</v>
       </c>
       <c r="Z44" s="30">
-        <f t="shared" si="90"/>
-        <v>2021.3309999999999</v>
+        <f>J44</f>
+        <v>154.06700000000001</v>
       </c>
       <c r="AA44" s="30">
-        <f t="shared" si="90"/>
-        <v>3372.335</v>
+        <f>N44</f>
+        <v>251.167</v>
       </c>
       <c r="AB44" s="30">
-        <f t="shared" si="90"/>
-        <v>5932.2280000000001</v>
+        <f>R44</f>
+        <v>388.21499999999997</v>
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F45" s="30">
-        <v>63.533999999999999</v>
+        <v>26.893000000000001</v>
       </c>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30">
-        <v>141.256</v>
+        <v>54.570999999999998</v>
       </c>
       <c r="N45" s="30">
-        <v>183.239</v>
+        <v>81.376999999999995</v>
       </c>
       <c r="Q45" s="30">
-        <v>237.24100000000001</v>
+        <v>165.76</v>
       </c>
       <c r="R45" s="30">
-        <v>255.316</v>
+        <v>186.131</v>
       </c>
       <c r="S45" s="30">
-        <v>259.00299999999999</v>
+        <v>201.142</v>
       </c>
       <c r="T45" s="30">
-        <v>264.767</v>
+        <v>240.19200000000001</v>
+      </c>
+      <c r="U45" s="30">
+        <v>265.97699999999998</v>
       </c>
       <c r="Y45" s="30">
-        <f t="shared" ref="Y45:Y49" si="91">F45</f>
-        <v>63.533999999999999</v>
+        <f t="shared" ref="Y45" si="53">F45</f>
+        <v>26.893000000000001</v>
       </c>
       <c r="Z45" s="30">
-        <f>J45</f>
-        <v>141.256</v>
+        <f t="shared" ref="Z45" si="54">J45</f>
+        <v>54.570999999999998</v>
       </c>
       <c r="AA45" s="30">
-        <f t="shared" ref="AA45:AA49" si="92">N45</f>
-        <v>183.239</v>
+        <f t="shared" ref="AA45" si="55">N45</f>
+        <v>81.376999999999995</v>
       </c>
       <c r="AB45" s="30">
-        <f t="shared" ref="AB45:AB49" si="93">R45</f>
-        <v>255.316</v>
+        <f t="shared" ref="AB45" si="56">R45</f>
+        <v>186.131</v>
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" s="30">
-        <v>0</v>
+        <f>SUM(F42:F45)</f>
+        <v>872.94799999999998</v>
       </c>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30">
-        <v>156.74100000000001</v>
+        <f>SUM(J42:J45)</f>
+        <v>2021.3309999999999</v>
       </c>
       <c r="N46" s="30">
-        <v>258.61</v>
+        <f>SUM(N42:N45)</f>
+        <v>3372.335</v>
       </c>
       <c r="Q46" s="30">
-        <v>248.58199999999999</v>
+        <f>SUM(Q42:Q45)</f>
+        <v>5905.8050000000003</v>
       </c>
       <c r="R46" s="30">
-        <v>234.584</v>
+        <f>SUM(R42:R45)</f>
+        <v>5932.2280000000001</v>
       </c>
       <c r="S46" s="30">
-        <v>225.95099999999999</v>
+        <f>SUM(S42:S45)</f>
+        <v>5831.19</v>
       </c>
       <c r="T46" s="30">
-        <v>213.464</v>
+        <f>SUM(T42:T45)</f>
+        <v>5104.3909999999996</v>
+      </c>
+      <c r="U46" s="30">
+        <f>SUM(U42:U45)</f>
+        <v>4962.2719999999999</v>
       </c>
       <c r="Y46" s="30">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" ref="Y46:AB46" si="57">SUM(Y42:Y45)</f>
+        <v>872.94799999999998</v>
       </c>
       <c r="Z46" s="30">
-        <f>J45</f>
-        <v>141.256</v>
+        <f t="shared" si="57"/>
+        <v>2021.3309999999999</v>
       </c>
       <c r="AA46" s="30">
-        <f t="shared" si="92"/>
-        <v>258.61</v>
+        <f t="shared" si="57"/>
+        <v>3372.335</v>
       </c>
       <c r="AB46" s="30">
-        <f t="shared" si="93"/>
-        <v>234.584</v>
+        <f t="shared" si="57"/>
+        <v>5932.2280000000001</v>
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F47" s="30">
-        <v>18.119</v>
+        <v>63.533999999999999</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30">
-        <v>7.4999999999999997E-2</v>
+        <v>141.256</v>
       </c>
       <c r="N47" s="30">
-        <v>0</v>
+        <v>183.239</v>
       </c>
       <c r="Q47" s="30">
-        <v>0</v>
+        <v>237.24100000000001</v>
       </c>
       <c r="R47" s="30">
-        <v>0</v>
+        <v>255.316</v>
       </c>
       <c r="S47" s="30">
-        <v>0</v>
+        <v>259.00299999999999</v>
       </c>
       <c r="T47" s="30">
-        <v>750</v>
+        <v>264.767</v>
+      </c>
+      <c r="U47" s="30">
+        <v>263.86200000000002</v>
       </c>
       <c r="Y47" s="30">
-        <f t="shared" si="91"/>
-        <v>18.119</v>
+        <f t="shared" ref="Y47:Y51" si="58">F47</f>
+        <v>63.533999999999999</v>
       </c>
       <c r="Z47" s="30">
         <f>J47</f>
-        <v>7.4999999999999997E-2</v>
+        <v>141.256</v>
       </c>
       <c r="AA47" s="30">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <f t="shared" ref="AA47:AA51" si="59">N47</f>
+        <v>183.239</v>
       </c>
       <c r="AB47" s="30">
-        <f t="shared" si="93"/>
-        <v>0</v>
+        <f t="shared" ref="AB47:AB51" si="60">R47</f>
+        <v>255.316</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" s="30">
-        <f>27.558+38.165</f>
-        <v>65.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30">
-        <f>480.849+2296.784</f>
-        <v>2777.6330000000003</v>
+        <v>156.74100000000001</v>
       </c>
       <c r="N48" s="30">
-        <f>966.573+4595.394</f>
-        <v>5561.9670000000006</v>
+        <v>258.61</v>
       </c>
       <c r="Q48" s="30">
-        <f>1102.599+5263.051</f>
-        <v>6365.6500000000005</v>
+        <v>248.58199999999999</v>
       </c>
       <c r="R48" s="30">
-        <f>1050.012+5263.166</f>
-        <v>6313.1779999999999</v>
+        <v>234.584</v>
       </c>
       <c r="S48" s="30">
-        <f>1006.692+5286.683</f>
-        <v>6293.375</v>
+        <v>225.95099999999999</v>
       </c>
       <c r="T48" s="30">
-        <f>953.522+5285.563</f>
-        <v>6239.085</v>
+        <v>213.464</v>
+      </c>
+      <c r="U48" s="30">
+        <v>127.56699999999999</v>
       </c>
       <c r="Y48" s="30">
-        <f t="shared" si="91"/>
-        <v>65.722999999999999</v>
+        <f t="shared" si="58"/>
+        <v>0</v>
       </c>
       <c r="Z48" s="30">
-        <f t="shared" ref="Z48:Z49" si="94">J48</f>
-        <v>2777.6330000000003</v>
+        <f>J47</f>
+        <v>141.256</v>
       </c>
       <c r="AA48" s="30">
-        <f t="shared" si="92"/>
-        <v>5561.9670000000006</v>
+        <f t="shared" si="59"/>
+        <v>258.61</v>
       </c>
       <c r="AB48" s="30">
-        <f t="shared" si="93"/>
-        <v>6313.1779999999999</v>
+        <f t="shared" si="60"/>
+        <v>234.584</v>
       </c>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F49" s="30">
-        <v>8.3859999999999992</v>
+        <v>18.119</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
       <c r="J49" s="30">
-        <v>33.479999999999997</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N49" s="30">
-        <v>111.282</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="30">
-        <v>219.56899999999999</v>
+        <v>0</v>
       </c>
       <c r="R49" s="30">
-        <v>263.29199999999997</v>
+        <v>0</v>
       </c>
       <c r="S49" s="30">
-        <v>281.28300000000002</v>
+        <v>0</v>
       </c>
       <c r="T49" s="30">
-        <v>297.52199999999999</v>
+        <v>750</v>
+      </c>
+      <c r="U49" s="30">
+        <v>732.49</v>
       </c>
       <c r="Y49" s="30">
-        <f t="shared" si="91"/>
-        <v>8.3859999999999992</v>
+        <f t="shared" si="58"/>
+        <v>18.119</v>
       </c>
       <c r="Z49" s="30">
-        <f t="shared" si="94"/>
-        <v>33.479999999999997</v>
+        <f>J49</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AA49" s="30">
-        <f t="shared" si="92"/>
-        <v>111.282</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
       <c r="AB49" s="30">
-        <f t="shared" si="93"/>
-        <v>263.29199999999997</v>
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F50" s="30">
-        <f>F44+SUM(F45:F49)</f>
-        <v>1028.71</v>
+        <f>27.558+38.165</f>
+        <v>65.722999999999999</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
       <c r="J50" s="30">
-        <f>J44+SUM(J45:J49)</f>
-        <v>5130.5160000000005</v>
+        <f>480.849+2296.784</f>
+        <v>2777.6330000000003</v>
       </c>
       <c r="N50" s="30">
-        <f>N44+SUM(N45:N49)</f>
-        <v>9487.4330000000009</v>
+        <f>966.573+4595.394</f>
+        <v>5561.9670000000006</v>
       </c>
       <c r="Q50" s="30">
-        <f>Q44+SUM(Q45:Q49)</f>
-        <v>12976.847000000002</v>
+        <f>1102.599+5263.051</f>
+        <v>6365.6500000000005</v>
       </c>
       <c r="R50" s="30">
-        <f>R44+SUM(R45:R49)</f>
-        <v>12998.598</v>
+        <f>1050.012+5263.166</f>
+        <v>6313.1779999999999</v>
       </c>
       <c r="S50" s="30">
-        <f>S44+SUM(S45:S49)</f>
-        <v>12890.802</v>
+        <f>1006.692+5286.683</f>
+        <v>6293.375</v>
       </c>
       <c r="T50" s="30">
-        <f>T44+SUM(T45:T49)</f>
-        <v>12869.228999999999</v>
+        <f>953.522+5285.563</f>
+        <v>6239.085</v>
+      </c>
+      <c r="U50" s="30">
+        <f>901.155+5284.616</f>
+        <v>6185.7709999999997</v>
       </c>
       <c r="Y50" s="30">
-        <f t="shared" ref="Y50:AB50" si="95">Y44+SUM(Y45:Y49)</f>
-        <v>1028.71</v>
+        <f t="shared" si="58"/>
+        <v>65.722999999999999</v>
       </c>
       <c r="Z50" s="30">
-        <f t="shared" si="95"/>
-        <v>5115.0309999999999</v>
+        <f t="shared" ref="Z50:Z51" si="61">J50</f>
+        <v>2777.6330000000003</v>
       </c>
       <c r="AA50" s="30">
-        <f t="shared" si="95"/>
-        <v>9487.4330000000009</v>
+        <f t="shared" si="59"/>
+        <v>5561.9670000000006</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" si="95"/>
-        <v>12998.598</v>
+        <f t="shared" si="60"/>
+        <v>6313.1779999999999</v>
       </c>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="N51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="30">
+        <v>8.3859999999999992</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="N51" s="30">
+        <v>111.282</v>
+      </c>
+      <c r="Q51" s="30">
+        <v>219.56899999999999</v>
+      </c>
+      <c r="R51" s="30">
+        <v>263.29199999999997</v>
+      </c>
+      <c r="S51" s="30">
+        <v>281.28300000000002</v>
+      </c>
+      <c r="T51" s="30">
+        <v>297.52199999999999</v>
+      </c>
+      <c r="U51" s="30">
+        <v>340.69400000000002</v>
+      </c>
+      <c r="Y51" s="30">
+        <f t="shared" si="58"/>
+        <v>8.3859999999999992</v>
+      </c>
+      <c r="Z51" s="30">
+        <f t="shared" si="61"/>
+        <v>33.479999999999997</v>
+      </c>
+      <c r="AA51" s="30">
+        <f t="shared" si="59"/>
+        <v>111.282</v>
+      </c>
+      <c r="AB51" s="30">
+        <f t="shared" si="60"/>
+        <v>263.29199999999997</v>
+      </c>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" s="30">
-        <v>18.495000000000001</v>
-      </c>
+        <f>F46+SUM(F47:F51)</f>
+        <v>1028.71</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="30">
-        <v>39.098999999999997</v>
+        <f>J46+SUM(J47:J51)</f>
+        <v>5130.5160000000005</v>
       </c>
       <c r="N52" s="30">
-        <v>60.042000000000002</v>
+        <f>N46+SUM(N47:N51)</f>
+        <v>9487.4330000000009</v>
       </c>
       <c r="Q52" s="30">
-        <v>76.293000000000006</v>
+        <f>Q46+SUM(Q47:Q51)</f>
+        <v>12976.847000000002</v>
       </c>
       <c r="R52" s="30">
-        <v>93.332999999999998</v>
+        <f>R46+SUM(R47:R51)</f>
+        <v>12998.598</v>
       </c>
       <c r="S52" s="30">
-        <v>93.388999999999996</v>
+        <f>S46+SUM(S47:S51)</f>
+        <v>12890.802</v>
       </c>
       <c r="T52" s="30">
-        <v>102.039</v>
+        <f>T46+SUM(T47:T51)</f>
+        <v>12869.228999999999</v>
+      </c>
+      <c r="U52" s="30">
+        <f>U46+SUM(U47:U51)</f>
+        <v>12612.655999999999</v>
       </c>
       <c r="Y52" s="30">
-        <f t="shared" ref="Y52:Y55" si="96">F52</f>
-        <v>18.495000000000001</v>
+        <f t="shared" ref="Y52:AB52" si="62">Y46+SUM(Y47:Y51)</f>
+        <v>1028.71</v>
       </c>
       <c r="Z52" s="30">
-        <f t="shared" ref="Z52:Z55" si="97">J52</f>
-        <v>39.098999999999997</v>
+        <f t="shared" si="62"/>
+        <v>5115.0309999999999</v>
       </c>
       <c r="AA52" s="30">
-        <f t="shared" ref="AA52:AA58" si="98">N52</f>
-        <v>60.042000000000002</v>
+        <f t="shared" si="62"/>
+        <v>9487.4330000000009</v>
       </c>
       <c r="AB52" s="30">
-        <f t="shared" ref="AB52:AB55" si="99">R52</f>
-        <v>93.332999999999998</v>
+        <f t="shared" si="62"/>
+        <v>12998.598</v>
       </c>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="30">
-        <v>96.343000000000004</v>
-      </c>
-      <c r="J53" s="30">
-        <v>147.68100000000001</v>
-      </c>
-      <c r="N53" s="30">
-        <v>252.89500000000001</v>
-      </c>
-      <c r="Q53" s="30">
-        <v>368.863</v>
-      </c>
-      <c r="R53" s="30">
-        <v>417.50299999999999</v>
-      </c>
-      <c r="S53" s="30">
-        <v>433.66800000000001</v>
-      </c>
-      <c r="T53" s="30">
-        <v>504.81</v>
-      </c>
-      <c r="Y53" s="30">
-        <f t="shared" si="96"/>
-        <v>96.343000000000004</v>
-      </c>
-      <c r="Z53" s="30">
-        <f t="shared" si="97"/>
-        <v>147.68100000000001</v>
-      </c>
-      <c r="AA53" s="30">
-        <f t="shared" si="98"/>
-        <v>252.89500000000001</v>
-      </c>
-      <c r="AB53" s="30">
-        <f t="shared" si="99"/>
-        <v>417.50299999999999</v>
-      </c>
+      <c r="N53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F54" s="30">
-        <v>22.972000000000001</v>
+        <v>18.495000000000001</v>
       </c>
       <c r="J54" s="30">
-        <v>26.361999999999998</v>
+        <v>39.098999999999997</v>
       </c>
       <c r="N54" s="30">
-        <v>87.031000000000006</v>
+        <v>60.042000000000002</v>
       </c>
       <c r="Q54" s="30">
-        <v>121.337</v>
+        <v>76.293000000000006</v>
       </c>
       <c r="R54" s="30">
-        <v>140.38900000000001</v>
+        <v>93.332999999999998</v>
       </c>
       <c r="S54" s="30">
-        <v>139.67099999999999</v>
+        <v>93.388999999999996</v>
       </c>
       <c r="T54" s="30">
-        <v>137.72800000000001</v>
+        <v>102.039</v>
+      </c>
+      <c r="U54" s="30">
+        <v>103.23399999999999</v>
       </c>
       <c r="Y54" s="30">
-        <f t="shared" si="96"/>
-        <v>22.972000000000001</v>
+        <f t="shared" ref="Y54:Y57" si="63">F54</f>
+        <v>18.495000000000001</v>
       </c>
       <c r="Z54" s="30">
-        <f t="shared" si="97"/>
-        <v>26.361999999999998</v>
+        <f t="shared" ref="Z54:Z57" si="64">J54</f>
+        <v>39.098999999999997</v>
       </c>
       <c r="AA54" s="30">
-        <f t="shared" si="98"/>
-        <v>87.031000000000006</v>
+        <f t="shared" ref="AA54:AA60" si="65">N54</f>
+        <v>60.042000000000002</v>
       </c>
       <c r="AB54" s="30">
-        <f t="shared" si="99"/>
-        <v>140.38900000000001</v>
+        <f t="shared" ref="AB54:AB57" si="66">R54</f>
+        <v>93.332999999999998</v>
       </c>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F55" s="30">
-        <v>0</v>
+        <v>96.343000000000004</v>
       </c>
       <c r="J55" s="30">
-        <v>27.155999999999999</v>
+        <v>147.68100000000001</v>
       </c>
       <c r="N55" s="30">
-        <v>48.338000000000001</v>
+        <v>252.89500000000001</v>
       </c>
       <c r="Q55" s="30">
-        <v>50.76</v>
+        <v>368.863</v>
       </c>
       <c r="R55" s="30">
-        <v>52.325000000000003</v>
+        <v>417.50299999999999</v>
       </c>
       <c r="S55" s="30">
-        <v>53.094000000000001</v>
+        <v>433.66800000000001</v>
       </c>
       <c r="T55" s="30">
-        <v>50.743000000000002</v>
+        <v>504.81</v>
+      </c>
+      <c r="U55" s="30">
+        <v>572.87599999999998</v>
       </c>
       <c r="Y55" s="30">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>96.343000000000004</v>
       </c>
       <c r="Z55" s="30">
-        <f t="shared" si="97"/>
-        <v>27.155999999999999</v>
+        <f t="shared" si="64"/>
+        <v>147.68100000000001</v>
       </c>
       <c r="AA55" s="30">
-        <f t="shared" si="98"/>
-        <v>48.338000000000001</v>
+        <f t="shared" si="65"/>
+        <v>252.89500000000001</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" si="99"/>
-        <v>52.325000000000003</v>
+        <f t="shared" si="66"/>
+        <v>417.50299999999999</v>
       </c>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F56" s="30">
-        <v>0</v>
+        <v>22.972000000000001</v>
       </c>
       <c r="J56" s="30">
-        <v>6.9240000000000004</v>
+        <v>26.361999999999998</v>
       </c>
       <c r="N56" s="30">
-        <v>0</v>
+        <v>87.031000000000006</v>
       </c>
       <c r="Q56" s="30">
-        <v>0</v>
+        <v>121.337</v>
       </c>
       <c r="R56" s="30">
-        <v>0</v>
+        <v>140.38900000000001</v>
       </c>
       <c r="S56" s="30">
-        <v>0</v>
+        <v>139.67099999999999</v>
       </c>
       <c r="T56" s="30">
-        <v>0</v>
+        <v>137.72800000000001</v>
+      </c>
+      <c r="U56" s="30">
+        <v>135.61000000000001</v>
       </c>
       <c r="Y56" s="30">
-        <f>F56</f>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>22.972000000000001</v>
       </c>
       <c r="Z56" s="30">
-        <f>J56</f>
-        <v>6.9240000000000004</v>
+        <f t="shared" si="64"/>
+        <v>26.361999999999998</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>87.031000000000006</v>
       </c>
       <c r="AB56" s="30">
-        <f>R56</f>
-        <v>0</v>
+        <f t="shared" si="66"/>
+        <v>140.38900000000001</v>
       </c>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" s="30">
-        <f>SUM(F52:F56)</f>
-        <v>137.81</v>
+        <v>0</v>
       </c>
       <c r="J57" s="30">
-        <f>SUM(J52:J56)</f>
-        <v>247.22200000000001</v>
+        <v>27.155999999999999</v>
       </c>
       <c r="N57" s="30">
-        <f>SUM(N52:N56)</f>
-        <v>448.30600000000004</v>
+        <v>48.338000000000001</v>
       </c>
       <c r="Q57" s="30">
-        <f t="shared" ref="Q57:S57" si="100">SUM(Q52:Q56)</f>
-        <v>617.25300000000004</v>
+        <v>50.76</v>
       </c>
       <c r="R57" s="30">
-        <f t="shared" si="100"/>
-        <v>703.55000000000007</v>
+        <v>52.325000000000003</v>
       </c>
       <c r="S57" s="30">
-        <f t="shared" si="100"/>
-        <v>719.82200000000012</v>
+        <v>53.094000000000001</v>
       </c>
       <c r="T57" s="30">
-        <f>SUM(T52:T56)</f>
-        <v>795.32</v>
+        <v>50.743000000000002</v>
+      </c>
+      <c r="U57" s="30">
+        <v>52.453000000000003</v>
       </c>
       <c r="Y57" s="30">
-        <f>SUM(Y52:Y56)</f>
-        <v>137.81</v>
+        <f t="shared" si="63"/>
+        <v>0</v>
       </c>
       <c r="Z57" s="30">
-        <f>SUM(Z52:Z56)</f>
-        <v>247.22200000000001</v>
+        <f t="shared" si="64"/>
+        <v>27.155999999999999</v>
       </c>
       <c r="AA57" s="30">
-        <f>SUM(AA52:AA56)</f>
-        <v>448.30600000000004</v>
+        <f t="shared" si="65"/>
+        <v>48.338000000000001</v>
       </c>
       <c r="AB57" s="30">
-        <f>SUM(AB52:AB56)</f>
-        <v>703.55000000000007</v>
+        <f t="shared" si="66"/>
+        <v>52.325000000000003</v>
       </c>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F58" s="30">
         <v>0</v>
       </c>
       <c r="J58" s="30">
+        <v>6.9240000000000004</v>
+      </c>
+      <c r="N58" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="30">
+        <v>0</v>
+      </c>
+      <c r="R58" s="30">
+        <v>0</v>
+      </c>
+      <c r="S58" s="30">
+        <v>0</v>
+      </c>
+      <c r="T58" s="30">
+        <v>0</v>
+      </c>
+      <c r="U58" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="30">
+        <f>F58</f>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="30">
+        <f>J58</f>
+        <v>6.9240000000000004</v>
+      </c>
+      <c r="AA58" s="30">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="30">
+        <f>R58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="30">
+        <f>SUM(F54:F58)</f>
+        <v>137.81</v>
+      </c>
+      <c r="J59" s="30">
+        <f>SUM(J54:J58)</f>
+        <v>247.22200000000001</v>
+      </c>
+      <c r="N59" s="30">
+        <f>SUM(N54:N58)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="Q59" s="30">
+        <f t="shared" ref="Q59:S59" si="67">SUM(Q54:Q58)</f>
+        <v>617.25300000000004</v>
+      </c>
+      <c r="R59" s="30">
+        <f t="shared" si="67"/>
+        <v>703.55000000000007</v>
+      </c>
+      <c r="S59" s="30">
+        <f t="shared" si="67"/>
+        <v>719.82200000000012</v>
+      </c>
+      <c r="T59" s="30">
+        <f>SUM(T54:T58)</f>
+        <v>795.32</v>
+      </c>
+      <c r="U59" s="30">
+        <f>SUM(U54:U58)</f>
+        <v>864.173</v>
+      </c>
+      <c r="Y59" s="30">
+        <f>SUM(Y54:Y58)</f>
+        <v>137.81</v>
+      </c>
+      <c r="Z59" s="30">
+        <f>SUM(Z54:Z58)</f>
+        <v>247.22200000000001</v>
+      </c>
+      <c r="AA59" s="30">
+        <f>SUM(AA54:AA58)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="AB59" s="30">
+        <f>SUM(AB54:AB58)</f>
+        <v>703.55000000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="30">
+        <v>0</v>
+      </c>
+      <c r="J60" s="30">
         <v>139.19999999999999</v>
       </c>
-      <c r="N58" s="30">
+      <c r="N60" s="30">
         <v>229.905</v>
       </c>
-      <c r="Q58" s="30">
+      <c r="Q60" s="30">
         <v>223.03299999999999</v>
       </c>
-      <c r="R58" s="30">
+      <c r="R60" s="30">
         <v>211.25299999999999</v>
       </c>
-      <c r="S58" s="30">
+      <c r="S60" s="30">
         <v>201.35400000000001</v>
       </c>
-      <c r="T58" s="30">
+      <c r="T60" s="30">
         <v>189.06800000000001</v>
       </c>
-      <c r="Y58" s="30">
-        <f t="shared" ref="Y58:Y61" si="101">F58</f>
+      <c r="U60" s="30">
+        <v>176.33600000000001</v>
+      </c>
+      <c r="Y60" s="30">
+        <f t="shared" ref="Y60:Y63" si="68">F60</f>
         <v>0</v>
       </c>
-      <c r="Z58" s="30">
-        <f t="shared" ref="Z58:Z61" si="102">J58</f>
+      <c r="Z60" s="30">
+        <f t="shared" ref="Z60:Z63" si="69">J60</f>
         <v>139.19999999999999</v>
       </c>
-      <c r="AA58" s="30">
-        <f t="shared" si="98"/>
+      <c r="AA60" s="30">
+        <f t="shared" si="65"/>
         <v>229.905</v>
       </c>
-      <c r="AB58" s="30">
-        <f t="shared" ref="AB58" si="103">R58</f>
+      <c r="AB60" s="30">
+        <f t="shared" ref="AB60" si="70">R60</f>
         <v>211.25299999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F61" s="29">
         <v>0</v>
       </c>
-      <c r="J59" s="29">
+      <c r="J61" s="29">
         <v>8.7460000000000004</v>
       </c>
-      <c r="N59" s="29">
+      <c r="N61" s="29">
         <v>17.856000000000002</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="Q61" s="29">
         <v>20.254000000000001</v>
       </c>
-      <c r="R59" s="29">
+      <c r="R61" s="29">
         <v>25.132000000000001</v>
       </c>
-      <c r="S59" s="29">
+      <c r="S61" s="29">
         <v>22.053000000000001</v>
       </c>
-      <c r="T59" s="29">
+      <c r="T61" s="29">
         <v>18.934999999999999</v>
       </c>
-      <c r="Y59" s="29">
-        <f t="shared" si="101"/>
+      <c r="U61" s="29">
+        <v>24.841999999999999</v>
+      </c>
+      <c r="Y61" s="29">
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="Z59" s="29">
-        <f t="shared" si="102"/>
+      <c r="Z61" s="29">
+        <f t="shared" si="69"/>
         <v>8.7460000000000004</v>
       </c>
-      <c r="AA59" s="29">
-        <f t="shared" ref="AA59" si="104">N59</f>
+      <c r="AA61" s="29">
+        <f t="shared" ref="AA61" si="71">N61</f>
         <v>17.856000000000002</v>
       </c>
-      <c r="AB59" s="29">
-        <f>R59</f>
+      <c r="AB61" s="29">
+        <f>R61</f>
         <v>25.132000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+    <row r="62" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F62" s="29">
         <v>434.49599999999998</v>
       </c>
-      <c r="J60" s="29">
+      <c r="J62" s="29">
         <v>458.19</v>
       </c>
-      <c r="N60" s="29">
+      <c r="N62" s="29">
         <v>302.06799999999998</v>
       </c>
-      <c r="Q60" s="29">
+      <c r="Q62" s="29">
         <v>985.54700000000003</v>
       </c>
-      <c r="R60" s="29">
+      <c r="R62" s="29">
         <v>985.90700000000004</v>
       </c>
-      <c r="S60" s="29">
+      <c r="S62" s="29">
         <v>986.24300000000005</v>
       </c>
-      <c r="T60" s="29">
+      <c r="T62" s="29">
         <v>986.61900000000003</v>
       </c>
-      <c r="Y60" s="29">
-        <f t="shared" si="101"/>
+      <c r="U62" s="29">
+        <v>986.98500000000001</v>
+      </c>
+      <c r="Y62" s="29">
+        <f t="shared" si="68"/>
         <v>434.49599999999998</v>
       </c>
-      <c r="Z60" s="29">
-        <f t="shared" si="102"/>
+      <c r="Z62" s="29">
+        <f t="shared" si="69"/>
         <v>458.19</v>
       </c>
-      <c r="AA60" s="29">
-        <f t="shared" ref="AA60:AA61" si="105">N60</f>
+      <c r="AA62" s="29">
+        <f t="shared" ref="AA62:AA63" si="72">N62</f>
         <v>302.06799999999998</v>
       </c>
-      <c r="AB60" s="29">
-        <f t="shared" ref="AB60:AB61" si="106">R60</f>
+      <c r="AB62" s="29">
+        <f t="shared" ref="AB62:AB63" si="73">R62</f>
         <v>985.90700000000004</v>
       </c>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F63" s="30">
         <v>18.169</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J63" s="30">
         <v>17.747</v>
       </c>
-      <c r="N61" s="30">
+      <c r="N63" s="30">
         <v>36.633000000000003</v>
       </c>
-      <c r="Q61" s="30">
+      <c r="Q63" s="30">
         <v>49.191000000000003</v>
       </c>
-      <c r="R61" s="30">
+      <c r="R63" s="30">
         <v>41.29</v>
       </c>
-      <c r="S61" s="30">
+      <c r="S63" s="30">
         <v>43.896999999999998</v>
       </c>
-      <c r="T61" s="30">
+      <c r="T63" s="30">
         <v>37.292000000000002</v>
       </c>
-      <c r="Y61" s="30">
-        <f t="shared" si="101"/>
+      <c r="U63" s="30">
+        <v>29.431999999999999</v>
+      </c>
+      <c r="Y63" s="30">
+        <f t="shared" si="68"/>
         <v>18.169</v>
       </c>
-      <c r="Z61" s="30">
-        <f t="shared" si="102"/>
+      <c r="Z63" s="30">
+        <f t="shared" si="69"/>
         <v>17.747</v>
       </c>
-      <c r="AA61" s="30">
-        <f t="shared" si="105"/>
+      <c r="AA63" s="30">
+        <f t="shared" si="72"/>
         <v>36.633000000000003</v>
       </c>
-      <c r="AB61" s="30">
-        <f t="shared" si="106"/>
+      <c r="AB63" s="30">
+        <f t="shared" si="73"/>
         <v>41.29</v>
       </c>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="30">
-        <f>SUM(F58:F61)+F57</f>
-        <v>590.47499999999991</v>
-      </c>
-      <c r="J62" s="30">
-        <f>SUM(J58:J61)+J57</f>
-        <v>871.1049999999999</v>
-      </c>
-      <c r="N62" s="30">
-        <f>SUM(N58:N61)+N57</f>
-        <v>1034.768</v>
-      </c>
-      <c r="Q62" s="30">
-        <f>SUM(Q58:Q61)+Q57</f>
-        <v>1895.2780000000002</v>
-      </c>
-      <c r="R62" s="30">
-        <f>SUM(R58:R61)+R57</f>
-        <v>1967.1320000000001</v>
-      </c>
-      <c r="S62" s="30">
-        <f>SUM(S58:S61)+S57</f>
-        <v>1973.3690000000001</v>
-      </c>
-      <c r="T62" s="30">
-        <f>SUM(T58:T61)+T57</f>
-        <v>2027.2339999999999</v>
-      </c>
-      <c r="Y62" s="30">
-        <f t="shared" ref="Y62:Z62" si="107">SUM(Y58:Y61)+Y57</f>
-        <v>590.47499999999991</v>
-      </c>
-      <c r="Z62" s="30">
-        <f t="shared" si="107"/>
-        <v>871.1049999999999</v>
-      </c>
-      <c r="AA62" s="30">
-        <f>SUM(AA58:AA61)+AA57</f>
-        <v>1034.768</v>
-      </c>
-      <c r="AB62" s="30">
-        <f>SUM(AB58:AB61)+AB57</f>
-        <v>1967.1320000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="T63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="30">
+        <f>SUM(F60:F63)+F59</f>
+        <v>590.47499999999991</v>
+      </c>
+      <c r="J64" s="30">
+        <f>SUM(J60:J63)+J59</f>
+        <v>871.1049999999999</v>
+      </c>
+      <c r="N64" s="30">
+        <f>SUM(N60:N63)+N59</f>
+        <v>1034.768</v>
+      </c>
+      <c r="Q64" s="30">
+        <f>SUM(Q60:Q63)+Q59</f>
+        <v>1895.2780000000002</v>
+      </c>
+      <c r="R64" s="30">
+        <f>SUM(R60:R63)+R59</f>
+        <v>1967.1320000000001</v>
+      </c>
+      <c r="S64" s="30">
+        <f>SUM(S60:S63)+S59</f>
+        <v>1973.3690000000001</v>
+      </c>
+      <c r="T64" s="30">
+        <f>SUM(T60:T63)+T59</f>
+        <v>2027.2339999999999</v>
+      </c>
+      <c r="U64" s="30">
+        <f>SUM(U60:U63)+U59</f>
+        <v>2081.768</v>
+      </c>
+      <c r="Y64" s="30">
+        <f t="shared" ref="Y64:Z64" si="74">SUM(Y60:Y63)+Y59</f>
+        <v>590.47499999999991</v>
+      </c>
+      <c r="Z64" s="30">
+        <f t="shared" si="74"/>
+        <v>871.1049999999999</v>
+      </c>
+      <c r="AA64" s="30">
+        <f>SUM(AA60:AA63)+AA59</f>
+        <v>1034.768</v>
+      </c>
+      <c r="AB64" s="30">
+        <f>SUM(AB60:AB63)+AB59</f>
+        <v>1967.1320000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F66" s="30">
         <v>438.23500000000001</v>
       </c>
-      <c r="J64" s="30">
+      <c r="J66" s="30">
         <v>4279.4110000000001</v>
       </c>
-      <c r="N64" s="30">
+      <c r="N66" s="30">
         <v>8452.6650000000009</v>
       </c>
-      <c r="Q64" s="30">
+      <c r="Q66" s="30">
         <v>11081.749</v>
       </c>
-      <c r="R64" s="30">
+      <c r="R66" s="30">
         <v>11031.466</v>
       </c>
-      <c r="S64" s="30">
+      <c r="S66" s="30">
         <v>10917.433000000001</v>
       </c>
-      <c r="T64" s="30">
+      <c r="T66" s="30">
         <v>10841.995000000001</v>
       </c>
-      <c r="Y64" s="30">
-        <f>F64</f>
+      <c r="U66" s="30">
+        <v>10530.888000000001</v>
+      </c>
+      <c r="Y66" s="30">
+        <f>F66</f>
         <v>438.23500000000001</v>
       </c>
-      <c r="Z64" s="30">
-        <f>J64</f>
+      <c r="Z66" s="30">
+        <f>J66</f>
         <v>4279.4110000000001</v>
       </c>
-      <c r="AA64" s="30">
-        <f>N64</f>
+      <c r="AA66" s="30">
+        <f>N66</f>
         <v>8452.6650000000009</v>
       </c>
-      <c r="AB64" s="30">
-        <f>R64</f>
+      <c r="AB66" s="30">
+        <f>R66</f>
         <v>11031.466</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="30">
-        <f>F64+F62</f>
-        <v>1028.71</v>
-      </c>
-      <c r="J65" s="30">
-        <f>J64+J62</f>
-        <v>5150.5159999999996</v>
-      </c>
-      <c r="N65" s="30">
-        <f>N64+N62</f>
-        <v>9487.4330000000009</v>
-      </c>
-      <c r="Q65" s="30">
-        <f>Q64+Q62</f>
-        <v>12977.027</v>
-      </c>
-      <c r="R65" s="30">
-        <f>R64+R62</f>
-        <v>12998.598</v>
-      </c>
-      <c r="S65" s="30">
-        <f>S64+S62</f>
-        <v>12890.802000000001</v>
-      </c>
-      <c r="T65" s="30">
-        <f>T64+T62</f>
-        <v>12869.229000000001</v>
-      </c>
-      <c r="Y65" s="30">
-        <f>Y64+Y62</f>
-        <v>1028.71</v>
-      </c>
-      <c r="Z65" s="30">
-        <f>Z64+Z62</f>
-        <v>5150.5159999999996</v>
-      </c>
-      <c r="AA65" s="30">
-        <f>AA64+AA62</f>
-        <v>9487.4330000000009</v>
-      </c>
-      <c r="AB65" s="30">
-        <f>AB64+AB62</f>
-        <v>12998.598</v>
-      </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="30">
+        <f>F66+F64</f>
+        <v>1028.71</v>
+      </c>
+      <c r="J67" s="30">
+        <f>J66+J64</f>
+        <v>5150.5159999999996</v>
+      </c>
+      <c r="N67" s="30">
+        <f>N66+N64</f>
+        <v>9487.4330000000009</v>
+      </c>
+      <c r="Q67" s="30">
+        <f>Q66+Q64</f>
+        <v>12977.027</v>
+      </c>
+      <c r="R67" s="30">
+        <f>R66+R64</f>
+        <v>12998.598</v>
+      </c>
+      <c r="S67" s="30">
+        <f>S66+S64</f>
+        <v>12890.802000000001</v>
+      </c>
+      <c r="T67" s="30">
+        <f>T66+T64</f>
+        <v>12869.229000000001</v>
+      </c>
+      <c r="U67" s="30">
+        <f>U66+U64</f>
+        <v>12612.656000000001</v>
+      </c>
+      <c r="Y67" s="30">
+        <f>Y66+Y64</f>
+        <v>1028.71</v>
+      </c>
+      <c r="Z67" s="30">
+        <f>Z66+Z64</f>
+        <v>5150.5159999999996</v>
+      </c>
+      <c r="AA67" s="30">
+        <f>AA66+AA64</f>
+        <v>9487.4330000000009</v>
+      </c>
+      <c r="AB67" s="30">
+        <f>AB66+AB64</f>
+        <v>12998.598</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F67" s="30">
-        <f t="shared" ref="F67" si="108">F50-F62</f>
+      <c r="F69" s="30">
+        <f t="shared" ref="F69" si="75">F52-F64</f>
         <v>438.23500000000013</v>
       </c>
-      <c r="J67" s="30">
-        <f t="shared" ref="J67" si="109">J50-J62</f>
+      <c r="J69" s="30">
+        <f t="shared" ref="J69" si="76">J52-J64</f>
         <v>4259.411000000001</v>
       </c>
-      <c r="N67" s="30">
-        <f t="shared" ref="N67" si="110">N50-N62</f>
+      <c r="N69" s="30">
+        <f t="shared" ref="N69" si="77">N52-N64</f>
         <v>8452.6650000000009</v>
       </c>
-      <c r="Q67" s="30">
-        <f t="shared" ref="Q67:R67" si="111">Q50-Q62</f>
+      <c r="Q69" s="30">
+        <f t="shared" ref="Q69:R69" si="78">Q52-Q64</f>
         <v>11081.569000000001</v>
       </c>
-      <c r="R67" s="30">
-        <f t="shared" si="111"/>
+      <c r="R69" s="30">
+        <f t="shared" si="78"/>
         <v>11031.466</v>
       </c>
-      <c r="S67" s="30">
-        <f t="shared" ref="S67" si="112">S50-S62</f>
+      <c r="S69" s="30">
+        <f t="shared" ref="S69" si="79">S52-S64</f>
         <v>10917.432999999999</v>
       </c>
-      <c r="T67" s="30">
-        <f>T50-T62</f>
+      <c r="T69" s="30">
+        <f>T52-T64</f>
         <v>10841.994999999999</v>
       </c>
-      <c r="Y67" s="30">
-        <f>Y50-Y62</f>
+      <c r="U69" s="30">
+        <f t="shared" ref="U69" si="80">U52-U64</f>
+        <v>10530.887999999999</v>
+      </c>
+      <c r="Y69" s="30">
+        <f>Y52-Y64</f>
         <v>438.23500000000013</v>
       </c>
-      <c r="Z67" s="30">
-        <f>Z50-Z62</f>
+      <c r="Z69" s="30">
+        <f>Z52-Z64</f>
         <v>4243.9260000000004</v>
       </c>
-      <c r="AA67" s="30">
-        <f>AA50-AA62</f>
+      <c r="AA69" s="30">
+        <f>AA52-AA64</f>
         <v>8452.6650000000009</v>
       </c>
-      <c r="AB67" s="30">
-        <f>AB50-AB62</f>
+      <c r="AB69" s="30">
+        <f>AB52-AB64</f>
         <v>11031.466</v>
       </c>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="1">
-        <f t="shared" ref="F68" si="113">F67/F17</f>
+      <c r="F70" s="1">
+        <f t="shared" ref="F70" si="81">F69/F19</f>
         <v>4.4080086658029467</v>
       </c>
-      <c r="J68" s="1">
-        <f t="shared" ref="J68" si="114">J67/J17</f>
+      <c r="J70" s="1">
+        <f t="shared" ref="J70" si="82">J69/J19</f>
         <v>30.926123407736053</v>
       </c>
-      <c r="N68" s="1">
-        <f t="shared" ref="N68" si="115">N67/N17</f>
+      <c r="N70" s="1">
+        <f t="shared" ref="N70" si="83">N69/N19</f>
         <v>53.368623979541908</v>
       </c>
-      <c r="Q68" s="1">
-        <f t="shared" ref="Q68" si="116">Q67/Q17</f>
+      <c r="Q70" s="1">
+        <f t="shared" ref="Q70" si="84">Q69/Q19</f>
         <v>62.526032015171587</v>
       </c>
-      <c r="R68" s="1">
-        <f t="shared" ref="R68" si="117">R67/R17</f>
+      <c r="R70" s="1">
+        <f t="shared" ref="R70" si="85">R69/R19</f>
         <v>61.650794916840383</v>
       </c>
-      <c r="S68" s="1">
-        <f t="shared" ref="S68" si="118">S67/S17</f>
+      <c r="S70" s="1">
+        <f t="shared" ref="S70" si="86">S69/S19</f>
         <v>60.351081657501894</v>
       </c>
-      <c r="T68" s="1">
-        <f>T67/T17</f>
+      <c r="T70" s="1">
+        <f>T69/T19</f>
         <v>59.457757070299436</v>
       </c>
-      <c r="Y68" s="1">
-        <f>Y67/Y17</f>
+      <c r="U70" s="1">
+        <f t="shared" ref="U70" si="87">U69/U19</f>
+        <v>57.328874782323787</v>
+      </c>
+      <c r="Y70" s="1">
+        <f>Y69/Y19</f>
         <v>4.511824055303669</v>
       </c>
-      <c r="Z68" s="1">
-        <f>Z67/Z17</f>
+      <c r="Z70" s="1">
+        <f>Z69/Z19</f>
         <v>32.624743427364088</v>
       </c>
-      <c r="AA68" s="1">
-        <f>AA67/AA17</f>
+      <c r="AA70" s="1">
+        <f>AA69/AA19</f>
         <v>57.615309329074869</v>
       </c>
-      <c r="AB68" s="1">
-        <f>AB67/AB17</f>
+      <c r="AB70" s="1">
+        <f>AB69/AB19</f>
         <v>63.333543173168131</v>
       </c>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-    </row>
-    <row r="70" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="35" t="s">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+    </row>
+    <row r="72" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="36">
-        <f>F40+F41</f>
+      <c r="F72" s="36">
+        <f>F42+F43</f>
         <v>748.34299999999996</v>
       </c>
-      <c r="J70" s="36">
-        <f>J40+J41</f>
+      <c r="J72" s="36">
+        <f>J42+J43</f>
         <v>1812.693</v>
       </c>
-      <c r="N70" s="36">
-        <f>N40+N41</f>
+      <c r="N72" s="36">
+        <f>N42+N43</f>
         <v>3039.7910000000002</v>
       </c>
-      <c r="Q70" s="36">
-        <f t="shared" ref="Q70" si="119">Q40+Q41</f>
+      <c r="Q72" s="36">
+        <f t="shared" ref="Q72" si="88">Q42+Q43</f>
         <v>5394.2520000000004</v>
       </c>
-      <c r="R70" s="36">
-        <f>R40+R41</f>
+      <c r="R72" s="36">
+        <f>R42+R43</f>
         <v>5357.8819999999996</v>
       </c>
-      <c r="S70" s="36">
-        <f>S40+S41</f>
+      <c r="S72" s="36">
+        <f>S42+S43</f>
         <v>5223.3119999999999</v>
       </c>
-      <c r="T70" s="36">
-        <f>T40+T41</f>
+      <c r="T72" s="36">
+        <f>T42+T43</f>
         <v>4392.2839999999997</v>
       </c>
-      <c r="Y70" s="36">
-        <f>F70</f>
+      <c r="U72" s="36">
+        <f t="shared" ref="U72" si="89">U42+U43</f>
+        <v>4208.5450000000001</v>
+      </c>
+      <c r="Y72" s="36">
+        <f>F72</f>
         <v>748.34299999999996</v>
       </c>
-      <c r="Z70" s="36">
-        <f>J70</f>
+      <c r="Z72" s="36">
+        <f>J72</f>
         <v>1812.693</v>
       </c>
-      <c r="AA70" s="36">
-        <f>N70</f>
+      <c r="AA72" s="36">
+        <f>N72</f>
         <v>3039.7910000000002</v>
       </c>
-      <c r="AB70" s="36">
-        <f>R70</f>
+      <c r="AB72" s="36">
+        <f>R72</f>
         <v>5357.8819999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="35" t="s">
+    <row r="73" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="36">
-        <f>F59+F60+F56</f>
+      <c r="F73" s="36">
+        <f>F61+F62+F58</f>
         <v>434.49599999999998</v>
       </c>
-      <c r="J71" s="36">
-        <f>J59+J60+J56</f>
+      <c r="J73" s="36">
+        <f>J61+J62+J58</f>
         <v>473.85999999999996</v>
       </c>
-      <c r="N71" s="36">
-        <f>N59+N60+N56</f>
+      <c r="N73" s="36">
+        <f>N61+N62+N58</f>
         <v>319.92399999999998</v>
       </c>
-      <c r="Q71" s="36">
-        <f>Q59+Q60+Q56</f>
+      <c r="Q73" s="36">
+        <f>Q61+Q62+Q58</f>
         <v>1005.801</v>
       </c>
-      <c r="R71" s="36">
-        <f>R59+R60+R56</f>
+      <c r="R73" s="36">
+        <f>R61+R62+R58</f>
         <v>1011.039</v>
       </c>
-      <c r="S71" s="36">
-        <f>S59+S60+S56</f>
+      <c r="S73" s="36">
+        <f>S61+S62+S58</f>
         <v>1008.296</v>
       </c>
-      <c r="T71" s="36">
-        <f>T59+T60+T56</f>
+      <c r="T73" s="36">
+        <f>T61+T62+T58</f>
         <v>1005.554</v>
       </c>
-      <c r="Y71" s="36">
-        <f>F71</f>
+      <c r="U73" s="36">
+        <f t="shared" ref="U73" si="90">U61+U62+U58</f>
+        <v>1011.827</v>
+      </c>
+      <c r="Y73" s="36">
+        <f>F73</f>
         <v>434.49599999999998</v>
       </c>
-      <c r="Z71" s="36">
-        <f>J71</f>
+      <c r="Z73" s="36">
+        <f>J73</f>
         <v>473.85999999999996</v>
       </c>
-      <c r="AA71" s="36">
-        <f>N71</f>
+      <c r="AA73" s="36">
+        <f>N73</f>
         <v>319.92399999999998</v>
       </c>
-      <c r="AB71" s="36">
-        <f>R71</f>
+      <c r="AB73" s="36">
+        <f>R73</f>
         <v>1011.039</v>
-      </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="30">
-        <f t="shared" ref="F72" si="120">F70-F71</f>
-        <v>313.84699999999998</v>
-      </c>
-      <c r="J72" s="30">
-        <f t="shared" ref="J72" si="121">J70-J71</f>
-        <v>1338.8330000000001</v>
-      </c>
-      <c r="N72" s="30">
-        <f t="shared" ref="N72" si="122">N70-N71</f>
-        <v>2719.8670000000002</v>
-      </c>
-      <c r="Q72" s="30">
-        <f t="shared" ref="Q72" si="123">Q70-Q71</f>
-        <v>4388.451</v>
-      </c>
-      <c r="R72" s="30">
-        <f t="shared" ref="R72" si="124">R70-R71</f>
-        <v>4346.8429999999998</v>
-      </c>
-      <c r="S72" s="30">
-        <f t="shared" ref="S72" si="125">S70-S71</f>
-        <v>4215.0159999999996</v>
-      </c>
-      <c r="T72" s="30">
-        <f>T70-T71</f>
-        <v>3386.7299999999996</v>
-      </c>
-      <c r="Y72" s="30">
-        <f>Y70-Y71</f>
-        <v>313.84699999999998</v>
-      </c>
-      <c r="Z72" s="30">
-        <f>Z70-Z71</f>
-        <v>1338.8330000000001</v>
-      </c>
-      <c r="AA72" s="30">
-        <f>AA70-AA71</f>
-        <v>2719.8670000000002</v>
-      </c>
-      <c r="AB72" s="30">
-        <f>AB70-AB71</f>
-        <v>4346.8429999999998</v>
       </c>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F74" s="44">
-        <v>89.3</v>
-      </c>
-      <c r="J74" s="44">
-        <v>98.28</v>
-      </c>
-      <c r="M74" s="1">
-        <v>247.09</v>
-      </c>
-      <c r="N74" s="44">
-        <v>338.5</v>
-      </c>
-      <c r="O74" s="1">
-        <v>340.76</v>
-      </c>
-      <c r="P74" s="1">
-        <v>394.16</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>319.05</v>
-      </c>
-      <c r="R74" s="1">
-        <v>263.33999999999997</v>
-      </c>
-      <c r="S74" s="1">
-        <v>164.81</v>
-      </c>
-      <c r="T74" s="1">
-        <v>83.81</v>
-      </c>
-      <c r="Y74" s="44">
-        <v>98.28</v>
-      </c>
-      <c r="Z74" s="44">
-        <v>98.28</v>
-      </c>
-      <c r="AA74" s="44">
-        <f>N74</f>
-        <v>338.5</v>
-      </c>
-      <c r="AB74" s="1">
-        <f>R74</f>
-        <v>263.33999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="30">
-        <f t="shared" ref="F75" si="126">F74*F17</f>
-        <v>8878.0191844000001</v>
-      </c>
-      <c r="J75" s="30">
-        <f t="shared" ref="J75" si="127">J74*J17</f>
-        <v>13535.96464584</v>
-      </c>
-      <c r="M75" s="30">
-        <f t="shared" ref="M75:T75" si="128">M74*M17</f>
-        <v>36446.040621749999</v>
-      </c>
-      <c r="N75" s="30">
-        <f t="shared" si="128"/>
-        <v>53612.532779499998</v>
-      </c>
-      <c r="O75" s="30">
-        <f t="shared" si="128"/>
-        <v>56961.597668080001</v>
-      </c>
-      <c r="P75" s="30">
-        <f t="shared" si="128"/>
-        <v>68350.181163679998</v>
-      </c>
-      <c r="Q75" s="30">
-        <f t="shared" si="128"/>
-        <v>56545.641479250007</v>
-      </c>
-      <c r="R75" s="30">
-        <f t="shared" si="128"/>
-        <v>47120.661791279999</v>
-      </c>
-      <c r="S75" s="30">
-        <f t="shared" si="128"/>
-        <v>29813.916889529999</v>
-      </c>
-      <c r="T75" s="30">
-        <f t="shared" si="128"/>
-        <v>15282.57448184</v>
-      </c>
-      <c r="Y75" s="30">
-        <f t="shared" ref="Y75" si="129">Y74*Y17</f>
-        <v>9545.9697169200008</v>
-      </c>
-      <c r="Z75" s="30">
-        <f>Z74*Z17</f>
-        <v>12784.56176088</v>
-      </c>
-      <c r="AA75" s="30">
-        <f>AA74*AA17</f>
-        <v>49660.8824255</v>
-      </c>
-      <c r="AB75" s="30">
-        <f>AB74*AB17</f>
-        <v>45868.683653099994</v>
+        <v>8</v>
+      </c>
+      <c r="F74" s="30">
+        <f t="shared" ref="F74" si="91">F72-F73</f>
+        <v>313.84699999999998</v>
+      </c>
+      <c r="J74" s="30">
+        <f t="shared" ref="J74" si="92">J72-J73</f>
+        <v>1338.8330000000001</v>
+      </c>
+      <c r="N74" s="30">
+        <f t="shared" ref="N74" si="93">N72-N73</f>
+        <v>2719.8670000000002</v>
+      </c>
+      <c r="Q74" s="30">
+        <f t="shared" ref="Q74" si="94">Q72-Q73</f>
+        <v>4388.451</v>
+      </c>
+      <c r="R74" s="30">
+        <f t="shared" ref="R74" si="95">R72-R73</f>
+        <v>4346.8429999999998</v>
+      </c>
+      <c r="S74" s="30">
+        <f t="shared" ref="S74" si="96">S72-S73</f>
+        <v>4215.0159999999996</v>
+      </c>
+      <c r="T74" s="30">
+        <f>T72-T73</f>
+        <v>3386.7299999999996</v>
+      </c>
+      <c r="U74" s="30">
+        <f t="shared" ref="U74" si="97">U72-U73</f>
+        <v>3196.7179999999998</v>
+      </c>
+      <c r="Y74" s="30">
+        <f>Y72-Y73</f>
+        <v>313.84699999999998</v>
+      </c>
+      <c r="Z74" s="30">
+        <f>Z72-Z73</f>
+        <v>1338.8330000000001</v>
+      </c>
+      <c r="AA74" s="30">
+        <f>AA72-AA73</f>
+        <v>2719.8670000000002</v>
+      </c>
+      <c r="AB74" s="30">
+        <f>AB72-AB73</f>
+        <v>4346.8429999999998</v>
       </c>
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="30">
-        <f t="shared" ref="F76" si="130">F75-F72</f>
-        <v>8564.1721844000003</v>
-      </c>
-      <c r="J76" s="30">
-        <f t="shared" ref="J76" si="131">J75-J72</f>
-        <v>12197.13164584</v>
-      </c>
-      <c r="N76" s="30">
-        <f t="shared" ref="N76" si="132">N75-N72</f>
-        <v>50892.665779499999</v>
-      </c>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30">
-        <f t="shared" ref="Q76:R76" si="133">Q75-Q72</f>
-        <v>52157.190479250006</v>
-      </c>
-      <c r="R76" s="30">
-        <f t="shared" si="133"/>
-        <v>42773.818791279999</v>
-      </c>
-      <c r="S76" s="30">
-        <f t="shared" ref="S76" si="134">S75-S72</f>
-        <v>25598.900889529999</v>
-      </c>
-      <c r="T76" s="30">
-        <f>T75-T72</f>
-        <v>11895.84448184</v>
-      </c>
-      <c r="Y76" s="30">
-        <f t="shared" ref="Y76" si="135">Y75-Y72</f>
-        <v>9232.122716920001</v>
-      </c>
-      <c r="Z76" s="30">
-        <f t="shared" ref="Z76:AA76" si="136">Z75-Z72</f>
-        <v>11445.72876088</v>
-      </c>
-      <c r="AA76" s="30">
-        <f t="shared" si="136"/>
-        <v>46941.015425500002</v>
-      </c>
-      <c r="AB76" s="30">
-        <f t="shared" ref="AB76" si="137">AB75-AB72</f>
-        <v>41521.840653099993</v>
+        <v>3</v>
+      </c>
+      <c r="F76" s="44">
+        <v>89.3</v>
+      </c>
+      <c r="J76" s="44">
+        <v>98.28</v>
+      </c>
+      <c r="M76" s="1">
+        <v>247.09</v>
+      </c>
+      <c r="N76" s="44">
+        <v>338.5</v>
+      </c>
+      <c r="O76" s="1">
+        <v>340.76</v>
+      </c>
+      <c r="P76" s="1">
+        <v>394.16</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>319.05</v>
+      </c>
+      <c r="R76" s="1">
+        <v>263.33999999999997</v>
+      </c>
+      <c r="S76" s="1">
+        <v>164.81</v>
+      </c>
+      <c r="T76" s="1">
+        <v>83.81</v>
+      </c>
+      <c r="U76" s="1">
+        <v>69.14</v>
+      </c>
+      <c r="Y76" s="44">
+        <v>98.28</v>
+      </c>
+      <c r="Z76" s="44">
+        <v>98.28</v>
+      </c>
+      <c r="AA76" s="44">
+        <f>N76</f>
+        <v>338.5</v>
+      </c>
+      <c r="AB76" s="1">
+        <f>R76</f>
+        <v>263.33999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="30">
+        <f t="shared" ref="F77" si="98">F76*F19</f>
+        <v>8878.0191844000001</v>
+      </c>
+      <c r="J77" s="30">
+        <f t="shared" ref="J77" si="99">J76*J19</f>
+        <v>13535.96464584</v>
+      </c>
+      <c r="M77" s="30">
+        <f t="shared" ref="M77:T77" si="100">M76*M19</f>
+        <v>36446.040621749999</v>
+      </c>
+      <c r="N77" s="30">
+        <f t="shared" si="100"/>
+        <v>53612.532779499998</v>
+      </c>
+      <c r="O77" s="30">
+        <f t="shared" si="100"/>
+        <v>56961.597668080001</v>
+      </c>
+      <c r="P77" s="30">
+        <f t="shared" si="100"/>
+        <v>68350.181163679998</v>
+      </c>
+      <c r="Q77" s="30">
+        <f t="shared" si="100"/>
+        <v>56545.641479250007</v>
+      </c>
+      <c r="R77" s="30">
+        <f t="shared" si="100"/>
+        <v>47120.661791279999</v>
+      </c>
+      <c r="S77" s="30">
+        <f t="shared" si="100"/>
+        <v>29813.916889529999</v>
+      </c>
+      <c r="T77" s="30">
+        <f t="shared" si="100"/>
+        <v>15282.57448184</v>
+      </c>
+      <c r="U77" s="30">
+        <f t="shared" ref="U77" si="101">U76*U19</f>
+        <v>12700.503874960001</v>
+      </c>
+      <c r="Y77" s="30">
+        <f t="shared" ref="Y77" si="102">Y76*Y19</f>
+        <v>9545.9697169200008</v>
+      </c>
+      <c r="Z77" s="30">
+        <f>Z76*Z19</f>
+        <v>12784.56176088</v>
+      </c>
+      <c r="AA77" s="30">
+        <f>AA76*AA19</f>
+        <v>49660.8824255</v>
+      </c>
+      <c r="AB77" s="30">
+        <f>AB76*AB19</f>
+        <v>45868.683653099994</v>
       </c>
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" s="37">
-        <f>F74/F68</f>
-        <v>20.258580862779098</v>
-      </c>
-      <c r="J78" s="37">
-        <f>J74/J68</f>
-        <v>3.1778958747676609</v>
-      </c>
-      <c r="N78" s="37">
-        <f>N74/N68</f>
-        <v>6.3426780523657325</v>
-      </c>
-      <c r="Q78" s="37">
-        <f t="shared" ref="Q78" si="138">Q74/Q68</f>
-        <v>5.1026746735277291</v>
-      </c>
-      <c r="R78" s="37">
-        <f>R74/R68</f>
-        <v>4.2714777701603754</v>
-      </c>
-      <c r="S78" s="37">
-        <f>S74/S68</f>
-        <v>2.730854120151688</v>
-      </c>
-      <c r="T78" s="37">
-        <f>T74/T68</f>
-        <v>1.4095721757702342</v>
-      </c>
-      <c r="Y78" s="37">
-        <f t="shared" ref="Y78" si="139">Y74/Y68</f>
-        <v>21.782764308921006</v>
-      </c>
-      <c r="Z78" s="37">
-        <f t="shared" ref="Z78" si="140">Z74/Z68</f>
-        <v>3.0124374838015551</v>
-      </c>
-      <c r="AA78" s="37">
-        <f>AA74/AA68</f>
-        <v>5.8751745663054189</v>
-      </c>
-      <c r="AB78" s="37">
-        <f>AB74/AB68</f>
-        <v>4.1579862235082805</v>
-      </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N79" s="37">
-        <f t="shared" ref="N79" si="141">N75/SUM(K4:N4)</f>
-        <v>53.82465574780209</v>
-      </c>
-      <c r="Q79" s="37">
-        <f t="shared" ref="Q79" si="142">Q75/SUM(N4:Q4)</f>
-        <v>22.199267614739412</v>
-      </c>
-      <c r="R79" s="37">
-        <f t="shared" ref="R79:S79" si="143">R75/SUM(O4:R4)</f>
-        <v>16.581045510065838</v>
-      </c>
-      <c r="S79" s="37">
-        <f t="shared" si="143"/>
-        <v>9.5336989696036145</v>
-      </c>
-      <c r="T79" s="37">
-        <f>T75/SUM(Q4:T4)</f>
-        <v>4.4927117390362339</v>
-      </c>
-      <c r="Y79" s="37">
-        <f t="shared" ref="Y79" si="144">Y75/Y4</f>
-        <v>14.684593614073627</v>
-      </c>
-      <c r="Z79" s="37">
-        <f t="shared" ref="Z79" si="145">Z75/Z4</f>
-        <v>11.269213200266556</v>
-      </c>
-      <c r="AA79" s="37">
-        <f>AA75/AA4</f>
-        <v>28.187966248546921</v>
-      </c>
-      <c r="AB79" s="37">
-        <f>AB75/AB4</f>
-        <v>16.140493410464138</v>
+        <v>9</v>
+      </c>
+      <c r="F78" s="30">
+        <f t="shared" ref="F78" si="103">F77-F74</f>
+        <v>8564.1721844000003</v>
+      </c>
+      <c r="J78" s="30">
+        <f t="shared" ref="J78" si="104">J77-J74</f>
+        <v>12197.13164584</v>
+      </c>
+      <c r="N78" s="30">
+        <f t="shared" ref="N78" si="105">N77-N74</f>
+        <v>50892.665779499999</v>
+      </c>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30">
+        <f t="shared" ref="Q78:R78" si="106">Q77-Q74</f>
+        <v>52157.190479250006</v>
+      </c>
+      <c r="R78" s="30">
+        <f t="shared" si="106"/>
+        <v>42773.818791279999</v>
+      </c>
+      <c r="S78" s="30">
+        <f t="shared" ref="S78" si="107">S77-S74</f>
+        <v>25598.900889529999</v>
+      </c>
+      <c r="T78" s="30">
+        <f>T77-T74</f>
+        <v>11895.84448184</v>
+      </c>
+      <c r="U78" s="30">
+        <f t="shared" ref="U78" si="108">U77-U74</f>
+        <v>9503.7858749600018</v>
+      </c>
+      <c r="Y78" s="30">
+        <f t="shared" ref="Y78" si="109">Y77-Y74</f>
+        <v>9232.122716920001</v>
+      </c>
+      <c r="Z78" s="30">
+        <f t="shared" ref="Z78:AA78" si="110">Z77-Z74</f>
+        <v>11445.72876088</v>
+      </c>
+      <c r="AA78" s="30">
+        <f t="shared" si="110"/>
+        <v>46941.015425500002</v>
+      </c>
+      <c r="AB78" s="30">
+        <f t="shared" ref="AB78" si="111">AB77-AB74</f>
+        <v>41521.840653099993</v>
       </c>
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" s="37">
+        <f>F76/F70</f>
+        <v>20.258580862779098</v>
+      </c>
+      <c r="J80" s="37">
+        <f>J76/J70</f>
+        <v>3.1778958747676609</v>
+      </c>
+      <c r="N80" s="37">
+        <f>N76/N70</f>
+        <v>6.3426780523657325</v>
+      </c>
+      <c r="Q80" s="37">
+        <f t="shared" ref="Q80" si="112">Q76/Q70</f>
+        <v>5.1026746735277291</v>
+      </c>
+      <c r="R80" s="37">
+        <f>R76/R70</f>
+        <v>4.2714777701603754</v>
+      </c>
+      <c r="S80" s="37">
+        <f>S76/S70</f>
+        <v>2.730854120151688</v>
+      </c>
+      <c r="T80" s="37">
+        <f>T76/T70</f>
+        <v>1.4095721757702342</v>
+      </c>
+      <c r="U80" s="37">
+        <f t="shared" ref="U80" si="113">U76/U70</f>
+        <v>1.206024019528078</v>
+      </c>
+      <c r="Y80" s="37">
+        <f t="shared" ref="Y80" si="114">Y76/Y70</f>
+        <v>21.782764308921006</v>
+      </c>
+      <c r="Z80" s="37">
+        <f t="shared" ref="Z80" si="115">Z76/Z70</f>
+        <v>3.0124374838015551</v>
+      </c>
+      <c r="AA80" s="37">
+        <f>AA76/AA70</f>
+        <v>5.8751745663054189</v>
+      </c>
+      <c r="AB80" s="37">
+        <f>AB76/AB70</f>
+        <v>4.1579862235082805</v>
+      </c>
+    </row>
+    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N81" s="37">
+        <f>N77/SUM(K4:N4)</f>
+        <v>53.82465574780209</v>
+      </c>
+      <c r="Q81" s="37">
+        <f>Q77/SUM(N4:Q4)</f>
+        <v>22.199267614739412</v>
+      </c>
+      <c r="R81" s="37">
+        <f>R77/SUM(O4:R4)</f>
+        <v>16.581045510065838</v>
+      </c>
+      <c r="S81" s="37">
+        <f>S77/SUM(P4:S4)</f>
+        <v>9.5336989696036145</v>
+      </c>
+      <c r="T81" s="37">
+        <f>T77/SUM(Q4:T4)</f>
+        <v>4.4927117390362339</v>
+      </c>
+      <c r="U81" s="37">
+        <f t="shared" ref="U81" si="116">U77/SUM(R4:U4)</f>
+        <v>3.4848498391023606</v>
+      </c>
+      <c r="Y81" s="37">
+        <f>Y77/Y4</f>
+        <v>14.684593614073627</v>
+      </c>
+      <c r="Z81" s="37">
+        <f>Z77/Z4</f>
+        <v>11.269213200266556</v>
+      </c>
+      <c r="AA81" s="37">
+        <f>AA77/AA4</f>
+        <v>28.187966248546921</v>
+      </c>
+      <c r="AB81" s="37">
+        <f>AB77/AB4</f>
+        <v>16.140493410464138</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N80" s="37">
-        <f t="shared" ref="N80" si="146">N74/SUM(K16:N16)</f>
+      <c r="N82" s="37">
+        <f t="shared" ref="N82" si="117">N76/SUM(K18:N18)</f>
         <v>-175.84216103089744</v>
       </c>
-      <c r="Q80" s="37">
-        <f t="shared" ref="Q80" si="147">Q74/SUM(N16:Q16)</f>
+      <c r="Q82" s="37">
+        <f t="shared" ref="Q82" si="118">Q76/SUM(N18:Q18)</f>
         <v>-64.500694009685063</v>
       </c>
-      <c r="R80" s="37">
-        <f t="shared" ref="R80:S80" si="148">R74/SUM(O16:R16)</f>
+      <c r="R82" s="37">
+        <f t="shared" ref="R82:S82" si="119">R76/SUM(O18:R18)</f>
         <v>-48.385204422553002</v>
       </c>
-      <c r="S80" s="37">
-        <f t="shared" si="148"/>
+      <c r="S82" s="37">
+        <f t="shared" si="119"/>
         <v>-30.339872026893296</v>
       </c>
-      <c r="T80" s="37">
-        <f>T74/SUM(Q16:T16)</f>
+      <c r="T82" s="37">
+        <f>T76/SUM(Q18:T18)</f>
         <v>-14.233498713981406</v>
       </c>
-      <c r="Y80" s="37">
-        <f t="shared" ref="Y80:Z80" si="149">Y74/Y16</f>
+      <c r="U82" s="37">
+        <f t="shared" ref="U82" si="120">U76/SUM(R18:U18)</f>
+        <v>-9.5372734774675205</v>
+      </c>
+      <c r="Y82" s="37">
+        <f t="shared" ref="Y82:Z82" si="121">Y76/Y18</f>
         <v>-78.278376345193479</v>
       </c>
-      <c r="Z80" s="37">
-        <f t="shared" si="149"/>
+      <c r="Z82" s="37">
+        <f t="shared" si="121"/>
         <v>-41.634979665019884</v>
       </c>
-      <c r="AA80" s="37">
-        <f>AA74/AA16</f>
+      <c r="AA82" s="37">
+        <f>AA76/AA18</f>
         <v>-101.14665276009771</v>
       </c>
-      <c r="AB80" s="37">
-        <f>AB74/AB16</f>
+      <c r="AB82" s="37">
+        <f>AB76/AB18</f>
         <v>-48.287907835666907</v>
       </c>
     </row>
@@ -15555,15 +15942,16 @@
     <hyperlink ref="Z1" r:id="rId6" xr:uid="{4D41E43B-78DD-4BC7-9AA5-4C75C95D3E6E}"/>
     <hyperlink ref="Y1" r:id="rId7" xr:uid="{620C08C8-E4C1-490D-823F-7D8C45A07CBD}"/>
     <hyperlink ref="J1" r:id="rId8" xr:uid="{A20F0590-51BB-47FE-A2F0-ABB514CD183A}"/>
+    <hyperlink ref="U1" r:id="rId9" xr:uid="{AFB77E95-5EDC-441A-8256-717B30720354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="Y44:AB44 Y58:AB62 Y50 AA50:AB50 Y48:AB49 Y47 AA47:AB47 Y46:AB46 Y45 AA45:AB45 Y51:AB55 U57:X57 Y57:AB57" formula="1"/>
-    <ignoredError sqref="N79:P79 S79:T79 Q79:R79" formulaRange="1"/>
+    <ignoredError sqref="Y46:AB46 Y60:AB64 Y52 AA52:AB52 Y50:AB51 Y49 AA49:AB49 Y48:AB48 Y47 AA47:AB47 Y53:AB57 V59:X59 Y59:AB59" formula="1"/>
+    <ignoredError sqref="N81:P81 S81 Q81:R81 T81:U81" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE2E84-6785-497C-A0BA-D2810ED55999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29E605-2915-40F1-B15D-26F68B3B27AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1732">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5251,6 +5251,36 @@
   </si>
   <si>
     <t>P/E C</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current Share Price</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -5262,7 +5292,7 @@
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5347,8 +5377,24 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5376,6 +5422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5473,7 +5525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5552,6 +5604,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5592,12 +5650,60 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11751,8 +11857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
   <dimension ref="B2:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11765,20 +11871,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="48" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11786,31 +11892,31 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="G5" s="53" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="G5" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>42.74</v>
+        <v>49.02</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="20"/>
@@ -11855,7 +11961,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>7851.0201853600001</v>
+        <v>9004.6094872800004</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="20"/>
@@ -11899,8 +12005,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>'Financial Model'!TU73</f>
-        <v>0</v>
+        <f>'Financial Model'!U73</f>
+        <v>1011.827</v>
       </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -11924,7 +12030,7 @@
       </c>
       <c r="C11" s="18">
         <f>C9-C10</f>
-        <v>4208.5450000000001</v>
+        <v>3196.7179999999998</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -11948,7 +12054,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>3642.4751853600001</v>
+        <v>5807.8914872800005</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="20"/>
@@ -11990,11 +12096,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12011,10 +12117,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="52"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12031,8 +12137,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12049,10 +12155,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="52"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12069,8 +12175,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12110,11 +12216,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12131,10 +12237,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="52"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12151,10 +12257,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="51">
         <v>2008</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="52"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12168,9 +12274,13 @@
       <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C25" s="51">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="52"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12185,8 +12295,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12201,8 +12311,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12242,10 +12352,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="61"/>
+      <c r="D29" s="63"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12259,76 +12369,76 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="58">
         <f>C6/'Financial Model'!U70</f>
-        <v>0.74552309219887269</v>
-      </c>
-      <c r="D33" s="57"/>
+        <v>0.85506649460900186</v>
+      </c>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="58">
         <f>C8/SUM('Financial Model'!R4:U4)</f>
-        <v>2.1542158247502874</v>
-      </c>
-      <c r="D34" s="57"/>
+        <v>2.4707454311946444</v>
+      </c>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="58">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
-        <v>-5.8956185771906542</v>
-      </c>
-      <c r="D35" s="57"/>
+        <v>-6.7618910307413636</v>
+      </c>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="58">
         <f>'Financial Model'!U80</f>
         <v>1.206024019528078</v>
       </c>
-      <c r="D37" s="57"/>
+      <c r="D37" s="59"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="58">
         <f>'Financial Model'!U81</f>
         <v>3.4848498391023606</v>
       </c>
-      <c r="D38" s="57"/>
+      <c r="D38" s="59"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="60">
         <f>'Financial Model'!U82</f>
         <v>-9.5372734774675205</v>
       </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -12369,25 +12479,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
-  <dimension ref="A1:AL82"/>
+  <dimension ref="A1:BW82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U83" sqref="U83"/>
+      <selection pane="bottomRight" activeCell="AP25" sqref="AP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.140625" style="1"/>
+    <col min="3" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="67"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="68"/>
+    <col min="30" max="39" width="9.140625" style="35"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="22" t="s">
         <v>25</v>
       </c>
@@ -12445,7 +12562,7 @@
       <c r="U1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="64" t="s">
         <v>44</v>
       </c>
       <c r="Y1" s="27" t="s">
@@ -12460,38 +12577,41 @@
       <c r="AB1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AC1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="84" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM1" s="84" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="F2" s="26">
         <v>43465</v>
@@ -12526,6 +12646,7 @@
       <c r="U2" s="26">
         <v>44834</v>
       </c>
+      <c r="V2" s="65"/>
       <c r="Y2" s="26">
         <v>43465</v>
       </c>
@@ -12538,8 +12659,19 @@
       <c r="AB2" s="26">
         <v>44561</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+    </row>
+    <row r="3" spans="1:39" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="J3" s="25">
         <v>38384</v>
@@ -12559,15 +12691,31 @@
       <c r="U3" s="25">
         <v>37926</v>
       </c>
+      <c r="V3" s="70" t="s">
+        <v>1723</v>
+      </c>
       <c r="Z3" s="25">
         <v>38384</v>
       </c>
       <c r="AB3" s="25">
         <v>39845</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="AC3" s="70" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+    </row>
+    <row r="4" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="29">
@@ -12603,7 +12751,10 @@
       <c r="U4" s="29">
         <v>983.03</v>
       </c>
-      <c r="V4" s="29"/>
+      <c r="V4" s="72">
+        <f>U4*(1+V22)</f>
+        <v>1024.3747107660538</v>
+      </c>
       <c r="Y4" s="29">
         <v>650.06700000000001</v>
       </c>
@@ -12616,8 +12767,52 @@
       <c r="AB4" s="29">
         <v>2841.8389999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC4" s="75">
+        <f>SUM(S4:V4)</f>
+        <v>3826.1217107660541</v>
+      </c>
+      <c r="AD4" s="86">
+        <f>AC4*(1+AD21)</f>
+        <v>5165.2643095341737</v>
+      </c>
+      <c r="AE4" s="86">
+        <f t="shared" ref="AE4:AM4" si="0">AD4*(1+AE21)</f>
+        <v>6714.8436023944259</v>
+      </c>
+      <c r="AF4" s="86">
+        <f t="shared" si="0"/>
+        <v>8594.9998110648648</v>
+      </c>
+      <c r="AG4" s="86">
+        <f t="shared" si="0"/>
+        <v>10313.999773277837</v>
+      </c>
+      <c r="AH4" s="86">
+        <f t="shared" si="0"/>
+        <v>11861.099739269512</v>
+      </c>
+      <c r="AI4" s="86">
+        <f t="shared" si="0"/>
+        <v>13640.264700159938</v>
+      </c>
+      <c r="AJ4" s="86">
+        <f t="shared" si="0"/>
+        <v>15140.693817177533</v>
+      </c>
+      <c r="AK4" s="86">
+        <f t="shared" si="0"/>
+        <v>16200.542384379962</v>
+      </c>
+      <c r="AL4" s="86">
+        <f t="shared" si="0"/>
+        <v>17334.58035128656</v>
+      </c>
+      <c r="AM4" s="86">
+        <f t="shared" si="0"/>
+        <v>18548.000975876621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
@@ -12654,6 +12849,11 @@
       <c r="U5" s="30">
         <v>520.95500000000004</v>
       </c>
+      <c r="V5" s="73">
+        <f>V4*V24</f>
+        <v>481.5091548347703</v>
+      </c>
+      <c r="W5" s="2"/>
       <c r="Y5" s="30">
         <v>300.84100000000001</v>
       </c>
@@ -12666,61 +12866,109 @@
       <c r="AB5" s="30">
         <v>1451.126</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="80">
+        <f>SUM(S5:V5)</f>
+        <v>1950.8211548347701</v>
+      </c>
+      <c r="AD5" s="36">
+        <f>AD4*AD24</f>
+        <v>2582.6321547670868</v>
+      </c>
+      <c r="AE5" s="36">
+        <f t="shared" ref="AE5:AM5" si="1">AE4*AE24</f>
+        <v>3357.421801197213</v>
+      </c>
+      <c r="AF5" s="36">
+        <f t="shared" si="1"/>
+        <v>4555.349899864379</v>
+      </c>
+      <c r="AG5" s="36">
+        <f t="shared" si="1"/>
+        <v>5672.6998753028111</v>
+      </c>
+      <c r="AH5" s="36">
+        <f t="shared" si="1"/>
+        <v>6523.6048565982319</v>
+      </c>
+      <c r="AI5" s="36">
+        <f t="shared" si="1"/>
+        <v>7502.1455850879665</v>
+      </c>
+      <c r="AJ5" s="36">
+        <f t="shared" si="1"/>
+        <v>8327.3815994476445</v>
+      </c>
+      <c r="AK5" s="36">
+        <f t="shared" si="1"/>
+        <v>8910.2983114089802</v>
+      </c>
+      <c r="AL5" s="36">
+        <f t="shared" si="1"/>
+        <v>9534.0191932076086</v>
+      </c>
+      <c r="AM5" s="36">
+        <f t="shared" si="1"/>
+        <v>10201.400536732142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="29">
-        <f t="shared" ref="F6" si="0">F4-F5</f>
+        <f t="shared" ref="F6" si="2">F4-F5</f>
         <v>108.014</v>
       </c>
       <c r="J6" s="29">
-        <f t="shared" ref="J6" si="1">J4-J5</f>
+        <f t="shared" ref="J6" si="3">J4-J5</f>
         <v>174.69</v>
       </c>
       <c r="M6" s="29">
-        <f t="shared" ref="M6" si="2">M4-M5</f>
+        <f t="shared" ref="M6" si="4">M4-M5</f>
         <v>230.874</v>
       </c>
       <c r="N6" s="29">
-        <f t="shared" ref="N6:U6" si="3">N4-N5</f>
+        <f t="shared" ref="N6:U6" si="5">N4-N5</f>
         <v>282.12100000000004</v>
       </c>
       <c r="O6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>298.30400000000003</v>
       </c>
       <c r="P6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>331.24700000000001</v>
       </c>
       <c r="Q6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>364.61500000000007</v>
       </c>
       <c r="R6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396.54700000000003</v>
       </c>
       <c r="S6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>425.07100000000008</v>
       </c>
       <c r="T6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>445.28900000000004</v>
       </c>
       <c r="U6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>462.07499999999993</v>
       </c>
+      <c r="V6" s="72">
+        <f>V4-V5</f>
+        <v>542.86555593128355</v>
+      </c>
       <c r="Y6" s="29">
-        <f t="shared" ref="Y6:Z6" si="4">Y4-Y5</f>
+        <f t="shared" ref="Y6:Z6" si="6">Y4-Y5</f>
         <v>349.226</v>
       </c>
       <c r="Z6" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>608.91700000000003</v>
       </c>
       <c r="AA6" s="29">
@@ -12731,8 +12979,52 @@
         <f>AB4-AB5</f>
         <v>1390.713</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC6" s="75">
+        <f>AC4-AC5</f>
+        <v>1875.300555931284</v>
+      </c>
+      <c r="AD6" s="86">
+        <f>AD4-AD5</f>
+        <v>2582.6321547670868</v>
+      </c>
+      <c r="AE6" s="86">
+        <f t="shared" ref="AE6:AM6" si="7">AE4-AE5</f>
+        <v>3357.421801197213</v>
+      </c>
+      <c r="AF6" s="86">
+        <f t="shared" si="7"/>
+        <v>4039.6499112004858</v>
+      </c>
+      <c r="AG6" s="86">
+        <f t="shared" si="7"/>
+        <v>4641.2998979750264</v>
+      </c>
+      <c r="AH6" s="86">
+        <f t="shared" si="7"/>
+        <v>5337.4948826712798</v>
+      </c>
+      <c r="AI6" s="86">
+        <f t="shared" si="7"/>
+        <v>6138.1191150719715</v>
+      </c>
+      <c r="AJ6" s="86">
+        <f t="shared" si="7"/>
+        <v>6813.3122177298883</v>
+      </c>
+      <c r="AK6" s="86">
+        <f t="shared" si="7"/>
+        <v>7290.2440729709815</v>
+      </c>
+      <c r="AL6" s="86">
+        <f t="shared" si="7"/>
+        <v>7800.5611580789518</v>
+      </c>
+      <c r="AM6" s="86">
+        <f t="shared" si="7"/>
+        <v>8346.6004391444785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
@@ -12769,6 +13061,10 @@
       <c r="U7" s="30">
         <v>284.73500000000001</v>
       </c>
+      <c r="V7" s="73">
+        <f>0.28*V4</f>
+        <v>286.82491901449509</v>
+      </c>
       <c r="Y7" s="30">
         <v>171.358</v>
       </c>
@@ -12781,8 +13077,52 @@
       <c r="AB7" s="30">
         <v>789.21900000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC7" s="80">
+        <f t="shared" ref="AC7:AC11" si="8">SUM(S7:V7)</f>
+        <v>1091.8119190144951</v>
+      </c>
+      <c r="AD7" s="36">
+        <f>0.28*AD4</f>
+        <v>1446.2740066695687</v>
+      </c>
+      <c r="AE7" s="36">
+        <f>0.23*AE4</f>
+        <v>1544.4140285507181</v>
+      </c>
+      <c r="AF7" s="36">
+        <f>0.18*AF4</f>
+        <v>1547.0999659916756</v>
+      </c>
+      <c r="AG7" s="36">
+        <f>0.13*AG4</f>
+        <v>1340.8199705261188</v>
+      </c>
+      <c r="AH7" s="36">
+        <f t="shared" ref="AH7:AI7" si="9">0.13*AH4</f>
+        <v>1541.9429661050365</v>
+      </c>
+      <c r="AI7" s="36">
+        <f t="shared" si="9"/>
+        <v>1773.2344110207921</v>
+      </c>
+      <c r="AJ7" s="36">
+        <f>0.08*AJ4</f>
+        <v>1211.2555053742026</v>
+      </c>
+      <c r="AK7" s="36">
+        <f t="shared" ref="AK7:AM7" si="10">0.08*AK4</f>
+        <v>1296.0433907503971</v>
+      </c>
+      <c r="AL7" s="36">
+        <f t="shared" si="10"/>
+        <v>1386.7664281029249</v>
+      </c>
+      <c r="AM7" s="36">
+        <f t="shared" si="10"/>
+        <v>1483.8400780701297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
@@ -12819,6 +13159,10 @@
       <c r="U8" s="30">
         <v>328.83300000000003</v>
       </c>
+      <c r="V8" s="73">
+        <f>V4*0.33</f>
+        <v>338.04365455279776</v>
+      </c>
       <c r="Y8" s="30">
         <v>175.55500000000001</v>
       </c>
@@ -12831,8 +13175,52 @@
       <c r="AB8" s="30">
         <v>1044.6179999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC8" s="80">
+        <f t="shared" si="8"/>
+        <v>1289.7406545527979</v>
+      </c>
+      <c r="AD8" s="36">
+        <f>AD4*0.33</f>
+        <v>1704.5372221462774</v>
+      </c>
+      <c r="AE8" s="36">
+        <f t="shared" ref="AE8:AM8" si="11">AE4*0.33</f>
+        <v>2215.8983887901609</v>
+      </c>
+      <c r="AF8" s="36">
+        <f>AF4*0.25</f>
+        <v>2148.7499527662162</v>
+      </c>
+      <c r="AG8" s="36">
+        <f>AG4*0.16</f>
+        <v>1650.2399637244541</v>
+      </c>
+      <c r="AH8" s="36">
+        <f t="shared" ref="AH8" si="12">AH4*0.16</f>
+        <v>1897.775958283122</v>
+      </c>
+      <c r="AI8" s="36">
+        <f>AI4*0.1</f>
+        <v>1364.0264700159939</v>
+      </c>
+      <c r="AJ8" s="36">
+        <f t="shared" ref="AJ8:AM8" si="13">AJ4*0.1</f>
+        <v>1514.0693817177535</v>
+      </c>
+      <c r="AK8" s="36">
+        <f t="shared" si="13"/>
+        <v>1620.0542384379962</v>
+      </c>
+      <c r="AL8" s="36">
+        <f t="shared" si="13"/>
+        <v>1733.4580351286561</v>
+      </c>
+      <c r="AM8" s="36">
+        <f t="shared" si="13"/>
+        <v>1854.8000975876621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
@@ -12869,6 +13257,10 @@
       <c r="U9" s="30">
         <v>135.33099999999999</v>
       </c>
+      <c r="V9" s="73">
+        <f>V4*0.135</f>
+        <v>138.29058595341726</v>
+      </c>
       <c r="Y9" s="30">
         <v>117.548</v>
       </c>
@@ -12881,8 +13273,52 @@
       <c r="AB9" s="30">
         <v>472.46</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC9" s="80">
+        <f t="shared" si="8"/>
+        <v>530.6095859534172</v>
+      </c>
+      <c r="AD9" s="36">
+        <f>AD4*0.135</f>
+        <v>697.31068178711348</v>
+      </c>
+      <c r="AE9" s="36">
+        <f t="shared" ref="AE9:AM9" si="14">AE4*0.135</f>
+        <v>906.50388632324757</v>
+      </c>
+      <c r="AF9" s="36">
+        <f t="shared" si="14"/>
+        <v>1160.3249744937568</v>
+      </c>
+      <c r="AG9" s="36">
+        <f t="shared" si="14"/>
+        <v>1392.3899693925082</v>
+      </c>
+      <c r="AH9" s="36">
+        <f t="shared" si="14"/>
+        <v>1601.2484648013842</v>
+      </c>
+      <c r="AI9" s="36">
+        <f t="shared" si="14"/>
+        <v>1841.4357345215917</v>
+      </c>
+      <c r="AJ9" s="36">
+        <f t="shared" si="14"/>
+        <v>2043.993665318967</v>
+      </c>
+      <c r="AK9" s="36">
+        <f t="shared" si="14"/>
+        <v>2187.0732218912949</v>
+      </c>
+      <c r="AL9" s="36">
+        <f t="shared" si="14"/>
+        <v>2340.1683474236856</v>
+      </c>
+      <c r="AM9" s="36">
+        <f t="shared" si="14"/>
+        <v>2503.9801317433439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>1717</v>
       </c>
@@ -12919,6 +13355,10 @@
       <c r="U10" s="30">
         <v>72.450999999999993</v>
       </c>
+      <c r="V10" s="73">
+        <f>U10*0.25</f>
+        <v>18.112749999999998</v>
+      </c>
       <c r="Y10" s="30">
         <v>0</v>
       </c>
@@ -12931,8 +13371,43 @@
       <c r="AB10" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC10" s="80">
+        <f t="shared" si="8"/>
+        <v>90.563749999999999</v>
+      </c>
+      <c r="AD10" s="36">
+        <f>AC10*0.05</f>
+        <v>4.5281875000000005</v>
+      </c>
+      <c r="AE10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>1718</v>
       </c>
@@ -12969,6 +13444,10 @@
       <c r="U11" s="30">
         <v>97.721999999999994</v>
       </c>
+      <c r="V11" s="73">
+        <f>U11*0.25</f>
+        <v>24.430499999999999</v>
+      </c>
       <c r="Y11" s="30">
         <v>0</v>
       </c>
@@ -12981,13 +13460,48 @@
       <c r="AB11" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC11" s="80">
+        <f t="shared" si="8"/>
+        <v>122.15249999999999</v>
+      </c>
+      <c r="AD11" s="36">
+        <f t="shared" ref="AD11" si="15">AC11*0.05</f>
+        <v>6.1076249999999996</v>
+      </c>
+      <c r="AE11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" ref="F12" si="5">SUM(F7:F11)</f>
+        <f t="shared" ref="F12" si="16">SUM(F7:F11)</f>
         <v>152.001</v>
       </c>
       <c r="J12" s="30">
@@ -12995,59 +13509,107 @@
         <v>268.48899999999998</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" ref="M12:U12" si="6">SUM(M7:M11)</f>
+        <f t="shared" ref="M12:U12" si="17">SUM(M7:M11)</f>
         <v>343.14400000000001</v>
       </c>
       <c r="N12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>467.41199999999992</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>495.64299999999997</v>
       </c>
       <c r="P12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>533.52099999999996</v>
       </c>
       <c r="Q12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>596.96</v>
       </c>
       <c r="R12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>680.173</v>
       </c>
       <c r="S12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>642.87900000000002</v>
       </c>
       <c r="T12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>757.22500000000002</v>
       </c>
       <c r="U12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>919.072</v>
       </c>
+      <c r="V12" s="73">
+        <f>SUM(V7:V11)</f>
+        <v>805.70240952071015</v>
+      </c>
       <c r="Y12" s="30">
-        <f t="shared" ref="Y12" si="7">SUM(Y7:Y11)</f>
+        <f t="shared" ref="Y12" si="18">SUM(Y7:Y11)</f>
         <v>464.46100000000001</v>
       </c>
       <c r="Z12" s="30">
-        <f t="shared" ref="Z12" si="8">SUM(Z7:Z11)</f>
+        <f t="shared" ref="Z12" si="19">SUM(Z7:Z11)</f>
         <v>978.702</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12" si="9">SUM(AA7:AA11)</f>
+        <f t="shared" ref="AA12" si="20">SUM(AA7:AA11)</f>
         <v>1408.5619999999999</v>
       </c>
       <c r="AB12" s="30">
-        <f t="shared" ref="AB12" si="10">SUM(AB7:AB11)</f>
+        <f t="shared" ref="AB12:AM12" si="21">SUM(AB7:AB11)</f>
         <v>2306.297</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="80">
+        <f>SUM(AC7:AC11)</f>
+        <v>3124.8784095207097</v>
+      </c>
+      <c r="AD12" s="30">
+        <f t="shared" si="21"/>
+        <v>3858.75772310296</v>
+      </c>
+      <c r="AE12" s="30">
+        <f t="shared" si="21"/>
+        <v>4666.8163036641263</v>
+      </c>
+      <c r="AF12" s="30">
+        <f t="shared" si="21"/>
+        <v>4856.1748932516484</v>
+      </c>
+      <c r="AG12" s="30">
+        <f t="shared" si="21"/>
+        <v>4383.4499036430807</v>
+      </c>
+      <c r="AH12" s="30">
+        <f t="shared" si="21"/>
+        <v>5040.9673891895427</v>
+      </c>
+      <c r="AI12" s="30">
+        <f t="shared" si="21"/>
+        <v>4978.6966155583777</v>
+      </c>
+      <c r="AJ12" s="30">
+        <f t="shared" si="21"/>
+        <v>4769.3185524109231</v>
+      </c>
+      <c r="AK12" s="30">
+        <f t="shared" si="21"/>
+        <v>5103.1708510796889</v>
+      </c>
+      <c r="AL12" s="30">
+        <f t="shared" si="21"/>
+        <v>5460.3928106552667</v>
+      </c>
+      <c r="AM12" s="30">
+        <f t="shared" si="21"/>
+        <v>5842.6203074011355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
@@ -13060,40 +13622,44 @@
         <v>-93.798999999999978</v>
       </c>
       <c r="M13" s="29">
-        <f>M6-M12</f>
+        <f t="shared" ref="M13:V13" si="22">M6-M12</f>
         <v>-112.27000000000001</v>
       </c>
       <c r="N13" s="29">
-        <f>N6-N12</f>
+        <f t="shared" si="22"/>
         <v>-185.29099999999988</v>
       </c>
       <c r="O13" s="29">
-        <f>O6-O12</f>
+        <f t="shared" si="22"/>
         <v>-197.33899999999994</v>
       </c>
       <c r="P13" s="29">
-        <f>P6-P12</f>
+        <f t="shared" si="22"/>
         <v>-202.27399999999994</v>
       </c>
       <c r="Q13" s="29">
-        <f>Q6-Q12</f>
+        <f t="shared" si="22"/>
         <v>-232.34499999999997</v>
       </c>
       <c r="R13" s="29">
-        <f>R6-R12</f>
+        <f t="shared" si="22"/>
         <v>-283.62599999999998</v>
       </c>
       <c r="S13" s="29">
-        <f>S6-S12</f>
+        <f t="shared" si="22"/>
         <v>-217.80799999999994</v>
       </c>
       <c r="T13" s="29">
-        <f>T6-T12</f>
+        <f t="shared" si="22"/>
         <v>-311.93599999999998</v>
       </c>
       <c r="U13" s="29">
-        <f>U6-U12</f>
+        <f t="shared" si="22"/>
         <v>-456.99700000000007</v>
+      </c>
+      <c r="V13" s="72">
+        <f t="shared" si="22"/>
+        <v>-262.8368535894266</v>
       </c>
       <c r="Y13" s="29">
         <f>Y6-Y12</f>
@@ -13111,8 +13677,52 @@
         <f>AB6-AB12</f>
         <v>-915.58400000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC13" s="72">
+        <f t="shared" ref="AC13:AM13" si="23">AC6-AC12</f>
+        <v>-1249.5778535894258</v>
+      </c>
+      <c r="AD13" s="86">
+        <f t="shared" si="23"/>
+        <v>-1276.1255683358731</v>
+      </c>
+      <c r="AE13" s="86">
+        <f t="shared" si="23"/>
+        <v>-1309.3945024669133</v>
+      </c>
+      <c r="AF13" s="86">
+        <f t="shared" si="23"/>
+        <v>-816.52498205116262</v>
+      </c>
+      <c r="AG13" s="86">
+        <f t="shared" si="23"/>
+        <v>257.84999433194571</v>
+      </c>
+      <c r="AH13" s="86">
+        <f t="shared" si="23"/>
+        <v>296.52749348173711</v>
+      </c>
+      <c r="AI13" s="86">
+        <f t="shared" si="23"/>
+        <v>1159.4224995135937</v>
+      </c>
+      <c r="AJ13" s="86">
+        <f t="shared" si="23"/>
+        <v>2043.9936653189652</v>
+      </c>
+      <c r="AK13" s="86">
+        <f t="shared" si="23"/>
+        <v>2187.0732218912926</v>
+      </c>
+      <c r="AL13" s="86">
+        <f t="shared" si="23"/>
+        <v>2340.1683474236852</v>
+      </c>
+      <c r="AM13" s="86">
+        <f t="shared" si="23"/>
+        <v>2503.980131743343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
@@ -13149,6 +13759,10 @@
       <c r="U14" s="30">
         <v>21.75</v>
       </c>
+      <c r="V14" s="73">
+        <f>AVERAGE(R14:U14)</f>
+        <v>10.698</v>
+      </c>
       <c r="Y14" s="30">
         <v>5.923</v>
       </c>
@@ -13161,61 +13775,102 @@
       <c r="AB14" s="30">
         <v>45.344999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC14" s="80">
+        <f>SUM(S14:V14)</f>
+        <v>47.363999999999997</v>
+      </c>
+      <c r="AD14" s="36">
+        <f>AVERAGE(Y14:AC14)</f>
+        <v>20.517599999999998</v>
+      </c>
+      <c r="AE14" s="36">
+        <f>AD14*0.15</f>
+        <v>3.0776399999999997</v>
+      </c>
+      <c r="AF14" s="36">
+        <f t="shared" ref="AF14:AM14" si="24">AE14*0.15</f>
+        <v>0.46164599999999995</v>
+      </c>
+      <c r="AG14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" ref="F15" si="11">F13-F14</f>
+        <f t="shared" ref="F15" si="25">F13-F14</f>
         <v>-46.738000000000007</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" ref="J15" si="12">J13-J14</f>
+        <f t="shared" ref="J15" si="26">J13-J14</f>
         <v>-89.09099999999998</v>
       </c>
       <c r="M15" s="30">
-        <f t="shared" ref="M15" si="13">M13-M14</f>
+        <f t="shared" ref="M15" si="27">M13-M14</f>
         <v>-116.26600000000001</v>
       </c>
       <c r="N15" s="30">
-        <f t="shared" ref="N15" si="14">N13-N14</f>
+        <f t="shared" ref="N15" si="28">N13-N14</f>
         <v>-194.71699999999987</v>
       </c>
       <c r="O15" s="30">
-        <f t="shared" ref="O15:U15" si="15">O13-O14</f>
+        <f t="shared" ref="O15:V15" si="29">O13-O14</f>
         <v>-205.65199999999993</v>
       </c>
       <c r="P15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-226.56699999999995</v>
       </c>
       <c r="Q15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-238.95799999999997</v>
       </c>
       <c r="R15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-289.75199999999995</v>
       </c>
       <c r="S15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-224.48499999999993</v>
       </c>
       <c r="T15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-320.17499999999995</v>
       </c>
       <c r="U15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-478.74700000000007</v>
       </c>
+      <c r="V15" s="67">
+        <f t="shared" si="29"/>
+        <v>-273.53485358942658</v>
+      </c>
       <c r="Y15" s="30">
-        <f t="shared" ref="Y15:Z15" si="16">Y13-Y14</f>
+        <f t="shared" ref="Y15:Z15" si="30">Y13-Y14</f>
         <v>-121.15800000000002</v>
       </c>
       <c r="Z15" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>-362.21599999999995</v>
       </c>
       <c r="AA15" s="30">
@@ -13226,8 +13881,52 @@
         <f>AB13-AB14</f>
         <v>-960.92900000000009</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AC15" s="80">
+        <f>AC13-AC14</f>
+        <v>-1296.9418535894258</v>
+      </c>
+      <c r="AD15" s="30">
+        <f t="shared" ref="AD15:AM15" si="31">AD13-AD14</f>
+        <v>-1296.643168335873</v>
+      </c>
+      <c r="AE15" s="30">
+        <f t="shared" si="31"/>
+        <v>-1312.4721424669133</v>
+      </c>
+      <c r="AF15" s="30">
+        <f t="shared" si="31"/>
+        <v>-816.9866280511626</v>
+      </c>
+      <c r="AG15" s="30">
+        <f t="shared" si="31"/>
+        <v>257.84999433194571</v>
+      </c>
+      <c r="AH15" s="30">
+        <f t="shared" si="31"/>
+        <v>296.52749348173711</v>
+      </c>
+      <c r="AI15" s="30">
+        <f t="shared" si="31"/>
+        <v>1159.4224995135937</v>
+      </c>
+      <c r="AJ15" s="30">
+        <f t="shared" si="31"/>
+        <v>2043.9936653189652</v>
+      </c>
+      <c r="AK15" s="30">
+        <f t="shared" si="31"/>
+        <v>2187.0732218912926</v>
+      </c>
+      <c r="AL15" s="30">
+        <f t="shared" si="31"/>
+        <v>2340.1683474236852</v>
+      </c>
+      <c r="AM15" s="30">
+        <f t="shared" si="31"/>
+        <v>2503.980131743343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
@@ -13264,6 +13963,10 @@
       <c r="U16" s="30">
         <v>3.58</v>
       </c>
+      <c r="V16" s="73">
+        <f>V15*V27</f>
+        <v>2.735348535894266</v>
+      </c>
       <c r="Y16" s="30">
         <v>0.79100000000000004</v>
       </c>
@@ -13276,25 +13979,69 @@
       <c r="AB16" s="30">
         <v>-11.029</v>
       </c>
-    </row>
-    <row r="17" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC16" s="80">
+        <f>SUM(S16:V16)</f>
+        <v>6.0513485358942658</v>
+      </c>
+      <c r="AD16" s="36">
+        <f>AD15*AD27</f>
+        <v>-19.449647525038095</v>
+      </c>
+      <c r="AE16" s="36">
+        <f t="shared" ref="AE16:AM16" si="32">AE15*AE27</f>
+        <v>-19.687082137003699</v>
+      </c>
+      <c r="AF16" s="36">
+        <f t="shared" si="32"/>
+        <v>-12.254799420767439</v>
+      </c>
+      <c r="AG16" s="36">
+        <f t="shared" si="32"/>
+        <v>7.7354998299583713</v>
+      </c>
+      <c r="AH16" s="36">
+        <f t="shared" si="32"/>
+        <v>14.826374674086857</v>
+      </c>
+      <c r="AI16" s="36">
+        <f t="shared" si="32"/>
+        <v>57.971124975679686</v>
+      </c>
+      <c r="AJ16" s="36">
+        <f t="shared" si="32"/>
+        <v>102.19968326594827</v>
+      </c>
+      <c r="AK16" s="36">
+        <f t="shared" si="32"/>
+        <v>109.35366109456464</v>
+      </c>
+      <c r="AL16" s="36">
+        <f t="shared" si="32"/>
+        <v>117.00841737118427</v>
+      </c>
+      <c r="AM16" s="36">
+        <f t="shared" si="32"/>
+        <v>125.19900658716716</v>
+      </c>
+    </row>
+    <row r="17" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="29">
-        <f t="shared" ref="F17" si="17">F15-F16</f>
+        <f t="shared" ref="F17" si="33">F15-F16</f>
         <v>-47.158000000000008</v>
       </c>
       <c r="J17" s="29">
-        <f t="shared" ref="J17" si="18">J15-J16</f>
+        <f t="shared" ref="J17" si="34">J15-J16</f>
         <v>-90.246999999999986</v>
       </c>
       <c r="M17" s="29">
-        <f t="shared" ref="M17" si="19">M15-M16</f>
+        <f t="shared" ref="M17" si="35">M15-M16</f>
         <v>-116.914</v>
       </c>
       <c r="N17" s="29">
-        <f t="shared" ref="N17" si="20">N15-N16</f>
+        <f t="shared" ref="N17" si="36">N15-N16</f>
         <v>-179.35099999999989</v>
       </c>
       <c r="O17" s="29">
@@ -13306,7 +14053,7 @@
         <v>-227.85299999999995</v>
       </c>
       <c r="Q17" s="29">
-        <f t="shared" ref="Q17" si="21">Q15-Q16</f>
+        <f t="shared" ref="Q17" si="37">Q15-Q16</f>
         <v>-224.10899999999998</v>
       </c>
       <c r="R17" s="29">
@@ -13325,12 +14072,16 @@
         <f>U15-U16</f>
         <v>-482.32700000000006</v>
       </c>
+      <c r="V17" s="66">
+        <f>V15-V16</f>
+        <v>-276.27020212532085</v>
+      </c>
       <c r="Y17" s="29">
-        <f t="shared" ref="Y17:Z17" si="22">Y15-Y16</f>
+        <f t="shared" ref="Y17:Z17" si="38">Y15-Y16</f>
         <v>-121.94900000000001</v>
       </c>
       <c r="Z17" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>-307.06299999999993</v>
       </c>
       <c r="AA17" s="29">
@@ -13341,61 +14092,253 @@
         <f>AB15-AB16</f>
         <v>-949.90000000000009</v>
       </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="75">
+        <f>AC15-AC16</f>
+        <v>-1302.9932021253201</v>
+      </c>
+      <c r="AD17" s="29">
+        <f t="shared" ref="AD17:AM17" si="39">AD15-AD16</f>
+        <v>-1277.193520810835</v>
+      </c>
+      <c r="AE17" s="29">
+        <f t="shared" si="39"/>
+        <v>-1292.7850603299096</v>
+      </c>
+      <c r="AF17" s="29">
+        <f t="shared" si="39"/>
+        <v>-804.73182863039517</v>
+      </c>
+      <c r="AG17" s="29">
+        <f t="shared" si="39"/>
+        <v>250.11449450198734</v>
+      </c>
+      <c r="AH17" s="29">
+        <f t="shared" si="39"/>
+        <v>281.70111880765023</v>
+      </c>
+      <c r="AI17" s="29">
+        <f t="shared" si="39"/>
+        <v>1101.451374537914</v>
+      </c>
+      <c r="AJ17" s="29">
+        <f t="shared" si="39"/>
+        <v>1941.7939820530169</v>
+      </c>
+      <c r="AK17" s="29">
+        <f t="shared" si="39"/>
+        <v>2077.7195607967278</v>
+      </c>
+      <c r="AL17" s="29">
+        <f t="shared" si="39"/>
+        <v>2223.1599300525008</v>
+      </c>
+      <c r="AM17" s="29">
+        <f t="shared" si="39"/>
+        <v>2378.7811251561757</v>
+      </c>
+      <c r="AN17" s="30">
+        <f>AM17*(1+$AP$24)</f>
+        <v>2331.205502653052</v>
+      </c>
+      <c r="AO17" s="30">
+        <f t="shared" ref="AO17:BW17" si="40">AN17*(1+$AP$24)</f>
+        <v>2284.581392599991</v>
+      </c>
+      <c r="AP17" s="30">
+        <f t="shared" si="40"/>
+        <v>2238.8897647479912</v>
+      </c>
+      <c r="AQ17" s="30">
+        <f t="shared" si="40"/>
+        <v>2194.1119694530312</v>
+      </c>
+      <c r="AR17" s="30">
+        <f t="shared" si="40"/>
+        <v>2150.2297300639707</v>
+      </c>
+      <c r="AS17" s="30">
+        <f t="shared" si="40"/>
+        <v>2107.225135462691</v>
+      </c>
+      <c r="AT17" s="30">
+        <f t="shared" si="40"/>
+        <v>2065.0806327534369</v>
+      </c>
+      <c r="AU17" s="30">
+        <f t="shared" si="40"/>
+        <v>2023.7790200983682</v>
+      </c>
+      <c r="AV17" s="30">
+        <f t="shared" si="40"/>
+        <v>1983.3034396964008</v>
+      </c>
+      <c r="AW17" s="30">
+        <f t="shared" si="40"/>
+        <v>1943.6373709024726</v>
+      </c>
+      <c r="AX17" s="30">
+        <f t="shared" si="40"/>
+        <v>1904.7646234844231</v>
+      </c>
+      <c r="AY17" s="30">
+        <f t="shared" si="40"/>
+        <v>1866.6693310147346</v>
+      </c>
+      <c r="AZ17" s="30">
+        <f t="shared" si="40"/>
+        <v>1829.3359443944398</v>
+      </c>
+      <c r="BA17" s="30">
+        <f t="shared" si="40"/>
+        <v>1792.7492255065511</v>
+      </c>
+      <c r="BB17" s="30">
+        <f t="shared" si="40"/>
+        <v>1756.89424099642</v>
+      </c>
+      <c r="BC17" s="30">
+        <f t="shared" si="40"/>
+        <v>1721.7563561764916</v>
+      </c>
+      <c r="BD17" s="30">
+        <f t="shared" si="40"/>
+        <v>1687.3212290529618</v>
+      </c>
+      <c r="BE17" s="30">
+        <f t="shared" si="40"/>
+        <v>1653.5748044719026</v>
+      </c>
+      <c r="BF17" s="30">
+        <f t="shared" si="40"/>
+        <v>1620.5033083824644</v>
+      </c>
+      <c r="BG17" s="30">
+        <f t="shared" si="40"/>
+        <v>1588.0932422148151</v>
+      </c>
+      <c r="BH17" s="30">
+        <f t="shared" si="40"/>
+        <v>1556.3313773705188</v>
+      </c>
+      <c r="BI17" s="30">
+        <f t="shared" si="40"/>
+        <v>1525.2047498231084</v>
+      </c>
+      <c r="BJ17" s="30">
+        <f t="shared" si="40"/>
+        <v>1494.7006548266461</v>
+      </c>
+      <c r="BK17" s="30">
+        <f t="shared" si="40"/>
+        <v>1464.8066417301131</v>
+      </c>
+      <c r="BL17" s="30">
+        <f t="shared" si="40"/>
+        <v>1435.5105088955108</v>
+      </c>
+      <c r="BM17" s="30">
+        <f t="shared" si="40"/>
+        <v>1406.8002987176005</v>
+      </c>
+      <c r="BN17" s="30">
+        <f t="shared" si="40"/>
+        <v>1378.6642927432486</v>
+      </c>
+      <c r="BO17" s="30">
+        <f t="shared" si="40"/>
+        <v>1351.0910068883836</v>
+      </c>
+      <c r="BP17" s="30">
+        <f t="shared" si="40"/>
+        <v>1324.0691867506159</v>
+      </c>
+      <c r="BQ17" s="30">
+        <f t="shared" si="40"/>
+        <v>1297.5878030156036</v>
+      </c>
+      <c r="BR17" s="30">
+        <f t="shared" si="40"/>
+        <v>1271.6360469552915</v>
+      </c>
+      <c r="BS17" s="30">
+        <f t="shared" si="40"/>
+        <v>1246.2033260161857</v>
+      </c>
+      <c r="BT17" s="30">
+        <f t="shared" si="40"/>
+        <v>1221.2792594958619</v>
+      </c>
+      <c r="BU17" s="30">
+        <f t="shared" si="40"/>
+        <v>1196.8536743059447</v>
+      </c>
+      <c r="BV17" s="30">
+        <f t="shared" si="40"/>
+        <v>1172.9166008198258</v>
+      </c>
+      <c r="BW17" s="30">
+        <f t="shared" si="40"/>
+        <v>1149.4582688034293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" ref="F18" si="23">F17/F19</f>
+        <f t="shared" ref="F18" si="41">F17/F19</f>
         <v>-0.47434110160515558</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" ref="J18" si="24">J17/J19</f>
+        <f t="shared" ref="J18" si="42">J17/J19</f>
         <v>-0.65525253589708876</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" ref="M18:U18" si="25">M17/M19</f>
+        <f t="shared" ref="M18:U18" si="43">M17/M19</f>
         <v>-0.79263151132966325</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-1.1323903265248076</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-1.2355912544819656</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-1.3139765974420505</v>
       </c>
       <c r="Q18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-1.2645002263567628</v>
       </c>
       <c r="R18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-1.628504773126946</v>
       </c>
       <c r="S18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-1.2251441501410789</v>
       </c>
       <c r="T18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-1.7700728317826633</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>-2.6257295858747991</v>
       </c>
+      <c r="V18" s="78">
+        <f>V17/V19</f>
+        <v>-1.5039814138873953</v>
+      </c>
       <c r="Y18" s="44">
-        <f t="shared" ref="Y18:Z18" si="26">Y17/Y19</f>
+        <f t="shared" ref="Y18:Z18" si="44">Y17/Y19</f>
         <v>-1.2555191431999431</v>
       </c>
       <c r="Z18" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>-2.3605151435337697</v>
       </c>
       <c r="AA18" s="44">
@@ -13406,8 +14349,52 @@
         <f>AB17/AB19</f>
         <v>-5.4535392358724044</v>
       </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="81">
+        <f>AC17/AC19</f>
+        <v>-7.0933366803313822</v>
+      </c>
+      <c r="AD18" s="44">
+        <f t="shared" ref="AD18:AM18" si="45">AD17/AD19</f>
+        <v>-6.9528863498842286</v>
+      </c>
+      <c r="AE18" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.037764796673585</v>
+      </c>
+      <c r="AF18" s="44">
+        <f t="shared" si="45"/>
+        <v>-4.3808623011565953</v>
+      </c>
+      <c r="AG18" s="44">
+        <f t="shared" si="45"/>
+        <v>1.3615929194716196</v>
+      </c>
+      <c r="AH18" s="44">
+        <f t="shared" si="45"/>
+        <v>1.5335466644564351</v>
+      </c>
+      <c r="AI18" s="44">
+        <f t="shared" si="45"/>
+        <v>5.9961674580246704</v>
+      </c>
+      <c r="AJ18" s="44">
+        <f t="shared" si="45"/>
+        <v>10.570890512764668</v>
+      </c>
+      <c r="AK18" s="44">
+        <f t="shared" si="45"/>
+        <v>11.310852848658195</v>
+      </c>
+      <c r="AL18" s="44">
+        <f t="shared" si="45"/>
+        <v>12.102612548064279</v>
+      </c>
+      <c r="AM18" s="44">
+        <f t="shared" si="45"/>
+        <v>12.949795426428778</v>
+      </c>
+    </row>
+    <row r="19" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -13447,6 +14434,10 @@
       <c r="U19" s="28">
         <v>183.692564</v>
       </c>
+      <c r="V19" s="77">
+        <f>U19</f>
+        <v>183.692564</v>
+      </c>
       <c r="Y19" s="44">
         <v>97.130339000000006</v>
       </c>
@@ -13459,8 +14450,52 @@
       <c r="AB19" s="44">
         <v>174.180465</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC19" s="80">
+        <f>V19</f>
+        <v>183.692564</v>
+      </c>
+      <c r="AD19" s="36">
+        <f>AC19</f>
+        <v>183.692564</v>
+      </c>
+      <c r="AE19" s="36">
+        <f t="shared" ref="AE19:AM19" si="46">AD19</f>
+        <v>183.692564</v>
+      </c>
+      <c r="AF19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+      <c r="AG19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+      <c r="AH19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+      <c r="AI19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+      <c r="AJ19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+      <c r="AK19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+      <c r="AL19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+      <c r="AM19" s="36">
+        <f t="shared" si="46"/>
+        <v>183.692564</v>
+      </c>
+    </row>
+    <row r="21" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
@@ -13489,9 +14524,10 @@
         <v>0.41024111604933844</v>
       </c>
       <c r="U21" s="32">
-        <f t="shared" ref="U21" si="27">U4/Q4-1</f>
+        <f t="shared" ref="U21" si="47">U4/Q4-1</f>
         <v>0.32810304576208882</v>
       </c>
+      <c r="V21" s="66"/>
       <c r="Z21" s="32">
         <f>Z4/Y4-1</f>
         <v>0.74515549935622039</v>
@@ -13504,41 +14540,79 @@
         <f>AB4/AA4-1</f>
         <v>0.613053532344634</v>
       </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="76">
+        <f>AC4/AB4-1</f>
+        <v>0.34635414278080301</v>
+      </c>
+      <c r="AD21" s="88">
+        <v>0.35</v>
+      </c>
+      <c r="AE21" s="88">
+        <v>0.3</v>
+      </c>
+      <c r="AF21" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AG21" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="AH21" s="88">
+        <v>0.15</v>
+      </c>
+      <c r="AI21" s="88">
+        <v>0.15</v>
+      </c>
+      <c r="AJ21" s="88">
+        <v>0.11</v>
+      </c>
+      <c r="AK21" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL21" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AM21" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="N22" s="31">
-        <f>N4/M4-1</f>
+        <f t="shared" ref="N22:T22" si="48">N4/M4-1</f>
         <v>0.22349984039074133</v>
       </c>
       <c r="O22" s="31">
-        <f>O4/N4-1</f>
+        <f t="shared" si="48"/>
         <v>7.6443649765549404E-2</v>
       </c>
       <c r="P22" s="31">
-        <f>P4/O4-1</f>
+        <f t="shared" si="48"/>
         <v>0.13380441636101059</v>
       </c>
       <c r="Q22" s="31">
-        <f>Q4/P4-1</f>
+        <f t="shared" si="48"/>
         <v>0.10650575320922484</v>
       </c>
       <c r="R22" s="31">
-        <f>R4/Q4-1</f>
+        <f t="shared" si="48"/>
         <v>0.13857244763407617</v>
       </c>
       <c r="S22" s="31">
-        <f>S4/R4-1</f>
+        <f t="shared" si="48"/>
         <v>3.8705704223346515E-2</v>
       </c>
       <c r="T22" s="31">
-        <f>T4/S4-1</f>
+        <f t="shared" si="48"/>
         <v>7.7671777308385259E-2</v>
       </c>
       <c r="U22" s="31">
-        <f t="shared" ref="U22" si="28">U4/T4-1</f>
+        <f t="shared" ref="U22" si="49">U4/T4-1</f>
+        <v>4.2058442535887863E-2</v>
+      </c>
+      <c r="V22" s="74">
+        <f>U22</f>
         <v>4.2058442535887863E-2</v>
       </c>
       <c r="Y22" s="45" t="s">
@@ -13553,8 +14627,41 @@
       <c r="AB22" s="45" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="83" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AD22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AE22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AF22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AG22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AH22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AI22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AJ22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AK22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AL22" s="89" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AM22" s="89" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="24" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>73</v>
       </c>
@@ -13567,39 +14674,43 @@
         <v>0.52740743424389536</v>
       </c>
       <c r="M24" s="31">
-        <f>M6/M4</f>
+        <f t="shared" ref="M24:T24" si="50">M6/M4</f>
         <v>0.51537941241469831</v>
       </c>
       <c r="N24" s="31">
-        <f>N6/N4</f>
+        <f t="shared" si="50"/>
         <v>0.51473480632742796</v>
       </c>
       <c r="O24" s="31">
-        <f>O6/O4</f>
+        <f t="shared" si="50"/>
         <v>0.50561028359898841</v>
       </c>
       <c r="P24" s="31">
-        <f>P6/P4</f>
+        <f t="shared" si="50"/>
         <v>0.49518859194745046</v>
       </c>
       <c r="Q24" s="31">
-        <f>Q6/Q4</f>
+        <f t="shared" si="50"/>
         <v>0.49260581267158088</v>
       </c>
       <c r="R24" s="31">
-        <f>R6/R4</f>
+        <f t="shared" si="50"/>
         <v>0.47054265589550326</v>
       </c>
       <c r="S24" s="31">
-        <f>S6/S4</f>
+        <f t="shared" si="50"/>
         <v>0.48559397644177338</v>
       </c>
       <c r="T24" s="31">
-        <f>T6/T4</f>
+        <f t="shared" si="50"/>
         <v>0.47202746794946543</v>
       </c>
       <c r="U24" s="31">
-        <f t="shared" ref="U24" si="29">U6/U4</f>
+        <f t="shared" ref="U24" si="51">U6/U4</f>
+        <v>0.47005177868427206</v>
+      </c>
+      <c r="V24" s="74">
+        <f>U24</f>
         <v>0.47005177868427206</v>
       </c>
       <c r="Y24" s="31">
@@ -13618,8 +14729,48 @@
         <f>AB6/AB4</f>
         <v>0.48937079123764576</v>
       </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="79">
+        <f>AC6/AC4</f>
+        <v>0.49013092047085383</v>
+      </c>
+      <c r="AD24" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="AE24" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="AF24" s="42">
+        <v>0.53</v>
+      </c>
+      <c r="AG24" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH24" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI24" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ24" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK24" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AL24" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AM24" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AO24" s="90" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AP24" s="91">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
@@ -13632,40 +14783,44 @@
         <v>-0.28318902011931496</v>
       </c>
       <c r="M25" s="31">
-        <f>M13/M4</f>
+        <f t="shared" ref="M25:T25" si="52">M13/M4</f>
         <v>-0.25062002058178134</v>
       </c>
       <c r="N25" s="31">
-        <f>N13/N4</f>
+        <f t="shared" si="52"/>
         <v>-0.33806674086372651</v>
       </c>
       <c r="O25" s="31">
-        <f>O13/O4</f>
+        <f t="shared" si="52"/>
         <v>-0.33447968433256259</v>
       </c>
       <c r="P25" s="31">
-        <f>P13/P4</f>
+        <f t="shared" si="52"/>
         <v>-0.30238395290396158</v>
       </c>
       <c r="Q25" s="31">
-        <f>Q13/Q4</f>
+        <f t="shared" si="52"/>
         <v>-0.3139050712263029</v>
       </c>
       <c r="R25" s="31">
-        <f>R13/R4</f>
+        <f t="shared" si="52"/>
         <v>-0.33655060136886167</v>
       </c>
       <c r="S25" s="31">
-        <f>S13/S4</f>
+        <f t="shared" si="52"/>
         <v>-0.24882020373262284</v>
       </c>
       <c r="T25" s="31">
-        <f>T13/T4</f>
+        <f t="shared" si="52"/>
         <v>-0.33066696065315881</v>
       </c>
       <c r="U25" s="31">
-        <f t="shared" ref="U25" si="30">U13/U4</f>
+        <f t="shared" ref="U25:V25" si="53">U13/U4</f>
         <v>-0.46488611741249003</v>
+      </c>
+      <c r="V25" s="74">
+        <f t="shared" si="53"/>
+        <v>-0.25658272390663611</v>
       </c>
       <c r="Y25" s="31">
         <f>Y13/Y4</f>
@@ -13683,8 +14838,58 @@
         <f>AB13/AB4</f>
         <v>-0.32218010942914083</v>
       </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="79">
+        <f>AC13/AC4</f>
+        <v>-0.32659124514343774</v>
+      </c>
+      <c r="AD25" s="31">
+        <f t="shared" ref="AD25:AM25" si="54">AD13/AD4</f>
+        <v>-0.24705910324479791</v>
+      </c>
+      <c r="AE25" s="31">
+        <f t="shared" si="54"/>
+        <v>-0.19500000000000003</v>
+      </c>
+      <c r="AF25" s="31">
+        <f t="shared" si="54"/>
+        <v>-9.5000000000000057E-2</v>
+      </c>
+      <c r="AG25" s="31">
+        <f t="shared" si="54"/>
+        <v>2.4999999999999977E-2</v>
+      </c>
+      <c r="AH25" s="31">
+        <f t="shared" si="54"/>
+        <v>2.4999999999999942E-2</v>
+      </c>
+      <c r="AI25" s="31">
+        <f t="shared" si="54"/>
+        <v>8.4999999999999923E-2</v>
+      </c>
+      <c r="AJ25" s="31">
+        <f t="shared" si="54"/>
+        <v>0.1349999999999999</v>
+      </c>
+      <c r="AK25" s="31">
+        <f t="shared" si="54"/>
+        <v>0.13499999999999987</v>
+      </c>
+      <c r="AL25" s="31">
+        <f t="shared" si="54"/>
+        <v>0.13499999999999998</v>
+      </c>
+      <c r="AM25" s="31">
+        <f t="shared" si="54"/>
+        <v>0.13499999999999995</v>
+      </c>
+      <c r="AO25" s="92" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AP25" s="93">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
@@ -13697,40 +14902,44 @@
         <v>-0.27246515952950268</v>
       </c>
       <c r="M26" s="31">
-        <f>M17/M4</f>
+        <f t="shared" ref="M26:T26" si="55">M17/M4</f>
         <v>-0.26098680935511165</v>
       </c>
       <c r="N26" s="31">
-        <f>N17/N4</f>
+        <f t="shared" si="55"/>
         <v>-0.3272291047090804</v>
       </c>
       <c r="O26" s="31">
-        <f>O17/O4</f>
+        <f t="shared" si="55"/>
         <v>-0.35007830667742379</v>
       </c>
       <c r="P26" s="31">
-        <f>P17/P4</f>
+        <f t="shared" si="55"/>
         <v>-0.34062257542257712</v>
       </c>
       <c r="Q26" s="31">
-        <f>Q17/Q4</f>
+        <f t="shared" si="55"/>
         <v>-0.30277798793800387</v>
       </c>
       <c r="R26" s="31">
-        <f>R17/R4</f>
+        <f t="shared" si="55"/>
         <v>-0.34577048308857727</v>
       </c>
       <c r="S26" s="31">
-        <f>S17/S4</f>
+        <f t="shared" si="55"/>
         <v>-0.25318296523842099</v>
       </c>
       <c r="T26" s="31">
-        <f>T17/T4</f>
+        <f t="shared" si="55"/>
         <v>-0.34215045465435023</v>
       </c>
       <c r="U26" s="31">
-        <f t="shared" ref="U26" si="31">U17/U4</f>
+        <f t="shared" ref="U26:V26" si="56">U17/U4</f>
         <v>-0.49065338799426272</v>
+      </c>
+      <c r="V26" s="74">
+        <f t="shared" si="56"/>
+        <v>-0.26969642965777518</v>
       </c>
       <c r="Y26" s="31">
         <f>Y17/Y4</f>
@@ -13748,29 +14957,80 @@
         <f>AB17/AB4</f>
         <v>-0.33425538885207784</v>
       </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="79">
+        <f>AC17/AC4</f>
+        <v>-0.34055194806242556</v>
+      </c>
+      <c r="AD26" s="31">
+        <f t="shared" ref="AD26:AM26" si="57">AD17/AD4</f>
+        <v>-0.24726585984251753</v>
+      </c>
+      <c r="AE26" s="31">
+        <f t="shared" si="57"/>
+        <v>-0.19252645882458369</v>
+      </c>
+      <c r="AF26" s="31">
+        <f t="shared" si="57"/>
+        <v>-9.3627905331005942E-2</v>
+      </c>
+      <c r="AG26" s="31">
+        <f t="shared" si="57"/>
+        <v>2.424999999999998E-2</v>
+      </c>
+      <c r="AH26" s="31">
+        <f t="shared" si="57"/>
+        <v>2.3749999999999945E-2</v>
+      </c>
+      <c r="AI26" s="31">
+        <f t="shared" si="57"/>
+        <v>8.0749999999999933E-2</v>
+      </c>
+      <c r="AJ26" s="31">
+        <f t="shared" si="57"/>
+        <v>0.12824999999999989</v>
+      </c>
+      <c r="AK26" s="31">
+        <f t="shared" si="57"/>
+        <v>0.12824999999999986</v>
+      </c>
+      <c r="AL26" s="31">
+        <f t="shared" si="57"/>
+        <v>0.12824999999999998</v>
+      </c>
+      <c r="AM26" s="31">
+        <f t="shared" si="57"/>
+        <v>0.12824999999999995</v>
+      </c>
+      <c r="AO26" s="92" t="s">
+        <v>1727</v>
+      </c>
+      <c r="AP26" s="94">
+        <f>NPV(AP25,Y17:BW17)</f>
+        <v>6551.54204468635</v>
+      </c>
+    </row>
+    <row r="27" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F27" s="31">
-        <f t="shared" ref="F27" si="32">F16/F15</f>
+        <f t="shared" ref="F27" si="58">F16/F15</f>
         <v>-8.9862638538234403E-3</v>
       </c>
       <c r="J27" s="31">
-        <f t="shared" ref="J27" si="33">J16/J15</f>
+        <f t="shared" ref="J27" si="59">J16/J15</f>
         <v>-1.297549696377861E-2</v>
       </c>
       <c r="M27" s="31">
-        <f t="shared" ref="M27" si="34">M16/M15</f>
+        <f t="shared" ref="M27" si="60">M16/M15</f>
         <v>-5.5734264531333323E-3</v>
       </c>
       <c r="N27" s="31">
-        <f t="shared" ref="N27:O27" si="35">N16/N15</f>
+        <f t="shared" ref="N27:O27" si="61">N16/N15</f>
         <v>7.891452723696446E-2</v>
       </c>
       <c r="O27" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>-4.3276992200416255E-3</v>
       </c>
       <c r="P27" s="31">
@@ -13778,15 +15038,15 @@
         <v>-5.6760251934306425E-3</v>
       </c>
       <c r="Q27" s="31">
-        <f t="shared" ref="Q27" si="36">Q16/Q15</f>
+        <f t="shared" ref="Q27" si="62">Q16/Q15</f>
         <v>6.2140627223194043E-2</v>
       </c>
       <c r="R27" s="31">
-        <f t="shared" ref="R27:S27" si="37">R16/R15</f>
+        <f t="shared" ref="R27:S27" si="63">R16/R15</f>
         <v>-5.6738176095419536E-3</v>
       </c>
       <c r="S27" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>1.2731362897298265E-2</v>
       </c>
       <c r="T27" s="31">
@@ -13794,27 +15054,81 @@
         <v>-8.1018193175607101E-3</v>
       </c>
       <c r="U27" s="31">
-        <f t="shared" ref="U27" si="38">U16/U15</f>
+        <f t="shared" ref="U27" si="64">U16/U15</f>
         <v>-7.4778536471246807E-3</v>
       </c>
+      <c r="V27" s="74">
+        <v>-0.01</v>
+      </c>
       <c r="Y27" s="31">
-        <f t="shared" ref="Y27:AA27" si="39">Y16/Y15</f>
+        <f t="shared" ref="Y27:AA27" si="65">Y16/Y15</f>
         <v>-6.5286650489443532E-3</v>
       </c>
       <c r="Z27" s="31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="65"/>
         <v>0.15226549903924733</v>
       </c>
       <c r="AA27" s="31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="65"/>
         <v>2.6658023178821082E-2</v>
       </c>
       <c r="AB27" s="31">
         <f>AB16/AB15</f>
         <v>1.1477434857309956E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="79">
+        <f>AC16/AC15</f>
+        <v>-4.6658595519502351E-3</v>
+      </c>
+      <c r="AD27" s="42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE27" s="42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AF27" s="42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AG27" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="AH27" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="AI27" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="AJ27" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="AK27" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="AL27" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="AM27" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="AO27" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP27" s="94">
+        <f>Main!C11</f>
+        <v>3196.7179999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AC28" s="79"/>
+      <c r="AO28" s="92" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AP28" s="94">
+        <f>AP26+AP27</f>
+        <v>9748.2600446863507</v>
+      </c>
+    </row>
+    <row r="29" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
@@ -13843,8 +15157,12 @@
         <v>0.54259157105030908</v>
       </c>
       <c r="U29" s="31">
-        <f t="shared" ref="U29" si="40">U7/Q7-1</f>
+        <f t="shared" ref="U29:V29" si="66">U7/Q7-1</f>
         <v>0.35659154795369008</v>
+      </c>
+      <c r="V29" s="74">
+        <f t="shared" si="66"/>
+        <v>0.28477582884803554</v>
       </c>
       <c r="Y29" s="45" t="s">
         <v>1715</v>
@@ -13861,42 +15179,101 @@
         <f>AB7/AA7-1</f>
         <v>0.48755437773773536</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="79">
+        <f>AC7/AB7-1</f>
+        <v>0.38340805152244806</v>
+      </c>
+      <c r="AD29" s="42">
+        <f t="shared" ref="AD29:AM29" si="67">AD7/AC7-1</f>
+        <v>0.32465489841420925</v>
+      </c>
+      <c r="AE29" s="42">
+        <f t="shared" si="67"/>
+        <v>6.7857142857142838E-2</v>
+      </c>
+      <c r="AF29" s="42">
+        <f t="shared" si="67"/>
+        <v>1.7391304347824654E-3</v>
+      </c>
+      <c r="AG29" s="42">
+        <f t="shared" si="67"/>
+        <v>-0.13333333333333341</v>
+      </c>
+      <c r="AH29" s="42">
+        <f t="shared" si="67"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AI29" s="42">
+        <f t="shared" si="67"/>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="AJ29" s="42">
+        <f t="shared" si="67"/>
+        <v>-0.31692307692307697</v>
+      </c>
+      <c r="AK29" s="42">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="AL29" s="42">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AM29" s="42">
+        <f t="shared" si="67"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AO29" s="95" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AP29" s="98">
+        <f>AP28/Main!C7</f>
+        <v>53.068343281910693</v>
+      </c>
+      <c r="AQ29" s="30">
+        <f>AP29*Main!C7</f>
+        <v>9748.2600446863507</v>
+      </c>
+    </row>
+    <row r="30" spans="2:75" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>78</v>
       </c>
       <c r="N30" s="42">
-        <f>N7/M7-1</f>
+        <f t="shared" ref="N30:T30" si="68">N7/M7-1</f>
         <v>0.16248573017592149</v>
       </c>
       <c r="O30" s="42">
-        <f>O7/N7-1</f>
+        <f t="shared" si="68"/>
         <v>0.10036762854409043</v>
       </c>
       <c r="P30" s="42">
-        <f>P7/O7-1</f>
+        <f t="shared" si="68"/>
         <v>3.7070938215102878E-2</v>
       </c>
       <c r="Q30" s="42">
-        <f>Q7/P7-1</f>
+        <f t="shared" si="68"/>
         <v>0.15782215357458074</v>
       </c>
       <c r="R30" s="42">
-        <f>R7/Q7-1</f>
+        <f t="shared" si="68"/>
         <v>6.3647624946400638E-2</v>
       </c>
       <c r="S30" s="42">
-        <f>S7/R7-1</f>
+        <f t="shared" si="68"/>
         <v>7.7769665261658405E-2</v>
       </c>
       <c r="T30" s="42">
-        <f>T7/S7-1</f>
+        <f t="shared" si="68"/>
         <v>0.16221203519373617</v>
       </c>
       <c r="U30" s="42">
-        <f t="shared" ref="U30" si="41">U7/T7-1</f>
+        <f t="shared" ref="U30:V30" si="69">U7/T7-1</f>
         <v>1.8216212930149744E-2</v>
+      </c>
+      <c r="V30" s="79">
+        <f t="shared" si="69"/>
+        <v>7.3398739687606795E-3</v>
       </c>
       <c r="Y30" s="45" t="s">
         <v>1715</v>
@@ -13910,13 +15287,32 @@
       <c r="AB30" s="45" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="82" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AO30" s="92" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AP30" s="96">
+        <f>Main!C6</f>
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="31" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AO31" s="97" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AP31" s="99">
+        <f>AP29/AP30-1</f>
+        <v>8.2585542266639944E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>1710</v>
       </c>
@@ -13970,21 +15366,21 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="39" t="s">
         <v>1714</v>
       </c>
       <c r="J34" s="42">
-        <f t="shared" ref="J34" si="42">J33/F33-1</f>
+        <f t="shared" ref="J34" si="70">J33/F33-1</f>
         <v>1.7844320691908035</v>
       </c>
       <c r="N34" s="42">
-        <f t="shared" ref="N34" si="43">N33/J33-1</f>
+        <f t="shared" ref="N34" si="71">N33/J33-1</f>
         <v>0.23463687150837997</v>
       </c>
       <c r="P34" s="41"/>
       <c r="Q34" s="42">
-        <f t="shared" ref="Q34" si="44">Q33/M33-1</f>
+        <f t="shared" ref="Q34" si="72">Q33/M33-1</f>
         <v>0.20192307692307687</v>
       </c>
       <c r="R34" s="42">
@@ -14000,48 +15396,50 @@
         <v>0.14583333333333326</v>
       </c>
       <c r="U34" s="42">
-        <f t="shared" ref="U34" si="45">U33/Q33-1</f>
+        <f t="shared" ref="U34" si="73">U33/Q33-1</f>
         <v>0.12000000000000011</v>
       </c>
+      <c r="V34" s="68"/>
       <c r="Z34" s="42">
-        <f t="shared" ref="Z34:AA34" si="46">Z33/Y33-1</f>
+        <f t="shared" ref="Z34:AA34" si="74">Z33/Y33-1</f>
         <v>1.7844320691908035</v>
       </c>
       <c r="AA34" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>0.23463687150837997</v>
       </c>
       <c r="AB34" s="42">
         <f>AB33/AA33-1</f>
         <v>0.158371040723982</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC34" s="68"/>
+    </row>
+    <row r="35" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
         <v>1713</v>
       </c>
       <c r="N35" s="42">
-        <f t="shared" ref="N35:Q35" si="47">N33/M33-1</f>
+        <f t="shared" ref="N35:Q35" si="75">N33/M33-1</f>
         <v>6.25E-2</v>
       </c>
       <c r="O35" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>6.3348416289592757E-2</v>
       </c>
       <c r="P35" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>2.1276595744680771E-2</v>
       </c>
       <c r="Q35" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="R35" s="42">
-        <f t="shared" ref="R35:S35" si="48">R33/Q33-1</f>
+        <f t="shared" ref="R35:S35" si="76">R33/Q33-1</f>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="S35" s="42">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>4.6875E-2</v>
       </c>
       <c r="T35" s="42">
@@ -14049,9 +15447,10 @@
         <v>2.6119402985074647E-2</v>
       </c>
       <c r="U35" s="42">
-        <f t="shared" ref="U35" si="49">U33/T33-1</f>
+        <f t="shared" ref="U35" si="77">U33/T33-1</f>
         <v>1.8181818181818077E-2</v>
       </c>
+      <c r="V35" s="68"/>
       <c r="Y35" s="45" t="s">
         <v>1715</v>
       </c>
@@ -14064,8 +15463,9 @@
       <c r="AB35" s="45" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="68"/>
+    </row>
+    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>1711</v>
       </c>
@@ -14096,7 +15496,7 @@
       <c r="U36" s="40">
         <v>8992</v>
       </c>
-      <c r="V36" s="30"/>
+      <c r="V36" s="73"/>
       <c r="Y36" s="40">
         <v>1440</v>
       </c>
@@ -14111,7 +15511,7 @@
         <v>7867</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="39" t="s">
         <v>1712</v>
       </c>
@@ -14148,6 +15548,7 @@
         <f>U4/U36</f>
         <v>0.10932273131672597</v>
       </c>
+      <c r="V37" s="68"/>
       <c r="Y37" s="43">
         <f>Y4/Y36</f>
         <v>0.45143541666666664</v>
@@ -14164,13 +15565,14 @@
         <f>AB4/AB36</f>
         <v>0.36123541375365448</v>
       </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="68"/>
+    </row>
+    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -14201,6 +15603,7 @@
       <c r="U42" s="29">
         <v>632.79399999999998</v>
       </c>
+      <c r="V42" s="66"/>
       <c r="Y42" s="29">
         <f>F42</f>
         <v>487.21499999999997</v>
@@ -14217,8 +15620,19 @@
         <f>R42</f>
         <v>1479.452</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="87"/>
+      <c r="AE42" s="87"/>
+      <c r="AF42" s="87"/>
+      <c r="AG42" s="87"/>
+      <c r="AH42" s="87"/>
+      <c r="AI42" s="87"/>
+      <c r="AJ42" s="87"/>
+      <c r="AK42" s="87"/>
+      <c r="AL42" s="87"/>
+      <c r="AM42" s="87"/>
+    </row>
+    <row r="43" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
@@ -14249,24 +15663,36 @@
       <c r="U43" s="29">
         <v>3575.7510000000002</v>
       </c>
+      <c r="V43" s="66"/>
       <c r="Y43" s="29">
-        <f t="shared" ref="Y43" si="50">F43</f>
+        <f t="shared" ref="Y43" si="78">F43</f>
         <v>261.12799999999999</v>
       </c>
       <c r="Z43" s="29">
-        <f t="shared" ref="Z43" si="51">J43</f>
+        <f t="shared" ref="Z43" si="79">J43</f>
         <v>1559.0329999999999</v>
       </c>
       <c r="AA43" s="29">
-        <f t="shared" ref="AA43" si="52">N43</f>
+        <f t="shared" ref="AA43" si="80">N43</f>
         <v>2105.9059999999999</v>
       </c>
       <c r="AB43" s="29">
         <f>R43</f>
         <v>3878.43</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="71"/>
+      <c r="AD43" s="87"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="87"/>
+      <c r="AG43" s="87"/>
+      <c r="AH43" s="87"/>
+      <c r="AI43" s="87"/>
+      <c r="AJ43" s="87"/>
+      <c r="AK43" s="87"/>
+      <c r="AL43" s="87"/>
+      <c r="AM43" s="87"/>
+    </row>
+    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
@@ -14314,7 +15740,7 @@
         <v>388.21499999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
@@ -14346,23 +15772,23 @@
         <v>265.97699999999998</v>
       </c>
       <c r="Y45" s="30">
-        <f t="shared" ref="Y45" si="53">F45</f>
+        <f t="shared" ref="Y45" si="81">F45</f>
         <v>26.893000000000001</v>
       </c>
       <c r="Z45" s="30">
-        <f t="shared" ref="Z45" si="54">J45</f>
+        <f t="shared" ref="Z45" si="82">J45</f>
         <v>54.570999999999998</v>
       </c>
       <c r="AA45" s="30">
-        <f t="shared" ref="AA45" si="55">N45</f>
+        <f t="shared" ref="AA45" si="83">N45</f>
         <v>81.376999999999995</v>
       </c>
       <c r="AB45" s="30">
-        <f t="shared" ref="AB45" si="56">R45</f>
+        <f t="shared" ref="AB45" si="84">R45</f>
         <v>186.131</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>83</v>
       </c>
@@ -14402,23 +15828,23 @@
         <v>4962.2719999999999</v>
       </c>
       <c r="Y46" s="30">
-        <f t="shared" ref="Y46:AB46" si="57">SUM(Y42:Y45)</f>
+        <f t="shared" ref="Y46:AB46" si="85">SUM(Y42:Y45)</f>
         <v>872.94799999999998</v>
       </c>
       <c r="Z46" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="85"/>
         <v>2021.3309999999999</v>
       </c>
       <c r="AA46" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="85"/>
         <v>3372.335</v>
       </c>
       <c r="AB46" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="85"/>
         <v>5932.2280000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>84</v>
       </c>
@@ -14450,7 +15876,7 @@
         <v>263.86200000000002</v>
       </c>
       <c r="Y47" s="30">
-        <f t="shared" ref="Y47:Y51" si="58">F47</f>
+        <f t="shared" ref="Y47:Y51" si="86">F47</f>
         <v>63.533999999999999</v>
       </c>
       <c r="Z47" s="30">
@@ -14458,15 +15884,15 @@
         <v>141.256</v>
       </c>
       <c r="AA47" s="30">
-        <f t="shared" ref="AA47:AA51" si="59">N47</f>
+        <f t="shared" ref="AA47:AA51" si="87">N47</f>
         <v>183.239</v>
       </c>
       <c r="AB47" s="30">
-        <f t="shared" ref="AB47:AB51" si="60">R47</f>
+        <f t="shared" ref="AB47:AB51" si="88">R47</f>
         <v>255.316</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
@@ -14498,7 +15924,7 @@
         <v>127.56699999999999</v>
       </c>
       <c r="Y48" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="Z48" s="30">
@@ -14506,15 +15932,15 @@
         <v>141.256</v>
       </c>
       <c r="AA48" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="87"/>
         <v>258.61</v>
       </c>
       <c r="AB48" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>234.584</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
@@ -14546,7 +15972,7 @@
         <v>732.49</v>
       </c>
       <c r="Y49" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>18.119</v>
       </c>
       <c r="Z49" s="30">
@@ -14554,15 +15980,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AA49" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AB49" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>87</v>
       </c>
@@ -14602,23 +16028,23 @@
         <v>6185.7709999999997</v>
       </c>
       <c r="Y50" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>65.722999999999999</v>
       </c>
       <c r="Z50" s="30">
-        <f t="shared" ref="Z50:Z51" si="61">J50</f>
+        <f t="shared" ref="Z50:Z51" si="89">J50</f>
         <v>2777.6330000000003</v>
       </c>
       <c r="AA50" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="87"/>
         <v>5561.9670000000006</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>6313.1779999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>88</v>
       </c>
@@ -14650,23 +16076,23 @@
         <v>340.69400000000002</v>
       </c>
       <c r="Y51" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>8.3859999999999992</v>
       </c>
       <c r="Z51" s="30">
-        <f t="shared" si="61"/>
+        <f t="shared" si="89"/>
         <v>33.479999999999997</v>
       </c>
       <c r="AA51" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="87"/>
         <v>111.282</v>
       </c>
       <c r="AB51" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>263.29199999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>89</v>
       </c>
@@ -14706,23 +16132,23 @@
         <v>12612.655999999999</v>
       </c>
       <c r="Y52" s="30">
-        <f t="shared" ref="Y52:AB52" si="62">Y46+SUM(Y47:Y51)</f>
+        <f t="shared" ref="Y52:AB52" si="90">Y46+SUM(Y47:Y51)</f>
         <v>1028.71</v>
       </c>
       <c r="Z52" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>5115.0309999999999</v>
       </c>
       <c r="AA52" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>9487.4330000000009</v>
       </c>
       <c r="AB52" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>12998.598</v>
       </c>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
       <c r="N53" s="30"/>
       <c r="Q53" s="30"/>
       <c r="S53" s="30"/>
@@ -14731,7 +16157,7 @@
       <c r="Y53" s="30"/>
       <c r="Z53" s="30"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>90</v>
       </c>
@@ -14760,23 +16186,23 @@
         <v>103.23399999999999</v>
       </c>
       <c r="Y54" s="30">
-        <f t="shared" ref="Y54:Y57" si="63">F54</f>
+        <f t="shared" ref="Y54:Y57" si="91">F54</f>
         <v>18.495000000000001</v>
       </c>
       <c r="Z54" s="30">
-        <f t="shared" ref="Z54:Z57" si="64">J54</f>
+        <f t="shared" ref="Z54:Z57" si="92">J54</f>
         <v>39.098999999999997</v>
       </c>
       <c r="AA54" s="30">
-        <f t="shared" ref="AA54:AA60" si="65">N54</f>
+        <f t="shared" ref="AA54:AA60" si="93">N54</f>
         <v>60.042000000000002</v>
       </c>
       <c r="AB54" s="30">
-        <f t="shared" ref="AB54:AB57" si="66">R54</f>
+        <f t="shared" ref="AB54:AB57" si="94">R54</f>
         <v>93.332999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>91</v>
       </c>
@@ -14805,23 +16231,23 @@
         <v>572.87599999999998</v>
       </c>
       <c r="Y55" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="91"/>
         <v>96.343000000000004</v>
       </c>
       <c r="Z55" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>147.68100000000001</v>
       </c>
       <c r="AA55" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>252.89500000000001</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="94"/>
         <v>417.50299999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>92</v>
       </c>
@@ -14850,23 +16276,23 @@
         <v>135.61000000000001</v>
       </c>
       <c r="Y56" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="91"/>
         <v>22.972000000000001</v>
       </c>
       <c r="Z56" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>26.361999999999998</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>87.031000000000006</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="94"/>
         <v>140.38900000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>93</v>
       </c>
@@ -14895,23 +16321,23 @@
         <v>52.453000000000003</v>
       </c>
       <c r="Y57" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="Z57" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>27.155999999999999</v>
       </c>
       <c r="AA57" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>48.338000000000001</v>
       </c>
       <c r="AB57" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="94"/>
         <v>52.325000000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>95</v>
       </c>
@@ -14948,7 +16374,7 @@
         <v>6.9240000000000004</v>
       </c>
       <c r="AA58" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AB58" s="30">
@@ -14956,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>94</v>
       </c>
@@ -14973,15 +16399,15 @@
         <v>448.30600000000004</v>
       </c>
       <c r="Q59" s="30">
-        <f t="shared" ref="Q59:S59" si="67">SUM(Q54:Q58)</f>
+        <f t="shared" ref="Q59:S59" si="95">SUM(Q54:Q58)</f>
         <v>617.25300000000004</v>
       </c>
       <c r="R59" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>703.55000000000007</v>
       </c>
       <c r="S59" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>719.82200000000012</v>
       </c>
       <c r="T59" s="30">
@@ -15009,7 +16435,7 @@
         <v>703.55000000000007</v>
       </c>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>93</v>
       </c>
@@ -15038,23 +16464,23 @@
         <v>176.33600000000001</v>
       </c>
       <c r="Y60" s="30">
-        <f t="shared" ref="Y60:Y63" si="68">F60</f>
+        <f t="shared" ref="Y60:Y63" si="96">F60</f>
         <v>0</v>
       </c>
       <c r="Z60" s="30">
-        <f t="shared" ref="Z60:Z63" si="69">J60</f>
+        <f t="shared" ref="Z60:Z63" si="97">J60</f>
         <v>139.19999999999999</v>
       </c>
       <c r="AA60" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>229.905</v>
       </c>
       <c r="AB60" s="30">
-        <f t="shared" ref="AB60" si="70">R60</f>
+        <f t="shared" ref="AB60" si="98">R60</f>
         <v>211.25299999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>95</v>
       </c>
@@ -15082,24 +16508,36 @@
       <c r="U61" s="29">
         <v>24.841999999999999</v>
       </c>
+      <c r="V61" s="66"/>
       <c r="Y61" s="29">
-        <f t="shared" si="68"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Z61" s="29">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>8.7460000000000004</v>
       </c>
       <c r="AA61" s="29">
-        <f t="shared" ref="AA61" si="71">N61</f>
+        <f t="shared" ref="AA61" si="99">N61</f>
         <v>17.856000000000002</v>
       </c>
       <c r="AB61" s="29">
         <f>R61</f>
         <v>25.132000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="87"/>
+      <c r="AE61" s="87"/>
+      <c r="AF61" s="87"/>
+      <c r="AG61" s="87"/>
+      <c r="AH61" s="87"/>
+      <c r="AI61" s="87"/>
+      <c r="AJ61" s="87"/>
+      <c r="AK61" s="87"/>
+      <c r="AL61" s="87"/>
+      <c r="AM61" s="87"/>
+    </row>
+    <row r="62" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>96</v>
       </c>
@@ -15127,24 +16565,36 @@
       <c r="U62" s="29">
         <v>986.98500000000001</v>
       </c>
+      <c r="V62" s="66"/>
       <c r="Y62" s="29">
-        <f t="shared" si="68"/>
+        <f t="shared" si="96"/>
         <v>434.49599999999998</v>
       </c>
       <c r="Z62" s="29">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>458.19</v>
       </c>
       <c r="AA62" s="29">
-        <f t="shared" ref="AA62:AA63" si="72">N62</f>
+        <f t="shared" ref="AA62:AA63" si="100">N62</f>
         <v>302.06799999999998</v>
       </c>
       <c r="AB62" s="29">
-        <f t="shared" ref="AB62:AB63" si="73">R62</f>
+        <f t="shared" ref="AB62:AB63" si="101">R62</f>
         <v>985.90700000000004</v>
       </c>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="87"/>
+      <c r="AE62" s="87"/>
+      <c r="AF62" s="87"/>
+      <c r="AG62" s="87"/>
+      <c r="AH62" s="87"/>
+      <c r="AI62" s="87"/>
+      <c r="AJ62" s="87"/>
+      <c r="AK62" s="87"/>
+      <c r="AL62" s="87"/>
+      <c r="AM62" s="87"/>
+    </row>
+    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
@@ -15173,23 +16623,23 @@
         <v>29.431999999999999</v>
       </c>
       <c r="Y63" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="96"/>
         <v>18.169</v>
       </c>
       <c r="Z63" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>17.747</v>
       </c>
       <c r="AA63" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>36.633000000000003</v>
       </c>
       <c r="AB63" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>41.29</v>
       </c>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>98</v>
       </c>
@@ -15226,11 +16676,11 @@
         <v>2081.768</v>
       </c>
       <c r="Y64" s="30">
-        <f t="shared" ref="Y64:Z64" si="74">SUM(Y60:Y63)+Y59</f>
+        <f t="shared" ref="Y64:Z64" si="102">SUM(Y60:Y63)+Y59</f>
         <v>590.47499999999991</v>
       </c>
       <c r="Z64" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>871.1049999999999</v>
       </c>
       <c r="AA64" s="30">
@@ -15242,12 +16692,12 @@
         <v>1967.1320000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="T65" s="30"/>
       <c r="Y65" s="30"/>
       <c r="Z65" s="30"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>99</v>
       </c>
@@ -15292,7 +16742,7 @@
         <v>11031.466</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>100</v>
       </c>
@@ -15345,36 +16795,36 @@
         <v>12998.598</v>
       </c>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="Y68" s="30"/>
       <c r="Z68" s="30"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F69" s="30">
-        <f t="shared" ref="F69" si="75">F52-F64</f>
+        <f t="shared" ref="F69" si="103">F52-F64</f>
         <v>438.23500000000013</v>
       </c>
       <c r="J69" s="30">
-        <f t="shared" ref="J69" si="76">J52-J64</f>
+        <f t="shared" ref="J69" si="104">J52-J64</f>
         <v>4259.411000000001</v>
       </c>
       <c r="N69" s="30">
-        <f t="shared" ref="N69" si="77">N52-N64</f>
+        <f t="shared" ref="N69" si="105">N52-N64</f>
         <v>8452.6650000000009</v>
       </c>
       <c r="Q69" s="30">
-        <f t="shared" ref="Q69:R69" si="78">Q52-Q64</f>
+        <f t="shared" ref="Q69:R69" si="106">Q52-Q64</f>
         <v>11081.569000000001</v>
       </c>
       <c r="R69" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>11031.466</v>
       </c>
       <c r="S69" s="30">
-        <f t="shared" ref="S69" si="79">S52-S64</f>
+        <f t="shared" ref="S69" si="107">S52-S64</f>
         <v>10917.432999999999</v>
       </c>
       <c r="T69" s="30">
@@ -15382,7 +16832,7 @@
         <v>10841.994999999999</v>
       </c>
       <c r="U69" s="30">
-        <f t="shared" ref="U69" si="80">U52-U64</f>
+        <f t="shared" ref="U69" si="108">U52-U64</f>
         <v>10530.887999999999</v>
       </c>
       <c r="Y69" s="30">
@@ -15402,32 +16852,32 @@
         <v>11031.466</v>
       </c>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70" si="81">F69/F19</f>
+        <f t="shared" ref="F70" si="109">F69/F19</f>
         <v>4.4080086658029467</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" ref="J70" si="82">J69/J19</f>
+        <f t="shared" ref="J70" si="110">J69/J19</f>
         <v>30.926123407736053</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" ref="N70" si="83">N69/N19</f>
+        <f t="shared" ref="N70" si="111">N69/N19</f>
         <v>53.368623979541908</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" ref="Q70" si="84">Q69/Q19</f>
+        <f t="shared" ref="Q70" si="112">Q69/Q19</f>
         <v>62.526032015171587</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" ref="R70" si="85">R69/R19</f>
+        <f t="shared" ref="R70" si="113">R69/R19</f>
         <v>61.650794916840383</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" ref="S70" si="86">S69/S19</f>
+        <f t="shared" ref="S70" si="114">S69/S19</f>
         <v>60.351081657501894</v>
       </c>
       <c r="T70" s="1">
@@ -15435,7 +16885,7 @@
         <v>59.457757070299436</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" ref="U70" si="87">U69/U19</f>
+        <f t="shared" ref="U70" si="115">U69/U19</f>
         <v>57.328874782323787</v>
       </c>
       <c r="Y70" s="1">
@@ -15455,11 +16905,11 @@
         <v>63.333543173168131</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="Y71" s="30"/>
       <c r="Z71" s="30"/>
     </row>
-    <row r="72" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="35" t="s">
         <v>6</v>
       </c>
@@ -15476,7 +16926,7 @@
         <v>3039.7910000000002</v>
       </c>
       <c r="Q72" s="36">
-        <f t="shared" ref="Q72" si="88">Q42+Q43</f>
+        <f t="shared" ref="Q72" si="116">Q42+Q43</f>
         <v>5394.2520000000004</v>
       </c>
       <c r="R72" s="36">
@@ -15492,9 +16942,10 @@
         <v>4392.2839999999997</v>
       </c>
       <c r="U72" s="36">
-        <f t="shared" ref="U72" si="89">U42+U43</f>
+        <f t="shared" ref="U72" si="117">U42+U43</f>
         <v>4208.5450000000001</v>
       </c>
+      <c r="V72" s="68"/>
       <c r="Y72" s="36">
         <f>F72</f>
         <v>748.34299999999996</v>
@@ -15511,8 +16962,9 @@
         <f>R72</f>
         <v>5357.8819999999996</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC72" s="68"/>
+    </row>
+    <row r="73" spans="2:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="35" t="s">
         <v>7</v>
       </c>
@@ -15545,9 +16997,10 @@
         <v>1005.554</v>
       </c>
       <c r="U73" s="36">
-        <f t="shared" ref="U73" si="90">U61+U62+U58</f>
+        <f t="shared" ref="U73" si="118">U61+U62+U58</f>
         <v>1011.827</v>
       </c>
+      <c r="V73" s="68"/>
       <c r="Y73" s="36">
         <f>F73</f>
         <v>434.49599999999998</v>
@@ -15564,33 +17017,34 @@
         <f>R73</f>
         <v>1011.039</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="68"/>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="30">
-        <f t="shared" ref="F74" si="91">F72-F73</f>
+        <f t="shared" ref="F74" si="119">F72-F73</f>
         <v>313.84699999999998</v>
       </c>
       <c r="J74" s="30">
-        <f t="shared" ref="J74" si="92">J72-J73</f>
+        <f t="shared" ref="J74" si="120">J72-J73</f>
         <v>1338.8330000000001</v>
       </c>
       <c r="N74" s="30">
-        <f t="shared" ref="N74" si="93">N72-N73</f>
+        <f t="shared" ref="N74" si="121">N72-N73</f>
         <v>2719.8670000000002</v>
       </c>
       <c r="Q74" s="30">
-        <f t="shared" ref="Q74" si="94">Q72-Q73</f>
+        <f t="shared" ref="Q74" si="122">Q72-Q73</f>
         <v>4388.451</v>
       </c>
       <c r="R74" s="30">
-        <f t="shared" ref="R74" si="95">R72-R73</f>
+        <f t="shared" ref="R74" si="123">R72-R73</f>
         <v>4346.8429999999998</v>
       </c>
       <c r="S74" s="30">
-        <f t="shared" ref="S74" si="96">S72-S73</f>
+        <f t="shared" ref="S74" si="124">S72-S73</f>
         <v>4215.0159999999996</v>
       </c>
       <c r="T74" s="30">
@@ -15598,7 +17052,7 @@
         <v>3386.7299999999996</v>
       </c>
       <c r="U74" s="30">
-        <f t="shared" ref="U74" si="97">U72-U73</f>
+        <f t="shared" ref="U74" si="125">U72-U73</f>
         <v>3196.7179999999998</v>
       </c>
       <c r="Y74" s="30">
@@ -15618,7 +17072,7 @@
         <v>4346.8429999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
@@ -15670,56 +17124,56 @@
         <v>263.33999999999997</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="30">
-        <f t="shared" ref="F77" si="98">F76*F19</f>
+        <f t="shared" ref="F77" si="126">F76*F19</f>
         <v>8878.0191844000001</v>
       </c>
       <c r="J77" s="30">
-        <f t="shared" ref="J77" si="99">J76*J19</f>
+        <f t="shared" ref="J77" si="127">J76*J19</f>
         <v>13535.96464584</v>
       </c>
       <c r="M77" s="30">
-        <f t="shared" ref="M77:T77" si="100">M76*M19</f>
+        <f t="shared" ref="M77:T77" si="128">M76*M19</f>
         <v>36446.040621749999</v>
       </c>
       <c r="N77" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>53612.532779499998</v>
       </c>
       <c r="O77" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>56961.597668080001</v>
       </c>
       <c r="P77" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>68350.181163679998</v>
       </c>
       <c r="Q77" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>56545.641479250007</v>
       </c>
       <c r="R77" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>47120.661791279999</v>
       </c>
       <c r="S77" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>29813.916889529999</v>
       </c>
       <c r="T77" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>15282.57448184</v>
       </c>
       <c r="U77" s="30">
-        <f t="shared" ref="U77" si="101">U76*U19</f>
+        <f t="shared" ref="U77" si="129">U76*U19</f>
         <v>12700.503874960001</v>
       </c>
       <c r="Y77" s="30">
-        <f t="shared" ref="Y77" si="102">Y76*Y19</f>
+        <f t="shared" ref="Y77" si="130">Y76*Y19</f>
         <v>9545.9697169200008</v>
       </c>
       <c r="Z77" s="30">
@@ -15735,33 +17189,33 @@
         <v>45868.683653099994</v>
       </c>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="30">
-        <f t="shared" ref="F78" si="103">F77-F74</f>
+        <f t="shared" ref="F78" si="131">F77-F74</f>
         <v>8564.1721844000003</v>
       </c>
       <c r="J78" s="30">
-        <f t="shared" ref="J78" si="104">J77-J74</f>
+        <f t="shared" ref="J78" si="132">J77-J74</f>
         <v>12197.13164584</v>
       </c>
       <c r="N78" s="30">
-        <f t="shared" ref="N78" si="105">N77-N74</f>
+        <f t="shared" ref="N78" si="133">N77-N74</f>
         <v>50892.665779499999</v>
       </c>
       <c r="P78" s="30"/>
       <c r="Q78" s="30">
-        <f t="shared" ref="Q78:R78" si="106">Q77-Q74</f>
+        <f t="shared" ref="Q78:R78" si="134">Q77-Q74</f>
         <v>52157.190479250006</v>
       </c>
       <c r="R78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>42773.818791279999</v>
       </c>
       <c r="S78" s="30">
-        <f t="shared" ref="S78" si="107">S77-S74</f>
+        <f t="shared" ref="S78" si="135">S77-S74</f>
         <v>25598.900889529999</v>
       </c>
       <c r="T78" s="30">
@@ -15769,27 +17223,27 @@
         <v>11895.84448184</v>
       </c>
       <c r="U78" s="30">
-        <f t="shared" ref="U78" si="108">U77-U74</f>
+        <f t="shared" ref="U78" si="136">U77-U74</f>
         <v>9503.7858749600018</v>
       </c>
       <c r="Y78" s="30">
-        <f t="shared" ref="Y78" si="109">Y77-Y74</f>
+        <f t="shared" ref="Y78" si="137">Y77-Y74</f>
         <v>9232.122716920001</v>
       </c>
       <c r="Z78" s="30">
-        <f t="shared" ref="Z78:AA78" si="110">Z77-Z74</f>
+        <f t="shared" ref="Z78:AA78" si="138">Z77-Z74</f>
         <v>11445.72876088</v>
       </c>
       <c r="AA78" s="30">
-        <f t="shared" si="110"/>
+        <f t="shared" si="138"/>
         <v>46941.015425500002</v>
       </c>
       <c r="AB78" s="30">
-        <f t="shared" ref="AB78" si="111">AB77-AB74</f>
+        <f t="shared" ref="AB78" si="139">AB77-AB74</f>
         <v>41521.840653099993</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>103</v>
       </c>
@@ -15806,7 +17260,7 @@
         <v>6.3426780523657325</v>
       </c>
       <c r="Q80" s="37">
-        <f t="shared" ref="Q80" si="112">Q76/Q70</f>
+        <f t="shared" ref="Q80" si="140">Q76/Q70</f>
         <v>5.1026746735277291</v>
       </c>
       <c r="R80" s="37">
@@ -15822,15 +17276,15 @@
         <v>1.4095721757702342</v>
       </c>
       <c r="U80" s="37">
-        <f t="shared" ref="U80" si="113">U76/U70</f>
+        <f t="shared" ref="U80" si="141">U76/U70</f>
         <v>1.206024019528078</v>
       </c>
       <c r="Y80" s="37">
-        <f t="shared" ref="Y80" si="114">Y76/Y70</f>
+        <f t="shared" ref="Y80" si="142">Y76/Y70</f>
         <v>21.782764308921006</v>
       </c>
       <c r="Z80" s="37">
-        <f t="shared" ref="Z80" si="115">Z76/Z70</f>
+        <f t="shared" ref="Z80" si="143">Z76/Z70</f>
         <v>3.0124374838015551</v>
       </c>
       <c r="AA80" s="37">
@@ -15867,7 +17321,7 @@
         <v>4.4927117390362339</v>
       </c>
       <c r="U81" s="37">
-        <f t="shared" ref="U81" si="116">U77/SUM(R4:U4)</f>
+        <f t="shared" ref="U81" si="144">U77/SUM(R4:U4)</f>
         <v>3.4848498391023606</v>
       </c>
       <c r="Y81" s="37">
@@ -15892,19 +17346,19 @@
         <v>104</v>
       </c>
       <c r="N82" s="37">
-        <f t="shared" ref="N82" si="117">N76/SUM(K18:N18)</f>
+        <f t="shared" ref="N82" si="145">N76/SUM(K18:N18)</f>
         <v>-175.84216103089744</v>
       </c>
       <c r="Q82" s="37">
-        <f t="shared" ref="Q82" si="118">Q76/SUM(N18:Q18)</f>
+        <f t="shared" ref="Q82" si="146">Q76/SUM(N18:Q18)</f>
         <v>-64.500694009685063</v>
       </c>
       <c r="R82" s="37">
-        <f t="shared" ref="R82:S82" si="119">R76/SUM(O18:R18)</f>
+        <f t="shared" ref="R82:S82" si="147">R76/SUM(O18:R18)</f>
         <v>-48.385204422553002</v>
       </c>
       <c r="S82" s="37">
-        <f t="shared" si="119"/>
+        <f t="shared" si="147"/>
         <v>-30.339872026893296</v>
       </c>
       <c r="T82" s="37">
@@ -15912,15 +17366,15 @@
         <v>-14.233498713981406</v>
       </c>
       <c r="U82" s="37">
-        <f t="shared" ref="U82" si="120">U76/SUM(R18:U18)</f>
+        <f t="shared" ref="U82" si="148">U76/SUM(R18:U18)</f>
         <v>-9.5372734774675205</v>
       </c>
       <c r="Y82" s="37">
-        <f t="shared" ref="Y82:Z82" si="121">Y76/Y18</f>
+        <f t="shared" ref="Y82:Z82" si="149">Y76/Y18</f>
         <v>-78.278376345193479</v>
       </c>
       <c r="Z82" s="37">
-        <f t="shared" si="121"/>
+        <f t="shared" si="149"/>
         <v>-41.634979665019884</v>
       </c>
       <c r="AA82" s="37">
@@ -15947,8 +17401,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="Y46:AB46 Y60:AB64 Y52 AA52:AB52 Y50:AB51 Y49 AA49:AB49 Y48:AB48 Y47 AA47:AB47 Y53:AB57 V59:X59 Y59:AB59" formula="1"/>
-    <ignoredError sqref="N81:P81 S81 Q81:R81 T81:U81" formulaRange="1"/>
+    <ignoredError sqref="Y46:AB46 Y60:AB64 Y52 AA52:AB52 Y50:AB51 Y49 AA49:AB49 Y48:AB48 Y47 AA47:AB47 Y53:AB57 V59:X59 Y59:AB59 V16 AC6:AC16 AD16:AM16" formula="1"/>
+    <ignoredError sqref="N81:P81 S81 Q81:R81 T81:U81 V14" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId11"/>
   <legacyDrawing r:id="rId12"/>
@@ -15959,8 +17413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C88468-B575-4B07-B1E2-1E3BE5EA25D5}">
   <dimension ref="A1:G1596"/>
   <sheetViews>
-    <sheetView topLeftCell="A866" workbookViewId="0">
-      <selection activeCell="A888" sqref="A888"/>
+    <sheetView topLeftCell="A1564" workbookViewId="0">
+      <selection activeCell="J1590" sqref="J1590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29E605-2915-40F1-B15D-26F68B3B27AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6AA6D-445F-4E09-AED4-2C6C3CDAD0D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1734">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5281,6 +5281,12 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>EV/S C</t>
+  </si>
+  <si>
+    <t>EV/E C</t>
   </si>
 </sst>
 </file>
@@ -5610,46 +5616,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5704,6 +5670,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11855,10 +11861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
-  <dimension ref="B2:R39"/>
+  <dimension ref="B2:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11871,20 +11877,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="95" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11892,24 +11898,24 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="G5" s="55" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="G5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -12096,11 +12102,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12117,10 +12123,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="94"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12137,8 +12143,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12155,10 +12161,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="94"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12175,8 +12181,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12216,11 +12222,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12237,10 +12243,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="94"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12257,10 +12263,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="93">
         <v>2008</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="94"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12277,10 +12283,10 @@
       <c r="B25" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="93">
         <v>2016</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="94"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12295,8 +12301,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12311,8 +12317,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12352,10 +12358,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="92"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12369,83 +12375,111 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="87">
         <f>C6/'Financial Model'!U70</f>
         <v>0.85506649460900186</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="88"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="87">
         <f>C8/SUM('Financial Model'!R4:U4)</f>
         <v>2.4707454311946444</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C35" s="87">
+        <f>C12/SUM('Financial Model'!R4:U4)</f>
+        <v>1.5936084043780052</v>
+      </c>
+      <c r="D35" s="88"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C36" s="87">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
         <v>-6.7618910307413636</v>
       </c>
-      <c r="D35" s="59"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C37" s="87">
+        <f>C12/SUM('Financial Model'!R17:U17)</f>
+        <v>-4.4061966235825452</v>
+      </c>
+      <c r="D37" s="88"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C39" s="87">
         <f>'Financial Model'!U80</f>
         <v>1.206024019528078</v>
       </c>
-      <c r="D37" s="59"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
+      <c r="D39" s="88"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C40" s="87">
         <f>'Financial Model'!U81</f>
         <v>3.4848498391023606</v>
       </c>
-      <c r="D38" s="59"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="D40" s="88"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C41" s="89">
         <f>'Financial Model'!U82</f>
         <v>-9.5372734774675205</v>
       </c>
-      <c r="D39" s="61"/>
+      <c r="D41" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
@@ -12455,15 +12489,9 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12471,7 +12499,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="C34" formulaRange="1"/>
+    <ignoredError sqref="C34:C35" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -12481,11 +12509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
   <dimension ref="A1:BW82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP25" sqref="AP25"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12493,10 +12521,10 @@
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="67"/>
+    <col min="22" max="22" width="9.140625" style="51"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="68"/>
+    <col min="29" max="29" width="9.140625" style="52"/>
     <col min="30" max="39" width="9.140625" style="35"/>
     <col min="40" max="40" width="9.140625" style="1"/>
     <col min="41" max="41" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -12562,7 +12590,7 @@
       <c r="U1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="48" t="s">
         <v>44</v>
       </c>
       <c r="Y1" s="27" t="s">
@@ -12577,37 +12605,37 @@
       <c r="AB1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="69" t="s">
+      <c r="AC1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="84" t="s">
+      <c r="AD1" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="84" t="s">
+      <c r="AE1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="84" t="s">
+      <c r="AF1" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="84" t="s">
+      <c r="AG1" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="84" t="s">
+      <c r="AH1" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="84" t="s">
+      <c r="AI1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="84" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="84" t="s">
+      <c r="AK1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="84" t="s">
+      <c r="AL1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="84" t="s">
+      <c r="AM1" s="68" t="s">
         <v>1724</v>
       </c>
     </row>
@@ -12646,7 +12674,7 @@
       <c r="U2" s="26">
         <v>44834</v>
       </c>
-      <c r="V2" s="65"/>
+      <c r="V2" s="49"/>
       <c r="Y2" s="26">
         <v>43465</v>
       </c>
@@ -12659,17 +12687,17 @@
       <c r="AB2" s="26">
         <v>44561</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
     </row>
     <row r="3" spans="1:39" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
@@ -12691,7 +12719,7 @@
       <c r="U3" s="25">
         <v>37926</v>
       </c>
-      <c r="V3" s="70" t="s">
+      <c r="V3" s="54" t="s">
         <v>1723</v>
       </c>
       <c r="Z3" s="25">
@@ -12700,19 +12728,19 @@
       <c r="AB3" s="25">
         <v>39845</v>
       </c>
-      <c r="AC3" s="70" t="s">
+      <c r="AC3" s="54" t="s">
         <v>1723</v>
       </c>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
     </row>
     <row r="4" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
@@ -12751,7 +12779,7 @@
       <c r="U4" s="29">
         <v>983.03</v>
       </c>
-      <c r="V4" s="72">
+      <c r="V4" s="56">
         <f>U4*(1+V22)</f>
         <v>1024.3747107660538</v>
       </c>
@@ -12767,47 +12795,47 @@
       <c r="AB4" s="29">
         <v>2841.8389999999999</v>
       </c>
-      <c r="AC4" s="75">
+      <c r="AC4" s="59">
         <f>SUM(S4:V4)</f>
         <v>3826.1217107660541</v>
       </c>
-      <c r="AD4" s="86">
+      <c r="AD4" s="70">
         <f>AC4*(1+AD21)</f>
         <v>5165.2643095341737</v>
       </c>
-      <c r="AE4" s="86">
+      <c r="AE4" s="70">
         <f t="shared" ref="AE4:AM4" si="0">AD4*(1+AE21)</f>
         <v>6714.8436023944259</v>
       </c>
-      <c r="AF4" s="86">
+      <c r="AF4" s="70">
         <f t="shared" si="0"/>
         <v>8594.9998110648648</v>
       </c>
-      <c r="AG4" s="86">
+      <c r="AG4" s="70">
         <f t="shared" si="0"/>
         <v>10313.999773277837</v>
       </c>
-      <c r="AH4" s="86">
+      <c r="AH4" s="70">
         <f t="shared" si="0"/>
         <v>11861.099739269512</v>
       </c>
-      <c r="AI4" s="86">
+      <c r="AI4" s="70">
         <f t="shared" si="0"/>
         <v>13640.264700159938</v>
       </c>
-      <c r="AJ4" s="86">
+      <c r="AJ4" s="70">
         <f t="shared" si="0"/>
         <v>15140.693817177533</v>
       </c>
-      <c r="AK4" s="86">
+      <c r="AK4" s="70">
         <f t="shared" si="0"/>
         <v>16200.542384379962</v>
       </c>
-      <c r="AL4" s="86">
+      <c r="AL4" s="70">
         <f t="shared" si="0"/>
         <v>17334.58035128656</v>
       </c>
-      <c r="AM4" s="86">
+      <c r="AM4" s="70">
         <f t="shared" si="0"/>
         <v>18548.000975876621</v>
       </c>
@@ -12849,7 +12877,7 @@
       <c r="U5" s="30">
         <v>520.95500000000004</v>
       </c>
-      <c r="V5" s="73">
+      <c r="V5" s="57">
         <f>V4*V24</f>
         <v>481.5091548347703</v>
       </c>
@@ -12866,7 +12894,7 @@
       <c r="AB5" s="30">
         <v>1451.126</v>
       </c>
-      <c r="AC5" s="80">
+      <c r="AC5" s="64">
         <f>SUM(S5:V5)</f>
         <v>1950.8211548347701</v>
       </c>
@@ -12959,7 +12987,7 @@
         <f t="shared" si="5"/>
         <v>462.07499999999993</v>
       </c>
-      <c r="V6" s="72">
+      <c r="V6" s="56">
         <f>V4-V5</f>
         <v>542.86555593128355</v>
       </c>
@@ -12979,47 +13007,47 @@
         <f>AB4-AB5</f>
         <v>1390.713</v>
       </c>
-      <c r="AC6" s="75">
+      <c r="AC6" s="59">
         <f>AC4-AC5</f>
         <v>1875.300555931284</v>
       </c>
-      <c r="AD6" s="86">
+      <c r="AD6" s="70">
         <f>AD4-AD5</f>
         <v>2582.6321547670868</v>
       </c>
-      <c r="AE6" s="86">
+      <c r="AE6" s="70">
         <f t="shared" ref="AE6:AM6" si="7">AE4-AE5</f>
         <v>3357.421801197213</v>
       </c>
-      <c r="AF6" s="86">
+      <c r="AF6" s="70">
         <f t="shared" si="7"/>
         <v>4039.6499112004858</v>
       </c>
-      <c r="AG6" s="86">
+      <c r="AG6" s="70">
         <f t="shared" si="7"/>
         <v>4641.2998979750264</v>
       </c>
-      <c r="AH6" s="86">
+      <c r="AH6" s="70">
         <f t="shared" si="7"/>
         <v>5337.4948826712798</v>
       </c>
-      <c r="AI6" s="86">
+      <c r="AI6" s="70">
         <f t="shared" si="7"/>
         <v>6138.1191150719715</v>
       </c>
-      <c r="AJ6" s="86">
+      <c r="AJ6" s="70">
         <f t="shared" si="7"/>
         <v>6813.3122177298883</v>
       </c>
-      <c r="AK6" s="86">
+      <c r="AK6" s="70">
         <f t="shared" si="7"/>
         <v>7290.2440729709815</v>
       </c>
-      <c r="AL6" s="86">
+      <c r="AL6" s="70">
         <f t="shared" si="7"/>
         <v>7800.5611580789518</v>
       </c>
-      <c r="AM6" s="86">
+      <c r="AM6" s="70">
         <f t="shared" si="7"/>
         <v>8346.6004391444785</v>
       </c>
@@ -13061,7 +13089,7 @@
       <c r="U7" s="30">
         <v>284.73500000000001</v>
       </c>
-      <c r="V7" s="73">
+      <c r="V7" s="57">
         <f>0.28*V4</f>
         <v>286.82491901449509</v>
       </c>
@@ -13077,7 +13105,7 @@
       <c r="AB7" s="30">
         <v>789.21900000000005</v>
       </c>
-      <c r="AC7" s="80">
+      <c r="AC7" s="64">
         <f t="shared" ref="AC7:AC11" si="8">SUM(S7:V7)</f>
         <v>1091.8119190144951</v>
       </c>
@@ -13159,7 +13187,7 @@
       <c r="U8" s="30">
         <v>328.83300000000003</v>
       </c>
-      <c r="V8" s="73">
+      <c r="V8" s="57">
         <f>V4*0.33</f>
         <v>338.04365455279776</v>
       </c>
@@ -13175,7 +13203,7 @@
       <c r="AB8" s="30">
         <v>1044.6179999999999</v>
       </c>
-      <c r="AC8" s="80">
+      <c r="AC8" s="64">
         <f t="shared" si="8"/>
         <v>1289.7406545527979</v>
       </c>
@@ -13184,7 +13212,7 @@
         <v>1704.5372221462774</v>
       </c>
       <c r="AE8" s="36">
-        <f t="shared" ref="AE8:AM8" si="11">AE4*0.33</f>
+        <f t="shared" ref="AE8" si="11">AE4*0.33</f>
         <v>2215.8983887901609</v>
       </c>
       <c r="AF8" s="36">
@@ -13257,7 +13285,7 @@
       <c r="U9" s="30">
         <v>135.33099999999999</v>
       </c>
-      <c r="V9" s="73">
+      <c r="V9" s="57">
         <f>V4*0.135</f>
         <v>138.29058595341726</v>
       </c>
@@ -13273,7 +13301,7 @@
       <c r="AB9" s="30">
         <v>472.46</v>
       </c>
-      <c r="AC9" s="80">
+      <c r="AC9" s="64">
         <f t="shared" si="8"/>
         <v>530.6095859534172</v>
       </c>
@@ -13355,7 +13383,7 @@
       <c r="U10" s="30">
         <v>72.450999999999993</v>
       </c>
-      <c r="V10" s="73">
+      <c r="V10" s="57">
         <f>U10*0.25</f>
         <v>18.112749999999998</v>
       </c>
@@ -13371,7 +13399,7 @@
       <c r="AB10" s="30">
         <v>0</v>
       </c>
-      <c r="AC10" s="80">
+      <c r="AC10" s="64">
         <f t="shared" si="8"/>
         <v>90.563749999999999</v>
       </c>
@@ -13444,7 +13472,7 @@
       <c r="U11" s="30">
         <v>97.721999999999994</v>
       </c>
-      <c r="V11" s="73">
+      <c r="V11" s="57">
         <f>U11*0.25</f>
         <v>24.430499999999999</v>
       </c>
@@ -13460,7 +13488,7 @@
       <c r="AB11" s="30">
         <v>0</v>
       </c>
-      <c r="AC11" s="80">
+      <c r="AC11" s="64">
         <f t="shared" si="8"/>
         <v>122.15249999999999</v>
       </c>
@@ -13544,7 +13572,7 @@
         <f t="shared" si="17"/>
         <v>919.072</v>
       </c>
-      <c r="V12" s="73">
+      <c r="V12" s="57">
         <f>SUM(V7:V11)</f>
         <v>805.70240952071015</v>
       </c>
@@ -13564,7 +13592,7 @@
         <f t="shared" ref="AB12:AM12" si="21">SUM(AB7:AB11)</f>
         <v>2306.297</v>
       </c>
-      <c r="AC12" s="80">
+      <c r="AC12" s="64">
         <f>SUM(AC7:AC11)</f>
         <v>3124.8784095207097</v>
       </c>
@@ -13657,7 +13685,7 @@
         <f t="shared" si="22"/>
         <v>-456.99700000000007</v>
       </c>
-      <c r="V13" s="72">
+      <c r="V13" s="56">
         <f t="shared" si="22"/>
         <v>-262.8368535894266</v>
       </c>
@@ -13677,47 +13705,47 @@
         <f>AB6-AB12</f>
         <v>-915.58400000000006</v>
       </c>
-      <c r="AC13" s="72">
+      <c r="AC13" s="56">
         <f t="shared" ref="AC13:AM13" si="23">AC6-AC12</f>
         <v>-1249.5778535894258</v>
       </c>
-      <c r="AD13" s="86">
+      <c r="AD13" s="70">
         <f t="shared" si="23"/>
         <v>-1276.1255683358731</v>
       </c>
-      <c r="AE13" s="86">
+      <c r="AE13" s="70">
         <f t="shared" si="23"/>
         <v>-1309.3945024669133</v>
       </c>
-      <c r="AF13" s="86">
+      <c r="AF13" s="70">
         <f t="shared" si="23"/>
         <v>-816.52498205116262</v>
       </c>
-      <c r="AG13" s="86">
+      <c r="AG13" s="70">
         <f t="shared" si="23"/>
         <v>257.84999433194571</v>
       </c>
-      <c r="AH13" s="86">
+      <c r="AH13" s="70">
         <f t="shared" si="23"/>
         <v>296.52749348173711</v>
       </c>
-      <c r="AI13" s="86">
+      <c r="AI13" s="70">
         <f t="shared" si="23"/>
         <v>1159.4224995135937</v>
       </c>
-      <c r="AJ13" s="86">
+      <c r="AJ13" s="70">
         <f t="shared" si="23"/>
         <v>2043.9936653189652</v>
       </c>
-      <c r="AK13" s="86">
+      <c r="AK13" s="70">
         <f t="shared" si="23"/>
         <v>2187.0732218912926</v>
       </c>
-      <c r="AL13" s="86">
+      <c r="AL13" s="70">
         <f t="shared" si="23"/>
         <v>2340.1683474236852</v>
       </c>
-      <c r="AM13" s="86">
+      <c r="AM13" s="70">
         <f t="shared" si="23"/>
         <v>2503.980131743343</v>
       </c>
@@ -13759,7 +13787,7 @@
       <c r="U14" s="30">
         <v>21.75</v>
       </c>
-      <c r="V14" s="73">
+      <c r="V14" s="57">
         <f>AVERAGE(R14:U14)</f>
         <v>10.698</v>
       </c>
@@ -13775,7 +13803,7 @@
       <c r="AB14" s="30">
         <v>45.344999999999999</v>
       </c>
-      <c r="AC14" s="80">
+      <c r="AC14" s="64">
         <f>SUM(S14:V14)</f>
         <v>47.363999999999997</v>
       </c>
@@ -13788,7 +13816,7 @@
         <v>3.0776399999999997</v>
       </c>
       <c r="AF14" s="36">
-        <f t="shared" ref="AF14:AM14" si="24">AE14*0.15</f>
+        <f t="shared" ref="AF14" si="24">AE14*0.15</f>
         <v>0.46164599999999995</v>
       </c>
       <c r="AG14" s="36">
@@ -13861,7 +13889,7 @@
         <f t="shared" si="29"/>
         <v>-478.74700000000007</v>
       </c>
-      <c r="V15" s="67">
+      <c r="V15" s="51">
         <f t="shared" si="29"/>
         <v>-273.53485358942658</v>
       </c>
@@ -13881,7 +13909,7 @@
         <f>AB13-AB14</f>
         <v>-960.92900000000009</v>
       </c>
-      <c r="AC15" s="80">
+      <c r="AC15" s="64">
         <f>AC13-AC14</f>
         <v>-1296.9418535894258</v>
       </c>
@@ -13963,7 +13991,7 @@
       <c r="U16" s="30">
         <v>3.58</v>
       </c>
-      <c r="V16" s="73">
+      <c r="V16" s="57">
         <f>V15*V27</f>
         <v>2.735348535894266</v>
       </c>
@@ -13979,7 +14007,7 @@
       <c r="AB16" s="30">
         <v>-11.029</v>
       </c>
-      <c r="AC16" s="80">
+      <c r="AC16" s="64">
         <f>SUM(S16:V16)</f>
         <v>6.0513485358942658</v>
       </c>
@@ -14072,7 +14100,7 @@
         <f>U15-U16</f>
         <v>-482.32700000000006</v>
       </c>
-      <c r="V17" s="66">
+      <c r="V17" s="50">
         <f>V15-V16</f>
         <v>-276.27020212532085</v>
       </c>
@@ -14092,7 +14120,7 @@
         <f>AB15-AB16</f>
         <v>-949.90000000000009</v>
       </c>
-      <c r="AC17" s="75">
+      <c r="AC17" s="59">
         <f>AC15-AC16</f>
         <v>-1302.9932021253201</v>
       </c>
@@ -14329,7 +14357,7 @@
         <f t="shared" si="43"/>
         <v>-2.6257295858747991</v>
       </c>
-      <c r="V18" s="78">
+      <c r="V18" s="62">
         <f>V17/V19</f>
         <v>-1.5039814138873953</v>
       </c>
@@ -14349,7 +14377,7 @@
         <f>AB17/AB19</f>
         <v>-5.4535392358724044</v>
       </c>
-      <c r="AC18" s="81">
+      <c r="AC18" s="65">
         <f>AC17/AC19</f>
         <v>-7.0933366803313822</v>
       </c>
@@ -14434,7 +14462,7 @@
       <c r="U19" s="28">
         <v>183.692564</v>
       </c>
-      <c r="V19" s="77">
+      <c r="V19" s="61">
         <f>U19</f>
         <v>183.692564</v>
       </c>
@@ -14450,7 +14478,7 @@
       <c r="AB19" s="44">
         <v>174.180465</v>
       </c>
-      <c r="AC19" s="80">
+      <c r="AC19" s="64">
         <f>V19</f>
         <v>183.692564</v>
       </c>
@@ -14527,7 +14555,7 @@
         <f t="shared" ref="U21" si="47">U4/Q4-1</f>
         <v>0.32810304576208882</v>
       </c>
-      <c r="V21" s="66"/>
+      <c r="V21" s="50"/>
       <c r="Z21" s="32">
         <f>Z4/Y4-1</f>
         <v>0.74515549935622039</v>
@@ -14540,38 +14568,38 @@
         <f>AB4/AA4-1</f>
         <v>0.613053532344634</v>
       </c>
-      <c r="AC21" s="76">
+      <c r="AC21" s="60">
         <f>AC4/AB4-1</f>
         <v>0.34635414278080301</v>
       </c>
-      <c r="AD21" s="88">
+      <c r="AD21" s="72">
         <v>0.35</v>
       </c>
-      <c r="AE21" s="88">
+      <c r="AE21" s="72">
         <v>0.3</v>
       </c>
-      <c r="AF21" s="88">
+      <c r="AF21" s="72">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG21" s="88">
+      <c r="AG21" s="72">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="88">
+      <c r="AH21" s="72">
         <v>0.15</v>
       </c>
-      <c r="AI21" s="88">
+      <c r="AI21" s="72">
         <v>0.15</v>
       </c>
-      <c r="AJ21" s="88">
+      <c r="AJ21" s="72">
         <v>0.11</v>
       </c>
-      <c r="AK21" s="88">
+      <c r="AK21" s="72">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL21" s="88">
+      <c r="AL21" s="72">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM21" s="88">
+      <c r="AM21" s="72">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -14611,7 +14639,7 @@
         <f t="shared" ref="U22" si="49">U4/T4-1</f>
         <v>4.2058442535887863E-2</v>
       </c>
-      <c r="V22" s="74">
+      <c r="V22" s="58">
         <f>U22</f>
         <v>4.2058442535887863E-2</v>
       </c>
@@ -14627,37 +14655,37 @@
       <c r="AB22" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC22" s="83" t="s">
+      <c r="AC22" s="67" t="s">
         <v>1715</v>
       </c>
-      <c r="AD22" s="89" t="s">
+      <c r="AD22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AE22" s="89" t="s">
+      <c r="AE22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AF22" s="89" t="s">
+      <c r="AF22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AG22" s="89" t="s">
+      <c r="AG22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AH22" s="89" t="s">
+      <c r="AH22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AI22" s="89" t="s">
+      <c r="AI22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AJ22" s="89" t="s">
+      <c r="AJ22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AK22" s="89" t="s">
+      <c r="AK22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AL22" s="89" t="s">
+      <c r="AL22" s="73" t="s">
         <v>1715</v>
       </c>
-      <c r="AM22" s="89" t="s">
+      <c r="AM22" s="73" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -14709,7 +14737,7 @@
         <f t="shared" ref="U24" si="51">U6/U4</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="V24" s="74">
+      <c r="V24" s="58">
         <f>U24</f>
         <v>0.47005177868427206</v>
       </c>
@@ -14729,7 +14757,7 @@
         <f>AB6/AB4</f>
         <v>0.48937079123764576</v>
       </c>
-      <c r="AC24" s="79">
+      <c r="AC24" s="63">
         <f>AC6/AC4</f>
         <v>0.49013092047085383</v>
       </c>
@@ -14763,10 +14791,10 @@
       <c r="AM24" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AO24" s="90" t="s">
+      <c r="AO24" s="74" t="s">
         <v>1725</v>
       </c>
-      <c r="AP24" s="91">
+      <c r="AP24" s="75">
         <v>-0.02</v>
       </c>
     </row>
@@ -14818,7 +14846,7 @@
         <f t="shared" ref="U25:V25" si="53">U13/U4</f>
         <v>-0.46488611741249003</v>
       </c>
-      <c r="V25" s="74">
+      <c r="V25" s="58">
         <f t="shared" si="53"/>
         <v>-0.25658272390663611</v>
       </c>
@@ -14838,7 +14866,7 @@
         <f>AB13/AB4</f>
         <v>-0.32218010942914083</v>
       </c>
-      <c r="AC25" s="79">
+      <c r="AC25" s="63">
         <f>AC13/AC4</f>
         <v>-0.32659124514343774</v>
       </c>
@@ -14882,10 +14910,10 @@
         <f t="shared" si="54"/>
         <v>0.13499999999999995</v>
       </c>
-      <c r="AO25" s="92" t="s">
+      <c r="AO25" s="76" t="s">
         <v>1726</v>
       </c>
-      <c r="AP25" s="93">
+      <c r="AP25" s="77">
         <v>0.08</v>
       </c>
     </row>
@@ -14937,7 +14965,7 @@
         <f t="shared" ref="U26:V26" si="56">U17/U4</f>
         <v>-0.49065338799426272</v>
       </c>
-      <c r="V26" s="74">
+      <c r="V26" s="58">
         <f t="shared" si="56"/>
         <v>-0.26969642965777518</v>
       </c>
@@ -14957,7 +14985,7 @@
         <f>AB17/AB4</f>
         <v>-0.33425538885207784</v>
       </c>
-      <c r="AC26" s="79">
+      <c r="AC26" s="63">
         <f>AC17/AC4</f>
         <v>-0.34055194806242556</v>
       </c>
@@ -15001,10 +15029,10 @@
         <f t="shared" si="57"/>
         <v>0.12824999999999995</v>
       </c>
-      <c r="AO26" s="92" t="s">
+      <c r="AO26" s="76" t="s">
         <v>1727</v>
       </c>
-      <c r="AP26" s="94">
+      <c r="AP26" s="78">
         <f>NPV(AP25,Y17:BW17)</f>
         <v>6551.54204468635</v>
       </c>
@@ -15057,7 +15085,7 @@
         <f t="shared" ref="U27" si="64">U16/U15</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="V27" s="74">
+      <c r="V27" s="58">
         <v>-0.01</v>
       </c>
       <c r="Y27" s="31">
@@ -15076,7 +15104,7 @@
         <f>AB16/AB15</f>
         <v>1.1477434857309956E-2</v>
       </c>
-      <c r="AC27" s="79">
+      <c r="AC27" s="63">
         <f>AC16/AC15</f>
         <v>-4.6658595519502351E-3</v>
       </c>
@@ -15110,20 +15138,20 @@
       <c r="AM27" s="42">
         <v>0.05</v>
       </c>
-      <c r="AO27" s="92" t="s">
+      <c r="AO27" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AP27" s="94">
+      <c r="AP27" s="78">
         <f>Main!C11</f>
         <v>3196.7179999999998</v>
       </c>
     </row>
     <row r="28" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AC28" s="79"/>
-      <c r="AO28" s="92" t="s">
+      <c r="AC28" s="63"/>
+      <c r="AO28" s="76" t="s">
         <v>1728</v>
       </c>
-      <c r="AP28" s="94">
+      <c r="AP28" s="78">
         <f>AP26+AP27</f>
         <v>9748.2600446863507</v>
       </c>
@@ -15160,7 +15188,7 @@
         <f t="shared" ref="U29:V29" si="66">U7/Q7-1</f>
         <v>0.35659154795369008</v>
       </c>
-      <c r="V29" s="74">
+      <c r="V29" s="58">
         <f t="shared" si="66"/>
         <v>0.28477582884803554</v>
       </c>
@@ -15179,7 +15207,7 @@
         <f>AB7/AA7-1</f>
         <v>0.48755437773773536</v>
       </c>
-      <c r="AC29" s="79">
+      <c r="AC29" s="63">
         <f>AC7/AB7-1</f>
         <v>0.38340805152244806</v>
       </c>
@@ -15223,10 +15251,10 @@
         <f t="shared" si="67"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AO29" s="95" t="s">
+      <c r="AO29" s="79" t="s">
         <v>1729</v>
       </c>
-      <c r="AP29" s="98">
+      <c r="AP29" s="82">
         <f>AP28/Main!C7</f>
         <v>53.068343281910693</v>
       </c>
@@ -15271,7 +15299,7 @@
         <f t="shared" ref="U30:V30" si="69">U7/T7-1</f>
         <v>1.8216212930149744E-2</v>
       </c>
-      <c r="V30" s="79">
+      <c r="V30" s="63">
         <f t="shared" si="69"/>
         <v>7.3398739687606795E-3</v>
       </c>
@@ -15287,22 +15315,22 @@
       <c r="AB30" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC30" s="82" t="s">
+      <c r="AC30" s="66" t="s">
         <v>1715</v>
       </c>
-      <c r="AO30" s="92" t="s">
+      <c r="AO30" s="76" t="s">
         <v>1730</v>
       </c>
-      <c r="AP30" s="96">
+      <c r="AP30" s="80">
         <f>Main!C6</f>
         <v>49.02</v>
       </c>
     </row>
     <row r="31" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AO31" s="97" t="s">
+      <c r="AO31" s="81" t="s">
         <v>1731</v>
       </c>
-      <c r="AP31" s="99">
+      <c r="AP31" s="83">
         <f>AP29/AP30-1</f>
         <v>8.2585542266639944E-2</v>
       </c>
@@ -15399,7 +15427,7 @@
         <f t="shared" ref="U34" si="73">U33/Q33-1</f>
         <v>0.12000000000000011</v>
       </c>
-      <c r="V34" s="68"/>
+      <c r="V34" s="52"/>
       <c r="Z34" s="42">
         <f t="shared" ref="Z34:AA34" si="74">Z33/Y33-1</f>
         <v>1.7844320691908035</v>
@@ -15412,7 +15440,7 @@
         <f>AB33/AA33-1</f>
         <v>0.158371040723982</v>
       </c>
-      <c r="AC34" s="68"/>
+      <c r="AC34" s="52"/>
     </row>
     <row r="35" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
@@ -15450,7 +15478,7 @@
         <f t="shared" ref="U35" si="77">U33/T33-1</f>
         <v>1.8181818181818077E-2</v>
       </c>
-      <c r="V35" s="68"/>
+      <c r="V35" s="52"/>
       <c r="Y35" s="45" t="s">
         <v>1715</v>
       </c>
@@ -15463,7 +15491,7 @@
       <c r="AB35" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC35" s="68"/>
+      <c r="AC35" s="52"/>
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -15496,7 +15524,7 @@
       <c r="U36" s="40">
         <v>8992</v>
       </c>
-      <c r="V36" s="73"/>
+      <c r="V36" s="57"/>
       <c r="Y36" s="40">
         <v>1440</v>
       </c>
@@ -15548,7 +15576,7 @@
         <f>U4/U36</f>
         <v>0.10932273131672597</v>
       </c>
-      <c r="V37" s="68"/>
+      <c r="V37" s="52"/>
       <c r="Y37" s="43">
         <f>Y4/Y36</f>
         <v>0.45143541666666664</v>
@@ -15565,7 +15593,7 @@
         <f>AB4/AB36</f>
         <v>0.36123541375365448</v>
       </c>
-      <c r="AC37" s="68"/>
+      <c r="AC37" s="52"/>
     </row>
     <row r="41" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
@@ -15603,7 +15631,7 @@
       <c r="U42" s="29">
         <v>632.79399999999998</v>
       </c>
-      <c r="V42" s="66"/>
+      <c r="V42" s="50"/>
       <c r="Y42" s="29">
         <f>F42</f>
         <v>487.21499999999997</v>
@@ -15620,17 +15648,17 @@
         <f>R42</f>
         <v>1479.452</v>
       </c>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="87"/>
-      <c r="AE42" s="87"/>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="87"/>
-      <c r="AH42" s="87"/>
-      <c r="AI42" s="87"/>
-      <c r="AJ42" s="87"/>
-      <c r="AK42" s="87"/>
-      <c r="AL42" s="87"/>
-      <c r="AM42" s="87"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="71"/>
+      <c r="AH42" s="71"/>
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="71"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="71"/>
+      <c r="AM42" s="71"/>
     </row>
     <row r="43" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -15663,7 +15691,7 @@
       <c r="U43" s="29">
         <v>3575.7510000000002</v>
       </c>
-      <c r="V43" s="66"/>
+      <c r="V43" s="50"/>
       <c r="Y43" s="29">
         <f t="shared" ref="Y43" si="78">F43</f>
         <v>261.12799999999999</v>
@@ -15680,17 +15708,17 @@
         <f>R43</f>
         <v>3878.43</v>
       </c>
-      <c r="AC43" s="71"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="87"/>
-      <c r="AF43" s="87"/>
-      <c r="AG43" s="87"/>
-      <c r="AH43" s="87"/>
-      <c r="AI43" s="87"/>
-      <c r="AJ43" s="87"/>
-      <c r="AK43" s="87"/>
-      <c r="AL43" s="87"/>
-      <c r="AM43" s="87"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="71"/>
+      <c r="AH43" s="71"/>
+      <c r="AI43" s="71"/>
+      <c r="AJ43" s="71"/>
+      <c r="AK43" s="71"/>
+      <c r="AL43" s="71"/>
+      <c r="AM43" s="71"/>
     </row>
     <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
@@ -16508,7 +16536,7 @@
       <c r="U61" s="29">
         <v>24.841999999999999</v>
       </c>
-      <c r="V61" s="66"/>
+      <c r="V61" s="50"/>
       <c r="Y61" s="29">
         <f t="shared" si="96"/>
         <v>0</v>
@@ -16525,17 +16553,17 @@
         <f>R61</f>
         <v>25.132000000000001</v>
       </c>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="87"/>
-      <c r="AE61" s="87"/>
-      <c r="AF61" s="87"/>
-      <c r="AG61" s="87"/>
-      <c r="AH61" s="87"/>
-      <c r="AI61" s="87"/>
-      <c r="AJ61" s="87"/>
-      <c r="AK61" s="87"/>
-      <c r="AL61" s="87"/>
-      <c r="AM61" s="87"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
+      <c r="AH61" s="71"/>
+      <c r="AI61" s="71"/>
+      <c r="AJ61" s="71"/>
+      <c r="AK61" s="71"/>
+      <c r="AL61" s="71"/>
+      <c r="AM61" s="71"/>
     </row>
     <row r="62" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
@@ -16565,7 +16593,7 @@
       <c r="U62" s="29">
         <v>986.98500000000001</v>
       </c>
-      <c r="V62" s="66"/>
+      <c r="V62" s="50"/>
       <c r="Y62" s="29">
         <f t="shared" si="96"/>
         <v>434.49599999999998</v>
@@ -16582,17 +16610,17 @@
         <f t="shared" ref="AB62:AB63" si="101">R62</f>
         <v>985.90700000000004</v>
       </c>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="87"/>
-      <c r="AE62" s="87"/>
-      <c r="AF62" s="87"/>
-      <c r="AG62" s="87"/>
-      <c r="AH62" s="87"/>
-      <c r="AI62" s="87"/>
-      <c r="AJ62" s="87"/>
-      <c r="AK62" s="87"/>
-      <c r="AL62" s="87"/>
-      <c r="AM62" s="87"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
+      <c r="AH62" s="71"/>
+      <c r="AI62" s="71"/>
+      <c r="AJ62" s="71"/>
+      <c r="AK62" s="71"/>
+      <c r="AL62" s="71"/>
+      <c r="AM62" s="71"/>
     </row>
     <row r="63" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
@@ -16945,7 +16973,7 @@
         <f t="shared" ref="U72" si="117">U42+U43</f>
         <v>4208.5450000000001</v>
       </c>
-      <c r="V72" s="68"/>
+      <c r="V72" s="52"/>
       <c r="Y72" s="36">
         <f>F72</f>
         <v>748.34299999999996</v>
@@ -16962,7 +16990,7 @@
         <f>R72</f>
         <v>5357.8819999999996</v>
       </c>
-      <c r="AC72" s="68"/>
+      <c r="AC72" s="52"/>
     </row>
     <row r="73" spans="2:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="35" t="s">
@@ -17000,7 +17028,7 @@
         <f t="shared" ref="U73" si="118">U61+U62+U58</f>
         <v>1011.827</v>
       </c>
-      <c r="V73" s="68"/>
+      <c r="V73" s="52"/>
       <c r="Y73" s="36">
         <f>F73</f>
         <v>434.49599999999998</v>
@@ -17017,7 +17045,7 @@
         <f>R73</f>
         <v>1011.039</v>
       </c>
-      <c r="AC73" s="68"/>
+      <c r="AC73" s="52"/>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6AA6D-445F-4E09-AED4-2C6C3CDAD0D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711E7C1-6591-4E5C-85D4-4C1B76DB376D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
@@ -5670,6 +5670,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5697,19 +5710,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11864,7 +11864,7 @@
   <dimension ref="B2:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11877,20 +11877,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="84" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11898,31 +11898,31 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="G5" s="84" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="G5" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>49.02</v>
+        <v>59.4</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="20"/>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>9004.6094872800004</v>
+        <v>10911.338301600001</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="20"/>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>5807.8914872800005</v>
+        <v>7714.6203016000009</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="20"/>
@@ -12102,11 +12102,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12123,10 +12123,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="88"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12143,8 +12143,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12161,10 +12161,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="88"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12181,8 +12181,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12222,11 +12222,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12243,10 +12243,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="94"/>
+      <c r="D23" s="88"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12263,10 +12263,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="87">
         <v>2008</v>
       </c>
-      <c r="D24" s="94"/>
+      <c r="D24" s="88"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12283,10 +12283,10 @@
       <c r="B25" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="C25" s="93">
+      <c r="C25" s="87">
         <v>2016</v>
       </c>
-      <c r="D25" s="94"/>
+      <c r="D25" s="88"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12301,8 +12301,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12317,8 +12317,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12358,10 +12358,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="92"/>
+      <c r="D29" s="99"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12375,61 +12375,61 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="94">
         <f>C6/'Financial Model'!U70</f>
-        <v>0.85506649460900186</v>
-      </c>
-      <c r="D33" s="88"/>
+        <v>1.0361270864907119</v>
+      </c>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="94">
         <f>C8/SUM('Financial Model'!R4:U4)</f>
-        <v>2.4707454311946444</v>
-      </c>
-      <c r="D34" s="88"/>
+        <v>2.9939265322921638</v>
+      </c>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="94">
         <f>C12/SUM('Financial Model'!R4:U4)</f>
-        <v>1.5936084043780052</v>
-      </c>
-      <c r="D35" s="88"/>
+        <v>2.1167895054755248</v>
+      </c>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="94">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
-        <v>-6.7618910307413636</v>
-      </c>
-      <c r="D36" s="88"/>
+        <v>-8.1937235256229481</v>
+      </c>
+      <c r="D36" s="95"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="94">
         <f>C12/SUM('Financial Model'!R17:U17)</f>
-        <v>-4.4061966235825452</v>
-      </c>
-      <c r="D37" s="88"/>
+        <v>-5.8527494874135044</v>
+      </c>
+      <c r="D37" s="95"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
@@ -12440,42 +12440,34 @@
       <c r="B39" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="94">
         <f>'Financial Model'!U80</f>
         <v>1.206024019528078</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="95"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="87">
+      <c r="C40" s="94">
         <f>'Financial Model'!U81</f>
         <v>3.4848498391023606</v>
       </c>
-      <c r="D40" s="88"/>
+      <c r="D40" s="95"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="89">
+      <c r="C41" s="96">
         <f>'Financial Model'!U82</f>
         <v>-9.5372734774675205</v>
       </c>
-      <c r="D41" s="90"/>
+      <c r="D41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -12492,6 +12484,14 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12510,10 +12510,10 @@
   <dimension ref="A1:BW82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="bottomRight" activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="AP30" s="80">
         <f>Main!C6</f>
-        <v>49.02</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="31" spans="2:75" x14ac:dyDescent="0.2">
@@ -15332,7 +15332,7 @@
       </c>
       <c r="AP31" s="83">
         <f>AP29/AP30-1</f>
-        <v>8.2585542266639944E-2</v>
+        <v>-0.10659354744258087</v>
       </c>
     </row>
     <row r="32" spans="2:75" x14ac:dyDescent="0.2">

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711E7C1-6591-4E5C-85D4-4C1B76DB376D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F18EB-2297-4386-8E3B-FA60D2A18EB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Price History" sheetId="3" r:id="rId3"/>
+    <sheet name="Historical Projections" sheetId="4" r:id="rId3"/>
+    <sheet name="Price History" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
     <author>me</author>
   </authors>
   <commentList>
-    <comment ref="F49" authorId="0" shapeId="0" xr:uid="{55D6C87D-C1A4-4EF5-9464-1503FD9AE294}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{55D6C87D-C1A4-4EF5-9464-1503FD9AE294}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{BCD95C05-2508-4246-A1FE-77A2158ED6BC}">
+    <comment ref="J50" authorId="0" shapeId="0" xr:uid="{BCD95C05-2508-4246-A1FE-77A2158ED6BC}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1736">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5287,16 +5288,23 @@
   </si>
   <si>
     <t>EV/E C</t>
+  </si>
+  <si>
+    <t>Share of Equity Gains</t>
+  </si>
+  <si>
+    <t>Q123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -5400,7 +5408,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5434,6 +5442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5531,7 +5545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5642,9 +5656,6 @@
     <xf numFmtId="9" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5670,19 +5681,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5710,6 +5708,71 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11463,16 +11526,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11487,8 +11550,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="28575"/>
-          <a:ext cx="0" cy="14154150"/>
+          <a:off x="13811250" y="19050"/>
+          <a:ext cx="0" cy="14316075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11513,15 +11576,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11537,8 +11600,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17535525" y="0"/>
-          <a:ext cx="0" cy="13668375"/>
+          <a:off x="18135600" y="0"/>
+          <a:ext cx="0" cy="14316075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11863,8 +11926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
   <dimension ref="B2:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11877,20 +11940,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="94" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11898,31 +11961,31 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="G5" s="91" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="G5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>59.4</v>
+        <v>66.05</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="20"/>
@@ -11942,12 +12005,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="18">
-        <f>'Financial Model'!U19</f>
-        <v>183.692564</v>
+        <f>'Financial Model'!V20</f>
+        <v>185.12070199999999</v>
       </c>
       <c r="D7" s="16" t="str">
         <f>$C$28</f>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="8"/>
@@ -11967,7 +12030,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>10911.338301600001</v>
+        <v>12227.222367099999</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="20"/>
@@ -11987,12 +12050,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <f>'Financial Model'!U72</f>
-        <v>4208.5450000000001</v>
+        <f>'Financial Model'!V73</f>
+        <v>4155.0689999999995</v>
       </c>
       <c r="D9" s="16" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="8"/>
@@ -12011,12 +12074,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>'Financial Model'!U73</f>
-        <v>1011.827</v>
+        <f>'Financial Model'!V74</f>
+        <v>1008.6719999999999</v>
       </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="8"/>
@@ -12036,11 +12099,11 @@
       </c>
       <c r="C11" s="18">
         <f>C9-C10</f>
-        <v>3196.7179999999998</v>
+        <v>3146.3969999999995</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="8"/>
@@ -12060,7 +12123,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>7714.6203016000009</v>
+        <v>9080.8253671000002</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="20"/>
@@ -12102,11 +12165,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12123,10 +12186,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="93"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12143,8 +12206,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12161,10 +12224,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="88"/>
+      <c r="D18" s="93"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12181,8 +12244,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12222,11 +12285,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12243,10 +12306,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="93"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12263,10 +12326,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="92">
         <v>2008</v>
       </c>
-      <c r="D24" s="88"/>
+      <c r="D24" s="93"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12283,10 +12346,10 @@
       <c r="B25" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="92">
         <v>2016</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="93"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12301,8 +12364,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12317,8 +12380,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12336,11 +12399,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" s="33">
-        <f>'Financial Model'!U3</f>
-        <v>37926</v>
+        <v>42036</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="8"/>
@@ -12358,10 +12420,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="99"/>
+      <c r="D29" s="91"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12375,61 +12437,61 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C33" s="94">
-        <f>C6/'Financial Model'!U70</f>
-        <v>1.0361270864907119</v>
-      </c>
-      <c r="D33" s="95"/>
+      <c r="C33" s="86">
+        <f>C6/'Financial Model'!V71</f>
+        <v>1.1580514334355108</v>
+      </c>
+      <c r="D33" s="87"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="C34" s="94">
-        <f>C8/SUM('Financial Model'!R4:U4)</f>
-        <v>2.9939265322921638</v>
-      </c>
-      <c r="D34" s="95"/>
+      <c r="C34" s="86">
+        <f>C8/SUM('Financial Model'!$S$4:$V$4)</f>
+        <v>3.1955558268895889</v>
+      </c>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="C35" s="94">
-        <f>C12/SUM('Financial Model'!R4:U4)</f>
-        <v>2.1167895054755248</v>
-      </c>
-      <c r="D35" s="95"/>
+      <c r="C35" s="86">
+        <f>C12/SUM('Financial Model'!$S$4:$V$4)</f>
+        <v>2.3732523662024172</v>
+      </c>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C36" s="94">
-        <f>C6/SUM('Financial Model'!R18:U18)</f>
-        <v>-8.1937235256229481</v>
-      </c>
-      <c r="D36" s="95"/>
+      <c r="C36" s="86">
+        <f>C6/SUM('Financial Model'!S19:V19)</f>
+        <v>-9.6279193177188063</v>
+      </c>
+      <c r="D36" s="87"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="C37" s="94">
-        <f>C12/SUM('Financial Model'!R17:U17)</f>
-        <v>-5.8527494874135044</v>
-      </c>
-      <c r="D37" s="95"/>
+      <c r="C37" s="86">
+        <f>C12/SUM('Financial Model'!S18:V18)</f>
+        <v>-7.2291219302707903</v>
+      </c>
+      <c r="D37" s="87"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
@@ -12437,37 +12499,30 @@
       <c r="D38" s="47"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="94">
-        <f>'Financial Model'!U80</f>
-        <v>1.206024019528078</v>
-      </c>
-      <c r="D39" s="95"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="94">
-        <f>'Financial Model'!U81</f>
-        <v>3.4848498391023606</v>
-      </c>
-      <c r="D40" s="95"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="96">
-        <f>'Financial Model'!U82</f>
-        <v>-9.5372734774675205</v>
-      </c>
-      <c r="D41" s="97"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -12484,36 +12539,25 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="C34:C35" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
-  <dimension ref="A1:BW82"/>
+  <dimension ref="A1:BW83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP29" sqref="AP29"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12521,11 +12565,12 @@
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="51"/>
+    <col min="22" max="22" width="9.140625" style="107"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="52"/>
-    <col min="30" max="39" width="9.140625" style="35"/>
+    <col min="29" max="29" width="9.140625" style="109"/>
+    <col min="30" max="30" width="9.140625" style="52"/>
+    <col min="31" max="39" width="9.140625" style="35"/>
     <col min="40" max="40" width="9.140625" style="1"/>
     <col min="41" max="41" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -12590,8 +12635,11 @@
       <c r="U1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="101" t="s">
         <v>44</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>1735</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>45</v>
@@ -12605,37 +12653,37 @@
       <c r="AB1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="53" t="s">
+      <c r="AC1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AD1" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AE1" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="68" t="s">
+      <c r="AG1" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AH1" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AI1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="68" t="s">
+      <c r="AJ1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AK1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AL1" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="68" t="s">
+      <c r="AM1" s="67" t="s">
         <v>1724</v>
       </c>
     </row>
@@ -12674,7 +12722,9 @@
       <c r="U2" s="26">
         <v>44834</v>
       </c>
-      <c r="V2" s="49"/>
+      <c r="V2" s="100">
+        <v>110335</v>
+      </c>
       <c r="Y2" s="26">
         <v>43465</v>
       </c>
@@ -12687,17 +12737,20 @@
       <c r="AB2" s="26">
         <v>44561</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
+      <c r="AC2" s="129">
+        <f>V2</f>
+        <v>110335</v>
+      </c>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
     </row>
     <row r="3" spans="1:39" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
@@ -12719,8 +12772,8 @@
       <c r="U3" s="25">
         <v>37926</v>
       </c>
-      <c r="V3" s="54" t="s">
-        <v>1723</v>
+      <c r="V3" s="99">
+        <v>42036</v>
       </c>
       <c r="Z3" s="25">
         <v>38384</v>
@@ -12728,19 +12781,20 @@
       <c r="AB3" s="25">
         <v>39845</v>
       </c>
-      <c r="AC3" s="54" t="s">
-        <v>1723</v>
-      </c>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
+      <c r="AC3" s="128">
+        <f>V3</f>
+        <v>42036</v>
+      </c>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
     </row>
     <row r="4" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
@@ -12779,9 +12833,8 @@
       <c r="U4" s="29">
         <v>983.03</v>
       </c>
-      <c r="V4" s="56">
-        <f>U4*(1+V22)</f>
-        <v>1024.3747107660538</v>
+      <c r="V4" s="102">
+        <v>1024.5740000000001</v>
       </c>
       <c r="Y4" s="29">
         <v>650.06700000000001</v>
@@ -12795,49 +12848,49 @@
       <c r="AB4" s="29">
         <v>2841.8389999999999</v>
       </c>
-      <c r="AC4" s="59">
+      <c r="AC4" s="121">
         <f>SUM(S4:V4)</f>
-        <v>3826.1217107660541</v>
-      </c>
-      <c r="AD4" s="70">
-        <f>AC4*(1+AD21)</f>
-        <v>5165.2643095341737</v>
-      </c>
-      <c r="AE4" s="70">
-        <f t="shared" ref="AE4:AM4" si="0">AD4*(1+AE21)</f>
-        <v>6714.8436023944259</v>
-      </c>
-      <c r="AF4" s="70">
-        <f t="shared" si="0"/>
-        <v>8594.9998110648648</v>
-      </c>
-      <c r="AG4" s="70">
-        <f t="shared" si="0"/>
-        <v>10313.999773277837</v>
-      </c>
-      <c r="AH4" s="70">
-        <f t="shared" si="0"/>
-        <v>11861.099739269512</v>
-      </c>
-      <c r="AI4" s="70">
-        <f t="shared" si="0"/>
-        <v>13640.264700159938</v>
-      </c>
-      <c r="AJ4" s="70">
-        <f t="shared" si="0"/>
-        <v>15140.693817177533</v>
-      </c>
-      <c r="AK4" s="70">
-        <f t="shared" si="0"/>
-        <v>16200.542384379962</v>
-      </c>
-      <c r="AL4" s="70">
-        <f t="shared" si="0"/>
-        <v>17334.58035128656</v>
-      </c>
-      <c r="AM4" s="70">
-        <f t="shared" si="0"/>
-        <v>18548.000975876621</v>
+        <v>3826.3210000000004</v>
+      </c>
+      <c r="AD4" s="59">
+        <f>AC4*(1+AD22)</f>
+        <v>5165.5333500000006</v>
+      </c>
+      <c r="AE4" s="69">
+        <f>AD4*(1+AE22)</f>
+        <v>6715.1933550000012</v>
+      </c>
+      <c r="AF4" s="69">
+        <f>AE4*(1+AF22)</f>
+        <v>8595.4474944000012</v>
+      </c>
+      <c r="AG4" s="69">
+        <f>AF4*(1+AG22)</f>
+        <v>10314.53699328</v>
+      </c>
+      <c r="AH4" s="69">
+        <f>AG4*(1+AH22)</f>
+        <v>11861.717542271999</v>
+      </c>
+      <c r="AI4" s="69">
+        <f>AH4*(1+AI22)</f>
+        <v>13640.975173612798</v>
+      </c>
+      <c r="AJ4" s="69">
+        <f>AI4*(1+AJ22)</f>
+        <v>15141.482442710207</v>
+      </c>
+      <c r="AK4" s="69">
+        <f>AJ4*(1+AK22)</f>
+        <v>16201.386213699921</v>
+      </c>
+      <c r="AL4" s="69">
+        <f>AK4*(1+AL22)</f>
+        <v>17335.483248658918</v>
+      </c>
+      <c r="AM4" s="69">
+        <f>AL4*(1+AM22)</f>
+        <v>18548.967076065044</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
@@ -12877,9 +12930,8 @@
       <c r="U5" s="30">
         <v>520.95500000000004</v>
       </c>
-      <c r="V5" s="57">
-        <f>V4*V24</f>
-        <v>481.5091548347703</v>
+      <c r="V5" s="103">
+        <v>543.43200000000002</v>
       </c>
       <c r="W5" s="2"/>
       <c r="Y5" s="30">
@@ -12894,49 +12946,49 @@
       <c r="AB5" s="30">
         <v>1451.126</v>
       </c>
-      <c r="AC5" s="64">
+      <c r="AC5" s="122">
         <f>SUM(S5:V5)</f>
-        <v>1950.8211548347701</v>
-      </c>
-      <c r="AD5" s="36">
-        <f>AD4*AD24</f>
-        <v>2582.6321547670868</v>
+        <v>2012.7439999999999</v>
+      </c>
+      <c r="AD5" s="64">
+        <f>AD4*AD25</f>
+        <v>2582.7666750000003</v>
       </c>
       <c r="AE5" s="36">
-        <f t="shared" ref="AE5:AM5" si="1">AE4*AE24</f>
-        <v>3357.421801197213</v>
+        <f>AE4*AE25</f>
+        <v>3357.5966775000006</v>
       </c>
       <c r="AF5" s="36">
-        <f t="shared" si="1"/>
-        <v>4555.349899864379</v>
+        <f>AF4*AF25</f>
+        <v>4555.587172032001</v>
       </c>
       <c r="AG5" s="36">
-        <f t="shared" si="1"/>
-        <v>5672.6998753028111</v>
+        <f>AG4*AG25</f>
+        <v>5672.995346304001</v>
       </c>
       <c r="AH5" s="36">
-        <f t="shared" si="1"/>
-        <v>6523.6048565982319</v>
+        <f>AH4*AH25</f>
+        <v>6523.9446482496005</v>
       </c>
       <c r="AI5" s="36">
-        <f t="shared" si="1"/>
-        <v>7502.1455850879665</v>
+        <f>AI4*AI25</f>
+        <v>7502.5363454870394</v>
       </c>
       <c r="AJ5" s="36">
-        <f t="shared" si="1"/>
-        <v>8327.3815994476445</v>
+        <f>AJ4*AJ25</f>
+        <v>8327.8153434906144</v>
       </c>
       <c r="AK5" s="36">
-        <f t="shared" si="1"/>
-        <v>8910.2983114089802</v>
+        <f>AK4*AK25</f>
+        <v>8910.7624175349574</v>
       </c>
       <c r="AL5" s="36">
-        <f t="shared" si="1"/>
-        <v>9534.0191932076086</v>
+        <f>AL4*AL25</f>
+        <v>9534.5157867624057</v>
       </c>
       <c r="AM5" s="36">
-        <f t="shared" si="1"/>
-        <v>10201.400536732142</v>
+        <f>AM4*AM25</f>
+        <v>10201.931891835775</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12944,59 +12996,59 @@
         <v>61</v>
       </c>
       <c r="F6" s="29">
-        <f t="shared" ref="F6" si="2">F4-F5</f>
+        <f t="shared" ref="F6" si="0">F4-F5</f>
         <v>108.014</v>
       </c>
       <c r="J6" s="29">
-        <f t="shared" ref="J6" si="3">J4-J5</f>
+        <f t="shared" ref="J6" si="1">J4-J5</f>
         <v>174.69</v>
       </c>
       <c r="M6" s="29">
-        <f t="shared" ref="M6" si="4">M4-M5</f>
+        <f t="shared" ref="M6" si="2">M4-M5</f>
         <v>230.874</v>
       </c>
       <c r="N6" s="29">
-        <f t="shared" ref="N6:U6" si="5">N4-N5</f>
+        <f t="shared" ref="N6:U6" si="3">N4-N5</f>
         <v>282.12100000000004</v>
       </c>
       <c r="O6" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>298.30400000000003</v>
       </c>
       <c r="P6" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>331.24700000000001</v>
       </c>
       <c r="Q6" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>364.61500000000007</v>
       </c>
       <c r="R6" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>396.54700000000003</v>
       </c>
       <c r="S6" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>425.07100000000008</v>
       </c>
       <c r="T6" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>445.28900000000004</v>
       </c>
       <c r="U6" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>462.07499999999993</v>
       </c>
-      <c r="V6" s="56">
+      <c r="V6" s="102">
         <f>V4-V5</f>
-        <v>542.86555593128355</v>
+        <v>481.14200000000005</v>
       </c>
       <c r="Y6" s="29">
-        <f t="shared" ref="Y6:Z6" si="6">Y4-Y5</f>
+        <f t="shared" ref="Y6:Z6" si="4">Y4-Y5</f>
         <v>349.226</v>
       </c>
       <c r="Z6" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>608.91700000000003</v>
       </c>
       <c r="AA6" s="29">
@@ -13007,49 +13059,49 @@
         <f>AB4-AB5</f>
         <v>1390.713</v>
       </c>
-      <c r="AC6" s="59">
+      <c r="AC6" s="121">
         <f>AC4-AC5</f>
-        <v>1875.300555931284</v>
-      </c>
-      <c r="AD6" s="70">
+        <v>1813.5770000000005</v>
+      </c>
+      <c r="AD6" s="59">
         <f>AD4-AD5</f>
-        <v>2582.6321547670868</v>
-      </c>
-      <c r="AE6" s="70">
-        <f t="shared" ref="AE6:AM6" si="7">AE4-AE5</f>
-        <v>3357.421801197213</v>
-      </c>
-      <c r="AF6" s="70">
-        <f t="shared" si="7"/>
-        <v>4039.6499112004858</v>
-      </c>
-      <c r="AG6" s="70">
-        <f t="shared" si="7"/>
-        <v>4641.2998979750264</v>
-      </c>
-      <c r="AH6" s="70">
-        <f t="shared" si="7"/>
-        <v>5337.4948826712798</v>
-      </c>
-      <c r="AI6" s="70">
-        <f t="shared" si="7"/>
-        <v>6138.1191150719715</v>
-      </c>
-      <c r="AJ6" s="70">
-        <f t="shared" si="7"/>
-        <v>6813.3122177298883</v>
-      </c>
-      <c r="AK6" s="70">
-        <f t="shared" si="7"/>
-        <v>7290.2440729709815</v>
-      </c>
-      <c r="AL6" s="70">
-        <f t="shared" si="7"/>
-        <v>7800.5611580789518</v>
-      </c>
-      <c r="AM6" s="70">
-        <f t="shared" si="7"/>
-        <v>8346.6004391444785</v>
+        <v>2582.7666750000003</v>
+      </c>
+      <c r="AE6" s="69">
+        <f t="shared" ref="AE6:AM6" si="5">AE4-AE5</f>
+        <v>3357.5966775000006</v>
+      </c>
+      <c r="AF6" s="69">
+        <f t="shared" si="5"/>
+        <v>4039.8603223680002</v>
+      </c>
+      <c r="AG6" s="69">
+        <f t="shared" si="5"/>
+        <v>4641.5416469759994</v>
+      </c>
+      <c r="AH6" s="69">
+        <f t="shared" si="5"/>
+        <v>5337.7728940223988</v>
+      </c>
+      <c r="AI6" s="69">
+        <f t="shared" si="5"/>
+        <v>6138.4388281257588</v>
+      </c>
+      <c r="AJ6" s="69">
+        <f t="shared" si="5"/>
+        <v>6813.6670992195923</v>
+      </c>
+      <c r="AK6" s="69">
+        <f t="shared" si="5"/>
+        <v>7290.623796164964</v>
+      </c>
+      <c r="AL6" s="69">
+        <f t="shared" si="5"/>
+        <v>7800.9674618965128</v>
+      </c>
+      <c r="AM6" s="69">
+        <f t="shared" si="5"/>
+        <v>8347.0351842292694</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
@@ -13089,9 +13141,8 @@
       <c r="U7" s="30">
         <v>284.73500000000001</v>
       </c>
-      <c r="V7" s="57">
-        <f>0.28*V4</f>
-        <v>286.82491901449509</v>
+      <c r="V7" s="103">
+        <v>274.09399999999999</v>
       </c>
       <c r="Y7" s="30">
         <v>171.358</v>
@@ -13105,49 +13156,49 @@
       <c r="AB7" s="30">
         <v>789.21900000000005</v>
       </c>
-      <c r="AC7" s="64">
-        <f t="shared" ref="AC7:AC11" si="8">SUM(S7:V7)</f>
-        <v>1091.8119190144951</v>
-      </c>
-      <c r="AD7" s="36">
+      <c r="AC7" s="122">
+        <f t="shared" ref="AC7:AC11" si="6">SUM(S7:V7)</f>
+        <v>1079.0809999999999</v>
+      </c>
+      <c r="AD7" s="64">
         <f>0.28*AD4</f>
-        <v>1446.2740066695687</v>
+        <v>1446.3493380000002</v>
       </c>
       <c r="AE7" s="36">
         <f>0.23*AE4</f>
-        <v>1544.4140285507181</v>
+        <v>1544.4944716500004</v>
       </c>
       <c r="AF7" s="36">
         <f>0.18*AF4</f>
-        <v>1547.0999659916756</v>
+        <v>1547.1805489920002</v>
       </c>
       <c r="AG7" s="36">
         <f>0.13*AG4</f>
-        <v>1340.8199705261188</v>
+        <v>1340.8898091264</v>
       </c>
       <c r="AH7" s="36">
-        <f t="shared" ref="AH7:AI7" si="9">0.13*AH4</f>
-        <v>1541.9429661050365</v>
+        <f t="shared" ref="AH7:AI7" si="7">0.13*AH4</f>
+        <v>1542.02328049536</v>
       </c>
       <c r="AI7" s="36">
-        <f t="shared" si="9"/>
-        <v>1773.2344110207921</v>
+        <f t="shared" si="7"/>
+        <v>1773.3267725696639</v>
       </c>
       <c r="AJ7" s="36">
         <f>0.08*AJ4</f>
-        <v>1211.2555053742026</v>
+        <v>1211.3185954168166</v>
       </c>
       <c r="AK7" s="36">
-        <f t="shared" ref="AK7:AM7" si="10">0.08*AK4</f>
-        <v>1296.0433907503971</v>
+        <f t="shared" ref="AK7:AM7" si="8">0.08*AK4</f>
+        <v>1296.1108970959938</v>
       </c>
       <c r="AL7" s="36">
-        <f t="shared" si="10"/>
-        <v>1386.7664281029249</v>
+        <f t="shared" si="8"/>
+        <v>1386.8386598927134</v>
       </c>
       <c r="AM7" s="36">
-        <f t="shared" si="10"/>
-        <v>1483.8400780701297</v>
+        <f t="shared" si="8"/>
+        <v>1483.9173660852036</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -13187,9 +13238,8 @@
       <c r="U8" s="30">
         <v>328.83300000000003</v>
       </c>
-      <c r="V8" s="57">
-        <f>V4*0.33</f>
-        <v>338.04365455279776</v>
+      <c r="V8" s="103">
+        <v>296.33499999999998</v>
       </c>
       <c r="Y8" s="30">
         <v>175.55500000000001</v>
@@ -13203,49 +13253,49 @@
       <c r="AB8" s="30">
         <v>1044.6179999999999</v>
       </c>
-      <c r="AC8" s="64">
-        <f t="shared" si="8"/>
-        <v>1289.7406545527979</v>
-      </c>
-      <c r="AD8" s="36">
+      <c r="AC8" s="122">
+        <f t="shared" si="6"/>
+        <v>1248.0320000000002</v>
+      </c>
+      <c r="AD8" s="64">
         <f>AD4*0.33</f>
-        <v>1704.5372221462774</v>
+        <v>1704.6260055000002</v>
       </c>
       <c r="AE8" s="36">
-        <f t="shared" ref="AE8" si="11">AE4*0.33</f>
-        <v>2215.8983887901609</v>
+        <f t="shared" ref="AE8" si="9">AE4*0.33</f>
+        <v>2216.0138071500005</v>
       </c>
       <c r="AF8" s="36">
         <f>AF4*0.25</f>
-        <v>2148.7499527662162</v>
+        <v>2148.8618736000003</v>
       </c>
       <c r="AG8" s="36">
         <f>AG4*0.16</f>
-        <v>1650.2399637244541</v>
+        <v>1650.3259189248001</v>
       </c>
       <c r="AH8" s="36">
-        <f t="shared" ref="AH8" si="12">AH4*0.16</f>
-        <v>1897.775958283122</v>
+        <f t="shared" ref="AH8" si="10">AH4*0.16</f>
+        <v>1897.8748067635199</v>
       </c>
       <c r="AI8" s="36">
         <f>AI4*0.1</f>
-        <v>1364.0264700159939</v>
+        <v>1364.0975173612799</v>
       </c>
       <c r="AJ8" s="36">
-        <f t="shared" ref="AJ8:AM8" si="13">AJ4*0.1</f>
-        <v>1514.0693817177535</v>
+        <f t="shared" ref="AJ8:AM8" si="11">AJ4*0.1</f>
+        <v>1514.1482442710208</v>
       </c>
       <c r="AK8" s="36">
-        <f t="shared" si="13"/>
-        <v>1620.0542384379962</v>
+        <f t="shared" si="11"/>
+        <v>1620.1386213699923</v>
       </c>
       <c r="AL8" s="36">
-        <f t="shared" si="13"/>
-        <v>1733.4580351286561</v>
+        <f t="shared" si="11"/>
+        <v>1733.548324865892</v>
       </c>
       <c r="AM8" s="36">
-        <f t="shared" si="13"/>
-        <v>1854.8000975876621</v>
+        <f t="shared" si="11"/>
+        <v>1854.8967076065046</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
@@ -13285,9 +13335,8 @@
       <c r="U9" s="30">
         <v>135.33099999999999</v>
       </c>
-      <c r="V9" s="57">
-        <f>V4*0.135</f>
-        <v>138.29058595341726</v>
+      <c r="V9" s="103">
+        <v>125.095</v>
       </c>
       <c r="Y9" s="30">
         <v>117.548</v>
@@ -13301,49 +13350,49 @@
       <c r="AB9" s="30">
         <v>472.46</v>
       </c>
-      <c r="AC9" s="64">
-        <f t="shared" si="8"/>
-        <v>530.6095859534172</v>
-      </c>
-      <c r="AD9" s="36">
+      <c r="AC9" s="122">
+        <f t="shared" si="6"/>
+        <v>517.41399999999999</v>
+      </c>
+      <c r="AD9" s="64">
         <f>AD4*0.135</f>
-        <v>697.31068178711348</v>
+        <v>697.34700225000017</v>
       </c>
       <c r="AE9" s="36">
-        <f t="shared" ref="AE9:AM9" si="14">AE4*0.135</f>
-        <v>906.50388632324757</v>
+        <f t="shared" ref="AE9:AM9" si="12">AE4*0.135</f>
+        <v>906.55110292500024</v>
       </c>
       <c r="AF9" s="36">
-        <f t="shared" si="14"/>
-        <v>1160.3249744937568</v>
+        <f t="shared" si="12"/>
+        <v>1160.3854117440003</v>
       </c>
       <c r="AG9" s="36">
-        <f t="shared" si="14"/>
-        <v>1392.3899693925082</v>
+        <f t="shared" si="12"/>
+        <v>1392.4624940928002</v>
       </c>
       <c r="AH9" s="36">
-        <f t="shared" si="14"/>
-        <v>1601.2484648013842</v>
+        <f t="shared" si="12"/>
+        <v>1601.3318682067199</v>
       </c>
       <c r="AI9" s="36">
-        <f t="shared" si="14"/>
-        <v>1841.4357345215917</v>
+        <f t="shared" si="12"/>
+        <v>1841.5316484377279</v>
       </c>
       <c r="AJ9" s="36">
-        <f t="shared" si="14"/>
-        <v>2043.993665318967</v>
+        <f t="shared" si="12"/>
+        <v>2044.1001297658781</v>
       </c>
       <c r="AK9" s="36">
-        <f t="shared" si="14"/>
-        <v>2187.0732218912949</v>
+        <f t="shared" si="12"/>
+        <v>2187.1871388494897</v>
       </c>
       <c r="AL9" s="36">
-        <f t="shared" si="14"/>
-        <v>2340.1683474236856</v>
+        <f t="shared" si="12"/>
+        <v>2340.290238568954</v>
       </c>
       <c r="AM9" s="36">
-        <f t="shared" si="14"/>
-        <v>2503.9801317433439</v>
+        <f t="shared" si="12"/>
+        <v>2504.1105552687814</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
@@ -13383,9 +13432,8 @@
       <c r="U10" s="30">
         <v>72.450999999999993</v>
       </c>
-      <c r="V10" s="57">
-        <f>U10*0.25</f>
-        <v>18.112749999999998</v>
+      <c r="V10" s="103">
+        <v>4.1849999999999996</v>
       </c>
       <c r="Y10" s="30">
         <v>0</v>
@@ -13399,13 +13447,13 @@
       <c r="AB10" s="30">
         <v>0</v>
       </c>
-      <c r="AC10" s="64">
-        <f t="shared" si="8"/>
-        <v>90.563749999999999</v>
-      </c>
-      <c r="AD10" s="36">
+      <c r="AC10" s="122">
+        <f t="shared" si="6"/>
+        <v>76.635999999999996</v>
+      </c>
+      <c r="AD10" s="64">
         <f>AC10*0.05</f>
-        <v>4.5281875000000005</v>
+        <v>3.8317999999999999</v>
       </c>
       <c r="AE10" s="36">
         <v>0</v>
@@ -13472,9 +13520,8 @@
       <c r="U11" s="30">
         <v>97.721999999999994</v>
       </c>
-      <c r="V11" s="57">
-        <f>U11*0.25</f>
-        <v>24.430499999999999</v>
+      <c r="V11" s="103">
+        <v>0</v>
       </c>
       <c r="Y11" s="30">
         <v>0</v>
@@ -13488,13 +13535,13 @@
       <c r="AB11" s="30">
         <v>0</v>
       </c>
-      <c r="AC11" s="64">
-        <f t="shared" si="8"/>
-        <v>122.15249999999999</v>
-      </c>
-      <c r="AD11" s="36">
-        <f t="shared" ref="AD11" si="15">AC11*0.05</f>
-        <v>6.1076249999999996</v>
+      <c r="AC11" s="122">
+        <f t="shared" si="6"/>
+        <v>97.721999999999994</v>
+      </c>
+      <c r="AD11" s="64">
+        <f t="shared" ref="AD11" si="13">AC11*0.05</f>
+        <v>4.8860999999999999</v>
       </c>
       <c r="AE11" s="36">
         <v>0</v>
@@ -13529,7 +13576,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" ref="F12" si="16">SUM(F7:F11)</f>
+        <f t="shared" ref="F12" si="14">SUM(F7:F11)</f>
         <v>152.001</v>
       </c>
       <c r="J12" s="30">
@@ -13537,104 +13584,104 @@
         <v>268.48899999999998</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" ref="M12:U12" si="17">SUM(M7:M11)</f>
+        <f t="shared" ref="M12:U12" si="15">SUM(M7:M11)</f>
         <v>343.14400000000001</v>
       </c>
       <c r="N12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>467.41199999999992</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>495.64299999999997</v>
       </c>
       <c r="P12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>533.52099999999996</v>
       </c>
       <c r="Q12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>596.96</v>
       </c>
       <c r="R12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>680.173</v>
       </c>
       <c r="S12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>642.87900000000002</v>
       </c>
       <c r="T12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>757.22500000000002</v>
       </c>
       <c r="U12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>919.072</v>
       </c>
-      <c r="V12" s="57">
+      <c r="V12" s="103">
         <f>SUM(V7:V11)</f>
-        <v>805.70240952071015</v>
+        <v>699.70899999999995</v>
       </c>
       <c r="Y12" s="30">
-        <f t="shared" ref="Y12" si="18">SUM(Y7:Y11)</f>
+        <f t="shared" ref="Y12" si="16">SUM(Y7:Y11)</f>
         <v>464.46100000000001</v>
       </c>
       <c r="Z12" s="30">
-        <f t="shared" ref="Z12" si="19">SUM(Z7:Z11)</f>
+        <f t="shared" ref="Z12" si="17">SUM(Z7:Z11)</f>
         <v>978.702</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12" si="20">SUM(AA7:AA11)</f>
+        <f t="shared" ref="AA12" si="18">SUM(AA7:AA11)</f>
         <v>1408.5619999999999</v>
       </c>
       <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AM12" si="21">SUM(AB7:AB11)</f>
+        <f t="shared" ref="AB12:AM12" si="19">SUM(AB7:AB11)</f>
         <v>2306.297</v>
       </c>
-      <c r="AC12" s="64">
+      <c r="AC12" s="122">
         <f>SUM(AC7:AC11)</f>
-        <v>3124.8784095207097</v>
-      </c>
-      <c r="AD12" s="30">
-        <f t="shared" si="21"/>
-        <v>3858.75772310296</v>
+        <v>3018.8850000000002</v>
+      </c>
+      <c r="AD12" s="64">
+        <f t="shared" si="19"/>
+        <v>3857.0402457500004</v>
       </c>
       <c r="AE12" s="30">
-        <f t="shared" si="21"/>
-        <v>4666.8163036641263</v>
+        <f t="shared" si="19"/>
+        <v>4667.059381725001</v>
       </c>
       <c r="AF12" s="30">
-        <f t="shared" si="21"/>
-        <v>4856.1748932516484</v>
+        <f t="shared" si="19"/>
+        <v>4856.4278343360011</v>
       </c>
       <c r="AG12" s="30">
-        <f t="shared" si="21"/>
-        <v>4383.4499036430807</v>
+        <f t="shared" si="19"/>
+        <v>4383.6782221440008</v>
       </c>
       <c r="AH12" s="30">
-        <f t="shared" si="21"/>
-        <v>5040.9673891895427</v>
+        <f t="shared" si="19"/>
+        <v>5041.2299554656001</v>
       </c>
       <c r="AI12" s="30">
-        <f t="shared" si="21"/>
-        <v>4978.6966155583777</v>
+        <f t="shared" si="19"/>
+        <v>4978.9559383686719</v>
       </c>
       <c r="AJ12" s="30">
-        <f t="shared" si="21"/>
-        <v>4769.3185524109231</v>
+        <f t="shared" si="19"/>
+        <v>4769.5669694537155</v>
       </c>
       <c r="AK12" s="30">
-        <f t="shared" si="21"/>
-        <v>5103.1708510796889</v>
+        <f t="shared" si="19"/>
+        <v>5103.4366573154757</v>
       </c>
       <c r="AL12" s="30">
-        <f t="shared" si="21"/>
-        <v>5460.3928106552667</v>
+        <f t="shared" si="19"/>
+        <v>5460.6772233275597</v>
       </c>
       <c r="AM12" s="30">
-        <f t="shared" si="21"/>
-        <v>5842.6203074011355</v>
+        <f t="shared" si="19"/>
+        <v>5842.9246289604898</v>
       </c>
     </row>
     <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13650,44 +13697,44 @@
         <v>-93.798999999999978</v>
       </c>
       <c r="M13" s="29">
-        <f t="shared" ref="M13:V13" si="22">M6-M12</f>
+        <f t="shared" ref="M13:V13" si="20">M6-M12</f>
         <v>-112.27000000000001</v>
       </c>
       <c r="N13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-185.29099999999988</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-197.33899999999994</v>
       </c>
       <c r="P13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-202.27399999999994</v>
       </c>
       <c r="Q13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-232.34499999999997</v>
       </c>
       <c r="R13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-283.62599999999998</v>
       </c>
       <c r="S13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-217.80799999999994</v>
       </c>
       <c r="T13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-311.93599999999998</v>
       </c>
       <c r="U13" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-456.99700000000007</v>
       </c>
-      <c r="V13" s="56">
-        <f t="shared" si="22"/>
-        <v>-262.8368535894266</v>
+      <c r="V13" s="102">
+        <f t="shared" si="20"/>
+        <v>-218.56699999999989</v>
       </c>
       <c r="Y13" s="29">
         <f>Y6-Y12</f>
@@ -13705,119 +13752,116 @@
         <f>AB6-AB12</f>
         <v>-915.58400000000006</v>
       </c>
-      <c r="AC13" s="56">
-        <f t="shared" ref="AC13:AM13" si="23">AC6-AC12</f>
-        <v>-1249.5778535894258</v>
-      </c>
-      <c r="AD13" s="70">
-        <f t="shared" si="23"/>
-        <v>-1276.1255683358731</v>
-      </c>
-      <c r="AE13" s="70">
-        <f t="shared" si="23"/>
-        <v>-1309.3945024669133</v>
-      </c>
-      <c r="AF13" s="70">
-        <f t="shared" si="23"/>
-        <v>-816.52498205116262</v>
-      </c>
-      <c r="AG13" s="70">
-        <f t="shared" si="23"/>
-        <v>257.84999433194571</v>
-      </c>
-      <c r="AH13" s="70">
-        <f t="shared" si="23"/>
-        <v>296.52749348173711</v>
-      </c>
-      <c r="AI13" s="70">
-        <f t="shared" si="23"/>
-        <v>1159.4224995135937</v>
-      </c>
-      <c r="AJ13" s="70">
-        <f t="shared" si="23"/>
-        <v>2043.9936653189652</v>
-      </c>
-      <c r="AK13" s="70">
-        <f t="shared" si="23"/>
-        <v>2187.0732218912926</v>
-      </c>
-      <c r="AL13" s="70">
-        <f t="shared" si="23"/>
-        <v>2340.1683474236852</v>
-      </c>
-      <c r="AM13" s="70">
-        <f t="shared" si="23"/>
-        <v>2503.980131743343</v>
+      <c r="AC13" s="102">
+        <f t="shared" ref="AC13:AM13" si="21">AC6-AC12</f>
+        <v>-1205.3079999999998</v>
+      </c>
+      <c r="AD13" s="59">
+        <f t="shared" si="21"/>
+        <v>-1274.2735707500001</v>
+      </c>
+      <c r="AE13" s="69">
+        <f t="shared" si="21"/>
+        <v>-1309.4627042250004</v>
+      </c>
+      <c r="AF13" s="69">
+        <f t="shared" si="21"/>
+        <v>-816.56751196800087</v>
+      </c>
+      <c r="AG13" s="69">
+        <f t="shared" si="21"/>
+        <v>257.8634248319986</v>
+      </c>
+      <c r="AH13" s="69">
+        <f t="shared" si="21"/>
+        <v>296.54293855679862</v>
+      </c>
+      <c r="AI13" s="69">
+        <f t="shared" si="21"/>
+        <v>1159.4828897570869</v>
+      </c>
+      <c r="AJ13" s="69">
+        <f t="shared" si="21"/>
+        <v>2044.1001297658768</v>
+      </c>
+      <c r="AK13" s="69">
+        <f t="shared" si="21"/>
+        <v>2187.1871388494883</v>
+      </c>
+      <c r="AL13" s="69">
+        <f t="shared" si="21"/>
+        <v>2340.2902385689531</v>
+      </c>
+      <c r="AM13" s="69">
+        <f t="shared" si="21"/>
+        <v>2504.1105552687795</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>1734</v>
       </c>
       <c r="F14" s="30">
-        <v>2.7509999999999999</v>
+        <v>0</v>
       </c>
       <c r="J14" s="30">
-        <v>-4.7080000000000002</v>
+        <v>0</v>
       </c>
       <c r="M14" s="30">
-        <v>3.996</v>
+        <v>0</v>
       </c>
       <c r="N14" s="30">
-        <v>9.4260000000000002</v>
+        <v>0</v>
       </c>
       <c r="O14" s="30">
-        <v>8.3130000000000006</v>
+        <v>0</v>
       </c>
       <c r="P14" s="30">
-        <v>24.292999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="30">
-        <v>6.6130000000000004</v>
+        <v>0</v>
       </c>
       <c r="R14" s="30">
-        <v>6.1260000000000003</v>
+        <v>0</v>
       </c>
       <c r="S14" s="30">
-        <v>6.6769999999999996</v>
+        <v>0</v>
       </c>
       <c r="T14" s="30">
-        <v>8.2390000000000008</v>
+        <v>0</v>
       </c>
       <c r="U14" s="30">
-        <v>21.75</v>
-      </c>
-      <c r="V14" s="57">
-        <f>AVERAGE(R14:U14)</f>
-        <v>10.698</v>
-      </c>
+        <v>13.375999999999999</v>
+      </c>
+      <c r="V14" s="103">
+        <v>21.939</v>
+      </c>
+      <c r="W14" s="30"/>
       <c r="Y14" s="30">
-        <v>5.923</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="30">
-        <v>-7.569</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="30">
-        <v>11.525</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="30">
-        <v>45.344999999999999</v>
-      </c>
-      <c r="AC14" s="64">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="131">
         <f>SUM(S14:V14)</f>
-        <v>47.363999999999997</v>
-      </c>
-      <c r="AD14" s="36">
-        <f>AVERAGE(Y14:AC14)</f>
-        <v>20.517599999999998</v>
+        <v>35.314999999999998</v>
+      </c>
+      <c r="AD14" s="64">
+        <v>0</v>
       </c>
       <c r="AE14" s="36">
-        <f>AD14*0.15</f>
-        <v>3.0776399999999997</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="36">
-        <f t="shared" ref="AF14" si="24">AE14*0.15</f>
-        <v>0.46164599999999995</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="36">
         <v>0</v>
@@ -13843,3574 +13887,3837 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" ref="F15" si="25">F13-F14</f>
-        <v>-46.738000000000007</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" ref="J15" si="26">J13-J14</f>
-        <v>-89.09099999999998</v>
+        <v>-4.7080000000000002</v>
       </c>
       <c r="M15" s="30">
-        <f t="shared" ref="M15" si="27">M13-M14</f>
-        <v>-116.26600000000001</v>
+        <v>3.996</v>
       </c>
       <c r="N15" s="30">
-        <f t="shared" ref="N15" si="28">N13-N14</f>
-        <v>-194.71699999999987</v>
+        <v>9.4260000000000002</v>
       </c>
       <c r="O15" s="30">
-        <f t="shared" ref="O15:V15" si="29">O13-O14</f>
-        <v>-205.65199999999993</v>
+        <v>8.3130000000000006</v>
       </c>
       <c r="P15" s="30">
-        <f t="shared" si="29"/>
-        <v>-226.56699999999995</v>
+        <v>24.292999999999999</v>
       </c>
       <c r="Q15" s="30">
-        <f t="shared" si="29"/>
-        <v>-238.95799999999997</v>
+        <v>6.6130000000000004</v>
       </c>
       <c r="R15" s="30">
-        <f t="shared" si="29"/>
-        <v>-289.75199999999995</v>
+        <v>6.1260000000000003</v>
       </c>
       <c r="S15" s="30">
-        <f t="shared" si="29"/>
-        <v>-224.48499999999993</v>
+        <v>6.6769999999999996</v>
       </c>
       <c r="T15" s="30">
-        <f t="shared" si="29"/>
-        <v>-320.17499999999995</v>
+        <v>8.2390000000000008</v>
       </c>
       <c r="U15" s="30">
-        <f t="shared" si="29"/>
-        <v>-478.74700000000007</v>
-      </c>
-      <c r="V15" s="51">
-        <f t="shared" si="29"/>
-        <v>-273.53485358942658</v>
-      </c>
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="V15" s="103">
+        <v>-20.280999999999999</v>
+      </c>
+      <c r="W15" s="30"/>
       <c r="Y15" s="30">
-        <f t="shared" ref="Y15:Z15" si="30">Y13-Y14</f>
-        <v>-121.15800000000002</v>
+        <v>5.923</v>
       </c>
       <c r="Z15" s="30">
-        <f t="shared" si="30"/>
-        <v>-362.21599999999995</v>
+        <v>-7.569</v>
       </c>
       <c r="AA15" s="30">
-        <f>AA13-AA14</f>
-        <v>-504.42599999999982</v>
+        <v>11.525</v>
       </c>
       <c r="AB15" s="30">
-        <f>AB13-AB14</f>
-        <v>-960.92900000000009</v>
-      </c>
-      <c r="AC15" s="64">
-        <f>AC13-AC14</f>
-        <v>-1296.9418535894258</v>
-      </c>
-      <c r="AD15" s="30">
-        <f t="shared" ref="AD15:AM15" si="31">AD13-AD14</f>
-        <v>-1296.643168335873</v>
-      </c>
-      <c r="AE15" s="30">
-        <f t="shared" si="31"/>
-        <v>-1312.4721424669133</v>
-      </c>
-      <c r="AF15" s="30">
-        <f t="shared" si="31"/>
-        <v>-816.9866280511626</v>
-      </c>
-      <c r="AG15" s="30">
-        <f t="shared" si="31"/>
-        <v>257.84999433194571</v>
-      </c>
-      <c r="AH15" s="30">
-        <f t="shared" si="31"/>
-        <v>296.52749348173711</v>
-      </c>
-      <c r="AI15" s="30">
-        <f t="shared" si="31"/>
-        <v>1159.4224995135937</v>
-      </c>
-      <c r="AJ15" s="30">
-        <f t="shared" si="31"/>
-        <v>2043.9936653189652</v>
-      </c>
-      <c r="AK15" s="30">
-        <f t="shared" si="31"/>
-        <v>2187.0732218912926</v>
-      </c>
-      <c r="AL15" s="30">
-        <f t="shared" si="31"/>
-        <v>2340.1683474236852</v>
-      </c>
-      <c r="AM15" s="30">
-        <f t="shared" si="31"/>
-        <v>2503.980131743343</v>
+        <v>45.344999999999999</v>
+      </c>
+      <c r="AC15" s="132">
+        <f>SUM(S15:V15)</f>
+        <v>3.0090000000000003</v>
+      </c>
+      <c r="AD15" s="64">
+        <f>AVERAGE(Y15:AC15)</f>
+        <v>11.646600000000001</v>
+      </c>
+      <c r="AE15" s="36">
+        <f>AD15*0.15</f>
+        <v>1.74699</v>
+      </c>
+      <c r="AF15" s="36">
+        <f t="shared" ref="AF15" si="22">AE15*0.15</f>
+        <v>0.26204850000000002</v>
+      </c>
+      <c r="AG15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="30">
+        <f>F13-F15</f>
+        <v>-46.738000000000007</v>
+      </c>
+      <c r="J16" s="30">
+        <f>J13-J15</f>
+        <v>-89.09099999999998</v>
+      </c>
+      <c r="M16" s="30">
+        <f>M13-M15</f>
+        <v>-116.26600000000001</v>
+      </c>
+      <c r="N16" s="30">
+        <f>N13-N15</f>
+        <v>-194.71699999999987</v>
+      </c>
+      <c r="O16" s="30">
+        <f>O13-O15</f>
+        <v>-205.65199999999993</v>
+      </c>
+      <c r="P16" s="30">
+        <f>P13-P15</f>
+        <v>-226.56699999999995</v>
+      </c>
+      <c r="Q16" s="30">
+        <f>Q13-Q15</f>
+        <v>-238.95799999999997</v>
+      </c>
+      <c r="R16" s="30">
+        <f>R13-R15</f>
+        <v>-289.75199999999995</v>
+      </c>
+      <c r="S16" s="30">
+        <f>S13-S15</f>
+        <v>-224.48499999999993</v>
+      </c>
+      <c r="T16" s="30">
+        <f>T13-T15</f>
+        <v>-320.17499999999995</v>
+      </c>
+      <c r="U16" s="103">
+        <f>U13-U14-U15</f>
+        <v>-478.74700000000007</v>
+      </c>
+      <c r="V16" s="103">
+        <f>V13-V14-V15</f>
+        <v>-220.22499999999988</v>
+      </c>
+      <c r="W16" s="30"/>
+      <c r="Y16" s="30">
+        <f>Y13-Y15</f>
+        <v>-121.15800000000002</v>
+      </c>
+      <c r="Z16" s="30">
+        <f>Z13-Z15</f>
+        <v>-362.21599999999995</v>
+      </c>
+      <c r="AA16" s="30">
+        <f>AA13-AA15</f>
+        <v>-504.42599999999982</v>
+      </c>
+      <c r="AB16" s="30">
+        <f>AB13-AB15</f>
+        <v>-960.92900000000009</v>
+      </c>
+      <c r="AC16" s="103">
+        <f>AC13-SUM(AC14:AC15)</f>
+        <v>-1243.6319999999998</v>
+      </c>
+      <c r="AD16" s="64">
+        <f>AD13-AD15</f>
+        <v>-1285.9201707500001</v>
+      </c>
+      <c r="AE16" s="30">
+        <f>AE13-AE15</f>
+        <v>-1311.2096942250005</v>
+      </c>
+      <c r="AF16" s="30">
+        <f>AF13-AF15</f>
+        <v>-816.82956046800086</v>
+      </c>
+      <c r="AG16" s="30">
+        <f>AG13-AG15</f>
+        <v>257.8634248319986</v>
+      </c>
+      <c r="AH16" s="30">
+        <f>AH13-AH15</f>
+        <v>296.54293855679862</v>
+      </c>
+      <c r="AI16" s="30">
+        <f>AI13-AI15</f>
+        <v>1159.4828897570869</v>
+      </c>
+      <c r="AJ16" s="30">
+        <f>AJ13-AJ15</f>
+        <v>2044.1001297658768</v>
+      </c>
+      <c r="AK16" s="30">
+        <f>AK13-AK15</f>
+        <v>2187.1871388494883</v>
+      </c>
+      <c r="AL16" s="30">
+        <f>AL13-AL15</f>
+        <v>2340.2902385689531</v>
+      </c>
+      <c r="AM16" s="30">
+        <f>AM13-AM15</f>
+        <v>2504.1105552687795</v>
+      </c>
+    </row>
+    <row r="17" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F17" s="30">
         <v>0.42</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J17" s="30">
         <v>1.1559999999999999</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M17" s="30">
         <v>0.64800000000000002</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N17" s="30">
         <v>-15.366</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O17" s="30">
         <v>0.89</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P17" s="30">
         <v>1.286</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q17" s="30">
         <v>-14.849</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R17" s="30">
         <v>1.6439999999999999</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S17" s="30">
         <v>-2.8580000000000001</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T17" s="30">
         <v>2.5939999999999999</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U17" s="30">
         <v>3.58</v>
       </c>
-      <c r="V16" s="57">
-        <f>V15*V27</f>
-        <v>2.735348535894266</v>
-      </c>
-      <c r="Y16" s="30">
+      <c r="V17" s="103">
+        <v>9.1969999999999992</v>
+      </c>
+      <c r="W17" s="30"/>
+      <c r="Y17" s="30">
         <v>0.79100000000000004</v>
       </c>
-      <c r="Z16" s="30">
+      <c r="Z17" s="30">
         <v>-55.152999999999999</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA17" s="30">
         <v>-13.446999999999999</v>
       </c>
-      <c r="AB16" s="30">
+      <c r="AB17" s="30">
         <v>-11.029</v>
       </c>
-      <c r="AC16" s="64">
-        <f>SUM(S16:V16)</f>
-        <v>6.0513485358942658</v>
-      </c>
-      <c r="AD16" s="36">
-        <f>AD15*AD27</f>
-        <v>-19.449647525038095</v>
-      </c>
-      <c r="AE16" s="36">
-        <f t="shared" ref="AE16:AM16" si="32">AE15*AE27</f>
-        <v>-19.687082137003699</v>
-      </c>
-      <c r="AF16" s="36">
-        <f t="shared" si="32"/>
-        <v>-12.254799420767439</v>
-      </c>
-      <c r="AG16" s="36">
-        <f t="shared" si="32"/>
-        <v>7.7354998299583713</v>
-      </c>
-      <c r="AH16" s="36">
-        <f t="shared" si="32"/>
-        <v>14.826374674086857</v>
-      </c>
-      <c r="AI16" s="36">
-        <f t="shared" si="32"/>
-        <v>57.971124975679686</v>
-      </c>
-      <c r="AJ16" s="36">
-        <f t="shared" si="32"/>
-        <v>102.19968326594827</v>
-      </c>
-      <c r="AK16" s="36">
-        <f t="shared" si="32"/>
-        <v>109.35366109456464</v>
-      </c>
-      <c r="AL16" s="36">
-        <f t="shared" si="32"/>
-        <v>117.00841737118427</v>
-      </c>
-      <c r="AM16" s="36">
-        <f t="shared" si="32"/>
-        <v>125.19900658716716</v>
-      </c>
-    </row>
-    <row r="17" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="AC17" s="122">
+        <f>SUM(S17:V17)</f>
+        <v>12.512999999999998</v>
+      </c>
+      <c r="AD17" s="64">
+        <f>AD16*AD28</f>
+        <v>-19.288802561250002</v>
+      </c>
+      <c r="AE17" s="36">
+        <f t="shared" ref="AE17:AM17" si="23">AE16*AE28</f>
+        <v>-19.668145413375008</v>
+      </c>
+      <c r="AF17" s="36">
+        <f t="shared" si="23"/>
+        <v>-12.252443407020012</v>
+      </c>
+      <c r="AG17" s="36">
+        <f t="shared" si="23"/>
+        <v>7.735902744959958</v>
+      </c>
+      <c r="AH17" s="36">
+        <f t="shared" si="23"/>
+        <v>14.827146927839932</v>
+      </c>
+      <c r="AI17" s="36">
+        <f t="shared" si="23"/>
+        <v>57.974144487854346</v>
+      </c>
+      <c r="AJ17" s="36">
+        <f t="shared" si="23"/>
+        <v>102.20500648829385</v>
+      </c>
+      <c r="AK17" s="36">
+        <f t="shared" si="23"/>
+        <v>109.35935694247442</v>
+      </c>
+      <c r="AL17" s="36">
+        <f t="shared" si="23"/>
+        <v>117.01451192844766</v>
+      </c>
+      <c r="AM17" s="36">
+        <f t="shared" si="23"/>
+        <v>125.20552776343898</v>
+      </c>
+    </row>
+    <row r="18" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="29">
-        <f t="shared" ref="F17" si="33">F15-F16</f>
+      <c r="F18" s="29">
+        <f t="shared" ref="F18" si="24">F16-F17</f>
         <v>-47.158000000000008</v>
       </c>
-      <c r="J17" s="29">
-        <f t="shared" ref="J17" si="34">J15-J16</f>
+      <c r="J18" s="29">
+        <f t="shared" ref="J18" si="25">J16-J17</f>
         <v>-90.246999999999986</v>
       </c>
-      <c r="M17" s="29">
-        <f t="shared" ref="M17" si="35">M15-M16</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="26">M16-M17</f>
         <v>-116.914</v>
       </c>
-      <c r="N17" s="29">
-        <f t="shared" ref="N17" si="36">N15-N16</f>
+      <c r="N18" s="29">
+        <f t="shared" ref="N18" si="27">N16-N17</f>
         <v>-179.35099999999989</v>
       </c>
-      <c r="O17" s="29">
-        <f>O15-O16</f>
+      <c r="O18" s="29">
+        <f>O16-O17</f>
         <v>-206.54199999999992</v>
       </c>
-      <c r="P17" s="29">
-        <f>P15-P16</f>
+      <c r="P18" s="29">
+        <f>P16-P17</f>
         <v>-227.85299999999995</v>
       </c>
-      <c r="Q17" s="29">
-        <f t="shared" ref="Q17" si="37">Q15-Q16</f>
+      <c r="Q18" s="29">
+        <f t="shared" ref="Q18" si="28">Q16-Q17</f>
         <v>-224.10899999999998</v>
       </c>
-      <c r="R17" s="29">
-        <f>R15-R16</f>
+      <c r="R18" s="29">
+        <f>R16-R17</f>
         <v>-291.39599999999996</v>
       </c>
-      <c r="S17" s="29">
-        <f>S15-S16</f>
+      <c r="S18" s="29">
+        <f>S16-S17</f>
         <v>-221.62699999999992</v>
       </c>
-      <c r="T17" s="29">
-        <f>T15-T16</f>
+      <c r="T18" s="29">
+        <f>T16-T17</f>
         <v>-322.76899999999995</v>
       </c>
-      <c r="U17" s="29">
-        <f>U15-U16</f>
+      <c r="U18" s="29">
+        <f>U16-U17</f>
         <v>-482.32700000000006</v>
       </c>
-      <c r="V17" s="50">
-        <f>V15-V16</f>
-        <v>-276.27020212532085</v>
-      </c>
-      <c r="Y17" s="29">
-        <f t="shared" ref="Y17:Z17" si="38">Y15-Y16</f>
+      <c r="V18" s="102">
+        <f>V16-V17</f>
+        <v>-229.42199999999988</v>
+      </c>
+      <c r="Y18" s="29">
+        <f t="shared" ref="Y18:Z18" si="29">Y16-Y17</f>
         <v>-121.94900000000001</v>
       </c>
-      <c r="Z17" s="29">
-        <f t="shared" si="38"/>
+      <c r="Z18" s="29">
+        <f t="shared" si="29"/>
         <v>-307.06299999999993</v>
       </c>
-      <c r="AA17" s="29">
-        <f>AA15-AA16</f>
+      <c r="AA18" s="29">
+        <f>AA16-AA17</f>
         <v>-490.97899999999981</v>
       </c>
-      <c r="AB17" s="29">
-        <f>AB15-AB16</f>
+      <c r="AB18" s="29">
+        <f>AB16-AB17</f>
         <v>-949.90000000000009</v>
       </c>
-      <c r="AC17" s="59">
-        <f>AC15-AC16</f>
-        <v>-1302.9932021253201</v>
-      </c>
-      <c r="AD17" s="29">
-        <f t="shared" ref="AD17:AM17" si="39">AD15-AD16</f>
-        <v>-1277.193520810835</v>
-      </c>
-      <c r="AE17" s="29">
-        <f t="shared" si="39"/>
-        <v>-1292.7850603299096</v>
-      </c>
-      <c r="AF17" s="29">
-        <f t="shared" si="39"/>
-        <v>-804.73182863039517</v>
-      </c>
-      <c r="AG17" s="29">
-        <f t="shared" si="39"/>
-        <v>250.11449450198734</v>
-      </c>
-      <c r="AH17" s="29">
-        <f t="shared" si="39"/>
-        <v>281.70111880765023</v>
-      </c>
-      <c r="AI17" s="29">
-        <f t="shared" si="39"/>
-        <v>1101.451374537914</v>
-      </c>
-      <c r="AJ17" s="29">
-        <f t="shared" si="39"/>
-        <v>1941.7939820530169</v>
-      </c>
-      <c r="AK17" s="29">
-        <f t="shared" si="39"/>
-        <v>2077.7195607967278</v>
-      </c>
-      <c r="AL17" s="29">
-        <f t="shared" si="39"/>
-        <v>2223.1599300525008</v>
-      </c>
-      <c r="AM17" s="29">
-        <f t="shared" si="39"/>
-        <v>2378.7811251561757</v>
-      </c>
-      <c r="AN17" s="30">
-        <f>AM17*(1+$AP$24)</f>
-        <v>2331.205502653052</v>
-      </c>
-      <c r="AO17" s="30">
-        <f t="shared" ref="AO17:BW17" si="40">AN17*(1+$AP$24)</f>
-        <v>2284.581392599991</v>
-      </c>
-      <c r="AP17" s="30">
-        <f t="shared" si="40"/>
-        <v>2238.8897647479912</v>
-      </c>
-      <c r="AQ17" s="30">
-        <f t="shared" si="40"/>
-        <v>2194.1119694530312</v>
-      </c>
-      <c r="AR17" s="30">
-        <f t="shared" si="40"/>
-        <v>2150.2297300639707</v>
-      </c>
-      <c r="AS17" s="30">
-        <f t="shared" si="40"/>
-        <v>2107.225135462691</v>
-      </c>
-      <c r="AT17" s="30">
-        <f t="shared" si="40"/>
-        <v>2065.0806327534369</v>
-      </c>
-      <c r="AU17" s="30">
-        <f t="shared" si="40"/>
-        <v>2023.7790200983682</v>
-      </c>
-      <c r="AV17" s="30">
-        <f t="shared" si="40"/>
-        <v>1983.3034396964008</v>
-      </c>
-      <c r="AW17" s="30">
-        <f t="shared" si="40"/>
-        <v>1943.6373709024726</v>
-      </c>
-      <c r="AX17" s="30">
-        <f t="shared" si="40"/>
-        <v>1904.7646234844231</v>
-      </c>
-      <c r="AY17" s="30">
-        <f t="shared" si="40"/>
-        <v>1866.6693310147346</v>
-      </c>
-      <c r="AZ17" s="30">
-        <f t="shared" si="40"/>
-        <v>1829.3359443944398</v>
-      </c>
-      <c r="BA17" s="30">
-        <f t="shared" si="40"/>
-        <v>1792.7492255065511</v>
-      </c>
-      <c r="BB17" s="30">
-        <f t="shared" si="40"/>
-        <v>1756.89424099642</v>
-      </c>
-      <c r="BC17" s="30">
-        <f t="shared" si="40"/>
-        <v>1721.7563561764916</v>
-      </c>
-      <c r="BD17" s="30">
-        <f t="shared" si="40"/>
-        <v>1687.3212290529618</v>
-      </c>
-      <c r="BE17" s="30">
-        <f t="shared" si="40"/>
-        <v>1653.5748044719026</v>
-      </c>
-      <c r="BF17" s="30">
-        <f t="shared" si="40"/>
-        <v>1620.5033083824644</v>
-      </c>
-      <c r="BG17" s="30">
-        <f t="shared" si="40"/>
-        <v>1588.0932422148151</v>
-      </c>
-      <c r="BH17" s="30">
-        <f t="shared" si="40"/>
-        <v>1556.3313773705188</v>
-      </c>
-      <c r="BI17" s="30">
-        <f t="shared" si="40"/>
-        <v>1525.2047498231084</v>
-      </c>
-      <c r="BJ17" s="30">
-        <f t="shared" si="40"/>
-        <v>1494.7006548266461</v>
-      </c>
-      <c r="BK17" s="30">
-        <f t="shared" si="40"/>
-        <v>1464.8066417301131</v>
-      </c>
-      <c r="BL17" s="30">
-        <f t="shared" si="40"/>
-        <v>1435.5105088955108</v>
-      </c>
-      <c r="BM17" s="30">
-        <f t="shared" si="40"/>
-        <v>1406.8002987176005</v>
-      </c>
-      <c r="BN17" s="30">
-        <f t="shared" si="40"/>
-        <v>1378.6642927432486</v>
-      </c>
-      <c r="BO17" s="30">
-        <f t="shared" si="40"/>
-        <v>1351.0910068883836</v>
-      </c>
-      <c r="BP17" s="30">
-        <f t="shared" si="40"/>
-        <v>1324.0691867506159</v>
-      </c>
-      <c r="BQ17" s="30">
-        <f t="shared" si="40"/>
-        <v>1297.5878030156036</v>
-      </c>
-      <c r="BR17" s="30">
-        <f t="shared" si="40"/>
-        <v>1271.6360469552915</v>
-      </c>
-      <c r="BS17" s="30">
-        <f t="shared" si="40"/>
-        <v>1246.2033260161857</v>
-      </c>
-      <c r="BT17" s="30">
-        <f t="shared" si="40"/>
-        <v>1221.2792594958619</v>
-      </c>
-      <c r="BU17" s="30">
-        <f t="shared" si="40"/>
-        <v>1196.8536743059447</v>
-      </c>
-      <c r="BV17" s="30">
-        <f t="shared" si="40"/>
-        <v>1172.9166008198258</v>
-      </c>
-      <c r="BW17" s="30">
-        <f t="shared" si="40"/>
-        <v>1149.4582688034293</v>
-      </c>
-    </row>
-    <row r="18" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="28">
-        <f t="shared" ref="F18" si="41">F17/F19</f>
-        <v>-0.47434110160515558</v>
-      </c>
-      <c r="J18" s="28">
-        <f t="shared" ref="J18" si="42">J17/J19</f>
-        <v>-0.65525253589708876</v>
-      </c>
-      <c r="M18" s="28">
-        <f t="shared" ref="M18:U18" si="43">M17/M19</f>
-        <v>-0.79263151132966325</v>
-      </c>
-      <c r="N18" s="28">
-        <f t="shared" si="43"/>
-        <v>-1.1323903265248076</v>
-      </c>
-      <c r="O18" s="28">
-        <f t="shared" si="43"/>
-        <v>-1.2355912544819656</v>
-      </c>
-      <c r="P18" s="28">
-        <f t="shared" si="43"/>
-        <v>-1.3139765974420505</v>
-      </c>
-      <c r="Q18" s="28">
-        <f t="shared" si="43"/>
-        <v>-1.2645002263567628</v>
-      </c>
-      <c r="R18" s="28">
-        <f t="shared" si="43"/>
-        <v>-1.628504773126946</v>
-      </c>
-      <c r="S18" s="28">
-        <f t="shared" si="43"/>
-        <v>-1.2251441501410789</v>
-      </c>
-      <c r="T18" s="28">
-        <f t="shared" si="43"/>
-        <v>-1.7700728317826633</v>
-      </c>
-      <c r="U18" s="28">
-        <f t="shared" si="43"/>
-        <v>-2.6257295858747991</v>
-      </c>
-      <c r="V18" s="62">
-        <f>V17/V19</f>
-        <v>-1.5039814138873953</v>
-      </c>
-      <c r="Y18" s="44">
-        <f t="shared" ref="Y18:Z18" si="44">Y17/Y19</f>
-        <v>-1.2555191431999431</v>
-      </c>
-      <c r="Z18" s="44">
-        <f t="shared" si="44"/>
-        <v>-2.3605151435337697</v>
-      </c>
-      <c r="AA18" s="44">
-        <f>AA17/AA19</f>
-        <v>-3.3466258226346173</v>
-      </c>
-      <c r="AB18" s="44">
-        <f>AB17/AB19</f>
-        <v>-5.4535392358724044</v>
-      </c>
-      <c r="AC18" s="65">
-        <f>AC17/AC19</f>
-        <v>-7.0933366803313822</v>
-      </c>
-      <c r="AD18" s="44">
-        <f t="shared" ref="AD18:AM18" si="45">AD17/AD19</f>
-        <v>-6.9528863498842286</v>
-      </c>
-      <c r="AE18" s="44">
-        <f t="shared" si="45"/>
-        <v>-7.037764796673585</v>
-      </c>
-      <c r="AF18" s="44">
-        <f t="shared" si="45"/>
-        <v>-4.3808623011565953</v>
-      </c>
-      <c r="AG18" s="44">
-        <f t="shared" si="45"/>
-        <v>1.3615929194716196</v>
-      </c>
-      <c r="AH18" s="44">
-        <f t="shared" si="45"/>
-        <v>1.5335466644564351</v>
-      </c>
-      <c r="AI18" s="44">
-        <f t="shared" si="45"/>
-        <v>5.9961674580246704</v>
-      </c>
-      <c r="AJ18" s="44">
-        <f t="shared" si="45"/>
-        <v>10.570890512764668</v>
-      </c>
-      <c r="AK18" s="44">
-        <f t="shared" si="45"/>
-        <v>11.310852848658195</v>
-      </c>
-      <c r="AL18" s="44">
-        <f t="shared" si="45"/>
-        <v>12.102612548064279</v>
-      </c>
-      <c r="AM18" s="44">
-        <f t="shared" si="45"/>
-        <v>12.949795426428778</v>
+      <c r="AC18" s="121">
+        <f>AC16-AC17</f>
+        <v>-1256.1449999999998</v>
+      </c>
+      <c r="AD18" s="59">
+        <f t="shared" ref="AD18:AM18" si="30">AD16-AD17</f>
+        <v>-1266.6313681887502</v>
+      </c>
+      <c r="AE18" s="29">
+        <f t="shared" si="30"/>
+        <v>-1291.5415488116255</v>
+      </c>
+      <c r="AF18" s="29">
+        <f t="shared" si="30"/>
+        <v>-804.57711706098087</v>
+      </c>
+      <c r="AG18" s="29">
+        <f t="shared" si="30"/>
+        <v>250.12752208703864</v>
+      </c>
+      <c r="AH18" s="29">
+        <f t="shared" si="30"/>
+        <v>281.7157916289587</v>
+      </c>
+      <c r="AI18" s="29">
+        <f t="shared" si="30"/>
+        <v>1101.5087452692326</v>
+      </c>
+      <c r="AJ18" s="29">
+        <f t="shared" si="30"/>
+        <v>1941.895123277583</v>
+      </c>
+      <c r="AK18" s="29">
+        <f t="shared" si="30"/>
+        <v>2077.827781907014</v>
+      </c>
+      <c r="AL18" s="29">
+        <f t="shared" si="30"/>
+        <v>2223.2757266405056</v>
+      </c>
+      <c r="AM18" s="29">
+        <f t="shared" si="30"/>
+        <v>2378.9050275053405</v>
+      </c>
+      <c r="AN18" s="30">
+        <f>AM18*(1+$AP$25)</f>
+        <v>2331.3269269552338</v>
+      </c>
+      <c r="AO18" s="30">
+        <f t="shared" ref="AO18:BW18" si="31">AN18*(1+$AP$25)</f>
+        <v>2284.700388416129</v>
+      </c>
+      <c r="AP18" s="30">
+        <f t="shared" si="31"/>
+        <v>2239.0063806478065</v>
+      </c>
+      <c r="AQ18" s="30">
+        <f t="shared" si="31"/>
+        <v>2194.2262530348503</v>
+      </c>
+      <c r="AR18" s="30">
+        <f t="shared" si="31"/>
+        <v>2150.3417279741534</v>
+      </c>
+      <c r="AS18" s="30">
+        <f t="shared" si="31"/>
+        <v>2107.3348934146702</v>
+      </c>
+      <c r="AT18" s="30">
+        <f t="shared" si="31"/>
+        <v>2065.1881955463768</v>
+      </c>
+      <c r="AU18" s="30">
+        <f t="shared" si="31"/>
+        <v>2023.8844316354493</v>
+      </c>
+      <c r="AV18" s="30">
+        <f t="shared" si="31"/>
+        <v>1983.4067430027403</v>
+      </c>
+      <c r="AW18" s="30">
+        <f t="shared" si="31"/>
+        <v>1943.7386081426855</v>
+      </c>
+      <c r="AX18" s="30">
+        <f t="shared" si="31"/>
+        <v>1904.8638359798317</v>
+      </c>
+      <c r="AY18" s="30">
+        <f t="shared" si="31"/>
+        <v>1866.766559260235</v>
+      </c>
+      <c r="AZ18" s="30">
+        <f t="shared" si="31"/>
+        <v>1829.4312280750303</v>
+      </c>
+      <c r="BA18" s="30">
+        <f t="shared" si="31"/>
+        <v>1792.8426035135296</v>
+      </c>
+      <c r="BB18" s="30">
+        <f t="shared" si="31"/>
+        <v>1756.985751443259</v>
+      </c>
+      <c r="BC18" s="30">
+        <f t="shared" si="31"/>
+        <v>1721.8460364143939</v>
+      </c>
+      <c r="BD18" s="30">
+        <f t="shared" si="31"/>
+        <v>1687.4091156861059</v>
+      </c>
+      <c r="BE18" s="30">
+        <f t="shared" si="31"/>
+        <v>1653.6609333723839</v>
+      </c>
+      <c r="BF18" s="30">
+        <f t="shared" si="31"/>
+        <v>1620.5877147049362</v>
+      </c>
+      <c r="BG18" s="30">
+        <f t="shared" si="31"/>
+        <v>1588.1759604108374</v>
+      </c>
+      <c r="BH18" s="30">
+        <f t="shared" si="31"/>
+        <v>1556.4124412026206</v>
+      </c>
+      <c r="BI18" s="30">
+        <f t="shared" si="31"/>
+        <v>1525.2841923785682</v>
+      </c>
+      <c r="BJ18" s="30">
+        <f t="shared" si="31"/>
+        <v>1494.7785085309968</v>
+      </c>
+      <c r="BK18" s="30">
+        <f t="shared" si="31"/>
+        <v>1464.8829383603768</v>
+      </c>
+      <c r="BL18" s="30">
+        <f t="shared" si="31"/>
+        <v>1435.5852795931692</v>
+      </c>
+      <c r="BM18" s="30">
+        <f t="shared" si="31"/>
+        <v>1406.8735740013058</v>
+      </c>
+      <c r="BN18" s="30">
+        <f t="shared" si="31"/>
+        <v>1378.7361025212797</v>
+      </c>
+      <c r="BO18" s="30">
+        <f t="shared" si="31"/>
+        <v>1351.1613804708541</v>
+      </c>
+      <c r="BP18" s="30">
+        <f t="shared" si="31"/>
+        <v>1324.138152861437</v>
+      </c>
+      <c r="BQ18" s="30">
+        <f t="shared" si="31"/>
+        <v>1297.6553898042082</v>
+      </c>
+      <c r="BR18" s="30">
+        <f t="shared" si="31"/>
+        <v>1271.702282008124</v>
+      </c>
+      <c r="BS18" s="30">
+        <f t="shared" si="31"/>
+        <v>1246.2682363679614</v>
+      </c>
+      <c r="BT18" s="30">
+        <f t="shared" si="31"/>
+        <v>1221.3428716406022</v>
+      </c>
+      <c r="BU18" s="30">
+        <f t="shared" si="31"/>
+        <v>1196.9160142077901</v>
+      </c>
+      <c r="BV18" s="30">
+        <f t="shared" si="31"/>
+        <v>1172.9776939236342</v>
+      </c>
+      <c r="BW18" s="30">
+        <f t="shared" si="31"/>
+        <v>1149.5181400451615</v>
       </c>
     </row>
     <row r="19" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" ref="F19" si="32">F18/F20</f>
+        <v>-0.47434110160515558</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" ref="J19" si="33">J18/J20</f>
+        <v>-0.65525253589708876</v>
+      </c>
+      <c r="M19" s="28">
+        <f t="shared" ref="M19:U19" si="34">M18/M20</f>
+        <v>-0.79263151132966325</v>
+      </c>
+      <c r="N19" s="28">
+        <f t="shared" si="34"/>
+        <v>-1.1323903265248076</v>
+      </c>
+      <c r="O19" s="28">
+        <f t="shared" si="34"/>
+        <v>-1.2355912544819656</v>
+      </c>
+      <c r="P19" s="28">
+        <f t="shared" si="34"/>
+        <v>-1.3139765974420505</v>
+      </c>
+      <c r="Q19" s="28">
+        <f t="shared" si="34"/>
+        <v>-1.2645002263567628</v>
+      </c>
+      <c r="R19" s="28">
+        <f t="shared" si="34"/>
+        <v>-1.628504773126946</v>
+      </c>
+      <c r="S19" s="28">
+        <f t="shared" si="34"/>
+        <v>-1.2251441501410789</v>
+      </c>
+      <c r="T19" s="28">
+        <f t="shared" si="34"/>
+        <v>-1.7700728317826633</v>
+      </c>
+      <c r="U19" s="28">
+        <f t="shared" si="34"/>
+        <v>-2.6257295858747991</v>
+      </c>
+      <c r="V19" s="104">
+        <f>V18/V20</f>
+        <v>-1.2393103392617855</v>
+      </c>
+      <c r="Y19" s="44">
+        <f t="shared" ref="Y19:Z19" si="35">Y18/Y20</f>
+        <v>-1.2555191431999431</v>
+      </c>
+      <c r="Z19" s="44">
+        <f t="shared" si="35"/>
+        <v>-2.3605151435337697</v>
+      </c>
+      <c r="AA19" s="44">
+        <f>AA18/AA20</f>
+        <v>-3.3466258226346173</v>
+      </c>
+      <c r="AB19" s="44">
+        <f>AB18/AB20</f>
+        <v>-5.4535392358724044</v>
+      </c>
+      <c r="AC19" s="123">
+        <f>AC18/AC20</f>
+        <v>-6.8636192082455194</v>
+      </c>
+      <c r="AD19" s="65">
+        <f t="shared" ref="AD19:AM19" si="36">AD18/AD20</f>
+        <v>-6.9209170823962278</v>
+      </c>
+      <c r="AE19" s="44">
+        <f t="shared" si="36"/>
+        <v>-7.0570271606149308</v>
+      </c>
+      <c r="AF19" s="44">
+        <f t="shared" si="36"/>
+        <v>-4.3962368637176068</v>
+      </c>
+      <c r="AG19" s="44">
+        <f t="shared" si="36"/>
+        <v>1.3667053286901227</v>
+      </c>
+      <c r="AH19" s="44">
+        <f t="shared" si="36"/>
+        <v>1.5393047129834641</v>
+      </c>
+      <c r="AI19" s="44">
+        <f t="shared" si="36"/>
+        <v>6.0186814277653671</v>
+      </c>
+      <c r="AJ19" s="44">
+        <f t="shared" si="36"/>
+        <v>10.610581317066359</v>
+      </c>
+      <c r="AK19" s="44">
+        <f t="shared" si="36"/>
+        <v>11.353322009261005</v>
+      </c>
+      <c r="AL19" s="44">
+        <f t="shared" si="36"/>
+        <v>12.148054549909279</v>
+      </c>
+      <c r="AM19" s="44">
+        <f t="shared" si="36"/>
+        <v>12.998418368402925</v>
+      </c>
+    </row>
+    <row r="20" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F20" s="44">
         <v>99.417907999999997</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44">
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44">
         <v>137.728578</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M20" s="44">
         <v>147.50107499999999</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N20" s="44">
         <v>158.382667</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O20" s="28">
         <v>167.16045800000001</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P20" s="28">
         <v>173.40719799999999</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q20" s="44">
         <v>177.23128500000001</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R20" s="28">
         <v>178.93469200000001</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S20" s="28">
         <v>180.89871299999999</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T20" s="28">
         <v>182.34786399999999</v>
       </c>
-      <c r="U19" s="28">
+      <c r="U20" s="28">
         <v>183.692564</v>
       </c>
-      <c r="V19" s="61">
-        <f>U19</f>
-        <v>183.692564</v>
-      </c>
-      <c r="Y19" s="44">
+      <c r="V20" s="105">
+        <v>185.12070199999999</v>
+      </c>
+      <c r="Y20" s="44">
         <v>97.130339000000006</v>
       </c>
-      <c r="Z19" s="44">
+      <c r="Z20" s="44">
         <v>130.083046</v>
       </c>
-      <c r="AA19" s="44">
+      <c r="AA20" s="44">
         <v>146.708663</v>
       </c>
-      <c r="AB19" s="44">
+      <c r="AB20" s="44">
         <v>174.180465</v>
       </c>
-      <c r="AC19" s="64">
-        <f>V19</f>
-        <v>183.692564</v>
-      </c>
-      <c r="AD19" s="36">
-        <f>AC19</f>
-        <v>183.692564</v>
-      </c>
-      <c r="AE19" s="36">
-        <f t="shared" ref="AE19:AM19" si="46">AD19</f>
-        <v>183.692564</v>
-      </c>
-      <c r="AF19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-      <c r="AG19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-      <c r="AH19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-      <c r="AI19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-      <c r="AJ19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-      <c r="AK19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-      <c r="AL19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-      <c r="AM19" s="36">
-        <f t="shared" si="46"/>
-        <v>183.692564</v>
-      </c>
-    </row>
-    <row r="21" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="AC20" s="122">
+        <f>AVERAGE(S20:V20)</f>
+        <v>183.01496075</v>
+      </c>
+      <c r="AD20" s="64">
+        <f>AC20</f>
+        <v>183.01496075</v>
+      </c>
+      <c r="AE20" s="36">
+        <f t="shared" ref="AE20:AM20" si="37">AD20</f>
+        <v>183.01496075</v>
+      </c>
+      <c r="AF20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+      <c r="AG20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+      <c r="AH20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+      <c r="AI20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+      <c r="AJ20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+      <c r="AK20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+      <c r="AL20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+      <c r="AM20" s="36">
+        <f t="shared" si="37"/>
+        <v>183.01496075</v>
+      </c>
+    </row>
+    <row r="22" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J22" s="32">
         <f>J4/F4-1</f>
         <v>0.62124697751368063</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N22" s="32">
         <f>N4/J4-1</f>
         <v>0.65474120232833388</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q22" s="32">
         <f>Q4/M4-1</f>
         <v>0.65229290419649577</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R22" s="32">
         <f>R4/N4-1</f>
         <v>0.53760148880658276</v>
       </c>
-      <c r="S21" s="32">
+      <c r="S22" s="32">
         <f>S4/O4-1</f>
         <v>0.4836962785683776</v>
       </c>
-      <c r="T21" s="32">
+      <c r="T22" s="32">
         <f>T4/P4-1</f>
         <v>0.41024111604933844</v>
       </c>
-      <c r="U21" s="32">
-        <f t="shared" ref="U21" si="47">U4/Q4-1</f>
+      <c r="U22" s="32">
+        <f>U4/Q4-1</f>
         <v>0.32810304576208882</v>
       </c>
-      <c r="V21" s="50"/>
-      <c r="Z21" s="32">
+      <c r="V22" s="32">
+        <f>V4/R4-1</f>
+        <v>0.21575947144091212</v>
+      </c>
+      <c r="Z22" s="32">
         <f>Z4/Y4-1</f>
         <v>0.74515549935622039</v>
       </c>
-      <c r="AA21" s="32">
+      <c r="AA22" s="32">
         <f>AA4/Z4-1</f>
         <v>0.55295345483521796</v>
       </c>
-      <c r="AB21" s="32">
+      <c r="AB22" s="32">
         <f>AB4/AA4-1</f>
         <v>0.613053532344634</v>
       </c>
-      <c r="AC21" s="60">
+      <c r="AC22" s="124">
         <f>AC4/AB4-1</f>
-        <v>0.34635414278080301</v>
-      </c>
-      <c r="AD21" s="72">
+        <v>0.34642426963666861</v>
+      </c>
+      <c r="AD22" s="60">
         <v>0.35</v>
       </c>
-      <c r="AE21" s="72">
+      <c r="AE22" s="71">
         <v>0.3</v>
       </c>
-      <c r="AF21" s="72">
+      <c r="AF22" s="71">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG21" s="72">
+      <c r="AG22" s="71">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="72">
+      <c r="AH22" s="71">
         <v>0.15</v>
       </c>
-      <c r="AI21" s="72">
+      <c r="AI22" s="71">
         <v>0.15</v>
       </c>
-      <c r="AJ21" s="72">
+      <c r="AJ22" s="71">
         <v>0.11</v>
       </c>
-      <c r="AK21" s="72">
+      <c r="AK22" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL21" s="72">
+      <c r="AL22" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM21" s="72">
+      <c r="AM22" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="31">
-        <f t="shared" ref="N22:T22" si="48">N4/M4-1</f>
+      <c r="N23" s="31">
+        <f>N4/M4-1</f>
         <v>0.22349984039074133</v>
       </c>
-      <c r="O22" s="31">
-        <f t="shared" si="48"/>
+      <c r="O23" s="31">
+        <f>O4/N4-1</f>
         <v>7.6443649765549404E-2</v>
       </c>
-      <c r="P22" s="31">
-        <f t="shared" si="48"/>
+      <c r="P23" s="31">
+        <f>P4/O4-1</f>
         <v>0.13380441636101059</v>
       </c>
-      <c r="Q22" s="31">
-        <f t="shared" si="48"/>
+      <c r="Q23" s="31">
+        <f>Q4/P4-1</f>
         <v>0.10650575320922484</v>
       </c>
-      <c r="R22" s="31">
-        <f t="shared" si="48"/>
+      <c r="R23" s="31">
+        <f>R4/Q4-1</f>
         <v>0.13857244763407617</v>
       </c>
-      <c r="S22" s="31">
-        <f t="shared" si="48"/>
+      <c r="S23" s="31">
+        <f>S4/R4-1</f>
         <v>3.8705704223346515E-2</v>
       </c>
-      <c r="T22" s="31">
-        <f t="shared" si="48"/>
+      <c r="T23" s="31">
+        <f>T4/S4-1</f>
         <v>7.7671777308385259E-2</v>
       </c>
-      <c r="U22" s="31">
-        <f t="shared" ref="U22" si="49">U4/T4-1</f>
+      <c r="U23" s="31">
+        <f>U4/T4-1</f>
         <v>4.2058442535887863E-2</v>
       </c>
-      <c r="V22" s="58">
-        <f>U22</f>
+      <c r="V23" s="106">
+        <f>U23</f>
         <v>4.2058442535887863E-2</v>
       </c>
-      <c r="Y22" s="45" t="s">
+      <c r="Y23" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z22" s="45" t="s">
+      <c r="Z23" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AA22" s="45" t="s">
+      <c r="AA23" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AB22" s="45" t="s">
+      <c r="AB23" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC22" s="67" t="s">
+      <c r="AC23" s="125" t="s">
         <v>1715</v>
       </c>
-      <c r="AD22" s="73" t="s">
+      <c r="AD23" s="66" t="s">
         <v>1715</v>
       </c>
-      <c r="AE22" s="73" t="s">
+      <c r="AE23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AF22" s="73" t="s">
+      <c r="AF23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AG22" s="73" t="s">
+      <c r="AG23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AH22" s="73" t="s">
+      <c r="AH23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AI22" s="73" t="s">
+      <c r="AI23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AJ22" s="73" t="s">
+      <c r="AJ23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AK22" s="73" t="s">
+      <c r="AK23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AL22" s="73" t="s">
+      <c r="AL23" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="AM22" s="73" t="s">
+      <c r="AM23" s="72" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="24" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F25" s="31">
         <f>F6/F4</f>
         <v>0.52869771221035522</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J25" s="31">
         <f>J6/J4</f>
         <v>0.52740743424389536</v>
       </c>
-      <c r="M24" s="31">
-        <f t="shared" ref="M24:T24" si="50">M6/M4</f>
+      <c r="M25" s="31">
+        <f>M6/M4</f>
         <v>0.51537941241469831</v>
       </c>
-      <c r="N24" s="31">
-        <f t="shared" si="50"/>
+      <c r="N25" s="31">
+        <f>N6/N4</f>
         <v>0.51473480632742796</v>
       </c>
-      <c r="O24" s="31">
-        <f t="shared" si="50"/>
+      <c r="O25" s="31">
+        <f>O6/O4</f>
         <v>0.50561028359898841</v>
       </c>
-      <c r="P24" s="31">
-        <f t="shared" si="50"/>
+      <c r="P25" s="31">
+        <f>P6/P4</f>
         <v>0.49518859194745046</v>
       </c>
-      <c r="Q24" s="31">
-        <f t="shared" si="50"/>
+      <c r="Q25" s="31">
+        <f>Q6/Q4</f>
         <v>0.49260581267158088</v>
       </c>
-      <c r="R24" s="31">
-        <f t="shared" si="50"/>
+      <c r="R25" s="31">
+        <f>R6/R4</f>
         <v>0.47054265589550326</v>
       </c>
-      <c r="S24" s="31">
-        <f t="shared" si="50"/>
+      <c r="S25" s="31">
+        <f>S6/S4</f>
         <v>0.48559397644177338</v>
       </c>
-      <c r="T24" s="31">
-        <f t="shared" si="50"/>
+      <c r="T25" s="31">
+        <f>T6/T4</f>
         <v>0.47202746794946543</v>
       </c>
-      <c r="U24" s="31">
-        <f t="shared" ref="U24" si="51">U6/U4</f>
+      <c r="U25" s="31">
+        <f>U6/U4</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="V24" s="58">
-        <f>U24</f>
+      <c r="V25" s="106">
+        <f>U25</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="Y24" s="31">
+      <c r="Y25" s="31">
         <f>Y6/Y4</f>
         <v>0.53721539472085189</v>
       </c>
-      <c r="Z24" s="31">
+      <c r="Z25" s="31">
         <f>Z6/Z4</f>
         <v>0.53674233208869704</v>
       </c>
-      <c r="AA24" s="31">
+      <c r="AA25" s="31">
         <f>AA6/AA4</f>
         <v>0.51973746946263322</v>
       </c>
-      <c r="AB24" s="31">
+      <c r="AB25" s="31">
         <f>AB6/AB4</f>
         <v>0.48937079123764576</v>
       </c>
-      <c r="AC24" s="63">
+      <c r="AC25" s="108">
         <f>AC6/AC4</f>
-        <v>0.49013092047085383</v>
-      </c>
-      <c r="AD24" s="42">
+        <v>0.47397408633515076</v>
+      </c>
+      <c r="AD25" s="63">
         <v>0.5</v>
       </c>
-      <c r="AE24" s="42">
+      <c r="AE25" s="42">
         <v>0.5</v>
       </c>
-      <c r="AF24" s="42">
+      <c r="AF25" s="42">
         <v>0.53</v>
       </c>
-      <c r="AG24" s="42">
+      <c r="AG25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AH24" s="42">
+      <c r="AH25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AI24" s="42">
+      <c r="AI25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AJ24" s="42">
+      <c r="AJ25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AK24" s="42">
+      <c r="AK25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AL24" s="42">
+      <c r="AL25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AM24" s="42">
+      <c r="AM25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AO24" s="74" t="s">
+      <c r="AO25" s="73" t="s">
         <v>1725</v>
       </c>
-      <c r="AP24" s="75">
+      <c r="AP25" s="74">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F26" s="31">
         <f>F13/F4</f>
         <v>-0.21530381494062717</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J26" s="31">
         <f>J13/J4</f>
         <v>-0.28318902011931496</v>
       </c>
-      <c r="M25" s="31">
-        <f t="shared" ref="M25:T25" si="52">M13/M4</f>
+      <c r="M26" s="31">
+        <f>M13/M4</f>
         <v>-0.25062002058178134</v>
       </c>
-      <c r="N25" s="31">
-        <f t="shared" si="52"/>
+      <c r="N26" s="31">
+        <f>N13/N4</f>
         <v>-0.33806674086372651</v>
       </c>
-      <c r="O25" s="31">
-        <f t="shared" si="52"/>
+      <c r="O26" s="31">
+        <f>O13/O4</f>
         <v>-0.33447968433256259</v>
       </c>
-      <c r="P25" s="31">
-        <f t="shared" si="52"/>
+      <c r="P26" s="31">
+        <f>P13/P4</f>
         <v>-0.30238395290396158</v>
       </c>
-      <c r="Q25" s="31">
-        <f t="shared" si="52"/>
+      <c r="Q26" s="31">
+        <f>Q13/Q4</f>
         <v>-0.3139050712263029</v>
       </c>
-      <c r="R25" s="31">
-        <f t="shared" si="52"/>
+      <c r="R26" s="31">
+        <f>R13/R4</f>
         <v>-0.33655060136886167</v>
       </c>
-      <c r="S25" s="31">
-        <f t="shared" si="52"/>
+      <c r="S26" s="31">
+        <f>S13/S4</f>
         <v>-0.24882020373262284</v>
       </c>
-      <c r="T25" s="31">
-        <f t="shared" si="52"/>
+      <c r="T26" s="31">
+        <f>T13/T4</f>
         <v>-0.33066696065315881</v>
       </c>
-      <c r="U25" s="31">
-        <f t="shared" ref="U25:V25" si="53">U13/U4</f>
+      <c r="U26" s="31">
+        <f>U13/U4</f>
         <v>-0.46488611741249003</v>
       </c>
-      <c r="V25" s="58">
-        <f t="shared" si="53"/>
-        <v>-0.25658272390663611</v>
-      </c>
-      <c r="Y25" s="31">
+      <c r="V26" s="106">
+        <f>V13/V4</f>
+        <v>-0.2133247574113728</v>
+      </c>
+      <c r="Y26" s="31">
         <f>Y13/Y4</f>
         <v>-0.17726634331538135</v>
       </c>
-      <c r="Z25" s="31">
+      <c r="Z26" s="31">
         <f>Z13/Z4</f>
         <v>-0.32595454433267396</v>
       </c>
-      <c r="AA25" s="31">
+      <c r="AA26" s="31">
         <f>AA13/AA4</f>
         <v>-0.27977506788604217</v>
       </c>
-      <c r="AB25" s="31">
+      <c r="AB26" s="31">
         <f>AB13/AB4</f>
         <v>-0.32218010942914083</v>
       </c>
-      <c r="AC25" s="63">
+      <c r="AC26" s="108">
         <f>AC13/AC4</f>
-        <v>-0.32659124514343774</v>
-      </c>
-      <c r="AD25" s="31">
-        <f t="shared" ref="AD25:AM25" si="54">AD13/AD4</f>
-        <v>-0.24705910324479791</v>
-      </c>
-      <c r="AE25" s="31">
-        <f t="shared" si="54"/>
-        <v>-0.19500000000000003</v>
-      </c>
-      <c r="AF25" s="31">
-        <f t="shared" si="54"/>
-        <v>-9.5000000000000057E-2</v>
-      </c>
-      <c r="AG25" s="31">
-        <f t="shared" si="54"/>
-        <v>2.4999999999999977E-2</v>
-      </c>
-      <c r="AH25" s="31">
-        <f t="shared" si="54"/>
-        <v>2.4999999999999942E-2</v>
-      </c>
-      <c r="AI25" s="31">
-        <f t="shared" si="54"/>
-        <v>8.4999999999999923E-2</v>
-      </c>
-      <c r="AJ25" s="31">
-        <f t="shared" si="54"/>
-        <v>0.1349999999999999</v>
-      </c>
-      <c r="AK25" s="31">
-        <f t="shared" si="54"/>
-        <v>0.13499999999999987</v>
-      </c>
-      <c r="AL25" s="31">
-        <f t="shared" si="54"/>
-        <v>0.13499999999999998</v>
-      </c>
-      <c r="AM25" s="31">
-        <f t="shared" si="54"/>
+        <v>-0.31500441285506353</v>
+      </c>
+      <c r="AD26" s="63">
+        <f>AD13/AD4</f>
+        <v>-0.24668770568483503</v>
+      </c>
+      <c r="AE26" s="31">
+        <f>AE13/AE4</f>
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="AF26" s="31">
+        <f>AF13/AF4</f>
+        <v>-9.5000000000000084E-2</v>
+      </c>
+      <c r="AG26" s="31">
+        <f>AG13/AG4</f>
+        <v>2.4999999999999863E-2</v>
+      </c>
+      <c r="AH26" s="31">
+        <f>AH13/AH4</f>
+        <v>2.4999999999999883E-2</v>
+      </c>
+      <c r="AI26" s="31">
+        <f>AI13/AI4</f>
+        <v>8.4999999999999937E-2</v>
+      </c>
+      <c r="AJ26" s="31">
+        <f>AJ13/AJ4</f>
+        <v>0.13499999999999993</v>
+      </c>
+      <c r="AK26" s="31">
+        <f>AK13/AK4</f>
+        <v>0.13499999999999993</v>
+      </c>
+      <c r="AL26" s="31">
+        <f>AL13/AL4</f>
         <v>0.13499999999999995</v>
       </c>
-      <c r="AO25" s="76" t="s">
+      <c r="AM26" s="31">
+        <f>AM13/AM4</f>
+        <v>0.13499999999999993</v>
+      </c>
+      <c r="AO26" s="75" t="s">
         <v>1726</v>
       </c>
-      <c r="AP25" s="77">
+      <c r="AP26" s="76">
         <v>0.08</v>
-      </c>
-    </row>
-    <row r="26" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="31">
-        <f>F17/F4</f>
-        <v>-0.23082495521336066</v>
-      </c>
-      <c r="J26" s="31">
-        <f>J17/J4</f>
-        <v>-0.27246515952950268</v>
-      </c>
-      <c r="M26" s="31">
-        <f t="shared" ref="M26:T26" si="55">M17/M4</f>
-        <v>-0.26098680935511165</v>
-      </c>
-      <c r="N26" s="31">
-        <f t="shared" si="55"/>
-        <v>-0.3272291047090804</v>
-      </c>
-      <c r="O26" s="31">
-        <f t="shared" si="55"/>
-        <v>-0.35007830667742379</v>
-      </c>
-      <c r="P26" s="31">
-        <f t="shared" si="55"/>
-        <v>-0.34062257542257712</v>
-      </c>
-      <c r="Q26" s="31">
-        <f t="shared" si="55"/>
-        <v>-0.30277798793800387</v>
-      </c>
-      <c r="R26" s="31">
-        <f t="shared" si="55"/>
-        <v>-0.34577048308857727</v>
-      </c>
-      <c r="S26" s="31">
-        <f t="shared" si="55"/>
-        <v>-0.25318296523842099</v>
-      </c>
-      <c r="T26" s="31">
-        <f t="shared" si="55"/>
-        <v>-0.34215045465435023</v>
-      </c>
-      <c r="U26" s="31">
-        <f t="shared" ref="U26:V26" si="56">U17/U4</f>
-        <v>-0.49065338799426272</v>
-      </c>
-      <c r="V26" s="58">
-        <f t="shared" si="56"/>
-        <v>-0.26969642965777518</v>
-      </c>
-      <c r="Y26" s="31">
-        <f>Y17/Y4</f>
-        <v>-0.18759450948902193</v>
-      </c>
-      <c r="Z26" s="31">
-        <f>Z17/Z4</f>
-        <v>-0.27066695578896882</v>
-      </c>
-      <c r="AA26" s="31">
-        <f>AA17/AA4</f>
-        <v>-0.27868412329376707</v>
-      </c>
-      <c r="AB26" s="31">
-        <f>AB17/AB4</f>
-        <v>-0.33425538885207784</v>
-      </c>
-      <c r="AC26" s="63">
-        <f>AC17/AC4</f>
-        <v>-0.34055194806242556</v>
-      </c>
-      <c r="AD26" s="31">
-        <f t="shared" ref="AD26:AM26" si="57">AD17/AD4</f>
-        <v>-0.24726585984251753</v>
-      </c>
-      <c r="AE26" s="31">
-        <f t="shared" si="57"/>
-        <v>-0.19252645882458369</v>
-      </c>
-      <c r="AF26" s="31">
-        <f t="shared" si="57"/>
-        <v>-9.3627905331005942E-2</v>
-      </c>
-      <c r="AG26" s="31">
-        <f t="shared" si="57"/>
-        <v>2.424999999999998E-2</v>
-      </c>
-      <c r="AH26" s="31">
-        <f t="shared" si="57"/>
-        <v>2.3749999999999945E-2</v>
-      </c>
-      <c r="AI26" s="31">
-        <f t="shared" si="57"/>
-        <v>8.0749999999999933E-2</v>
-      </c>
-      <c r="AJ26" s="31">
-        <f t="shared" si="57"/>
-        <v>0.12824999999999989</v>
-      </c>
-      <c r="AK26" s="31">
-        <f t="shared" si="57"/>
-        <v>0.12824999999999986</v>
-      </c>
-      <c r="AL26" s="31">
-        <f t="shared" si="57"/>
-        <v>0.12824999999999998</v>
-      </c>
-      <c r="AM26" s="31">
-        <f t="shared" si="57"/>
-        <v>0.12824999999999995</v>
-      </c>
-      <c r="AO26" s="76" t="s">
-        <v>1727</v>
-      </c>
-      <c r="AP26" s="78">
-        <f>NPV(AP25,Y17:BW17)</f>
-        <v>6551.54204468635</v>
       </c>
     </row>
     <row r="27" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="31">
+        <f>F18/F4</f>
+        <v>-0.23082495521336066</v>
+      </c>
+      <c r="J27" s="31">
+        <f>J18/J4</f>
+        <v>-0.27246515952950268</v>
+      </c>
+      <c r="M27" s="31">
+        <f>M18/M4</f>
+        <v>-0.26098680935511165</v>
+      </c>
+      <c r="N27" s="31">
+        <f>N18/N4</f>
+        <v>-0.3272291047090804</v>
+      </c>
+      <c r="O27" s="31">
+        <f>O18/O4</f>
+        <v>-0.35007830667742379</v>
+      </c>
+      <c r="P27" s="31">
+        <f>P18/P4</f>
+        <v>-0.34062257542257712</v>
+      </c>
+      <c r="Q27" s="31">
+        <f>Q18/Q4</f>
+        <v>-0.30277798793800387</v>
+      </c>
+      <c r="R27" s="31">
+        <f>R18/R4</f>
+        <v>-0.34577048308857727</v>
+      </c>
+      <c r="S27" s="31">
+        <f>S18/S4</f>
+        <v>-0.25318296523842099</v>
+      </c>
+      <c r="T27" s="31">
+        <f>T18/T4</f>
+        <v>-0.34215045465435023</v>
+      </c>
+      <c r="U27" s="31">
+        <f>U18/U4</f>
+        <v>-0.49065338799426272</v>
+      </c>
+      <c r="V27" s="106">
+        <f>V18/V4</f>
+        <v>-0.2239194045525261</v>
+      </c>
+      <c r="Y27" s="31">
+        <f>Y18/Y4</f>
+        <v>-0.18759450948902193</v>
+      </c>
+      <c r="Z27" s="31">
+        <f>Z18/Z4</f>
+        <v>-0.27066695578896882</v>
+      </c>
+      <c r="AA27" s="31">
+        <f>AA18/AA4</f>
+        <v>-0.27868412329376707</v>
+      </c>
+      <c r="AB27" s="31">
+        <f>AB18/AB4</f>
+        <v>-0.33425538885207784</v>
+      </c>
+      <c r="AC27" s="108">
+        <f>AC18/AC4</f>
+        <v>-0.32829054331824215</v>
+      </c>
+      <c r="AD27" s="63">
+        <f>AD18/AD4</f>
+        <v>-0.24520824518319101</v>
+      </c>
+      <c r="AE27" s="31">
+        <f>AE18/AE4</f>
+        <v>-0.19233125250964947</v>
+      </c>
+      <c r="AF27" s="31">
+        <f>AF18/AF4</f>
+        <v>-9.3605029590974637E-2</v>
+      </c>
+      <c r="AG27" s="31">
+        <f>AG18/AG4</f>
+        <v>2.4249999999999869E-2</v>
+      </c>
+      <c r="AH27" s="31">
+        <f>AH18/AH4</f>
+        <v>2.3749999999999893E-2</v>
+      </c>
+      <c r="AI27" s="31">
+        <f>AI18/AI4</f>
+        <v>8.0749999999999933E-2</v>
+      </c>
+      <c r="AJ27" s="31">
+        <f>AJ18/AJ4</f>
+        <v>0.12824999999999995</v>
+      </c>
+      <c r="AK27" s="31">
+        <f>AK18/AK4</f>
+        <v>0.12824999999999995</v>
+      </c>
+      <c r="AL27" s="31">
+        <f>AL18/AL4</f>
+        <v>0.12824999999999995</v>
+      </c>
+      <c r="AM27" s="31">
+        <f>AM18/AM4</f>
+        <v>0.12824999999999992</v>
+      </c>
+      <c r="AO27" s="75" t="s">
+        <v>1727</v>
+      </c>
+      <c r="AP27" s="77">
+        <f>NPV(AP26,Y18:BW18)</f>
+        <v>6591.4588106210676</v>
+      </c>
+    </row>
+    <row r="28" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="31">
-        <f t="shared" ref="F27" si="58">F16/F15</f>
+      <c r="F28" s="31">
+        <f t="shared" ref="F28" si="38">F17/F16</f>
         <v>-8.9862638538234403E-3</v>
       </c>
-      <c r="J27" s="31">
-        <f t="shared" ref="J27" si="59">J16/J15</f>
+      <c r="J28" s="31">
+        <f t="shared" ref="J28" si="39">J17/J16</f>
         <v>-1.297549696377861E-2</v>
       </c>
-      <c r="M27" s="31">
-        <f t="shared" ref="M27" si="60">M16/M15</f>
+      <c r="M28" s="31">
+        <f t="shared" ref="M28" si="40">M17/M16</f>
         <v>-5.5734264531333323E-3</v>
       </c>
-      <c r="N27" s="31">
-        <f t="shared" ref="N27:O27" si="61">N16/N15</f>
+      <c r="N28" s="31">
+        <f t="shared" ref="N28:O28" si="41">N17/N16</f>
         <v>7.891452723696446E-2</v>
       </c>
-      <c r="O27" s="31">
-        <f t="shared" si="61"/>
+      <c r="O28" s="31">
+        <f t="shared" si="41"/>
         <v>-4.3276992200416255E-3</v>
       </c>
-      <c r="P27" s="31">
-        <f>P16/P15</f>
+      <c r="P28" s="31">
+        <f>P17/P16</f>
         <v>-5.6760251934306425E-3</v>
       </c>
-      <c r="Q27" s="31">
-        <f t="shared" ref="Q27" si="62">Q16/Q15</f>
+      <c r="Q28" s="31">
+        <f t="shared" ref="Q28" si="42">Q17/Q16</f>
         <v>6.2140627223194043E-2</v>
       </c>
-      <c r="R27" s="31">
-        <f t="shared" ref="R27:S27" si="63">R16/R15</f>
+      <c r="R28" s="31">
+        <f t="shared" ref="R28:S28" si="43">R17/R16</f>
         <v>-5.6738176095419536E-3</v>
       </c>
-      <c r="S27" s="31">
-        <f t="shared" si="63"/>
+      <c r="S28" s="31">
+        <f t="shared" si="43"/>
         <v>1.2731362897298265E-2</v>
       </c>
-      <c r="T27" s="31">
-        <f>T16/T15</f>
+      <c r="T28" s="31">
+        <f>T17/T16</f>
         <v>-8.1018193175607101E-3</v>
       </c>
-      <c r="U27" s="31">
-        <f t="shared" ref="U27" si="64">U16/U15</f>
+      <c r="U28" s="31">
+        <f t="shared" ref="U28" si="44">U17/U16</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="V27" s="58">
+      <c r="V28" s="106">
         <v>-0.01</v>
       </c>
-      <c r="Y27" s="31">
-        <f t="shared" ref="Y27:AA27" si="65">Y16/Y15</f>
+      <c r="Y28" s="31">
+        <f t="shared" ref="Y28:AA28" si="45">Y17/Y16</f>
         <v>-6.5286650489443532E-3</v>
       </c>
-      <c r="Z27" s="31">
-        <f t="shared" si="65"/>
+      <c r="Z28" s="31">
+        <f t="shared" si="45"/>
         <v>0.15226549903924733</v>
       </c>
-      <c r="AA27" s="31">
-        <f t="shared" si="65"/>
+      <c r="AA28" s="31">
+        <f t="shared" si="45"/>
         <v>2.6658023178821082E-2</v>
       </c>
-      <c r="AB27" s="31">
-        <f>AB16/AB15</f>
+      <c r="AB28" s="31">
+        <f>AB17/AB16</f>
         <v>1.1477434857309956E-2</v>
       </c>
-      <c r="AC27" s="63">
-        <f>AC16/AC15</f>
-        <v>-4.6658595519502351E-3</v>
-      </c>
-      <c r="AD27" s="42">
+      <c r="AC28" s="108">
+        <f>AC17/AC16</f>
+        <v>-1.0061658111081092E-2</v>
+      </c>
+      <c r="AD28" s="63">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE27" s="42">
+      <c r="AE28" s="42">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AF27" s="42">
+      <c r="AF28" s="42">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG27" s="42">
+      <c r="AG28" s="42">
         <v>0.03</v>
       </c>
-      <c r="AH27" s="42">
+      <c r="AH28" s="42">
         <v>0.05</v>
       </c>
-      <c r="AI27" s="42">
+      <c r="AI28" s="42">
         <v>0.05</v>
       </c>
-      <c r="AJ27" s="42">
+      <c r="AJ28" s="42">
         <v>0.05</v>
       </c>
-      <c r="AK27" s="42">
+      <c r="AK28" s="42">
         <v>0.05</v>
       </c>
-      <c r="AL27" s="42">
+      <c r="AL28" s="42">
         <v>0.05</v>
       </c>
-      <c r="AM27" s="42">
+      <c r="AM28" s="42">
         <v>0.05</v>
       </c>
-      <c r="AO27" s="76" t="s">
+      <c r="AO28" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AP27" s="78">
+      <c r="AP28" s="77">
         <f>Main!C11</f>
-        <v>3196.7179999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AC28" s="63"/>
-      <c r="AO28" s="76" t="s">
+        <v>3146.3969999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AC29" s="108"/>
+      <c r="AO29" s="75" t="s">
         <v>1728</v>
       </c>
-      <c r="AP28" s="78">
-        <f>AP26+AP27</f>
-        <v>9748.2600446863507</v>
-      </c>
-    </row>
-    <row r="29" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="AP29" s="77">
+        <f>AP27+AP28</f>
+        <v>9737.8558106210676</v>
+      </c>
+    </row>
+    <row r="30" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J30" s="31">
         <f>J7/F7-1</f>
         <v>1.1350738897174177</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N30" s="31">
         <f>N7/J7-1</f>
         <v>0.44105373925033553</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q30" s="31">
         <f>Q7/M7-1</f>
         <v>0.5359453209612739</v>
       </c>
-      <c r="R29" s="31">
+      <c r="R30" s="31">
         <f>R7/N7-1</f>
         <v>0.40535453492471163</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S30" s="31">
         <f>S7/O7-1</f>
         <v>0.37649313501144155</v>
       </c>
-      <c r="T29" s="31">
+      <c r="T30" s="31">
         <f>T7/P7-1</f>
         <v>0.54259157105030908</v>
       </c>
-      <c r="U29" s="31">
-        <f t="shared" ref="U29:V29" si="66">U7/Q7-1</f>
+      <c r="U30" s="31">
+        <f>U7/Q7-1</f>
         <v>0.35659154795369008</v>
       </c>
-      <c r="V29" s="58">
-        <f t="shared" si="66"/>
-        <v>0.28477582884803554</v>
-      </c>
-      <c r="Y29" s="45" t="s">
+      <c r="V30" s="106">
+        <f>V7/R7-1</f>
+        <v>0.22775018029196104</v>
+      </c>
+      <c r="Y30" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z29" s="31">
+      <c r="Z30" s="31">
         <f>Z7/Y7-1</f>
         <v>1.283844349257111</v>
       </c>
-      <c r="AA29" s="31">
+      <c r="AA30" s="31">
         <f>AA7/Z7-1</f>
         <v>0.35566940501590616</v>
       </c>
-      <c r="AB29" s="31">
+      <c r="AB30" s="31">
         <f>AB7/AA7-1</f>
         <v>0.48755437773773536</v>
       </c>
-      <c r="AC29" s="63">
+      <c r="AC30" s="108">
         <f>AC7/AB7-1</f>
-        <v>0.38340805152244806</v>
-      </c>
-      <c r="AD29" s="42">
-        <f t="shared" ref="AD29:AM29" si="67">AD7/AC7-1</f>
-        <v>0.32465489841420925</v>
-      </c>
-      <c r="AE29" s="42">
-        <f t="shared" si="67"/>
-        <v>6.7857142857142838E-2</v>
-      </c>
-      <c r="AF29" s="42">
-        <f t="shared" si="67"/>
+        <v>0.36727701689898473</v>
+      </c>
+      <c r="AD30" s="63">
+        <f>AD7/AC7-1</f>
+        <v>0.34035289102486321</v>
+      </c>
+      <c r="AE30" s="42">
+        <f>AE7/AD7-1</f>
+        <v>6.785714285714306E-2</v>
+      </c>
+      <c r="AF30" s="42">
+        <f>AF7/AE7-1</f>
         <v>1.7391304347824654E-3</v>
       </c>
-      <c r="AG29" s="42">
-        <f t="shared" si="67"/>
-        <v>-0.13333333333333341</v>
-      </c>
-      <c r="AH29" s="42">
-        <f t="shared" si="67"/>
+      <c r="AG30" s="42">
+        <f>AG7/AF7-1</f>
+        <v>-0.13333333333333353</v>
+      </c>
+      <c r="AH30" s="42">
+        <f>AH7/AG7-1</f>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="AI30" s="42">
+        <f>AI7/AH7-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AI29" s="42">
-        <f t="shared" si="67"/>
-        <v>0.15000000000000013</v>
-      </c>
-      <c r="AJ29" s="42">
-        <f t="shared" si="67"/>
+      <c r="AJ30" s="42">
+        <f>AJ7/AI7-1</f>
         <v>-0.31692307692307697</v>
       </c>
-      <c r="AK29" s="42">
-        <f t="shared" si="67"/>
+      <c r="AK30" s="42">
+        <f>AK7/AJ7-1</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AL30" s="42">
+        <f>AL7/AK7-1</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AM30" s="42">
+        <f>AM7/AL7-1</f>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="AL29" s="42">
-        <f t="shared" si="67"/>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="AM29" s="42">
-        <f t="shared" si="67"/>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="AO29" s="79" t="s">
+      <c r="AO30" s="78" t="s">
         <v>1729</v>
       </c>
-      <c r="AP29" s="82">
-        <f>AP28/Main!C7</f>
-        <v>53.068343281910693</v>
-      </c>
-      <c r="AQ29" s="30">
-        <f>AP29*Main!C7</f>
-        <v>9748.2600446863507</v>
-      </c>
-    </row>
-    <row r="30" spans="2:75" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="s">
+      <c r="AP30" s="81">
+        <f>AP29/Main!C7</f>
+        <v>52.602738134717463</v>
+      </c>
+      <c r="AQ30" s="30">
+        <f>AP30*Main!C7</f>
+        <v>9737.8558106210676</v>
+      </c>
+    </row>
+    <row r="31" spans="2:75" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="N30" s="42">
-        <f t="shared" ref="N30:T30" si="68">N7/M7-1</f>
+      <c r="N31" s="42">
+        <f>N7/M7-1</f>
         <v>0.16248573017592149</v>
       </c>
-      <c r="O30" s="42">
-        <f t="shared" si="68"/>
+      <c r="O31" s="42">
+        <f>O7/N7-1</f>
         <v>0.10036762854409043</v>
       </c>
-      <c r="P30" s="42">
-        <f t="shared" si="68"/>
+      <c r="P31" s="42">
+        <f>P7/O7-1</f>
         <v>3.7070938215102878E-2</v>
       </c>
-      <c r="Q30" s="42">
-        <f t="shared" si="68"/>
+      <c r="Q31" s="42">
+        <f>Q7/P7-1</f>
         <v>0.15782215357458074</v>
       </c>
-      <c r="R30" s="42">
-        <f t="shared" si="68"/>
+      <c r="R31" s="42">
+        <f>R7/Q7-1</f>
         <v>6.3647624946400638E-2</v>
       </c>
-      <c r="S30" s="42">
-        <f t="shared" si="68"/>
+      <c r="S31" s="42">
+        <f>S7/R7-1</f>
         <v>7.7769665261658405E-2</v>
       </c>
-      <c r="T30" s="42">
-        <f t="shared" si="68"/>
+      <c r="T31" s="42">
+        <f>T7/S7-1</f>
         <v>0.16221203519373617</v>
       </c>
-      <c r="U30" s="42">
-        <f t="shared" ref="U30:V30" si="69">U7/T7-1</f>
+      <c r="U31" s="42">
+        <f>U7/T7-1</f>
         <v>1.8216212930149744E-2</v>
       </c>
-      <c r="V30" s="63">
-        <f t="shared" si="69"/>
-        <v>7.3398739687606795E-3</v>
-      </c>
-      <c r="Y30" s="45" t="s">
+      <c r="V31" s="108">
+        <f>V7/U7-1</f>
+        <v>-3.737159112859334E-2</v>
+      </c>
+      <c r="Y31" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z30" s="45" t="s">
+      <c r="Z31" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AA30" s="45" t="s">
+      <c r="AA31" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AB30" s="45" t="s">
+      <c r="AB31" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC30" s="66" t="s">
+      <c r="AC31" s="126" t="s">
         <v>1715</v>
       </c>
-      <c r="AO30" s="76" t="s">
+      <c r="AD31" s="52"/>
+      <c r="AO31" s="75" t="s">
         <v>1730</v>
       </c>
-      <c r="AP30" s="80">
+      <c r="AP31" s="79">
         <f>Main!C6</f>
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AO31" s="81" t="s">
+        <v>66.05</v>
+      </c>
+    </row>
+    <row r="32" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AO32" s="80" t="s">
         <v>1731</v>
       </c>
-      <c r="AP31" s="83">
-        <f>AP29/AP30-1</f>
-        <v>-0.10659354744258087</v>
-      </c>
-    </row>
-    <row r="32" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B32" s="34" t="s">
+      <c r="AP32" s="82">
+        <f>AP30/AP31-1</f>
+        <v>-0.20359215541684383</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B33" s="34" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="Z33" s="40">
+        <f>Z34-Y34</f>
+        <v>114714</v>
+      </c>
+      <c r="AA33" s="40">
+        <f>AA34-Z34</f>
+        <v>42000</v>
+      </c>
+      <c r="AB33" s="40">
+        <f>AB34-AA34</f>
+        <v>35000</v>
+      </c>
+      <c r="AC33" s="40">
+        <f>AC34-AB34</f>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F34" s="40">
         <v>64286</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J34" s="40">
         <v>179000</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M34" s="40">
         <v>208000</v>
       </c>
-      <c r="N33" s="40">
+      <c r="N34" s="40">
         <v>221000</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O34" s="40">
         <v>235000</v>
       </c>
-      <c r="P33" s="40">
+      <c r="P34" s="40">
         <v>240000</v>
       </c>
-      <c r="Q33" s="40">
+      <c r="Q34" s="40">
         <v>250000</v>
       </c>
-      <c r="R33" s="40">
+      <c r="R34" s="40">
         <v>256000</v>
       </c>
-      <c r="S33" s="40">
+      <c r="S34" s="40">
         <v>268000</v>
       </c>
-      <c r="T33" s="40">
+      <c r="T34" s="40">
         <v>275000</v>
       </c>
-      <c r="U33" s="40">
+      <c r="U34" s="40">
         <v>280000</v>
       </c>
-      <c r="Y33" s="40">
-        <f>F33</f>
+      <c r="V34" s="40">
+        <v>290000</v>
+      </c>
+      <c r="Y34" s="40">
+        <f>F34</f>
         <v>64286</v>
       </c>
-      <c r="Z33" s="40">
-        <f>J33</f>
+      <c r="Z34" s="40">
+        <f>J34</f>
         <v>179000</v>
       </c>
-      <c r="AA33" s="40">
-        <f>N33</f>
+      <c r="AA34" s="40">
+        <f>N34</f>
         <v>221000</v>
       </c>
-      <c r="AB33" s="40">
-        <f>R33</f>
+      <c r="AB34" s="40">
+        <f>R34</f>
         <v>256000</v>
       </c>
-    </row>
-    <row r="34" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="39" t="s">
-        <v>1714</v>
-      </c>
-      <c r="J34" s="42">
-        <f t="shared" ref="J34" si="70">J33/F33-1</f>
-        <v>1.7844320691908035</v>
-      </c>
-      <c r="N34" s="42">
-        <f t="shared" ref="N34" si="71">N33/J33-1</f>
-        <v>0.23463687150837997</v>
-      </c>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="42">
-        <f t="shared" ref="Q34" si="72">Q33/M33-1</f>
-        <v>0.20192307692307687</v>
-      </c>
-      <c r="R34" s="42">
-        <f>R33/N33-1</f>
-        <v>0.158371040723982</v>
-      </c>
-      <c r="S34" s="42">
-        <f>S33/O33-1</f>
-        <v>0.14042553191489371</v>
-      </c>
-      <c r="T34" s="42">
-        <f>T33/P33-1</f>
-        <v>0.14583333333333326</v>
-      </c>
-      <c r="U34" s="42">
-        <f t="shared" ref="U34" si="73">U33/Q33-1</f>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="V34" s="52"/>
-      <c r="Z34" s="42">
-        <f t="shared" ref="Z34:AA34" si="74">Z33/Y33-1</f>
-        <v>1.7844320691908035</v>
-      </c>
-      <c r="AA34" s="42">
-        <f t="shared" si="74"/>
-        <v>0.23463687150837997</v>
-      </c>
-      <c r="AB34" s="42">
-        <f>AB33/AA33-1</f>
-        <v>0.158371040723982</v>
-      </c>
-      <c r="AC34" s="52"/>
+      <c r="AC34" s="130">
+        <f>V34</f>
+        <v>290000</v>
+      </c>
     </row>
     <row r="35" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J35" s="42">
+        <f t="shared" ref="J35" si="46">J34/F34-1</f>
+        <v>1.7844320691908035</v>
+      </c>
+      <c r="N35" s="42">
+        <f t="shared" ref="N35" si="47">N34/J34-1</f>
+        <v>0.23463687150837997</v>
+      </c>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="42">
+        <f t="shared" ref="Q35" si="48">Q34/M34-1</f>
+        <v>0.20192307692307687</v>
+      </c>
+      <c r="R35" s="42">
+        <f>R34/N34-1</f>
+        <v>0.158371040723982</v>
+      </c>
+      <c r="S35" s="42">
+        <f>S34/O34-1</f>
+        <v>0.14042553191489371</v>
+      </c>
+      <c r="T35" s="42">
+        <f>T34/P34-1</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="U35" s="42">
+        <f t="shared" ref="U35" si="49">U34/Q34-1</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="V35" s="42">
+        <f t="shared" ref="V35" si="50">V34/R34-1</f>
+        <v>0.1328125</v>
+      </c>
+      <c r="Z35" s="42">
+        <f t="shared" ref="Z35:AA35" si="51">Z34/Y34-1</f>
+        <v>1.7844320691908035</v>
+      </c>
+      <c r="AA35" s="42">
+        <f t="shared" si="51"/>
+        <v>0.23463687150837997</v>
+      </c>
+      <c r="AB35" s="42">
+        <f>AB34/AA34-1</f>
+        <v>0.158371040723982</v>
+      </c>
+      <c r="AC35" s="42">
+        <f>AC34/AB34-1</f>
+        <v>0.1328125</v>
+      </c>
+      <c r="AD35" s="52"/>
+    </row>
+    <row r="36" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="39" t="s">
         <v>1713</v>
       </c>
-      <c r="N35" s="42">
-        <f t="shared" ref="N35:Q35" si="75">N33/M33-1</f>
+      <c r="N36" s="42">
+        <f t="shared" ref="N36:Q36" si="52">N34/M34-1</f>
         <v>6.25E-2</v>
       </c>
-      <c r="O35" s="42">
-        <f t="shared" si="75"/>
+      <c r="O36" s="42">
+        <f t="shared" si="52"/>
         <v>6.3348416289592757E-2</v>
       </c>
-      <c r="P35" s="42">
-        <f t="shared" si="75"/>
+      <c r="P36" s="42">
+        <f t="shared" si="52"/>
         <v>2.1276595744680771E-2</v>
       </c>
-      <c r="Q35" s="42">
-        <f t="shared" si="75"/>
+      <c r="Q36" s="42">
+        <f t="shared" si="52"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="R35" s="42">
-        <f t="shared" ref="R35:S35" si="76">R33/Q33-1</f>
+      <c r="R36" s="42">
+        <f t="shared" ref="R36:S36" si="53">R34/Q34-1</f>
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="S35" s="42">
-        <f t="shared" si="76"/>
+      <c r="S36" s="42">
+        <f t="shared" si="53"/>
         <v>4.6875E-2</v>
       </c>
-      <c r="T35" s="42">
-        <f>T33/S33-1</f>
+      <c r="T36" s="42">
+        <f>T34/S34-1</f>
         <v>2.6119402985074647E-2</v>
       </c>
-      <c r="U35" s="42">
-        <f t="shared" ref="U35" si="77">U33/T33-1</f>
+      <c r="U36" s="42">
+        <f t="shared" ref="U36" si="54">U34/T34-1</f>
         <v>1.8181818181818077E-2</v>
       </c>
-      <c r="V35" s="52"/>
-      <c r="Y35" s="45" t="s">
+      <c r="V36" s="42">
+        <f t="shared" ref="V36" si="55">V34/U34-1</f>
+        <v>3.5714285714285809E-2</v>
+      </c>
+      <c r="Y36" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z35" s="45" t="s">
+      <c r="Z36" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AA35" s="45" t="s">
+      <c r="AA36" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AB35" s="45" t="s">
+      <c r="AB36" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC35" s="52"/>
-    </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="AC36" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AD36" s="52"/>
+    </row>
+    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F37" s="40">
         <v>1440</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40">
         <v>2905</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N37" s="40">
         <v>4629</v>
       </c>
-      <c r="Q36" s="40">
+      <c r="Q37" s="40">
         <v>7381</v>
       </c>
-      <c r="R36" s="40">
+      <c r="R37" s="40">
         <v>7867</v>
       </c>
-      <c r="S36" s="40">
+      <c r="S37" s="40">
         <v>8199</v>
       </c>
-      <c r="T36" s="40">
+      <c r="T37" s="40">
         <v>8510</v>
       </c>
-      <c r="U36" s="40">
+      <c r="U37" s="40">
         <v>8992</v>
       </c>
-      <c r="V36" s="57"/>
-      <c r="Y36" s="40">
+      <c r="V37" s="103">
+        <v>8156</v>
+      </c>
+      <c r="Y37" s="40">
         <v>1440</v>
       </c>
-      <c r="Z36" s="40">
+      <c r="Z37" s="40">
         <v>2905</v>
       </c>
-      <c r="AA36" s="40">
+      <c r="AA37" s="40">
         <v>4629</v>
       </c>
-      <c r="AB36" s="40">
-        <f>R36</f>
+      <c r="AB37" s="40">
+        <f>R37</f>
         <v>7867</v>
       </c>
-    </row>
-    <row r="37" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="39" t="s">
+      <c r="AC37" s="122">
+        <f>V37</f>
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="39" t="s">
         <v>1712</v>
       </c>
-      <c r="F37" s="43">
-        <f>F4/F36</f>
+      <c r="F38" s="43">
+        <f>F4/F37</f>
         <v>0.14187638888888887</v>
       </c>
-      <c r="J37" s="43">
-        <f>J4/J36</f>
+      <c r="J38" s="43">
+        <f>J4/J37</f>
         <v>0.11401858864027538</v>
       </c>
-      <c r="N37" s="43">
-        <f>N4/N36</f>
+      <c r="N38" s="43">
+        <f>N4/N37</f>
         <v>0.11840354288183194</v>
       </c>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43">
-        <f>Q4/Q36</f>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43">
+        <f>Q4/Q37</f>
         <v>0.10028126270153097</v>
       </c>
-      <c r="R37" s="43">
-        <f>R4/R36</f>
+      <c r="R38" s="43">
+        <f>R4/R37</f>
         <v>0.10712393542646498</v>
       </c>
-      <c r="S37" s="43">
-        <f>S4/S36</f>
+      <c r="S38" s="43">
+        <f>S4/S37</f>
         <v>0.10676460543968777</v>
       </c>
-      <c r="T37" s="43">
-        <f>T4/T36</f>
+      <c r="T38" s="43">
+        <f>T4/T37</f>
         <v>0.1108524089306698</v>
       </c>
-      <c r="U37" s="43">
-        <f>U4/U36</f>
+      <c r="U38" s="43">
+        <f>U4/U37</f>
         <v>0.10932273131672597</v>
       </c>
-      <c r="V37" s="52"/>
-      <c r="Y37" s="43">
-        <f>Y4/Y36</f>
+      <c r="V38" s="43">
+        <f>V4/V37</f>
+        <v>0.12562211868563022</v>
+      </c>
+      <c r="Y38" s="43">
+        <f>Y4/Y37</f>
         <v>0.45143541666666664</v>
       </c>
-      <c r="Z37" s="43">
-        <f>Z4/Z36</f>
+      <c r="Z38" s="43">
+        <f>Z4/Z37</f>
         <v>0.39052254733218589</v>
       </c>
-      <c r="AA37" s="43">
-        <f>AA4/AA36</f>
+      <c r="AA38" s="43">
+        <f>AA4/AA37</f>
         <v>0.38059537697126811</v>
       </c>
-      <c r="AB37" s="43">
-        <f>AB4/AB36</f>
+      <c r="AB38" s="43">
+        <f>AB4/AB37</f>
         <v>0.36123541375365448</v>
       </c>
-      <c r="AC37" s="52"/>
-    </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B41" s="34" t="s">
+      <c r="AC38" s="43">
+        <f>AC4/AC37</f>
+        <v>0.46914185875429137</v>
+      </c>
+      <c r="AD38" s="52"/>
+    </row>
+    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B42" s="34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="29">
-        <v>487.21499999999997</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29">
-        <v>253.66</v>
-      </c>
-      <c r="N42" s="29">
-        <v>933.88499999999999</v>
-      </c>
-      <c r="Q42" s="29">
-        <v>1497.498</v>
-      </c>
-      <c r="R42" s="29">
-        <v>1479.452</v>
-      </c>
-      <c r="S42" s="29">
-        <v>1617.0219999999999</v>
-      </c>
-      <c r="T42" s="29">
-        <v>798.625</v>
-      </c>
-      <c r="U42" s="29">
-        <v>632.79399999999998</v>
-      </c>
-      <c r="V42" s="50"/>
-      <c r="Y42" s="29">
-        <f>F42</f>
-        <v>487.21499999999997</v>
-      </c>
-      <c r="Z42" s="29">
-        <f>J42</f>
-        <v>253.66</v>
-      </c>
-      <c r="AA42" s="29">
-        <f>N42</f>
-        <v>933.88499999999999</v>
-      </c>
-      <c r="AB42" s="29">
-        <f>R42</f>
-        <v>1479.452</v>
-      </c>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="71"/>
-      <c r="AM42" s="71"/>
     </row>
     <row r="43" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F43" s="29">
-        <v>261.12799999999999</v>
+        <v>487.21499999999997</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29">
-        <v>1559.0329999999999</v>
+        <v>253.66</v>
       </c>
       <c r="N43" s="29">
-        <v>2105.9059999999999</v>
+        <v>933.88499999999999</v>
       </c>
       <c r="Q43" s="29">
-        <v>3896.7539999999999</v>
+        <v>1497.498</v>
       </c>
       <c r="R43" s="29">
-        <v>3878.43</v>
+        <v>1479.452</v>
       </c>
       <c r="S43" s="29">
-        <v>3606.29</v>
+        <v>1617.0219999999999</v>
       </c>
       <c r="T43" s="29">
-        <v>3593.6590000000001</v>
+        <v>798.625</v>
       </c>
       <c r="U43" s="29">
-        <v>3575.7510000000002</v>
-      </c>
-      <c r="V43" s="50"/>
+        <v>632.79399999999998</v>
+      </c>
+      <c r="V43" s="102">
+        <v>651.75199999999995</v>
+      </c>
       <c r="Y43" s="29">
-        <f t="shared" ref="Y43" si="78">F43</f>
-        <v>261.12799999999999</v>
+        <f>F43</f>
+        <v>487.21499999999997</v>
       </c>
       <c r="Z43" s="29">
-        <f t="shared" ref="Z43" si="79">J43</f>
-        <v>1559.0329999999999</v>
+        <f>J43</f>
+        <v>253.66</v>
       </c>
       <c r="AA43" s="29">
-        <f t="shared" ref="AA43" si="80">N43</f>
-        <v>2105.9059999999999</v>
+        <f>N43</f>
+        <v>933.88499999999999</v>
       </c>
       <c r="AB43" s="29">
         <f>R43</f>
+        <v>1479.452</v>
+      </c>
+      <c r="AC43" s="127"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="70"/>
+      <c r="AF43" s="70"/>
+      <c r="AG43" s="70"/>
+      <c r="AH43" s="70"/>
+      <c r="AI43" s="70"/>
+      <c r="AJ43" s="70"/>
+      <c r="AK43" s="70"/>
+      <c r="AL43" s="70"/>
+      <c r="AM43" s="70"/>
+    </row>
+    <row r="44" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="29">
+        <v>261.12799999999999</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29">
+        <v>1559.0329999999999</v>
+      </c>
+      <c r="N44" s="29">
+        <v>2105.9059999999999</v>
+      </c>
+      <c r="Q44" s="29">
+        <v>3896.7539999999999</v>
+      </c>
+      <c r="R44" s="29">
         <v>3878.43</v>
       </c>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="71"/>
-      <c r="AJ43" s="71"/>
-      <c r="AK43" s="71"/>
-      <c r="AL43" s="71"/>
-      <c r="AM43" s="71"/>
-    </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="30">
-        <v>97.712000000000003</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30">
-        <v>154.06700000000001</v>
-      </c>
-      <c r="N44" s="30">
-        <v>251.167</v>
-      </c>
-      <c r="Q44" s="30">
-        <v>345.79300000000001</v>
-      </c>
-      <c r="R44" s="30">
-        <v>388.21499999999997</v>
-      </c>
-      <c r="S44" s="30">
-        <v>406.73599999999999</v>
-      </c>
-      <c r="T44" s="30">
-        <v>471.91500000000002</v>
-      </c>
-      <c r="U44" s="30">
-        <v>487.75</v>
-      </c>
-      <c r="Y44" s="30">
-        <f>F44</f>
-        <v>97.712000000000003</v>
-      </c>
-      <c r="Z44" s="30">
-        <f>J44</f>
-        <v>154.06700000000001</v>
-      </c>
-      <c r="AA44" s="30">
-        <f>N44</f>
-        <v>251.167</v>
-      </c>
-      <c r="AB44" s="30">
+      <c r="S44" s="29">
+        <v>3606.29</v>
+      </c>
+      <c r="T44" s="29">
+        <v>3593.6590000000001</v>
+      </c>
+      <c r="U44" s="29">
+        <v>3575.7510000000002</v>
+      </c>
+      <c r="V44" s="102">
+        <v>3503.317</v>
+      </c>
+      <c r="Y44" s="29">
+        <f t="shared" ref="Y44" si="56">F44</f>
+        <v>261.12799999999999</v>
+      </c>
+      <c r="Z44" s="29">
+        <f t="shared" ref="Z44" si="57">J44</f>
+        <v>1559.0329999999999</v>
+      </c>
+      <c r="AA44" s="29">
+        <f t="shared" ref="AA44" si="58">N44</f>
+        <v>2105.9059999999999</v>
+      </c>
+      <c r="AB44" s="29">
         <f>R44</f>
-        <v>388.21499999999997</v>
-      </c>
+        <v>3878.43</v>
+      </c>
+      <c r="AC44" s="127"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="70"/>
+      <c r="AF44" s="70"/>
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="70"/>
+      <c r="AI44" s="70"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="70"/>
+      <c r="AL44" s="70"/>
+      <c r="AM44" s="70"/>
     </row>
     <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="30">
-        <v>26.893000000000001</v>
+        <v>97.712000000000003</v>
       </c>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30">
-        <v>54.570999999999998</v>
+        <v>154.06700000000001</v>
       </c>
       <c r="N45" s="30">
-        <v>81.376999999999995</v>
+        <v>251.167</v>
       </c>
       <c r="Q45" s="30">
-        <v>165.76</v>
+        <v>345.79300000000001</v>
       </c>
       <c r="R45" s="30">
-        <v>186.131</v>
+        <v>388.21499999999997</v>
       </c>
       <c r="S45" s="30">
-        <v>201.142</v>
+        <v>406.73599999999999</v>
       </c>
       <c r="T45" s="30">
-        <v>240.19200000000001</v>
+        <v>471.91500000000002</v>
       </c>
       <c r="U45" s="30">
-        <v>265.97699999999998</v>
+        <v>487.75</v>
+      </c>
+      <c r="V45" s="103">
+        <v>547.50699999999995</v>
       </c>
       <c r="Y45" s="30">
-        <f t="shared" ref="Y45" si="81">F45</f>
-        <v>26.893000000000001</v>
+        <f>F45</f>
+        <v>97.712000000000003</v>
       </c>
       <c r="Z45" s="30">
-        <f t="shared" ref="Z45" si="82">J45</f>
-        <v>54.570999999999998</v>
+        <f>J45</f>
+        <v>154.06700000000001</v>
       </c>
       <c r="AA45" s="30">
-        <f t="shared" ref="AA45" si="83">N45</f>
-        <v>81.376999999999995</v>
+        <f>N45</f>
+        <v>251.167</v>
       </c>
       <c r="AB45" s="30">
-        <f t="shared" ref="AB45" si="84">R45</f>
-        <v>186.131</v>
+        <f>R45</f>
+        <v>388.21499999999997</v>
       </c>
     </row>
     <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" s="30">
-        <f>SUM(F42:F45)</f>
-        <v>872.94799999999998</v>
+        <v>26.893000000000001</v>
       </c>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30">
-        <f>SUM(J42:J45)</f>
-        <v>2021.3309999999999</v>
+        <v>54.570999999999998</v>
       </c>
       <c r="N46" s="30">
-        <f>SUM(N42:N45)</f>
-        <v>3372.335</v>
+        <v>81.376999999999995</v>
       </c>
       <c r="Q46" s="30">
-        <f>SUM(Q42:Q45)</f>
-        <v>5905.8050000000003</v>
+        <v>165.76</v>
       </c>
       <c r="R46" s="30">
-        <f>SUM(R42:R45)</f>
-        <v>5932.2280000000001</v>
+        <v>186.131</v>
       </c>
       <c r="S46" s="30">
-        <f>SUM(S42:S45)</f>
-        <v>5831.19</v>
+        <v>201.142</v>
       </c>
       <c r="T46" s="30">
-        <f>SUM(T42:T45)</f>
-        <v>5104.3909999999996</v>
+        <v>240.19200000000001</v>
       </c>
       <c r="U46" s="30">
-        <f>SUM(U42:U45)</f>
-        <v>4962.2719999999999</v>
+        <v>265.97699999999998</v>
+      </c>
+      <c r="V46" s="103">
+        <v>281.51</v>
       </c>
       <c r="Y46" s="30">
-        <f t="shared" ref="Y46:AB46" si="85">SUM(Y42:Y45)</f>
-        <v>872.94799999999998</v>
+        <f t="shared" ref="Y46" si="59">F46</f>
+        <v>26.893000000000001</v>
       </c>
       <c r="Z46" s="30">
-        <f t="shared" si="85"/>
-        <v>2021.3309999999999</v>
+        <f t="shared" ref="Z46" si="60">J46</f>
+        <v>54.570999999999998</v>
       </c>
       <c r="AA46" s="30">
-        <f t="shared" si="85"/>
-        <v>3372.335</v>
+        <f t="shared" ref="AA46" si="61">N46</f>
+        <v>81.376999999999995</v>
       </c>
       <c r="AB46" s="30">
-        <f t="shared" si="85"/>
-        <v>5932.2280000000001</v>
+        <f t="shared" ref="AB46" si="62">R46</f>
+        <v>186.131</v>
       </c>
     </row>
     <row r="47" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" s="30">
-        <v>63.533999999999999</v>
+        <f>SUM(F43:F46)</f>
+        <v>872.94799999999998</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30">
-        <v>141.256</v>
+        <f>SUM(J43:J46)</f>
+        <v>2021.3309999999999</v>
       </c>
       <c r="N47" s="30">
-        <v>183.239</v>
+        <f>SUM(N43:N46)</f>
+        <v>3372.335</v>
       </c>
       <c r="Q47" s="30">
-        <v>237.24100000000001</v>
+        <f>SUM(Q43:Q46)</f>
+        <v>5905.8050000000003</v>
       </c>
       <c r="R47" s="30">
-        <v>255.316</v>
+        <f>SUM(R43:R46)</f>
+        <v>5932.2280000000001</v>
       </c>
       <c r="S47" s="30">
-        <v>259.00299999999999</v>
+        <f>SUM(S43:S46)</f>
+        <v>5831.19</v>
       </c>
       <c r="T47" s="30">
-        <v>264.767</v>
+        <f>SUM(T43:T46)</f>
+        <v>5104.3909999999996</v>
       </c>
       <c r="U47" s="30">
-        <v>263.86200000000002</v>
+        <f>SUM(U43:U46)</f>
+        <v>4962.2719999999999</v>
+      </c>
+      <c r="V47" s="30">
+        <f>SUM(V43:V46)</f>
+        <v>4984.0859999999993</v>
       </c>
       <c r="Y47" s="30">
-        <f t="shared" ref="Y47:Y51" si="86">F47</f>
-        <v>63.533999999999999</v>
+        <f t="shared" ref="Y47:AB47" si="63">SUM(Y43:Y46)</f>
+        <v>872.94799999999998</v>
       </c>
       <c r="Z47" s="30">
-        <f>J47</f>
-        <v>141.256</v>
+        <f t="shared" si="63"/>
+        <v>2021.3309999999999</v>
       </c>
       <c r="AA47" s="30">
-        <f t="shared" ref="AA47:AA51" si="87">N47</f>
-        <v>183.239</v>
+        <f t="shared" si="63"/>
+        <v>3372.335</v>
       </c>
       <c r="AB47" s="30">
-        <f t="shared" ref="AB47:AB51" si="88">R47</f>
-        <v>255.316</v>
+        <f t="shared" si="63"/>
+        <v>5932.2280000000001</v>
       </c>
     </row>
     <row r="48" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" s="30">
-        <v>0</v>
+        <v>63.533999999999999</v>
       </c>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30">
-        <v>156.74100000000001</v>
+        <v>141.256</v>
       </c>
       <c r="N48" s="30">
-        <v>258.61</v>
+        <v>183.239</v>
       </c>
       <c r="Q48" s="30">
-        <v>248.58199999999999</v>
+        <v>237.24100000000001</v>
       </c>
       <c r="R48" s="30">
-        <v>234.584</v>
+        <v>255.316</v>
       </c>
       <c r="S48" s="30">
-        <v>225.95099999999999</v>
+        <v>259.00299999999999</v>
       </c>
       <c r="T48" s="30">
-        <v>213.464</v>
+        <v>264.767</v>
       </c>
       <c r="U48" s="30">
-        <v>127.56699999999999</v>
+        <v>263.86200000000002</v>
+      </c>
+      <c r="V48" s="103">
+        <v>263.97899999999998</v>
       </c>
       <c r="Y48" s="30">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" ref="Y48:Y52" si="64">F48</f>
+        <v>63.533999999999999</v>
       </c>
       <c r="Z48" s="30">
-        <f>J47</f>
+        <f>J48</f>
         <v>141.256</v>
       </c>
       <c r="AA48" s="30">
-        <f t="shared" si="87"/>
-        <v>258.61</v>
+        <f t="shared" ref="AA48:AA52" si="65">N48</f>
+        <v>183.239</v>
       </c>
       <c r="AB48" s="30">
-        <f t="shared" si="88"/>
-        <v>234.584</v>
+        <f t="shared" ref="AB48:AB52" si="66">R48</f>
+        <v>255.316</v>
       </c>
     </row>
     <row r="49" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="30">
-        <v>18.119</v>
+        <v>0</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
       <c r="J49" s="30">
-        <v>7.4999999999999997E-2</v>
+        <v>156.74100000000001</v>
       </c>
       <c r="N49" s="30">
+        <v>258.61</v>
+      </c>
+      <c r="Q49" s="30">
+        <v>248.58199999999999</v>
+      </c>
+      <c r="R49" s="30">
+        <v>234.584</v>
+      </c>
+      <c r="S49" s="30">
+        <v>225.95099999999999</v>
+      </c>
+      <c r="T49" s="30">
+        <v>213.464</v>
+      </c>
+      <c r="U49" s="30">
+        <v>127.56699999999999</v>
+      </c>
+      <c r="V49" s="103">
+        <v>121.34099999999999</v>
+      </c>
+      <c r="Y49" s="30">
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="30">
-        <v>0</v>
-      </c>
-      <c r="R49" s="30">
-        <v>0</v>
-      </c>
-      <c r="S49" s="30">
-        <v>0</v>
-      </c>
-      <c r="T49" s="30">
-        <v>750</v>
-      </c>
-      <c r="U49" s="30">
-        <v>732.49</v>
-      </c>
-      <c r="Y49" s="30">
-        <f t="shared" si="86"/>
-        <v>18.119</v>
-      </c>
       <c r="Z49" s="30">
-        <f>J49</f>
-        <v>7.4999999999999997E-2</v>
+        <f>J48</f>
+        <v>141.256</v>
       </c>
       <c r="AA49" s="30">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>258.61</v>
       </c>
       <c r="AB49" s="30">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="66"/>
+        <v>234.584</v>
       </c>
     </row>
     <row r="50" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F50" s="30">
-        <f>27.558+38.165</f>
-        <v>65.722999999999999</v>
+        <v>18.119</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
       <c r="J50" s="30">
-        <f>480.849+2296.784</f>
-        <v>2777.6330000000003</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N50" s="30">
-        <f>966.573+4595.394</f>
-        <v>5561.9670000000006</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="30">
-        <f>1102.599+5263.051</f>
-        <v>6365.6500000000005</v>
+        <v>0</v>
       </c>
       <c r="R50" s="30">
-        <f>1050.012+5263.166</f>
-        <v>6313.1779999999999</v>
+        <v>0</v>
       </c>
       <c r="S50" s="30">
-        <f>1006.692+5286.683</f>
-        <v>6293.375</v>
+        <v>0</v>
       </c>
       <c r="T50" s="30">
-        <f>953.522+5285.563</f>
-        <v>6239.085</v>
+        <v>750</v>
       </c>
       <c r="U50" s="30">
-        <f>901.155+5284.616</f>
-        <v>6185.7709999999997</v>
+        <v>732.49</v>
+      </c>
+      <c r="V50" s="103">
+        <v>699.91099999999994</v>
       </c>
       <c r="Y50" s="30">
-        <f t="shared" si="86"/>
-        <v>65.722999999999999</v>
+        <f t="shared" si="64"/>
+        <v>18.119</v>
       </c>
       <c r="Z50" s="30">
-        <f t="shared" ref="Z50:Z51" si="89">J50</f>
-        <v>2777.6330000000003</v>
+        <f>J50</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AA50" s="30">
-        <f t="shared" si="87"/>
-        <v>5561.9670000000006</v>
+        <f t="shared" si="65"/>
+        <v>0</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" si="88"/>
-        <v>6313.1779999999999</v>
+        <f t="shared" si="66"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="30">
-        <v>8.3859999999999992</v>
+        <f>27.558+38.165</f>
+        <v>65.722999999999999</v>
       </c>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
       <c r="J51" s="30">
-        <v>33.479999999999997</v>
+        <f>480.849+2296.784</f>
+        <v>2777.6330000000003</v>
       </c>
       <c r="N51" s="30">
-        <v>111.282</v>
+        <f>966.573+4595.394</f>
+        <v>5561.9670000000006</v>
       </c>
       <c r="Q51" s="30">
-        <v>219.56899999999999</v>
+        <f>1102.599+5263.051</f>
+        <v>6365.6500000000005</v>
       </c>
       <c r="R51" s="30">
-        <v>263.29199999999997</v>
+        <f>1050.012+5263.166</f>
+        <v>6313.1779999999999</v>
       </c>
       <c r="S51" s="30">
-        <v>281.28300000000002</v>
+        <f>1006.692+5286.683</f>
+        <v>6293.375</v>
       </c>
       <c r="T51" s="30">
-        <v>297.52199999999999</v>
+        <f>953.522+5285.563</f>
+        <v>6239.085</v>
       </c>
       <c r="U51" s="30">
-        <v>340.69400000000002</v>
+        <f>901.155+5284.616</f>
+        <v>6185.7709999999997</v>
+      </c>
+      <c r="V51" s="103">
+        <f>5284.153+849.335</f>
+        <v>6133.4880000000003</v>
       </c>
       <c r="Y51" s="30">
-        <f t="shared" si="86"/>
-        <v>8.3859999999999992</v>
+        <f t="shared" si="64"/>
+        <v>65.722999999999999</v>
       </c>
       <c r="Z51" s="30">
-        <f t="shared" si="89"/>
-        <v>33.479999999999997</v>
+        <f t="shared" ref="Z51:Z52" si="67">J51</f>
+        <v>2777.6330000000003</v>
       </c>
       <c r="AA51" s="30">
-        <f t="shared" si="87"/>
-        <v>111.282</v>
+        <f t="shared" si="65"/>
+        <v>5561.9670000000006</v>
       </c>
       <c r="AB51" s="30">
-        <f t="shared" si="88"/>
-        <v>263.29199999999997</v>
+        <f t="shared" si="66"/>
+        <v>6313.1779999999999</v>
       </c>
     </row>
     <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" s="30">
-        <f>F46+SUM(F47:F51)</f>
-        <v>1028.71</v>
+        <v>8.3859999999999992</v>
       </c>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
       <c r="J52" s="30">
-        <f>J46+SUM(J47:J51)</f>
+        <v>33.479999999999997</v>
+      </c>
+      <c r="N52" s="30">
+        <v>111.282</v>
+      </c>
+      <c r="Q52" s="30">
+        <v>219.56899999999999</v>
+      </c>
+      <c r="R52" s="30">
+        <v>263.29199999999997</v>
+      </c>
+      <c r="S52" s="30">
+        <v>281.28300000000002</v>
+      </c>
+      <c r="T52" s="30">
+        <v>297.52199999999999</v>
+      </c>
+      <c r="U52" s="30">
+        <v>340.69400000000002</v>
+      </c>
+      <c r="V52" s="103">
+        <v>360.9</v>
+      </c>
+      <c r="Y52" s="30">
+        <f t="shared" si="64"/>
+        <v>8.3859999999999992</v>
+      </c>
+      <c r="Z52" s="30">
+        <f t="shared" si="67"/>
+        <v>33.479999999999997</v>
+      </c>
+      <c r="AA52" s="30">
+        <f t="shared" si="65"/>
+        <v>111.282</v>
+      </c>
+      <c r="AB52" s="30">
+        <f t="shared" si="66"/>
+        <v>263.29199999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="30">
+        <f>F47+SUM(F48:F52)</f>
+        <v>1028.71</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30">
+        <f>J47+SUM(J48:J52)</f>
         <v>5130.5160000000005</v>
       </c>
-      <c r="N52" s="30">
-        <f>N46+SUM(N47:N51)</f>
+      <c r="N53" s="30">
+        <f>N47+SUM(N48:N52)</f>
         <v>9487.4330000000009</v>
       </c>
-      <c r="Q52" s="30">
-        <f>Q46+SUM(Q47:Q51)</f>
+      <c r="Q53" s="30">
+        <f>Q47+SUM(Q48:Q52)</f>
         <v>12976.847000000002</v>
       </c>
-      <c r="R52" s="30">
-        <f>R46+SUM(R47:R51)</f>
+      <c r="R53" s="30">
+        <f>R47+SUM(R48:R52)</f>
         <v>12998.598</v>
       </c>
-      <c r="S52" s="30">
-        <f>S46+SUM(S47:S51)</f>
+      <c r="S53" s="30">
+        <f>S47+SUM(S48:S52)</f>
         <v>12890.802</v>
       </c>
-      <c r="T52" s="30">
-        <f>T46+SUM(T47:T51)</f>
+      <c r="T53" s="30">
+        <f>T47+SUM(T48:T52)</f>
         <v>12869.228999999999</v>
       </c>
-      <c r="U52" s="30">
-        <f>U46+SUM(U47:U51)</f>
+      <c r="U53" s="30">
+        <f>U47+SUM(U48:U52)</f>
         <v>12612.655999999999</v>
       </c>
-      <c r="Y52" s="30">
-        <f t="shared" ref="Y52:AB52" si="90">Y46+SUM(Y47:Y51)</f>
+      <c r="V53" s="30">
+        <f>V47+SUM(V48:V52)</f>
+        <v>12563.704999999998</v>
+      </c>
+      <c r="Y53" s="30">
+        <f t="shared" ref="Y53:AB53" si="68">Y47+SUM(Y48:Y52)</f>
         <v>1028.71</v>
       </c>
-      <c r="Z52" s="30">
-        <f t="shared" si="90"/>
+      <c r="Z53" s="30">
+        <f t="shared" si="68"/>
         <v>5115.0309999999999</v>
       </c>
-      <c r="AA52" s="30">
-        <f t="shared" si="90"/>
+      <c r="AA53" s="30">
+        <f t="shared" si="68"/>
         <v>9487.4330000000009</v>
       </c>
-      <c r="AB52" s="30">
-        <f t="shared" si="90"/>
+      <c r="AB53" s="30">
+        <f t="shared" si="68"/>
         <v>12998.598</v>
       </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="N53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-    </row>
     <row r="54" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="30">
-        <v>18.495000000000001</v>
-      </c>
-      <c r="J54" s="30">
-        <v>39.098999999999997</v>
-      </c>
-      <c r="N54" s="30">
-        <v>60.042000000000002</v>
-      </c>
-      <c r="Q54" s="30">
-        <v>76.293000000000006</v>
-      </c>
-      <c r="R54" s="30">
-        <v>93.332999999999998</v>
-      </c>
-      <c r="S54" s="30">
-        <v>93.388999999999996</v>
-      </c>
-      <c r="T54" s="30">
-        <v>102.039</v>
-      </c>
-      <c r="U54" s="30">
-        <v>103.23399999999999</v>
-      </c>
-      <c r="Y54" s="30">
-        <f t="shared" ref="Y54:Y57" si="91">F54</f>
-        <v>18.495000000000001</v>
-      </c>
-      <c r="Z54" s="30">
-        <f t="shared" ref="Z54:Z57" si="92">J54</f>
-        <v>39.098999999999997</v>
-      </c>
-      <c r="AA54" s="30">
-        <f t="shared" ref="AA54:AA60" si="93">N54</f>
-        <v>60.042000000000002</v>
-      </c>
-      <c r="AB54" s="30">
-        <f t="shared" ref="AB54:AB57" si="94">R54</f>
-        <v>93.332999999999998</v>
-      </c>
+      <c r="N54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="103"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="30">
-        <v>96.343000000000004</v>
+        <v>18.495000000000001</v>
       </c>
       <c r="J55" s="30">
-        <v>147.68100000000001</v>
+        <v>39.098999999999997</v>
       </c>
       <c r="N55" s="30">
-        <v>252.89500000000001</v>
+        <v>60.042000000000002</v>
       </c>
       <c r="Q55" s="30">
-        <v>368.863</v>
+        <v>76.293000000000006</v>
       </c>
       <c r="R55" s="30">
-        <v>417.50299999999999</v>
+        <v>93.332999999999998</v>
       </c>
       <c r="S55" s="30">
-        <v>433.66800000000001</v>
+        <v>93.388999999999996</v>
       </c>
       <c r="T55" s="30">
-        <v>504.81</v>
+        <v>102.039</v>
       </c>
       <c r="U55" s="30">
-        <v>572.87599999999998</v>
+        <v>103.23399999999999</v>
+      </c>
+      <c r="V55" s="103">
+        <v>124.605</v>
       </c>
       <c r="Y55" s="30">
-        <f t="shared" si="91"/>
-        <v>96.343000000000004</v>
+        <f t="shared" ref="Y55:Y58" si="69">F55</f>
+        <v>18.495000000000001</v>
       </c>
       <c r="Z55" s="30">
-        <f t="shared" si="92"/>
-        <v>147.68100000000001</v>
+        <f t="shared" ref="Z55:Z58" si="70">J55</f>
+        <v>39.098999999999997</v>
       </c>
       <c r="AA55" s="30">
-        <f t="shared" si="93"/>
-        <v>252.89500000000001</v>
+        <f t="shared" ref="AA55:AA61" si="71">N55</f>
+        <v>60.042000000000002</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" si="94"/>
-        <v>417.50299999999999</v>
+        <f t="shared" ref="AB55:AB58" si="72">R55</f>
+        <v>93.332999999999998</v>
       </c>
     </row>
     <row r="56" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="30">
-        <v>22.972000000000001</v>
+        <v>96.343000000000004</v>
       </c>
       <c r="J56" s="30">
-        <v>26.361999999999998</v>
+        <v>147.68100000000001</v>
       </c>
       <c r="N56" s="30">
-        <v>87.031000000000006</v>
+        <v>252.89500000000001</v>
       </c>
       <c r="Q56" s="30">
-        <v>121.337</v>
+        <v>368.863</v>
       </c>
       <c r="R56" s="30">
-        <v>140.38900000000001</v>
+        <v>417.50299999999999</v>
       </c>
       <c r="S56" s="30">
-        <v>139.67099999999999</v>
+        <v>433.66800000000001</v>
       </c>
       <c r="T56" s="30">
-        <v>137.72800000000001</v>
+        <v>504.81</v>
       </c>
       <c r="U56" s="30">
-        <v>135.61000000000001</v>
+        <v>572.87599999999998</v>
+      </c>
+      <c r="V56" s="103">
+        <v>490.221</v>
       </c>
       <c r="Y56" s="30">
-        <f t="shared" si="91"/>
-        <v>22.972000000000001</v>
+        <f t="shared" si="69"/>
+        <v>96.343000000000004</v>
       </c>
       <c r="Z56" s="30">
-        <f t="shared" si="92"/>
-        <v>26.361999999999998</v>
+        <f t="shared" si="70"/>
+        <v>147.68100000000001</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" si="93"/>
-        <v>87.031000000000006</v>
+        <f t="shared" si="71"/>
+        <v>252.89500000000001</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="94"/>
-        <v>140.38900000000001</v>
+        <f t="shared" si="72"/>
+        <v>417.50299999999999</v>
       </c>
     </row>
     <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57" s="30">
-        <v>0</v>
+        <v>22.972000000000001</v>
       </c>
       <c r="J57" s="30">
-        <v>27.155999999999999</v>
+        <v>26.361999999999998</v>
       </c>
       <c r="N57" s="30">
-        <v>48.338000000000001</v>
+        <v>87.031000000000006</v>
       </c>
       <c r="Q57" s="30">
-        <v>50.76</v>
+        <v>121.337</v>
       </c>
       <c r="R57" s="30">
-        <v>52.325000000000003</v>
+        <v>140.38900000000001</v>
       </c>
       <c r="S57" s="30">
-        <v>53.094000000000001</v>
+        <v>139.67099999999999</v>
       </c>
       <c r="T57" s="30">
-        <v>50.743000000000002</v>
+        <v>137.72800000000001</v>
       </c>
       <c r="U57" s="30">
-        <v>52.453000000000003</v>
+        <v>135.61000000000001</v>
+      </c>
+      <c r="V57" s="103">
+        <v>139.11000000000001</v>
       </c>
       <c r="Y57" s="30">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" si="69"/>
+        <v>22.972000000000001</v>
       </c>
       <c r="Z57" s="30">
-        <f t="shared" si="92"/>
-        <v>27.155999999999999</v>
+        <f t="shared" si="70"/>
+        <v>26.361999999999998</v>
       </c>
       <c r="AA57" s="30">
-        <f t="shared" si="93"/>
-        <v>48.338000000000001</v>
+        <f t="shared" si="71"/>
+        <v>87.031000000000006</v>
       </c>
       <c r="AB57" s="30">
-        <f t="shared" si="94"/>
-        <v>52.325000000000003</v>
+        <f t="shared" si="72"/>
+        <v>140.38900000000001</v>
       </c>
     </row>
     <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F58" s="30">
         <v>0</v>
       </c>
       <c r="J58" s="30">
-        <v>6.9240000000000004</v>
+        <v>27.155999999999999</v>
       </c>
       <c r="N58" s="30">
+        <v>48.338000000000001</v>
+      </c>
+      <c r="Q58" s="30">
+        <v>50.76</v>
+      </c>
+      <c r="R58" s="30">
+        <v>52.325000000000003</v>
+      </c>
+      <c r="S58" s="30">
+        <v>53.094000000000001</v>
+      </c>
+      <c r="T58" s="30">
+        <v>50.743000000000002</v>
+      </c>
+      <c r="U58" s="30">
+        <v>52.453000000000003</v>
+      </c>
+      <c r="V58" s="103">
+        <v>54.22</v>
+      </c>
+      <c r="Y58" s="30">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="30">
-        <v>0</v>
-      </c>
-      <c r="R58" s="30">
-        <v>0</v>
-      </c>
-      <c r="S58" s="30">
-        <v>0</v>
-      </c>
-      <c r="T58" s="30">
-        <v>0</v>
-      </c>
-      <c r="U58" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="30">
-        <f>F58</f>
-        <v>0</v>
-      </c>
       <c r="Z58" s="30">
-        <f>J58</f>
-        <v>6.9240000000000004</v>
+        <f t="shared" si="70"/>
+        <v>27.155999999999999</v>
       </c>
       <c r="AA58" s="30">
-        <f t="shared" si="93"/>
-        <v>0</v>
+        <f t="shared" si="71"/>
+        <v>48.338000000000001</v>
       </c>
       <c r="AB58" s="30">
-        <f>R58</f>
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>52.325000000000003</v>
       </c>
     </row>
     <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F59" s="30">
-        <f>SUM(F54:F58)</f>
-        <v>137.81</v>
+        <v>0</v>
       </c>
       <c r="J59" s="30">
-        <f>SUM(J54:J58)</f>
-        <v>247.22200000000001</v>
+        <v>6.9240000000000004</v>
       </c>
       <c r="N59" s="30">
-        <f>SUM(N54:N58)</f>
-        <v>448.30600000000004</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="30">
-        <f t="shared" ref="Q59:S59" si="95">SUM(Q54:Q58)</f>
-        <v>617.25300000000004</v>
+        <v>0</v>
       </c>
       <c r="R59" s="30">
-        <f t="shared" si="95"/>
-        <v>703.55000000000007</v>
+        <v>0</v>
       </c>
       <c r="S59" s="30">
-        <f t="shared" si="95"/>
-        <v>719.82200000000012</v>
+        <v>0</v>
       </c>
       <c r="T59" s="30">
-        <f>SUM(T54:T58)</f>
-        <v>795.32</v>
+        <v>0</v>
       </c>
       <c r="U59" s="30">
-        <f>SUM(U54:U58)</f>
-        <v>864.173</v>
+        <v>0</v>
+      </c>
+      <c r="V59" s="103">
+        <v>0</v>
       </c>
       <c r="Y59" s="30">
-        <f>SUM(Y54:Y58)</f>
-        <v>137.81</v>
+        <f>F59</f>
+        <v>0</v>
       </c>
       <c r="Z59" s="30">
-        <f>SUM(Z54:Z58)</f>
-        <v>247.22200000000001</v>
+        <f>J59</f>
+        <v>6.9240000000000004</v>
       </c>
       <c r="AA59" s="30">
-        <f>SUM(AA54:AA58)</f>
-        <v>448.30600000000004</v>
+        <f t="shared" si="71"/>
+        <v>0</v>
       </c>
       <c r="AB59" s="30">
-        <f>SUM(AB54:AB58)</f>
-        <v>703.55000000000007</v>
+        <f>R59</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="30">
+        <f>SUM(F55:F59)</f>
+        <v>137.81</v>
+      </c>
+      <c r="J60" s="30">
+        <f>SUM(J55:J59)</f>
+        <v>247.22200000000001</v>
+      </c>
+      <c r="N60" s="30">
+        <f>SUM(N55:N59)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="Q60" s="30">
+        <f t="shared" ref="Q60:S60" si="73">SUM(Q55:Q59)</f>
+        <v>617.25300000000004</v>
+      </c>
+      <c r="R60" s="30">
+        <f t="shared" si="73"/>
+        <v>703.55000000000007</v>
+      </c>
+      <c r="S60" s="30">
+        <f t="shared" si="73"/>
+        <v>719.82200000000012</v>
+      </c>
+      <c r="T60" s="30">
+        <f>SUM(T55:T59)</f>
+        <v>795.32</v>
+      </c>
+      <c r="U60" s="30">
+        <f>SUM(U55:U59)</f>
+        <v>864.173</v>
+      </c>
+      <c r="V60" s="30">
+        <f>SUM(V55:V59)</f>
+        <v>808.15600000000006</v>
+      </c>
+      <c r="Y60" s="30">
+        <f>SUM(Y55:Y59)</f>
+        <v>137.81</v>
+      </c>
+      <c r="Z60" s="30">
+        <f>SUM(Z55:Z59)</f>
+        <v>247.22200000000001</v>
+      </c>
+      <c r="AA60" s="30">
+        <f>SUM(AA55:AA59)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="AB60" s="30">
+        <f>SUM(AB55:AB59)</f>
+        <v>703.55000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F61" s="30">
         <v>0</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J61" s="30">
         <v>139.19999999999999</v>
       </c>
-      <c r="N60" s="30">
+      <c r="N61" s="30">
         <v>229.905</v>
       </c>
-      <c r="Q60" s="30">
+      <c r="Q61" s="30">
         <v>223.03299999999999</v>
       </c>
-      <c r="R60" s="30">
+      <c r="R61" s="30">
         <v>211.25299999999999</v>
       </c>
-      <c r="S60" s="30">
+      <c r="S61" s="30">
         <v>201.35400000000001</v>
       </c>
-      <c r="T60" s="30">
+      <c r="T61" s="30">
         <v>189.06800000000001</v>
       </c>
-      <c r="U60" s="30">
+      <c r="U61" s="30">
         <v>176.33600000000001</v>
       </c>
-      <c r="Y60" s="30">
-        <f t="shared" ref="Y60:Y63" si="96">F60</f>
+      <c r="V61" s="103">
+        <v>164.55099999999999</v>
+      </c>
+      <c r="Y61" s="30">
+        <f t="shared" ref="Y61:Y64" si="74">F61</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="30">
-        <f t="shared" ref="Z60:Z63" si="97">J60</f>
+      <c r="Z61" s="30">
+        <f t="shared" ref="Z61:Z64" si="75">J61</f>
         <v>139.19999999999999</v>
       </c>
-      <c r="AA60" s="30">
-        <f t="shared" si="93"/>
+      <c r="AA61" s="30">
+        <f t="shared" si="71"/>
         <v>229.905</v>
       </c>
-      <c r="AB60" s="30">
-        <f t="shared" ref="AB60" si="98">R60</f>
+      <c r="AB61" s="30">
+        <f t="shared" ref="AB61" si="76">R61</f>
         <v>211.25299999999999</v>
       </c>
-    </row>
-    <row r="61" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="29">
-        <v>0</v>
-      </c>
-      <c r="J61" s="29">
-        <v>8.7460000000000004</v>
-      </c>
-      <c r="N61" s="29">
-        <v>17.856000000000002</v>
-      </c>
-      <c r="Q61" s="29">
-        <v>20.254000000000001</v>
-      </c>
-      <c r="R61" s="29">
-        <v>25.132000000000001</v>
-      </c>
-      <c r="S61" s="29">
-        <v>22.053000000000001</v>
-      </c>
-      <c r="T61" s="29">
-        <v>18.934999999999999</v>
-      </c>
-      <c r="U61" s="29">
-        <v>24.841999999999999</v>
-      </c>
-      <c r="V61" s="50"/>
-      <c r="Y61" s="29">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Z61" s="29">
-        <f t="shared" si="97"/>
-        <v>8.7460000000000004</v>
-      </c>
-      <c r="AA61" s="29">
-        <f t="shared" ref="AA61" si="99">N61</f>
-        <v>17.856000000000002</v>
-      </c>
-      <c r="AB61" s="29">
-        <f>R61</f>
-        <v>25.132000000000001</v>
-      </c>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="71"/>
-      <c r="AE61" s="71"/>
-      <c r="AF61" s="71"/>
-      <c r="AG61" s="71"/>
-      <c r="AH61" s="71"/>
-      <c r="AI61" s="71"/>
-      <c r="AJ61" s="71"/>
-      <c r="AK61" s="71"/>
-      <c r="AL61" s="71"/>
-      <c r="AM61" s="71"/>
     </row>
     <row r="62" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="29">
+        <v>0</v>
+      </c>
+      <c r="J62" s="29">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="N62" s="29">
+        <v>17.856000000000002</v>
+      </c>
+      <c r="Q62" s="29">
+        <v>20.254000000000001</v>
+      </c>
+      <c r="R62" s="29">
+        <v>25.132000000000001</v>
+      </c>
+      <c r="S62" s="29">
+        <v>22.053000000000001</v>
+      </c>
+      <c r="T62" s="29">
+        <v>18.934999999999999</v>
+      </c>
+      <c r="U62" s="29">
+        <v>24.841999999999999</v>
+      </c>
+      <c r="V62" s="102">
+        <v>21.29</v>
+      </c>
+      <c r="Y62" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="29">
+        <f t="shared" si="75"/>
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="AA62" s="29">
+        <f t="shared" ref="AA62" si="77">N62</f>
+        <v>17.856000000000002</v>
+      </c>
+      <c r="AB62" s="29">
+        <f>R62</f>
+        <v>25.132000000000001</v>
+      </c>
+      <c r="AC62" s="127"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="70"/>
+      <c r="AF62" s="70"/>
+      <c r="AG62" s="70"/>
+      <c r="AH62" s="70"/>
+      <c r="AI62" s="70"/>
+      <c r="AJ62" s="70"/>
+      <c r="AK62" s="70"/>
+      <c r="AL62" s="70"/>
+      <c r="AM62" s="70"/>
+    </row>
+    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F63" s="29">
         <v>434.49599999999998</v>
       </c>
-      <c r="J62" s="29">
+      <c r="J63" s="29">
         <v>458.19</v>
       </c>
-      <c r="N62" s="29">
+      <c r="N63" s="29">
         <v>302.06799999999998</v>
       </c>
-      <c r="Q62" s="29">
+      <c r="Q63" s="29">
         <v>985.54700000000003</v>
       </c>
-      <c r="R62" s="29">
+      <c r="R63" s="29">
         <v>985.90700000000004</v>
       </c>
-      <c r="S62" s="29">
+      <c r="S63" s="29">
         <v>986.24300000000005</v>
       </c>
-      <c r="T62" s="29">
+      <c r="T63" s="29">
         <v>986.61900000000003</v>
       </c>
-      <c r="U62" s="29">
+      <c r="U63" s="29">
         <v>986.98500000000001</v>
       </c>
-      <c r="V62" s="50"/>
-      <c r="Y62" s="29">
-        <f t="shared" si="96"/>
+      <c r="V63" s="102">
+        <v>987.38199999999995</v>
+      </c>
+      <c r="Y63" s="29">
+        <f t="shared" si="74"/>
         <v>434.49599999999998</v>
       </c>
-      <c r="Z62" s="29">
-        <f t="shared" si="97"/>
+      <c r="Z63" s="29">
+        <f t="shared" si="75"/>
         <v>458.19</v>
       </c>
-      <c r="AA62" s="29">
-        <f t="shared" ref="AA62:AA63" si="100">N62</f>
+      <c r="AA63" s="29">
+        <f t="shared" ref="AA63:AA64" si="78">N63</f>
         <v>302.06799999999998</v>
       </c>
-      <c r="AB62" s="29">
-        <f t="shared" ref="AB62:AB63" si="101">R62</f>
+      <c r="AB63" s="29">
+        <f t="shared" ref="AB63:AB64" si="79">R63</f>
         <v>985.90700000000004</v>
       </c>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="71"/>
-      <c r="AE62" s="71"/>
-      <c r="AF62" s="71"/>
-      <c r="AG62" s="71"/>
-      <c r="AH62" s="71"/>
-      <c r="AI62" s="71"/>
-      <c r="AJ62" s="71"/>
-      <c r="AK62" s="71"/>
-      <c r="AL62" s="71"/>
-      <c r="AM62" s="71"/>
-    </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="30">
-        <v>18.169</v>
-      </c>
-      <c r="J63" s="30">
-        <v>17.747</v>
-      </c>
-      <c r="N63" s="30">
-        <v>36.633000000000003</v>
-      </c>
-      <c r="Q63" s="30">
-        <v>49.191000000000003</v>
-      </c>
-      <c r="R63" s="30">
-        <v>41.29</v>
-      </c>
-      <c r="S63" s="30">
-        <v>43.896999999999998</v>
-      </c>
-      <c r="T63" s="30">
-        <v>37.292000000000002</v>
-      </c>
-      <c r="U63" s="30">
-        <v>29.431999999999999</v>
-      </c>
-      <c r="Y63" s="30">
-        <f t="shared" si="96"/>
-        <v>18.169</v>
-      </c>
-      <c r="Z63" s="30">
-        <f t="shared" si="97"/>
-        <v>17.747</v>
-      </c>
-      <c r="AA63" s="30">
-        <f t="shared" si="100"/>
-        <v>36.633000000000003</v>
-      </c>
-      <c r="AB63" s="30">
-        <f t="shared" si="101"/>
-        <v>41.29</v>
-      </c>
+      <c r="AC63" s="127"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="70"/>
+      <c r="AF63" s="70"/>
+      <c r="AG63" s="70"/>
+      <c r="AH63" s="70"/>
+      <c r="AI63" s="70"/>
+      <c r="AJ63" s="70"/>
+      <c r="AK63" s="70"/>
+      <c r="AL63" s="70"/>
+      <c r="AM63" s="70"/>
     </row>
     <row r="64" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="30">
+        <v>18.169</v>
+      </c>
+      <c r="J64" s="30">
+        <v>17.747</v>
+      </c>
+      <c r="N64" s="30">
+        <v>36.633000000000003</v>
+      </c>
+      <c r="Q64" s="30">
+        <v>49.191000000000003</v>
+      </c>
+      <c r="R64" s="30">
+        <v>41.29</v>
+      </c>
+      <c r="S64" s="30">
+        <v>43.896999999999998</v>
+      </c>
+      <c r="T64" s="30">
+        <v>37.292000000000002</v>
+      </c>
+      <c r="U64" s="30">
+        <v>29.431999999999999</v>
+      </c>
+      <c r="V64" s="103">
+        <v>23.881</v>
+      </c>
+      <c r="Y64" s="30">
+        <f t="shared" si="74"/>
+        <v>18.169</v>
+      </c>
+      <c r="Z64" s="30">
+        <f t="shared" si="75"/>
+        <v>17.747</v>
+      </c>
+      <c r="AA64" s="30">
+        <f t="shared" si="78"/>
+        <v>36.633000000000003</v>
+      </c>
+      <c r="AB64" s="30">
+        <f t="shared" si="79"/>
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="30">
-        <f>SUM(F60:F63)+F59</f>
+      <c r="F65" s="30">
+        <f>SUM(F61:F64)+F60</f>
         <v>590.47499999999991</v>
       </c>
-      <c r="J64" s="30">
-        <f>SUM(J60:J63)+J59</f>
+      <c r="J65" s="30">
+        <f>SUM(J61:J64)+J60</f>
         <v>871.1049999999999</v>
       </c>
-      <c r="N64" s="30">
-        <f>SUM(N60:N63)+N59</f>
+      <c r="N65" s="30">
+        <f>SUM(N61:N64)+N60</f>
         <v>1034.768</v>
       </c>
-      <c r="Q64" s="30">
-        <f>SUM(Q60:Q63)+Q59</f>
+      <c r="Q65" s="30">
+        <f>SUM(Q61:Q64)+Q60</f>
         <v>1895.2780000000002</v>
       </c>
-      <c r="R64" s="30">
-        <f>SUM(R60:R63)+R59</f>
+      <c r="R65" s="30">
+        <f>SUM(R61:R64)+R60</f>
         <v>1967.1320000000001</v>
       </c>
-      <c r="S64" s="30">
-        <f>SUM(S60:S63)+S59</f>
+      <c r="S65" s="30">
+        <f>SUM(S61:S64)+S60</f>
         <v>1973.3690000000001</v>
       </c>
-      <c r="T64" s="30">
-        <f>SUM(T60:T63)+T59</f>
+      <c r="T65" s="30">
+        <f>SUM(T61:T64)+T60</f>
         <v>2027.2339999999999</v>
       </c>
-      <c r="U64" s="30">
-        <f>SUM(U60:U63)+U59</f>
+      <c r="U65" s="30">
+        <f>SUM(U61:U64)+U60</f>
         <v>2081.768</v>
       </c>
-      <c r="Y64" s="30">
-        <f t="shared" ref="Y64:Z64" si="102">SUM(Y60:Y63)+Y59</f>
+      <c r="V65" s="30">
+        <f>SUM(V61:V64)+V60</f>
+        <v>2005.2600000000002</v>
+      </c>
+      <c r="Y65" s="30">
+        <f t="shared" ref="Y65:Z65" si="80">SUM(Y61:Y64)+Y60</f>
         <v>590.47499999999991</v>
       </c>
-      <c r="Z64" s="30">
-        <f t="shared" si="102"/>
+      <c r="Z65" s="30">
+        <f t="shared" si="80"/>
         <v>871.1049999999999</v>
       </c>
-      <c r="AA64" s="30">
-        <f>SUM(AA60:AA63)+AA59</f>
+      <c r="AA65" s="30">
+        <f>SUM(AA61:AA64)+AA60</f>
         <v>1034.768</v>
       </c>
-      <c r="AB64" s="30">
-        <f>SUM(AB60:AB63)+AB59</f>
+      <c r="AB65" s="30">
+        <f>SUM(AB61:AB64)+AB60</f>
         <v>1967.1320000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="T65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="T66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F67" s="30">
         <v>438.23500000000001</v>
       </c>
-      <c r="J66" s="30">
+      <c r="J67" s="30">
         <v>4279.4110000000001</v>
       </c>
-      <c r="N66" s="30">
+      <c r="N67" s="30">
         <v>8452.6650000000009</v>
       </c>
-      <c r="Q66" s="30">
+      <c r="Q67" s="30">
         <v>11081.749</v>
       </c>
-      <c r="R66" s="30">
+      <c r="R67" s="30">
         <v>11031.466</v>
       </c>
-      <c r="S66" s="30">
+      <c r="S67" s="30">
         <v>10917.433000000001</v>
       </c>
-      <c r="T66" s="30">
+      <c r="T67" s="30">
         <v>10841.995000000001</v>
       </c>
-      <c r="U66" s="30">
+      <c r="U67" s="30">
         <v>10530.888000000001</v>
       </c>
-      <c r="Y66" s="30">
-        <f>F66</f>
+      <c r="V67" s="103">
+        <v>10559.041999999999</v>
+      </c>
+      <c r="Y67" s="30">
+        <f>F67</f>
         <v>438.23500000000001</v>
       </c>
-      <c r="Z66" s="30">
-        <f>J66</f>
+      <c r="Z67" s="30">
+        <f>J67</f>
         <v>4279.4110000000001</v>
       </c>
-      <c r="AA66" s="30">
-        <f>N66</f>
+      <c r="AA67" s="30">
+        <f>N67</f>
         <v>8452.6650000000009</v>
       </c>
-      <c r="AB66" s="30">
-        <f>R66</f>
+      <c r="AB67" s="30">
+        <f>R67</f>
         <v>11031.466</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="30">
-        <f>F66+F64</f>
+      <c r="F68" s="30">
+        <f>F67+F65</f>
         <v>1028.71</v>
       </c>
-      <c r="J67" s="30">
-        <f>J66+J64</f>
+      <c r="J68" s="30">
+        <f>J67+J65</f>
         <v>5150.5159999999996</v>
       </c>
-      <c r="N67" s="30">
-        <f>N66+N64</f>
+      <c r="N68" s="30">
+        <f>N67+N65</f>
         <v>9487.4330000000009</v>
       </c>
-      <c r="Q67" s="30">
-        <f>Q66+Q64</f>
+      <c r="Q68" s="30">
+        <f>Q67+Q65</f>
         <v>12977.027</v>
       </c>
-      <c r="R67" s="30">
-        <f>R66+R64</f>
+      <c r="R68" s="30">
+        <f>R67+R65</f>
         <v>12998.598</v>
       </c>
-      <c r="S67" s="30">
-        <f>S66+S64</f>
+      <c r="S68" s="30">
+        <f>S67+S65</f>
         <v>12890.802000000001</v>
       </c>
-      <c r="T67" s="30">
-        <f>T66+T64</f>
+      <c r="T68" s="30">
+        <f>T67+T65</f>
         <v>12869.229000000001</v>
       </c>
-      <c r="U67" s="30">
-        <f>U66+U64</f>
+      <c r="U68" s="30">
+        <f>U67+U65</f>
         <v>12612.656000000001</v>
       </c>
-      <c r="Y67" s="30">
-        <f>Y66+Y64</f>
+      <c r="V68" s="30">
+        <f>V67+V65</f>
+        <v>12564.302</v>
+      </c>
+      <c r="Y68" s="30">
+        <f>Y67+Y65</f>
         <v>1028.71</v>
       </c>
-      <c r="Z67" s="30">
-        <f>Z66+Z64</f>
+      <c r="Z68" s="30">
+        <f>Z67+Z65</f>
         <v>5150.5159999999996</v>
       </c>
-      <c r="AA67" s="30">
-        <f>AA66+AA64</f>
+      <c r="AA68" s="30">
+        <f>AA67+AA65</f>
         <v>9487.4330000000009</v>
       </c>
-      <c r="AB67" s="30">
-        <f>AB66+AB64</f>
+      <c r="AB68" s="30">
+        <f>AB67+AB65</f>
         <v>12998.598</v>
       </c>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="30"/>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="30">
-        <f t="shared" ref="F69" si="103">F52-F64</f>
+      <c r="F70" s="30">
+        <f t="shared" ref="F70" si="81">F53-F65</f>
         <v>438.23500000000013</v>
       </c>
-      <c r="J69" s="30">
-        <f t="shared" ref="J69" si="104">J52-J64</f>
+      <c r="J70" s="30">
+        <f t="shared" ref="J70" si="82">J53-J65</f>
         <v>4259.411000000001</v>
       </c>
-      <c r="N69" s="30">
-        <f t="shared" ref="N69" si="105">N52-N64</f>
+      <c r="N70" s="30">
+        <f t="shared" ref="N70" si="83">N53-N65</f>
         <v>8452.6650000000009</v>
       </c>
-      <c r="Q69" s="30">
-        <f t="shared" ref="Q69:R69" si="106">Q52-Q64</f>
+      <c r="Q70" s="30">
+        <f t="shared" ref="Q70:R70" si="84">Q53-Q65</f>
         <v>11081.569000000001</v>
       </c>
-      <c r="R69" s="30">
-        <f t="shared" si="106"/>
+      <c r="R70" s="30">
+        <f t="shared" si="84"/>
         <v>11031.466</v>
       </c>
-      <c r="S69" s="30">
-        <f t="shared" ref="S69" si="107">S52-S64</f>
+      <c r="S70" s="30">
+        <f t="shared" ref="S70" si="85">S53-S65</f>
         <v>10917.432999999999</v>
       </c>
-      <c r="T69" s="30">
-        <f>T52-T64</f>
+      <c r="T70" s="30">
+        <f>T53-T65</f>
         <v>10841.994999999999</v>
       </c>
-      <c r="U69" s="30">
-        <f t="shared" ref="U69" si="108">U52-U64</f>
+      <c r="U70" s="30">
+        <f t="shared" ref="U70:V70" si="86">U53-U65</f>
         <v>10530.887999999999</v>
       </c>
-      <c r="Y69" s="30">
-        <f>Y52-Y64</f>
+      <c r="V70" s="30">
+        <f t="shared" si="86"/>
+        <v>10558.444999999998</v>
+      </c>
+      <c r="Y70" s="30">
+        <f>Y53-Y65</f>
         <v>438.23500000000013</v>
       </c>
-      <c r="Z69" s="30">
-        <f>Z52-Z64</f>
+      <c r="Z70" s="30">
+        <f>Z53-Z65</f>
         <v>4243.9260000000004</v>
       </c>
-      <c r="AA69" s="30">
-        <f>AA52-AA64</f>
+      <c r="AA70" s="30">
+        <f>AA53-AA65</f>
         <v>8452.6650000000009</v>
       </c>
-      <c r="AB69" s="30">
-        <f>AB52-AB64</f>
+      <c r="AB70" s="30">
+        <f>AB53-AB65</f>
         <v>11031.466</v>
       </c>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F70" s="1">
-        <f t="shared" ref="F70" si="109">F69/F19</f>
+      <c r="F71" s="1">
+        <f t="shared" ref="F71" si="87">F70/F20</f>
         <v>4.4080086658029467</v>
       </c>
-      <c r="J70" s="1">
-        <f t="shared" ref="J70" si="110">J69/J19</f>
+      <c r="J71" s="1">
+        <f t="shared" ref="J71" si="88">J70/J20</f>
         <v>30.926123407736053</v>
       </c>
-      <c r="N70" s="1">
-        <f t="shared" ref="N70" si="111">N69/N19</f>
+      <c r="N71" s="1">
+        <f t="shared" ref="N71" si="89">N70/N20</f>
         <v>53.368623979541908</v>
       </c>
-      <c r="Q70" s="1">
-        <f t="shared" ref="Q70" si="112">Q69/Q19</f>
+      <c r="Q71" s="1">
+        <f t="shared" ref="Q71" si="90">Q70/Q20</f>
         <v>62.526032015171587</v>
       </c>
-      <c r="R70" s="1">
-        <f t="shared" ref="R70" si="113">R69/R19</f>
+      <c r="R71" s="1">
+        <f t="shared" ref="R71" si="91">R70/R20</f>
         <v>61.650794916840383</v>
       </c>
-      <c r="S70" s="1">
-        <f t="shared" ref="S70" si="114">S69/S19</f>
+      <c r="S71" s="1">
+        <f t="shared" ref="S71" si="92">S70/S20</f>
         <v>60.351081657501894</v>
       </c>
-      <c r="T70" s="1">
-        <f>T69/T19</f>
+      <c r="T71" s="1">
+        <f>T70/T20</f>
         <v>59.457757070299436</v>
       </c>
-      <c r="U70" s="1">
-        <f t="shared" ref="U70" si="115">U69/U19</f>
+      <c r="U71" s="1">
+        <f t="shared" ref="U71:V71" si="93">U70/U20</f>
         <v>57.328874782323787</v>
       </c>
-      <c r="Y70" s="1">
-        <f>Y69/Y19</f>
+      <c r="V71" s="1">
+        <f t="shared" si="93"/>
+        <v>57.035463273037927</v>
+      </c>
+      <c r="Y71" s="1">
+        <f>Y70/Y20</f>
         <v>4.511824055303669</v>
       </c>
-      <c r="Z70" s="1">
-        <f>Z69/Z19</f>
+      <c r="Z71" s="1">
+        <f>Z70/Z20</f>
         <v>32.624743427364088</v>
       </c>
-      <c r="AA70" s="1">
-        <f>AA69/AA19</f>
+      <c r="AA71" s="1">
+        <f>AA70/AA20</f>
         <v>57.615309329074869</v>
       </c>
-      <c r="AB70" s="1">
-        <f>AB69/AB19</f>
+      <c r="AB71" s="1">
+        <f>AB70/AB20</f>
         <v>63.333543173168131</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="30"/>
-    </row>
-    <row r="72" spans="2:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="35" t="s">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="V72" s="1"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+    </row>
+    <row r="73" spans="2:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="36">
-        <f>F42+F43</f>
+      <c r="F73" s="36">
+        <f>F43+F44</f>
         <v>748.34299999999996</v>
       </c>
-      <c r="J72" s="36">
-        <f>J42+J43</f>
+      <c r="J73" s="36">
+        <f>J43+J44</f>
         <v>1812.693</v>
       </c>
-      <c r="N72" s="36">
-        <f>N42+N43</f>
+      <c r="N73" s="36">
+        <f>N43+N44</f>
         <v>3039.7910000000002</v>
       </c>
-      <c r="Q72" s="36">
-        <f t="shared" ref="Q72" si="116">Q42+Q43</f>
+      <c r="Q73" s="36">
+        <f t="shared" ref="Q73" si="94">Q43+Q44</f>
         <v>5394.2520000000004</v>
       </c>
-      <c r="R72" s="36">
-        <f>R42+R43</f>
+      <c r="R73" s="36">
+        <f>R43+R44</f>
         <v>5357.8819999999996</v>
       </c>
-      <c r="S72" s="36">
-        <f>S42+S43</f>
+      <c r="S73" s="36">
+        <f>S43+S44</f>
         <v>5223.3119999999999</v>
       </c>
-      <c r="T72" s="36">
-        <f>T42+T43</f>
+      <c r="T73" s="36">
+        <f>T43+T44</f>
         <v>4392.2839999999997</v>
       </c>
-      <c r="U72" s="36">
-        <f t="shared" ref="U72" si="117">U42+U43</f>
+      <c r="U73" s="36">
+        <f t="shared" ref="U73:V73" si="95">U43+U44</f>
         <v>4208.5450000000001</v>
       </c>
-      <c r="V72" s="52"/>
-      <c r="Y72" s="36">
-        <f>F72</f>
-        <v>748.34299999999996</v>
-      </c>
-      <c r="Z72" s="36">
-        <f>J72</f>
-        <v>1812.693</v>
-      </c>
-      <c r="AA72" s="36">
-        <f>N72</f>
-        <v>3039.7910000000002</v>
-      </c>
-      <c r="AB72" s="36">
-        <f>R72</f>
-        <v>5357.8819999999996</v>
-      </c>
-      <c r="AC72" s="52"/>
-    </row>
-    <row r="73" spans="2:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="36">
-        <f>F61+F62+F58</f>
-        <v>434.49599999999998</v>
-      </c>
-      <c r="J73" s="36">
-        <f>J61+J62+J58</f>
-        <v>473.85999999999996</v>
-      </c>
-      <c r="N73" s="36">
-        <f>N61+N62+N58</f>
-        <v>319.92399999999998</v>
-      </c>
-      <c r="Q73" s="36">
-        <f>Q61+Q62+Q58</f>
-        <v>1005.801</v>
-      </c>
-      <c r="R73" s="36">
-        <f>R61+R62+R58</f>
-        <v>1011.039</v>
-      </c>
-      <c r="S73" s="36">
-        <f>S61+S62+S58</f>
-        <v>1008.296</v>
-      </c>
-      <c r="T73" s="36">
-        <f>T61+T62+T58</f>
-        <v>1005.554</v>
-      </c>
-      <c r="U73" s="36">
-        <f t="shared" ref="U73" si="118">U61+U62+U58</f>
-        <v>1011.827</v>
-      </c>
-      <c r="V73" s="52"/>
+      <c r="V73" s="36">
+        <f t="shared" si="95"/>
+        <v>4155.0689999999995</v>
+      </c>
       <c r="Y73" s="36">
         <f>F73</f>
-        <v>434.49599999999998</v>
+        <v>748.34299999999996</v>
       </c>
       <c r="Z73" s="36">
         <f>J73</f>
-        <v>473.85999999999996</v>
+        <v>1812.693</v>
       </c>
       <c r="AA73" s="36">
         <f>N73</f>
-        <v>319.92399999999998</v>
+        <v>3039.7910000000002</v>
       </c>
       <c r="AB73" s="36">
         <f>R73</f>
+        <v>5357.8819999999996</v>
+      </c>
+      <c r="AC73" s="109"/>
+      <c r="AD73" s="52"/>
+    </row>
+    <row r="74" spans="2:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="36">
+        <f>F62+F63+F59</f>
+        <v>434.49599999999998</v>
+      </c>
+      <c r="J74" s="36">
+        <f>J62+J63+J59</f>
+        <v>473.85999999999996</v>
+      </c>
+      <c r="N74" s="36">
+        <f>N62+N63+N59</f>
+        <v>319.92399999999998</v>
+      </c>
+      <c r="Q74" s="36">
+        <f>Q62+Q63+Q59</f>
+        <v>1005.801</v>
+      </c>
+      <c r="R74" s="36">
+        <f>R62+R63+R59</f>
         <v>1011.039</v>
       </c>
-      <c r="AC73" s="52"/>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+      <c r="S74" s="36">
+        <f>S62+S63+S59</f>
+        <v>1008.296</v>
+      </c>
+      <c r="T74" s="36">
+        <f>T62+T63+T59</f>
+        <v>1005.554</v>
+      </c>
+      <c r="U74" s="36">
+        <f t="shared" ref="U74:V74" si="96">U62+U63+U59</f>
+        <v>1011.827</v>
+      </c>
+      <c r="V74" s="36">
+        <f t="shared" si="96"/>
+        <v>1008.6719999999999</v>
+      </c>
+      <c r="Y74" s="36">
+        <f>F74</f>
+        <v>434.49599999999998</v>
+      </c>
+      <c r="Z74" s="36">
+        <f>J74</f>
+        <v>473.85999999999996</v>
+      </c>
+      <c r="AA74" s="36">
+        <f>N74</f>
+        <v>319.92399999999998</v>
+      </c>
+      <c r="AB74" s="36">
+        <f>R74</f>
+        <v>1011.039</v>
+      </c>
+      <c r="AC74" s="109"/>
+      <c r="AD74" s="52"/>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="30">
-        <f t="shared" ref="F74" si="119">F72-F73</f>
+      <c r="F75" s="30">
+        <f t="shared" ref="F75" si="97">F73-F74</f>
         <v>313.84699999999998</v>
       </c>
-      <c r="J74" s="30">
-        <f t="shared" ref="J74" si="120">J72-J73</f>
+      <c r="J75" s="30">
+        <f t="shared" ref="J75" si="98">J73-J74</f>
         <v>1338.8330000000001</v>
       </c>
-      <c r="N74" s="30">
-        <f t="shared" ref="N74" si="121">N72-N73</f>
+      <c r="N75" s="30">
+        <f t="shared" ref="N75" si="99">N73-N74</f>
         <v>2719.8670000000002</v>
       </c>
-      <c r="Q74" s="30">
-        <f t="shared" ref="Q74" si="122">Q72-Q73</f>
+      <c r="Q75" s="30">
+        <f t="shared" ref="Q75" si="100">Q73-Q74</f>
         <v>4388.451</v>
       </c>
-      <c r="R74" s="30">
-        <f t="shared" ref="R74" si="123">R72-R73</f>
+      <c r="R75" s="30">
+        <f t="shared" ref="R75" si="101">R73-R74</f>
         <v>4346.8429999999998</v>
       </c>
-      <c r="S74" s="30">
-        <f t="shared" ref="S74" si="124">S72-S73</f>
+      <c r="S75" s="30">
+        <f t="shared" ref="S75" si="102">S73-S74</f>
         <v>4215.0159999999996</v>
       </c>
-      <c r="T74" s="30">
-        <f>T72-T73</f>
+      <c r="T75" s="30">
+        <f>T73-T74</f>
         <v>3386.7299999999996</v>
       </c>
-      <c r="U74" s="30">
-        <f t="shared" ref="U74" si="125">U72-U73</f>
+      <c r="U75" s="30">
+        <f t="shared" ref="U75:V75" si="103">U73-U74</f>
         <v>3196.7179999999998</v>
       </c>
-      <c r="Y74" s="30">
-        <f>Y72-Y73</f>
+      <c r="V75" s="30">
+        <f t="shared" si="103"/>
+        <v>3146.3969999999995</v>
+      </c>
+      <c r="Y75" s="30">
+        <f>Y73-Y74</f>
         <v>313.84699999999998</v>
       </c>
-      <c r="Z74" s="30">
-        <f>Z72-Z73</f>
+      <c r="Z75" s="30">
+        <f>Z73-Z74</f>
         <v>1338.8330000000001</v>
       </c>
-      <c r="AA74" s="30">
-        <f>AA72-AA73</f>
+      <c r="AA75" s="30">
+        <f>AA73-AA74</f>
         <v>2719.8670000000002</v>
       </c>
-      <c r="AB74" s="30">
-        <f>AB72-AB73</f>
+      <c r="AB75" s="30">
+        <f>AB73-AB74</f>
         <v>4346.8429999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="44">
+      <c r="F77" s="44">
         <v>89.3</v>
       </c>
-      <c r="J76" s="44">
+      <c r="J77" s="44">
         <v>98.28</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M77" s="1">
         <v>247.09</v>
       </c>
-      <c r="N76" s="44">
+      <c r="N77" s="44">
         <v>338.5</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O77" s="1">
         <v>340.76</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P77" s="1">
         <v>394.16</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q77" s="1">
         <v>319.05</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R77" s="1">
         <v>263.33999999999997</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S77" s="1">
         <v>164.81</v>
       </c>
-      <c r="T76" s="1">
+      <c r="T77" s="1">
         <v>83.81</v>
       </c>
-      <c r="U76" s="1">
+      <c r="U77" s="1">
         <v>69.14</v>
       </c>
-      <c r="Y76" s="44">
+      <c r="V77" s="107">
+        <v>48.96</v>
+      </c>
+      <c r="Y77" s="44">
         <v>98.28</v>
       </c>
-      <c r="Z76" s="44">
+      <c r="Z77" s="44">
         <v>98.28</v>
       </c>
-      <c r="AA76" s="44">
-        <f>N76</f>
+      <c r="AA77" s="44">
+        <f>N77</f>
         <v>338.5</v>
       </c>
-      <c r="AB76" s="1">
-        <f>R76</f>
+      <c r="AB77" s="1">
+        <f>R77</f>
         <v>263.33999999999997</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="30">
-        <f t="shared" ref="F77" si="126">F76*F19</f>
+      <c r="F78" s="30">
+        <f t="shared" ref="F78" si="104">F77*F20</f>
         <v>8878.0191844000001</v>
       </c>
-      <c r="J77" s="30">
-        <f t="shared" ref="J77" si="127">J76*J19</f>
+      <c r="J78" s="30">
+        <f t="shared" ref="J78" si="105">J77*J20</f>
         <v>13535.96464584</v>
       </c>
-      <c r="M77" s="30">
-        <f t="shared" ref="M77:T77" si="128">M76*M19</f>
+      <c r="M78" s="30">
+        <f t="shared" ref="M78:T78" si="106">M77*M20</f>
         <v>36446.040621749999</v>
       </c>
-      <c r="N77" s="30">
-        <f t="shared" si="128"/>
+      <c r="N78" s="30">
+        <f t="shared" si="106"/>
         <v>53612.532779499998</v>
       </c>
-      <c r="O77" s="30">
-        <f t="shared" si="128"/>
+      <c r="O78" s="30">
+        <f t="shared" si="106"/>
         <v>56961.597668080001</v>
       </c>
-      <c r="P77" s="30">
-        <f t="shared" si="128"/>
+      <c r="P78" s="30">
+        <f t="shared" si="106"/>
         <v>68350.181163679998</v>
       </c>
-      <c r="Q77" s="30">
-        <f t="shared" si="128"/>
+      <c r="Q78" s="30">
+        <f t="shared" si="106"/>
         <v>56545.641479250007</v>
       </c>
-      <c r="R77" s="30">
-        <f t="shared" si="128"/>
+      <c r="R78" s="30">
+        <f t="shared" si="106"/>
         <v>47120.661791279999</v>
       </c>
-      <c r="S77" s="30">
-        <f t="shared" si="128"/>
+      <c r="S78" s="30">
+        <f t="shared" si="106"/>
         <v>29813.916889529999</v>
       </c>
-      <c r="T77" s="30">
-        <f t="shared" si="128"/>
+      <c r="T78" s="30">
+        <f t="shared" si="106"/>
         <v>15282.57448184</v>
       </c>
-      <c r="U77" s="30">
-        <f t="shared" ref="U77" si="129">U76*U19</f>
+      <c r="U78" s="30">
+        <f t="shared" ref="U78:V78" si="107">U77*U20</f>
         <v>12700.503874960001</v>
       </c>
-      <c r="Y77" s="30">
-        <f t="shared" ref="Y77" si="130">Y76*Y19</f>
+      <c r="V78" s="30">
+        <f t="shared" si="107"/>
+        <v>9063.5095699199992</v>
+      </c>
+      <c r="Y78" s="30">
+        <f t="shared" ref="Y78" si="108">Y77*Y20</f>
         <v>9545.9697169200008</v>
       </c>
-      <c r="Z77" s="30">
-        <f>Z76*Z19</f>
+      <c r="Z78" s="30">
+        <f>Z77*Z20</f>
         <v>12784.56176088</v>
       </c>
-      <c r="AA77" s="30">
-        <f>AA76*AA19</f>
+      <c r="AA78" s="30">
+        <f>AA77*AA20</f>
         <v>49660.8824255</v>
       </c>
-      <c r="AB77" s="30">
-        <f>AB76*AB19</f>
+      <c r="AB78" s="30">
+        <f>AB77*AB20</f>
         <v>45868.683653099994</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="30">
-        <f t="shared" ref="F78" si="131">F77-F74</f>
+      <c r="F79" s="30">
+        <f t="shared" ref="F79" si="109">F78-F75</f>
         <v>8564.1721844000003</v>
       </c>
-      <c r="J78" s="30">
-        <f t="shared" ref="J78" si="132">J77-J74</f>
+      <c r="J79" s="30">
+        <f t="shared" ref="J79" si="110">J78-J75</f>
         <v>12197.13164584</v>
       </c>
-      <c r="N78" s="30">
-        <f t="shared" ref="N78" si="133">N77-N74</f>
+      <c r="N79" s="30">
+        <f t="shared" ref="N79" si="111">N78-N75</f>
         <v>50892.665779499999</v>
       </c>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30">
-        <f t="shared" ref="Q78:R78" si="134">Q77-Q74</f>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30">
+        <f t="shared" ref="Q79:R79" si="112">Q78-Q75</f>
         <v>52157.190479250006</v>
       </c>
-      <c r="R78" s="30">
-        <f t="shared" si="134"/>
+      <c r="R79" s="30">
+        <f t="shared" si="112"/>
         <v>42773.818791279999</v>
       </c>
-      <c r="S78" s="30">
-        <f t="shared" ref="S78" si="135">S77-S74</f>
+      <c r="S79" s="30">
+        <f t="shared" ref="S79" si="113">S78-S75</f>
         <v>25598.900889529999</v>
       </c>
-      <c r="T78" s="30">
-        <f>T77-T74</f>
+      <c r="T79" s="30">
+        <f>T78-T75</f>
         <v>11895.84448184</v>
       </c>
-      <c r="U78" s="30">
-        <f t="shared" ref="U78" si="136">U77-U74</f>
+      <c r="U79" s="30">
+        <f t="shared" ref="U79:V79" si="114">U78-U75</f>
         <v>9503.7858749600018</v>
       </c>
-      <c r="Y78" s="30">
-        <f t="shared" ref="Y78" si="137">Y77-Y74</f>
+      <c r="V79" s="30">
+        <f t="shared" si="114"/>
+        <v>5917.1125699200002</v>
+      </c>
+      <c r="Y79" s="30">
+        <f t="shared" ref="Y79" si="115">Y78-Y75</f>
         <v>9232.122716920001</v>
       </c>
-      <c r="Z78" s="30">
-        <f t="shared" ref="Z78:AA78" si="138">Z77-Z74</f>
+      <c r="Z79" s="30">
+        <f t="shared" ref="Z79:AA79" si="116">Z78-Z75</f>
         <v>11445.72876088</v>
       </c>
-      <c r="AA78" s="30">
-        <f t="shared" si="138"/>
+      <c r="AA79" s="30">
+        <f t="shared" si="116"/>
         <v>46941.015425500002</v>
       </c>
-      <c r="AB78" s="30">
-        <f t="shared" ref="AB78" si="139">AB77-AB74</f>
+      <c r="AB79" s="30">
+        <f t="shared" ref="AB79" si="117">AB78-AB75</f>
         <v>41521.840653099993</v>
-      </c>
-    </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F80" s="37">
-        <f>F76/F70</f>
-        <v>20.258580862779098</v>
-      </c>
-      <c r="J80" s="37">
-        <f>J76/J70</f>
-        <v>3.1778958747676609</v>
-      </c>
-      <c r="N80" s="37">
-        <f>N76/N70</f>
-        <v>6.3426780523657325</v>
-      </c>
-      <c r="Q80" s="37">
-        <f t="shared" ref="Q80" si="140">Q76/Q70</f>
-        <v>5.1026746735277291</v>
-      </c>
-      <c r="R80" s="37">
-        <f>R76/R70</f>
-        <v>4.2714777701603754</v>
-      </c>
-      <c r="S80" s="37">
-        <f>S76/S70</f>
-        <v>2.730854120151688</v>
-      </c>
-      <c r="T80" s="37">
-        <f>T76/T70</f>
-        <v>1.4095721757702342</v>
-      </c>
-      <c r="U80" s="37">
-        <f t="shared" ref="U80" si="141">U76/U70</f>
-        <v>1.206024019528078</v>
-      </c>
-      <c r="Y80" s="37">
-        <f t="shared" ref="Y80" si="142">Y76/Y70</f>
-        <v>21.782764308921006</v>
-      </c>
-      <c r="Z80" s="37">
-        <f t="shared" ref="Z80" si="143">Z76/Z70</f>
-        <v>3.0124374838015551</v>
-      </c>
-      <c r="AA80" s="37">
-        <f>AA76/AA70</f>
-        <v>5.8751745663054189</v>
-      </c>
-      <c r="AB80" s="37">
-        <f>AB76/AB70</f>
-        <v>4.1579862235082805</v>
       </c>
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="F81" s="37">
+        <f>F77/F71</f>
+        <v>20.258580862779098</v>
+      </c>
+      <c r="J81" s="37">
+        <f>J77/J71</f>
+        <v>3.1778958747676609</v>
       </c>
       <c r="N81" s="37">
-        <f>N77/SUM(K4:N4)</f>
-        <v>53.82465574780209</v>
+        <f>N77/N71</f>
+        <v>6.3426780523657325</v>
       </c>
       <c r="Q81" s="37">
-        <f>Q77/SUM(N4:Q4)</f>
-        <v>22.199267614739412</v>
+        <f t="shared" ref="Q81" si="118">Q77/Q71</f>
+        <v>5.1026746735277291</v>
       </c>
       <c r="R81" s="37">
-        <f>R77/SUM(O4:R4)</f>
-        <v>16.581045510065838</v>
+        <f>R77/R71</f>
+        <v>4.2714777701603754</v>
       </c>
       <c r="S81" s="37">
-        <f>S77/SUM(P4:S4)</f>
-        <v>9.5336989696036145</v>
+        <f>S77/S71</f>
+        <v>2.730854120151688</v>
       </c>
       <c r="T81" s="37">
-        <f>T77/SUM(Q4:T4)</f>
-        <v>4.4927117390362339</v>
+        <f>T77/T71</f>
+        <v>1.4095721757702342</v>
       </c>
       <c r="U81" s="37">
-        <f t="shared" ref="U81" si="144">U77/SUM(R4:U4)</f>
-        <v>3.4848498391023606</v>
+        <f t="shared" ref="U81:V81" si="119">U77/U71</f>
+        <v>1.206024019528078</v>
+      </c>
+      <c r="V81" s="37">
+        <f t="shared" si="119"/>
+        <v>0.85841329570026659</v>
       </c>
       <c r="Y81" s="37">
-        <f>Y77/Y4</f>
-        <v>14.684593614073627</v>
+        <f t="shared" ref="Y81" si="120">Y77/Y71</f>
+        <v>21.782764308921006</v>
       </c>
       <c r="Z81" s="37">
-        <f>Z77/Z4</f>
-        <v>11.269213200266556</v>
+        <f t="shared" ref="Z81" si="121">Z77/Z71</f>
+        <v>3.0124374838015551</v>
       </c>
       <c r="AA81" s="37">
-        <f>AA77/AA4</f>
-        <v>28.187966248546921</v>
+        <f>AA77/AA71</f>
+        <v>5.8751745663054189</v>
       </c>
       <c r="AB81" s="37">
-        <f>AB77/AB4</f>
-        <v>16.140493410464138</v>
+        <f>AB77/AB71</f>
+        <v>4.1579862235082805</v>
       </c>
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N82" s="37">
+        <f>N78/SUM(K4:N4)</f>
+        <v>53.82465574780209</v>
+      </c>
+      <c r="Q82" s="37">
+        <f>Q78/SUM(N4:Q4)</f>
+        <v>22.199267614739412</v>
+      </c>
+      <c r="R82" s="37">
+        <f>R78/SUM(O4:R4)</f>
+        <v>16.581045510065838</v>
+      </c>
+      <c r="S82" s="37">
+        <f>S78/SUM(P4:S4)</f>
+        <v>9.5336989696036145</v>
+      </c>
+      <c r="T82" s="37">
+        <f>T78/SUM(Q4:T4)</f>
+        <v>4.4927117390362339</v>
+      </c>
+      <c r="U82" s="37">
+        <f>U78/SUM(R4:U4)</f>
+        <v>3.4848498391023606</v>
+      </c>
+      <c r="V82" s="37">
+        <f t="shared" ref="V82" si="122">V78/SUM(S4:V4)</f>
+        <v>2.3687269233083157</v>
+      </c>
+      <c r="Y82" s="37">
+        <f>Y78/Y4</f>
+        <v>14.684593614073627</v>
+      </c>
+      <c r="Z82" s="37">
+        <f>Z78/Z4</f>
+        <v>11.269213200266556</v>
+      </c>
+      <c r="AA82" s="37">
+        <f>AA78/AA4</f>
+        <v>28.187966248546921</v>
+      </c>
+      <c r="AB82" s="37">
+        <f>AB78/AB4</f>
+        <v>16.140493410464138</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N82" s="37">
-        <f t="shared" ref="N82" si="145">N76/SUM(K18:N18)</f>
+      <c r="N83" s="37">
+        <f t="shared" ref="N83" si="123">N77/SUM(K19:N19)</f>
         <v>-175.84216103089744</v>
       </c>
-      <c r="Q82" s="37">
-        <f t="shared" ref="Q82" si="146">Q76/SUM(N18:Q18)</f>
+      <c r="Q83" s="37">
+        <f t="shared" ref="Q83" si="124">Q77/SUM(N19:Q19)</f>
         <v>-64.500694009685063</v>
       </c>
-      <c r="R82" s="37">
-        <f t="shared" ref="R82:S82" si="147">R76/SUM(O18:R18)</f>
+      <c r="R83" s="37">
+        <f t="shared" ref="R83:S83" si="125">R77/SUM(O19:R19)</f>
         <v>-48.385204422553002</v>
       </c>
-      <c r="S82" s="37">
-        <f t="shared" si="147"/>
+      <c r="S83" s="37">
+        <f t="shared" si="125"/>
         <v>-30.339872026893296</v>
       </c>
-      <c r="T82" s="37">
-        <f>T76/SUM(Q18:T18)</f>
+      <c r="T83" s="37">
+        <f>T77/SUM(Q19:T19)</f>
         <v>-14.233498713981406</v>
       </c>
-      <c r="U82" s="37">
-        <f t="shared" ref="U82" si="148">U76/SUM(R18:U18)</f>
+      <c r="U83" s="37">
+        <f t="shared" ref="U83" si="126">U77/SUM(R19:U19)</f>
         <v>-9.5372734774675205</v>
       </c>
-      <c r="Y82" s="37">
-        <f t="shared" ref="Y82:Z82" si="149">Y76/Y18</f>
+      <c r="V83" s="37">
+        <f t="shared" ref="V83" si="127">V77/SUM(S19:V19)</f>
+        <v>-7.1367589673809659</v>
+      </c>
+      <c r="Y83" s="37">
+        <f t="shared" ref="Y83:Z83" si="128">Y77/Y19</f>
         <v>-78.278376345193479</v>
       </c>
-      <c r="Z82" s="37">
-        <f t="shared" si="149"/>
+      <c r="Z83" s="37">
+        <f t="shared" si="128"/>
         <v>-41.634979665019884</v>
       </c>
-      <c r="AA82" s="37">
-        <f>AA76/AA18</f>
+      <c r="AA83" s="37">
+        <f>AA77/AA19</f>
         <v>-101.14665276009771</v>
       </c>
-      <c r="AB82" s="37">
-        <f>AB76/AB18</f>
+      <c r="AB83" s="37">
+        <f>AB77/AB19</f>
         <v>-48.287907835666907</v>
       </c>
     </row>
@@ -17425,19 +17732,365 @@
     <hyperlink ref="Y1" r:id="rId7" xr:uid="{620C08C8-E4C1-490D-823F-7D8C45A07CBD}"/>
     <hyperlink ref="J1" r:id="rId8" xr:uid="{A20F0590-51BB-47FE-A2F0-ABB514CD183A}"/>
     <hyperlink ref="U1" r:id="rId9" xr:uid="{AFB77E95-5EDC-441A-8256-717B30720354}"/>
+    <hyperlink ref="V1" r:id="rId10" xr:uid="{B8CEE0E3-E143-44FB-A028-EFA8A79E601B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="Y46:AB46 Y60:AB64 Y52 AA52:AB52 Y50:AB51 Y49 AA49:AB49 Y48:AB48 Y47 AA47:AB47 Y53:AB57 V59:X59 Y59:AB59 V16 AC6:AC16 AD16:AM16" formula="1"/>
-    <ignoredError sqref="N81:P81 S81 Q81:R81 T81:U81 V14" formulaRange="1"/>
+    <ignoredError sqref="Y47:AB47 Y61:AB65 Y53 AA53:AB53 Y51:AB52 Y50 AA50:AB50 Y49:AB49 Y48 AA48:AB48 Y54:AB58 W60:AB60 AD17:AM17 AC1 AC6 AC24:AC32 AC39:AC1048576 AC16" formula="1"/>
+    <ignoredError sqref="N82:P82 S82 Q82:R82 T82 AC20 U82:V82" formulaRange="1"/>
+    <ignoredError sqref="AC21:AC23 AC4:AC5 AC7:AC15 AC18 AC17" formula="1" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0596796-81EF-41D6-8FE0-729185257088}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="51"/>
+    <col min="4" max="4" width="9.140625" style="111"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="49"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="54" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D3" s="112">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="56">
+        <v>1024.3747107660538</v>
+      </c>
+      <c r="D4" s="113">
+        <v>1024.5740000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="57">
+        <v>481.5091548347703</v>
+      </c>
+      <c r="D5" s="114">
+        <v>543.43200000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="56">
+        <v>542.86555593128355</v>
+      </c>
+      <c r="D6" s="113">
+        <v>481.14200000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="57">
+        <v>286.82491901449509</v>
+      </c>
+      <c r="D7" s="114">
+        <v>274.09399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="57">
+        <v>338.04365455279776</v>
+      </c>
+      <c r="D8" s="114">
+        <v>296.33499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="57">
+        <v>138.29058595341726</v>
+      </c>
+      <c r="D9" s="114">
+        <v>125.095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C10" s="57">
+        <v>18.112749999999998</v>
+      </c>
+      <c r="D10" s="114">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C11" s="57">
+        <v>24.430499999999999</v>
+      </c>
+      <c r="D11" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="57">
+        <v>805.70240952071015</v>
+      </c>
+      <c r="D12" s="114">
+        <v>699.70899999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="56">
+        <v>-262.8368535894266</v>
+      </c>
+      <c r="D13" s="113">
+        <v>-218.56699999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="57">
+        <v>10.698</v>
+      </c>
+      <c r="D14" s="114">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
+      <c r="D15" s="114">
+        <v>20.280999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="57">
+        <v>-273.53485358942658</v>
+      </c>
+      <c r="D16" s="114">
+        <v>-220.18599999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="57">
+        <v>2.735348535894266</v>
+      </c>
+      <c r="D17" s="114">
+        <v>9.1969999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="56">
+        <v>-276.27020212532085</v>
+      </c>
+      <c r="D18" s="113">
+        <v>-229.3829999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="62">
+        <v>-1.5039814138873953</v>
+      </c>
+      <c r="D19" s="115">
+        <v>-1.2390996659033839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="61">
+        <v>183.692564</v>
+      </c>
+      <c r="D20" s="116">
+        <v>185.12070199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="117">
+        <v>0.21575947144091212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="58">
+        <v>4.2058442535887863E-2</v>
+      </c>
+      <c r="D23" s="118">
+        <v>4.2058442535887863E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="58">
+        <v>0.47005177868427206</v>
+      </c>
+      <c r="D25" s="118">
+        <v>0.47005177868427206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="58">
+        <v>-0.25658272390663611</v>
+      </c>
+      <c r="D26" s="118">
+        <v>-0.2133247574113728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="58">
+        <v>-0.26969642965777518</v>
+      </c>
+      <c r="D27" s="118">
+        <v>-0.22388133995201898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="58">
+        <v>-0.01</v>
+      </c>
+      <c r="D28" s="118">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="58">
+        <v>0.28477582884803554</v>
+      </c>
+      <c r="D30" s="118">
+        <v>0.22775018029196104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="63">
+        <v>7.3398739687606795E-3</v>
+      </c>
+      <c r="D31" s="119">
+        <v>-3.737159112859334E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="52"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="52"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="57"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="52"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="50"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="50"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="50"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="50"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="52"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C88468-B575-4B07-B1E2-1E3BE5EA25D5}">
   <dimension ref="A1:G1596"/>
   <sheetViews>

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F18EB-2297-4386-8E3B-FA60D2A18EB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0FA28D-6FEC-4484-BFE2-C1C085D0FDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5681,46 +5681,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5773,6 +5733,46 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11926,8 +11926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
   <dimension ref="B2:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11940,20 +11940,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="117" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11961,31 +11961,31 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="G5" s="83" t="s">
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="G5" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="126"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>66.05</v>
+        <v>74.5</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="20"/>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>12227.222367099999</v>
+        <v>13791.492299</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="20"/>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>9080.8253671000002</v>
+        <v>10645.095299000001</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="20"/>
@@ -12165,11 +12165,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12186,10 +12186,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="121"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12206,8 +12206,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12224,10 +12224,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="121"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12244,8 +12244,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12285,11 +12285,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12306,10 +12306,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="93"/>
+      <c r="D23" s="121"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12326,10 +12326,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="120">
         <v>2008</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="121"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12346,10 +12346,10 @@
       <c r="B25" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="C25" s="92">
+      <c r="C25" s="120">
         <v>2016</v>
       </c>
-      <c r="D25" s="93"/>
+      <c r="D25" s="121"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12364,8 +12364,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="121"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12380,8 +12380,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="121"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12420,10 +12420,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="91"/>
+      <c r="D29" s="132"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12437,61 +12437,61 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="127">
         <f>C6/'Financial Model'!V71</f>
-        <v>1.1580514334355108</v>
-      </c>
-      <c r="D33" s="87"/>
+        <v>1.3062048719295314</v>
+      </c>
+      <c r="D33" s="128"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="127">
         <f>C8/SUM('Financial Model'!$S$4:$V$4)</f>
-        <v>3.1955558268895889</v>
-      </c>
-      <c r="D34" s="87"/>
+        <v>3.6043740969458646</v>
+      </c>
+      <c r="D34" s="128"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="127">
         <f>C12/SUM('Financial Model'!$S$4:$V$4)</f>
-        <v>2.3732523662024172</v>
-      </c>
-      <c r="D35" s="87"/>
+        <v>2.7820706362586933</v>
+      </c>
+      <c r="D35" s="128"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C36" s="86">
+      <c r="C36" s="127">
         <f>C6/SUM('Financial Model'!S19:V19)</f>
-        <v>-9.6279193177188063</v>
-      </c>
-      <c r="D36" s="87"/>
+        <v>-10.859651614989419</v>
+      </c>
+      <c r="D36" s="128"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="C37" s="86">
+      <c r="C37" s="127">
         <f>C12/SUM('Financial Model'!S18:V18)</f>
-        <v>-7.2291219302707903</v>
-      </c>
-      <c r="D37" s="87"/>
+        <v>-8.4744160100943784</v>
+      </c>
+      <c r="D37" s="128"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
@@ -12500,29 +12500,21 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="128"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="128"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="89"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -12539,6 +12531,14 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12553,7 +12553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
   <dimension ref="A1:BW83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -12565,10 +12565,10 @@
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="107"/>
+    <col min="22" max="22" width="9.140625" style="91"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="109"/>
+    <col min="29" max="29" width="9.140625" style="93"/>
     <col min="30" max="30" width="9.140625" style="52"/>
     <col min="31" max="39" width="9.140625" style="35"/>
     <col min="40" max="40" width="9.140625" style="1"/>
@@ -12635,7 +12635,7 @@
       <c r="U1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="101" t="s">
+      <c r="V1" s="85" t="s">
         <v>44</v>
       </c>
       <c r="W1" s="22" t="s">
@@ -12653,7 +12653,7 @@
       <c r="AB1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="120" t="s">
+      <c r="AC1" s="104" t="s">
         <v>49</v>
       </c>
       <c r="AD1" s="53" t="s">
@@ -12722,7 +12722,7 @@
       <c r="U2" s="26">
         <v>44834</v>
       </c>
-      <c r="V2" s="100">
+      <c r="V2" s="84">
         <v>110335</v>
       </c>
       <c r="Y2" s="26">
@@ -12737,7 +12737,7 @@
       <c r="AB2" s="26">
         <v>44561</v>
       </c>
-      <c r="AC2" s="129">
+      <c r="AC2" s="113">
         <f>V2</f>
         <v>110335</v>
       </c>
@@ -12772,7 +12772,7 @@
       <c r="U3" s="25">
         <v>37926</v>
       </c>
-      <c r="V3" s="99">
+      <c r="V3" s="83">
         <v>42036</v>
       </c>
       <c r="Z3" s="25">
@@ -12781,7 +12781,7 @@
       <c r="AB3" s="25">
         <v>39845</v>
       </c>
-      <c r="AC3" s="128">
+      <c r="AC3" s="112">
         <f>V3</f>
         <v>42036</v>
       </c>
@@ -12833,7 +12833,7 @@
       <c r="U4" s="29">
         <v>983.03</v>
       </c>
-      <c r="V4" s="102">
+      <c r="V4" s="86">
         <v>1024.5740000000001</v>
       </c>
       <c r="Y4" s="29">
@@ -12848,48 +12848,48 @@
       <c r="AB4" s="29">
         <v>2841.8389999999999</v>
       </c>
-      <c r="AC4" s="121">
+      <c r="AC4" s="105">
         <f>SUM(S4:V4)</f>
         <v>3826.3210000000004</v>
       </c>
       <c r="AD4" s="59">
-        <f>AC4*(1+AD22)</f>
+        <f t="shared" ref="AD4:AM4" si="0">AC4*(1+AD22)</f>
         <v>5165.5333500000006</v>
       </c>
       <c r="AE4" s="69">
-        <f>AD4*(1+AE22)</f>
+        <f t="shared" si="0"/>
         <v>6715.1933550000012</v>
       </c>
       <c r="AF4" s="69">
-        <f>AE4*(1+AF22)</f>
+        <f t="shared" si="0"/>
         <v>8595.4474944000012</v>
       </c>
       <c r="AG4" s="69">
-        <f>AF4*(1+AG22)</f>
+        <f t="shared" si="0"/>
         <v>10314.53699328</v>
       </c>
       <c r="AH4" s="69">
-        <f>AG4*(1+AH22)</f>
+        <f t="shared" si="0"/>
         <v>11861.717542271999</v>
       </c>
       <c r="AI4" s="69">
-        <f>AH4*(1+AI22)</f>
+        <f t="shared" si="0"/>
         <v>13640.975173612798</v>
       </c>
       <c r="AJ4" s="69">
-        <f>AI4*(1+AJ22)</f>
+        <f t="shared" si="0"/>
         <v>15141.482442710207</v>
       </c>
       <c r="AK4" s="69">
-        <f>AJ4*(1+AK22)</f>
+        <f t="shared" si="0"/>
         <v>16201.386213699921</v>
       </c>
       <c r="AL4" s="69">
-        <f>AK4*(1+AL22)</f>
+        <f t="shared" si="0"/>
         <v>17335.483248658918</v>
       </c>
       <c r="AM4" s="69">
-        <f>AL4*(1+AM22)</f>
+        <f t="shared" si="0"/>
         <v>18548.967076065044</v>
       </c>
     </row>
@@ -12930,7 +12930,7 @@
       <c r="U5" s="30">
         <v>520.95500000000004</v>
       </c>
-      <c r="V5" s="103">
+      <c r="V5" s="87">
         <v>543.43200000000002</v>
       </c>
       <c r="W5" s="2"/>
@@ -12946,48 +12946,48 @@
       <c r="AB5" s="30">
         <v>1451.126</v>
       </c>
-      <c r="AC5" s="122">
+      <c r="AC5" s="106">
         <f>SUM(S5:V5)</f>
         <v>2012.7439999999999</v>
       </c>
       <c r="AD5" s="64">
-        <f>AD4*AD25</f>
+        <f t="shared" ref="AD5:AM5" si="1">AD4*AD25</f>
         <v>2582.7666750000003</v>
       </c>
       <c r="AE5" s="36">
-        <f>AE4*AE25</f>
+        <f t="shared" si="1"/>
         <v>3357.5966775000006</v>
       </c>
       <c r="AF5" s="36">
-        <f>AF4*AF25</f>
+        <f t="shared" si="1"/>
         <v>4555.587172032001</v>
       </c>
       <c r="AG5" s="36">
-        <f>AG4*AG25</f>
+        <f t="shared" si="1"/>
         <v>5672.995346304001</v>
       </c>
       <c r="AH5" s="36">
-        <f>AH4*AH25</f>
+        <f t="shared" si="1"/>
         <v>6523.9446482496005</v>
       </c>
       <c r="AI5" s="36">
-        <f>AI4*AI25</f>
+        <f t="shared" si="1"/>
         <v>7502.5363454870394</v>
       </c>
       <c r="AJ5" s="36">
-        <f>AJ4*AJ25</f>
+        <f t="shared" si="1"/>
         <v>8327.8153434906144</v>
       </c>
       <c r="AK5" s="36">
-        <f>AK4*AK25</f>
+        <f t="shared" si="1"/>
         <v>8910.7624175349574</v>
       </c>
       <c r="AL5" s="36">
-        <f>AL4*AL25</f>
+        <f t="shared" si="1"/>
         <v>9534.5157867624057</v>
       </c>
       <c r="AM5" s="36">
-        <f>AM4*AM25</f>
+        <f t="shared" si="1"/>
         <v>10201.931891835775</v>
       </c>
     </row>
@@ -12996,59 +12996,59 @@
         <v>61</v>
       </c>
       <c r="F6" s="29">
-        <f t="shared" ref="F6" si="0">F4-F5</f>
+        <f t="shared" ref="F6" si="2">F4-F5</f>
         <v>108.014</v>
       </c>
       <c r="J6" s="29">
-        <f t="shared" ref="J6" si="1">J4-J5</f>
+        <f t="shared" ref="J6" si="3">J4-J5</f>
         <v>174.69</v>
       </c>
       <c r="M6" s="29">
-        <f t="shared" ref="M6" si="2">M4-M5</f>
+        <f t="shared" ref="M6" si="4">M4-M5</f>
         <v>230.874</v>
       </c>
       <c r="N6" s="29">
-        <f t="shared" ref="N6:U6" si="3">N4-N5</f>
+        <f t="shared" ref="N6:U6" si="5">N4-N5</f>
         <v>282.12100000000004</v>
       </c>
       <c r="O6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>298.30400000000003</v>
       </c>
       <c r="P6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>331.24700000000001</v>
       </c>
       <c r="Q6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>364.61500000000007</v>
       </c>
       <c r="R6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396.54700000000003</v>
       </c>
       <c r="S6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>425.07100000000008</v>
       </c>
       <c r="T6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>445.28900000000004</v>
       </c>
       <c r="U6" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>462.07499999999993</v>
       </c>
-      <c r="V6" s="102">
+      <c r="V6" s="86">
         <f>V4-V5</f>
         <v>481.14200000000005</v>
       </c>
       <c r="Y6" s="29">
-        <f t="shared" ref="Y6:Z6" si="4">Y4-Y5</f>
+        <f t="shared" ref="Y6:Z6" si="6">Y4-Y5</f>
         <v>349.226</v>
       </c>
       <c r="Z6" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>608.91700000000003</v>
       </c>
       <c r="AA6" s="29">
@@ -13059,7 +13059,7 @@
         <f>AB4-AB5</f>
         <v>1390.713</v>
       </c>
-      <c r="AC6" s="121">
+      <c r="AC6" s="105">
         <f>AC4-AC5</f>
         <v>1813.5770000000005</v>
       </c>
@@ -13068,39 +13068,39 @@
         <v>2582.7666750000003</v>
       </c>
       <c r="AE6" s="69">
-        <f t="shared" ref="AE6:AM6" si="5">AE4-AE5</f>
+        <f t="shared" ref="AE6:AM6" si="7">AE4-AE5</f>
         <v>3357.5966775000006</v>
       </c>
       <c r="AF6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4039.8603223680002</v>
       </c>
       <c r="AG6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4641.5416469759994</v>
       </c>
       <c r="AH6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5337.7728940223988</v>
       </c>
       <c r="AI6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6138.4388281257588</v>
       </c>
       <c r="AJ6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6813.6670992195923</v>
       </c>
       <c r="AK6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7290.623796164964</v>
       </c>
       <c r="AL6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7800.9674618965128</v>
       </c>
       <c r="AM6" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8347.0351842292694</v>
       </c>
     </row>
@@ -13141,7 +13141,7 @@
       <c r="U7" s="30">
         <v>284.73500000000001</v>
       </c>
-      <c r="V7" s="103">
+      <c r="V7" s="87">
         <v>274.09399999999999</v>
       </c>
       <c r="Y7" s="30">
@@ -13156,8 +13156,8 @@
       <c r="AB7" s="30">
         <v>789.21900000000005</v>
       </c>
-      <c r="AC7" s="122">
-        <f t="shared" ref="AC7:AC11" si="6">SUM(S7:V7)</f>
+      <c r="AC7" s="106">
+        <f t="shared" ref="AC7:AC11" si="8">SUM(S7:V7)</f>
         <v>1079.0809999999999</v>
       </c>
       <c r="AD7" s="64">
@@ -13177,11 +13177,11 @@
         <v>1340.8898091264</v>
       </c>
       <c r="AH7" s="36">
-        <f t="shared" ref="AH7:AI7" si="7">0.13*AH4</f>
+        <f t="shared" ref="AH7:AI7" si="9">0.13*AH4</f>
         <v>1542.02328049536</v>
       </c>
       <c r="AI7" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1773.3267725696639</v>
       </c>
       <c r="AJ7" s="36">
@@ -13189,15 +13189,15 @@
         <v>1211.3185954168166</v>
       </c>
       <c r="AK7" s="36">
-        <f t="shared" ref="AK7:AM7" si="8">0.08*AK4</f>
+        <f t="shared" ref="AK7:AM7" si="10">0.08*AK4</f>
         <v>1296.1108970959938</v>
       </c>
       <c r="AL7" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1386.8386598927134</v>
       </c>
       <c r="AM7" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1483.9173660852036</v>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
       <c r="U8" s="30">
         <v>328.83300000000003</v>
       </c>
-      <c r="V8" s="103">
+      <c r="V8" s="87">
         <v>296.33499999999998</v>
       </c>
       <c r="Y8" s="30">
@@ -13253,8 +13253,8 @@
       <c r="AB8" s="30">
         <v>1044.6179999999999</v>
       </c>
-      <c r="AC8" s="122">
-        <f t="shared" si="6"/>
+      <c r="AC8" s="106">
+        <f t="shared" si="8"/>
         <v>1248.0320000000002</v>
       </c>
       <c r="AD8" s="64">
@@ -13262,7 +13262,7 @@
         <v>1704.6260055000002</v>
       </c>
       <c r="AE8" s="36">
-        <f t="shared" ref="AE8" si="9">AE4*0.33</f>
+        <f t="shared" ref="AE8" si="11">AE4*0.33</f>
         <v>2216.0138071500005</v>
       </c>
       <c r="AF8" s="36">
@@ -13274,7 +13274,7 @@
         <v>1650.3259189248001</v>
       </c>
       <c r="AH8" s="36">
-        <f t="shared" ref="AH8" si="10">AH4*0.16</f>
+        <f t="shared" ref="AH8" si="12">AH4*0.16</f>
         <v>1897.8748067635199</v>
       </c>
       <c r="AI8" s="36">
@@ -13282,19 +13282,19 @@
         <v>1364.0975173612799</v>
       </c>
       <c r="AJ8" s="36">
-        <f t="shared" ref="AJ8:AM8" si="11">AJ4*0.1</f>
+        <f t="shared" ref="AJ8:AM8" si="13">AJ4*0.1</f>
         <v>1514.1482442710208</v>
       </c>
       <c r="AK8" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1620.1386213699923</v>
       </c>
       <c r="AL8" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1733.548324865892</v>
       </c>
       <c r="AM8" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1854.8967076065046</v>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
       <c r="U9" s="30">
         <v>135.33099999999999</v>
       </c>
-      <c r="V9" s="103">
+      <c r="V9" s="87">
         <v>125.095</v>
       </c>
       <c r="Y9" s="30">
@@ -13350,8 +13350,8 @@
       <c r="AB9" s="30">
         <v>472.46</v>
       </c>
-      <c r="AC9" s="122">
-        <f t="shared" si="6"/>
+      <c r="AC9" s="106">
+        <f t="shared" si="8"/>
         <v>517.41399999999999</v>
       </c>
       <c r="AD9" s="64">
@@ -13359,39 +13359,39 @@
         <v>697.34700225000017</v>
       </c>
       <c r="AE9" s="36">
-        <f t="shared" ref="AE9:AM9" si="12">AE4*0.135</f>
+        <f t="shared" ref="AE9:AM9" si="14">AE4*0.135</f>
         <v>906.55110292500024</v>
       </c>
       <c r="AF9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1160.3854117440003</v>
       </c>
       <c r="AG9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1392.4624940928002</v>
       </c>
       <c r="AH9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1601.3318682067199</v>
       </c>
       <c r="AI9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1841.5316484377279</v>
       </c>
       <c r="AJ9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2044.1001297658781</v>
       </c>
       <c r="AK9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2187.1871388494897</v>
       </c>
       <c r="AL9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2340.290238568954</v>
       </c>
       <c r="AM9" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2504.1105552687814</v>
       </c>
     </row>
@@ -13432,7 +13432,7 @@
       <c r="U10" s="30">
         <v>72.450999999999993</v>
       </c>
-      <c r="V10" s="103">
+      <c r="V10" s="87">
         <v>4.1849999999999996</v>
       </c>
       <c r="Y10" s="30">
@@ -13447,8 +13447,8 @@
       <c r="AB10" s="30">
         <v>0</v>
       </c>
-      <c r="AC10" s="122">
-        <f t="shared" si="6"/>
+      <c r="AC10" s="106">
+        <f t="shared" si="8"/>
         <v>76.635999999999996</v>
       </c>
       <c r="AD10" s="64">
@@ -13520,7 +13520,7 @@
       <c r="U11" s="30">
         <v>97.721999999999994</v>
       </c>
-      <c r="V11" s="103">
+      <c r="V11" s="87">
         <v>0</v>
       </c>
       <c r="Y11" s="30">
@@ -13535,12 +13535,12 @@
       <c r="AB11" s="30">
         <v>0</v>
       </c>
-      <c r="AC11" s="122">
-        <f t="shared" si="6"/>
+      <c r="AC11" s="106">
+        <f t="shared" si="8"/>
         <v>97.721999999999994</v>
       </c>
       <c r="AD11" s="64">
-        <f t="shared" ref="AD11" si="13">AC11*0.05</f>
+        <f t="shared" ref="AD11" si="15">AC11*0.05</f>
         <v>4.8860999999999999</v>
       </c>
       <c r="AE11" s="36">
@@ -13576,7 +13576,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" ref="F12" si="14">SUM(F7:F11)</f>
+        <f t="shared" ref="F12" si="16">SUM(F7:F11)</f>
         <v>152.001</v>
       </c>
       <c r="J12" s="30">
@@ -13584,103 +13584,103 @@
         <v>268.48899999999998</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" ref="M12:U12" si="15">SUM(M7:M11)</f>
+        <f t="shared" ref="M12:U12" si="17">SUM(M7:M11)</f>
         <v>343.14400000000001</v>
       </c>
       <c r="N12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>467.41199999999992</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>495.64299999999997</v>
       </c>
       <c r="P12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>533.52099999999996</v>
       </c>
       <c r="Q12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>596.96</v>
       </c>
       <c r="R12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>680.173</v>
       </c>
       <c r="S12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>642.87900000000002</v>
       </c>
       <c r="T12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>757.22500000000002</v>
       </c>
       <c r="U12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>919.072</v>
       </c>
-      <c r="V12" s="103">
+      <c r="V12" s="87">
         <f>SUM(V7:V11)</f>
         <v>699.70899999999995</v>
       </c>
       <c r="Y12" s="30">
-        <f t="shared" ref="Y12" si="16">SUM(Y7:Y11)</f>
+        <f t="shared" ref="Y12" si="18">SUM(Y7:Y11)</f>
         <v>464.46100000000001</v>
       </c>
       <c r="Z12" s="30">
-        <f t="shared" ref="Z12" si="17">SUM(Z7:Z11)</f>
+        <f t="shared" ref="Z12" si="19">SUM(Z7:Z11)</f>
         <v>978.702</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12" si="18">SUM(AA7:AA11)</f>
+        <f t="shared" ref="AA12" si="20">SUM(AA7:AA11)</f>
         <v>1408.5619999999999</v>
       </c>
       <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AM12" si="19">SUM(AB7:AB11)</f>
+        <f t="shared" ref="AB12:AM12" si="21">SUM(AB7:AB11)</f>
         <v>2306.297</v>
       </c>
-      <c r="AC12" s="122">
+      <c r="AC12" s="106">
         <f>SUM(AC7:AC11)</f>
         <v>3018.8850000000002</v>
       </c>
       <c r="AD12" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3857.0402457500004</v>
       </c>
       <c r="AE12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4667.059381725001</v>
       </c>
       <c r="AF12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4856.4278343360011</v>
       </c>
       <c r="AG12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4383.6782221440008</v>
       </c>
       <c r="AH12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5041.2299554656001</v>
       </c>
       <c r="AI12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4978.9559383686719</v>
       </c>
       <c r="AJ12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4769.5669694537155</v>
       </c>
       <c r="AK12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5103.4366573154757</v>
       </c>
       <c r="AL12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5460.6772233275597</v>
       </c>
       <c r="AM12" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5842.9246289604898</v>
       </c>
     </row>
@@ -13697,43 +13697,43 @@
         <v>-93.798999999999978</v>
       </c>
       <c r="M13" s="29">
-        <f t="shared" ref="M13:V13" si="20">M6-M12</f>
+        <f t="shared" ref="M13:V13" si="22">M6-M12</f>
         <v>-112.27000000000001</v>
       </c>
       <c r="N13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-185.29099999999988</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-197.33899999999994</v>
       </c>
       <c r="P13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-202.27399999999994</v>
       </c>
       <c r="Q13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-232.34499999999997</v>
       </c>
       <c r="R13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-283.62599999999998</v>
       </c>
       <c r="S13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-217.80799999999994</v>
       </c>
       <c r="T13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-311.93599999999998</v>
       </c>
       <c r="U13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-456.99700000000007</v>
       </c>
-      <c r="V13" s="102">
-        <f t="shared" si="20"/>
+      <c r="V13" s="86">
+        <f t="shared" si="22"/>
         <v>-218.56699999999989</v>
       </c>
       <c r="Y13" s="29">
@@ -13752,48 +13752,48 @@
         <f>AB6-AB12</f>
         <v>-915.58400000000006</v>
       </c>
-      <c r="AC13" s="102">
-        <f t="shared" ref="AC13:AM13" si="21">AC6-AC12</f>
+      <c r="AC13" s="86">
+        <f t="shared" ref="AC13:AM13" si="23">AC6-AC12</f>
         <v>-1205.3079999999998</v>
       </c>
       <c r="AD13" s="59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-1274.2735707500001</v>
       </c>
       <c r="AE13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-1309.4627042250004</v>
       </c>
       <c r="AF13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-816.56751196800087</v>
       </c>
       <c r="AG13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>257.8634248319986</v>
       </c>
       <c r="AH13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>296.54293855679862</v>
       </c>
       <c r="AI13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1159.4828897570869</v>
       </c>
       <c r="AJ13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2044.1001297658768</v>
       </c>
       <c r="AK13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2187.1871388494883</v>
       </c>
       <c r="AL13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2340.2902385689531</v>
       </c>
       <c r="AM13" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2504.1105552687795</v>
       </c>
     </row>
@@ -13834,7 +13834,7 @@
       <c r="U14" s="30">
         <v>13.375999999999999</v>
       </c>
-      <c r="V14" s="103">
+      <c r="V14" s="87">
         <v>21.939</v>
       </c>
       <c r="W14" s="30"/>
@@ -13850,7 +13850,7 @@
       <c r="AB14" s="30">
         <v>0</v>
       </c>
-      <c r="AC14" s="131">
+      <c r="AC14" s="115">
         <f>SUM(S14:V14)</f>
         <v>35.314999999999998</v>
       </c>
@@ -13922,7 +13922,7 @@
       <c r="U15" s="30">
         <v>8.3740000000000006</v>
       </c>
-      <c r="V15" s="103">
+      <c r="V15" s="87">
         <v>-20.280999999999999</v>
       </c>
       <c r="W15" s="30"/>
@@ -13938,7 +13938,7 @@
       <c r="AB15" s="30">
         <v>45.344999999999999</v>
       </c>
-      <c r="AC15" s="132">
+      <c r="AC15" s="116">
         <f>SUM(S15:V15)</f>
         <v>3.0090000000000003</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>1.74699</v>
       </c>
       <c r="AF15" s="36">
-        <f t="shared" ref="AF15" si="22">AE15*0.15</f>
+        <f t="shared" ref="AF15" si="24">AE15*0.15</f>
         <v>0.26204850000000002</v>
       </c>
       <c r="AG15" s="36">
@@ -13989,42 +13989,42 @@
         <v>-89.09099999999998</v>
       </c>
       <c r="M16" s="30">
-        <f>M13-M15</f>
+        <f t="shared" ref="M16:T16" si="25">M13-M15</f>
         <v>-116.26600000000001</v>
       </c>
       <c r="N16" s="30">
-        <f>N13-N15</f>
+        <f t="shared" si="25"/>
         <v>-194.71699999999987</v>
       </c>
       <c r="O16" s="30">
-        <f>O13-O15</f>
+        <f t="shared" si="25"/>
         <v>-205.65199999999993</v>
       </c>
       <c r="P16" s="30">
-        <f>P13-P15</f>
+        <f t="shared" si="25"/>
         <v>-226.56699999999995</v>
       </c>
       <c r="Q16" s="30">
-        <f>Q13-Q15</f>
+        <f t="shared" si="25"/>
         <v>-238.95799999999997</v>
       </c>
       <c r="R16" s="30">
-        <f>R13-R15</f>
+        <f t="shared" si="25"/>
         <v>-289.75199999999995</v>
       </c>
       <c r="S16" s="30">
-        <f>S13-S15</f>
+        <f t="shared" si="25"/>
         <v>-224.48499999999993</v>
       </c>
       <c r="T16" s="30">
-        <f>T13-T15</f>
+        <f t="shared" si="25"/>
         <v>-320.17499999999995</v>
       </c>
-      <c r="U16" s="103">
+      <c r="U16" s="87">
         <f>U13-U14-U15</f>
         <v>-478.74700000000007</v>
       </c>
-      <c r="V16" s="103">
+      <c r="V16" s="87">
         <f>V13-V14-V15</f>
         <v>-220.22499999999988</v>
       </c>
@@ -14045,48 +14045,48 @@
         <f>AB13-AB15</f>
         <v>-960.92900000000009</v>
       </c>
-      <c r="AC16" s="103">
+      <c r="AC16" s="87">
         <f>AC13-SUM(AC14:AC15)</f>
         <v>-1243.6319999999998</v>
       </c>
       <c r="AD16" s="64">
-        <f>AD13-AD15</f>
+        <f t="shared" ref="AD16:AM16" si="26">AD13-AD15</f>
         <v>-1285.9201707500001</v>
       </c>
       <c r="AE16" s="30">
-        <f>AE13-AE15</f>
+        <f t="shared" si="26"/>
         <v>-1311.2096942250005</v>
       </c>
       <c r="AF16" s="30">
-        <f>AF13-AF15</f>
+        <f t="shared" si="26"/>
         <v>-816.82956046800086</v>
       </c>
       <c r="AG16" s="30">
-        <f>AG13-AG15</f>
+        <f t="shared" si="26"/>
         <v>257.8634248319986</v>
       </c>
       <c r="AH16" s="30">
-        <f>AH13-AH15</f>
+        <f t="shared" si="26"/>
         <v>296.54293855679862</v>
       </c>
       <c r="AI16" s="30">
-        <f>AI13-AI15</f>
+        <f t="shared" si="26"/>
         <v>1159.4828897570869</v>
       </c>
       <c r="AJ16" s="30">
-        <f>AJ13-AJ15</f>
+        <f t="shared" si="26"/>
         <v>2044.1001297658768</v>
       </c>
       <c r="AK16" s="30">
-        <f>AK13-AK15</f>
+        <f t="shared" si="26"/>
         <v>2187.1871388494883</v>
       </c>
       <c r="AL16" s="30">
-        <f>AL13-AL15</f>
+        <f t="shared" si="26"/>
         <v>2340.2902385689531</v>
       </c>
       <c r="AM16" s="30">
-        <f>AM13-AM15</f>
+        <f t="shared" si="26"/>
         <v>2504.1105552687795</v>
       </c>
     </row>
@@ -14127,7 +14127,7 @@
       <c r="U17" s="30">
         <v>3.58</v>
       </c>
-      <c r="V17" s="103">
+      <c r="V17" s="87">
         <v>9.1969999999999992</v>
       </c>
       <c r="W17" s="30"/>
@@ -14143,7 +14143,7 @@
       <c r="AB17" s="30">
         <v>-11.029</v>
       </c>
-      <c r="AC17" s="122">
+      <c r="AC17" s="106">
         <f>SUM(S17:V17)</f>
         <v>12.512999999999998</v>
       </c>
@@ -14152,39 +14152,39 @@
         <v>-19.288802561250002</v>
       </c>
       <c r="AE17" s="36">
-        <f t="shared" ref="AE17:AM17" si="23">AE16*AE28</f>
+        <f t="shared" ref="AE17:AM17" si="27">AE16*AE28</f>
         <v>-19.668145413375008</v>
       </c>
       <c r="AF17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-12.252443407020012</v>
       </c>
       <c r="AG17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.735902744959958</v>
       </c>
       <c r="AH17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>14.827146927839932</v>
       </c>
       <c r="AI17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>57.974144487854346</v>
       </c>
       <c r="AJ17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>102.20500648829385</v>
       </c>
       <c r="AK17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>109.35935694247442</v>
       </c>
       <c r="AL17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>117.01451192844766</v>
       </c>
       <c r="AM17" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>125.20552776343898</v>
       </c>
     </row>
@@ -14193,19 +14193,19 @@
         <v>70</v>
       </c>
       <c r="F18" s="29">
-        <f t="shared" ref="F18" si="24">F16-F17</f>
+        <f t="shared" ref="F18" si="28">F16-F17</f>
         <v>-47.158000000000008</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" ref="J18" si="25">J16-J17</f>
+        <f t="shared" ref="J18" si="29">J16-J17</f>
         <v>-90.246999999999986</v>
       </c>
       <c r="M18" s="29">
-        <f t="shared" ref="M18" si="26">M16-M17</f>
+        <f t="shared" ref="M18" si="30">M16-M17</f>
         <v>-116.914</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" ref="N18" si="27">N16-N17</f>
+        <f t="shared" ref="N18" si="31">N16-N17</f>
         <v>-179.35099999999989</v>
       </c>
       <c r="O18" s="29">
@@ -14217,7 +14217,7 @@
         <v>-227.85299999999995</v>
       </c>
       <c r="Q18" s="29">
-        <f t="shared" ref="Q18" si="28">Q16-Q17</f>
+        <f t="shared" ref="Q18" si="32">Q16-Q17</f>
         <v>-224.10899999999998</v>
       </c>
       <c r="R18" s="29">
@@ -14236,16 +14236,16 @@
         <f>U16-U17</f>
         <v>-482.32700000000006</v>
       </c>
-      <c r="V18" s="102">
+      <c r="V18" s="86">
         <f>V16-V17</f>
         <v>-229.42199999999988</v>
       </c>
       <c r="Y18" s="29">
-        <f t="shared" ref="Y18:Z18" si="29">Y16-Y17</f>
+        <f t="shared" ref="Y18:Z18" si="33">Y16-Y17</f>
         <v>-121.94900000000001</v>
       </c>
       <c r="Z18" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-307.06299999999993</v>
       </c>
       <c r="AA18" s="29">
@@ -14256,48 +14256,48 @@
         <f>AB16-AB17</f>
         <v>-949.90000000000009</v>
       </c>
-      <c r="AC18" s="121">
+      <c r="AC18" s="105">
         <f>AC16-AC17</f>
         <v>-1256.1449999999998</v>
       </c>
       <c r="AD18" s="59">
-        <f t="shared" ref="AD18:AM18" si="30">AD16-AD17</f>
+        <f t="shared" ref="AD18:AM18" si="34">AD16-AD17</f>
         <v>-1266.6313681887502</v>
       </c>
       <c r="AE18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-1291.5415488116255</v>
       </c>
       <c r="AF18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-804.57711706098087</v>
       </c>
       <c r="AG18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>250.12752208703864</v>
       </c>
       <c r="AH18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>281.7157916289587</v>
       </c>
       <c r="AI18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1101.5087452692326</v>
       </c>
       <c r="AJ18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1941.895123277583</v>
       </c>
       <c r="AK18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2077.827781907014</v>
       </c>
       <c r="AL18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2223.2757266405056</v>
       </c>
       <c r="AM18" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2378.9050275053405</v>
       </c>
       <c r="AN18" s="30">
@@ -14305,143 +14305,143 @@
         <v>2331.3269269552338</v>
       </c>
       <c r="AO18" s="30">
-        <f t="shared" ref="AO18:BW18" si="31">AN18*(1+$AP$25)</f>
+        <f t="shared" ref="AO18:BW18" si="35">AN18*(1+$AP$25)</f>
         <v>2284.700388416129</v>
       </c>
       <c r="AP18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2239.0063806478065</v>
       </c>
       <c r="AQ18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2194.2262530348503</v>
       </c>
       <c r="AR18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2150.3417279741534</v>
       </c>
       <c r="AS18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2107.3348934146702</v>
       </c>
       <c r="AT18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2065.1881955463768</v>
       </c>
       <c r="AU18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2023.8844316354493</v>
       </c>
       <c r="AV18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1983.4067430027403</v>
       </c>
       <c r="AW18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1943.7386081426855</v>
       </c>
       <c r="AX18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1904.8638359798317</v>
       </c>
       <c r="AY18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1866.766559260235</v>
       </c>
       <c r="AZ18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1829.4312280750303</v>
       </c>
       <c r="BA18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1792.8426035135296</v>
       </c>
       <c r="BB18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1756.985751443259</v>
       </c>
       <c r="BC18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1721.8460364143939</v>
       </c>
       <c r="BD18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1687.4091156861059</v>
       </c>
       <c r="BE18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1653.6609333723839</v>
       </c>
       <c r="BF18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1620.5877147049362</v>
       </c>
       <c r="BG18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1588.1759604108374</v>
       </c>
       <c r="BH18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1556.4124412026206</v>
       </c>
       <c r="BI18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1525.2841923785682</v>
       </c>
       <c r="BJ18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1494.7785085309968</v>
       </c>
       <c r="BK18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1464.8829383603768</v>
       </c>
       <c r="BL18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1435.5852795931692</v>
       </c>
       <c r="BM18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1406.8735740013058</v>
       </c>
       <c r="BN18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1378.7361025212797</v>
       </c>
       <c r="BO18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1351.1613804708541</v>
       </c>
       <c r="BP18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1324.138152861437</v>
       </c>
       <c r="BQ18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1297.6553898042082</v>
       </c>
       <c r="BR18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1271.702282008124</v>
       </c>
       <c r="BS18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1246.2682363679614</v>
       </c>
       <c r="BT18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1221.3428716406022</v>
       </c>
       <c r="BU18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1196.9160142077901</v>
       </c>
       <c r="BV18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1172.9776939236342</v>
       </c>
       <c r="BW18" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1149.5181400451615</v>
       </c>
     </row>
@@ -14450,59 +14450,59 @@
         <v>69</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" ref="F19" si="32">F18/F20</f>
+        <f t="shared" ref="F19" si="36">F18/F20</f>
         <v>-0.47434110160515558</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" ref="J19" si="33">J18/J20</f>
+        <f t="shared" ref="J19" si="37">J18/J20</f>
         <v>-0.65525253589708876</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" ref="M19:U19" si="34">M18/M20</f>
+        <f t="shared" ref="M19:U19" si="38">M18/M20</f>
         <v>-0.79263151132966325</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.1323903265248076</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.2355912544819656</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.3139765974420505</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.2645002263567628</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.628504773126946</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.2251441501410789</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.7700728317826633</v>
       </c>
       <c r="U19" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-2.6257295858747991</v>
       </c>
-      <c r="V19" s="104">
+      <c r="V19" s="88">
         <f>V18/V20</f>
         <v>-1.2393103392617855</v>
       </c>
       <c r="Y19" s="44">
-        <f t="shared" ref="Y19:Z19" si="35">Y18/Y20</f>
+        <f t="shared" ref="Y19:Z19" si="39">Y18/Y20</f>
         <v>-1.2555191431999431</v>
       </c>
       <c r="Z19" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-2.3605151435337697</v>
       </c>
       <c r="AA19" s="44">
@@ -14513,48 +14513,48 @@
         <f>AB18/AB20</f>
         <v>-5.4535392358724044</v>
       </c>
-      <c r="AC19" s="123">
+      <c r="AC19" s="107">
         <f>AC18/AC20</f>
         <v>-6.8636192082455194</v>
       </c>
       <c r="AD19" s="65">
-        <f t="shared" ref="AD19:AM19" si="36">AD18/AD20</f>
+        <f t="shared" ref="AD19:AM19" si="40">AD18/AD20</f>
         <v>-6.9209170823962278</v>
       </c>
       <c r="AE19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-7.0570271606149308</v>
       </c>
       <c r="AF19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-4.3962368637176068</v>
       </c>
       <c r="AG19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.3667053286901227</v>
       </c>
       <c r="AH19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.5393047129834641</v>
       </c>
       <c r="AI19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6.0186814277653671</v>
       </c>
       <c r="AJ19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>10.610581317066359</v>
       </c>
       <c r="AK19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>11.353322009261005</v>
       </c>
       <c r="AL19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12.148054549909279</v>
       </c>
       <c r="AM19" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12.998418368402925</v>
       </c>
     </row>
@@ -14598,7 +14598,7 @@
       <c r="U20" s="28">
         <v>183.692564</v>
       </c>
-      <c r="V20" s="105">
+      <c r="V20" s="89">
         <v>185.12070199999999</v>
       </c>
       <c r="Y20" s="44">
@@ -14613,7 +14613,7 @@
       <c r="AB20" s="44">
         <v>174.180465</v>
       </c>
-      <c r="AC20" s="122">
+      <c r="AC20" s="106">
         <f>AVERAGE(S20:V20)</f>
         <v>183.01496075</v>
       </c>
@@ -14622,39 +14622,39 @@
         <v>183.01496075</v>
       </c>
       <c r="AE20" s="36">
-        <f t="shared" ref="AE20:AM20" si="37">AD20</f>
+        <f t="shared" ref="AE20:AM20" si="41">AD20</f>
         <v>183.01496075</v>
       </c>
       <c r="AF20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
       <c r="AG20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
       <c r="AH20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
       <c r="AI20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
       <c r="AJ20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
       <c r="AK20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
       <c r="AL20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
       <c r="AM20" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183.01496075</v>
       </c>
     </row>
@@ -14671,27 +14671,27 @@
         <v>0.65474120232833388</v>
       </c>
       <c r="Q22" s="32">
-        <f>Q4/M4-1</f>
+        <f t="shared" ref="Q22:V22" si="42">Q4/M4-1</f>
         <v>0.65229290419649577</v>
       </c>
       <c r="R22" s="32">
-        <f>R4/N4-1</f>
+        <f t="shared" si="42"/>
         <v>0.53760148880658276</v>
       </c>
       <c r="S22" s="32">
-        <f>S4/O4-1</f>
+        <f t="shared" si="42"/>
         <v>0.4836962785683776</v>
       </c>
       <c r="T22" s="32">
-        <f>T4/P4-1</f>
+        <f t="shared" si="42"/>
         <v>0.41024111604933844</v>
       </c>
       <c r="U22" s="32">
-        <f>U4/Q4-1</f>
+        <f t="shared" si="42"/>
         <v>0.32810304576208882</v>
       </c>
       <c r="V22" s="32">
-        <f>V4/R4-1</f>
+        <f t="shared" si="42"/>
         <v>0.21575947144091212</v>
       </c>
       <c r="Z22" s="32">
@@ -14706,7 +14706,7 @@
         <f>AB4/AA4-1</f>
         <v>0.613053532344634</v>
       </c>
-      <c r="AC22" s="124">
+      <c r="AC22" s="108">
         <f>AC4/AB4-1</f>
         <v>0.34642426963666861</v>
       </c>
@@ -14746,38 +14746,38 @@
         <v>72</v>
       </c>
       <c r="N23" s="31">
-        <f>N4/M4-1</f>
+        <f t="shared" ref="N23:U23" si="43">N4/M4-1</f>
         <v>0.22349984039074133</v>
       </c>
       <c r="O23" s="31">
-        <f>O4/N4-1</f>
+        <f t="shared" si="43"/>
         <v>7.6443649765549404E-2</v>
       </c>
       <c r="P23" s="31">
-        <f>P4/O4-1</f>
+        <f t="shared" si="43"/>
         <v>0.13380441636101059</v>
       </c>
       <c r="Q23" s="31">
-        <f>Q4/P4-1</f>
+        <f t="shared" si="43"/>
         <v>0.10650575320922484</v>
       </c>
       <c r="R23" s="31">
-        <f>R4/Q4-1</f>
+        <f t="shared" si="43"/>
         <v>0.13857244763407617</v>
       </c>
       <c r="S23" s="31">
-        <f>S4/R4-1</f>
+        <f t="shared" si="43"/>
         <v>3.8705704223346515E-2</v>
       </c>
       <c r="T23" s="31">
-        <f>T4/S4-1</f>
+        <f t="shared" si="43"/>
         <v>7.7671777308385259E-2</v>
       </c>
       <c r="U23" s="31">
-        <f>U4/T4-1</f>
+        <f t="shared" si="43"/>
         <v>4.2058442535887863E-2</v>
       </c>
-      <c r="V23" s="106">
+      <c r="V23" s="90">
         <f>U23</f>
         <v>4.2058442535887863E-2</v>
       </c>
@@ -14793,7 +14793,7 @@
       <c r="AB23" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC23" s="125" t="s">
+      <c r="AC23" s="109" t="s">
         <v>1715</v>
       </c>
       <c r="AD23" s="66" t="s">
@@ -14840,42 +14840,42 @@
         <v>0.52740743424389536</v>
       </c>
       <c r="M25" s="31">
-        <f>M6/M4</f>
+        <f t="shared" ref="M25:U25" si="44">M6/M4</f>
         <v>0.51537941241469831</v>
       </c>
       <c r="N25" s="31">
-        <f>N6/N4</f>
+        <f t="shared" si="44"/>
         <v>0.51473480632742796</v>
       </c>
       <c r="O25" s="31">
-        <f>O6/O4</f>
+        <f t="shared" si="44"/>
         <v>0.50561028359898841</v>
       </c>
       <c r="P25" s="31">
-        <f>P6/P4</f>
+        <f t="shared" si="44"/>
         <v>0.49518859194745046</v>
       </c>
       <c r="Q25" s="31">
-        <f>Q6/Q4</f>
+        <f t="shared" si="44"/>
         <v>0.49260581267158088</v>
       </c>
       <c r="R25" s="31">
-        <f>R6/R4</f>
+        <f t="shared" si="44"/>
         <v>0.47054265589550326</v>
       </c>
       <c r="S25" s="31">
-        <f>S6/S4</f>
+        <f t="shared" si="44"/>
         <v>0.48559397644177338</v>
       </c>
       <c r="T25" s="31">
-        <f>T6/T4</f>
+        <f t="shared" si="44"/>
         <v>0.47202746794946543</v>
       </c>
       <c r="U25" s="31">
-        <f>U6/U4</f>
+        <f t="shared" si="44"/>
         <v>0.47005177868427206</v>
       </c>
-      <c r="V25" s="106">
+      <c r="V25" s="90">
         <f>U25</f>
         <v>0.47005177868427206</v>
       </c>
@@ -14895,7 +14895,7 @@
         <f>AB6/AB4</f>
         <v>0.48937079123764576</v>
       </c>
-      <c r="AC25" s="108">
+      <c r="AC25" s="92">
         <f>AC6/AC4</f>
         <v>0.47397408633515076</v>
       </c>
@@ -14949,103 +14949,103 @@
         <v>-0.28318902011931496</v>
       </c>
       <c r="M26" s="31">
-        <f>M13/M4</f>
+        <f t="shared" ref="M26:V26" si="45">M13/M4</f>
         <v>-0.25062002058178134</v>
       </c>
       <c r="N26" s="31">
-        <f>N13/N4</f>
+        <f t="shared" si="45"/>
         <v>-0.33806674086372651</v>
       </c>
       <c r="O26" s="31">
-        <f>O13/O4</f>
+        <f t="shared" si="45"/>
         <v>-0.33447968433256259</v>
       </c>
       <c r="P26" s="31">
-        <f>P13/P4</f>
+        <f t="shared" si="45"/>
         <v>-0.30238395290396158</v>
       </c>
       <c r="Q26" s="31">
-        <f>Q13/Q4</f>
+        <f t="shared" si="45"/>
         <v>-0.3139050712263029</v>
       </c>
       <c r="R26" s="31">
-        <f>R13/R4</f>
+        <f t="shared" si="45"/>
         <v>-0.33655060136886167</v>
       </c>
       <c r="S26" s="31">
-        <f>S13/S4</f>
+        <f t="shared" si="45"/>
         <v>-0.24882020373262284</v>
       </c>
       <c r="T26" s="31">
-        <f>T13/T4</f>
+        <f t="shared" si="45"/>
         <v>-0.33066696065315881</v>
       </c>
       <c r="U26" s="31">
-        <f>U13/U4</f>
+        <f t="shared" si="45"/>
         <v>-0.46488611741249003</v>
       </c>
-      <c r="V26" s="106">
-        <f>V13/V4</f>
+      <c r="V26" s="90">
+        <f t="shared" si="45"/>
         <v>-0.2133247574113728</v>
       </c>
       <c r="Y26" s="31">
-        <f>Y13/Y4</f>
+        <f t="shared" ref="Y26:AM26" si="46">Y13/Y4</f>
         <v>-0.17726634331538135</v>
       </c>
       <c r="Z26" s="31">
-        <f>Z13/Z4</f>
+        <f t="shared" si="46"/>
         <v>-0.32595454433267396</v>
       </c>
       <c r="AA26" s="31">
-        <f>AA13/AA4</f>
+        <f t="shared" si="46"/>
         <v>-0.27977506788604217</v>
       </c>
       <c r="AB26" s="31">
-        <f>AB13/AB4</f>
+        <f t="shared" si="46"/>
         <v>-0.32218010942914083</v>
       </c>
-      <c r="AC26" s="108">
-        <f>AC13/AC4</f>
+      <c r="AC26" s="92">
+        <f t="shared" si="46"/>
         <v>-0.31500441285506353</v>
       </c>
       <c r="AD26" s="63">
-        <f>AD13/AD4</f>
+        <f t="shared" si="46"/>
         <v>-0.24668770568483503</v>
       </c>
       <c r="AE26" s="31">
-        <f>AE13/AE4</f>
+        <f t="shared" si="46"/>
         <v>-0.19500000000000001</v>
       </c>
       <c r="AF26" s="31">
-        <f>AF13/AF4</f>
+        <f t="shared" si="46"/>
         <v>-9.5000000000000084E-2</v>
       </c>
       <c r="AG26" s="31">
-        <f>AG13/AG4</f>
+        <f t="shared" si="46"/>
         <v>2.4999999999999863E-2</v>
       </c>
       <c r="AH26" s="31">
-        <f>AH13/AH4</f>
+        <f t="shared" si="46"/>
         <v>2.4999999999999883E-2</v>
       </c>
       <c r="AI26" s="31">
-        <f>AI13/AI4</f>
+        <f t="shared" si="46"/>
         <v>8.4999999999999937E-2</v>
       </c>
       <c r="AJ26" s="31">
-        <f>AJ13/AJ4</f>
+        <f t="shared" si="46"/>
         <v>0.13499999999999993</v>
       </c>
       <c r="AK26" s="31">
-        <f>AK13/AK4</f>
+        <f t="shared" si="46"/>
         <v>0.13499999999999993</v>
       </c>
       <c r="AL26" s="31">
-        <f>AL13/AL4</f>
+        <f t="shared" si="46"/>
         <v>0.13499999999999995</v>
       </c>
       <c r="AM26" s="31">
-        <f>AM13/AM4</f>
+        <f t="shared" si="46"/>
         <v>0.13499999999999993</v>
       </c>
       <c r="AO26" s="75" t="s">
@@ -15068,103 +15068,103 @@
         <v>-0.27246515952950268</v>
       </c>
       <c r="M27" s="31">
-        <f>M18/M4</f>
+        <f t="shared" ref="M27:V27" si="47">M18/M4</f>
         <v>-0.26098680935511165</v>
       </c>
       <c r="N27" s="31">
-        <f>N18/N4</f>
+        <f t="shared" si="47"/>
         <v>-0.3272291047090804</v>
       </c>
       <c r="O27" s="31">
-        <f>O18/O4</f>
+        <f t="shared" si="47"/>
         <v>-0.35007830667742379</v>
       </c>
       <c r="P27" s="31">
-        <f>P18/P4</f>
+        <f t="shared" si="47"/>
         <v>-0.34062257542257712</v>
       </c>
       <c r="Q27" s="31">
-        <f>Q18/Q4</f>
+        <f t="shared" si="47"/>
         <v>-0.30277798793800387</v>
       </c>
       <c r="R27" s="31">
-        <f>R18/R4</f>
+        <f t="shared" si="47"/>
         <v>-0.34577048308857727</v>
       </c>
       <c r="S27" s="31">
-        <f>S18/S4</f>
+        <f t="shared" si="47"/>
         <v>-0.25318296523842099</v>
       </c>
       <c r="T27" s="31">
-        <f>T18/T4</f>
+        <f t="shared" si="47"/>
         <v>-0.34215045465435023</v>
       </c>
       <c r="U27" s="31">
-        <f>U18/U4</f>
+        <f t="shared" si="47"/>
         <v>-0.49065338799426272</v>
       </c>
-      <c r="V27" s="106">
-        <f>V18/V4</f>
+      <c r="V27" s="90">
+        <f t="shared" si="47"/>
         <v>-0.2239194045525261</v>
       </c>
       <c r="Y27" s="31">
-        <f>Y18/Y4</f>
+        <f t="shared" ref="Y27:AM27" si="48">Y18/Y4</f>
         <v>-0.18759450948902193</v>
       </c>
       <c r="Z27" s="31">
-        <f>Z18/Z4</f>
+        <f t="shared" si="48"/>
         <v>-0.27066695578896882</v>
       </c>
       <c r="AA27" s="31">
-        <f>AA18/AA4</f>
+        <f t="shared" si="48"/>
         <v>-0.27868412329376707</v>
       </c>
       <c r="AB27" s="31">
-        <f>AB18/AB4</f>
+        <f t="shared" si="48"/>
         <v>-0.33425538885207784</v>
       </c>
-      <c r="AC27" s="108">
-        <f>AC18/AC4</f>
+      <c r="AC27" s="92">
+        <f t="shared" si="48"/>
         <v>-0.32829054331824215</v>
       </c>
       <c r="AD27" s="63">
-        <f>AD18/AD4</f>
+        <f t="shared" si="48"/>
         <v>-0.24520824518319101</v>
       </c>
       <c r="AE27" s="31">
-        <f>AE18/AE4</f>
+        <f t="shared" si="48"/>
         <v>-0.19233125250964947</v>
       </c>
       <c r="AF27" s="31">
-        <f>AF18/AF4</f>
+        <f t="shared" si="48"/>
         <v>-9.3605029590974637E-2</v>
       </c>
       <c r="AG27" s="31">
-        <f>AG18/AG4</f>
+        <f t="shared" si="48"/>
         <v>2.4249999999999869E-2</v>
       </c>
       <c r="AH27" s="31">
-        <f>AH18/AH4</f>
+        <f t="shared" si="48"/>
         <v>2.3749999999999893E-2</v>
       </c>
       <c r="AI27" s="31">
-        <f>AI18/AI4</f>
+        <f t="shared" si="48"/>
         <v>8.0749999999999933E-2</v>
       </c>
       <c r="AJ27" s="31">
-        <f>AJ18/AJ4</f>
+        <f t="shared" si="48"/>
         <v>0.12824999999999995</v>
       </c>
       <c r="AK27" s="31">
-        <f>AK18/AK4</f>
+        <f t="shared" si="48"/>
         <v>0.12824999999999995</v>
       </c>
       <c r="AL27" s="31">
-        <f>AL18/AL4</f>
+        <f t="shared" si="48"/>
         <v>0.12824999999999995</v>
       </c>
       <c r="AM27" s="31">
-        <f>AM18/AM4</f>
+        <f t="shared" si="48"/>
         <v>0.12824999999999992</v>
       </c>
       <c r="AO27" s="75" t="s">
@@ -15180,23 +15180,23 @@
         <v>68</v>
       </c>
       <c r="F28" s="31">
-        <f t="shared" ref="F28" si="38">F17/F16</f>
+        <f t="shared" ref="F28" si="49">F17/F16</f>
         <v>-8.9862638538234403E-3</v>
       </c>
       <c r="J28" s="31">
-        <f t="shared" ref="J28" si="39">J17/J16</f>
+        <f t="shared" ref="J28" si="50">J17/J16</f>
         <v>-1.297549696377861E-2</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" ref="M28" si="40">M17/M16</f>
+        <f t="shared" ref="M28" si="51">M17/M16</f>
         <v>-5.5734264531333323E-3</v>
       </c>
       <c r="N28" s="31">
-        <f t="shared" ref="N28:O28" si="41">N17/N16</f>
+        <f t="shared" ref="N28:O28" si="52">N17/N16</f>
         <v>7.891452723696446E-2</v>
       </c>
       <c r="O28" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>-4.3276992200416255E-3</v>
       </c>
       <c r="P28" s="31">
@@ -15204,15 +15204,15 @@
         <v>-5.6760251934306425E-3</v>
       </c>
       <c r="Q28" s="31">
-        <f t="shared" ref="Q28" si="42">Q17/Q16</f>
+        <f t="shared" ref="Q28" si="53">Q17/Q16</f>
         <v>6.2140627223194043E-2</v>
       </c>
       <c r="R28" s="31">
-        <f t="shared" ref="R28:S28" si="43">R17/R16</f>
+        <f t="shared" ref="R28:S28" si="54">R17/R16</f>
         <v>-5.6738176095419536E-3</v>
       </c>
       <c r="S28" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>1.2731362897298265E-2</v>
       </c>
       <c r="T28" s="31">
@@ -15220,29 +15220,29 @@
         <v>-8.1018193175607101E-3</v>
       </c>
       <c r="U28" s="31">
-        <f t="shared" ref="U28" si="44">U17/U16</f>
+        <f t="shared" ref="U28" si="55">U17/U16</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="V28" s="106">
+      <c r="V28" s="90">
         <v>-0.01</v>
       </c>
       <c r="Y28" s="31">
-        <f t="shared" ref="Y28:AA28" si="45">Y17/Y16</f>
+        <f t="shared" ref="Y28:AA28" si="56">Y17/Y16</f>
         <v>-6.5286650489443532E-3</v>
       </c>
       <c r="Z28" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.15226549903924733</v>
       </c>
       <c r="AA28" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>2.6658023178821082E-2</v>
       </c>
       <c r="AB28" s="31">
         <f>AB17/AB16</f>
         <v>1.1477434857309956E-2</v>
       </c>
-      <c r="AC28" s="108">
+      <c r="AC28" s="92">
         <f>AC17/AC16</f>
         <v>-1.0061658111081092E-2</v>
       </c>
@@ -15285,7 +15285,7 @@
       </c>
     </row>
     <row r="29" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AC29" s="108"/>
+      <c r="AC29" s="92"/>
       <c r="AO29" s="75" t="s">
         <v>1728</v>
       </c>
@@ -15307,86 +15307,86 @@
         <v>0.44105373925033553</v>
       </c>
       <c r="Q30" s="31">
-        <f>Q7/M7-1</f>
+        <f t="shared" ref="Q30:V30" si="57">Q7/M7-1</f>
         <v>0.5359453209612739</v>
       </c>
       <c r="R30" s="31">
-        <f>R7/N7-1</f>
+        <f t="shared" si="57"/>
         <v>0.40535453492471163</v>
       </c>
       <c r="S30" s="31">
-        <f>S7/O7-1</f>
+        <f t="shared" si="57"/>
         <v>0.37649313501144155</v>
       </c>
       <c r="T30" s="31">
-        <f>T7/P7-1</f>
+        <f t="shared" si="57"/>
         <v>0.54259157105030908</v>
       </c>
       <c r="U30" s="31">
-        <f>U7/Q7-1</f>
+        <f t="shared" si="57"/>
         <v>0.35659154795369008</v>
       </c>
-      <c r="V30" s="106">
-        <f>V7/R7-1</f>
+      <c r="V30" s="90">
+        <f t="shared" si="57"/>
         <v>0.22775018029196104</v>
       </c>
       <c r="Y30" s="45" t="s">
         <v>1715</v>
       </c>
       <c r="Z30" s="31">
-        <f>Z7/Y7-1</f>
+        <f t="shared" ref="Z30:AM30" si="58">Z7/Y7-1</f>
         <v>1.283844349257111</v>
       </c>
       <c r="AA30" s="31">
-        <f>AA7/Z7-1</f>
+        <f t="shared" si="58"/>
         <v>0.35566940501590616</v>
       </c>
       <c r="AB30" s="31">
-        <f>AB7/AA7-1</f>
+        <f t="shared" si="58"/>
         <v>0.48755437773773536</v>
       </c>
-      <c r="AC30" s="108">
-        <f>AC7/AB7-1</f>
+      <c r="AC30" s="92">
+        <f t="shared" si="58"/>
         <v>0.36727701689898473</v>
       </c>
       <c r="AD30" s="63">
-        <f>AD7/AC7-1</f>
+        <f t="shared" si="58"/>
         <v>0.34035289102486321</v>
       </c>
       <c r="AE30" s="42">
-        <f>AE7/AD7-1</f>
+        <f t="shared" si="58"/>
         <v>6.785714285714306E-2</v>
       </c>
       <c r="AF30" s="42">
-        <f>AF7/AE7-1</f>
+        <f t="shared" si="58"/>
         <v>1.7391304347824654E-3</v>
       </c>
       <c r="AG30" s="42">
-        <f>AG7/AF7-1</f>
+        <f t="shared" si="58"/>
         <v>-0.13333333333333353</v>
       </c>
       <c r="AH30" s="42">
-        <f>AH7/AG7-1</f>
+        <f t="shared" si="58"/>
         <v>0.15000000000000013</v>
       </c>
       <c r="AI30" s="42">
-        <f>AI7/AH7-1</f>
+        <f t="shared" si="58"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AJ30" s="42">
-        <f>AJ7/AI7-1</f>
+        <f t="shared" si="58"/>
         <v>-0.31692307692307697</v>
       </c>
       <c r="AK30" s="42">
-        <f>AK7/AJ7-1</f>
+        <f t="shared" si="58"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AL30" s="42">
-        <f>AL7/AK7-1</f>
+        <f t="shared" si="58"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AM30" s="42">
-        <f>AM7/AL7-1</f>
+        <f t="shared" si="58"/>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="AO30" s="78" t="s">
@@ -15406,39 +15406,39 @@
         <v>78</v>
       </c>
       <c r="N31" s="42">
-        <f>N7/M7-1</f>
+        <f t="shared" ref="N31:V31" si="59">N7/M7-1</f>
         <v>0.16248573017592149</v>
       </c>
       <c r="O31" s="42">
-        <f>O7/N7-1</f>
+        <f t="shared" si="59"/>
         <v>0.10036762854409043</v>
       </c>
       <c r="P31" s="42">
-        <f>P7/O7-1</f>
+        <f t="shared" si="59"/>
         <v>3.7070938215102878E-2</v>
       </c>
       <c r="Q31" s="42">
-        <f>Q7/P7-1</f>
+        <f t="shared" si="59"/>
         <v>0.15782215357458074</v>
       </c>
       <c r="R31" s="42">
-        <f>R7/Q7-1</f>
+        <f t="shared" si="59"/>
         <v>6.3647624946400638E-2</v>
       </c>
       <c r="S31" s="42">
-        <f>S7/R7-1</f>
+        <f t="shared" si="59"/>
         <v>7.7769665261658405E-2</v>
       </c>
       <c r="T31" s="42">
-        <f>T7/S7-1</f>
+        <f t="shared" si="59"/>
         <v>0.16221203519373617</v>
       </c>
       <c r="U31" s="42">
-        <f>U7/T7-1</f>
+        <f t="shared" si="59"/>
         <v>1.8216212930149744E-2</v>
       </c>
-      <c r="V31" s="108">
-        <f>V7/U7-1</f>
+      <c r="V31" s="92">
+        <f t="shared" si="59"/>
         <v>-3.737159112859334E-2</v>
       </c>
       <c r="Y31" s="45" t="s">
@@ -15453,7 +15453,7 @@
       <c r="AB31" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC31" s="126" t="s">
+      <c r="AC31" s="110" t="s">
         <v>1715</v>
       </c>
       <c r="AD31" s="52"/>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="AP31" s="79">
         <f>Main!C6</f>
-        <v>66.05</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="32" spans="2:75" x14ac:dyDescent="0.2">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="AP32" s="82">
         <f>AP30/AP31-1</f>
-        <v>-0.20359215541684383</v>
+        <v>-0.29392297805748369</v>
       </c>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.2">
@@ -15551,7 +15551,7 @@
         <f>R34</f>
         <v>256000</v>
       </c>
-      <c r="AC34" s="130">
+      <c r="AC34" s="114">
         <f>V34</f>
         <v>290000</v>
       </c>
@@ -15561,16 +15561,16 @@
         <v>1714</v>
       </c>
       <c r="J35" s="42">
-        <f t="shared" ref="J35" si="46">J34/F34-1</f>
+        <f t="shared" ref="J35" si="60">J34/F34-1</f>
         <v>1.7844320691908035</v>
       </c>
       <c r="N35" s="42">
-        <f t="shared" ref="N35" si="47">N34/J34-1</f>
+        <f t="shared" ref="N35" si="61">N34/J34-1</f>
         <v>0.23463687150837997</v>
       </c>
       <c r="P35" s="41"/>
       <c r="Q35" s="42">
-        <f t="shared" ref="Q35" si="48">Q34/M34-1</f>
+        <f t="shared" ref="Q35" si="62">Q34/M34-1</f>
         <v>0.20192307692307687</v>
       </c>
       <c r="R35" s="42">
@@ -15586,19 +15586,19 @@
         <v>0.14583333333333326</v>
       </c>
       <c r="U35" s="42">
-        <f t="shared" ref="U35" si="49">U34/Q34-1</f>
+        <f t="shared" ref="U35" si="63">U34/Q34-1</f>
         <v>0.12000000000000011</v>
       </c>
       <c r="V35" s="42">
-        <f t="shared" ref="V35" si="50">V34/R34-1</f>
+        <f t="shared" ref="V35" si="64">V34/R34-1</f>
         <v>0.1328125</v>
       </c>
       <c r="Z35" s="42">
-        <f t="shared" ref="Z35:AA35" si="51">Z34/Y34-1</f>
+        <f t="shared" ref="Z35:AA35" si="65">Z34/Y34-1</f>
         <v>1.7844320691908035</v>
       </c>
       <c r="AA35" s="42">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>0.23463687150837997</v>
       </c>
       <c r="AB35" s="42">
@@ -15616,27 +15616,27 @@
         <v>1713</v>
       </c>
       <c r="N36" s="42">
-        <f t="shared" ref="N36:Q36" si="52">N34/M34-1</f>
+        <f t="shared" ref="N36:Q36" si="66">N34/M34-1</f>
         <v>6.25E-2</v>
       </c>
       <c r="O36" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>6.3348416289592757E-2</v>
       </c>
       <c r="P36" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.1276595744680771E-2</v>
       </c>
       <c r="Q36" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="R36" s="42">
-        <f t="shared" ref="R36:S36" si="53">R34/Q34-1</f>
+        <f t="shared" ref="R36:S36" si="67">R34/Q34-1</f>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="S36" s="42">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>4.6875E-2</v>
       </c>
       <c r="T36" s="42">
@@ -15644,11 +15644,11 @@
         <v>2.6119402985074647E-2</v>
       </c>
       <c r="U36" s="42">
-        <f t="shared" ref="U36" si="54">U34/T34-1</f>
+        <f t="shared" ref="U36" si="68">U34/T34-1</f>
         <v>1.8181818181818077E-2</v>
       </c>
       <c r="V36" s="42">
-        <f t="shared" ref="V36" si="55">V34/U34-1</f>
+        <f t="shared" ref="V36" si="69">V34/U34-1</f>
         <v>3.5714285714285809E-2</v>
       </c>
       <c r="Y36" s="45" t="s">
@@ -15699,7 +15699,7 @@
       <c r="U37" s="40">
         <v>8992</v>
       </c>
-      <c r="V37" s="103">
+      <c r="V37" s="87">
         <v>8156</v>
       </c>
       <c r="Y37" s="40">
@@ -15715,7 +15715,7 @@
         <f>R37</f>
         <v>7867</v>
       </c>
-      <c r="AC37" s="122">
+      <c r="AC37" s="106">
         <f>V37</f>
         <v>8156</v>
       </c>
@@ -15738,27 +15738,27 @@
       </c>
       <c r="P38" s="43"/>
       <c r="Q38" s="43">
-        <f>Q4/Q37</f>
+        <f t="shared" ref="Q38:V38" si="70">Q4/Q37</f>
         <v>0.10028126270153097</v>
       </c>
       <c r="R38" s="43">
-        <f>R4/R37</f>
+        <f t="shared" si="70"/>
         <v>0.10712393542646498</v>
       </c>
       <c r="S38" s="43">
-        <f>S4/S37</f>
+        <f t="shared" si="70"/>
         <v>0.10676460543968777</v>
       </c>
       <c r="T38" s="43">
-        <f>T4/T37</f>
+        <f t="shared" si="70"/>
         <v>0.1108524089306698</v>
       </c>
       <c r="U38" s="43">
-        <f>U4/U37</f>
+        <f t="shared" si="70"/>
         <v>0.10932273131672597</v>
       </c>
       <c r="V38" s="43">
-        <f>V4/V37</f>
+        <f t="shared" si="70"/>
         <v>0.12562211868563022</v>
       </c>
       <c r="Y38" s="43">
@@ -15819,7 +15819,7 @@
       <c r="U43" s="29">
         <v>632.79399999999998</v>
       </c>
-      <c r="V43" s="102">
+      <c r="V43" s="86">
         <v>651.75199999999995</v>
       </c>
       <c r="Y43" s="29">
@@ -15838,7 +15838,7 @@
         <f>R43</f>
         <v>1479.452</v>
       </c>
-      <c r="AC43" s="127"/>
+      <c r="AC43" s="111"/>
       <c r="AD43" s="55"/>
       <c r="AE43" s="70"/>
       <c r="AF43" s="70"/>
@@ -15881,26 +15881,26 @@
       <c r="U44" s="29">
         <v>3575.7510000000002</v>
       </c>
-      <c r="V44" s="102">
+      <c r="V44" s="86">
         <v>3503.317</v>
       </c>
       <c r="Y44" s="29">
-        <f t="shared" ref="Y44" si="56">F44</f>
+        <f t="shared" ref="Y44" si="71">F44</f>
         <v>261.12799999999999</v>
       </c>
       <c r="Z44" s="29">
-        <f t="shared" ref="Z44" si="57">J44</f>
+        <f t="shared" ref="Z44" si="72">J44</f>
         <v>1559.0329999999999</v>
       </c>
       <c r="AA44" s="29">
-        <f t="shared" ref="AA44" si="58">N44</f>
+        <f t="shared" ref="AA44" si="73">N44</f>
         <v>2105.9059999999999</v>
       </c>
       <c r="AB44" s="29">
         <f>R44</f>
         <v>3878.43</v>
       </c>
-      <c r="AC44" s="127"/>
+      <c r="AC44" s="111"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="70"/>
       <c r="AF44" s="70"/>
@@ -15943,7 +15943,7 @@
       <c r="U45" s="30">
         <v>487.75</v>
       </c>
-      <c r="V45" s="103">
+      <c r="V45" s="87">
         <v>547.50699999999995</v>
       </c>
       <c r="Y45" s="30">
@@ -15994,23 +15994,23 @@
       <c r="U46" s="30">
         <v>265.97699999999998</v>
       </c>
-      <c r="V46" s="103">
+      <c r="V46" s="87">
         <v>281.51</v>
       </c>
       <c r="Y46" s="30">
-        <f t="shared" ref="Y46" si="59">F46</f>
+        <f t="shared" ref="Y46" si="74">F46</f>
         <v>26.893000000000001</v>
       </c>
       <c r="Z46" s="30">
-        <f t="shared" ref="Z46" si="60">J46</f>
+        <f t="shared" ref="Z46" si="75">J46</f>
         <v>54.570999999999998</v>
       </c>
       <c r="AA46" s="30">
-        <f t="shared" ref="AA46" si="61">N46</f>
+        <f t="shared" ref="AA46" si="76">N46</f>
         <v>81.376999999999995</v>
       </c>
       <c r="AB46" s="30">
-        <f t="shared" ref="AB46" si="62">R46</f>
+        <f t="shared" ref="AB46" si="77">R46</f>
         <v>186.131</v>
       </c>
     </row>
@@ -16034,43 +16034,43 @@
         <v>3372.335</v>
       </c>
       <c r="Q47" s="30">
-        <f>SUM(Q43:Q46)</f>
+        <f t="shared" ref="Q47:V47" si="78">SUM(Q43:Q46)</f>
         <v>5905.8050000000003</v>
       </c>
       <c r="R47" s="30">
-        <f>SUM(R43:R46)</f>
+        <f t="shared" si="78"/>
         <v>5932.2280000000001</v>
       </c>
       <c r="S47" s="30">
-        <f>SUM(S43:S46)</f>
+        <f t="shared" si="78"/>
         <v>5831.19</v>
       </c>
       <c r="T47" s="30">
-        <f>SUM(T43:T46)</f>
+        <f t="shared" si="78"/>
         <v>5104.3909999999996</v>
       </c>
       <c r="U47" s="30">
-        <f>SUM(U43:U46)</f>
+        <f t="shared" si="78"/>
         <v>4962.2719999999999</v>
       </c>
       <c r="V47" s="30">
-        <f>SUM(V43:V46)</f>
+        <f t="shared" si="78"/>
         <v>4984.0859999999993</v>
       </c>
       <c r="Y47" s="30">
-        <f t="shared" ref="Y47:AB47" si="63">SUM(Y43:Y46)</f>
+        <f t="shared" ref="Y47:AB47" si="79">SUM(Y43:Y46)</f>
         <v>872.94799999999998</v>
       </c>
       <c r="Z47" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="79"/>
         <v>2021.3309999999999</v>
       </c>
       <c r="AA47" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="79"/>
         <v>3372.335</v>
       </c>
       <c r="AB47" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="79"/>
         <v>5932.2280000000001</v>
       </c>
     </row>
@@ -16105,11 +16105,11 @@
       <c r="U48" s="30">
         <v>263.86200000000002</v>
       </c>
-      <c r="V48" s="103">
+      <c r="V48" s="87">
         <v>263.97899999999998</v>
       </c>
       <c r="Y48" s="30">
-        <f t="shared" ref="Y48:Y52" si="64">F48</f>
+        <f t="shared" ref="Y48:Y52" si="80">F48</f>
         <v>63.533999999999999</v>
       </c>
       <c r="Z48" s="30">
@@ -16117,11 +16117,11 @@
         <v>141.256</v>
       </c>
       <c r="AA48" s="30">
-        <f t="shared" ref="AA48:AA52" si="65">N48</f>
+        <f t="shared" ref="AA48:AA52" si="81">N48</f>
         <v>183.239</v>
       </c>
       <c r="AB48" s="30">
-        <f t="shared" ref="AB48:AB52" si="66">R48</f>
+        <f t="shared" ref="AB48:AB52" si="82">R48</f>
         <v>255.316</v>
       </c>
     </row>
@@ -16156,11 +16156,11 @@
       <c r="U49" s="30">
         <v>127.56699999999999</v>
       </c>
-      <c r="V49" s="103">
+      <c r="V49" s="87">
         <v>121.34099999999999</v>
       </c>
       <c r="Y49" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Z49" s="30">
@@ -16168,11 +16168,11 @@
         <v>141.256</v>
       </c>
       <c r="AA49" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="81"/>
         <v>258.61</v>
       </c>
       <c r="AB49" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="82"/>
         <v>234.584</v>
       </c>
     </row>
@@ -16207,11 +16207,11 @@
       <c r="U50" s="30">
         <v>732.49</v>
       </c>
-      <c r="V50" s="103">
+      <c r="V50" s="87">
         <v>699.91099999999994</v>
       </c>
       <c r="Y50" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="80"/>
         <v>18.119</v>
       </c>
       <c r="Z50" s="30">
@@ -16219,11 +16219,11 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AA50" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -16266,24 +16266,24 @@
         <f>901.155+5284.616</f>
         <v>6185.7709999999997</v>
       </c>
-      <c r="V51" s="103">
+      <c r="V51" s="87">
         <f>5284.153+849.335</f>
         <v>6133.4880000000003</v>
       </c>
       <c r="Y51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="80"/>
         <v>65.722999999999999</v>
       </c>
       <c r="Z51" s="30">
-        <f t="shared" ref="Z51:Z52" si="67">J51</f>
+        <f t="shared" ref="Z51:Z52" si="83">J51</f>
         <v>2777.6330000000003</v>
       </c>
       <c r="AA51" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="81"/>
         <v>5561.9670000000006</v>
       </c>
       <c r="AB51" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="82"/>
         <v>6313.1779999999999</v>
       </c>
     </row>
@@ -16318,23 +16318,23 @@
       <c r="U52" s="30">
         <v>340.69400000000002</v>
       </c>
-      <c r="V52" s="103">
+      <c r="V52" s="87">
         <v>360.9</v>
       </c>
       <c r="Y52" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="80"/>
         <v>8.3859999999999992</v>
       </c>
       <c r="Z52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>33.479999999999997</v>
       </c>
       <c r="AA52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="81"/>
         <v>111.282</v>
       </c>
       <c r="AB52" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="82"/>
         <v>263.29199999999997</v>
       </c>
     </row>
@@ -16358,43 +16358,43 @@
         <v>9487.4330000000009</v>
       </c>
       <c r="Q53" s="30">
-        <f>Q47+SUM(Q48:Q52)</f>
+        <f t="shared" ref="Q53:V53" si="84">Q47+SUM(Q48:Q52)</f>
         <v>12976.847000000002</v>
       </c>
       <c r="R53" s="30">
-        <f>R47+SUM(R48:R52)</f>
+        <f t="shared" si="84"/>
         <v>12998.598</v>
       </c>
       <c r="S53" s="30">
-        <f>S47+SUM(S48:S52)</f>
+        <f t="shared" si="84"/>
         <v>12890.802</v>
       </c>
       <c r="T53" s="30">
-        <f>T47+SUM(T48:T52)</f>
+        <f t="shared" si="84"/>
         <v>12869.228999999999</v>
       </c>
       <c r="U53" s="30">
-        <f>U47+SUM(U48:U52)</f>
+        <f t="shared" si="84"/>
         <v>12612.655999999999</v>
       </c>
       <c r="V53" s="30">
-        <f>V47+SUM(V48:V52)</f>
+        <f t="shared" si="84"/>
         <v>12563.704999999998</v>
       </c>
       <c r="Y53" s="30">
-        <f t="shared" ref="Y53:AB53" si="68">Y47+SUM(Y48:Y52)</f>
+        <f t="shared" ref="Y53:AB53" si="85">Y47+SUM(Y48:Y52)</f>
         <v>1028.71</v>
       </c>
       <c r="Z53" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="85"/>
         <v>5115.0309999999999</v>
       </c>
       <c r="AA53" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="85"/>
         <v>9487.4330000000009</v>
       </c>
       <c r="AB53" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="85"/>
         <v>12998.598</v>
       </c>
     </row>
@@ -16404,7 +16404,7 @@
       <c r="S54" s="30"/>
       <c r="T54" s="30"/>
       <c r="U54" s="30"/>
-      <c r="V54" s="103"/>
+      <c r="V54" s="87"/>
       <c r="Y54" s="30"/>
       <c r="Z54" s="30"/>
     </row>
@@ -16436,23 +16436,23 @@
       <c r="U55" s="30">
         <v>103.23399999999999</v>
       </c>
-      <c r="V55" s="103">
+      <c r="V55" s="87">
         <v>124.605</v>
       </c>
       <c r="Y55" s="30">
-        <f t="shared" ref="Y55:Y58" si="69">F55</f>
+        <f t="shared" ref="Y55:Y58" si="86">F55</f>
         <v>18.495000000000001</v>
       </c>
       <c r="Z55" s="30">
-        <f t="shared" ref="Z55:Z58" si="70">J55</f>
+        <f t="shared" ref="Z55:Z58" si="87">J55</f>
         <v>39.098999999999997</v>
       </c>
       <c r="AA55" s="30">
-        <f t="shared" ref="AA55:AA61" si="71">N55</f>
+        <f t="shared" ref="AA55:AA61" si="88">N55</f>
         <v>60.042000000000002</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" ref="AB55:AB58" si="72">R55</f>
+        <f t="shared" ref="AB55:AB58" si="89">R55</f>
         <v>93.332999999999998</v>
       </c>
     </row>
@@ -16484,23 +16484,23 @@
       <c r="U56" s="30">
         <v>572.87599999999998</v>
       </c>
-      <c r="V56" s="103">
+      <c r="V56" s="87">
         <v>490.221</v>
       </c>
       <c r="Y56" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="86"/>
         <v>96.343000000000004</v>
       </c>
       <c r="Z56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>147.68100000000001</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="88"/>
         <v>252.89500000000001</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="89"/>
         <v>417.50299999999999</v>
       </c>
     </row>
@@ -16532,23 +16532,23 @@
       <c r="U57" s="30">
         <v>135.61000000000001</v>
       </c>
-      <c r="V57" s="103">
+      <c r="V57" s="87">
         <v>139.11000000000001</v>
       </c>
       <c r="Y57" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="86"/>
         <v>22.972000000000001</v>
       </c>
       <c r="Z57" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>26.361999999999998</v>
       </c>
       <c r="AA57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="88"/>
         <v>87.031000000000006</v>
       </c>
       <c r="AB57" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="89"/>
         <v>140.38900000000001</v>
       </c>
     </row>
@@ -16580,23 +16580,23 @@
       <c r="U58" s="30">
         <v>52.453000000000003</v>
       </c>
-      <c r="V58" s="103">
+      <c r="V58" s="87">
         <v>54.22</v>
       </c>
       <c r="Y58" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="Z58" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>27.155999999999999</v>
       </c>
       <c r="AA58" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="88"/>
         <v>48.338000000000001</v>
       </c>
       <c r="AB58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="89"/>
         <v>52.325000000000003</v>
       </c>
     </row>
@@ -16628,7 +16628,7 @@
       <c r="U59" s="30">
         <v>0</v>
       </c>
-      <c r="V59" s="103">
+      <c r="V59" s="87">
         <v>0</v>
       </c>
       <c r="Y59" s="30">
@@ -16640,7 +16640,7 @@
         <v>6.9240000000000004</v>
       </c>
       <c r="AA59" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="AB59" s="30">
@@ -16665,15 +16665,15 @@
         <v>448.30600000000004</v>
       </c>
       <c r="Q60" s="30">
-        <f t="shared" ref="Q60:S60" si="73">SUM(Q55:Q59)</f>
+        <f t="shared" ref="Q60:S60" si="90">SUM(Q55:Q59)</f>
         <v>617.25300000000004</v>
       </c>
       <c r="R60" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>703.55000000000007</v>
       </c>
       <c r="S60" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>719.82200000000012</v>
       </c>
       <c r="T60" s="30">
@@ -16733,23 +16733,23 @@
       <c r="U61" s="30">
         <v>176.33600000000001</v>
       </c>
-      <c r="V61" s="103">
+      <c r="V61" s="87">
         <v>164.55099999999999</v>
       </c>
       <c r="Y61" s="30">
-        <f t="shared" ref="Y61:Y64" si="74">F61</f>
+        <f t="shared" ref="Y61:Y64" si="91">F61</f>
         <v>0</v>
       </c>
       <c r="Z61" s="30">
-        <f t="shared" ref="Z61:Z64" si="75">J61</f>
+        <f t="shared" ref="Z61:Z64" si="92">J61</f>
         <v>139.19999999999999</v>
       </c>
       <c r="AA61" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="88"/>
         <v>229.905</v>
       </c>
       <c r="AB61" s="30">
-        <f t="shared" ref="AB61" si="76">R61</f>
+        <f t="shared" ref="AB61" si="93">R61</f>
         <v>211.25299999999999</v>
       </c>
     </row>
@@ -16781,26 +16781,26 @@
       <c r="U62" s="29">
         <v>24.841999999999999</v>
       </c>
-      <c r="V62" s="102">
+      <c r="V62" s="86">
         <v>21.29</v>
       </c>
       <c r="Y62" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="Z62" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>8.7460000000000004</v>
       </c>
       <c r="AA62" s="29">
-        <f t="shared" ref="AA62" si="77">N62</f>
+        <f t="shared" ref="AA62" si="94">N62</f>
         <v>17.856000000000002</v>
       </c>
       <c r="AB62" s="29">
         <f>R62</f>
         <v>25.132000000000001</v>
       </c>
-      <c r="AC62" s="127"/>
+      <c r="AC62" s="111"/>
       <c r="AD62" s="55"/>
       <c r="AE62" s="70"/>
       <c r="AF62" s="70"/>
@@ -16840,26 +16840,26 @@
       <c r="U63" s="29">
         <v>986.98500000000001</v>
       </c>
-      <c r="V63" s="102">
+      <c r="V63" s="86">
         <v>987.38199999999995</v>
       </c>
       <c r="Y63" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>434.49599999999998</v>
       </c>
       <c r="Z63" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>458.19</v>
       </c>
       <c r="AA63" s="29">
-        <f t="shared" ref="AA63:AA64" si="78">N63</f>
+        <f t="shared" ref="AA63:AA64" si="95">N63</f>
         <v>302.06799999999998</v>
       </c>
       <c r="AB63" s="29">
-        <f t="shared" ref="AB63:AB64" si="79">R63</f>
+        <f t="shared" ref="AB63:AB64" si="96">R63</f>
         <v>985.90700000000004</v>
       </c>
-      <c r="AC63" s="127"/>
+      <c r="AC63" s="111"/>
       <c r="AD63" s="55"/>
       <c r="AE63" s="70"/>
       <c r="AF63" s="70"/>
@@ -16899,23 +16899,23 @@
       <c r="U64" s="30">
         <v>29.431999999999999</v>
       </c>
-      <c r="V64" s="103">
+      <c r="V64" s="87">
         <v>23.881</v>
       </c>
       <c r="Y64" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>18.169</v>
       </c>
       <c r="Z64" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>17.747</v>
       </c>
       <c r="AA64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="95"/>
         <v>36.633000000000003</v>
       </c>
       <c r="AB64" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="96"/>
         <v>41.29</v>
       </c>
     </row>
@@ -16936,35 +16936,35 @@
         <v>1034.768</v>
       </c>
       <c r="Q65" s="30">
-        <f>SUM(Q61:Q64)+Q60</f>
+        <f t="shared" ref="Q65:V65" si="97">SUM(Q61:Q64)+Q60</f>
         <v>1895.2780000000002</v>
       </c>
       <c r="R65" s="30">
-        <f>SUM(R61:R64)+R60</f>
+        <f t="shared" si="97"/>
         <v>1967.1320000000001</v>
       </c>
       <c r="S65" s="30">
-        <f>SUM(S61:S64)+S60</f>
+        <f t="shared" si="97"/>
         <v>1973.3690000000001</v>
       </c>
       <c r="T65" s="30">
-        <f>SUM(T61:T64)+T60</f>
+        <f t="shared" si="97"/>
         <v>2027.2339999999999</v>
       </c>
       <c r="U65" s="30">
-        <f>SUM(U61:U64)+U60</f>
+        <f t="shared" si="97"/>
         <v>2081.768</v>
       </c>
       <c r="V65" s="30">
-        <f>SUM(V61:V64)+V60</f>
+        <f t="shared" si="97"/>
         <v>2005.2600000000002</v>
       </c>
       <c r="Y65" s="30">
-        <f t="shared" ref="Y65:Z65" si="80">SUM(Y61:Y64)+Y60</f>
+        <f t="shared" ref="Y65:Z65" si="98">SUM(Y61:Y64)+Y60</f>
         <v>590.47499999999991</v>
       </c>
       <c r="Z65" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="98"/>
         <v>871.1049999999999</v>
       </c>
       <c r="AA65" s="30">
@@ -17009,7 +17009,7 @@
       <c r="U67" s="30">
         <v>10530.888000000001</v>
       </c>
-      <c r="V67" s="103">
+      <c r="V67" s="87">
         <v>10559.041999999999</v>
       </c>
       <c r="Y67" s="30">
@@ -17046,27 +17046,27 @@
         <v>9487.4330000000009</v>
       </c>
       <c r="Q68" s="30">
-        <f>Q67+Q65</f>
+        <f t="shared" ref="Q68:V68" si="99">Q67+Q65</f>
         <v>12977.027</v>
       </c>
       <c r="R68" s="30">
-        <f>R67+R65</f>
+        <f t="shared" si="99"/>
         <v>12998.598</v>
       </c>
       <c r="S68" s="30">
-        <f>S67+S65</f>
+        <f t="shared" si="99"/>
         <v>12890.802000000001</v>
       </c>
       <c r="T68" s="30">
-        <f>T67+T65</f>
+        <f t="shared" si="99"/>
         <v>12869.229000000001</v>
       </c>
       <c r="U68" s="30">
-        <f>U67+U65</f>
+        <f t="shared" si="99"/>
         <v>12612.656000000001</v>
       </c>
       <c r="V68" s="30">
-        <f>V67+V65</f>
+        <f t="shared" si="99"/>
         <v>12564.302</v>
       </c>
       <c r="Y68" s="30">
@@ -17095,27 +17095,27 @@
         <v>101</v>
       </c>
       <c r="F70" s="30">
-        <f t="shared" ref="F70" si="81">F53-F65</f>
+        <f t="shared" ref="F70" si="100">F53-F65</f>
         <v>438.23500000000013</v>
       </c>
       <c r="J70" s="30">
-        <f t="shared" ref="J70" si="82">J53-J65</f>
+        <f t="shared" ref="J70" si="101">J53-J65</f>
         <v>4259.411000000001</v>
       </c>
       <c r="N70" s="30">
-        <f t="shared" ref="N70" si="83">N53-N65</f>
+        <f t="shared" ref="N70" si="102">N53-N65</f>
         <v>8452.6650000000009</v>
       </c>
       <c r="Q70" s="30">
-        <f t="shared" ref="Q70:R70" si="84">Q53-Q65</f>
+        <f t="shared" ref="Q70:R70" si="103">Q53-Q65</f>
         <v>11081.569000000001</v>
       </c>
       <c r="R70" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="103"/>
         <v>11031.466</v>
       </c>
       <c r="S70" s="30">
-        <f t="shared" ref="S70" si="85">S53-S65</f>
+        <f t="shared" ref="S70" si="104">S53-S65</f>
         <v>10917.432999999999</v>
       </c>
       <c r="T70" s="30">
@@ -17123,11 +17123,11 @@
         <v>10841.994999999999</v>
       </c>
       <c r="U70" s="30">
-        <f t="shared" ref="U70:V70" si="86">U53-U65</f>
+        <f t="shared" ref="U70:V70" si="105">U53-U65</f>
         <v>10530.887999999999</v>
       </c>
       <c r="V70" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="105"/>
         <v>10558.444999999998</v>
       </c>
       <c r="Y70" s="30">
@@ -17152,27 +17152,27 @@
         <v>102</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" ref="F71" si="87">F70/F20</f>
+        <f t="shared" ref="F71" si="106">F70/F20</f>
         <v>4.4080086658029467</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" ref="J71" si="88">J70/J20</f>
+        <f t="shared" ref="J71" si="107">J70/J20</f>
         <v>30.926123407736053</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" ref="N71" si="89">N70/N20</f>
+        <f t="shared" ref="N71" si="108">N70/N20</f>
         <v>53.368623979541908</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" ref="Q71" si="90">Q70/Q20</f>
+        <f t="shared" ref="Q71" si="109">Q70/Q20</f>
         <v>62.526032015171587</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" ref="R71" si="91">R70/R20</f>
+        <f t="shared" ref="R71" si="110">R70/R20</f>
         <v>61.650794916840383</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" ref="S71" si="92">S70/S20</f>
+        <f t="shared" ref="S71" si="111">S70/S20</f>
         <v>60.351081657501894</v>
       </c>
       <c r="T71" s="1">
@@ -17180,11 +17180,11 @@
         <v>59.457757070299436</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" ref="U71:V71" si="93">U70/U20</f>
+        <f t="shared" ref="U71:V71" si="112">U70/U20</f>
         <v>57.328874782323787</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="112"/>
         <v>57.035463273037927</v>
       </c>
       <c r="Y71" s="1">
@@ -17226,7 +17226,7 @@
         <v>3039.7910000000002</v>
       </c>
       <c r="Q73" s="36">
-        <f t="shared" ref="Q73" si="94">Q43+Q44</f>
+        <f t="shared" ref="Q73" si="113">Q43+Q44</f>
         <v>5394.2520000000004</v>
       </c>
       <c r="R73" s="36">
@@ -17242,11 +17242,11 @@
         <v>4392.2839999999997</v>
       </c>
       <c r="U73" s="36">
-        <f t="shared" ref="U73:V73" si="95">U43+U44</f>
+        <f t="shared" ref="U73:V73" si="114">U43+U44</f>
         <v>4208.5450000000001</v>
       </c>
       <c r="V73" s="36">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>4155.0689999999995</v>
       </c>
       <c r="Y73" s="36">
@@ -17265,7 +17265,7 @@
         <f>R73</f>
         <v>5357.8819999999996</v>
       </c>
-      <c r="AC73" s="109"/>
+      <c r="AC73" s="93"/>
       <c r="AD73" s="52"/>
     </row>
     <row r="74" spans="2:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -17301,11 +17301,11 @@
         <v>1005.554</v>
       </c>
       <c r="U74" s="36">
-        <f t="shared" ref="U74:V74" si="96">U62+U63+U59</f>
+        <f t="shared" ref="U74:V74" si="115">U62+U63+U59</f>
         <v>1011.827</v>
       </c>
       <c r="V74" s="36">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>1008.6719999999999</v>
       </c>
       <c r="Y74" s="36">
@@ -17324,7 +17324,7 @@
         <f>R74</f>
         <v>1011.039</v>
       </c>
-      <c r="AC74" s="109"/>
+      <c r="AC74" s="93"/>
       <c r="AD74" s="52"/>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.2">
@@ -17332,27 +17332,27 @@
         <v>8</v>
       </c>
       <c r="F75" s="30">
-        <f t="shared" ref="F75" si="97">F73-F74</f>
+        <f t="shared" ref="F75" si="116">F73-F74</f>
         <v>313.84699999999998</v>
       </c>
       <c r="J75" s="30">
-        <f t="shared" ref="J75" si="98">J73-J74</f>
+        <f t="shared" ref="J75" si="117">J73-J74</f>
         <v>1338.8330000000001</v>
       </c>
       <c r="N75" s="30">
-        <f t="shared" ref="N75" si="99">N73-N74</f>
+        <f t="shared" ref="N75" si="118">N73-N74</f>
         <v>2719.8670000000002</v>
       </c>
       <c r="Q75" s="30">
-        <f t="shared" ref="Q75" si="100">Q73-Q74</f>
+        <f t="shared" ref="Q75" si="119">Q73-Q74</f>
         <v>4388.451</v>
       </c>
       <c r="R75" s="30">
-        <f t="shared" ref="R75" si="101">R73-R74</f>
+        <f t="shared" ref="R75" si="120">R73-R74</f>
         <v>4346.8429999999998</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" ref="S75" si="102">S73-S74</f>
+        <f t="shared" ref="S75" si="121">S73-S74</f>
         <v>4215.0159999999996</v>
       </c>
       <c r="T75" s="30">
@@ -17360,11 +17360,11 @@
         <v>3386.7299999999996</v>
       </c>
       <c r="U75" s="30">
-        <f t="shared" ref="U75:V75" si="103">U73-U74</f>
+        <f t="shared" ref="U75:V75" si="122">U73-U74</f>
         <v>3196.7179999999998</v>
       </c>
       <c r="V75" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>3146.3969999999995</v>
       </c>
       <c r="Y75" s="30">
@@ -17421,7 +17421,7 @@
       <c r="U77" s="1">
         <v>69.14</v>
       </c>
-      <c r="V77" s="107">
+      <c r="V77" s="91">
         <v>48.96</v>
       </c>
       <c r="Y77" s="44">
@@ -17444,55 +17444,55 @@
         <v>5</v>
       </c>
       <c r="F78" s="30">
-        <f t="shared" ref="F78" si="104">F77*F20</f>
+        <f t="shared" ref="F78" si="123">F77*F20</f>
         <v>8878.0191844000001</v>
       </c>
       <c r="J78" s="30">
-        <f t="shared" ref="J78" si="105">J77*J20</f>
+        <f t="shared" ref="J78" si="124">J77*J20</f>
         <v>13535.96464584</v>
       </c>
       <c r="M78" s="30">
-        <f t="shared" ref="M78:T78" si="106">M77*M20</f>
+        <f t="shared" ref="M78:T78" si="125">M77*M20</f>
         <v>36446.040621749999</v>
       </c>
       <c r="N78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>53612.532779499998</v>
       </c>
       <c r="O78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>56961.597668080001</v>
       </c>
       <c r="P78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>68350.181163679998</v>
       </c>
       <c r="Q78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>56545.641479250007</v>
       </c>
       <c r="R78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>47120.661791279999</v>
       </c>
       <c r="S78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>29813.916889529999</v>
       </c>
       <c r="T78" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>15282.57448184</v>
       </c>
       <c r="U78" s="30">
-        <f t="shared" ref="U78:V78" si="107">U77*U20</f>
+        <f t="shared" ref="U78:V78" si="126">U77*U20</f>
         <v>12700.503874960001</v>
       </c>
       <c r="V78" s="30">
-        <f t="shared" si="107"/>
+        <f t="shared" si="126"/>
         <v>9063.5095699199992</v>
       </c>
       <c r="Y78" s="30">
-        <f t="shared" ref="Y78" si="108">Y77*Y20</f>
+        <f t="shared" ref="Y78" si="127">Y77*Y20</f>
         <v>9545.9697169200008</v>
       </c>
       <c r="Z78" s="30">
@@ -17513,28 +17513,28 @@
         <v>9</v>
       </c>
       <c r="F79" s="30">
-        <f t="shared" ref="F79" si="109">F78-F75</f>
+        <f t="shared" ref="F79" si="128">F78-F75</f>
         <v>8564.1721844000003</v>
       </c>
       <c r="J79" s="30">
-        <f t="shared" ref="J79" si="110">J78-J75</f>
+        <f t="shared" ref="J79" si="129">J78-J75</f>
         <v>12197.13164584</v>
       </c>
       <c r="N79" s="30">
-        <f t="shared" ref="N79" si="111">N78-N75</f>
+        <f t="shared" ref="N79" si="130">N78-N75</f>
         <v>50892.665779499999</v>
       </c>
       <c r="P79" s="30"/>
       <c r="Q79" s="30">
-        <f t="shared" ref="Q79:R79" si="112">Q78-Q75</f>
+        <f t="shared" ref="Q79:R79" si="131">Q78-Q75</f>
         <v>52157.190479250006</v>
       </c>
       <c r="R79" s="30">
-        <f t="shared" si="112"/>
+        <f t="shared" si="131"/>
         <v>42773.818791279999</v>
       </c>
       <c r="S79" s="30">
-        <f t="shared" ref="S79" si="113">S78-S75</f>
+        <f t="shared" ref="S79" si="132">S78-S75</f>
         <v>25598.900889529999</v>
       </c>
       <c r="T79" s="30">
@@ -17542,27 +17542,27 @@
         <v>11895.84448184</v>
       </c>
       <c r="U79" s="30">
-        <f t="shared" ref="U79:V79" si="114">U78-U75</f>
+        <f t="shared" ref="U79:V79" si="133">U78-U75</f>
         <v>9503.7858749600018</v>
       </c>
       <c r="V79" s="30">
-        <f t="shared" si="114"/>
+        <f t="shared" si="133"/>
         <v>5917.1125699200002</v>
       </c>
       <c r="Y79" s="30">
-        <f t="shared" ref="Y79" si="115">Y78-Y75</f>
+        <f t="shared" ref="Y79" si="134">Y78-Y75</f>
         <v>9232.122716920001</v>
       </c>
       <c r="Z79" s="30">
-        <f t="shared" ref="Z79:AA79" si="116">Z78-Z75</f>
+        <f t="shared" ref="Z79:AA79" si="135">Z78-Z75</f>
         <v>11445.72876088</v>
       </c>
       <c r="AA79" s="30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="135"/>
         <v>46941.015425500002</v>
       </c>
       <c r="AB79" s="30">
-        <f t="shared" ref="AB79" si="117">AB78-AB75</f>
+        <f t="shared" ref="AB79" si="136">AB78-AB75</f>
         <v>41521.840653099993</v>
       </c>
     </row>
@@ -17583,7 +17583,7 @@
         <v>6.3426780523657325</v>
       </c>
       <c r="Q81" s="37">
-        <f t="shared" ref="Q81" si="118">Q77/Q71</f>
+        <f t="shared" ref="Q81" si="137">Q77/Q71</f>
         <v>5.1026746735277291</v>
       </c>
       <c r="R81" s="37">
@@ -17599,19 +17599,19 @@
         <v>1.4095721757702342</v>
       </c>
       <c r="U81" s="37">
-        <f t="shared" ref="U81:V81" si="119">U77/U71</f>
+        <f t="shared" ref="U81:V81" si="138">U77/U71</f>
         <v>1.206024019528078</v>
       </c>
       <c r="V81" s="37">
-        <f t="shared" si="119"/>
+        <f t="shared" si="138"/>
         <v>0.85841329570026659</v>
       </c>
       <c r="Y81" s="37">
-        <f t="shared" ref="Y81" si="120">Y77/Y71</f>
+        <f t="shared" ref="Y81" si="139">Y77/Y71</f>
         <v>21.782764308921006</v>
       </c>
       <c r="Z81" s="37">
-        <f t="shared" ref="Z81" si="121">Z77/Z71</f>
+        <f t="shared" ref="Z81" si="140">Z77/Z71</f>
         <v>3.0124374838015551</v>
       </c>
       <c r="AA81" s="37">
@@ -17652,7 +17652,7 @@
         <v>3.4848498391023606</v>
       </c>
       <c r="V82" s="37">
-        <f t="shared" ref="V82" si="122">V78/SUM(S4:V4)</f>
+        <f t="shared" ref="V82" si="141">V78/SUM(S4:V4)</f>
         <v>2.3687269233083157</v>
       </c>
       <c r="Y82" s="37">
@@ -17677,19 +17677,19 @@
         <v>104</v>
       </c>
       <c r="N83" s="37">
-        <f t="shared" ref="N83" si="123">N77/SUM(K19:N19)</f>
+        <f t="shared" ref="N83" si="142">N77/SUM(K19:N19)</f>
         <v>-175.84216103089744</v>
       </c>
       <c r="Q83" s="37">
-        <f t="shared" ref="Q83" si="124">Q77/SUM(N19:Q19)</f>
+        <f t="shared" ref="Q83" si="143">Q77/SUM(N19:Q19)</f>
         <v>-64.500694009685063</v>
       </c>
       <c r="R83" s="37">
-        <f t="shared" ref="R83:S83" si="125">R77/SUM(O19:R19)</f>
+        <f t="shared" ref="R83:S83" si="144">R77/SUM(O19:R19)</f>
         <v>-48.385204422553002</v>
       </c>
       <c r="S83" s="37">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>-30.339872026893296</v>
       </c>
       <c r="T83" s="37">
@@ -17697,19 +17697,19 @@
         <v>-14.233498713981406</v>
       </c>
       <c r="U83" s="37">
-        <f t="shared" ref="U83" si="126">U77/SUM(R19:U19)</f>
+        <f t="shared" ref="U83" si="145">U77/SUM(R19:U19)</f>
         <v>-9.5372734774675205</v>
       </c>
       <c r="V83" s="37">
-        <f t="shared" ref="V83" si="127">V77/SUM(S19:V19)</f>
+        <f t="shared" ref="V83" si="146">V77/SUM(S19:V19)</f>
         <v>-7.1367589673809659</v>
       </c>
       <c r="Y83" s="37">
-        <f t="shared" ref="Y83:Z83" si="128">Y77/Y19</f>
+        <f t="shared" ref="Y83:Z83" si="147">Y77/Y19</f>
         <v>-78.278376345193479</v>
       </c>
       <c r="Z83" s="37">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>-41.634979665019884</v>
       </c>
       <c r="AA83" s="37">
@@ -17759,7 +17759,7 @@
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="9.140625" style="51"/>
-    <col min="4" max="4" width="9.140625" style="111"/>
+    <col min="4" max="4" width="9.140625" style="95"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -17767,7 +17767,7 @@
       <c r="C1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="94" t="s">
         <v>44</v>
       </c>
     </row>
@@ -17778,7 +17778,7 @@
       <c r="C3" s="54" t="s">
         <v>1723</v>
       </c>
-      <c r="D3" s="112">
+      <c r="D3" s="96">
         <v>42036</v>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       <c r="C4" s="56">
         <v>1024.3747107660538</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="97">
         <v>1024.5740000000001</v>
       </c>
     </row>
@@ -17800,7 +17800,7 @@
       <c r="C5" s="57">
         <v>481.5091548347703</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="98">
         <v>543.43200000000002</v>
       </c>
     </row>
@@ -17811,7 +17811,7 @@
       <c r="C6" s="56">
         <v>542.86555593128355</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="97">
         <v>481.14200000000005</v>
       </c>
     </row>
@@ -17822,7 +17822,7 @@
       <c r="C7" s="57">
         <v>286.82491901449509</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D7" s="98">
         <v>274.09399999999999</v>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
       <c r="C8" s="57">
         <v>338.04365455279776</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="98">
         <v>296.33499999999998</v>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="C9" s="57">
         <v>138.29058595341726</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="98">
         <v>125.095</v>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       <c r="C10" s="57">
         <v>18.112749999999998</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="98">
         <v>4.1849999999999996</v>
       </c>
     </row>
@@ -17866,7 +17866,7 @@
       <c r="C11" s="57">
         <v>24.430499999999999</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D11" s="98">
         <v>0</v>
       </c>
     </row>
@@ -17877,7 +17877,7 @@
       <c r="C12" s="57">
         <v>805.70240952071015</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="98">
         <v>699.70899999999995</v>
       </c>
     </row>
@@ -17888,7 +17888,7 @@
       <c r="C13" s="56">
         <v>-262.8368535894266</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="97">
         <v>-218.56699999999989</v>
       </c>
     </row>
@@ -17899,7 +17899,7 @@
       <c r="C14" s="57">
         <v>10.698</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="98">
         <v>21.9</v>
       </c>
     </row>
@@ -17910,7 +17910,7 @@
       <c r="C15" s="57">
         <v>0</v>
       </c>
-      <c r="D15" s="114">
+      <c r="D15" s="98">
         <v>20.280999999999999</v>
       </c>
     </row>
@@ -17921,7 +17921,7 @@
       <c r="C16" s="57">
         <v>-273.53485358942658</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D16" s="98">
         <v>-220.18599999999989</v>
       </c>
     </row>
@@ -17932,7 +17932,7 @@
       <c r="C17" s="57">
         <v>2.735348535894266</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="98">
         <v>9.1969999999999992</v>
       </c>
     </row>
@@ -17943,7 +17943,7 @@
       <c r="C18" s="56">
         <v>-276.27020212532085</v>
       </c>
-      <c r="D18" s="113">
+      <c r="D18" s="97">
         <v>-229.3829999999999</v>
       </c>
     </row>
@@ -17954,7 +17954,7 @@
       <c r="C19" s="62">
         <v>-1.5039814138873953</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="99">
         <v>-1.2390996659033839</v>
       </c>
     </row>
@@ -17965,7 +17965,7 @@
       <c r="C20" s="61">
         <v>183.692564</v>
       </c>
-      <c r="D20" s="116">
+      <c r="D20" s="100">
         <v>185.12070199999999</v>
       </c>
     </row>
@@ -17974,7 +17974,7 @@
         <v>71</v>
       </c>
       <c r="C22" s="50"/>
-      <c r="D22" s="117">
+      <c r="D22" s="101">
         <v>0.21575947144091212</v>
       </c>
     </row>
@@ -17985,7 +17985,7 @@
       <c r="C23" s="58">
         <v>4.2058442535887863E-2</v>
       </c>
-      <c r="D23" s="118">
+      <c r="D23" s="102">
         <v>4.2058442535887863E-2</v>
       </c>
     </row>
@@ -17996,7 +17996,7 @@
       <c r="C25" s="58">
         <v>0.47005177868427206</v>
       </c>
-      <c r="D25" s="118">
+      <c r="D25" s="102">
         <v>0.47005177868427206</v>
       </c>
     </row>
@@ -18007,7 +18007,7 @@
       <c r="C26" s="58">
         <v>-0.25658272390663611</v>
       </c>
-      <c r="D26" s="118">
+      <c r="D26" s="102">
         <v>-0.2133247574113728</v>
       </c>
     </row>
@@ -18018,7 +18018,7 @@
       <c r="C27" s="58">
         <v>-0.26969642965777518</v>
       </c>
-      <c r="D27" s="118">
+      <c r="D27" s="102">
         <v>-0.22388133995201898</v>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
       <c r="C28" s="58">
         <v>-0.01</v>
       </c>
-      <c r="D28" s="118">
+      <c r="D28" s="102">
         <v>-0.01</v>
       </c>
     </row>
@@ -18040,7 +18040,7 @@
       <c r="C30" s="58">
         <v>0.28477582884803554</v>
       </c>
-      <c r="D30" s="118">
+      <c r="D30" s="102">
         <v>0.22775018029196104</v>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="C31" s="63">
         <v>7.3398739687606795E-3</v>
       </c>
-      <c r="D31" s="119">
+      <c r="D31" s="103">
         <v>-3.737159112859334E-2</v>
       </c>
     </row>

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0FA28D-6FEC-4484-BFE2-C1C085D0FDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD92712-658D-423F-87C6-935732B3AA58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1737">
   <si>
     <t>$TWLO</t>
   </si>
@@ -5294,6 +5294,9 @@
   </si>
   <si>
     <t>Q123</t>
+  </si>
+  <si>
+    <t>Emply.</t>
   </si>
 </sst>
 </file>
@@ -5545,7 +5548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5733,19 +5736,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5771,6 +5761,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11927,7 +11935,7 @@
   <dimension ref="B2:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11940,20 +11948,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="128" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11961,24 +11969,24 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="G5" s="124" t="s">
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
+      <c r="G5" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="126"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="119"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -12165,11 +12173,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12186,10 +12194,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="121"/>
+      <c r="D16" s="127"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12206,8 +12214,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12224,10 +12232,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="121"/>
+      <c r="D18" s="127"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12244,8 +12252,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12285,11 +12293,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12306,10 +12314,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="121"/>
+      <c r="D23" s="127"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12326,10 +12334,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="120">
+      <c r="C24" s="126">
         <v>2008</v>
       </c>
-      <c r="D24" s="121"/>
+      <c r="D24" s="127"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12346,10 +12354,10 @@
       <c r="B25" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="C25" s="120">
+      <c r="C25" s="126">
         <v>2016</v>
       </c>
-      <c r="D25" s="121"/>
+      <c r="D25" s="127"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12363,9 +12371,14 @@
       <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
+      <c r="B26" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C26" s="135">
+        <f>'Financial Model'!V37</f>
+        <v>8156</v>
+      </c>
+      <c r="D26" s="127"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12380,8 +12393,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12420,10 +12433,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="132"/>
+      <c r="D29" s="125"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12437,61 +12450,61 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C33" s="127">
+      <c r="C33" s="120">
         <f>C6/'Financial Model'!V71</f>
         <v>1.3062048719295314</v>
       </c>
-      <c r="D33" s="128"/>
+      <c r="D33" s="121"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="120">
         <f>C8/SUM('Financial Model'!$S$4:$V$4)</f>
         <v>3.6043740969458646</v>
       </c>
-      <c r="D34" s="128"/>
+      <c r="D34" s="121"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="C35" s="127">
+      <c r="C35" s="120">
         <f>C12/SUM('Financial Model'!$S$4:$V$4)</f>
         <v>2.7820706362586933</v>
       </c>
-      <c r="D35" s="128"/>
+      <c r="D35" s="121"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C36" s="127">
+      <c r="C36" s="120">
         <f>C6/SUM('Financial Model'!S19:V19)</f>
         <v>-10.859651614989419</v>
       </c>
-      <c r="D36" s="128"/>
+      <c r="D36" s="121"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="C37" s="127">
+      <c r="C37" s="120">
         <f>C12/SUM('Financial Model'!S18:V18)</f>
         <v>-8.4744160100943784</v>
       </c>
-      <c r="D37" s="128"/>
+      <c r="D37" s="121"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
@@ -12500,21 +12513,29 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="128"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="121"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="128"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="121"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="130"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -12531,14 +12552,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14045B38-8430-46EA-8F9C-1AE5F20888F1}"/>
@@ -12554,10 +12567,10 @@
   <dimension ref="A1:BW83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15668,16 +15681,13 @@
       </c>
       <c r="AD36" s="52"/>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="2:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="40" t="s">
         <v>1711</v>
       </c>
       <c r="F37" s="40">
         <v>1440</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
       <c r="J37" s="40">
         <v>2905</v>
       </c>
@@ -15699,7 +15709,7 @@
       <c r="U37" s="40">
         <v>8992</v>
       </c>
-      <c r="V37" s="87">
+      <c r="V37" s="133">
         <v>8156</v>
       </c>
       <c r="Y37" s="40">
@@ -15715,10 +15725,20 @@
         <f>R37</f>
         <v>7867</v>
       </c>
-      <c r="AC37" s="106">
+      <c r="AC37" s="114">
         <f>V37</f>
         <v>8156</v>
       </c>
+      <c r="AD37" s="134"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
     </row>
     <row r="38" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="39" t="s">

--- a/$TWLO.xlsx
+++ b/$TWLO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD92712-658D-423F-87C6-935732B3AA58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C5FCA1-EF8F-4019-A55E-77991B30F91C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1EC168B4-1311-4642-A238-D70265844B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5736,6 +5736,8 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5769,6 +5771,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5776,11 +5781,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11534,16 +11534,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11558,7 +11558,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13811250" y="19050"/>
+          <a:off x="14487525" y="0"/>
           <a:ext cx="0" cy="14316075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11584,13 +11584,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -11934,8 +11934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09F688-7B08-4E67-BE87-6887CCA7D948}">
   <dimension ref="B2:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11948,20 +11948,20 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="131" t="s">
         <v>1716</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -11969,31 +11969,31 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
-      <c r="G5" s="117" t="s">
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="G5" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="119"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="121"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>74.5</v>
+        <v>48.92</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="20"/>
@@ -12013,12 +12013,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="18">
-        <f>'Financial Model'!V20</f>
-        <v>185.12070199999999</v>
+        <f>'Financial Model'!W20</f>
+        <v>186.40334899999999</v>
       </c>
       <c r="D7" s="16" t="str">
         <f>$C$28</f>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="8"/>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>13791.492299</v>
+        <v>9118.8518330799998</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="20"/>
@@ -12058,12 +12058,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <f>'Financial Model'!V73</f>
-        <v>4155.0689999999995</v>
+        <f>'Financial Model'!W73</f>
+        <v>3945.3070000000002</v>
       </c>
       <c r="D9" s="16" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="8"/>
@@ -12082,12 +12082,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>'Financial Model'!V74</f>
-        <v>1008.6719999999999</v>
+        <f>'Financial Model'!W74</f>
+        <v>1005.601</v>
       </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="8"/>
@@ -12107,11 +12107,11 @@
       </c>
       <c r="C11" s="18">
         <f>C9-C10</f>
-        <v>3146.3969999999995</v>
+        <v>2939.7060000000001</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="8"/>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>10645.095299000001</v>
+        <v>6179.1458330799996</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="20"/>
@@ -12173,11 +12173,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12194,10 +12194,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="129"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12214,8 +12214,8 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
       <c r="G17" s="20"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12232,10 +12232,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="127"/>
+      <c r="D18" s="129"/>
       <c r="G18" s="20"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -12252,8 +12252,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
       <c r="G19" s="20"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12293,11 +12293,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
       <c r="G22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -12314,10 +12314,10 @@
       <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="129"/>
       <c r="G23" s="20"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -12334,10 +12334,10 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="126">
+      <c r="C24" s="128">
         <v>2008</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="129"/>
       <c r="G24" s="20"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12354,10 +12354,10 @@
       <c r="B25" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="C25" s="126">
+      <c r="C25" s="128">
         <v>2016</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="129"/>
       <c r="G25" s="20"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -12374,11 +12374,11 @@
       <c r="B26" s="13" t="s">
         <v>1736</v>
       </c>
-      <c r="C26" s="135">
-        <f>'Financial Model'!V37</f>
-        <v>8156</v>
-      </c>
-      <c r="D26" s="127"/>
+      <c r="C26" s="130">
+        <f>'Financial Model'!W37</f>
+        <v>6766</v>
+      </c>
+      <c r="D26" s="129"/>
       <c r="G26" s="20"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12393,8 +12393,8 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="129"/>
       <c r="G27" s="20"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12412,10 +12412,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>44</v>
+        <v>1735</v>
       </c>
       <c r="D28" s="33">
-        <v>42036</v>
+        <v>39934</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="8"/>
@@ -12433,10 +12433,10 @@
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="125"/>
+      <c r="D29" s="127"/>
       <c r="G29" s="21"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12450,81 +12450,82 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C33" s="120">
-        <f>C6/'Financial Model'!V71</f>
-        <v>1.3062048719295314</v>
-      </c>
-      <c r="D33" s="121"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="122">
+        <f>C6/'Financial Model'!W71</f>
+        <v>0.88370677873712089</v>
+      </c>
+      <c r="D33" s="123"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="C34" s="120">
-        <f>C8/SUM('Financial Model'!$S$4:$V$4)</f>
-        <v>3.6043740969458646</v>
-      </c>
-      <c r="D34" s="121"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="122">
+        <f>C8/SUM('Financial Model'!$T$4:$W$4)</f>
+        <v>2.3041822213698371</v>
+      </c>
+      <c r="D34" s="123"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="C35" s="120">
-        <f>C12/SUM('Financial Model'!$S$4:$V$4)</f>
-        <v>2.7820706362586933</v>
-      </c>
-      <c r="D35" s="121"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="122">
+        <f>C12/SUM('Financial Model'!$T$4:$W$4)</f>
+        <v>1.5613673993675841</v>
+      </c>
+      <c r="D35" s="123"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C36" s="120">
-        <f>C6/SUM('Financial Model'!S19:V19)</f>
-        <v>-10.859651614989419</v>
-      </c>
-      <c r="D36" s="121"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="122">
+        <f>C6/SUM('Financial Model'!T19:W19)</f>
+        <v>-6.5483454041765832</v>
+      </c>
+      <c r="D36" s="123"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="C37" s="120">
-        <f>C12/SUM('Financial Model'!S18:V18)</f>
-        <v>-8.4744160100943784</v>
-      </c>
-      <c r="D37" s="121"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="122">
+        <f>C12/SUM('Financial Model'!T18:W18)</f>
+        <v>-4.4885151734092084</v>
+      </c>
+      <c r="D37" s="123"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="46"/>
       <c r="D38" s="47"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="121"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="122"/>
+      <c r="D39" s="123"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="121"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="122"/>
+      <c r="D40" s="123"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="123"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12564,13 +12565,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12572CDF-F7C9-4E5D-B993-E2CE69E727D4}">
-  <dimension ref="A1:BW83"/>
+  <dimension ref="A1:BX83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12580,17 +12581,17 @@
     <col min="3" max="21" width="9.140625" style="1"/>
     <col min="22" max="22" width="9.140625" style="91"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="93"/>
-    <col min="30" max="30" width="9.140625" style="52"/>
-    <col min="31" max="39" width="9.140625" style="35"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="9.140625" style="93"/>
+    <col min="31" max="31" width="9.140625" style="52"/>
+    <col min="32" max="40" width="9.140625" style="35"/>
+    <col min="41" max="41" width="9.140625" style="1"/>
+    <col min="42" max="42" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="22" t="s">
         <v>25</v>
       </c>
@@ -12651,56 +12652,56 @@
       <c r="V1" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="27" t="s">
         <v>1735</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="104" t="s">
+      <c r="AD1" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="53" t="s">
+      <c r="AE1" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="67" t="s">
+      <c r="AF1" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="67" t="s">
+      <c r="AG1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="67" t="s">
+      <c r="AH1" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="67" t="s">
+      <c r="AI1" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="67" t="s">
+      <c r="AJ1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="67" t="s">
+      <c r="AK1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="67" t="s">
+      <c r="AL1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="67" t="s">
+      <c r="AM1" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="67" t="s">
+      <c r="AN1" s="67" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="F2" s="26">
         <v>43465</v>
@@ -12736,26 +12737,28 @@
         <v>44834</v>
       </c>
       <c r="V2" s="84">
-        <v>110335</v>
-      </c>
-      <c r="Y2" s="26">
+        <v>44957</v>
+      </c>
+      <c r="W2" s="26">
+        <v>45016</v>
+      </c>
+      <c r="Z2" s="26">
         <v>43465</v>
       </c>
-      <c r="Z2" s="26">
+      <c r="AA2" s="26">
         <v>43830</v>
       </c>
-      <c r="AA2" s="26">
+      <c r="AB2" s="26">
         <v>44196</v>
       </c>
-      <c r="AB2" s="26">
+      <c r="AC2" s="26">
         <v>44561</v>
       </c>
-      <c r="AC2" s="113">
+      <c r="AD2" s="113">
         <f>V2</f>
-        <v>110335</v>
-      </c>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="68"/>
+        <v>44957</v>
+      </c>
+      <c r="AE2" s="54"/>
       <c r="AF2" s="68"/>
       <c r="AG2" s="68"/>
       <c r="AH2" s="68"/>
@@ -12764,8 +12767,9 @@
       <c r="AK2" s="68"/>
       <c r="AL2" s="68"/>
       <c r="AM2" s="68"/>
-    </row>
-    <row r="3" spans="1:39" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN2" s="68"/>
+    </row>
+    <row r="3" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="J3" s="25">
         <v>38384</v>
@@ -12788,18 +12792,20 @@
       <c r="V3" s="83">
         <v>42036</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="W3" s="25">
+        <v>39934</v>
+      </c>
+      <c r="AA3" s="25">
         <v>38384</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AC3" s="25">
         <v>39845</v>
       </c>
-      <c r="AC3" s="112">
+      <c r="AD3" s="112">
         <f>V3</f>
         <v>42036</v>
       </c>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="68"/>
+      <c r="AE3" s="54"/>
       <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
       <c r="AH3" s="68"/>
@@ -12808,8 +12814,9 @@
       <c r="AK3" s="68"/>
       <c r="AL3" s="68"/>
       <c r="AM3" s="68"/>
-    </row>
-    <row r="4" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN3" s="68"/>
+    </row>
+    <row r="4" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>59</v>
       </c>
@@ -12849,64 +12856,67 @@
       <c r="V4" s="86">
         <v>1024.5740000000001</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="W4" s="29">
+        <v>1006.564</v>
+      </c>
+      <c r="Z4" s="29">
         <v>650.06700000000001</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="AA4" s="29">
         <v>1134.4680000000001</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AB4" s="29">
         <v>1761.7760000000001</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AC4" s="29">
         <v>2841.8389999999999</v>
       </c>
-      <c r="AC4" s="105">
+      <c r="AD4" s="105">
         <f>SUM(S4:V4)</f>
         <v>3826.3210000000004</v>
       </c>
-      <c r="AD4" s="59">
-        <f t="shared" ref="AD4:AM4" si="0">AC4*(1+AD22)</f>
+      <c r="AE4" s="59">
+        <f t="shared" ref="AE4:AN4" si="0">AD4*(1+AE22)</f>
         <v>5165.5333500000006</v>
       </c>
-      <c r="AE4" s="69">
+      <c r="AF4" s="69">
         <f t="shared" si="0"/>
         <v>6715.1933550000012</v>
       </c>
-      <c r="AF4" s="69">
+      <c r="AG4" s="69">
         <f t="shared" si="0"/>
         <v>8595.4474944000012</v>
       </c>
-      <c r="AG4" s="69">
+      <c r="AH4" s="69">
         <f t="shared" si="0"/>
         <v>10314.53699328</v>
       </c>
-      <c r="AH4" s="69">
+      <c r="AI4" s="69">
         <f t="shared" si="0"/>
         <v>11861.717542271999</v>
       </c>
-      <c r="AI4" s="69">
+      <c r="AJ4" s="69">
         <f t="shared" si="0"/>
         <v>13640.975173612798</v>
       </c>
-      <c r="AJ4" s="69">
+      <c r="AK4" s="69">
         <f t="shared" si="0"/>
         <v>15141.482442710207</v>
       </c>
-      <c r="AK4" s="69">
+      <c r="AL4" s="69">
         <f t="shared" si="0"/>
         <v>16201.386213699921</v>
       </c>
-      <c r="AL4" s="69">
+      <c r="AM4" s="69">
         <f t="shared" si="0"/>
         <v>17335.483248658918</v>
       </c>
-      <c r="AM4" s="69">
+      <c r="AN4" s="69">
         <f t="shared" si="0"/>
         <v>18548.967076065044</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
@@ -12946,65 +12956,67 @@
       <c r="V5" s="87">
         <v>543.43200000000002</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="Y5" s="30">
+      <c r="W5" s="30">
+        <v>515.87400000000002</v>
+      </c>
+      <c r="Z5" s="30">
         <v>300.84100000000001</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="AA5" s="30">
         <v>525.55100000000004</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AB5" s="30">
         <v>846.11500000000001</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AC5" s="30">
         <v>1451.126</v>
       </c>
-      <c r="AC5" s="106">
+      <c r="AD5" s="106">
         <f>SUM(S5:V5)</f>
         <v>2012.7439999999999</v>
       </c>
-      <c r="AD5" s="64">
-        <f t="shared" ref="AD5:AM5" si="1">AD4*AD25</f>
+      <c r="AE5" s="64">
+        <f t="shared" ref="AE5:AN5" si="1">AE4*AE25</f>
         <v>2582.7666750000003</v>
       </c>
-      <c r="AE5" s="36">
+      <c r="AF5" s="36">
         <f t="shared" si="1"/>
         <v>3357.5966775000006</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AG5" s="36">
         <f t="shared" si="1"/>
         <v>4555.587172032001</v>
       </c>
-      <c r="AG5" s="36">
+      <c r="AH5" s="36">
         <f t="shared" si="1"/>
         <v>5672.995346304001</v>
       </c>
-      <c r="AH5" s="36">
+      <c r="AI5" s="36">
         <f t="shared" si="1"/>
         <v>6523.9446482496005</v>
       </c>
-      <c r="AI5" s="36">
+      <c r="AJ5" s="36">
         <f t="shared" si="1"/>
         <v>7502.5363454870394</v>
       </c>
-      <c r="AJ5" s="36">
+      <c r="AK5" s="36">
         <f t="shared" si="1"/>
         <v>8327.8153434906144</v>
       </c>
-      <c r="AK5" s="36">
+      <c r="AL5" s="36">
         <f t="shared" si="1"/>
         <v>8910.7624175349574</v>
       </c>
-      <c r="AL5" s="36">
+      <c r="AM5" s="36">
         <f t="shared" si="1"/>
         <v>9534.5157867624057</v>
       </c>
-      <c r="AM5" s="36">
+      <c r="AN5" s="36">
         <f t="shared" si="1"/>
         <v>10201.931891835775</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
@@ -13056,68 +13068,72 @@
         <f>V4-V5</f>
         <v>481.14200000000005</v>
       </c>
-      <c r="Y6" s="29">
-        <f t="shared" ref="Y6:Z6" si="6">Y4-Y5</f>
+      <c r="W6" s="86">
+        <f>W4-W5</f>
+        <v>490.68999999999994</v>
+      </c>
+      <c r="Z6" s="29">
+        <f t="shared" ref="Z6:AA6" si="6">Z4-Z5</f>
         <v>349.226</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="AA6" s="29">
         <f t="shared" si="6"/>
         <v>608.91700000000003</v>
       </c>
-      <c r="AA6" s="29">
-        <f>AA4-AA5</f>
-        <v>915.66100000000006</v>
-      </c>
       <c r="AB6" s="29">
         <f>AB4-AB5</f>
+        <v>915.66100000000006</v>
+      </c>
+      <c r="AC6" s="29">
+        <f>AC4-AC5</f>
         <v>1390.713</v>
       </c>
-      <c r="AC6" s="105">
-        <f>AC4-AC5</f>
+      <c r="AD6" s="105">
+        <f>AD4-AD5</f>
         <v>1813.5770000000005</v>
       </c>
-      <c r="AD6" s="59">
-        <f>AD4-AD5</f>
+      <c r="AE6" s="59">
+        <f>AE4-AE5</f>
         <v>2582.7666750000003</v>
       </c>
-      <c r="AE6" s="69">
-        <f t="shared" ref="AE6:AM6" si="7">AE4-AE5</f>
+      <c r="AF6" s="69">
+        <f t="shared" ref="AF6:AN6" si="7">AF4-AF5</f>
         <v>3357.5966775000006</v>
       </c>
-      <c r="AF6" s="69">
+      <c r="AG6" s="69">
         <f t="shared" si="7"/>
         <v>4039.8603223680002</v>
       </c>
-      <c r="AG6" s="69">
+      <c r="AH6" s="69">
         <f t="shared" si="7"/>
         <v>4641.5416469759994</v>
       </c>
-      <c r="AH6" s="69">
+      <c r="AI6" s="69">
         <f t="shared" si="7"/>
         <v>5337.7728940223988</v>
       </c>
-      <c r="AI6" s="69">
+      <c r="AJ6" s="69">
         <f t="shared" si="7"/>
         <v>6138.4388281257588</v>
       </c>
-      <c r="AJ6" s="69">
+      <c r="AK6" s="69">
         <f t="shared" si="7"/>
         <v>6813.6670992195923</v>
       </c>
-      <c r="AK6" s="69">
+      <c r="AL6" s="69">
         <f t="shared" si="7"/>
         <v>7290.623796164964</v>
       </c>
-      <c r="AL6" s="69">
+      <c r="AM6" s="69">
         <f t="shared" si="7"/>
         <v>7800.9674618965128</v>
       </c>
-      <c r="AM6" s="69">
+      <c r="AN6" s="69">
         <f t="shared" si="7"/>
         <v>8347.0351842292694</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
@@ -13157,64 +13173,67 @@
       <c r="V7" s="87">
         <v>274.09399999999999</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="W7" s="30">
+        <v>238.595</v>
+      </c>
+      <c r="Z7" s="30">
         <v>171.358</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="AA7" s="30">
         <v>391.35500000000002</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AB7" s="30">
         <v>530.548</v>
       </c>
-      <c r="AB7" s="30">
+      <c r="AC7" s="30">
         <v>789.21900000000005</v>
       </c>
-      <c r="AC7" s="106">
-        <f t="shared" ref="AC7:AC11" si="8">SUM(S7:V7)</f>
+      <c r="AD7" s="106">
+        <f t="shared" ref="AD7:AD11" si="8">SUM(S7:V7)</f>
         <v>1079.0809999999999</v>
       </c>
-      <c r="AD7" s="64">
-        <f>0.28*AD4</f>
+      <c r="AE7" s="64">
+        <f>0.28*AE4</f>
         <v>1446.3493380000002</v>
       </c>
-      <c r="AE7" s="36">
-        <f>0.23*AE4</f>
+      <c r="AF7" s="36">
+        <f>0.23*AF4</f>
         <v>1544.4944716500004</v>
       </c>
-      <c r="AF7" s="36">
-        <f>0.18*AF4</f>
+      <c r="AG7" s="36">
+        <f>0.18*AG4</f>
         <v>1547.1805489920002</v>
       </c>
-      <c r="AG7" s="36">
-        <f>0.13*AG4</f>
+      <c r="AH7" s="36">
+        <f>0.13*AH4</f>
         <v>1340.8898091264</v>
       </c>
-      <c r="AH7" s="36">
-        <f t="shared" ref="AH7:AI7" si="9">0.13*AH4</f>
+      <c r="AI7" s="36">
+        <f t="shared" ref="AI7:AJ7" si="9">0.13*AI4</f>
         <v>1542.02328049536</v>
       </c>
-      <c r="AI7" s="36">
+      <c r="AJ7" s="36">
         <f t="shared" si="9"/>
         <v>1773.3267725696639</v>
       </c>
-      <c r="AJ7" s="36">
-        <f>0.08*AJ4</f>
+      <c r="AK7" s="36">
+        <f>0.08*AK4</f>
         <v>1211.3185954168166</v>
       </c>
-      <c r="AK7" s="36">
-        <f t="shared" ref="AK7:AM7" si="10">0.08*AK4</f>
+      <c r="AL7" s="36">
+        <f t="shared" ref="AL7:AN7" si="10">0.08*AL4</f>
         <v>1296.1108970959938</v>
       </c>
-      <c r="AL7" s="36">
+      <c r="AM7" s="36">
         <f t="shared" si="10"/>
         <v>1386.8386598927134</v>
       </c>
-      <c r="AM7" s="36">
+      <c r="AN7" s="36">
         <f t="shared" si="10"/>
         <v>1483.9173660852036</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
@@ -13254,64 +13273,67 @@
       <c r="V8" s="87">
         <v>296.33499999999998</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="W8" s="30">
+        <v>259.88499999999999</v>
+      </c>
+      <c r="Z8" s="30">
         <v>175.55500000000001</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="AA8" s="30">
         <v>369.07900000000001</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AB8" s="30">
         <v>567.40700000000004</v>
       </c>
-      <c r="AB8" s="30">
+      <c r="AC8" s="30">
         <v>1044.6179999999999</v>
       </c>
-      <c r="AC8" s="106">
+      <c r="AD8" s="106">
         <f t="shared" si="8"/>
         <v>1248.0320000000002</v>
       </c>
-      <c r="AD8" s="64">
-        <f>AD4*0.33</f>
+      <c r="AE8" s="64">
+        <f>AE4*0.33</f>
         <v>1704.6260055000002</v>
       </c>
-      <c r="AE8" s="36">
-        <f t="shared" ref="AE8" si="11">AE4*0.33</f>
+      <c r="AF8" s="36">
+        <f t="shared" ref="AF8" si="11">AF4*0.33</f>
         <v>2216.0138071500005</v>
       </c>
-      <c r="AF8" s="36">
-        <f>AF4*0.25</f>
+      <c r="AG8" s="36">
+        <f>AG4*0.25</f>
         <v>2148.8618736000003</v>
       </c>
-      <c r="AG8" s="36">
-        <f>AG4*0.16</f>
+      <c r="AH8" s="36">
+        <f>AH4*0.16</f>
         <v>1650.3259189248001</v>
       </c>
-      <c r="AH8" s="36">
-        <f t="shared" ref="AH8" si="12">AH4*0.16</f>
+      <c r="AI8" s="36">
+        <f t="shared" ref="AI8" si="12">AI4*0.16</f>
         <v>1897.8748067635199</v>
       </c>
-      <c r="AI8" s="36">
-        <f>AI4*0.1</f>
+      <c r="AJ8" s="36">
+        <f>AJ4*0.1</f>
         <v>1364.0975173612799</v>
       </c>
-      <c r="AJ8" s="36">
-        <f t="shared" ref="AJ8:AM8" si="13">AJ4*0.1</f>
+      <c r="AK8" s="36">
+        <f t="shared" ref="AK8:AN8" si="13">AK4*0.1</f>
         <v>1514.1482442710208</v>
       </c>
-      <c r="AK8" s="36">
+      <c r="AL8" s="36">
         <f t="shared" si="13"/>
         <v>1620.1386213699923</v>
       </c>
-      <c r="AL8" s="36">
+      <c r="AM8" s="36">
         <f t="shared" si="13"/>
         <v>1733.548324865892</v>
       </c>
-      <c r="AM8" s="36">
+      <c r="AN8" s="36">
         <f t="shared" si="13"/>
         <v>1854.8967076065046</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
@@ -13351,64 +13373,67 @@
       <c r="V9" s="87">
         <v>125.095</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="W9" s="30">
+        <v>112.568</v>
+      </c>
+      <c r="Z9" s="30">
         <v>117.548</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="AA9" s="30">
         <v>218.268</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AB9" s="30">
         <v>310.60700000000003</v>
       </c>
-      <c r="AB9" s="30">
+      <c r="AC9" s="30">
         <v>472.46</v>
       </c>
-      <c r="AC9" s="106">
+      <c r="AD9" s="106">
         <f t="shared" si="8"/>
         <v>517.41399999999999</v>
       </c>
-      <c r="AD9" s="64">
-        <f>AD4*0.135</f>
+      <c r="AE9" s="64">
+        <f>AE4*0.135</f>
         <v>697.34700225000017</v>
       </c>
-      <c r="AE9" s="36">
-        <f t="shared" ref="AE9:AM9" si="14">AE4*0.135</f>
+      <c r="AF9" s="36">
+        <f t="shared" ref="AF9:AN9" si="14">AF4*0.135</f>
         <v>906.55110292500024</v>
       </c>
-      <c r="AF9" s="36">
+      <c r="AG9" s="36">
         <f t="shared" si="14"/>
         <v>1160.3854117440003</v>
       </c>
-      <c r="AG9" s="36">
+      <c r="AH9" s="36">
         <f t="shared" si="14"/>
         <v>1392.4624940928002</v>
       </c>
-      <c r="AH9" s="36">
+      <c r="AI9" s="36">
         <f t="shared" si="14"/>
         <v>1601.3318682067199</v>
       </c>
-      <c r="AI9" s="36">
+      <c r="AJ9" s="36">
         <f t="shared" si="14"/>
         <v>1841.5316484377279</v>
       </c>
-      <c r="AJ9" s="36">
+      <c r="AK9" s="36">
         <f t="shared" si="14"/>
         <v>2044.1001297658781</v>
       </c>
-      <c r="AK9" s="36">
+      <c r="AL9" s="36">
         <f t="shared" si="14"/>
         <v>2187.1871388494897</v>
       </c>
-      <c r="AL9" s="36">
+      <c r="AM9" s="36">
         <f t="shared" si="14"/>
         <v>2340.290238568954</v>
       </c>
-      <c r="AM9" s="36">
+      <c r="AN9" s="36">
         <f t="shared" si="14"/>
         <v>2504.1105552687814</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>1717</v>
       </c>
@@ -13448,8 +13473,8 @@
       <c r="V10" s="87">
         <v>4.1849999999999996</v>
       </c>
-      <c r="Y10" s="30">
-        <v>0</v>
+      <c r="W10" s="30">
+        <v>121.94199999999999</v>
       </c>
       <c r="Z10" s="30">
         <v>0</v>
@@ -13460,16 +13485,16 @@
       <c r="AB10" s="30">
         <v>0</v>
       </c>
-      <c r="AC10" s="106">
+      <c r="AC10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="106">
         <f t="shared" si="8"/>
         <v>76.635999999999996</v>
       </c>
-      <c r="AD10" s="64">
-        <f>AC10*0.05</f>
+      <c r="AE10" s="64">
+        <f>AD10*0.05</f>
         <v>3.8317999999999999</v>
-      </c>
-      <c r="AE10" s="36">
-        <v>0</v>
       </c>
       <c r="AF10" s="36">
         <v>0</v>
@@ -13495,8 +13520,11 @@
       <c r="AM10" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN10" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>1718</v>
       </c>
@@ -13536,8 +13564,8 @@
       <c r="V11" s="87">
         <v>0</v>
       </c>
-      <c r="Y11" s="30">
-        <v>0</v>
+      <c r="W11" s="30">
+        <v>21.783999999999999</v>
       </c>
       <c r="Z11" s="30">
         <v>0</v>
@@ -13548,16 +13576,16 @@
       <c r="AB11" s="30">
         <v>0</v>
       </c>
-      <c r="AC11" s="106">
+      <c r="AC11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="106">
         <f t="shared" si="8"/>
         <v>97.721999999999994</v>
       </c>
-      <c r="AD11" s="64">
-        <f t="shared" ref="AD11" si="15">AC11*0.05</f>
+      <c r="AE11" s="64">
+        <f t="shared" ref="AE11" si="15">AD11*0.05</f>
         <v>4.8860999999999999</v>
-      </c>
-      <c r="AE11" s="36">
-        <v>0</v>
       </c>
       <c r="AF11" s="36">
         <v>0</v>
@@ -13583,8 +13611,11 @@
       <c r="AM11" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN11" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
@@ -13636,68 +13667,72 @@
         <f>SUM(V7:V11)</f>
         <v>699.70899999999995</v>
       </c>
-      <c r="Y12" s="30">
-        <f t="shared" ref="Y12" si="18">SUM(Y7:Y11)</f>
+      <c r="W12" s="87">
+        <f>SUM(W7:W11)</f>
+        <v>754.774</v>
+      </c>
+      <c r="Z12" s="30">
+        <f t="shared" ref="Z12" si="18">SUM(Z7:Z11)</f>
         <v>464.46100000000001</v>
       </c>
-      <c r="Z12" s="30">
-        <f t="shared" ref="Z12" si="19">SUM(Z7:Z11)</f>
+      <c r="AA12" s="30">
+        <f t="shared" ref="AA12" si="19">SUM(AA7:AA11)</f>
         <v>978.702</v>
       </c>
-      <c r="AA12" s="30">
-        <f t="shared" ref="AA12" si="20">SUM(AA7:AA11)</f>
+      <c r="AB12" s="30">
+        <f t="shared" ref="AB12" si="20">SUM(AB7:AB11)</f>
         <v>1408.5619999999999</v>
       </c>
-      <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AM12" si="21">SUM(AB7:AB11)</f>
+      <c r="AC12" s="30">
+        <f t="shared" ref="AC12:AN12" si="21">SUM(AC7:AC11)</f>
         <v>2306.297</v>
       </c>
-      <c r="AC12" s="106">
-        <f>SUM(AC7:AC11)</f>
+      <c r="AD12" s="106">
+        <f>SUM(AD7:AD11)</f>
         <v>3018.8850000000002</v>
       </c>
-      <c r="AD12" s="64">
+      <c r="AE12" s="64">
         <f t="shared" si="21"/>
         <v>3857.0402457500004</v>
       </c>
-      <c r="AE12" s="30">
+      <c r="AF12" s="30">
         <f t="shared" si="21"/>
         <v>4667.059381725001</v>
       </c>
-      <c r="AF12" s="30">
+      <c r="AG12" s="30">
         <f t="shared" si="21"/>
         <v>4856.4278343360011</v>
       </c>
-      <c r="AG12" s="30">
+      <c r="AH12" s="30">
         <f t="shared" si="21"/>
         <v>4383.6782221440008</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AI12" s="30">
         <f t="shared" si="21"/>
         <v>5041.2299554656001</v>
       </c>
-      <c r="AI12" s="30">
+      <c r="AJ12" s="30">
         <f t="shared" si="21"/>
         <v>4978.9559383686719</v>
       </c>
-      <c r="AJ12" s="30">
+      <c r="AK12" s="30">
         <f t="shared" si="21"/>
         <v>4769.5669694537155</v>
       </c>
-      <c r="AK12" s="30">
+      <c r="AL12" s="30">
         <f t="shared" si="21"/>
         <v>5103.4366573154757</v>
       </c>
-      <c r="AL12" s="30">
+      <c r="AM12" s="30">
         <f t="shared" si="21"/>
         <v>5460.6772233275597</v>
       </c>
-      <c r="AM12" s="30">
+      <c r="AN12" s="30">
         <f t="shared" si="21"/>
         <v>5842.9246289604898</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
@@ -13710,7 +13745,7 @@
         <v>-93.798999999999978</v>
       </c>
       <c r="M13" s="29">
-        <f t="shared" ref="M13:V13" si="22">M6-M12</f>
+        <f t="shared" ref="M13:W13" si="22">M6-M12</f>
         <v>-112.27000000000001</v>
       </c>
       <c r="N13" s="29">
@@ -13749,68 +13784,72 @@
         <f t="shared" si="22"/>
         <v>-218.56699999999989</v>
       </c>
-      <c r="Y13" s="29">
-        <f>Y6-Y12</f>
-        <v>-115.23500000000001</v>
+      <c r="W13" s="86">
+        <f t="shared" si="22"/>
+        <v>-264.08400000000006</v>
       </c>
       <c r="Z13" s="29">
         <f>Z6-Z12</f>
-        <v>-369.78499999999997</v>
+        <v>-115.23500000000001</v>
       </c>
       <c r="AA13" s="29">
         <f>AA6-AA12</f>
-        <v>-492.90099999999984</v>
+        <v>-369.78499999999997</v>
       </c>
       <c r="AB13" s="29">
         <f>AB6-AB12</f>
+        <v>-492.90099999999984</v>
+      </c>
+      <c r="AC13" s="29">
+        <f>AC6-AC12</f>
         <v>-915.58400000000006</v>
       </c>
-      <c r="AC13" s="86">
-        <f t="shared" ref="AC13:AM13" si="23">AC6-AC12</f>
+      <c r="AD13" s="86">
+        <f t="shared" ref="AD13:AN13" si="23">AD6-AD12</f>
         <v>-1205.3079999999998</v>
       </c>
-      <c r="AD13" s="59">
+      <c r="AE13" s="59">
         <f t="shared" si="23"/>
         <v>-1274.2735707500001</v>
       </c>
-      <c r="AE13" s="69">
+      <c r="AF13" s="69">
         <f t="shared" si="23"/>
         <v>-1309.4627042250004</v>
       </c>
-      <c r="AF13" s="69">
+      <c r="AG13" s="69">
         <f t="shared" si="23"/>
         <v>-816.56751196800087</v>
       </c>
-      <c r="AG13" s="69">
+      <c r="AH13" s="69">
         <f t="shared" si="23"/>
         <v>257.8634248319986</v>
       </c>
-      <c r="AH13" s="69">
+      <c r="AI13" s="69">
         <f t="shared" si="23"/>
         <v>296.54293855679862</v>
       </c>
-      <c r="AI13" s="69">
+      <c r="AJ13" s="69">
         <f t="shared" si="23"/>
         <v>1159.4828897570869</v>
       </c>
-      <c r="AJ13" s="69">
+      <c r="AK13" s="69">
         <f t="shared" si="23"/>
         <v>2044.1001297658768</v>
       </c>
-      <c r="AK13" s="69">
+      <c r="AL13" s="69">
         <f t="shared" si="23"/>
         <v>2187.1871388494883</v>
       </c>
-      <c r="AL13" s="69">
+      <c r="AM13" s="69">
         <f t="shared" si="23"/>
         <v>2340.2902385689531</v>
       </c>
-      <c r="AM13" s="69">
+      <c r="AN13" s="69">
         <f t="shared" si="23"/>
         <v>2504.1105552687795</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>1734</v>
       </c>
@@ -13850,9 +13889,8 @@
       <c r="V14" s="87">
         <v>21.939</v>
       </c>
-      <c r="W14" s="30"/>
-      <c r="Y14" s="30">
-        <v>0</v>
+      <c r="W14" s="30">
+        <v>30.419</v>
       </c>
       <c r="Z14" s="30">
         <v>0</v>
@@ -13863,14 +13901,14 @@
       <c r="AB14" s="30">
         <v>0</v>
       </c>
-      <c r="AC14" s="115">
+      <c r="AC14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="115">
         <f>SUM(S14:V14)</f>
         <v>35.314999999999998</v>
       </c>
-      <c r="AD14" s="64">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="36">
+      <c r="AE14" s="64">
         <v>0</v>
       </c>
       <c r="AF14" s="36">
@@ -13897,8 +13935,11 @@
       <c r="AM14" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN14" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
@@ -13938,37 +13979,37 @@
       <c r="V15" s="87">
         <v>-20.280999999999999</v>
       </c>
-      <c r="W15" s="30"/>
-      <c r="Y15" s="30">
+      <c r="W15" s="30">
+        <f>46.154-8.985</f>
+        <v>37.169000000000004</v>
+      </c>
+      <c r="Z15" s="30">
         <v>5.923</v>
       </c>
-      <c r="Z15" s="30">
+      <c r="AA15" s="30">
         <v>-7.569</v>
       </c>
-      <c r="AA15" s="30">
+      <c r="AB15" s="30">
         <v>11.525</v>
       </c>
-      <c r="AB15" s="30">
+      <c r="AC15" s="30">
         <v>45.344999999999999</v>
       </c>
-      <c r="AC15" s="116">
+      <c r="AD15" s="116">
         <f>SUM(S15:V15)</f>
         <v>3.0090000000000003</v>
       </c>
-      <c r="AD15" s="64">
-        <f>AVERAGE(Y15:AC15)</f>
+      <c r="AE15" s="64">
+        <f>AVERAGE(Z15:AD15)</f>
         <v>11.646600000000001</v>
       </c>
-      <c r="AE15" s="36">
-        <f>AD15*0.15</f>
+      <c r="AF15" s="36">
+        <f>AE15*0.15</f>
         <v>1.74699</v>
       </c>
-      <c r="AF15" s="36">
-        <f t="shared" ref="AF15" si="24">AE15*0.15</f>
+      <c r="AG15" s="36">
+        <f t="shared" ref="AG15" si="24">AF15*0.15</f>
         <v>0.26204850000000002</v>
-      </c>
-      <c r="AG15" s="36">
-        <v>0</v>
       </c>
       <c r="AH15" s="36">
         <v>0</v>
@@ -13988,8 +14029,11 @@
       <c r="AM15" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN15" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
@@ -14041,69 +14085,72 @@
         <f>V13-V14-V15</f>
         <v>-220.22499999999988</v>
       </c>
-      <c r="W16" s="30"/>
-      <c r="Y16" s="30">
-        <f>Y13-Y15</f>
-        <v>-121.15800000000002</v>
+      <c r="W16" s="87">
+        <f>W13-W14-W15</f>
+        <v>-331.67200000000003</v>
       </c>
       <c r="Z16" s="30">
         <f>Z13-Z15</f>
-        <v>-362.21599999999995</v>
+        <v>-121.15800000000002</v>
       </c>
       <c r="AA16" s="30">
         <f>AA13-AA15</f>
-        <v>-504.42599999999982</v>
+        <v>-362.21599999999995</v>
       </c>
       <c r="AB16" s="30">
         <f>AB13-AB15</f>
+        <v>-504.42599999999982</v>
+      </c>
+      <c r="AC16" s="30">
+        <f>AC13-AC15</f>
         <v>-960.92900000000009</v>
       </c>
-      <c r="AC16" s="87">
-        <f>AC13-SUM(AC14:AC15)</f>
+      <c r="AD16" s="87">
+        <f>AD13-SUM(AD14:AD15)</f>
         <v>-1243.6319999999998</v>
       </c>
-      <c r="AD16" s="64">
-        <f t="shared" ref="AD16:AM16" si="26">AD13-AD15</f>
+      <c r="AE16" s="64">
+        <f t="shared" ref="AE16:AN16" si="26">AE13-AE15</f>
         <v>-1285.9201707500001</v>
       </c>
-      <c r="AE16" s="30">
+      <c r="AF16" s="30">
         <f t="shared" si="26"/>
         <v>-1311.2096942250005</v>
       </c>
-      <c r="AF16" s="30">
+      <c r="AG16" s="30">
         <f t="shared" si="26"/>
         <v>-816.82956046800086</v>
       </c>
-      <c r="AG16" s="30">
+      <c r="AH16" s="30">
         <f t="shared" si="26"/>
         <v>257.8634248319986</v>
       </c>
-      <c r="AH16" s="30">
+      <c r="AI16" s="30">
         <f t="shared" si="26"/>
         <v>296.54293855679862</v>
       </c>
-      <c r="AI16" s="30">
+      <c r="AJ16" s="30">
         <f t="shared" si="26"/>
         <v>1159.4828897570869</v>
       </c>
-      <c r="AJ16" s="30">
+      <c r="AK16" s="30">
         <f t="shared" si="26"/>
         <v>2044.1001297658768</v>
       </c>
-      <c r="AK16" s="30">
+      <c r="AL16" s="30">
         <f t="shared" si="26"/>
         <v>2187.1871388494883</v>
       </c>
-      <c r="AL16" s="30">
+      <c r="AM16" s="30">
         <f t="shared" si="26"/>
         <v>2340.2902385689531</v>
       </c>
-      <c r="AM16" s="30">
+      <c r="AN16" s="30">
         <f t="shared" si="26"/>
         <v>2504.1105552687795</v>
       </c>
     </row>
-    <row r="17" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
@@ -14143,65 +14190,67 @@
       <c r="V17" s="87">
         <v>9.1969999999999992</v>
       </c>
-      <c r="W17" s="30"/>
-      <c r="Y17" s="30">
+      <c r="W17" s="30">
+        <v>10.467000000000001</v>
+      </c>
+      <c r="Z17" s="30">
         <v>0.79100000000000004</v>
       </c>
-      <c r="Z17" s="30">
+      <c r="AA17" s="30">
         <v>-55.152999999999999</v>
       </c>
-      <c r="AA17" s="30">
+      <c r="AB17" s="30">
         <v>-13.446999999999999</v>
       </c>
-      <c r="AB17" s="30">
+      <c r="AC17" s="30">
         <v>-11.029</v>
       </c>
-      <c r="AC17" s="106">
+      <c r="AD17" s="106">
         <f>SUM(S17:V17)</f>
         <v>12.512999999999998</v>
       </c>
-      <c r="AD17" s="64">
-        <f>AD16*AD28</f>
+      <c r="AE17" s="64">
+        <f>AE16*AE28</f>
         <v>-19.288802561250002</v>
       </c>
-      <c r="AE17" s="36">
-        <f t="shared" ref="AE17:AM17" si="27">AE16*AE28</f>
+      <c r="AF17" s="36">
+        <f t="shared" ref="AF17:AN17" si="27">AF16*AF28</f>
         <v>-19.668145413375008</v>
       </c>
-      <c r="AF17" s="36">
+      <c r="AG17" s="36">
         <f t="shared" si="27"/>
         <v>-12.252443407020012</v>
       </c>
-      <c r="AG17" s="36">
+      <c r="AH17" s="36">
         <f t="shared" si="27"/>
         <v>7.735902744959958</v>
       </c>
-      <c r="AH17" s="36">
+      <c r="AI17" s="36">
         <f t="shared" si="27"/>
         <v>14.827146927839932</v>
       </c>
-      <c r="AI17" s="36">
+      <c r="AJ17" s="36">
         <f t="shared" si="27"/>
         <v>57.974144487854346</v>
       </c>
-      <c r="AJ17" s="36">
+      <c r="AK17" s="36">
         <f t="shared" si="27"/>
         <v>102.20500648829385</v>
       </c>
-      <c r="AK17" s="36">
+      <c r="AL17" s="36">
         <f t="shared" si="27"/>
         <v>109.35935694247442</v>
       </c>
-      <c r="AL17" s="36">
+      <c r="AM17" s="36">
         <f t="shared" si="27"/>
         <v>117.01451192844766</v>
       </c>
-      <c r="AM17" s="36">
+      <c r="AN17" s="36">
         <f t="shared" si="27"/>
         <v>125.20552776343898</v>
       </c>
     </row>
-    <row r="18" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:76" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
@@ -14234,344 +14283,352 @@
         <v>-224.10899999999998</v>
       </c>
       <c r="R18" s="29">
-        <f>R16-R17</f>
+        <f t="shared" ref="R18:W18" si="33">R16-R17</f>
         <v>-291.39599999999996</v>
       </c>
       <c r="S18" s="29">
-        <f>S16-S17</f>
+        <f t="shared" si="33"/>
         <v>-221.62699999999992</v>
       </c>
       <c r="T18" s="29">
-        <f>T16-T17</f>
+        <f t="shared" si="33"/>
         <v>-322.76899999999995</v>
       </c>
       <c r="U18" s="29">
-        <f>U16-U17</f>
+        <f t="shared" si="33"/>
         <v>-482.32700000000006</v>
       </c>
       <c r="V18" s="86">
-        <f>V16-V17</f>
+        <f t="shared" si="33"/>
         <v>-229.42199999999988</v>
       </c>
-      <c r="Y18" s="29">
-        <f t="shared" ref="Y18:Z18" si="33">Y16-Y17</f>
+      <c r="W18" s="86">
+        <f t="shared" si="33"/>
+        <v>-342.13900000000001</v>
+      </c>
+      <c r="Z18" s="29">
+        <f t="shared" ref="Z18:AA18" si="34">Z16-Z17</f>
         <v>-121.94900000000001</v>
       </c>
-      <c r="Z18" s="29">
-        <f t="shared" si="33"/>
+      <c r="AA18" s="29">
+        <f t="shared" si="34"/>
         <v>-307.06299999999993</v>
-      </c>
-      <c r="AA18" s="29">
-        <f>AA16-AA17</f>
-        <v>-490.97899999999981</v>
       </c>
       <c r="AB18" s="29">
         <f>AB16-AB17</f>
+        <v>-490.97899999999981</v>
+      </c>
+      <c r="AC18" s="29">
+        <f>AC16-AC17</f>
         <v>-949.90000000000009</v>
       </c>
-      <c r="AC18" s="105">
-        <f>AC16-AC17</f>
+      <c r="AD18" s="105">
+        <f>AD16-AD17</f>
         <v>-1256.1449999999998</v>
       </c>
-      <c r="AD18" s="59">
-        <f t="shared" ref="AD18:AM18" si="34">AD16-AD17</f>
+      <c r="AE18" s="59">
+        <f t="shared" ref="AE18:AN18" si="35">AE16-AE17</f>
         <v>-1266.6313681887502</v>
       </c>
-      <c r="AE18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AF18" s="29">
+        <f t="shared" si="35"/>
         <v>-1291.5415488116255</v>
       </c>
-      <c r="AF18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AG18" s="29">
+        <f t="shared" si="35"/>
         <v>-804.57711706098087</v>
       </c>
-      <c r="AG18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AH18" s="29">
+        <f t="shared" si="35"/>
         <v>250.12752208703864</v>
       </c>
-      <c r="AH18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AI18" s="29">
+        <f t="shared" si="35"/>
         <v>281.7157916289587</v>
       </c>
-      <c r="AI18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AJ18" s="29">
+        <f t="shared" si="35"/>
         <v>1101.5087452692326</v>
       </c>
-      <c r="AJ18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AK18" s="29">
+        <f t="shared" si="35"/>
         <v>1941.895123277583</v>
       </c>
-      <c r="AK18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AL18" s="29">
+        <f t="shared" si="35"/>
         <v>2077.827781907014</v>
       </c>
-      <c r="AL18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AM18" s="29">
+        <f t="shared" si="35"/>
         <v>2223.2757266405056</v>
       </c>
-      <c r="AM18" s="29">
-        <f t="shared" si="34"/>
+      <c r="AN18" s="29">
+        <f t="shared" si="35"/>
         <v>2378.9050275053405</v>
       </c>
-      <c r="AN18" s="30">
-        <f>AM18*(1+$AP$25)</f>
+      <c r="AO18" s="30">
+        <f>AN18*(1+$AQ$25)</f>
         <v>2331.3269269552338</v>
       </c>
-      <c r="AO18" s="30">
-        <f t="shared" ref="AO18:BW18" si="35">AN18*(1+$AP$25)</f>
+      <c r="AP18" s="30">
+        <f t="shared" ref="AP18:BX18" si="36">AO18*(1+$AQ$25)</f>
         <v>2284.700388416129</v>
       </c>
-      <c r="AP18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AQ18" s="30">
+        <f t="shared" si="36"/>
         <v>2239.0063806478065</v>
       </c>
-      <c r="AQ18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AR18" s="30">
+        <f t="shared" si="36"/>
         <v>2194.2262530348503</v>
       </c>
-      <c r="AR18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AS18" s="30">
+        <f t="shared" si="36"/>
         <v>2150.3417279741534</v>
       </c>
-      <c r="AS18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AT18" s="30">
+        <f t="shared" si="36"/>
         <v>2107.3348934146702</v>
       </c>
-      <c r="AT18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AU18" s="30">
+        <f t="shared" si="36"/>
         <v>2065.1881955463768</v>
       </c>
-      <c r="AU18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AV18" s="30">
+        <f t="shared" si="36"/>
         <v>2023.8844316354493</v>
       </c>
-      <c r="AV18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AW18" s="30">
+        <f t="shared" si="36"/>
         <v>1983.4067430027403</v>
       </c>
-      <c r="AW18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AX18" s="30">
+        <f t="shared" si="36"/>
         <v>1943.7386081426855</v>
       </c>
-      <c r="AX18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AY18" s="30">
+        <f t="shared" si="36"/>
         <v>1904.8638359798317</v>
       </c>
-      <c r="AY18" s="30">
-        <f t="shared" si="35"/>
+      <c r="AZ18" s="30">
+        <f t="shared" si="36"/>
         <v>1866.766559260235</v>
       </c>
-      <c r="AZ18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BA18" s="30">
+        <f t="shared" si="36"/>
         <v>1829.4312280750303</v>
       </c>
-      <c r="BA18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BB18" s="30">
+        <f t="shared" si="36"/>
         <v>1792.8426035135296</v>
       </c>
-      <c r="BB18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BC18" s="30">
+        <f t="shared" si="36"/>
         <v>1756.985751443259</v>
       </c>
-      <c r="BC18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BD18" s="30">
+        <f t="shared" si="36"/>
         <v>1721.8460364143939</v>
       </c>
-      <c r="BD18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BE18" s="30">
+        <f t="shared" si="36"/>
         <v>1687.4091156861059</v>
       </c>
-      <c r="BE18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BF18" s="30">
+        <f t="shared" si="36"/>
         <v>1653.6609333723839</v>
       </c>
-      <c r="BF18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BG18" s="30">
+        <f t="shared" si="36"/>
         <v>1620.5877147049362</v>
       </c>
-      <c r="BG18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BH18" s="30">
+        <f t="shared" si="36"/>
         <v>1588.1759604108374</v>
       </c>
-      <c r="BH18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BI18" s="30">
+        <f t="shared" si="36"/>
         <v>1556.4124412026206</v>
       </c>
-      <c r="BI18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BJ18" s="30">
+        <f t="shared" si="36"/>
         <v>1525.2841923785682</v>
       </c>
-      <c r="BJ18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BK18" s="30">
+        <f t="shared" si="36"/>
         <v>1494.7785085309968</v>
       </c>
-      <c r="BK18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BL18" s="30">
+        <f t="shared" si="36"/>
         <v>1464.8829383603768</v>
       </c>
-      <c r="BL18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BM18" s="30">
+        <f t="shared" si="36"/>
         <v>1435.5852795931692</v>
       </c>
-      <c r="BM18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BN18" s="30">
+        <f t="shared" si="36"/>
         <v>1406.8735740013058</v>
       </c>
-      <c r="BN18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BO18" s="30">
+        <f t="shared" si="36"/>
         <v>1378.7361025212797</v>
       </c>
-      <c r="BO18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BP18" s="30">
+        <f t="shared" si="36"/>
         <v>1351.1613804708541</v>
       </c>
-      <c r="BP18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BQ18" s="30">
+        <f t="shared" si="36"/>
         <v>1324.138152861437</v>
       </c>
-      <c r="BQ18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BR18" s="30">
+        <f t="shared" si="36"/>
         <v>1297.6553898042082</v>
       </c>
-      <c r="BR18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BS18" s="30">
+        <f t="shared" si="36"/>
         <v>1271.702282008124</v>
       </c>
-      <c r="BS18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BT18" s="30">
+        <f t="shared" si="36"/>
         <v>1246.2682363679614</v>
       </c>
-      <c r="BT18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BU18" s="30">
+        <f t="shared" si="36"/>
         <v>1221.3428716406022</v>
       </c>
-      <c r="BU18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BV18" s="30">
+        <f t="shared" si="36"/>
         <v>1196.9160142077901</v>
       </c>
-      <c r="BV18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BW18" s="30">
+        <f t="shared" si="36"/>
         <v>1172.9776939236342</v>
       </c>
-      <c r="BW18" s="30">
-        <f t="shared" si="35"/>
+      <c r="BX18" s="30">
+        <f t="shared" si="36"/>
         <v>1149.5181400451615</v>
       </c>
     </row>
-    <row r="19" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" ref="F19" si="36">F18/F20</f>
+        <f t="shared" ref="F19" si="37">F18/F20</f>
         <v>-0.47434110160515558</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" ref="J19" si="37">J18/J20</f>
+        <f t="shared" ref="J19" si="38">J18/J20</f>
         <v>-0.65525253589708876</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" ref="M19:U19" si="38">M18/M20</f>
+        <f t="shared" ref="M19:U19" si="39">M18/M20</f>
         <v>-0.79263151132966325</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.1323903265248076</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.2355912544819656</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.3139765974420505</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.2645002263567628</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.628504773126946</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.2251441501410789</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.7700728317826633</v>
       </c>
       <c r="U19" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-2.6257295858747991</v>
       </c>
       <c r="V19" s="88">
         <f>V18/V20</f>
         <v>-1.2393103392617855</v>
       </c>
-      <c r="Y19" s="44">
-        <f t="shared" ref="Y19:Z19" si="39">Y18/Y20</f>
+      <c r="W19" s="88">
+        <f>W18/W20</f>
+        <v>-1.8354766791233994</v>
+      </c>
+      <c r="Z19" s="44">
+        <f t="shared" ref="Z19:AA19" si="40">Z18/Z20</f>
         <v>-1.2555191431999431</v>
       </c>
-      <c r="Z19" s="44">
-        <f t="shared" si="39"/>
+      <c r="AA19" s="44">
+        <f t="shared" si="40"/>
         <v>-2.3605151435337697</v>
-      </c>
-      <c r="AA19" s="44">
-        <f>AA18/AA20</f>
-        <v>-3.3466258226346173</v>
       </c>
       <c r="AB19" s="44">
         <f>AB18/AB20</f>
+        <v>-3.3466258226346173</v>
+      </c>
+      <c r="AC19" s="44">
+        <f>AC18/AC20</f>
         <v>-5.4535392358724044</v>
       </c>
-      <c r="AC19" s="107">
-        <f>AC18/AC20</f>
+      <c r="AD19" s="107">
+        <f>AD18/AD20</f>
         <v>-6.8636192082455194</v>
       </c>
-      <c r="AD19" s="65">
-        <f t="shared" ref="AD19:AM19" si="40">AD18/AD20</f>
+      <c r="AE19" s="65">
+        <f t="shared" ref="AE19:AN19" si="41">AE18/AE20</f>
         <v>-6.9209170823962278</v>
       </c>
-      <c r="AE19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AF19" s="44">
+        <f t="shared" si="41"/>
         <v>-7.0570271606149308</v>
       </c>
-      <c r="AF19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AG19" s="44">
+        <f t="shared" si="41"/>
         <v>-4.3962368637176068</v>
       </c>
-      <c r="AG19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AH19" s="44">
+        <f t="shared" si="41"/>
         <v>1.3667053286901227</v>
       </c>
-      <c r="AH19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AI19" s="44">
+        <f t="shared" si="41"/>
         <v>1.5393047129834641</v>
       </c>
-      <c r="AI19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AJ19" s="44">
+        <f t="shared" si="41"/>
         <v>6.0186814277653671</v>
       </c>
-      <c r="AJ19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AK19" s="44">
+        <f t="shared" si="41"/>
         <v>10.610581317066359</v>
       </c>
-      <c r="AK19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AL19" s="44">
+        <f t="shared" si="41"/>
         <v>11.353322009261005</v>
       </c>
-      <c r="AL19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AM19" s="44">
+        <f t="shared" si="41"/>
         <v>12.148054549909279</v>
       </c>
-      <c r="AM19" s="44">
-        <f t="shared" si="40"/>
+      <c r="AN19" s="44">
+        <f t="shared" si="41"/>
         <v>12.998418368402925</v>
       </c>
     </row>
-    <row r="20" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -14614,64 +14671,67 @@
       <c r="V20" s="89">
         <v>185.12070199999999</v>
       </c>
-      <c r="Y20" s="44">
+      <c r="W20" s="30">
+        <v>186.40334899999999</v>
+      </c>
+      <c r="Z20" s="44">
         <v>97.130339000000006</v>
       </c>
-      <c r="Z20" s="44">
+      <c r="AA20" s="44">
         <v>130.083046</v>
       </c>
-      <c r="AA20" s="44">
+      <c r="AB20" s="44">
         <v>146.708663</v>
       </c>
-      <c r="AB20" s="44">
+      <c r="AC20" s="44">
         <v>174.180465</v>
       </c>
-      <c r="AC20" s="106">
+      <c r="AD20" s="106">
         <f>AVERAGE(S20:V20)</f>
         <v>183.01496075</v>
       </c>
-      <c r="AD20" s="64">
-        <f>AC20</f>
+      <c r="AE20" s="64">
+        <f>AD20</f>
         <v>183.01496075</v>
       </c>
-      <c r="AE20" s="36">
-        <f t="shared" ref="AE20:AM20" si="41">AD20</f>
+      <c r="AF20" s="36">
+        <f t="shared" ref="AF20:AN20" si="42">AE20</f>
         <v>183.01496075</v>
       </c>
-      <c r="AF20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AG20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
-      <c r="AG20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AH20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
-      <c r="AH20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AI20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
-      <c r="AI20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AJ20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
-      <c r="AJ20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AK20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
-      <c r="AK20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AL20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
-      <c r="AL20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AM20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
-      <c r="AM20" s="36">
-        <f t="shared" si="41"/>
+      <c r="AN20" s="36">
+        <f t="shared" si="42"/>
         <v>183.01496075</v>
       </c>
     </row>
-    <row r="22" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:76" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
@@ -14684,68 +14744,69 @@
         <v>0.65474120232833388</v>
       </c>
       <c r="Q22" s="32">
-        <f t="shared" ref="Q22:V22" si="42">Q4/M4-1</f>
+        <f t="shared" ref="Q22:V22" si="43">Q4/M4-1</f>
         <v>0.65229290419649577</v>
       </c>
       <c r="R22" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.53760148880658276</v>
       </c>
       <c r="S22" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.4836962785683776</v>
       </c>
       <c r="T22" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.41024111604933844</v>
       </c>
       <c r="U22" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.32810304576208882</v>
       </c>
       <c r="V22" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.21575947144091212</v>
       </c>
-      <c r="Z22" s="32">
-        <f>Z4/Y4-1</f>
-        <v>0.74515549935622039</v>
+      <c r="W22" s="32">
+        <f t="shared" ref="W22" si="44">W4/S4-1</f>
+        <v>0.14988182045619913</v>
       </c>
       <c r="AA22" s="32">
         <f>AA4/Z4-1</f>
-        <v>0.55295345483521796</v>
+        <v>0.74515549935622039</v>
       </c>
       <c r="AB22" s="32">
         <f>AB4/AA4-1</f>
+        <v>0.55295345483521796</v>
+      </c>
+      <c r="AC22" s="32">
+        <f>AC4/AB4-1</f>
         <v>0.613053532344634</v>
       </c>
-      <c r="AC22" s="108">
-        <f>AC4/AB4-1</f>
+      <c r="AD22" s="108">
+        <f>AD4/AC4-1</f>
         <v>0.34642426963666861</v>
       </c>
-      <c r="AD22" s="60">
+      <c r="AE22" s="60">
         <v>0.35</v>
       </c>
-      <c r="AE22" s="71">
+      <c r="AF22" s="71">
         <v>0.3</v>
       </c>
-      <c r="AF22" s="71">
+      <c r="AG22" s="71">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG22" s="71">
+      <c r="AH22" s="71">
         <v>0.2</v>
-      </c>
-      <c r="AH22" s="71">
-        <v>0.15</v>
       </c>
       <c r="AI22" s="71">
         <v>0.15</v>
       </c>
       <c r="AJ22" s="71">
+        <v>0.15</v>
+      </c>
+      <c r="AK22" s="71">
         <v>0.11</v>
-      </c>
-      <c r="AK22" s="71">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AL22" s="71">
         <v>7.0000000000000007E-2</v>
@@ -14753,49 +14814,53 @@
       <c r="AM22" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AN22" s="71">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="N23" s="31">
-        <f t="shared" ref="N23:U23" si="43">N4/M4-1</f>
+        <f t="shared" ref="N23:U23" si="45">N4/M4-1</f>
         <v>0.22349984039074133</v>
       </c>
       <c r="O23" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>7.6443649765549404E-2</v>
       </c>
       <c r="P23" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.13380441636101059</v>
       </c>
       <c r="Q23" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.10650575320922484</v>
       </c>
       <c r="R23" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.13857244763407617</v>
       </c>
       <c r="S23" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3.8705704223346515E-2</v>
       </c>
       <c r="T23" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>7.7671777308385259E-2</v>
       </c>
       <c r="U23" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.2058442535887863E-2</v>
       </c>
       <c r="V23" s="90">
-        <f>U23</f>
-        <v>4.2058442535887863E-2</v>
-      </c>
-      <c r="Y23" s="45" t="s">
-        <v>1715</v>
+        <f>V4/U4-1</f>
+        <v>4.2261172090373833E-2</v>
+      </c>
+      <c r="W23" s="90">
+        <f>W4/V4-1</f>
+        <v>-1.7578037311116734E-2</v>
       </c>
       <c r="Z23" s="45" t="s">
         <v>1715</v>
@@ -14806,13 +14871,13 @@
       <c r="AB23" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC23" s="109" t="s">
+      <c r="AC23" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AD23" s="66" t="s">
+      <c r="AD23" s="109" t="s">
         <v>1715</v>
       </c>
-      <c r="AE23" s="72" t="s">
+      <c r="AE23" s="66" t="s">
         <v>1715</v>
       </c>
       <c r="AF23" s="72" t="s">
@@ -14839,8 +14904,11 @@
       <c r="AM23" s="72" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AN23" s="72" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="25" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
@@ -14853,76 +14921,77 @@
         <v>0.52740743424389536</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" ref="M25:U25" si="44">M6/M4</f>
+        <f t="shared" ref="M25:U25" si="46">M6/M4</f>
         <v>0.51537941241469831</v>
       </c>
       <c r="N25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.51473480632742796</v>
       </c>
       <c r="O25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.50561028359898841</v>
       </c>
       <c r="P25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.49518859194745046</v>
       </c>
       <c r="Q25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.49260581267158088</v>
       </c>
       <c r="R25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.47054265589550326</v>
       </c>
       <c r="S25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.48559397644177338</v>
       </c>
       <c r="T25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.47202746794946543</v>
       </c>
       <c r="U25" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.47005177868427206</v>
       </c>
       <c r="V25" s="90">
         <f>U25</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="Y25" s="31">
-        <f>Y6/Y4</f>
-        <v>0.53721539472085189</v>
+      <c r="W25" s="90">
+        <f t="shared" ref="W25" si="47">V25</f>
+        <v>0.47005177868427206</v>
       </c>
       <c r="Z25" s="31">
         <f>Z6/Z4</f>
-        <v>0.53674233208869704</v>
+        <v>0.53721539472085189</v>
       </c>
       <c r="AA25" s="31">
         <f>AA6/AA4</f>
-        <v>0.51973746946263322</v>
+        <v>0.53674233208869704</v>
       </c>
       <c r="AB25" s="31">
         <f>AB6/AB4</f>
+        <v>0.51973746946263322</v>
+      </c>
+      <c r="AC25" s="31">
+        <f>AC6/AC4</f>
         <v>0.48937079123764576</v>
       </c>
-      <c r="AC25" s="92">
-        <f>AC6/AC4</f>
+      <c r="AD25" s="92">
+        <f>AD6/AD4</f>
         <v>0.47397408633515076</v>
       </c>
-      <c r="AD25" s="63">
+      <c r="AE25" s="63">
         <v>0.5</v>
       </c>
-      <c r="AE25" s="42">
+      <c r="AF25" s="42">
         <v>0.5</v>
       </c>
-      <c r="AF25" s="42">
+      <c r="AG25" s="42">
         <v>0.53</v>
-      </c>
-      <c r="AG25" s="42">
-        <v>0.55000000000000004</v>
       </c>
       <c r="AH25" s="42">
         <v>0.55000000000000004</v>
@@ -14942,14 +15011,17 @@
       <c r="AM25" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AO25" s="73" t="s">
+      <c r="AN25" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AP25" s="73" t="s">
         <v>1725</v>
       </c>
-      <c r="AP25" s="74">
+      <c r="AQ25" s="74">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
@@ -14962,113 +15034,117 @@
         <v>-0.28318902011931496</v>
       </c>
       <c r="M26" s="31">
-        <f t="shared" ref="M26:V26" si="45">M13/M4</f>
+        <f t="shared" ref="M26:V26" si="48">M13/M4</f>
         <v>-0.25062002058178134</v>
       </c>
       <c r="N26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.33806674086372651</v>
       </c>
       <c r="O26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.33447968433256259</v>
       </c>
       <c r="P26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.30238395290396158</v>
       </c>
       <c r="Q26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.3139050712263029</v>
       </c>
       <c r="R26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.33655060136886167</v>
       </c>
       <c r="S26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.24882020373262284</v>
       </c>
       <c r="T26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.33066696065315881</v>
       </c>
       <c r="U26" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.46488611741249003</v>
       </c>
       <c r="V26" s="90">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.2133247574113728</v>
       </c>
-      <c r="Y26" s="31">
-        <f t="shared" ref="Y26:AM26" si="46">Y13/Y4</f>
+      <c r="W26" s="90">
+        <f t="shared" ref="W26" si="49">W13/W4</f>
+        <v>-0.26236185677214768</v>
+      </c>
+      <c r="Z26" s="31">
+        <f t="shared" ref="Z26:AN26" si="50">Z13/Z4</f>
         <v>-0.17726634331538135</v>
       </c>
-      <c r="Z26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AA26" s="31">
+        <f t="shared" si="50"/>
         <v>-0.32595454433267396</v>
       </c>
-      <c r="AA26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AB26" s="31">
+        <f t="shared" si="50"/>
         <v>-0.27977506788604217</v>
       </c>
-      <c r="AB26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AC26" s="31">
+        <f t="shared" si="50"/>
         <v>-0.32218010942914083</v>
       </c>
-      <c r="AC26" s="92">
-        <f t="shared" si="46"/>
+      <c r="AD26" s="92">
+        <f t="shared" si="50"/>
         <v>-0.31500441285506353</v>
       </c>
-      <c r="AD26" s="63">
-        <f t="shared" si="46"/>
+      <c r="AE26" s="63">
+        <f t="shared" si="50"/>
         <v>-0.24668770568483503</v>
       </c>
-      <c r="AE26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AF26" s="31">
+        <f t="shared" si="50"/>
         <v>-0.19500000000000001</v>
       </c>
-      <c r="AF26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AG26" s="31">
+        <f t="shared" si="50"/>
         <v>-9.5000000000000084E-2</v>
       </c>
-      <c r="AG26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AH26" s="31">
+        <f t="shared" si="50"/>
         <v>2.4999999999999863E-2</v>
       </c>
-      <c r="AH26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AI26" s="31">
+        <f t="shared" si="50"/>
         <v>2.4999999999999883E-2</v>
       </c>
-      <c r="AI26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AJ26" s="31">
+        <f t="shared" si="50"/>
         <v>8.4999999999999937E-2</v>
       </c>
-      <c r="AJ26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AK26" s="31">
+        <f t="shared" si="50"/>
         <v>0.13499999999999993</v>
       </c>
-      <c r="AK26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AL26" s="31">
+        <f t="shared" si="50"/>
         <v>0.13499999999999993</v>
       </c>
-      <c r="AL26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AM26" s="31">
+        <f t="shared" si="50"/>
         <v>0.13499999999999995</v>
       </c>
-      <c r="AM26" s="31">
-        <f t="shared" si="46"/>
+      <c r="AN26" s="31">
+        <f t="shared" si="50"/>
         <v>0.13499999999999993</v>
       </c>
-      <c r="AO26" s="75" t="s">
+      <c r="AP26" s="75" t="s">
         <v>1726</v>
       </c>
-      <c r="AP26" s="76">
+      <c r="AQ26" s="76">
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>75</v>
       </c>
@@ -15081,135 +15157,139 @@
         <v>-0.27246515952950268</v>
       </c>
       <c r="M27" s="31">
-        <f t="shared" ref="M27:V27" si="47">M18/M4</f>
+        <f t="shared" ref="M27:V27" si="51">M18/M4</f>
         <v>-0.26098680935511165</v>
       </c>
       <c r="N27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.3272291047090804</v>
       </c>
       <c r="O27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.35007830667742379</v>
       </c>
       <c r="P27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.34062257542257712</v>
       </c>
       <c r="Q27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.30277798793800387</v>
       </c>
       <c r="R27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.34577048308857727</v>
       </c>
       <c r="S27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.25318296523842099</v>
       </c>
       <c r="T27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.34215045465435023</v>
       </c>
       <c r="U27" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.49065338799426272</v>
       </c>
       <c r="V27" s="90">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.2239194045525261</v>
       </c>
-      <c r="Y27" s="31">
-        <f t="shared" ref="Y27:AM27" si="48">Y18/Y4</f>
+      <c r="W27" s="90">
+        <f t="shared" ref="W27" si="52">W18/W4</f>
+        <v>-0.33990784490603682</v>
+      </c>
+      <c r="Z27" s="31">
+        <f t="shared" ref="Z27:AN27" si="53">Z18/Z4</f>
         <v>-0.18759450948902193</v>
       </c>
-      <c r="Z27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AA27" s="31">
+        <f t="shared" si="53"/>
         <v>-0.27066695578896882</v>
       </c>
-      <c r="AA27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AB27" s="31">
+        <f t="shared" si="53"/>
         <v>-0.27868412329376707</v>
       </c>
-      <c r="AB27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AC27" s="31">
+        <f t="shared" si="53"/>
         <v>-0.33425538885207784</v>
       </c>
-      <c r="AC27" s="92">
-        <f t="shared" si="48"/>
+      <c r="AD27" s="92">
+        <f t="shared" si="53"/>
         <v>-0.32829054331824215</v>
       </c>
-      <c r="AD27" s="63">
-        <f t="shared" si="48"/>
+      <c r="AE27" s="63">
+        <f t="shared" si="53"/>
         <v>-0.24520824518319101</v>
       </c>
-      <c r="AE27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AF27" s="31">
+        <f t="shared" si="53"/>
         <v>-0.19233125250964947</v>
       </c>
-      <c r="AF27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AG27" s="31">
+        <f t="shared" si="53"/>
         <v>-9.3605029590974637E-2</v>
       </c>
-      <c r="AG27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AH27" s="31">
+        <f t="shared" si="53"/>
         <v>2.4249999999999869E-2</v>
       </c>
-      <c r="AH27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AI27" s="31">
+        <f t="shared" si="53"/>
         <v>2.3749999999999893E-2</v>
       </c>
-      <c r="AI27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AJ27" s="31">
+        <f t="shared" si="53"/>
         <v>8.0749999999999933E-2</v>
       </c>
-      <c r="AJ27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AK27" s="31">
+        <f t="shared" si="53"/>
         <v>0.12824999999999995</v>
       </c>
-      <c r="AK27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AL27" s="31">
+        <f t="shared" si="53"/>
         <v>0.12824999999999995</v>
       </c>
-      <c r="AL27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AM27" s="31">
+        <f t="shared" si="53"/>
         <v>0.12824999999999995</v>
       </c>
-      <c r="AM27" s="31">
-        <f t="shared" si="48"/>
+      <c r="AN27" s="31">
+        <f t="shared" si="53"/>
         <v>0.12824999999999992</v>
       </c>
-      <c r="AO27" s="75" t="s">
+      <c r="AP27" s="75" t="s">
         <v>1727</v>
       </c>
-      <c r="AP27" s="77">
-        <f>NPV(AP26,Y18:BW18)</f>
+      <c r="AQ27" s="77">
+        <f>NPV(AQ26,Z18:BX18)</f>
         <v>6591.4588106210676</v>
       </c>
     </row>
-    <row r="28" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="31">
-        <f t="shared" ref="F28" si="49">F17/F16</f>
+        <f t="shared" ref="F28" si="54">F17/F16</f>
         <v>-8.9862638538234403E-3</v>
       </c>
       <c r="J28" s="31">
-        <f t="shared" ref="J28" si="50">J17/J16</f>
+        <f t="shared" ref="J28" si="55">J17/J16</f>
         <v>-1.297549696377861E-2</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" ref="M28" si="51">M17/M16</f>
+        <f t="shared" ref="M28" si="56">M17/M16</f>
         <v>-5.5734264531333323E-3</v>
       </c>
       <c r="N28" s="31">
-        <f t="shared" ref="N28:O28" si="52">N17/N16</f>
+        <f t="shared" ref="N28:O28" si="57">N17/N16</f>
         <v>7.891452723696446E-2</v>
       </c>
       <c r="O28" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-4.3276992200416255E-3</v>
       </c>
       <c r="P28" s="31">
@@ -15217,15 +15297,15 @@
         <v>-5.6760251934306425E-3</v>
       </c>
       <c r="Q28" s="31">
-        <f t="shared" ref="Q28" si="53">Q17/Q16</f>
+        <f t="shared" ref="Q28" si="58">Q17/Q16</f>
         <v>6.2140627223194043E-2</v>
       </c>
       <c r="R28" s="31">
-        <f t="shared" ref="R28:S28" si="54">R17/R16</f>
+        <f t="shared" ref="R28:S28" si="59">R17/R16</f>
         <v>-5.6738176095419536E-3</v>
       </c>
       <c r="S28" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1.2731362897298265E-2</v>
       </c>
       <c r="T28" s="31">
@@ -15233,46 +15313,46 @@
         <v>-8.1018193175607101E-3</v>
       </c>
       <c r="U28" s="31">
-        <f t="shared" ref="U28" si="55">U17/U16</f>
+        <f t="shared" ref="U28" si="60">U17/U16</f>
         <v>-7.4778536471246807E-3</v>
       </c>
       <c r="V28" s="90">
         <v>-0.01</v>
       </c>
-      <c r="Y28" s="31">
-        <f t="shared" ref="Y28:AA28" si="56">Y17/Y16</f>
+      <c r="W28" s="90">
+        <v>-0.01</v>
+      </c>
+      <c r="Z28" s="31">
+        <f t="shared" ref="Z28:AB28" si="61">Z17/Z16</f>
         <v>-6.5286650489443532E-3</v>
       </c>
-      <c r="Z28" s="31">
-        <f t="shared" si="56"/>
+      <c r="AA28" s="31">
+        <f t="shared" si="61"/>
         <v>0.15226549903924733</v>
       </c>
-      <c r="AA28" s="31">
-        <f t="shared" si="56"/>
+      <c r="AB28" s="31">
+        <f t="shared" si="61"/>
         <v>2.6658023178821082E-2</v>
       </c>
-      <c r="AB28" s="31">
-        <f>AB17/AB16</f>
+      <c r="AC28" s="31">
+        <f>AC17/AC16</f>
         <v>1.1477434857309956E-2</v>
       </c>
-      <c r="AC28" s="92">
-        <f>AC17/AC16</f>
+      <c r="AD28" s="92">
+        <f>AD17/AD16</f>
         <v>-1.0061658111081092E-2</v>
       </c>
-      <c r="AD28" s="63">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE28" s="42">
+      <c r="AE28" s="63">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AF28" s="42">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AG28" s="42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AH28" s="42">
         <v>0.03</v>
-      </c>
-      <c r="AH28" s="42">
-        <v>0.05</v>
       </c>
       <c r="AI28" s="42">
         <v>0.05</v>
@@ -15289,25 +15369,28 @@
       <c r="AM28" s="42">
         <v>0.05</v>
       </c>
-      <c r="AO28" s="75" t="s">
+      <c r="AN28" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="AP28" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AP28" s="77">
+      <c r="AQ28" s="77">
         <f>Main!C11</f>
-        <v>3146.3969999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AC29" s="92"/>
-      <c r="AO29" s="75" t="s">
+        <v>2939.7060000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:76" x14ac:dyDescent="0.2">
+      <c r="AD29" s="92"/>
+      <c r="AP29" s="75" t="s">
         <v>1728</v>
       </c>
-      <c r="AP29" s="77">
-        <f>AP27+AP28</f>
-        <v>9737.8558106210676</v>
-      </c>
-    </row>
-    <row r="30" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="AQ29" s="77">
+        <f>AQ27+AQ28</f>
+        <v>9531.1648106210669</v>
+      </c>
+    </row>
+    <row r="30" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
@@ -15320,142 +15403,147 @@
         <v>0.44105373925033553</v>
       </c>
       <c r="Q30" s="31">
-        <f t="shared" ref="Q30:V30" si="57">Q7/M7-1</f>
+        <f t="shared" ref="Q30:V30" si="62">Q7/M7-1</f>
         <v>0.5359453209612739</v>
       </c>
       <c r="R30" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.40535453492471163</v>
       </c>
       <c r="S30" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.37649313501144155</v>
       </c>
       <c r="T30" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.54259157105030908</v>
       </c>
       <c r="U30" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.35659154795369008</v>
       </c>
       <c r="V30" s="90">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.22775018029196104</v>
       </c>
-      <c r="Y30" s="45" t="s">
+      <c r="W30" s="90">
+        <f t="shared" ref="W30" si="63">W7/S7-1</f>
+        <v>-8.3786693043959026E-3</v>
+      </c>
+      <c r="Z30" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="Z30" s="31">
-        <f t="shared" ref="Z30:AM30" si="58">Z7/Y7-1</f>
+      <c r="AA30" s="31">
+        <f t="shared" ref="AA30:AN30" si="64">AA7/Z7-1</f>
         <v>1.283844349257111</v>
       </c>
-      <c r="AA30" s="31">
-        <f t="shared" si="58"/>
+      <c r="AB30" s="31">
+        <f t="shared" si="64"/>
         <v>0.35566940501590616</v>
       </c>
-      <c r="AB30" s="31">
-        <f t="shared" si="58"/>
+      <c r="AC30" s="31">
+        <f t="shared" si="64"/>
         <v>0.48755437773773536</v>
       </c>
-      <c r="AC30" s="92">
-        <f t="shared" si="58"/>
+      <c r="AD30" s="92">
+        <f t="shared" si="64"/>
         <v>0.36727701689898473</v>
       </c>
-      <c r="AD30" s="63">
-        <f t="shared" si="58"/>
+      <c r="AE30" s="63">
+        <f t="shared" si="64"/>
         <v>0.34035289102486321</v>
       </c>
-      <c r="AE30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AF30" s="42">
+        <f t="shared" si="64"/>
         <v>6.785714285714306E-2</v>
       </c>
-      <c r="AF30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AG30" s="42">
+        <f t="shared" si="64"/>
         <v>1.7391304347824654E-3</v>
       </c>
-      <c r="AG30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AH30" s="42">
+        <f t="shared" si="64"/>
         <v>-0.13333333333333353</v>
       </c>
-      <c r="AH30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AI30" s="42">
+        <f t="shared" si="64"/>
         <v>0.15000000000000013</v>
       </c>
-      <c r="AI30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AJ30" s="42">
+        <f t="shared" si="64"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AJ30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AK30" s="42">
+        <f t="shared" si="64"/>
         <v>-0.31692307692307697</v>
       </c>
-      <c r="AK30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AL30" s="42">
+        <f t="shared" si="64"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AL30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AM30" s="42">
+        <f t="shared" si="64"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AM30" s="42">
-        <f t="shared" si="58"/>
+      <c r="AN30" s="42">
+        <f t="shared" si="64"/>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="AO30" s="78" t="s">
+      <c r="AP30" s="78" t="s">
         <v>1729</v>
       </c>
-      <c r="AP30" s="81">
-        <f>AP29/Main!C7</f>
-        <v>52.602738134717463</v>
-      </c>
-      <c r="AQ30" s="30">
-        <f>AP30*Main!C7</f>
-        <v>9737.8558106210676</v>
-      </c>
-    </row>
-    <row r="31" spans="2:75" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ30" s="81">
+        <f>AQ29/Main!C7</f>
+        <v>51.131939751903637</v>
+      </c>
+      <c r="AR30" s="30">
+        <f>AQ30*Main!C7</f>
+        <v>9531.1648106210669</v>
+      </c>
+    </row>
+    <row r="31" spans="2:76" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="35" t="s">
         <v>78</v>
       </c>
       <c r="N31" s="42">
-        <f t="shared" ref="N31:V31" si="59">N7/M7-1</f>
+        <f t="shared" ref="N31:V31" si="65">N7/M7-1</f>
         <v>0.16248573017592149</v>
       </c>
       <c r="O31" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.10036762854409043</v>
       </c>
       <c r="P31" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.7070938215102878E-2</v>
       </c>
       <c r="Q31" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.15782215357458074</v>
       </c>
       <c r="R31" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>6.3647624946400638E-2</v>
       </c>
       <c r="S31" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>7.7769665261658405E-2</v>
       </c>
       <c r="T31" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.16221203519373617</v>
       </c>
       <c r="U31" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1.8216212930149744E-2</v>
       </c>
       <c r="V31" s="92">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>-3.737159112859334E-2</v>
       </c>
-      <c r="Y31" s="45" t="s">
-        <v>1715</v>
+      <c r="W31" s="92">
+        <f t="shared" ref="W31" si="66">W7/V7-1</f>
+        <v>-0.12951396236327684</v>
       </c>
       <c r="Z31" s="45" t="s">
         <v>1715</v>
@@ -15466,49 +15554,52 @@
       <c r="AB31" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AC31" s="110" t="s">
+      <c r="AC31" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AD31" s="52"/>
-      <c r="AO31" s="75" t="s">
+      <c r="AD31" s="110" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AE31" s="52"/>
+      <c r="AP31" s="75" t="s">
         <v>1730</v>
       </c>
-      <c r="AP31" s="79">
+      <c r="AQ31" s="79">
         <f>Main!C6</f>
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="AO32" s="80" t="s">
+        <v>48.92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:76" x14ac:dyDescent="0.2">
+      <c r="AP32" s="80" t="s">
         <v>1731</v>
       </c>
-      <c r="AP32" s="82">
-        <f>AP30/AP31-1</f>
-        <v>-0.29392297805748369</v>
-      </c>
-    </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AQ32" s="82">
+        <f>AQ30/AQ31-1</f>
+        <v>4.5215448730654861E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
         <v>1709</v>
       </c>
-      <c r="Z33" s="40">
-        <f>Z34-Y34</f>
-        <v>114714</v>
-      </c>
       <c r="AA33" s="40">
         <f>AA34-Z34</f>
-        <v>42000</v>
+        <v>114714</v>
       </c>
       <c r="AB33" s="40">
         <f>AB34-AA34</f>
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="AC33" s="40">
         <f>AC34-AB34</f>
+        <v>35000</v>
+      </c>
+      <c r="AD33" s="40">
+        <f>AD34-AC34</f>
         <v>34000</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>1710</v>
       </c>
@@ -15548,42 +15639,45 @@
       <c r="V34" s="40">
         <v>290000</v>
       </c>
-      <c r="Y34" s="40">
+      <c r="W34" s="40">
+        <v>300000</v>
+      </c>
+      <c r="Z34" s="40">
         <f>F34</f>
         <v>64286</v>
       </c>
-      <c r="Z34" s="40">
+      <c r="AA34" s="40">
         <f>J34</f>
         <v>179000</v>
       </c>
-      <c r="AA34" s="40">
+      <c r="AB34" s="40">
         <f>N34</f>
         <v>221000</v>
       </c>
-      <c r="AB34" s="40">
+      <c r="AC34" s="40">
         <f>R34</f>
         <v>256000</v>
       </c>
-      <c r="AC34" s="114">
+      <c r="AD34" s="114">
         <f>V34</f>
         <v>290000</v>
       </c>
     </row>
-    <row r="35" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
         <v>1714</v>
       </c>
       <c r="J35" s="42">
-        <f t="shared" ref="J35" si="60">J34/F34-1</f>
+        <f t="shared" ref="J35" si="67">J34/F34-1</f>
         <v>1.7844320691908035</v>
       </c>
       <c r="N35" s="42">
-        <f t="shared" ref="N35" si="61">N34/J34-1</f>
+        <f t="shared" ref="N35" si="68">N34/J34-1</f>
         <v>0.23463687150837997</v>
       </c>
       <c r="P35" s="41"/>
       <c r="Q35" s="42">
-        <f t="shared" ref="Q35" si="62">Q34/M34-1</f>
+        <f t="shared" ref="Q35" si="69">Q34/M34-1</f>
         <v>0.20192307692307687</v>
       </c>
       <c r="R35" s="42">
@@ -15599,57 +15693,61 @@
         <v>0.14583333333333326</v>
       </c>
       <c r="U35" s="42">
-        <f t="shared" ref="U35" si="63">U34/Q34-1</f>
+        <f t="shared" ref="U35" si="70">U34/Q34-1</f>
         <v>0.12000000000000011</v>
       </c>
       <c r="V35" s="42">
-        <f t="shared" ref="V35" si="64">V34/R34-1</f>
+        <f t="shared" ref="V35" si="71">V34/R34-1</f>
         <v>0.1328125</v>
       </c>
-      <c r="Z35" s="42">
-        <f t="shared" ref="Z35:AA35" si="65">Z34/Y34-1</f>
+      <c r="W35" s="42">
+        <f t="shared" ref="W35" si="72">W34/S34-1</f>
+        <v>0.11940298507462677</v>
+      </c>
+      <c r="AA35" s="42">
+        <f t="shared" ref="AA35:AB35" si="73">AA34/Z34-1</f>
         <v>1.7844320691908035</v>
       </c>
-      <c r="AA35" s="42">
-        <f t="shared" si="65"/>
+      <c r="AB35" s="42">
+        <f t="shared" si="73"/>
         <v>0.23463687150837997</v>
-      </c>
-      <c r="AB35" s="42">
-        <f>AB34/AA34-1</f>
-        <v>0.158371040723982</v>
       </c>
       <c r="AC35" s="42">
         <f>AC34/AB34-1</f>
+        <v>0.158371040723982</v>
+      </c>
+      <c r="AD35" s="42">
+        <f>AD34/AC34-1</f>
         <v>0.1328125</v>
       </c>
-      <c r="AD35" s="52"/>
-    </row>
-    <row r="36" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE35" s="52"/>
+    </row>
+    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
         <v>1713</v>
       </c>
       <c r="N36" s="42">
-        <f t="shared" ref="N36:Q36" si="66">N34/M34-1</f>
+        <f t="shared" ref="N36:Q36" si="74">N34/M34-1</f>
         <v>6.25E-2</v>
       </c>
       <c r="O36" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>6.3348416289592757E-2</v>
       </c>
       <c r="P36" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>2.1276595744680771E-2</v>
       </c>
       <c r="Q36" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="R36" s="42">
-        <f t="shared" ref="R36:S36" si="67">R34/Q34-1</f>
+        <f t="shared" ref="R36:S36" si="75">R34/Q34-1</f>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="S36" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>4.6875E-2</v>
       </c>
       <c r="T36" s="42">
@@ -15657,15 +15755,16 @@
         <v>2.6119402985074647E-2</v>
       </c>
       <c r="U36" s="42">
-        <f t="shared" ref="U36" si="68">U34/T34-1</f>
+        <f t="shared" ref="U36" si="76">U34/T34-1</f>
         <v>1.8181818181818077E-2</v>
       </c>
       <c r="V36" s="42">
-        <f t="shared" ref="V36" si="69">V34/U34-1</f>
+        <f t="shared" ref="V36" si="77">V34/U34-1</f>
         <v>3.5714285714285809E-2</v>
       </c>
-      <c r="Y36" s="45" t="s">
-        <v>1715</v>
+      <c r="W36" s="42">
+        <f t="shared" ref="W36" si="78">W34/V34-1</f>
+        <v>3.4482758620689724E-2</v>
       </c>
       <c r="Z36" s="45" t="s">
         <v>1715</v>
@@ -15679,9 +15778,12 @@
       <c r="AC36" s="45" t="s">
         <v>1715</v>
       </c>
-      <c r="AD36" s="52"/>
-    </row>
-    <row r="37" spans="2:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AE36" s="52"/>
+    </row>
+    <row r="37" spans="2:40" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="40" t="s">
         <v>1711</v>
       </c>
@@ -15709,28 +15811,30 @@
       <c r="U37" s="40">
         <v>8992</v>
       </c>
-      <c r="V37" s="133">
+      <c r="V37" s="117">
         <v>8156</v>
       </c>
-      <c r="Y37" s="40">
+      <c r="W37" s="40">
+        <v>6766</v>
+      </c>
+      <c r="Z37" s="40">
         <v>1440</v>
       </c>
-      <c r="Z37" s="40">
+      <c r="AA37" s="40">
         <v>2905</v>
       </c>
-      <c r="AA37" s="40">
+      <c r="AB37" s="40">
         <v>4629</v>
       </c>
-      <c r="AB37" s="40">
+      <c r="AC37" s="40">
         <f>R37</f>
         <v>7867</v>
       </c>
-      <c r="AC37" s="114">
+      <c r="AD37" s="114">
         <f>V37</f>
         <v>8156</v>
       </c>
-      <c r="AD37" s="134"/>
-      <c r="AE37" s="41"/>
+      <c r="AE37" s="118"/>
       <c r="AF37" s="41"/>
       <c r="AG37" s="41"/>
       <c r="AH37" s="41"/>
@@ -15739,8 +15843,9 @@
       <c r="AK37" s="41"/>
       <c r="AL37" s="41"/>
       <c r="AM37" s="41"/>
-    </row>
-    <row r="38" spans="2:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN37" s="41"/>
+    </row>
+    <row r="38" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="39" t="s">
         <v>1712</v>
       </c>
@@ -15758,57 +15863,61 @@
       </c>
       <c r="P38" s="43"/>
       <c r="Q38" s="43">
-        <f t="shared" ref="Q38:V38" si="70">Q4/Q37</f>
+        <f t="shared" ref="Q38:W38" si="79">Q4/Q37</f>
         <v>0.10028126270153097</v>
       </c>
       <c r="R38" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>0.10712393542646498</v>
       </c>
       <c r="S38" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>0.10676460543968777</v>
       </c>
       <c r="T38" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>0.1108524089306698</v>
       </c>
       <c r="U38" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>0.10932273131672597</v>
       </c>
       <c r="V38" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>0.12562211868563022</v>
       </c>
-      <c r="Y38" s="43">
-        <f>Y4/Y37</f>
-        <v>0.45143541666666664</v>
+      <c r="W38" s="43">
+        <f t="shared" si="79"/>
+        <v>0.14876795743422996</v>
       </c>
       <c r="Z38" s="43">
         <f>Z4/Z37</f>
-        <v>0.39052254733218589</v>
+        <v>0.45143541666666664</v>
       </c>
       <c r="AA38" s="43">
         <f>AA4/AA37</f>
-        <v>0.38059537697126811</v>
+        <v>0.39052254733218589</v>
       </c>
       <c r="AB38" s="43">
         <f>AB4/AB37</f>
-        <v>0.36123541375365448</v>
+        <v>0.38059537697126811</v>
       </c>
       <c r="AC38" s="43">
         <f>AC4/AC37</f>
+        <v>0.36123541375365448</v>
+      </c>
+      <c r="AD38" s="43">
+        <f>AD4/AD37</f>
         <v>0.46914185875429137</v>
       </c>
-      <c r="AD38" s="52"/>
-    </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AE38" s="52"/>
+    </row>
+    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B42" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -15842,25 +15951,27 @@
       <c r="V43" s="86">
         <v>651.75199999999995</v>
       </c>
-      <c r="Y43" s="29">
+      <c r="W43" s="29">
+        <v>634.82399999999996</v>
+      </c>
+      <c r="Z43" s="29">
         <f>F43</f>
         <v>487.21499999999997</v>
       </c>
-      <c r="Z43" s="29">
+      <c r="AA43" s="29">
         <f>J43</f>
         <v>253.66</v>
       </c>
-      <c r="AA43" s="29">
+      <c r="AB43" s="29">
         <f>N43</f>
         <v>933.88499999999999</v>
       </c>
-      <c r="AB43" s="29">
+      <c r="AC43" s="29">
         <f>R43</f>
         <v>1479.452</v>
       </c>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="70"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="55"/>
       <c r="AF43" s="70"/>
       <c r="AG43" s="70"/>
       <c r="AH43" s="70"/>
@@ -15869,8 +15980,9 @@
       <c r="AK43" s="70"/>
       <c r="AL43" s="70"/>
       <c r="AM43" s="70"/>
-    </row>
-    <row r="44" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN43" s="70"/>
+    </row>
+    <row r="44" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
@@ -15904,25 +16016,27 @@
       <c r="V44" s="86">
         <v>3503.317</v>
       </c>
-      <c r="Y44" s="29">
-        <f t="shared" ref="Y44" si="71">F44</f>
+      <c r="W44" s="29">
+        <v>3310.4830000000002</v>
+      </c>
+      <c r="Z44" s="29">
+        <f t="shared" ref="Z44" si="80">F44</f>
         <v>261.12799999999999</v>
       </c>
-      <c r="Z44" s="29">
-        <f t="shared" ref="Z44" si="72">J44</f>
+      <c r="AA44" s="29">
+        <f t="shared" ref="AA44" si="81">J44</f>
         <v>1559.0329999999999</v>
       </c>
-      <c r="AA44" s="29">
-        <f t="shared" ref="AA44" si="73">N44</f>
+      <c r="AB44" s="29">
+        <f t="shared" ref="AB44" si="82">N44</f>
         <v>2105.9059999999999</v>
       </c>
-      <c r="AB44" s="29">
+      <c r="AC44" s="29">
         <f>R44</f>
         <v>3878.43</v>
       </c>
-      <c r="AC44" s="111"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="70"/>
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="55"/>
       <c r="AF44" s="70"/>
       <c r="AG44" s="70"/>
       <c r="AH44" s="70"/>
@@ -15931,8 +16045,9 @@
       <c r="AK44" s="70"/>
       <c r="AL44" s="70"/>
       <c r="AM44" s="70"/>
-    </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AN44" s="70"/>
+    </row>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>81</v>
       </c>
@@ -15966,24 +16081,27 @@
       <c r="V45" s="87">
         <v>547.50699999999995</v>
       </c>
-      <c r="Y45" s="30">
+      <c r="W45" s="30">
+        <v>575.66399999999999</v>
+      </c>
+      <c r="Z45" s="30">
         <f>F45</f>
         <v>97.712000000000003</v>
       </c>
-      <c r="Z45" s="30">
+      <c r="AA45" s="30">
         <f>J45</f>
         <v>154.06700000000001</v>
       </c>
-      <c r="AA45" s="30">
+      <c r="AB45" s="30">
         <f>N45</f>
         <v>251.167</v>
       </c>
-      <c r="AB45" s="30">
+      <c r="AC45" s="30">
         <f>R45</f>
         <v>388.21499999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>82</v>
       </c>
@@ -16017,24 +16135,27 @@
       <c r="V46" s="87">
         <v>281.51</v>
       </c>
-      <c r="Y46" s="30">
-        <f t="shared" ref="Y46" si="74">F46</f>
+      <c r="W46" s="30">
+        <v>335.565</v>
+      </c>
+      <c r="Z46" s="30">
+        <f t="shared" ref="Z46" si="83">F46</f>
         <v>26.893000000000001</v>
       </c>
-      <c r="Z46" s="30">
-        <f t="shared" ref="Z46" si="75">J46</f>
+      <c r="AA46" s="30">
+        <f t="shared" ref="AA46" si="84">J46</f>
         <v>54.570999999999998</v>
       </c>
-      <c r="AA46" s="30">
-        <f t="shared" ref="AA46" si="76">N46</f>
+      <c r="AB46" s="30">
+        <f t="shared" ref="AB46" si="85">N46</f>
         <v>81.376999999999995</v>
       </c>
-      <c r="AB46" s="30">
-        <f t="shared" ref="AB46" si="77">R46</f>
+      <c r="AC46" s="30">
+        <f t="shared" ref="AC46" si="86">R46</f>
         <v>186.131</v>
       </c>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
@@ -16054,47 +16175,51 @@
         <v>3372.335</v>
       </c>
       <c r="Q47" s="30">
-        <f t="shared" ref="Q47:V47" si="78">SUM(Q43:Q46)</f>
+        <f t="shared" ref="Q47:W47" si="87">SUM(Q43:Q46)</f>
         <v>5905.8050000000003</v>
       </c>
       <c r="R47" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>5932.2280000000001</v>
       </c>
       <c r="S47" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>5831.19</v>
       </c>
       <c r="T47" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>5104.3909999999996</v>
       </c>
       <c r="U47" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>4962.2719999999999</v>
       </c>
       <c r="V47" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>4984.0859999999993</v>
       </c>
-      <c r="Y47" s="30">
-        <f t="shared" ref="Y47:AB47" si="79">SUM(Y43:Y46)</f>
+      <c r="W47" s="30">
+        <f t="shared" si="87"/>
+        <v>4856.5360000000001</v>
+      </c>
+      <c r="Z47" s="30">
+        <f t="shared" ref="Z47:AC47" si="88">SUM(Z43:Z46)</f>
         <v>872.94799999999998</v>
       </c>
-      <c r="Z47" s="30">
-        <f t="shared" si="79"/>
+      <c r="AA47" s="30">
+        <f t="shared" si="88"/>
         <v>2021.3309999999999</v>
       </c>
-      <c r="AA47" s="30">
-        <f t="shared" si="79"/>
+      <c r="AB47" s="30">
+        <f t="shared" si="88"/>
         <v>3372.335</v>
       </c>
-      <c r="AB47" s="30">
-        <f t="shared" si="79"/>
+      <c r="AC47" s="30">
+        <f t="shared" si="88"/>
         <v>5932.2280000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>84</v>
       </c>
@@ -16128,24 +16253,27 @@
       <c r="V48" s="87">
         <v>263.97899999999998</v>
       </c>
-      <c r="Y48" s="30">
-        <f t="shared" ref="Y48:Y52" si="80">F48</f>
+      <c r="W48" s="30">
+        <v>254.06200000000001</v>
+      </c>
+      <c r="Z48" s="30">
+        <f t="shared" ref="Z48:Z52" si="89">F48</f>
         <v>63.533999999999999</v>
       </c>
-      <c r="Z48" s="30">
+      <c r="AA48" s="30">
         <f>J48</f>
         <v>141.256</v>
       </c>
-      <c r="AA48" s="30">
-        <f t="shared" ref="AA48:AA52" si="81">N48</f>
+      <c r="AB48" s="30">
+        <f t="shared" ref="AB48:AB52" si="90">N48</f>
         <v>183.239</v>
       </c>
-      <c r="AB48" s="30">
-        <f t="shared" ref="AB48:AB52" si="82">R48</f>
+      <c r="AC48" s="30">
+        <f t="shared" ref="AC48:AC52" si="91">R48</f>
         <v>255.316</v>
       </c>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
@@ -16179,24 +16307,27 @@
       <c r="V49" s="87">
         <v>121.34099999999999</v>
       </c>
-      <c r="Y49" s="30">
-        <f t="shared" si="80"/>
+      <c r="W49" s="30">
+        <v>103.532</v>
+      </c>
+      <c r="Z49" s="30">
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="30">
+      <c r="AA49" s="30">
         <f>J48</f>
         <v>141.256</v>
       </c>
-      <c r="AA49" s="30">
-        <f t="shared" si="81"/>
+      <c r="AB49" s="30">
+        <f t="shared" si="90"/>
         <v>258.61</v>
       </c>
-      <c r="AB49" s="30">
-        <f t="shared" si="82"/>
+      <c r="AC49" s="30">
+        <f t="shared" si="91"/>
         <v>234.584</v>
       </c>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>86</v>
       </c>
@@ -16230,24 +16361,27 @@
       <c r="V50" s="87">
         <v>699.91099999999994</v>
       </c>
-      <c r="Y50" s="30">
-        <f t="shared" si="80"/>
+      <c r="W50" s="30">
+        <v>684.14400000000001</v>
+      </c>
+      <c r="Z50" s="30">
+        <f t="shared" si="89"/>
         <v>18.119</v>
       </c>
-      <c r="Z50" s="30">
+      <c r="AA50" s="30">
         <f>J50</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA50" s="30">
-        <f t="shared" si="81"/>
+      <c r="AB50" s="30">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="30">
-        <f t="shared" si="82"/>
+      <c r="AC50" s="30">
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>87</v>
       </c>
@@ -16290,24 +16424,28 @@
         <f>5284.153+849.335</f>
         <v>6133.4880000000003</v>
       </c>
-      <c r="Y51" s="30">
-        <f t="shared" si="80"/>
+      <c r="W51" s="30">
+        <f>797.699+5284.388</f>
+        <v>6082.0869999999995</v>
+      </c>
+      <c r="Z51" s="30">
+        <f t="shared" si="89"/>
         <v>65.722999999999999</v>
       </c>
-      <c r="Z51" s="30">
-        <f t="shared" ref="Z51:Z52" si="83">J51</f>
+      <c r="AA51" s="30">
+        <f t="shared" ref="AA51:AA52" si="92">J51</f>
         <v>2777.6330000000003</v>
       </c>
-      <c r="AA51" s="30">
-        <f t="shared" si="81"/>
+      <c r="AB51" s="30">
+        <f t="shared" si="90"/>
         <v>5561.9670000000006</v>
       </c>
-      <c r="AB51" s="30">
-        <f t="shared" si="82"/>
+      <c r="AC51" s="30">
+        <f t="shared" si="91"/>
         <v>6313.1779999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>88</v>
       </c>
@@ -16341,24 +16479,27 @@
       <c r="V52" s="87">
         <v>360.9</v>
       </c>
-      <c r="Y52" s="30">
-        <f t="shared" si="80"/>
+      <c r="W52" s="30">
+        <v>318.54700000000003</v>
+      </c>
+      <c r="Z52" s="30">
+        <f t="shared" si="89"/>
         <v>8.3859999999999992</v>
       </c>
-      <c r="Z52" s="30">
-        <f t="shared" si="83"/>
+      <c r="AA52" s="30">
+        <f t="shared" si="92"/>
         <v>33.479999999999997</v>
       </c>
-      <c r="AA52" s="30">
-        <f t="shared" si="81"/>
+      <c r="AB52" s="30">
+        <f t="shared" si="90"/>
         <v>111.282</v>
       </c>
-      <c r="AB52" s="30">
-        <f t="shared" si="82"/>
+      <c r="AC52" s="30">
+        <f t="shared" si="91"/>
         <v>263.29199999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>89</v>
       </c>
@@ -16378,57 +16519,61 @@
         <v>9487.4330000000009</v>
       </c>
       <c r="Q53" s="30">
-        <f t="shared" ref="Q53:V53" si="84">Q47+SUM(Q48:Q52)</f>
+        <f t="shared" ref="Q53:W53" si="93">Q47+SUM(Q48:Q52)</f>
         <v>12976.847000000002</v>
       </c>
       <c r="R53" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>12998.598</v>
       </c>
       <c r="S53" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>12890.802</v>
       </c>
       <c r="T53" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>12869.228999999999</v>
       </c>
       <c r="U53" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>12612.655999999999</v>
       </c>
       <c r="V53" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>12563.704999999998</v>
       </c>
-      <c r="Y53" s="30">
-        <f t="shared" ref="Y53:AB53" si="85">Y47+SUM(Y48:Y52)</f>
+      <c r="W53" s="30">
+        <f t="shared" si="93"/>
+        <v>12298.907999999999</v>
+      </c>
+      <c r="Z53" s="30">
+        <f t="shared" ref="Z53:AC53" si="94">Z47+SUM(Z48:Z52)</f>
         <v>1028.71</v>
       </c>
-      <c r="Z53" s="30">
-        <f t="shared" si="85"/>
+      <c r="AA53" s="30">
+        <f t="shared" si="94"/>
         <v>5115.0309999999999</v>
       </c>
-      <c r="AA53" s="30">
-        <f t="shared" si="85"/>
+      <c r="AB53" s="30">
+        <f t="shared" si="94"/>
         <v>9487.4330000000009</v>
       </c>
-      <c r="AB53" s="30">
-        <f t="shared" si="85"/>
+      <c r="AC53" s="30">
+        <f t="shared" si="94"/>
         <v>12998.598</v>
       </c>
     </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:40" x14ac:dyDescent="0.2">
       <c r="N54" s="30"/>
       <c r="Q54" s="30"/>
       <c r="S54" s="30"/>
       <c r="T54" s="30"/>
       <c r="U54" s="30"/>
       <c r="V54" s="87"/>
-      <c r="Y54" s="30"/>
       <c r="Z54" s="30"/>
-    </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AA54" s="30"/>
+    </row>
+    <row r="55" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>90</v>
       </c>
@@ -16459,24 +16604,27 @@
       <c r="V55" s="87">
         <v>124.605</v>
       </c>
-      <c r="Y55" s="30">
-        <f t="shared" ref="Y55:Y58" si="86">F55</f>
+      <c r="W55" s="30">
+        <v>121.157</v>
+      </c>
+      <c r="Z55" s="30">
+        <f t="shared" ref="Z55:Z58" si="95">F55</f>
         <v>18.495000000000001</v>
       </c>
-      <c r="Z55" s="30">
-        <f t="shared" ref="Z55:Z58" si="87">J55</f>
+      <c r="AA55" s="30">
+        <f t="shared" ref="AA55:AA58" si="96">J55</f>
         <v>39.098999999999997</v>
       </c>
-      <c r="AA55" s="30">
-        <f t="shared" ref="AA55:AA61" si="88">N55</f>
+      <c r="AB55" s="30">
+        <f t="shared" ref="AB55:AB61" si="97">N55</f>
         <v>60.042000000000002</v>
       </c>
-      <c r="AB55" s="30">
-        <f t="shared" ref="AB55:AB58" si="89">R55</f>
+      <c r="AC55" s="30">
+        <f t="shared" ref="AC55:AC58" si="98">R55</f>
         <v>93.332999999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>91</v>
       </c>
@@ -16507,24 +16655,27 @@
       <c r="V56" s="87">
         <v>490.221</v>
       </c>
-      <c r="Y56" s="30">
-        <f t="shared" si="86"/>
+      <c r="W56" s="30">
+        <v>475.87099999999998</v>
+      </c>
+      <c r="Z56" s="30">
+        <f t="shared" si="95"/>
         <v>96.343000000000004</v>
       </c>
-      <c r="Z56" s="30">
-        <f t="shared" si="87"/>
+      <c r="AA56" s="30">
+        <f t="shared" si="96"/>
         <v>147.68100000000001</v>
       </c>
-      <c r="AA56" s="30">
-        <f t="shared" si="88"/>
+      <c r="AB56" s="30">
+        <f t="shared" si="97"/>
         <v>252.89500000000001</v>
       </c>
-      <c r="AB56" s="30">
-        <f t="shared" si="89"/>
+      <c r="AC56" s="30">
+        <f t="shared" si="98"/>
         <v>417.50299999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>92</v>
       </c>
@@ -16555,24 +16706,27 @@
       <c r="V57" s="87">
         <v>139.11000000000001</v>
       </c>
-      <c r="Y57" s="30">
-        <f t="shared" si="86"/>
+      <c r="W57" s="30">
+        <v>136.517</v>
+      </c>
+      <c r="Z57" s="30">
+        <f t="shared" si="95"/>
         <v>22.972000000000001</v>
       </c>
-      <c r="Z57" s="30">
-        <f t="shared" si="87"/>
+      <c r="AA57" s="30">
+        <f t="shared" si="96"/>
         <v>26.361999999999998</v>
       </c>
-      <c r="AA57" s="30">
-        <f t="shared" si="88"/>
+      <c r="AB57" s="30">
+        <f t="shared" si="97"/>
         <v>87.031000000000006</v>
       </c>
-      <c r="AB57" s="30">
-        <f t="shared" si="89"/>
+      <c r="AC57" s="30">
+        <f t="shared" si="98"/>
         <v>140.38900000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>93</v>
       </c>
@@ -16603,24 +16757,27 @@
       <c r="V58" s="87">
         <v>54.22</v>
       </c>
-      <c r="Y58" s="30">
-        <f t="shared" si="86"/>
+      <c r="W58" s="30">
+        <v>54.904000000000003</v>
+      </c>
+      <c r="Z58" s="30">
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="30">
-        <f t="shared" si="87"/>
+      <c r="AA58" s="30">
+        <f t="shared" si="96"/>
         <v>27.155999999999999</v>
       </c>
-      <c r="AA58" s="30">
-        <f t="shared" si="88"/>
+      <c r="AB58" s="30">
+        <f t="shared" si="97"/>
         <v>48.338000000000001</v>
       </c>
-      <c r="AB58" s="30">
-        <f t="shared" si="89"/>
+      <c r="AC58" s="30">
+        <f t="shared" si="98"/>
         <v>52.325000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>95</v>
       </c>
@@ -16651,24 +16808,27 @@
       <c r="V59" s="87">
         <v>0</v>
       </c>
-      <c r="Y59" s="30">
+      <c r="W59" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="30">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Z59" s="30">
+      <c r="AA59" s="30">
         <f>J59</f>
         <v>6.9240000000000004</v>
       </c>
-      <c r="AA59" s="30">
-        <f t="shared" si="88"/>
+      <c r="AB59" s="30">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="AB59" s="30">
+      <c r="AC59" s="30">
         <f>R59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>94</v>
       </c>
@@ -16685,15 +16845,15 @@
         <v>448.30600000000004</v>
       </c>
       <c r="Q60" s="30">
-        <f t="shared" ref="Q60:S60" si="90">SUM(Q55:Q59)</f>
+        <f t="shared" ref="Q60:S60" si="99">SUM(Q55:Q59)</f>
         <v>617.25300000000004</v>
       </c>
       <c r="R60" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>703.55000000000007</v>
       </c>
       <c r="S60" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v>719.82200000000012</v>
       </c>
       <c r="T60" s="30">
@@ -16708,24 +16868,28 @@
         <f>SUM(V55:V59)</f>
         <v>808.15600000000006</v>
       </c>
-      <c r="Y60" s="30">
-        <f>SUM(Y55:Y59)</f>
-        <v>137.81</v>
+      <c r="W60" s="30">
+        <f>SUM(W55:W59)</f>
+        <v>788.44900000000007</v>
       </c>
       <c r="Z60" s="30">
         <f>SUM(Z55:Z59)</f>
-        <v>247.22200000000001</v>
+        <v>137.81</v>
       </c>
       <c r="AA60" s="30">
         <f>SUM(AA55:AA59)</f>
-        <v>448.30600000000004</v>
+        <v>247.22200000000001</v>
       </c>
       <c r="AB60" s="30">
         <f>SUM(AB55:AB59)</f>
+        <v>448.30600000000004</v>
+      </c>
+      <c r="AC60" s="30">
+        <f>SUM(AC55:AC59)</f>
         <v>703.55000000000007</v>
       </c>
     </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>93</v>
       </c>
@@ -16756,24 +16920,27 @@
       <c r="V61" s="87">
         <v>164.55099999999999</v>
       </c>
-      <c r="Y61" s="30">
-        <f t="shared" ref="Y61:Y64" si="91">F61</f>
+      <c r="W61" s="30">
+        <v>162.114</v>
+      </c>
+      <c r="Z61" s="30">
+        <f t="shared" ref="Z61:Z64" si="100">F61</f>
         <v>0</v>
       </c>
-      <c r="Z61" s="30">
-        <f t="shared" ref="Z61:Z64" si="92">J61</f>
+      <c r="AA61" s="30">
+        <f t="shared" ref="AA61:AA64" si="101">J61</f>
         <v>139.19999999999999</v>
       </c>
-      <c r="AA61" s="30">
-        <f t="shared" si="88"/>
+      <c r="AB61" s="30">
+        <f t="shared" si="97"/>
         <v>229.905</v>
       </c>
-      <c r="AB61" s="30">
-        <f t="shared" ref="AB61" si="93">R61</f>
+      <c r="AC61" s="30">
+        <f t="shared" ref="AC61" si="102">R61</f>
         <v>211.25299999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>95</v>
       </c>
@@ -16804,25 +16971,27 @@
       <c r="V62" s="86">
         <v>21.29</v>
       </c>
-      <c r="Y62" s="29">
-        <f t="shared" si="91"/>
+      <c r="W62" s="29">
+        <v>17.832000000000001</v>
+      </c>
+      <c r="Z62" s="29">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="Z62" s="29">
-        <f t="shared" si="92"/>
+      <c r="AA62" s="29">
+        <f t="shared" si="101"/>
         <v>8.7460000000000004</v>
       </c>
-      <c r="AA62" s="29">
-        <f t="shared" ref="AA62" si="94">N62</f>
+      <c r="AB62" s="29">
+        <f t="shared" ref="AB62" si="103">N62</f>
         <v>17.856000000000002</v>
       </c>
-      <c r="AB62" s="29">
+      <c r="AC62" s="29">
         <f>R62</f>
         <v>25.132000000000001</v>
       </c>
-      <c r="AC62" s="111"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="70"/>
+      <c r="AD62" s="111"/>
+      <c r="AE62" s="55"/>
       <c r="AF62" s="70"/>
       <c r="AG62" s="70"/>
       <c r="AH62" s="70"/>
@@ -16831,8 +17000,9 @@
       <c r="AK62" s="70"/>
       <c r="AL62" s="70"/>
       <c r="AM62" s="70"/>
-    </row>
-    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN62" s="70"/>
+    </row>
+    <row r="63" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
@@ -16863,25 +17033,27 @@
       <c r="V63" s="86">
         <v>987.38199999999995</v>
       </c>
-      <c r="Y63" s="29">
-        <f t="shared" si="91"/>
+      <c r="W63" s="29">
+        <v>987.76900000000001</v>
+      </c>
+      <c r="Z63" s="29">
+        <f t="shared" si="100"/>
         <v>434.49599999999998</v>
       </c>
-      <c r="Z63" s="29">
-        <f t="shared" si="92"/>
+      <c r="AA63" s="29">
+        <f t="shared" si="101"/>
         <v>458.19</v>
       </c>
-      <c r="AA63" s="29">
-        <f t="shared" ref="AA63:AA64" si="95">N63</f>
+      <c r="AB63" s="29">
+        <f t="shared" ref="AB63:AB64" si="104">N63</f>
         <v>302.06799999999998</v>
       </c>
-      <c r="AB63" s="29">
-        <f t="shared" ref="AB63:AB64" si="96">R63</f>
+      <c r="AC63" s="29">
+        <f t="shared" ref="AC63:AC64" si="105">R63</f>
         <v>985.90700000000004</v>
       </c>
-      <c r="AC63" s="111"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="70"/>
+      <c r="AD63" s="111"/>
+      <c r="AE63" s="55"/>
       <c r="AF63" s="70"/>
       <c r="AG63" s="70"/>
       <c r="AH63" s="70"/>
@@ -16890,8 +17062,9 @@
       <c r="AK63" s="70"/>
       <c r="AL63" s="70"/>
       <c r="AM63" s="70"/>
-    </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AN63" s="70"/>
+    </row>
+    <row r="64" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>97</v>
       </c>
@@ -16922,24 +17095,27 @@
       <c r="V64" s="87">
         <v>23.881</v>
       </c>
-      <c r="Y64" s="30">
-        <f t="shared" si="91"/>
+      <c r="W64" s="30">
+        <v>23.878</v>
+      </c>
+      <c r="Z64" s="30">
+        <f t="shared" si="100"/>
         <v>18.169</v>
       </c>
-      <c r="Z64" s="30">
-        <f t="shared" si="92"/>
+      <c r="AA64" s="30">
+        <f t="shared" si="101"/>
         <v>17.747</v>
       </c>
-      <c r="AA64" s="30">
-        <f t="shared" si="95"/>
+      <c r="AB64" s="30">
+        <f t="shared" si="104"/>
         <v>36.633000000000003</v>
       </c>
-      <c r="AB64" s="30">
-        <f t="shared" si="96"/>
+      <c r="AC64" s="30">
+        <f t="shared" si="105"/>
         <v>41.29</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>98</v>
       </c>
@@ -16956,52 +17132,56 @@
         <v>1034.768</v>
       </c>
       <c r="Q65" s="30">
-        <f t="shared" ref="Q65:V65" si="97">SUM(Q61:Q64)+Q60</f>
+        <f t="shared" ref="Q65:W65" si="106">SUM(Q61:Q64)+Q60</f>
         <v>1895.2780000000002</v>
       </c>
       <c r="R65" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>1967.1320000000001</v>
       </c>
       <c r="S65" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>1973.3690000000001</v>
       </c>
       <c r="T65" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>2027.2339999999999</v>
       </c>
       <c r="U65" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>2081.768</v>
       </c>
       <c r="V65" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>2005.2600000000002</v>
       </c>
-      <c r="Y65" s="30">
-        <f t="shared" ref="Y65:Z65" si="98">SUM(Y61:Y64)+Y60</f>
+      <c r="W65" s="30">
+        <f t="shared" si="106"/>
+        <v>1980.0419999999999</v>
+      </c>
+      <c r="Z65" s="30">
+        <f t="shared" ref="Z65:AA65" si="107">SUM(Z61:Z64)+Z60</f>
         <v>590.47499999999991</v>
       </c>
-      <c r="Z65" s="30">
-        <f t="shared" si="98"/>
+      <c r="AA65" s="30">
+        <f t="shared" si="107"/>
         <v>871.1049999999999</v>
-      </c>
-      <c r="AA65" s="30">
-        <f>SUM(AA61:AA64)+AA60</f>
-        <v>1034.768</v>
       </c>
       <c r="AB65" s="30">
         <f>SUM(AB61:AB64)+AB60</f>
+        <v>1034.768</v>
+      </c>
+      <c r="AC65" s="30">
+        <f>SUM(AC61:AC64)+AC60</f>
         <v>1967.1320000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="T66" s="30"/>
-      <c r="Y66" s="30"/>
       <c r="Z66" s="30"/>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AA66" s="30"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>99</v>
       </c>
@@ -17032,24 +17212,27 @@
       <c r="V67" s="87">
         <v>10559.041999999999</v>
       </c>
-      <c r="Y67" s="30">
+      <c r="W67" s="30">
+        <v>10318.866</v>
+      </c>
+      <c r="Z67" s="30">
         <f>F67</f>
         <v>438.23500000000001</v>
       </c>
-      <c r="Z67" s="30">
+      <c r="AA67" s="30">
         <f>J67</f>
         <v>4279.4110000000001</v>
       </c>
-      <c r="AA67" s="30">
+      <c r="AB67" s="30">
         <f>N67</f>
         <v>8452.6650000000009</v>
       </c>
-      <c r="AB67" s="30">
+      <c r="AC67" s="30">
         <f>R67</f>
         <v>11031.466</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>100</v>
       </c>
@@ -17066,76 +17249,80 @@
         <v>9487.4330000000009</v>
       </c>
       <c r="Q68" s="30">
-        <f t="shared" ref="Q68:V68" si="99">Q67+Q65</f>
+        <f t="shared" ref="Q68:W68" si="108">Q67+Q65</f>
         <v>12977.027</v>
       </c>
       <c r="R68" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>12998.598</v>
       </c>
       <c r="S68" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>12890.802000000001</v>
       </c>
       <c r="T68" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>12869.229000000001</v>
       </c>
       <c r="U68" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>12612.656000000001</v>
       </c>
       <c r="V68" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>12564.302</v>
       </c>
-      <c r="Y68" s="30">
-        <f>Y67+Y65</f>
-        <v>1028.71</v>
+      <c r="W68" s="30">
+        <f t="shared" si="108"/>
+        <v>12298.907999999999</v>
       </c>
       <c r="Z68" s="30">
         <f>Z67+Z65</f>
-        <v>5150.5159999999996</v>
+        <v>1028.71</v>
       </c>
       <c r="AA68" s="30">
         <f>AA67+AA65</f>
-        <v>9487.4330000000009</v>
+        <v>5150.5159999999996</v>
       </c>
       <c r="AB68" s="30">
         <f>AB67+AB65</f>
+        <v>9487.4330000000009</v>
+      </c>
+      <c r="AC68" s="30">
+        <f>AC67+AC65</f>
         <v>12998.598</v>
       </c>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="Y69" s="30"/>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Z69" s="30"/>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AA69" s="30"/>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F70" s="30">
-        <f t="shared" ref="F70" si="100">F53-F65</f>
+        <f t="shared" ref="F70" si="109">F53-F65</f>
         <v>438.23500000000013</v>
       </c>
       <c r="J70" s="30">
-        <f t="shared" ref="J70" si="101">J53-J65</f>
+        <f t="shared" ref="J70" si="110">J53-J65</f>
         <v>4259.411000000001</v>
       </c>
       <c r="N70" s="30">
-        <f t="shared" ref="N70" si="102">N53-N65</f>
+        <f t="shared" ref="N70" si="111">N53-N65</f>
         <v>8452.6650000000009</v>
       </c>
       <c r="Q70" s="30">
-        <f t="shared" ref="Q70:R70" si="103">Q53-Q65</f>
+        <f t="shared" ref="Q70:R70" si="112">Q53-Q65</f>
         <v>11081.569000000001</v>
       </c>
       <c r="R70" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>11031.466</v>
       </c>
       <c r="S70" s="30">
-        <f t="shared" ref="S70" si="104">S53-S65</f>
+        <f t="shared" ref="S70" si="113">S53-S65</f>
         <v>10917.432999999999</v>
       </c>
       <c r="T70" s="30">
@@ -17143,56 +17330,60 @@
         <v>10841.994999999999</v>
       </c>
       <c r="U70" s="30">
-        <f t="shared" ref="U70:V70" si="105">U53-U65</f>
+        <f t="shared" ref="U70:V70" si="114">U53-U65</f>
         <v>10530.887999999999</v>
       </c>
       <c r="V70" s="30">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>10558.444999999998</v>
       </c>
-      <c r="Y70" s="30">
-        <f>Y53-Y65</f>
-        <v>438.23500000000013</v>
+      <c r="W70" s="30">
+        <f t="shared" ref="W70" si="115">W53-W65</f>
+        <v>10318.866</v>
       </c>
       <c r="Z70" s="30">
         <f>Z53-Z65</f>
-        <v>4243.9260000000004</v>
+        <v>438.23500000000013</v>
       </c>
       <c r="AA70" s="30">
         <f>AA53-AA65</f>
-        <v>8452.6650000000009</v>
+        <v>4243.9260000000004</v>
       </c>
       <c r="AB70" s="30">
         <f>AB53-AB65</f>
+        <v>8452.6650000000009</v>
+      </c>
+      <c r="AC70" s="30">
+        <f>AC53-AC65</f>
         <v>11031.466</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" ref="F71" si="106">F70/F20</f>
+        <f t="shared" ref="F71" si="116">F70/F20</f>
         <v>4.4080086658029467</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" ref="J71" si="107">J70/J20</f>
+        <f t="shared" ref="J71" si="117">J70/J20</f>
         <v>30.926123407736053</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" ref="N71" si="108">N70/N20</f>
+        <f t="shared" ref="N71" si="118">N70/N20</f>
         <v>53.368623979541908</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" ref="Q71" si="109">Q70/Q20</f>
+        <f t="shared" ref="Q71" si="119">Q70/Q20</f>
         <v>62.526032015171587</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" ref="R71" si="110">R70/R20</f>
+        <f t="shared" ref="R71" si="120">R70/R20</f>
         <v>61.650794916840383</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" ref="S71" si="111">S70/S20</f>
+        <f t="shared" ref="S71" si="121">S70/S20</f>
         <v>60.351081657501894</v>
       </c>
       <c r="T71" s="1">
@@ -17200,36 +17391,40 @@
         <v>59.457757070299436</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" ref="U71:V71" si="112">U70/U20</f>
+        <f t="shared" ref="U71:V71" si="122">U70/U20</f>
         <v>57.328874782323787</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>57.035463273037927</v>
       </c>
-      <c r="Y71" s="1">
-        <f>Y70/Y20</f>
-        <v>4.511824055303669</v>
+      <c r="W71" s="1">
+        <f t="shared" ref="W71" si="123">W70/W20</f>
+        <v>55.3577285781491</v>
       </c>
       <c r="Z71" s="1">
         <f>Z70/Z20</f>
-        <v>32.624743427364088</v>
+        <v>4.511824055303669</v>
       </c>
       <c r="AA71" s="1">
         <f>AA70/AA20</f>
-        <v>57.615309329074869</v>
+        <v>32.624743427364088</v>
       </c>
       <c r="AB71" s="1">
         <f>AB70/AB20</f>
+        <v>57.615309329074869</v>
+      </c>
+      <c r="AC71" s="1">
+        <f>AC70/AC20</f>
         <v>63.333543173168131</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="V72" s="1"/>
-      <c r="Y72" s="30"/>
       <c r="Z72" s="30"/>
-    </row>
-    <row r="73" spans="2:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="30"/>
+    </row>
+    <row r="73" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="35" t="s">
         <v>6</v>
       </c>
@@ -17246,7 +17441,7 @@
         <v>3039.7910000000002</v>
       </c>
       <c r="Q73" s="36">
-        <f t="shared" ref="Q73" si="113">Q43+Q44</f>
+        <f t="shared" ref="Q73" si="124">Q43+Q44</f>
         <v>5394.2520000000004</v>
       </c>
       <c r="R73" s="36">
@@ -17262,33 +17457,37 @@
         <v>4392.2839999999997</v>
       </c>
       <c r="U73" s="36">
-        <f t="shared" ref="U73:V73" si="114">U43+U44</f>
+        <f t="shared" ref="U73:V73" si="125">U43+U44</f>
         <v>4208.5450000000001</v>
       </c>
       <c r="V73" s="36">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>4155.0689999999995</v>
       </c>
-      <c r="Y73" s="36">
+      <c r="W73" s="36">
+        <f t="shared" ref="W73" si="126">W43+W44</f>
+        <v>3945.3070000000002</v>
+      </c>
+      <c r="Z73" s="36">
         <f>F73</f>
         <v>748.34299999999996</v>
       </c>
-      <c r="Z73" s="36">
+      <c r="AA73" s="36">
         <f>J73</f>
         <v>1812.693</v>
       </c>
-      <c r="AA73" s="36">
+      <c r="AB73" s="36">
         <f>N73</f>
         <v>3039.7910000000002</v>
       </c>
-      <c r="AB73" s="36">
+      <c r="AC73" s="36">
         <f>R73</f>
         <v>5357.8819999999996</v>
       </c>
-      <c r="AC73" s="93"/>
-      <c r="AD73" s="52"/>
-    </row>
-    <row r="74" spans="2:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD73" s="93"/>
+      <c r="AE73" s="52"/>
+    </row>
+    <row r="74" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>7</v>
       </c>
@@ -17321,58 +17520,62 @@
         <v>1005.554</v>
       </c>
       <c r="U74" s="36">
-        <f t="shared" ref="U74:V74" si="115">U62+U63+U59</f>
+        <f t="shared" ref="U74:V74" si="127">U62+U63+U59</f>
         <v>1011.827</v>
       </c>
       <c r="V74" s="36">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>1008.6719999999999</v>
       </c>
-      <c r="Y74" s="36">
+      <c r="W74" s="36">
+        <f t="shared" ref="W74" si="128">W62+W63+W59</f>
+        <v>1005.601</v>
+      </c>
+      <c r="Z74" s="36">
         <f>F74</f>
         <v>434.49599999999998</v>
       </c>
-      <c r="Z74" s="36">
+      <c r="AA74" s="36">
         <f>J74</f>
         <v>473.85999999999996</v>
       </c>
-      <c r="AA74" s="36">
+      <c r="AB74" s="36">
         <f>N74</f>
         <v>319.92399999999998</v>
       </c>
-      <c r="AB74" s="36">
+      <c r="AC74" s="36">
         <f>R74</f>
         <v>1011.039</v>
       </c>
-      <c r="AC74" s="93"/>
-      <c r="AD74" s="52"/>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD74" s="93"/>
+      <c r="AE74" s="52"/>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="30">
-        <f t="shared" ref="F75" si="116">F73-F74</f>
+        <f t="shared" ref="F75" si="129">F73-F74</f>
         <v>313.84699999999998</v>
       </c>
       <c r="J75" s="30">
-        <f t="shared" ref="J75" si="117">J73-J74</f>
+        <f t="shared" ref="J75" si="130">J73-J74</f>
         <v>1338.8330000000001</v>
       </c>
       <c r="N75" s="30">
-        <f t="shared" ref="N75" si="118">N73-N74</f>
+        <f t="shared" ref="N75" si="131">N73-N74</f>
         <v>2719.8670000000002</v>
       </c>
       <c r="Q75" s="30">
-        <f t="shared" ref="Q75" si="119">Q73-Q74</f>
+        <f t="shared" ref="Q75" si="132">Q73-Q74</f>
         <v>4388.451</v>
       </c>
       <c r="R75" s="30">
-        <f t="shared" ref="R75" si="120">R73-R74</f>
+        <f t="shared" ref="R75" si="133">R73-R74</f>
         <v>4346.8429999999998</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" ref="S75" si="121">S73-S74</f>
+        <f t="shared" ref="S75" si="134">S73-S74</f>
         <v>4215.0159999999996</v>
       </c>
       <c r="T75" s="30">
@@ -17380,31 +17583,35 @@
         <v>3386.7299999999996</v>
       </c>
       <c r="U75" s="30">
-        <f t="shared" ref="U75:V75" si="122">U73-U74</f>
+        <f t="shared" ref="U75:V75" si="135">U73-U74</f>
         <v>3196.7179999999998</v>
       </c>
       <c r="V75" s="30">
-        <f t="shared" si="122"/>
+        <f t="shared" si="135"/>
         <v>3146.3969999999995</v>
       </c>
-      <c r="Y75" s="30">
-        <f>Y73-Y74</f>
-        <v>313.84699999999998</v>
+      <c r="W75" s="30">
+        <f t="shared" ref="W75" si="136">W73-W74</f>
+        <v>2939.7060000000001</v>
       </c>
       <c r="Z75" s="30">
         <f>Z73-Z74</f>
-        <v>1338.8330000000001</v>
+        <v>313.84699999999998</v>
       </c>
       <c r="AA75" s="30">
         <f>AA73-AA74</f>
-        <v>2719.8670000000002</v>
+        <v>1338.8330000000001</v>
       </c>
       <c r="AB75" s="30">
         <f>AB73-AB74</f>
+        <v>2719.8670000000002</v>
+      </c>
+      <c r="AC75" s="30">
+        <f>AC73-AC74</f>
         <v>4346.8429999999998</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
@@ -17444,117 +17651,124 @@
       <c r="V77" s="91">
         <v>48.96</v>
       </c>
-      <c r="Y77" s="44">
-        <v>98.28</v>
+      <c r="W77" s="1">
+        <v>66.63</v>
       </c>
       <c r="Z77" s="44">
         <v>98.28</v>
       </c>
       <c r="AA77" s="44">
+        <v>98.28</v>
+      </c>
+      <c r="AB77" s="44">
         <f>N77</f>
         <v>338.5</v>
       </c>
-      <c r="AB77" s="1">
+      <c r="AC77" s="1">
         <f>R77</f>
         <v>263.33999999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="30">
-        <f t="shared" ref="F78" si="123">F77*F20</f>
+        <f t="shared" ref="F78" si="137">F77*F20</f>
         <v>8878.0191844000001</v>
       </c>
       <c r="J78" s="30">
-        <f t="shared" ref="J78" si="124">J77*J20</f>
+        <f t="shared" ref="J78" si="138">J77*J20</f>
         <v>13535.96464584</v>
       </c>
       <c r="M78" s="30">
-        <f t="shared" ref="M78:T78" si="125">M77*M20</f>
+        <f t="shared" ref="M78:T78" si="139">M77*M20</f>
         <v>36446.040621749999</v>
       </c>
       <c r="N78" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="139"/>
         <v>53612.532779499998</v>
       </c>
       <c r="O78" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="139"/>
         <v>56961.597668080001</v>
       </c>
       <c r="P78" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="139"/>
         <v>68350.181163679998</v>
       </c>
       <c r="Q78" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="139"/>
         <v>56545.641479250007</v>
       </c>
       <c r="R78" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="139"/>
         <v>47120.661791279999</v>
       </c>
       <c r="S78" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="139"/>
         <v>29813.916889529999</v>
       </c>
       <c r="T78" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="139"/>
         <v>15282.57448184</v>
       </c>
       <c r="U78" s="30">
-        <f t="shared" ref="U78:V78" si="126">U77*U20</f>
+        <f t="shared" ref="U78:V78" si="140">U77*U20</f>
         <v>12700.503874960001</v>
       </c>
       <c r="V78" s="30">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>9063.5095699199992</v>
       </c>
-      <c r="Y78" s="30">
-        <f t="shared" ref="Y78" si="127">Y77*Y20</f>
+      <c r="W78" s="30">
+        <f t="shared" ref="W78" si="141">W77*W20</f>
+        <v>12420.055143869999</v>
+      </c>
+      <c r="Z78" s="30">
+        <f t="shared" ref="Z78" si="142">Z77*Z20</f>
         <v>9545.9697169200008</v>
-      </c>
-      <c r="Z78" s="30">
-        <f>Z77*Z20</f>
-        <v>12784.56176088</v>
       </c>
       <c r="AA78" s="30">
         <f>AA77*AA20</f>
-        <v>49660.8824255</v>
+        <v>12784.56176088</v>
       </c>
       <c r="AB78" s="30">
         <f>AB77*AB20</f>
+        <v>49660.8824255</v>
+      </c>
+      <c r="AC78" s="30">
+        <f>AC77*AC20</f>
         <v>45868.683653099994</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="30">
-        <f t="shared" ref="F79" si="128">F78-F75</f>
+        <f t="shared" ref="F79" si="143">F78-F75</f>
         <v>8564.1721844000003</v>
       </c>
       <c r="J79" s="30">
-        <f t="shared" ref="J79" si="129">J78-J75</f>
+        <f t="shared" ref="J79" si="144">J78-J75</f>
         <v>12197.13164584</v>
       </c>
       <c r="N79" s="30">
-        <f t="shared" ref="N79" si="130">N78-N75</f>
+        <f t="shared" ref="N79" si="145">N78-N75</f>
         <v>50892.665779499999</v>
       </c>
       <c r="P79" s="30"/>
       <c r="Q79" s="30">
-        <f t="shared" ref="Q79:R79" si="131">Q78-Q75</f>
+        <f t="shared" ref="Q79:R79" si="146">Q78-Q75</f>
         <v>52157.190479250006</v>
       </c>
       <c r="R79" s="30">
-        <f t="shared" si="131"/>
+        <f t="shared" si="146"/>
         <v>42773.818791279999</v>
       </c>
       <c r="S79" s="30">
-        <f t="shared" ref="S79" si="132">S78-S75</f>
+        <f t="shared" ref="S79" si="147">S78-S75</f>
         <v>25598.900889529999</v>
       </c>
       <c r="T79" s="30">
@@ -17562,31 +17776,35 @@
         <v>11895.84448184</v>
       </c>
       <c r="U79" s="30">
-        <f t="shared" ref="U79:V79" si="133">U78-U75</f>
+        <f t="shared" ref="U79:V79" si="148">U78-U75</f>
         <v>9503.7858749600018</v>
       </c>
       <c r="V79" s="30">
-        <f t="shared" si="133"/>
+        <f t="shared" si="148"/>
         <v>5917.1125699200002</v>
       </c>
-      <c r="Y79" s="30">
-        <f t="shared" ref="Y79" si="134">Y78-Y75</f>
+      <c r="W79" s="30">
+        <f t="shared" ref="W79" si="149">W78-W75</f>
+        <v>9480.3491438699984</v>
+      </c>
+      <c r="Z79" s="30">
+        <f t="shared" ref="Z79" si="150">Z78-Z75</f>
         <v>9232.122716920001</v>
       </c>
-      <c r="Z79" s="30">
-        <f t="shared" ref="Z79:AA79" si="135">Z78-Z75</f>
+      <c r="AA79" s="30">
+        <f t="shared" ref="AA79:AB79" si="151">AA78-AA75</f>
         <v>11445.72876088</v>
       </c>
-      <c r="AA79" s="30">
-        <f t="shared" si="135"/>
+      <c r="AB79" s="30">
+        <f t="shared" si="151"/>
         <v>46941.015425500002</v>
       </c>
-      <c r="AB79" s="30">
-        <f t="shared" ref="AB79" si="136">AB78-AB75</f>
+      <c r="AC79" s="30">
+        <f t="shared" ref="AC79" si="152">AC78-AC75</f>
         <v>41521.840653099993</v>
       </c>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>103</v>
       </c>
@@ -17603,7 +17821,7 @@
         <v>6.3426780523657325</v>
       </c>
       <c r="Q81" s="37">
-        <f t="shared" ref="Q81" si="137">Q77/Q71</f>
+        <f t="shared" ref="Q81" si="153">Q77/Q71</f>
         <v>5.1026746735277291</v>
       </c>
       <c r="R81" s="37">
@@ -17619,31 +17837,35 @@
         <v>1.4095721757702342</v>
       </c>
       <c r="U81" s="37">
-        <f t="shared" ref="U81:V81" si="138">U77/U71</f>
+        <f t="shared" ref="U81:V81" si="154">U77/U71</f>
         <v>1.206024019528078</v>
       </c>
       <c r="V81" s="37">
-        <f t="shared" si="138"/>
+        <f t="shared" si="154"/>
         <v>0.85841329570026659</v>
       </c>
-      <c r="Y81" s="37">
-        <f t="shared" ref="Y81" si="139">Y77/Y71</f>
+      <c r="W81" s="37">
+        <f t="shared" ref="W81" si="155">W77/W71</f>
+        <v>1.2036259743919533</v>
+      </c>
+      <c r="Z81" s="37">
+        <f t="shared" ref="Z81" si="156">Z77/Z71</f>
         <v>21.782764308921006</v>
       </c>
-      <c r="Z81" s="37">
-        <f t="shared" ref="Z81" si="140">Z77/Z71</f>
+      <c r="AA81" s="37">
+        <f t="shared" ref="AA81" si="157">AA77/AA71</f>
         <v>3.0124374838015551</v>
-      </c>
-      <c r="AA81" s="37">
-        <f>AA77/AA71</f>
-        <v>5.8751745663054189</v>
       </c>
       <c r="AB81" s="37">
         <f>AB77/AB71</f>
+        <v>5.8751745663054189</v>
+      </c>
+      <c r="AC81" s="37">
+        <f>AC77/AC71</f>
         <v>4.1579862235082805</v>
       </c>
     </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>105</v>
       </c>
@@ -17672,44 +17894,48 @@
         <v>3.4848498391023606</v>
       </c>
       <c r="V82" s="37">
-        <f t="shared" ref="V82" si="141">V78/SUM(S4:V4)</f>
+        <f t="shared" ref="V82" si="158">V78/SUM(S4:V4)</f>
         <v>2.3687269233083157</v>
       </c>
-      <c r="Y82" s="37">
-        <f>Y78/Y4</f>
-        <v>14.684593614073627</v>
+      <c r="W82" s="37">
+        <f t="shared" ref="W82" si="159">W78/SUM(T4:W4)</f>
+        <v>3.1383414024912555</v>
       </c>
       <c r="Z82" s="37">
         <f>Z78/Z4</f>
-        <v>11.269213200266556</v>
+        <v>14.684593614073627</v>
       </c>
       <c r="AA82" s="37">
         <f>AA78/AA4</f>
-        <v>28.187966248546921</v>
+        <v>11.269213200266556</v>
       </c>
       <c r="AB82" s="37">
         <f>AB78/AB4</f>
+        <v>28.187966248546921</v>
+      </c>
+      <c r="AC82" s="37">
+        <f>AC78/AC4</f>
         <v>16.140493410464138</v>
       </c>
     </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>104</v>
       </c>
       <c r="N83" s="37">
-        <f t="shared" ref="N83" si="142">N77/SUM(K19:N19)</f>
+        <f t="shared" ref="N83" si="160">N77/SUM(K19:N19)</f>
         <v>-175.84216103089744</v>
       </c>
       <c r="Q83" s="37">
-        <f t="shared" ref="Q83" si="143">Q77/SUM(N19:Q19)</f>
+        <f t="shared" ref="Q83" si="161">Q77/SUM(N19:Q19)</f>
         <v>-64.500694009685063</v>
       </c>
       <c r="R83" s="37">
-        <f t="shared" ref="R83:S83" si="144">R77/SUM(O19:R19)</f>
+        <f t="shared" ref="R83:S83" si="162">R77/SUM(O19:R19)</f>
         <v>-48.385204422553002</v>
       </c>
       <c r="S83" s="37">
-        <f t="shared" si="144"/>
+        <f t="shared" si="162"/>
         <v>-30.339872026893296</v>
       </c>
       <c r="T83" s="37">
@@ -17717,27 +17943,31 @@
         <v>-14.233498713981406</v>
       </c>
       <c r="U83" s="37">
-        <f t="shared" ref="U83" si="145">U77/SUM(R19:U19)</f>
+        <f t="shared" ref="U83" si="163">U77/SUM(R19:U19)</f>
         <v>-9.5372734774675205</v>
       </c>
       <c r="V83" s="37">
-        <f t="shared" ref="V83" si="146">V77/SUM(S19:V19)</f>
+        <f t="shared" ref="V83" si="164">V77/SUM(S19:V19)</f>
         <v>-7.1367589673809659</v>
       </c>
-      <c r="Y83" s="37">
-        <f t="shared" ref="Y83:Z83" si="147">Y77/Y19</f>
+      <c r="W83" s="37">
+        <f t="shared" ref="W83" si="165">W77/SUM(T19:W19)</f>
+        <v>-8.9189749444048587</v>
+      </c>
+      <c r="Z83" s="37">
+        <f t="shared" ref="Z83:AA83" si="166">Z77/Z19</f>
         <v>-78.278376345193479</v>
       </c>
-      <c r="Z83" s="37">
-        <f t="shared" si="147"/>
+      <c r="AA83" s="37">
+        <f t="shared" si="166"/>
         <v>-41.634979665019884</v>
-      </c>
-      <c r="AA83" s="37">
-        <f>AA77/AA19</f>
-        <v>-101.14665276009771</v>
       </c>
       <c r="AB83" s="37">
         <f>AB77/AB19</f>
+        <v>-101.14665276009771</v>
+      </c>
+      <c r="AC83" s="37">
+        <f>AC77/AC19</f>
         <v>-48.287907835666907</v>
       </c>
     </row>
@@ -17746,23 +17976,24 @@
     <hyperlink ref="T1" r:id="rId1" xr:uid="{A7A5BBDF-38B5-4BC3-94A5-ED2C969CF757}"/>
     <hyperlink ref="S1" r:id="rId2" xr:uid="{A6D6F957-F960-45B2-92A0-A41F2E0A1924}"/>
     <hyperlink ref="R1" r:id="rId3" xr:uid="{A293EABB-9A75-4B29-8553-BB352A36DBB6}"/>
-    <hyperlink ref="AB1" r:id="rId4" xr:uid="{442A1034-B338-4801-AF1E-61BA7E0E77AC}"/>
+    <hyperlink ref="AC1" r:id="rId4" xr:uid="{442A1034-B338-4801-AF1E-61BA7E0E77AC}"/>
     <hyperlink ref="Q1" r:id="rId5" xr:uid="{BA74861F-598C-41FE-BE22-C6AA1B8966A6}"/>
-    <hyperlink ref="Z1" r:id="rId6" xr:uid="{4D41E43B-78DD-4BC7-9AA5-4C75C95D3E6E}"/>
-    <hyperlink ref="Y1" r:id="rId7" xr:uid="{620C08C8-E4C1-490D-823F-7D8C45A07CBD}"/>
+    <hyperlink ref="AA1" r:id="rId6" xr:uid="{4D41E43B-78DD-4BC7-9AA5-4C75C95D3E6E}"/>
+    <hyperlink ref="Z1" r:id="rId7" xr:uid="{620C08C8-E4C1-490D-823F-7D8C45A07CBD}"/>
     <hyperlink ref="J1" r:id="rId8" xr:uid="{A20F0590-51BB-47FE-A2F0-ABB514CD183A}"/>
     <hyperlink ref="U1" r:id="rId9" xr:uid="{AFB77E95-5EDC-441A-8256-717B30720354}"/>
     <hyperlink ref="V1" r:id="rId10" xr:uid="{B8CEE0E3-E143-44FB-A028-EFA8A79E601B}"/>
+    <hyperlink ref="W1" r:id="rId11" xr:uid="{188B35ED-0C2E-4E52-8D9F-9C0DAE9FA947}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId12"/>
   <ignoredErrors>
-    <ignoredError sqref="Y47:AB47 Y61:AB65 Y53 AA53:AB53 Y51:AB52 Y50 AA50:AB50 Y49:AB49 Y48 AA48:AB48 Y54:AB58 W60:AB60 AD17:AM17 AC1 AC6 AC24:AC32 AC39:AC1048576 AC16" formula="1"/>
-    <ignoredError sqref="N82:P82 S82 Q82:R82 T82 AC20 U82:V82" formulaRange="1"/>
-    <ignoredError sqref="AC21:AC23 AC4:AC5 AC7:AC15 AC18 AC17" formula="1" formulaRange="1"/>
+    <ignoredError sqref="Z47:AC47 Z53 AB53:AC53 Z51:AC52 Z50 AB50:AC50 Z49:AC49 Z48 AB48:AC48 Z54:AC58 Z60:AC65 AE17:AN17 AD1 AD6 AD24:AD32 AD39:AD1048576 AD16 X60" formula="1"/>
+    <ignoredError sqref="N82:P82 S82 Q82:R82 T82 AD20 U82 V82:W82" formulaRange="1"/>
+    <ignoredError sqref="AD21:AD23 AD4:AD5 AD7:AD15 AD18 AD17" formula="1" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <drawing r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 
